--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\COVID-19 At Risk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99308C3C-94F7-48EF-BBC6-0C0599E52A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF91C8-95F9-4134-9B0E-E2CE7923932A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1619,7 +1619,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> COVID-19 Accumulative Infections by Age</a:t>
+              <a:t> COVID-19 Cumulative Infections by Age</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -3420,7 +3420,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Accumulative Deaths by Age</a:t>
+              <a:t> Cumulative Deaths by Age</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -5211,7 +5211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Projected COVID-19 Accumulative Infections</a:t>
+              <a:t>Projected COVID-19 Cumulative Infections</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
@@ -6504,7 +6504,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Accumulative Deaths by Comorbidity</a:t>
+              <a:t> Cumulative Deaths by Comorbidity</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -10538,10 +10538,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10842,7 +10838,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL29" sqref="AL29"/>
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10943,71 +10939,71 @@
         <v>43904</v>
       </c>
       <c r="H7" s="75">
-        <f>G7+$B$7</f>
+        <f t="shared" ref="H7:X7" si="0">G7+$B$7</f>
         <v>43908</v>
       </c>
       <c r="I7" s="75">
-        <f>H7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43912</v>
       </c>
       <c r="J7" s="75">
-        <f>I7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43916</v>
       </c>
       <c r="K7" s="75">
-        <f>J7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43920</v>
       </c>
       <c r="L7" s="75">
-        <f>K7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43924</v>
       </c>
       <c r="M7" s="75">
-        <f>L7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43928</v>
       </c>
       <c r="N7" s="75">
-        <f>M7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43932</v>
       </c>
       <c r="O7" s="75">
-        <f>N7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43936</v>
       </c>
       <c r="P7" s="75">
-        <f>O7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43940</v>
       </c>
       <c r="Q7" s="56">
-        <f>P7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43944</v>
       </c>
       <c r="R7" s="75">
-        <f>Q7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43948</v>
       </c>
       <c r="S7" s="75">
-        <f>R7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43952</v>
       </c>
       <c r="T7" s="75">
-        <f>S7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43956</v>
       </c>
       <c r="U7" s="75">
-        <f>T7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43960</v>
       </c>
       <c r="V7" s="75">
-        <f>U7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43964</v>
       </c>
       <c r="W7" s="75">
-        <f>V7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43968</v>
       </c>
       <c r="X7" s="76">
-        <f>W7+$B$7</f>
+        <f t="shared" si="0"/>
         <v>43972</v>
       </c>
     </row>
@@ -11028,67 +11024,67 @@
         <v>500</v>
       </c>
       <c r="I8" s="33">
-        <f t="shared" ref="I8:X8" si="0">H8*2</f>
+        <f t="shared" ref="I8:X8" si="1">H8*2</f>
         <v>1000</v>
       </c>
       <c r="J8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="K8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="N8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="O8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
       <c r="P8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
       <c r="Q8" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>256000</v>
       </c>
       <c r="R8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>512000</v>
       </c>
       <c r="S8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024000</v>
       </c>
       <c r="T8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2048000</v>
       </c>
       <c r="U8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4096000</v>
       </c>
       <c r="V8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8192000</v>
       </c>
       <c r="W8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16384000</v>
       </c>
       <c r="X8" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32768000</v>
       </c>
     </row>
@@ -11102,75 +11098,75 @@
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="52">
-        <f>G8/$B$1</f>
+        <f t="shared" ref="G9:X9" si="2">G8/$B$1</f>
         <v>9.7531729412339345E-6</v>
       </c>
       <c r="H9" s="53">
-        <f>H8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>1.9506345882467869E-5</v>
       </c>
       <c r="I9" s="53">
-        <f>I8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>3.9012691764935738E-5</v>
       </c>
       <c r="J9" s="53">
-        <f>J8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>7.8025383529871476E-5</v>
       </c>
       <c r="K9" s="53">
-        <f>K8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>1.5605076705974295E-4</v>
       </c>
       <c r="L9" s="53">
-        <f>L8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>3.121015341194859E-4</v>
       </c>
       <c r="M9" s="29">
-        <f>M8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>6.2420306823897181E-4</v>
       </c>
       <c r="N9" s="29">
-        <f>N8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>1.2484061364779436E-3</v>
       </c>
       <c r="O9" s="29">
-        <f>O8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>2.4968122729558872E-3</v>
       </c>
       <c r="P9" s="29">
-        <f>P8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>4.9936245459117744E-3</v>
       </c>
       <c r="Q9" s="58">
-        <f>Q8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>9.9872490918235489E-3</v>
       </c>
       <c r="R9" s="29">
-        <f>R8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>1.9974498183647098E-2</v>
       </c>
       <c r="S9" s="29">
-        <f>S8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>3.9948996367294196E-2</v>
       </c>
       <c r="T9" s="29">
-        <f>T8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>7.9897992734588391E-2</v>
       </c>
       <c r="U9" s="29">
-        <f>U8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0.15979598546917678</v>
       </c>
       <c r="V9" s="29">
-        <f>V8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0.31959197093835356</v>
       </c>
       <c r="W9" s="29">
-        <f>W8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0.63918394187670713</v>
       </c>
       <c r="X9" s="54">
-        <f>X8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>1.2783678837534143</v>
       </c>
     </row>
@@ -11186,75 +11182,75 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="25">
-        <f>G8*$B$10</f>
+        <f t="shared" ref="G10:X10" si="3">G8*$B$10</f>
         <v>37.5</v>
       </c>
       <c r="H10" s="26">
-        <f>H8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="I10" s="26">
-        <f>I8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J10" s="26">
-        <f>J8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="K10" s="26">
-        <f>K8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="L10" s="26">
-        <f>L8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="M10" s="26">
-        <f>M8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
       <c r="N10" s="26">
-        <f>N8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="O10" s="26">
-        <f>O8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>9600</v>
       </c>
       <c r="P10" s="26">
-        <f>P8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>19200</v>
       </c>
       <c r="Q10" s="61">
-        <f>Q8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>38400</v>
       </c>
       <c r="R10" s="26">
-        <f>R8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>76800</v>
       </c>
       <c r="S10" s="26">
-        <f>S8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>153600</v>
       </c>
       <c r="T10" s="26">
-        <f>T8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>307200</v>
       </c>
       <c r="U10" s="26">
-        <f>U8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>614400</v>
       </c>
       <c r="V10" s="26">
-        <f>V8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>1228800</v>
       </c>
       <c r="W10" s="26">
-        <f>W8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>2457600</v>
       </c>
       <c r="X10" s="47">
-        <f>X8*$B$10</f>
+        <f t="shared" si="3"/>
         <v>4915200</v>
       </c>
     </row>
@@ -11276,39 +11272,39 @@
         <v>75</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" ref="I11:Q11" si="1">I10</f>
+        <f t="shared" ref="I11:Q11" si="4">I10</f>
         <v>150</v>
       </c>
       <c r="J11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="N11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="O11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9600</v>
       </c>
       <c r="P11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19200</v>
       </c>
       <c r="Q11" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38400</v>
       </c>
       <c r="R11" s="66">
@@ -11324,11 +11320,11 @@
         <v>307050</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" ref="U11:V11" si="2">U10-J10</f>
+        <f t="shared" ref="U11:V11" si="5">U10-J10</f>
         <v>614100</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1228200</v>
       </c>
       <c r="W11" s="24">
@@ -11352,75 +11348,75 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="25">
-        <f>G8*$B$12</f>
+        <f t="shared" ref="G12:X12" si="6">G8*$B$12</f>
         <v>12.5</v>
       </c>
       <c r="H12" s="26">
-        <f>H8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I12" s="26">
-        <f>I8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J12" s="26">
-        <f>J8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K12" s="26">
-        <f>K8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="L12" s="26">
-        <f>L8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="M12" s="26">
-        <f>M8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="N12" s="26">
-        <f>N8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="O12" s="26">
-        <f>O8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
       <c r="P12" s="26">
-        <f>P8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>6400</v>
       </c>
       <c r="Q12" s="61">
-        <f>Q8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>12800</v>
       </c>
       <c r="R12" s="26">
-        <f>R8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>25600</v>
       </c>
       <c r="S12" s="26">
-        <f>S8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>51200</v>
       </c>
       <c r="T12" s="26">
-        <f>T8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>102400</v>
       </c>
       <c r="U12" s="26">
-        <f>U8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>204800</v>
       </c>
       <c r="V12" s="26">
-        <f>V8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>409600</v>
       </c>
       <c r="W12" s="26">
-        <f>W8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>819200</v>
       </c>
       <c r="X12" s="47">
-        <f>X8*$B$12</f>
+        <f t="shared" si="6"/>
         <v>1638400</v>
       </c>
     </row>
@@ -11438,43 +11434,43 @@
         <v>7.5</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" ref="H13:Q13" si="3">H12-H14</f>
+        <f t="shared" ref="H13:Q13" si="7">H12-H14</f>
         <v>15</v>
       </c>
       <c r="I13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="K13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="M13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>960</v>
       </c>
       <c r="O13" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1920</v>
       </c>
       <c r="P13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3840</v>
       </c>
       <c r="Q13" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7680</v>
       </c>
       <c r="R13" s="24">
@@ -11482,27 +11478,27 @@
         <v>15352.5</v>
       </c>
       <c r="S13" s="24">
-        <f t="shared" ref="S13:X13" si="4">S12-S14-H13</f>
+        <f t="shared" ref="S13:X13" si="8">S12-S14-H13</f>
         <v>30705</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61410</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>122820</v>
       </c>
       <c r="V13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>245640</v>
       </c>
       <c r="W13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>491280</v>
       </c>
       <c r="X13" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>982560</v>
       </c>
     </row>
@@ -11518,75 +11514,75 @@
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="45">
-        <f>G8*$B$14</f>
+        <f t="shared" ref="G14:X14" si="9">G8*$B$14</f>
         <v>5</v>
       </c>
       <c r="H14" s="46">
-        <f>H8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I14" s="46">
-        <f>I8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J14" s="46">
-        <f>J8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="K14" s="46">
-        <f>K8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="L14" s="46">
-        <f>L8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="M14" s="46">
-        <f>M8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="N14" s="46">
-        <f>N8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
       <c r="O14" s="46">
-        <f>O8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
       <c r="P14" s="46">
-        <f>P8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>2560</v>
       </c>
       <c r="Q14" s="59">
-        <f>Q8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>5120</v>
       </c>
       <c r="R14" s="46">
-        <f>R8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>10240</v>
       </c>
       <c r="S14" s="46">
-        <f>S8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>20480</v>
       </c>
       <c r="T14" s="46">
-        <f>T8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>40960</v>
       </c>
       <c r="U14" s="46">
-        <f>U8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>81920</v>
       </c>
       <c r="V14" s="46">
-        <f>V8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>163840</v>
       </c>
       <c r="W14" s="46">
-        <f>W8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>327680</v>
       </c>
       <c r="X14" s="49">
-        <f>X8*$B$14</f>
+        <f t="shared" si="9"/>
         <v>655360</v>
       </c>
     </row>
@@ -11672,75 +11668,75 @@
       <c r="E18" s="17"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32">
-        <f>G$8*$D$18</f>
+        <f t="shared" ref="G18:X18" si="10">G$8*$D$18</f>
         <v>7.8475336322869955</v>
       </c>
       <c r="H18" s="33">
-        <f>H$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>15.695067264573991</v>
       </c>
       <c r="I18" s="33">
-        <f>I$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>31.390134529147982</v>
       </c>
       <c r="J18" s="33">
-        <f>J$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>62.780269058295964</v>
       </c>
       <c r="K18" s="33">
-        <f>K$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>125.56053811659193</v>
       </c>
       <c r="L18" s="33">
-        <f>L$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>251.12107623318386</v>
       </c>
       <c r="M18" s="33">
-        <f>M$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>502.24215246636771</v>
       </c>
       <c r="N18" s="33">
-        <f>N$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>1004.4843049327354</v>
       </c>
       <c r="O18" s="33">
-        <f>O$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>2008.9686098654709</v>
       </c>
       <c r="P18" s="33">
-        <f>P$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>4017.9372197309417</v>
       </c>
       <c r="Q18" s="33">
-        <f>Q$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>8035.8744394618834</v>
       </c>
       <c r="R18" s="33">
-        <f>R$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>16071.748878923767</v>
       </c>
       <c r="S18" s="33">
-        <f>S$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>32143.497757847534</v>
       </c>
       <c r="T18" s="33">
-        <f>T$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>64286.995515695067</v>
       </c>
       <c r="U18" s="33">
-        <f>U$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>128573.99103139013</v>
       </c>
       <c r="V18" s="33">
-        <f>V$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>257147.98206278027</v>
       </c>
       <c r="W18" s="33">
-        <f>W$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>514295.96412556054</v>
       </c>
       <c r="X18" s="47">
-        <f>X$8*$D$18</f>
+        <f t="shared" si="10"/>
         <v>1028591.9282511211</v>
       </c>
     </row>
@@ -11757,75 +11753,75 @@
         <v>119082.78306726458</v>
       </c>
       <c r="G19" s="43">
-        <f>G$8*$D$18*$E$19</f>
+        <f t="shared" ref="G19:X19" si="11">G$8*$D$18*$E$19</f>
         <v>1.1614349775784754</v>
       </c>
       <c r="H19" s="44">
-        <f>H$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>2.3228699551569507</v>
       </c>
       <c r="I19" s="44">
-        <f>I$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>4.6457399103139014</v>
       </c>
       <c r="J19" s="44">
-        <f>J$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>9.2914798206278029</v>
       </c>
       <c r="K19" s="44">
-        <f>K$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>18.582959641255606</v>
       </c>
       <c r="L19" s="44">
-        <f>L$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>37.165919282511211</v>
       </c>
       <c r="M19" s="44">
-        <f>M$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>74.331838565022423</v>
       </c>
       <c r="N19" s="44">
-        <f>N$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>148.66367713004485</v>
       </c>
       <c r="O19" s="44">
-        <f>O$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>297.32735426008969</v>
       </c>
       <c r="P19" s="44">
-        <f>P$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>594.65470852017938</v>
       </c>
       <c r="Q19" s="44">
-        <f>Q$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>1189.3094170403588</v>
       </c>
       <c r="R19" s="44">
-        <f>R$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>2378.6188340807175</v>
       </c>
       <c r="S19" s="44">
-        <f>S$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>4757.2376681614351</v>
       </c>
       <c r="T19" s="44">
-        <f>T$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>9514.4753363228701</v>
       </c>
       <c r="U19" s="44">
-        <f>U$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>19028.95067264574</v>
       </c>
       <c r="V19" s="44">
-        <f>V$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>38057.901345291481</v>
       </c>
       <c r="W19" s="44">
-        <f>W$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>76115.802690582961</v>
       </c>
       <c r="X19" s="48">
-        <f>X$8*$D$18*$E$19</f>
+        <f t="shared" si="11"/>
         <v>152231.60538116592</v>
       </c>
     </row>
@@ -11837,7 +11833,7 @@
         <v>6.8733756751875541E-2</v>
       </c>
       <c r="C20" s="22">
-        <f t="shared" ref="C20:C34" si="5">$B$1*B20</f>
+        <f t="shared" ref="C20:C34" si="12">$B$1*B20</f>
         <v>1761830.6669536922</v>
       </c>
       <c r="D20" s="37">
@@ -11847,75 +11843,75 @@
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
       <c r="G20" s="34">
-        <f>G$8*$D$20</f>
+        <f t="shared" ref="G20:X20" si="13">G$8*$D$20</f>
         <v>14.573991031390134</v>
       </c>
       <c r="H20" s="35">
-        <f>H$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>29.147982062780269</v>
       </c>
       <c r="I20" s="35">
-        <f>I$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>58.295964125560538</v>
       </c>
       <c r="J20" s="35">
-        <f>J$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>116.59192825112108</v>
       </c>
       <c r="K20" s="35">
-        <f>K$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>233.18385650224215</v>
       </c>
       <c r="L20" s="35">
-        <f>L$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>466.3677130044843</v>
       </c>
       <c r="M20" s="35">
-        <f>M$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>932.7354260089686</v>
       </c>
       <c r="N20" s="35">
-        <f>N$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>1865.4708520179372</v>
       </c>
       <c r="O20" s="35">
-        <f>O$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>3730.9417040358744</v>
       </c>
       <c r="P20" s="35">
-        <f>P$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>7461.8834080717488</v>
       </c>
       <c r="Q20" s="35">
-        <f>Q$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>14923.766816143498</v>
       </c>
       <c r="R20" s="35">
-        <f>R$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>29847.533632286995</v>
       </c>
       <c r="S20" s="35">
-        <f>S$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>59695.067264573991</v>
       </c>
       <c r="T20" s="35">
-        <f>T$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>119390.13452914798</v>
       </c>
       <c r="U20" s="35">
-        <f>U$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>238780.26905829596</v>
       </c>
       <c r="V20" s="35">
-        <f>V$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>477560.53811659192</v>
       </c>
       <c r="W20" s="35">
-        <f>W$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>955121.07623318385</v>
       </c>
       <c r="X20" s="48">
-        <f>X$8*$D$20</f>
+        <f t="shared" si="13"/>
         <v>1910242.1524663677</v>
       </c>
     </row>
@@ -11932,75 +11928,75 @@
         <v>119542.56215246637</v>
       </c>
       <c r="G21" s="43">
-        <f>G$8*$D$20*$E$21</f>
+        <f t="shared" ref="G21:X21" si="14">G$8*$D$20*$E$21</f>
         <v>1.1659192825112108</v>
       </c>
       <c r="H21" s="44">
-        <f>H$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>2.3318385650224216</v>
       </c>
       <c r="I21" s="44">
-        <f>I$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>4.6636771300448432</v>
       </c>
       <c r="J21" s="44">
-        <f>J$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>9.3273542600896864</v>
       </c>
       <c r="K21" s="44">
-        <f>K$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>18.654708520179373</v>
       </c>
       <c r="L21" s="44">
-        <f>L$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>37.309417040358746</v>
       </c>
       <c r="M21" s="44">
-        <f>M$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>74.618834080717491</v>
       </c>
       <c r="N21" s="44">
-        <f>N$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>149.23766816143498</v>
       </c>
       <c r="O21" s="44">
-        <f>O$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>298.47533632286996</v>
       </c>
       <c r="P21" s="44">
-        <f>P$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>596.95067264573993</v>
       </c>
       <c r="Q21" s="44">
-        <f>Q$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>1193.9013452914799</v>
       </c>
       <c r="R21" s="44">
-        <f>R$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>2387.8026905829597</v>
       </c>
       <c r="S21" s="44">
-        <f>S$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>4775.6053811659194</v>
       </c>
       <c r="T21" s="44">
-        <f>T$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>9551.2107623318389</v>
       </c>
       <c r="U21" s="44">
-        <f>U$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>19102.421524663678</v>
       </c>
       <c r="V21" s="44">
-        <f>V$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>38204.843049327355</v>
       </c>
       <c r="W21" s="44">
-        <f>W$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>76409.686098654711</v>
       </c>
       <c r="X21" s="48">
-        <f>X$8*$D$20*$E$21</f>
+        <f t="shared" si="14"/>
         <v>152819.37219730942</v>
       </c>
     </row>
@@ -12012,7 +12008,7 @@
         <v>0.10271036487346757</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2632742.3263262943</v>
       </c>
       <c r="D22" s="37">
@@ -12022,75 +12018,75 @@
       <c r="E22" s="31"/>
       <c r="F22" s="22"/>
       <c r="G22" s="34">
-        <f>G$8*$D$22</f>
+        <f t="shared" ref="G22:X22" si="15">G$8*$D$22</f>
         <v>36.995515695067269</v>
       </c>
       <c r="H22" s="35">
-        <f>H$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>73.991031390134538</v>
       </c>
       <c r="I22" s="35">
-        <f>I$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>147.98206278026908</v>
       </c>
       <c r="J22" s="35">
-        <f>J$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>295.96412556053815</v>
       </c>
       <c r="K22" s="35">
-        <f>K$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>591.9282511210763</v>
       </c>
       <c r="L22" s="35">
-        <f>L$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>1183.8565022421526</v>
       </c>
       <c r="M22" s="35">
-        <f>M$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>2367.7130044843052</v>
       </c>
       <c r="N22" s="35">
-        <f>N$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>4735.4260089686104</v>
       </c>
       <c r="O22" s="35">
-        <f>O$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>9470.8520179372208</v>
       </c>
       <c r="P22" s="35">
-        <f>P$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>18941.704035874442</v>
       </c>
       <c r="Q22" s="35">
-        <f>Q$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>37883.408071748883</v>
       </c>
       <c r="R22" s="35">
-        <f>R$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>75766.816143497766</v>
       </c>
       <c r="S22" s="35">
-        <f>S$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>151533.63228699553</v>
       </c>
       <c r="T22" s="35">
-        <f>T$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>303067.26457399107</v>
       </c>
       <c r="U22" s="35">
-        <f>U$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>606134.52914798213</v>
       </c>
       <c r="V22" s="35">
-        <f>V$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>1212269.0582959643</v>
       </c>
       <c r="W22" s="35">
-        <f>W$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>2424538.1165919285</v>
       </c>
       <c r="X22" s="48">
-        <f>X$8*$D$22</f>
+        <f t="shared" si="15"/>
         <v>4849076.2331838571</v>
       </c>
     </row>
@@ -12107,75 +12103,75 @@
         <v>136554.38830493274</v>
       </c>
       <c r="G23" s="43">
-        <f>G$8*$D$22*$E$23</f>
+        <f t="shared" ref="G23:X23" si="16">G$8*$D$22*$E$23</f>
         <v>1.3318385650224216</v>
       </c>
       <c r="H23" s="44">
-        <f>H$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>2.6636771300448432</v>
       </c>
       <c r="I23" s="44">
-        <f>I$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>5.3273542600896864</v>
       </c>
       <c r="J23" s="44">
-        <f>J$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>10.654708520179373</v>
       </c>
       <c r="K23" s="44">
-        <f>K$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>21.309417040358746</v>
       </c>
       <c r="L23" s="44">
-        <f>L$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>42.618834080717491</v>
       </c>
       <c r="M23" s="44">
-        <f>M$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>85.237668161434982</v>
       </c>
       <c r="N23" s="44">
-        <f>N$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>170.47533632286996</v>
       </c>
       <c r="O23" s="44">
-        <f>O$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>340.95067264573993</v>
       </c>
       <c r="P23" s="44">
-        <f>P$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>681.90134529147986</v>
       </c>
       <c r="Q23" s="44">
-        <f>Q$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>1363.8026905829597</v>
       </c>
       <c r="R23" s="44">
-        <f>R$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>2727.6053811659194</v>
       </c>
       <c r="S23" s="44">
-        <f>S$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>5455.2107623318389</v>
       </c>
       <c r="T23" s="44">
-        <f>T$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>10910.421524663678</v>
       </c>
       <c r="U23" s="44">
-        <f>U$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>21820.843049327355</v>
       </c>
       <c r="V23" s="44">
-        <f>V$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>43641.686098654711</v>
       </c>
       <c r="W23" s="44">
-        <f>W$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>87283.372197309422</v>
       </c>
       <c r="X23" s="48">
-        <f>X$8*$D$22*$E$23</f>
+        <f t="shared" si="16"/>
         <v>174566.74439461884</v>
       </c>
     </row>
@@ -12187,7 +12183,7 @@
         <v>0.12241761174778311</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3137891.9579656119</v>
       </c>
       <c r="D24" s="37">
@@ -12197,75 +12193,75 @@
       <c r="E24" s="31"/>
       <c r="F24" s="22"/>
       <c r="G24" s="34">
-        <f>G$8*$D$24</f>
+        <f t="shared" ref="G24:X24" si="17">G$8*$D$24</f>
         <v>43.721973094170401</v>
       </c>
       <c r="H24" s="35">
-        <f>H$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>87.443946188340803</v>
       </c>
       <c r="I24" s="35">
-        <f>I$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>174.88789237668161</v>
       </c>
       <c r="J24" s="35">
-        <f>J$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>349.77578475336321</v>
       </c>
       <c r="K24" s="35">
-        <f>K$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>699.55156950672642</v>
       </c>
       <c r="L24" s="35">
-        <f>L$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>1399.1031390134528</v>
       </c>
       <c r="M24" s="35">
-        <f>M$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>2798.2062780269057</v>
       </c>
       <c r="N24" s="35">
-        <f>N$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>5596.4125560538114</v>
       </c>
       <c r="O24" s="35">
-        <f>O$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>11192.825112107623</v>
       </c>
       <c r="P24" s="35">
-        <f>P$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>22385.650224215246</v>
       </c>
       <c r="Q24" s="35">
-        <f>Q$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>44771.300448430491</v>
       </c>
       <c r="R24" s="35">
-        <f>R$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>89542.600896860982</v>
       </c>
       <c r="S24" s="35">
-        <f>S$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>179085.20179372196</v>
       </c>
       <c r="T24" s="35">
-        <f>T$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>358170.40358744393</v>
       </c>
       <c r="U24" s="35">
-        <f>U$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>716340.80717488786</v>
       </c>
       <c r="V24" s="35">
-        <f>V$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>1432681.6143497757</v>
       </c>
       <c r="W24" s="35">
-        <f>W$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>2865363.2286995514</v>
       </c>
       <c r="X24" s="48">
-        <f>X$8*$D$24</f>
+        <f t="shared" si="17"/>
         <v>5730726.4573991029</v>
       </c>
     </row>
@@ -12282,75 +12278,75 @@
         <v>58276.999049327358</v>
       </c>
       <c r="G25" s="43">
-        <f>G$8*$D$24*$E$25</f>
+        <f t="shared" ref="G25:X25" si="18">G$8*$D$24*$E$25</f>
         <v>0.56838565022421517</v>
       </c>
       <c r="H25" s="44">
-        <f>H$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>1.1367713004484303</v>
       </c>
       <c r="I25" s="44">
-        <f>I$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>2.2735426008968607</v>
       </c>
       <c r="J25" s="44">
-        <f>J$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>4.5470852017937213</v>
       </c>
       <c r="K25" s="44">
-        <f>K$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>9.0941704035874427</v>
       </c>
       <c r="L25" s="44">
-        <f>L$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>18.188340807174885</v>
       </c>
       <c r="M25" s="44">
-        <f>M$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>36.376681614349771</v>
       </c>
       <c r="N25" s="44">
-        <f>N$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>72.753363228699541</v>
       </c>
       <c r="O25" s="44">
-        <f>O$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>145.50672645739908</v>
       </c>
       <c r="P25" s="44">
-        <f>P$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>291.01345291479817</v>
       </c>
       <c r="Q25" s="44">
-        <f>Q$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>582.02690582959633</v>
       </c>
       <c r="R25" s="44">
-        <f>R$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>1164.0538116591927</v>
       </c>
       <c r="S25" s="44">
-        <f>S$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>2328.1076233183853</v>
       </c>
       <c r="T25" s="44">
-        <f>T$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>4656.2152466367706</v>
       </c>
       <c r="U25" s="44">
-        <f>U$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>9312.4304932735413</v>
       </c>
       <c r="V25" s="44">
-        <f>V$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>18624.860986547083</v>
       </c>
       <c r="W25" s="44">
-        <f>W$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>37249.721973094165</v>
       </c>
       <c r="X25" s="48">
-        <f>X$8*$D$24*$E$25</f>
+        <f t="shared" si="18"/>
         <v>74499.44394618833</v>
       </c>
     </row>
@@ -12362,7 +12358,7 @@
         <v>0.1307371328497558</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3351143.6134038097</v>
       </c>
       <c r="D26" s="37">
@@ -12372,75 +12368,75 @@
       <c r="E26" s="31"/>
       <c r="F26" s="22"/>
       <c r="G26" s="34">
-        <f>G$8*$D$26</f>
+        <f t="shared" ref="G26:X26" si="19">G$8*$D$26</f>
         <v>43.721973094170401</v>
       </c>
       <c r="H26" s="35">
-        <f>H$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>87.443946188340803</v>
       </c>
       <c r="I26" s="35">
-        <f>I$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>174.88789237668161</v>
       </c>
       <c r="J26" s="35">
-        <f>J$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>349.77578475336321</v>
       </c>
       <c r="K26" s="35">
-        <f>K$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>699.55156950672642</v>
       </c>
       <c r="L26" s="35">
-        <f>L$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>1399.1031390134528</v>
       </c>
       <c r="M26" s="35">
-        <f>M$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>2798.2062780269057</v>
       </c>
       <c r="N26" s="35">
-        <f>N$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>5596.4125560538114</v>
       </c>
       <c r="O26" s="35">
-        <f>O$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>11192.825112107623</v>
       </c>
       <c r="P26" s="35">
-        <f>P$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>22385.650224215246</v>
       </c>
       <c r="Q26" s="35">
-        <f>Q$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>44771.300448430491</v>
       </c>
       <c r="R26" s="35">
-        <f>R$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>89542.600896860982</v>
       </c>
       <c r="S26" s="35">
-        <f>S$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>179085.20179372196</v>
       </c>
       <c r="T26" s="35">
-        <f>T$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>358170.40358744393</v>
       </c>
       <c r="U26" s="35">
-        <f>U$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>716340.80717488786</v>
       </c>
       <c r="V26" s="35">
-        <f>V$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>1432681.6143497757</v>
       </c>
       <c r="W26" s="35">
-        <f>W$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>2865363.2286995514</v>
       </c>
       <c r="X26" s="48">
-        <f>X$8*$D$26</f>
+        <f t="shared" si="19"/>
         <v>5730726.4573991029</v>
       </c>
     </row>
@@ -12457,75 +12453,75 @@
         <v>17931.384322869955</v>
       </c>
       <c r="G27" s="43">
-        <f>G$8*$D$26*$E$27</f>
+        <f t="shared" ref="G27:X27" si="20">G$8*$D$26*$E$27</f>
         <v>0.17488789237668162</v>
       </c>
       <c r="H27" s="44">
-        <f>H$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>0.34977578475336324</v>
       </c>
       <c r="I27" s="44">
-        <f>I$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>0.69955156950672648</v>
       </c>
       <c r="J27" s="44">
-        <f>J$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>1.399103139013453</v>
       </c>
       <c r="K27" s="44">
-        <f>K$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>2.7982062780269059</v>
       </c>
       <c r="L27" s="44">
-        <f>L$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>5.5964125560538118</v>
       </c>
       <c r="M27" s="44">
-        <f>M$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>11.192825112107624</v>
       </c>
       <c r="N27" s="44">
-        <f>N$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>22.385650224215247</v>
       </c>
       <c r="O27" s="44">
-        <f>O$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>44.771300448430495</v>
       </c>
       <c r="P27" s="44">
-        <f>P$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>89.542600896860989</v>
       </c>
       <c r="Q27" s="44">
-        <f>Q$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>179.08520179372198</v>
       </c>
       <c r="R27" s="44">
-        <f>R$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>358.17040358744396</v>
       </c>
       <c r="S27" s="44">
-        <f>S$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>716.34080717488791</v>
       </c>
       <c r="T27" s="44">
-        <f>T$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>1432.6816143497758</v>
       </c>
       <c r="U27" s="44">
-        <f>U$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>2865.3632286995517</v>
       </c>
       <c r="V27" s="44">
-        <f>V$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>5730.7264573991033</v>
       </c>
       <c r="W27" s="44">
-        <f>W$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>11461.452914798207</v>
       </c>
       <c r="X27" s="48">
-        <f>X$8*$D$26*$E$27</f>
+        <f t="shared" si="20"/>
         <v>22922.905829596413</v>
       </c>
     </row>
@@ -12537,7 +12533,7 @@
         <v>0.14352807031813389</v>
       </c>
       <c r="C28" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3679009.6715945052</v>
       </c>
       <c r="D28" s="37">
@@ -12547,75 +12543,75 @@
       <c r="E28" s="31"/>
       <c r="F28" s="22"/>
       <c r="G28" s="34">
-        <f>G$8*$D$28</f>
+        <f t="shared" ref="G28:X28" si="21">G$8*$D$28</f>
         <v>48.206278026905828</v>
       </c>
       <c r="H28" s="35">
-        <f>H$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>96.412556053811656</v>
       </c>
       <c r="I28" s="35">
-        <f>I$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>192.82511210762331</v>
       </c>
       <c r="J28" s="35">
-        <f>J$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>385.65022421524662</v>
       </c>
       <c r="K28" s="35">
-        <f>K$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>771.30044843049325</v>
       </c>
       <c r="L28" s="35">
-        <f>L$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>1542.6008968609865</v>
       </c>
       <c r="M28" s="35">
-        <f>M$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>3085.201793721973</v>
       </c>
       <c r="N28" s="35">
-        <f>N$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>6170.403587443946</v>
       </c>
       <c r="O28" s="35">
-        <f>O$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>12340.807174887892</v>
       </c>
       <c r="P28" s="35">
-        <f>P$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>24681.614349775784</v>
       </c>
       <c r="Q28" s="35">
-        <f>Q$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>49363.228699551568</v>
       </c>
       <c r="R28" s="35">
-        <f>R$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>98726.457399103136</v>
       </c>
       <c r="S28" s="35">
-        <f>S$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>197452.91479820627</v>
       </c>
       <c r="T28" s="35">
-        <f>T$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>394905.82959641254</v>
       </c>
       <c r="U28" s="35">
-        <f>U$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>789811.65919282509</v>
       </c>
       <c r="V28" s="35">
-        <f>V$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>1579623.3183856502</v>
       </c>
       <c r="W28" s="35">
-        <f>W$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>3159246.6367713003</v>
       </c>
       <c r="X28" s="48">
-        <f>X$8*$D$28</f>
+        <f t="shared" si="21"/>
         <v>6318493.2735426007</v>
       </c>
     </row>
@@ -12632,75 +12628,75 @@
         <v>9885.2503318385643</v>
       </c>
       <c r="G29" s="43">
-        <f>G$8*$D$28*$E$29</f>
+        <f t="shared" ref="G29:X29" si="22">G$8*$D$28*$E$29</f>
         <v>9.641255605381166E-2</v>
       </c>
       <c r="H29" s="44">
-        <f>H$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>0.19282511210762332</v>
       </c>
       <c r="I29" s="44">
-        <f>I$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>0.38565022421524664</v>
       </c>
       <c r="J29" s="44">
-        <f>J$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>0.77130044843049328</v>
       </c>
       <c r="K29" s="44">
-        <f>K$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>1.5426008968609866</v>
       </c>
       <c r="L29" s="44">
-        <f>L$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>3.0852017937219731</v>
       </c>
       <c r="M29" s="44">
-        <f>M$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>6.1704035874439462</v>
       </c>
       <c r="N29" s="44">
-        <f>N$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>12.340807174887892</v>
       </c>
       <c r="O29" s="44">
-        <f>O$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>24.681614349775785</v>
       </c>
       <c r="P29" s="44">
-        <f>P$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>49.36322869955157</v>
       </c>
       <c r="Q29" s="44">
-        <f>Q$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>98.72645739910314</v>
       </c>
       <c r="R29" s="44">
-        <f>R$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>197.45291479820628</v>
       </c>
       <c r="S29" s="44">
-        <f>S$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>394.90582959641256</v>
       </c>
       <c r="T29" s="44">
-        <f>T$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>789.81165919282512</v>
       </c>
       <c r="U29" s="44">
-        <f>U$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>1579.6233183856502</v>
       </c>
       <c r="V29" s="44">
-        <f>V$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>3159.2466367713005</v>
       </c>
       <c r="W29" s="44">
-        <f>W$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>6318.4932735426009</v>
       </c>
       <c r="X29" s="48">
-        <f>X$8*$D$28*$E$29</f>
+        <f t="shared" si="22"/>
         <v>12636.986547085202</v>
       </c>
     </row>
@@ -12712,7 +12708,7 @@
         <v>0.14477837612990244</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3711058.365370932</v>
       </c>
       <c r="D30" s="37">
@@ -12722,75 +12718,75 @@
       <c r="E30" s="31"/>
       <c r="F30" s="22"/>
       <c r="G30" s="34">
-        <f>G$8*$D$30</f>
+        <f t="shared" ref="G30:X30" si="23">G$8*$D$30</f>
         <v>38.116591928251118</v>
       </c>
       <c r="H30" s="35">
-        <f>H$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>76.233183856502237</v>
       </c>
       <c r="I30" s="35">
-        <f>I$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>152.46636771300447</v>
       </c>
       <c r="J30" s="35">
-        <f>J$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>304.93273542600895</v>
       </c>
       <c r="K30" s="35">
-        <f>K$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>609.86547085201789</v>
       </c>
       <c r="L30" s="35">
-        <f>L$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>1219.7309417040358</v>
       </c>
       <c r="M30" s="35">
-        <f>M$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>2439.4618834080716</v>
       </c>
       <c r="N30" s="35">
-        <f>N$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>4878.9237668161431</v>
       </c>
       <c r="O30" s="35">
-        <f>O$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>9757.8475336322863</v>
       </c>
       <c r="P30" s="35">
-        <f>P$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>19515.695067264573</v>
       </c>
       <c r="Q30" s="35">
-        <f>Q$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>39031.390134529145</v>
       </c>
       <c r="R30" s="35">
-        <f>R$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>78062.78026905829</v>
       </c>
       <c r="S30" s="35">
-        <f>S$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>156125.56053811658</v>
       </c>
       <c r="T30" s="35">
-        <f>T$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>312251.12107623316</v>
       </c>
       <c r="U30" s="35">
-        <f>U$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>624502.24215246632</v>
       </c>
       <c r="V30" s="35">
-        <f>V$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>1249004.4843049326</v>
       </c>
       <c r="W30" s="35">
-        <f>W$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>2498008.9686098653</v>
       </c>
       <c r="X30" s="48">
-        <f>X$8*$D$30</f>
+        <f t="shared" si="23"/>
         <v>4996017.9372197306</v>
       </c>
     </row>
@@ -12807,75 +12803,75 @@
         <v>7816.2444484304933</v>
       </c>
       <c r="G31" s="43">
-        <f>G$8*$D$30*$E$31</f>
+        <f t="shared" ref="G31:X31" si="24">G$8*$D$30*$E$31</f>
         <v>7.623318385650224E-2</v>
       </c>
       <c r="H31" s="44">
-        <f>H$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>0.15246636771300448</v>
       </c>
       <c r="I31" s="44">
-        <f>I$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>0.30493273542600896</v>
       </c>
       <c r="J31" s="44">
-        <f>J$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>0.60986547085201792</v>
       </c>
       <c r="K31" s="44">
-        <f>K$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>1.2197309417040358</v>
       </c>
       <c r="L31" s="44">
-        <f>L$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>2.4394618834080717</v>
       </c>
       <c r="M31" s="44">
-        <f>M$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>4.8789237668161434</v>
       </c>
       <c r="N31" s="44">
-        <f>N$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>9.7578475336322867</v>
       </c>
       <c r="O31" s="44">
-        <f>O$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>19.515695067264573</v>
       </c>
       <c r="P31" s="44">
-        <f>P$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>39.031390134529147</v>
       </c>
       <c r="Q31" s="44">
-        <f>Q$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>78.062780269058294</v>
       </c>
       <c r="R31" s="44">
-        <f>R$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>156.12556053811659</v>
       </c>
       <c r="S31" s="44">
-        <f>S$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>312.25112107623318</v>
       </c>
       <c r="T31" s="44">
-        <f>T$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>624.50224215246635</v>
       </c>
       <c r="U31" s="44">
-        <f>U$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>1249.0044843049327</v>
       </c>
       <c r="V31" s="44">
-        <f>V$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>2498.0089686098654</v>
       </c>
       <c r="W31" s="44">
-        <f>W$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>4996.0179372197308</v>
       </c>
       <c r="X31" s="48">
-        <f>X$8*$D$30*$E$31</f>
+        <f t="shared" si="24"/>
         <v>9992.0358744394616</v>
       </c>
     </row>
@@ -12887,7 +12883,7 @@
         <v>0.12034977981552665</v>
       </c>
       <c r="C32" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3084887.8754809727</v>
       </c>
       <c r="D32" s="37">
@@ -12897,75 +12893,75 @@
       <c r="E32" s="31"/>
       <c r="F32" s="22"/>
       <c r="G32" s="34">
-        <f>G$8*$D$32</f>
+        <f t="shared" ref="G32:X32" si="25">G$8*$D$32</f>
         <v>13.45291479820628</v>
       </c>
       <c r="H32" s="35">
-        <f>H$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>26.905829596412559</v>
       </c>
       <c r="I32" s="35">
-        <f>I$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>53.811659192825118</v>
       </c>
       <c r="J32" s="35">
-        <f>J$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>107.62331838565024</v>
       </c>
       <c r="K32" s="35">
-        <f>K$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>215.24663677130047</v>
       </c>
       <c r="L32" s="35">
-        <f>L$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>430.49327354260095</v>
       </c>
       <c r="M32" s="35">
-        <f>M$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>860.98654708520189</v>
       </c>
       <c r="N32" s="35">
-        <f>N$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>1721.9730941704038</v>
       </c>
       <c r="O32" s="35">
-        <f>O$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>3443.9461883408076</v>
       </c>
       <c r="P32" s="35">
-        <f>P$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>6887.8923766816151</v>
       </c>
       <c r="Q32" s="35">
-        <f>Q$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>13775.78475336323</v>
       </c>
       <c r="R32" s="35">
-        <f>R$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>27551.569506726461</v>
       </c>
       <c r="S32" s="35">
-        <f>S$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>55103.139013452921</v>
       </c>
       <c r="T32" s="35">
-        <f>T$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>110206.27802690584</v>
       </c>
       <c r="U32" s="35">
-        <f>U$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>220412.55605381168</v>
       </c>
       <c r="V32" s="35">
-        <f>V$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>440825.11210762337</v>
       </c>
       <c r="W32" s="35">
-        <f>W$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>881650.22421524674</v>
       </c>
       <c r="X32" s="48">
-        <f>X$8*$D$32</f>
+        <f t="shared" si="25"/>
         <v>1763300.4484304935</v>
       </c>
     </row>
@@ -12982,75 +12978,75 @@
         <v>2758.6745112107624</v>
       </c>
       <c r="G33" s="43">
-        <f>G$8*$D$32*$E$33</f>
+        <f t="shared" ref="G33:X33" si="26">G$8*$D$32*$E$33</f>
         <v>2.6905829596412561E-2</v>
       </c>
       <c r="H33" s="44">
-        <f>H$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>5.3811659192825122E-2</v>
       </c>
       <c r="I33" s="44">
-        <f>I$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>0.10762331838565024</v>
       </c>
       <c r="J33" s="44">
-        <f>J$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>0.21524663677130049</v>
       </c>
       <c r="K33" s="44">
-        <f>K$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>0.43049327354260097</v>
       </c>
       <c r="L33" s="44">
-        <f>L$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>0.86098654708520195</v>
       </c>
       <c r="M33" s="44">
-        <f>M$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>1.7219730941704039</v>
       </c>
       <c r="N33" s="44">
-        <f>N$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>3.4439461883408078</v>
       </c>
       <c r="O33" s="44">
-        <f>O$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>6.8878923766816156</v>
       </c>
       <c r="P33" s="44">
-        <f>P$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>13.775784753363231</v>
       </c>
       <c r="Q33" s="44">
-        <f>Q$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>27.551569506726462</v>
       </c>
       <c r="R33" s="44">
-        <f>R$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>55.103139013452925</v>
       </c>
       <c r="S33" s="44">
-        <f>S$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>110.20627802690585</v>
       </c>
       <c r="T33" s="44">
-        <f>T$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>220.4125560538117</v>
       </c>
       <c r="U33" s="44">
-        <f>U$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>440.8251121076234</v>
       </c>
       <c r="V33" s="44">
-        <f>V$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>881.65022421524679</v>
       </c>
       <c r="W33" s="44">
-        <f>W$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>1763.3004484304936</v>
       </c>
       <c r="X33" s="48">
-        <f>X$8*$D$32*$E$33</f>
+        <f t="shared" si="26"/>
         <v>3526.6008968609872</v>
       </c>
     </row>
@@ -13062,7 +13058,7 @@
         <v>0.12716137671014424</v>
       </c>
       <c r="C34" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3259487.3862160868</v>
       </c>
       <c r="D34" s="37">
@@ -13072,75 +13068,75 @@
       <c r="E34" s="31"/>
       <c r="F34" s="22"/>
       <c r="G34" s="34">
-        <f>G$8*$D$34</f>
+        <f t="shared" ref="G34:X34" si="27">G$8*$D$34</f>
         <v>3.3632286995515699</v>
       </c>
       <c r="H34" s="35">
-        <f>H$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>6.7264573991031398</v>
       </c>
       <c r="I34" s="35">
-        <f>I$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>13.45291479820628</v>
       </c>
       <c r="J34" s="35">
-        <f>J$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>26.905829596412559</v>
       </c>
       <c r="K34" s="35">
-        <f>K$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>53.811659192825118</v>
       </c>
       <c r="L34" s="35">
-        <f>L$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>107.62331838565024</v>
       </c>
       <c r="M34" s="35">
-        <f>M$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>215.24663677130047</v>
       </c>
       <c r="N34" s="35">
-        <f>N$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>430.49327354260095</v>
       </c>
       <c r="O34" s="35">
-        <f>O$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>860.98654708520189</v>
       </c>
       <c r="P34" s="35">
-        <f>P$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>1721.9730941704038</v>
       </c>
       <c r="Q34" s="35">
-        <f>Q$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>3443.9461883408076</v>
       </c>
       <c r="R34" s="35">
-        <f>R$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>6887.8923766816151</v>
       </c>
       <c r="S34" s="35">
-        <f>S$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>13775.78475336323</v>
       </c>
       <c r="T34" s="35">
-        <f>T$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>27551.569506726461</v>
       </c>
       <c r="U34" s="35">
-        <f>U$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>55103.139013452921</v>
       </c>
       <c r="V34" s="35">
-        <f>V$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>110206.27802690584</v>
       </c>
       <c r="W34" s="35">
-        <f>W$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>220412.55605381168</v>
       </c>
       <c r="X34" s="48">
-        <f>X$8*$D$34</f>
+        <f t="shared" si="27"/>
         <v>440825.11210762337</v>
       </c>
     </row>
@@ -13157,75 +13153,75 @@
         <v>0</v>
       </c>
       <c r="G35" s="45">
-        <f>G$8*$D$34*$E$35</f>
+        <f t="shared" ref="G35:X35" si="28">G$8*$D$34*$E$35</f>
         <v>0</v>
       </c>
       <c r="H35" s="46">
-        <f>H$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I35" s="46">
-        <f>I$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J35" s="46">
-        <f>J$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K35" s="46">
-        <f>K$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L35" s="46">
-        <f>L$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M35" s="46">
-        <f>M$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N35" s="46">
-        <f>N$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O35" s="46">
-        <f>O$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P35" s="46">
-        <f>P$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q35" s="46">
-        <f>Q$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R35" s="46">
-        <f>R$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S35" s="46">
-        <f>S$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T35" s="46">
-        <f>T$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U35" s="46">
-        <f>U$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V35" s="46">
-        <f>V$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W35" s="46">
-        <f>W$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X35" s="49">
-        <f>X$8*$D$34*$E$35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -13239,75 +13235,75 @@
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
       <c r="G36" s="32">
-        <f>SUM(G18,G20,G22,G24,G26,G28,G30,G32,G34)</f>
+        <f t="shared" ref="G36:X36" si="29">SUM(G18,G20,G22,G24,G26,G28,G30,G32,G34)</f>
         <v>250.00000000000003</v>
       </c>
       <c r="H36" s="33">
-        <f>SUM(H18,H20,H22,H24,H26,H28,H30,H32,H34)</f>
+        <f t="shared" si="29"/>
         <v>500.00000000000006</v>
       </c>
       <c r="I36" s="33">
-        <f>SUM(I18,I20,I22,I24,I26,I28,I30,I32,I34)</f>
+        <f t="shared" si="29"/>
         <v>1000.0000000000001</v>
       </c>
       <c r="J36" s="33">
-        <f>SUM(J18,J20,J22,J24,J26,J28,J30,J32,J34)</f>
+        <f t="shared" si="29"/>
         <v>2000.0000000000002</v>
       </c>
       <c r="K36" s="33">
-        <f>SUM(K18,K20,K22,K24,K26,K28,K30,K32,K34)</f>
+        <f t="shared" si="29"/>
         <v>4000.0000000000005</v>
       </c>
       <c r="L36" s="33">
-        <f>SUM(L18,L20,L22,L24,L26,L28,L30,L32,L34)</f>
+        <f t="shared" si="29"/>
         <v>8000.0000000000009</v>
       </c>
       <c r="M36" s="33">
-        <f>SUM(M18,M20,M22,M24,M26,M28,M30,M32,M34)</f>
+        <f t="shared" si="29"/>
         <v>16000.000000000002</v>
       </c>
       <c r="N36" s="33">
-        <f>SUM(N18,N20,N22,N24,N26,N28,N30,N32,N34)</f>
+        <f t="shared" si="29"/>
         <v>32000.000000000004</v>
       </c>
       <c r="O36" s="33">
-        <f>SUM(O18,O20,O22,O24,O26,O28,O30,O32,O34)</f>
+        <f t="shared" si="29"/>
         <v>64000.000000000007</v>
       </c>
       <c r="P36" s="33">
-        <f>SUM(P18,P20,P22,P24,P26,P28,P30,P32,P34)</f>
+        <f t="shared" si="29"/>
         <v>128000.00000000001</v>
       </c>
       <c r="Q36" s="33">
-        <f>SUM(Q18,Q20,Q22,Q24,Q26,Q28,Q30,Q32,Q34)</f>
+        <f t="shared" si="29"/>
         <v>256000.00000000003</v>
       </c>
       <c r="R36" s="33">
-        <f>SUM(R18,R20,R22,R24,R26,R28,R30,R32,R34)</f>
+        <f t="shared" si="29"/>
         <v>512000.00000000006</v>
       </c>
       <c r="S36" s="33">
-        <f>SUM(S18,S20,S22,S24,S26,S28,S30,S32,S34)</f>
+        <f t="shared" si="29"/>
         <v>1024000.0000000001</v>
       </c>
       <c r="T36" s="33">
-        <f>SUM(T18,T20,T22,T24,T26,T28,T30,T32,T34)</f>
+        <f t="shared" si="29"/>
         <v>2048000.0000000002</v>
       </c>
       <c r="U36" s="33">
-        <f>SUM(U18,U20,U22,U24,U26,U28,U30,U32,U34)</f>
+        <f t="shared" si="29"/>
         <v>4096000.0000000005</v>
       </c>
       <c r="V36" s="33">
-        <f>SUM(V18,V20,V22,V24,V26,V28,V30,V32,V34)</f>
+        <f t="shared" si="29"/>
         <v>8192000.0000000009</v>
       </c>
       <c r="W36" s="33">
-        <f>SUM(W18,W20,W22,W24,W26,W28,W30,W32,W34)</f>
+        <f t="shared" si="29"/>
         <v>16384000.000000002</v>
       </c>
       <c r="X36" s="47">
-        <f>SUM(X18,X20,X22,X24,X26,X28,X30,X32,X34)</f>
+        <f t="shared" si="29"/>
         <v>32768000.000000004</v>
       </c>
     </row>
@@ -13321,75 +13317,75 @@
       <c r="E37" s="63"/>
       <c r="F37" s="24"/>
       <c r="G37" s="45">
-        <f>SUM(G19,G21,G23,G25,G27,G29,G31,G33,G35)</f>
+        <f t="shared" ref="G37:X37" si="30">SUM(G19,G21,G23,G25,G27,G29,G31,G33,G35)</f>
         <v>4.6020179372197312</v>
       </c>
       <c r="H37" s="46">
-        <f>SUM(H19,H21,H23,H25,H27,H29,H31,H33,H35)</f>
+        <f t="shared" si="30"/>
         <v>9.2040358744394624</v>
       </c>
       <c r="I37" s="46">
-        <f>SUM(I19,I21,I23,I25,I27,I29,I31,I33,I35)</f>
+        <f t="shared" si="30"/>
         <v>18.408071748878925</v>
       </c>
       <c r="J37" s="46">
-        <f>SUM(J19,J21,J23,J25,J27,J29,J31,J33,J35)</f>
+        <f t="shared" si="30"/>
         <v>36.816143497757849</v>
       </c>
       <c r="K37" s="46">
-        <f>SUM(K19,K21,K23,K25,K27,K29,K31,K33,K35)</f>
+        <f t="shared" si="30"/>
         <v>73.632286995515699</v>
       </c>
       <c r="L37" s="46">
-        <f>SUM(L19,L21,L23,L25,L27,L29,L31,L33,L35)</f>
+        <f t="shared" si="30"/>
         <v>147.2645739910314</v>
       </c>
       <c r="M37" s="46">
-        <f>SUM(M19,M21,M23,M25,M27,M29,M31,M33,M35)</f>
+        <f t="shared" si="30"/>
         <v>294.5291479820628</v>
       </c>
       <c r="N37" s="46">
-        <f>SUM(N19,N21,N23,N25,N27,N29,N31,N33,N35)</f>
+        <f t="shared" si="30"/>
         <v>589.05829596412559</v>
       </c>
       <c r="O37" s="46">
-        <f>SUM(O19,O21,O23,O25,O27,O29,O31,O33,O35)</f>
+        <f t="shared" si="30"/>
         <v>1178.1165919282512</v>
       </c>
       <c r="P37" s="46">
-        <f>SUM(P19,P21,P23,P25,P27,P29,P31,P33,P35)</f>
+        <f t="shared" si="30"/>
         <v>2356.2331838565024</v>
       </c>
       <c r="Q37" s="46">
-        <f>SUM(Q19,Q21,Q23,Q25,Q27,Q29,Q31,Q33,Q35)</f>
+        <f t="shared" si="30"/>
         <v>4712.4663677130047</v>
       </c>
       <c r="R37" s="46">
-        <f>SUM(R19,R21,R23,R25,R27,R29,R31,R33,R35)</f>
+        <f t="shared" si="30"/>
         <v>9424.9327354260095</v>
       </c>
       <c r="S37" s="46">
-        <f>SUM(S19,S21,S23,S25,S27,S29,S31,S33,S35)</f>
+        <f t="shared" si="30"/>
         <v>18849.865470852019</v>
       </c>
       <c r="T37" s="46">
-        <f>SUM(T19,T21,T23,T25,T27,T29,T31,T33,T35)</f>
+        <f t="shared" si="30"/>
         <v>37699.730941704038</v>
       </c>
       <c r="U37" s="46">
-        <f>SUM(U19,U21,U23,U25,U27,U29,U31,U33,U35)</f>
+        <f t="shared" si="30"/>
         <v>75399.461883408076</v>
       </c>
       <c r="V37" s="46">
-        <f>SUM(V19,V21,V23,V25,V27,V29,V31,V33,V35)</f>
+        <f t="shared" si="30"/>
         <v>150798.92376681615</v>
       </c>
       <c r="W37" s="46">
-        <f>SUM(W19,W21,W23,W25,W27,W29,W31,W33,W35)</f>
+        <f t="shared" si="30"/>
         <v>301597.8475336323</v>
       </c>
       <c r="X37" s="49">
-        <f>SUM(X19,X21,X23,X25,X27,X29,X31,X33,X35)</f>
+        <f t="shared" si="30"/>
         <v>603195.69506726461</v>
       </c>
     </row>
@@ -13489,75 +13485,75 @@
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="32">
-        <f>G$8*$B$41</f>
+        <f t="shared" ref="G41:X41" si="31">G$8*$B$41</f>
         <v>12.5</v>
       </c>
       <c r="H41" s="33">
-        <f>H$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="I41" s="33">
-        <f>I$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="J41" s="33">
-        <f>J$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="K41" s="33">
-        <f>K$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>200</v>
       </c>
       <c r="L41" s="33">
-        <f>L$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="M41" s="33">
-        <f>M$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>800</v>
       </c>
       <c r="N41" s="33">
-        <f>N$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>1600</v>
       </c>
       <c r="O41" s="33">
-        <f>O$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>3200</v>
       </c>
       <c r="P41" s="33">
-        <f>P$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>6400</v>
       </c>
       <c r="Q41" s="33">
-        <f>Q$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>12800</v>
       </c>
       <c r="R41" s="33">
-        <f>R$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>25600</v>
       </c>
       <c r="S41" s="33">
-        <f>S$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>51200</v>
       </c>
       <c r="T41" s="33">
-        <f>T$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>102400</v>
       </c>
       <c r="U41" s="33">
-        <f>U$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>204800</v>
       </c>
       <c r="V41" s="33">
-        <f>V$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>409600</v>
       </c>
       <c r="W41" s="33">
-        <f>W$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>819200</v>
       </c>
       <c r="X41" s="47">
-        <f>X$8*$B$41</f>
+        <f t="shared" si="31"/>
         <v>1638400</v>
       </c>
     </row>
@@ -13575,71 +13571,71 @@
         <v>1.3125</v>
       </c>
       <c r="H42" s="44">
-        <f t="shared" ref="H42:X42" si="6">H41*$C$42</f>
+        <f t="shared" ref="H42:X42" si="32">H41*$C$42</f>
         <v>2.625</v>
       </c>
       <c r="I42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>5.25</v>
       </c>
       <c r="J42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>10.5</v>
       </c>
       <c r="K42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="L42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>42</v>
       </c>
       <c r="M42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>84</v>
       </c>
       <c r="N42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>168</v>
       </c>
       <c r="O42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>336</v>
       </c>
       <c r="P42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>672</v>
       </c>
       <c r="Q42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>1344</v>
       </c>
       <c r="R42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2688</v>
       </c>
       <c r="S42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>5376</v>
       </c>
       <c r="T42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>10752</v>
       </c>
       <c r="U42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>21504</v>
       </c>
       <c r="V42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>43008</v>
       </c>
       <c r="W42" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>86016</v>
       </c>
       <c r="X42" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>172032</v>
       </c>
     </row>
@@ -13655,75 +13651,75 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="34">
-        <f>G$8*$B$43</f>
+        <f t="shared" ref="G43:X43" si="33">G$8*$B$43</f>
         <v>11.5</v>
       </c>
       <c r="H43" s="35">
-        <f>H$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="I43" s="35">
-        <f>I$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
       <c r="J43" s="35">
-        <f>J$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>92</v>
       </c>
       <c r="K43" s="35">
-        <f>K$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>184</v>
       </c>
       <c r="L43" s="35">
-        <f>L$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>368</v>
       </c>
       <c r="M43" s="35">
-        <f>M$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>736</v>
       </c>
       <c r="N43" s="35">
-        <f>N$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>1472</v>
       </c>
       <c r="O43" s="35">
-        <f>O$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>2944</v>
       </c>
       <c r="P43" s="35">
-        <f>P$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>5888</v>
       </c>
       <c r="Q43" s="35">
-        <f>Q$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>11776</v>
       </c>
       <c r="R43" s="35">
-        <f>R$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>23552</v>
       </c>
       <c r="S43" s="35">
-        <f>S$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>47104</v>
       </c>
       <c r="T43" s="35">
-        <f>T$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>94208</v>
       </c>
       <c r="U43" s="35">
-        <f>U$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>188416</v>
       </c>
       <c r="V43" s="35">
-        <f>V$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>376832</v>
       </c>
       <c r="W43" s="35">
-        <f>W$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>753664</v>
       </c>
       <c r="X43" s="48">
-        <f>X$8*$B$43</f>
+        <f t="shared" si="33"/>
         <v>1507328</v>
       </c>
     </row>
@@ -13741,71 +13737,71 @@
         <v>0.83949999999999991</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" ref="H44:X44" si="7">H43*$C$44</f>
+        <f t="shared" ref="H44:X44" si="34">H43*$C$44</f>
         <v>1.6789999999999998</v>
       </c>
       <c r="I44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>3.3579999999999997</v>
       </c>
       <c r="J44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>6.7159999999999993</v>
       </c>
       <c r="K44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>13.431999999999999</v>
       </c>
       <c r="L44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>26.863999999999997</v>
       </c>
       <c r="M44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>53.727999999999994</v>
       </c>
       <c r="N44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>107.45599999999999</v>
       </c>
       <c r="O44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>214.91199999999998</v>
       </c>
       <c r="P44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>429.82399999999996</v>
       </c>
       <c r="Q44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>859.64799999999991</v>
       </c>
       <c r="R44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>1719.2959999999998</v>
       </c>
       <c r="S44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>3438.5919999999996</v>
       </c>
       <c r="T44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>6877.1839999999993</v>
       </c>
       <c r="U44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>13754.367999999999</v>
       </c>
       <c r="V44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>27508.735999999997</v>
       </c>
       <c r="W44" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>55017.471999999994</v>
       </c>
       <c r="X44" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>110034.94399999999</v>
       </c>
     </row>
@@ -13821,75 +13817,75 @@
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="34">
-        <f>G$8*$B$45</f>
+        <f t="shared" ref="G45:X45" si="35">G$8*$B$45</f>
         <v>77.5</v>
       </c>
       <c r="H45" s="35">
-        <f>H$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>155</v>
       </c>
       <c r="I45" s="35">
-        <f>I$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>310</v>
       </c>
       <c r="J45" s="35">
-        <f>J$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>620</v>
       </c>
       <c r="K45" s="35">
-        <f>K$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>1240</v>
       </c>
       <c r="L45" s="35">
-        <f>L$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>2480</v>
       </c>
       <c r="M45" s="35">
-        <f>M$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>4960</v>
       </c>
       <c r="N45" s="35">
-        <f>N$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>9920</v>
       </c>
       <c r="O45" s="35">
-        <f>O$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>19840</v>
       </c>
       <c r="P45" s="35">
-        <f>P$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>39680</v>
       </c>
       <c r="Q45" s="35">
-        <f>Q$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>79360</v>
       </c>
       <c r="R45" s="35">
-        <f>R$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>158720</v>
       </c>
       <c r="S45" s="35">
-        <f>S$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>317440</v>
       </c>
       <c r="T45" s="35">
-        <f>T$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>634880</v>
       </c>
       <c r="U45" s="35">
-        <f>U$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>1269760</v>
       </c>
       <c r="V45" s="35">
-        <f>V$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>2539520</v>
       </c>
       <c r="W45" s="35">
-        <f>W$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>5079040</v>
       </c>
       <c r="X45" s="48">
-        <f>X$8*$B$45</f>
+        <f t="shared" si="35"/>
         <v>10158080</v>
       </c>
     </row>
@@ -13907,71 +13903,71 @@
         <v>4.8825000000000003</v>
       </c>
       <c r="H46" s="44">
-        <f t="shared" ref="H46:X46" si="8">H45*$C$46</f>
+        <f t="shared" ref="H46:X46" si="36">H45*$C$46</f>
         <v>9.7650000000000006</v>
       </c>
       <c r="I46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>19.53</v>
       </c>
       <c r="J46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>39.06</v>
       </c>
       <c r="K46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>78.12</v>
       </c>
       <c r="L46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>156.24</v>
       </c>
       <c r="M46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>312.48</v>
       </c>
       <c r="N46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>624.96</v>
       </c>
       <c r="O46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>1249.92</v>
       </c>
       <c r="P46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>2499.84</v>
       </c>
       <c r="Q46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>4999.68</v>
       </c>
       <c r="R46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>9999.36</v>
       </c>
       <c r="S46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>19998.72</v>
       </c>
       <c r="T46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>39997.440000000002</v>
       </c>
       <c r="U46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>79994.880000000005</v>
       </c>
       <c r="V46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>159989.76000000001</v>
       </c>
       <c r="W46" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>319979.52000000002</v>
       </c>
       <c r="X46" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>639959.04000000004</v>
       </c>
     </row>
@@ -13987,75 +13983,75 @@
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="34">
-        <f>G$8*$B$47</f>
+        <f t="shared" ref="G47:X47" si="37">G$8*$B$47</f>
         <v>84.25</v>
       </c>
       <c r="H47" s="35">
-        <f>H$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>168.5</v>
       </c>
       <c r="I47" s="35">
-        <f>I$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>337</v>
       </c>
       <c r="J47" s="35">
-        <f>J$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>674</v>
       </c>
       <c r="K47" s="35">
-        <f>K$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>1348</v>
       </c>
       <c r="L47" s="35">
-        <f>L$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>2696</v>
       </c>
       <c r="M47" s="35">
-        <f>M$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>5392</v>
       </c>
       <c r="N47" s="35">
-        <f>N$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>10784</v>
       </c>
       <c r="O47" s="35">
-        <f>O$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>21568</v>
       </c>
       <c r="P47" s="35">
-        <f>P$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>43136</v>
       </c>
       <c r="Q47" s="35">
-        <f>Q$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>86272</v>
       </c>
       <c r="R47" s="35">
-        <f>R$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>172544</v>
       </c>
       <c r="S47" s="35">
-        <f>S$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>345088</v>
       </c>
       <c r="T47" s="35">
-        <f>T$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>690176</v>
       </c>
       <c r="U47" s="35">
-        <f>U$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>1380352</v>
       </c>
       <c r="V47" s="35">
-        <f>V$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>2760704</v>
       </c>
       <c r="W47" s="35">
-        <f>W$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>5521408</v>
       </c>
       <c r="X47" s="48">
-        <f>X$8*$B$47</f>
+        <f t="shared" si="37"/>
         <v>11042816</v>
       </c>
     </row>
@@ -14073,71 +14069,71 @@
         <v>5.0549999999999997</v>
       </c>
       <c r="H48" s="44">
-        <f t="shared" ref="H48:X48" si="9">H47*$C$48</f>
+        <f t="shared" ref="H48:X48" si="38">H47*$C$48</f>
         <v>10.11</v>
       </c>
       <c r="I48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>20.22</v>
       </c>
       <c r="J48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>40.44</v>
       </c>
       <c r="K48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>80.88</v>
       </c>
       <c r="L48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>161.76</v>
       </c>
       <c r="M48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>323.52</v>
       </c>
       <c r="N48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>647.04</v>
       </c>
       <c r="O48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>1294.08</v>
       </c>
       <c r="P48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>2588.16</v>
       </c>
       <c r="Q48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>5176.32</v>
       </c>
       <c r="R48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>10352.64</v>
       </c>
       <c r="S48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>20705.28</v>
       </c>
       <c r="T48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>41410.559999999998</v>
       </c>
       <c r="U48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>82821.119999999995</v>
       </c>
       <c r="V48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>165642.23999999999</v>
       </c>
       <c r="W48" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>331284.47999999998</v>
       </c>
       <c r="X48" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>662568.95999999996</v>
       </c>
     </row>
@@ -14153,75 +14149,75 @@
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="34">
-        <f>G$8*$B$49</f>
+        <f t="shared" ref="G49:X49" si="39">G$8*$B$49</f>
         <v>3.75</v>
       </c>
       <c r="H49" s="35">
-        <f>H$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>7.5</v>
       </c>
       <c r="I49" s="35">
-        <f>I$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
       <c r="J49" s="35">
-        <f>J$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>30</v>
       </c>
       <c r="K49" s="35">
-        <f>K$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>60</v>
       </c>
       <c r="L49" s="35">
-        <f>L$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>120</v>
       </c>
       <c r="M49" s="35">
-        <f>M$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>240</v>
       </c>
       <c r="N49" s="35">
-        <f>N$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>480</v>
       </c>
       <c r="O49" s="35">
-        <f>O$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>960</v>
       </c>
       <c r="P49" s="35">
-        <f>P$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>1920</v>
       </c>
       <c r="Q49" s="35">
-        <f>Q$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>3840</v>
       </c>
       <c r="R49" s="35">
-        <f>R$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>7680</v>
       </c>
       <c r="S49" s="35">
-        <f>S$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>15360</v>
       </c>
       <c r="T49" s="35">
-        <f>T$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>30720</v>
       </c>
       <c r="U49" s="35">
-        <f>U$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>61440</v>
       </c>
       <c r="V49" s="35">
-        <f>V$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>122880</v>
       </c>
       <c r="W49" s="35">
-        <f>W$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>245760</v>
       </c>
       <c r="X49" s="48">
-        <f>X$8*$B$49</f>
+        <f t="shared" si="39"/>
         <v>491520</v>
       </c>
     </row>
@@ -14239,71 +14235,71 @@
         <v>0.21</v>
       </c>
       <c r="H50" s="44">
-        <f t="shared" ref="H50:X50" si="10">H49*$C$50</f>
+        <f t="shared" ref="H50:X50" si="40">H49*$C$50</f>
         <v>0.42</v>
       </c>
       <c r="I50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>0.84</v>
       </c>
       <c r="J50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>1.68</v>
       </c>
       <c r="K50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>3.36</v>
       </c>
       <c r="L50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>6.72</v>
       </c>
       <c r="M50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>13.44</v>
       </c>
       <c r="N50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>26.88</v>
       </c>
       <c r="O50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>53.76</v>
       </c>
       <c r="P50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>107.52</v>
       </c>
       <c r="Q50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>215.04</v>
       </c>
       <c r="R50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>430.08</v>
       </c>
       <c r="S50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>860.16</v>
       </c>
       <c r="T50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>1720.32</v>
       </c>
       <c r="U50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>3440.64</v>
       </c>
       <c r="V50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>6881.28</v>
       </c>
       <c r="W50" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>13762.56</v>
       </c>
       <c r="X50" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="40"/>
         <v>27525.119999999999</v>
       </c>
     </row>
@@ -14319,75 +14315,75 @@
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="34">
-        <f>G$8*$B$51</f>
+        <f t="shared" ref="G51:X51" si="41">G$8*$B$51</f>
         <v>40.25</v>
       </c>
       <c r="H51" s="35">
-        <f>H$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>80.5</v>
       </c>
       <c r="I51" s="35">
-        <f>I$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>161</v>
       </c>
       <c r="J51" s="35">
-        <f>J$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>322</v>
       </c>
       <c r="K51" s="35">
-        <f>K$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>644</v>
       </c>
       <c r="L51" s="35">
-        <f>L$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>1288</v>
       </c>
       <c r="M51" s="35">
-        <f>M$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>2576</v>
       </c>
       <c r="N51" s="35">
-        <f>N$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>5152</v>
       </c>
       <c r="O51" s="35">
-        <f>O$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>10304</v>
       </c>
       <c r="P51" s="35">
-        <f>P$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>20608</v>
       </c>
       <c r="Q51" s="35">
-        <f>Q$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>41216</v>
       </c>
       <c r="R51" s="35">
-        <f>R$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>82432</v>
       </c>
       <c r="S51" s="35">
-        <f>S$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>164864</v>
       </c>
       <c r="T51" s="35">
-        <f>T$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>329728</v>
       </c>
       <c r="U51" s="35">
-        <f>U$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>659456</v>
       </c>
       <c r="V51" s="35">
-        <f>V$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>1318912</v>
       </c>
       <c r="W51" s="35">
-        <f>W$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>2637824</v>
       </c>
       <c r="X51" s="48">
-        <f>X$8*$B$51</f>
+        <f t="shared" si="41"/>
         <v>5275648</v>
       </c>
     </row>
@@ -14467,71 +14463,71 @@
         <v>229.75</v>
       </c>
       <c r="H53" s="33">
-        <f t="shared" ref="H53:X53" si="11">SUM(H41,H43,H45,H47,H49,H51)</f>
+        <f t="shared" ref="H53:X53" si="42">SUM(H41,H43,H45,H47,H49,H51)</f>
         <v>459.5</v>
       </c>
       <c r="I53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>919</v>
       </c>
       <c r="J53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>1838</v>
       </c>
       <c r="K53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>3676</v>
       </c>
       <c r="L53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>7352</v>
       </c>
       <c r="M53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>14704</v>
       </c>
       <c r="N53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>29408</v>
       </c>
       <c r="O53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>58816</v>
       </c>
       <c r="P53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>117632</v>
       </c>
       <c r="Q53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>235264</v>
       </c>
       <c r="R53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>470528</v>
       </c>
       <c r="S53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>941056</v>
       </c>
       <c r="T53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>1882112</v>
       </c>
       <c r="U53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>3764224</v>
       </c>
       <c r="V53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>7528448</v>
       </c>
       <c r="W53" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>15056896</v>
       </c>
       <c r="X53" s="47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>30113792</v>
       </c>
     </row>
@@ -14549,71 +14545,71 @@
         <v>12.299500000000002</v>
       </c>
       <c r="H54" s="46">
-        <f t="shared" ref="H54:X54" si="12">SUM(H42,H44,H46,H48,H50,H52)</f>
+        <f t="shared" ref="H54:X54" si="43">SUM(H42,H44,H46,H48,H50,H52)</f>
         <v>24.599000000000004</v>
       </c>
       <c r="I54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>49.198000000000008</v>
       </c>
       <c r="J54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>98.396000000000015</v>
       </c>
       <c r="K54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>196.79200000000003</v>
       </c>
       <c r="L54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>393.58400000000006</v>
       </c>
       <c r="M54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>787.16800000000012</v>
       </c>
       <c r="N54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>1574.3360000000002</v>
       </c>
       <c r="O54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>3148.6720000000005</v>
       </c>
       <c r="P54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>6297.344000000001</v>
       </c>
       <c r="Q54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>12594.688000000002</v>
       </c>
       <c r="R54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>25189.376000000004</v>
       </c>
       <c r="S54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>50378.752000000008</v>
       </c>
       <c r="T54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>100757.50400000002</v>
       </c>
       <c r="U54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>201515.00800000003</v>
       </c>
       <c r="V54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>403030.01600000006</v>
       </c>
       <c r="W54" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>806060.03200000012</v>
       </c>
       <c r="X54" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="43"/>
         <v>1612120.0640000002</v>
       </c>
     </row>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13215F4D-211D-45C3-9606-1982CA724F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5BFB5-6486-492C-AC2D-96D12C2B9AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
   <si>
     <t>Australian Population</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>0-9</t>
-  </si>
-  <si>
-    <t>Pop. 2018</t>
   </si>
   <si>
     <t>0</t>
@@ -433,9 +430,6 @@
     <t>Ages</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Total Mortality Count</t>
   </si>
   <si>
@@ -523,20 +517,33 @@
     <t>N.B. the mortality numbers do not model the lag from infection to recovery/death, the mortality count as estimated for the population will be in advance of actuals, so actuals will appear as a lower number for a given week.</t>
   </si>
   <si>
-    <t>Assumes that infection period lasts for 6 weeks, for many younger people it can be over within 2 weeks, for older people and those requiring hospitalisation, it can be in excess of 6 weeks</t>
+    <t>as of 19/3/2020</t>
+  </si>
+  <si>
+    <t>Pop. Sep 2019</t>
+  </si>
+  <si>
+    <t>Population estimated as at 30 June 2019</t>
+  </si>
+  <si>
+    <t>Assumes that infection period lasts for 6 weeks, for many people it can be over within 2 weeks, for others including those requiring hospitalisation, it can be in excess of 6 weeks</t>
+  </si>
+  <si>
+    <t>Infection counts are detected infection counts, total population infection counts will be greater, but without whole population testing or some form of random sampling testing, total population infection numbers remains unknown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="[$$-C09]#,##0.00;[Red]&quot;-&quot;[$$-C09]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +586,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -821,11 +851,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -950,7 +989,6 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -977,10 +1015,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{33778C9B-2759-42CE-8B12-70EF179014AB}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F4FF767F-813C-4942-8E90-D60D18A1396E}"/>
+    <cellStyle name="Result" xfId="5" xr:uid="{92363E1D-B163-4931-AE8B-9DBC97E2614C}"/>
+    <cellStyle name="Result2" xfId="6" xr:uid="{346AB93D-4A1D-4E1B-B53F-62B068519100}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -26971,7 +27024,7 @@
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26996,55 +27049,61 @@
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100">
-        <v>25632684</v>
+      <c r="B1" s="126">
+        <v>25632150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="94">
         <v>2.6</v>
       </c>
       <c r="C2" s="95">
         <f>(B1/1000)*B2</f>
-        <v>66644.978400000007</v>
+        <v>66643.590000000011</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="96">
         <v>7.4</v>
       </c>
       <c r="C3" s="91">
         <f>(B1/100000)*B3</f>
-        <v>1896.818616</v>
+        <v>1896.7791000000002</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="97">
         <v>0.15</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="98">
         <v>0.05</v>
@@ -27053,7 +27112,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="99">
         <v>0.02</v>
@@ -27092,7 +27151,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="30"/>
@@ -27110,7 +27169,7 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
@@ -27131,22 +27190,22 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="101">
+      <c r="G10" s="100">
         <v>43892</v>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="100">
         <f t="shared" ref="H10:X10" si="0">G10+$B$10</f>
         <v>43896</v>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="100">
         <f t="shared" si="0"/>
         <v>43900</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="100">
         <f t="shared" si="0"/>
         <v>43904</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="100">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
@@ -27170,57 +27229,57 @@
         <f t="shared" si="0"/>
         <v>43928</v>
       </c>
-      <c r="Q10" s="114">
+      <c r="Q10" s="113">
         <f t="shared" si="0"/>
         <v>43932</v>
       </c>
-      <c r="R10" s="115">
+      <c r="R10" s="114">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="S10" s="116">
+      <c r="S10" s="115">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
-      <c r="T10" s="116">
+      <c r="T10" s="115">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
-      <c r="U10" s="116">
+      <c r="U10" s="115">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
-      <c r="V10" s="116">
+      <c r="V10" s="115">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
-      <c r="W10" s="116">
+      <c r="W10" s="115">
         <f t="shared" si="0"/>
         <v>43956</v>
       </c>
-      <c r="X10" s="117">
+      <c r="X10" s="116">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
-      <c r="Y10" s="117">
+      <c r="Y10" s="116">
         <f t="shared" ref="Y10" si="1">X10+$B$10</f>
         <v>43964</v>
       </c>
-      <c r="Z10" s="117">
+      <c r="Z10" s="116">
         <f t="shared" ref="Z10" si="2">Y10+$B$10</f>
         <v>43968</v>
       </c>
-      <c r="AA10" s="119">
+      <c r="AA10" s="118">
         <f t="shared" ref="AA10" si="3">Z10+$B$10</f>
         <v>43972</v>
       </c>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="111"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="110"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -27308,11 +27367,11 @@
       </c>
       <c r="AA11" s="47">
         <f>B1</f>
-        <v>25632684</v>
+        <v>25632150</v>
       </c>
       <c r="AB11" s="64"/>
       <c r="AC11" s="64"/>
-      <c r="AD11" s="111"/>
+      <c r="AD11" s="110"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
@@ -27323,97 +27382,97 @@
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="103">
+      <c r="G12" s="102">
         <f t="shared" ref="G12:W12" si="8">G11/$B$1</f>
-        <v>1.2191466176542418E-6</v>
-      </c>
-      <c r="H12" s="104">
+        <v>1.2191720163934746E-6</v>
+      </c>
+      <c r="H12" s="103">
         <f t="shared" si="8"/>
-        <v>2.4382932353084836E-6</v>
-      </c>
-      <c r="I12" s="104">
+        <v>2.4383440327869492E-6</v>
+      </c>
+      <c r="I12" s="103">
         <f t="shared" si="8"/>
-        <v>4.8765864706169672E-6</v>
+        <v>4.8766880655738983E-6</v>
       </c>
       <c r="J12" s="51">
         <f t="shared" si="8"/>
-        <v>9.7531729412339345E-6</v>
+        <v>9.7533761311477967E-6</v>
       </c>
       <c r="K12" s="51">
         <f t="shared" si="8"/>
-        <v>1.9506345882467869E-5</v>
+        <v>1.9506752262295593E-5</v>
       </c>
       <c r="L12" s="51">
         <f t="shared" si="8"/>
-        <v>3.9012691764935738E-5</v>
+        <v>3.9013504524591187E-5</v>
       </c>
       <c r="M12" s="51">
         <f t="shared" si="8"/>
-        <v>7.8025383529871476E-5</v>
+        <v>7.8027009049182373E-5</v>
       </c>
       <c r="N12" s="51">
         <f t="shared" si="8"/>
-        <v>1.5605076705974295E-4</v>
+        <v>1.5605401809836475E-4</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="8"/>
-        <v>3.121015341194859E-4</v>
+        <v>3.1210803619672949E-4</v>
       </c>
       <c r="P12" s="28">
         <f t="shared" si="8"/>
-        <v>6.2420306823897181E-4</v>
+        <v>6.2421607239345899E-4</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="8"/>
-        <v>1.2484061364779436E-3</v>
+        <v>1.248432144786918E-3</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="8"/>
-        <v>2.4968122729558872E-3</v>
+        <v>2.4968642895738359E-3</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="8"/>
-        <v>4.9936245459117744E-3</v>
-      </c>
-      <c r="T12" s="125">
+        <v>4.9937285791476719E-3</v>
+      </c>
+      <c r="T12" s="124">
         <f t="shared" si="8"/>
-        <v>9.9872490918235489E-3</v>
-      </c>
-      <c r="U12" s="125">
+        <v>9.9874571582953438E-3</v>
+      </c>
+      <c r="U12" s="124">
         <f t="shared" si="8"/>
-        <v>1.9974498183647098E-2</v>
-      </c>
-      <c r="V12" s="125">
+        <v>1.9974914316590688E-2</v>
+      </c>
+      <c r="V12" s="124">
         <f t="shared" si="8"/>
-        <v>3.9948996367294196E-2</v>
-      </c>
-      <c r="W12" s="125">
+        <v>3.9949828633181375E-2</v>
+      </c>
+      <c r="W12" s="124">
         <f t="shared" si="8"/>
-        <v>7.9897992734588391E-2</v>
-      </c>
-      <c r="X12" s="125">
+        <v>7.989965726636275E-2</v>
+      </c>
+      <c r="X12" s="124">
         <f t="shared" ref="X12:AA12" si="9">X11/$B$1</f>
-        <v>0.15979598546917678</v>
-      </c>
-      <c r="Y12" s="125">
+        <v>0.1597993145327255</v>
+      </c>
+      <c r="Y12" s="124">
         <f t="shared" si="9"/>
-        <v>0.31959197093835356</v>
-      </c>
-      <c r="Z12" s="125">
+        <v>0.319598629065451</v>
+      </c>
+      <c r="Z12" s="124">
         <f t="shared" si="9"/>
-        <v>0.63918394187670713</v>
-      </c>
-      <c r="AA12" s="126">
+        <v>0.639197258130902</v>
+      </c>
+      <c r="AA12" s="125">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AB12" s="39"/>
       <c r="AC12" s="39"/>
-      <c r="AD12" s="111"/>
+      <c r="AD12" s="110"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -27502,15 +27561,15 @@
       </c>
       <c r="AA13" s="48">
         <f>AA11-Q11-AA18</f>
-        <v>25088030.32</v>
+        <v>25087507</v>
       </c>
       <c r="AB13" s="64"/>
       <c r="AC13" s="64"/>
-      <c r="AD13" s="111"/>
+      <c r="AD13" s="110"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -27599,15 +27658,15 @@
       </c>
       <c r="AA14" s="47">
         <f t="shared" si="13"/>
-        <v>3844902.5999999996</v>
+        <v>3844822.5</v>
       </c>
       <c r="AB14" s="64"/>
       <c r="AC14" s="64"/>
-      <c r="AD14" s="111"/>
+      <c r="AD14" s="110"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="56"/>
       <c r="C15" s="57"/>
@@ -27658,7 +27717,7 @@
         <f t="shared" si="14"/>
         <v>4800</v>
       </c>
-      <c r="R15" s="124">
+      <c r="R15" s="123">
         <f>R14-G14</f>
         <v>9595.3125</v>
       </c>
@@ -27696,15 +27755,15 @@
       </c>
       <c r="AA15" s="48">
         <f t="shared" si="16"/>
-        <v>3842502.5999999996</v>
+        <v>3842422.5</v>
       </c>
       <c r="AB15" s="64"/>
       <c r="AC15" s="64"/>
-      <c r="AD15" s="111"/>
+      <c r="AD15" s="110"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -27792,15 +27851,15 @@
       </c>
       <c r="AA16" s="47">
         <f t="shared" si="18"/>
-        <v>1281634.2000000002</v>
+        <v>1281607.5</v>
       </c>
       <c r="AB16" s="64"/>
       <c r="AC16" s="64"/>
-      <c r="AD16" s="111"/>
+      <c r="AD16" s="110"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -27839,7 +27898,7 @@
         <f t="shared" si="19"/>
         <v>120</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="111">
         <f t="shared" si="19"/>
         <v>240</v>
       </c>
@@ -27851,7 +27910,7 @@
         <f t="shared" si="19"/>
         <v>960</v>
       </c>
-      <c r="R17" s="118">
+      <c r="R17" s="117">
         <f t="shared" ref="R17:W17" si="20">R16-R18-G17</f>
         <v>1919.0625</v>
       </c>
@@ -27889,15 +27948,15 @@
       </c>
       <c r="AA17" s="48">
         <f t="shared" si="21"/>
-        <v>768500.52000000025</v>
+        <v>768484.5</v>
       </c>
       <c r="AB17" s="64"/>
       <c r="AC17" s="64"/>
-      <c r="AD17" s="111"/>
+      <c r="AD17" s="110"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="74"/>
       <c r="C18" s="75"/>
@@ -27944,7 +28003,7 @@
         <f t="shared" si="22"/>
         <v>320</v>
       </c>
-      <c r="Q18" s="102">
+      <c r="Q18" s="101">
         <f t="shared" si="22"/>
         <v>640</v>
       </c>
@@ -27986,15 +28045,15 @@
       </c>
       <c r="AA18" s="78">
         <f t="shared" si="23"/>
-        <v>512653.68</v>
+        <v>512643</v>
       </c>
       <c r="AB18" s="64"/>
       <c r="AC18" s="64"/>
-      <c r="AD18" s="111"/>
+      <c r="AD18" s="110"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -28022,58 +28081,58 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="105">
+      <c r="G21" s="104">
         <v>32</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="105">
         <v>63</v>
       </c>
-      <c r="I21" s="107">
+      <c r="I21" s="106">
         <v>112</v>
       </c>
-      <c r="J21" s="107">
+      <c r="J21" s="106">
         <v>249</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="106">
         <v>567</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="108"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="107"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
-      <c r="G22" s="109">
+      <c r="G22" s="108">
         <v>1</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="109">
         <v>2</v>
       </c>
       <c r="I22" s="79">
@@ -28124,8 +28183,8 @@
       <c r="X23" s="49"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="123" t="s">
-        <v>151</v>
+      <c r="A24" s="122" t="s">
+        <v>149</v>
       </c>
       <c r="X24" s="30"/>
     </row>
@@ -28133,14 +28192,14 @@
       <c r="A25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>23</v>
+      <c r="B25" s="87" t="s">
+        <v>161</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="88" t="s">
         <v>3</v>
@@ -28175,11 +28234,12 @@
         <v>14</v>
       </c>
       <c r="B26" s="27">
-        <v>3.9583530803410746E-2</v>
+        <f>'ABS Population by Age Range'!D107</f>
+        <v>4.0260989985204748E-2</v>
       </c>
       <c r="C26" s="26">
         <f>$B$1*B26</f>
-        <v>1014632.1366880938</v>
+        <v>1031975.7344492659</v>
       </c>
       <c r="D26" s="36">
         <f>'AU Infection Rate by Age'!C4</f>
@@ -28188,11 +28248,11 @@
       <c r="E26" s="17"/>
       <c r="F26" s="30"/>
       <c r="G26" s="32">
-        <f t="shared" ref="G26:W26" si="24">G$11*$D$26</f>
+        <f>G$11*$D$26</f>
         <v>0.84046454767726153</v>
       </c>
       <c r="H26" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="G26:W26" si="24">H$11*$D$26</f>
         <v>1.6809290953545231</v>
       </c>
       <c r="I26" s="33">
@@ -28269,7 +28329,7 @@
       </c>
       <c r="AA26" s="90">
         <f t="shared" si="25"/>
-        <v>689387.5892420538</v>
+        <v>689373.22738386306</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -28282,14 +28342,14 @@
       </c>
       <c r="F27" s="22">
         <f>$B$1*D26*E27</f>
-        <v>102029.36320782396</v>
+        <v>102027.23765281173</v>
       </c>
       <c r="G27" s="43">
-        <f t="shared" ref="G27:W27" si="26">G$11*$D$26*$E$27</f>
+        <f>G$11*$D$26*$E$27</f>
         <v>0.1243887530562347</v>
       </c>
       <c r="H27" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="G27:W27" si="26">H$11*$D$26*$E$27</f>
         <v>0.2487775061124694</v>
       </c>
       <c r="I27" s="44">
@@ -28364,9 +28424,9 @@
         <f t="shared" si="27"/>
         <v>65215.53056234718</v>
       </c>
-      <c r="AA27" s="120">
+      <c r="AA27" s="119">
         <f t="shared" si="27"/>
-        <v>102029.36320782396</v>
+        <v>102027.23765281173</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -28374,11 +28434,12 @@
         <v>15</v>
       </c>
       <c r="B28" s="18">
-        <v>6.8733756751875541E-2</v>
+        <f>'ABS Population by Age Range'!D97</f>
+        <v>7.065336711718416E-2</v>
       </c>
       <c r="C28" s="22">
         <f t="shared" ref="C28:C42" si="28">$B$1*B28</f>
-        <v>1761830.6669536922</v>
+        <v>1810997.703952732</v>
       </c>
       <c r="D28" s="37">
         <f>'AU Infection Rate by Age'!C5</f>
@@ -28466,9 +28527,9 @@
         <f t="shared" si="30"/>
         <v>841232.27383863076</v>
       </c>
-      <c r="AA28" s="121">
+      <c r="AA28" s="120">
         <f t="shared" si="30"/>
-        <v>1316103.5794621026</v>
+        <v>1316076.1613691931</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -28481,7 +28542,7 @@
       </c>
       <c r="F29" s="22">
         <f>$B$1*D28*E29</f>
-        <v>105288.28635696821</v>
+        <v>105286.09290953545</v>
       </c>
       <c r="G29" s="43">
         <f t="shared" ref="G29:W29" si="31">G$11*$D$28*$E$29</f>
@@ -28563,9 +28624,9 @@
         <f t="shared" si="32"/>
         <v>67298.581907090469</v>
       </c>
-      <c r="AA29" s="120">
+      <c r="AA29" s="119">
         <f t="shared" si="32"/>
-        <v>105288.28635696821</v>
+        <v>105286.09290953545</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -28573,11 +28634,12 @@
         <v>16</v>
       </c>
       <c r="B30" s="18">
-        <v>0.10271036487346757</v>
+        <f>'ABS Population by Age Range'!D85</f>
+        <v>0.10301766910746854</v>
       </c>
       <c r="C30" s="22">
         <f t="shared" si="28"/>
-        <v>2632742.3263262943</v>
+        <v>2640564.3472129996</v>
       </c>
       <c r="D30" s="37">
         <f>'AU Infection Rate by Age'!C6</f>
@@ -28665,9 +28727,9 @@
         <f t="shared" si="34"/>
         <v>2603814.1809290955</v>
       </c>
-      <c r="AA30" s="121">
+      <c r="AA30" s="120">
         <f t="shared" si="34"/>
-        <v>4073653.9364303183</v>
+        <v>4073569.0709046456</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -28680,7 +28742,7 @@
       </c>
       <c r="F31" s="22">
         <f>$B$1*D30*E31</f>
-        <v>146651.54171149145</v>
+        <v>146648.48655256722</v>
       </c>
       <c r="G31" s="43">
         <f t="shared" ref="G31:W31" si="35">G$11*$D$30*$E$31</f>
@@ -28762,9 +28824,9 @@
         <f t="shared" si="36"/>
         <v>93737.310513447432</v>
       </c>
-      <c r="AA31" s="120">
+      <c r="AA31" s="119">
         <f t="shared" si="36"/>
-        <v>146651.54171149145</v>
+        <v>146648.48655256722</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -28772,11 +28834,12 @@
         <v>17</v>
       </c>
       <c r="B32" s="18">
-        <v>0.12241761174778311</v>
+        <f>'ABS Population by Age Range'!D73</f>
+        <v>0.12142789925761971</v>
       </c>
       <c r="C32" s="22">
         <f t="shared" si="28"/>
-        <v>3137891.9579656119</v>
+        <v>3112458.1279561971</v>
       </c>
       <c r="D32" s="37">
         <f>'AU Infection Rate by Age'!C7</f>
@@ -28864,9 +28927,9 @@
         <f t="shared" si="38"/>
         <v>3004400.9779951102</v>
       </c>
-      <c r="AA32" s="121">
+      <c r="AA32" s="120">
         <f t="shared" si="38"/>
-        <v>4700369.9266503667</v>
+        <v>4700272.0048899762</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -28879,7 +28942,7 @@
       </c>
       <c r="F33" s="22">
         <f>$B$1*D32*E33</f>
-        <v>61104.809046454764</v>
+        <v>61103.536063569685</v>
       </c>
       <c r="G33" s="43">
         <f t="shared" ref="G33:W33" si="39">G$11*$D$32*$E$33</f>
@@ -28961,9 +29024,9 @@
         <f t="shared" si="40"/>
         <v>39057.212713936431</v>
       </c>
-      <c r="AA33" s="120">
+      <c r="AA33" s="119">
         <f t="shared" si="40"/>
-        <v>61104.809046454764</v>
+        <v>61103.536063569685</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -28971,11 +29034,12 @@
         <v>18</v>
       </c>
       <c r="B34" s="18">
-        <v>0.1307371328497558</v>
+        <f>'ABS Population by Age Range'!D61</f>
+        <v>0.12908272398046944</v>
       </c>
       <c r="C34" s="22">
         <f t="shared" si="28"/>
-        <v>3351143.6134038097</v>
+        <v>3308667.7434759899</v>
       </c>
       <c r="D34" s="37">
         <f>'AU Infection Rate by Age'!C8</f>
@@ -29063,9 +29127,9 @@
         <f t="shared" si="42"/>
         <v>2884224.9388753059</v>
       </c>
-      <c r="AA34" s="121">
+      <c r="AA34" s="120">
         <f t="shared" si="42"/>
-        <v>4512355.1295843525</v>
+        <v>4512261.1246943763</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -29078,7 +29142,7 @@
       </c>
       <c r="F35" s="22">
         <f>$B$1*D34*E35</f>
-        <v>18049.420518337411</v>
+        <v>18049.044498777504</v>
       </c>
       <c r="G35" s="43">
         <f>G$11*$D$34*$E$35</f>
@@ -29160,9 +29224,9 @@
         <f t="shared" si="44"/>
         <v>11536.899755501225</v>
       </c>
-      <c r="AA35" s="120">
+      <c r="AA35" s="119">
         <f t="shared" si="44"/>
-        <v>18049.420518337411</v>
+        <v>18049.044498777504</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -29170,11 +29234,12 @@
         <v>19</v>
       </c>
       <c r="B36" s="18">
-        <v>0.14352807031813389</v>
+        <f>'ABS Population by Age Range'!D49</f>
+        <v>0.14481341657950456</v>
       </c>
       <c r="C36" s="22">
         <f t="shared" si="28"/>
-        <v>3679009.6715945052</v>
+        <v>3711879.2157783476</v>
       </c>
       <c r="D36" s="37">
         <f>'AU Infection Rate by Age'!C9</f>
@@ -29262,9 +29327,9 @@
         <f t="shared" si="46"/>
         <v>3404987.7750611249</v>
       </c>
-      <c r="AA36" s="121">
+      <c r="AA36" s="120">
         <f t="shared" si="46"/>
-        <v>5327085.9168704161</v>
+        <v>5326974.9388753064</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -29277,7 +29342,7 @@
       </c>
       <c r="F37" s="22">
         <f>$B$1*D36*E37</f>
-        <v>10654.171833740833</v>
+        <v>10653.949877750612</v>
       </c>
       <c r="G37" s="43">
         <f t="shared" ref="G37:W37" si="47">G$11*$D$36*$E$37</f>
@@ -29359,9 +29424,9 @@
         <f t="shared" si="48"/>
         <v>6809.9755501222498</v>
       </c>
-      <c r="AA37" s="120">
+      <c r="AA37" s="119">
         <f t="shared" si="48"/>
-        <v>10654.171833740833</v>
+        <v>10653.949877750612</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -29369,11 +29434,12 @@
         <v>20</v>
       </c>
       <c r="B38" s="18">
-        <v>0.14477837612990244</v>
+        <f>'ABS Population by Age Range'!D37</f>
+        <v>0.14458334093878666</v>
       </c>
       <c r="C38" s="22">
         <f t="shared" si="28"/>
-        <v>3711058.365370932</v>
+        <v>3705981.8824441205</v>
       </c>
       <c r="D38" s="37">
         <f>'AU Infection Rate by Age'!C10</f>
@@ -29461,9 +29527,9 @@
         <f t="shared" si="50"/>
         <v>2443579.4621026893</v>
       </c>
-      <c r="AA38" s="121">
+      <c r="AA38" s="120">
         <f t="shared" si="50"/>
-        <v>3822967.5403422983</v>
+        <v>3822887.8973105131</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -29476,7 +29542,7 @@
       </c>
       <c r="F39" s="22">
         <f>$B$1*D38*E39</f>
-        <v>7645.9350806845969</v>
+        <v>7645.7757946210259</v>
       </c>
       <c r="G39" s="43">
         <f t="shared" ref="G39:W39" si="51">G$11*$D$38*$E$39</f>
@@ -29558,9 +29624,9 @@
         <f t="shared" si="52"/>
         <v>4887.1589242053788</v>
       </c>
-      <c r="AA39" s="120">
+      <c r="AA39" s="119">
         <f t="shared" si="52"/>
-        <v>7645.9350806845969</v>
+        <v>7645.7757946210259</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -29568,11 +29634,12 @@
         <v>21</v>
       </c>
       <c r="B40" s="18">
-        <v>0.12034977981552665</v>
+        <f>'ABS Population by Age Range'!D25</f>
+        <v>0.12056476079328157</v>
       </c>
       <c r="C40" s="22">
         <f t="shared" si="28"/>
-        <v>3084887.8754809727</v>
+        <v>3090334.0333675123</v>
       </c>
       <c r="D40" s="37">
         <f>'AU Infection Rate by Age'!C11</f>
@@ -29660,9 +29727,9 @@
         <f t="shared" si="54"/>
         <v>600880.19559902209</v>
       </c>
-      <c r="AA40" s="121">
+      <c r="AA40" s="120">
         <f t="shared" si="54"/>
-        <v>940073.9853300734</v>
+        <v>940054.40097799513</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -29675,7 +29742,7 @@
       </c>
       <c r="F41" s="22">
         <f>$B$1*D40*E41</f>
-        <v>1880.1479706601469</v>
+        <v>1880.1088019559902</v>
       </c>
       <c r="G41" s="43">
         <f t="shared" ref="G41:W41" si="55">G$11*$D$40*$E$41</f>
@@ -29757,9 +29824,9 @@
         <f t="shared" si="56"/>
         <v>1201.7603911980441</v>
       </c>
-      <c r="AA41" s="120">
+      <c r="AA41" s="119">
         <f t="shared" si="56"/>
-        <v>1880.1479706601469</v>
+        <v>1880.1088019559902</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -29767,11 +29834,12 @@
         <v>22</v>
       </c>
       <c r="B42" s="18">
-        <v>0.12716137671014424</v>
+        <f>'ABS Population by Age Range'!D13</f>
+        <v>0.1255958322404806</v>
       </c>
       <c r="C42" s="22">
         <f t="shared" si="28"/>
-        <v>3259487.3862160868</v>
+        <v>3219291.2113628346</v>
       </c>
       <c r="D42" s="37">
         <f>'AU Infection Rate by Age'!C12</f>
@@ -29859,9 +29927,9 @@
         <f t="shared" si="58"/>
         <v>160234.71882640588</v>
       </c>
-      <c r="AA42" s="121">
+      <c r="AA42" s="120">
         <f t="shared" si="58"/>
-        <v>250686.39608801957</v>
+        <v>250681.17359413204</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -29956,14 +30024,14 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="122">
+      <c r="AA43" s="121">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="22"/>
@@ -30052,12 +30120,12 @@
       </c>
       <c r="AA44" s="90">
         <f t="shared" si="62"/>
-        <v>25632684</v>
+        <v>25632150.000000004</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="63"/>
       <c r="C45" s="24"/>
@@ -30144,9 +30212,9 @@
         <f t="shared" si="64"/>
         <v>289744.43031784846</v>
       </c>
-      <c r="AA45" s="122">
+      <c r="AA45" s="121">
         <f t="shared" si="64"/>
-        <v>453303.67572616134</v>
+        <v>453294.23215158924</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -30177,7 +30245,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="22"/>
@@ -30247,7 +30315,7 @@
       </c>
       <c r="C49" s="22">
         <f>$B$1 * B49</f>
-        <v>1281634.2000000002</v>
+        <v>1281607.5</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -30334,7 +30402,7 @@
       </c>
       <c r="AA49" s="90">
         <f t="shared" si="66"/>
-        <v>1281634.2000000002</v>
+        <v>1281607.5</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -30426,9 +30494,9 @@
         <f t="shared" si="68"/>
         <v>86016</v>
       </c>
-      <c r="AA50" s="120">
+      <c r="AA50" s="119">
         <f t="shared" si="68"/>
-        <v>134571.59100000001</v>
+        <v>134568.78750000001</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -30440,7 +30508,7 @@
       </c>
       <c r="C51" s="22">
         <f>$B$1 * B51</f>
-        <v>1179103.4639999999</v>
+        <v>1179078.8999999999</v>
       </c>
       <c r="D51" s="66"/>
       <c r="E51" s="30"/>
@@ -30525,9 +30593,9 @@
         <f t="shared" si="70"/>
         <v>753664</v>
       </c>
-      <c r="AA51" s="121">
+      <c r="AA51" s="120">
         <f t="shared" si="70"/>
-        <v>1179103.4639999999</v>
+        <v>1179078.8999999999</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -30619,9 +30687,9 @@
         <f t="shared" si="72"/>
         <v>55017.471999999994</v>
       </c>
-      <c r="AA52" s="120">
+      <c r="AA52" s="119">
         <f t="shared" si="72"/>
-        <v>86074.552871999986</v>
+        <v>86072.759699999995</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -30633,7 +30701,7 @@
       </c>
       <c r="C53" s="22">
         <f>$B$1 * B53</f>
-        <v>7946132.04</v>
+        <v>7945966.5</v>
       </c>
       <c r="D53" s="66"/>
       <c r="E53" s="30"/>
@@ -30718,9 +30786,9 @@
         <f t="shared" si="74"/>
         <v>5079040</v>
       </c>
-      <c r="AA53" s="121">
+      <c r="AA53" s="120">
         <f t="shared" si="74"/>
-        <v>7946132.04</v>
+        <v>7945966.5</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
@@ -30812,9 +30880,9 @@
         <f t="shared" si="76"/>
         <v>319979.52000000002</v>
       </c>
-      <c r="AA54" s="120">
+      <c r="AA54" s="119">
         <f t="shared" si="76"/>
-        <v>500606.31852000003</v>
+        <v>500595.88949999999</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
@@ -30826,7 +30894,7 @@
       </c>
       <c r="C55" s="22">
         <f>$B$1 * B55</f>
-        <v>8638214.5080000013</v>
+        <v>8638034.5500000007</v>
       </c>
       <c r="D55" s="66"/>
       <c r="E55" s="30"/>
@@ -30911,9 +30979,9 @@
         <f t="shared" si="78"/>
         <v>5521408</v>
       </c>
-      <c r="AA55" s="121">
+      <c r="AA55" s="120">
         <f t="shared" si="78"/>
-        <v>8638214.5080000013</v>
+        <v>8638034.5500000007</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
@@ -31005,9 +31073,9 @@
         <f t="shared" si="80"/>
         <v>331284.47999999998</v>
       </c>
-      <c r="AA56" s="120">
+      <c r="AA56" s="119">
         <f t="shared" si="80"/>
-        <v>518292.87048000004</v>
+        <v>518282.07300000003</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
@@ -31019,7 +31087,7 @@
       </c>
       <c r="C57" s="22">
         <f>$B$1 * B57</f>
-        <v>384490.26</v>
+        <v>384482.25</v>
       </c>
       <c r="D57" s="66"/>
       <c r="E57" s="30"/>
@@ -31104,9 +31172,9 @@
         <f t="shared" si="82"/>
         <v>245760</v>
       </c>
-      <c r="AA57" s="121">
+      <c r="AA57" s="120">
         <f t="shared" si="82"/>
-        <v>384490.26</v>
+        <v>384482.25</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -31198,9 +31266,9 @@
         <f t="shared" si="84"/>
         <v>13762.56</v>
       </c>
-      <c r="AA58" s="120">
+      <c r="AA58" s="119">
         <f t="shared" si="84"/>
-        <v>21531.454560000002</v>
+        <v>21531.006000000001</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
@@ -31212,7 +31280,7 @@
       </c>
       <c r="C59" s="22">
         <f>$B$1 * B59</f>
-        <v>4126862.1240000003</v>
+        <v>4126776.15</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="30"/>
@@ -31297,9 +31365,9 @@
         <f t="shared" si="86"/>
         <v>2637824</v>
       </c>
-      <c r="AA59" s="121">
+      <c r="AA59" s="120">
         <f t="shared" si="86"/>
-        <v>4126862.1240000003</v>
+        <v>4126776.15</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -31371,7 +31439,7 @@
       <c r="Z60" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AA60" s="122" t="s">
+      <c r="AA60" s="121" t="s">
         <v>11</v>
       </c>
     </row>
@@ -31462,14 +31530,14 @@
         <f t="shared" si="88"/>
         <v>15056896</v>
       </c>
-      <c r="AA61" s="121">
+      <c r="AA61" s="120">
         <f>SUM(AA49,AA51,AA53,AA55,AA57,AA59)</f>
-        <v>23556436.596000005</v>
+        <v>23555945.850000001</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -31556,9 +31624,9 @@
         <f t="shared" si="90"/>
         <v>806060.03200000012</v>
       </c>
-      <c r="AA62" s="122">
+      <c r="AA62" s="121">
         <f>SUM(AA50,AA52,AA54,AA56,AA58,AA60)</f>
-        <v>1261076.787432</v>
+        <v>1261050.5157000001</v>
       </c>
     </row>
   </sheetData>
@@ -31566,958 +31634,1067 @@
     <hyperlink ref="D25" r:id="rId1" display="Infection Rate" xr:uid="{98D6456F-EA03-4FCB-8D3D-1822F6B38CCF}"/>
     <hyperlink ref="E25" r:id="rId2" location="case-fatality-rate-of-covid-19-by-age" xr:uid="{0058192C-B05A-45D2-8597-C1F9B3D9241E}"/>
     <hyperlink ref="E48" r:id="rId3" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{110A2613-24A6-4768-B90C-571B307D13E2}"/>
+    <hyperlink ref="B1" r:id="rId4" display="https://www.abs.gov.au/ausstats/abs@.nsf/0/1647509ef7e25faaca2568a900154b63?opendocument" xr:uid="{63727E5E-0850-4414-8DD8-E50A09A5AEE8}"/>
+    <hyperlink ref="B25" r:id="rId5" xr:uid="{E432DB14-5D35-4B35-8F24-1C070D7F22B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C72C88-CD5D-4DB8-876B-F718C1E8501B}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>302684</v>
+      </c>
+      <c r="L2" s="127"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
-        <v>303407</v>
-      </c>
+      <c r="B3" s="9">
+        <v>304818</v>
+      </c>
+      <c r="L3" s="127"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9">
-        <v>308459</v>
-      </c>
+      <c r="B4" s="9">
+        <v>311200</v>
+      </c>
+      <c r="L4" s="127"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9">
-        <v>323809</v>
-      </c>
+      <c r="B5" s="9">
+        <v>326896</v>
+      </c>
+      <c r="L5" s="127"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9">
-        <v>318292</v>
-      </c>
+      <c r="B6" s="9">
+        <v>321565</v>
+      </c>
+      <c r="L6" s="127"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9">
-        <v>318326</v>
-      </c>
+      <c r="B7" s="11">
+        <v>1567163</v>
+      </c>
+      <c r="L7" s="128"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11">
-        <v>1572293</v>
-      </c>
+      <c r="B8" s="9">
+        <v>321643</v>
+      </c>
+      <c r="L8" s="127"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9">
-        <v>324001</v>
-      </c>
+      <c r="B9" s="9">
+        <v>326729</v>
+      </c>
+      <c r="L9" s="127"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9">
-        <v>321028</v>
-      </c>
+      <c r="B10" s="9">
+        <v>323562</v>
+      </c>
+      <c r="L10" s="127"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9">
-        <v>320255</v>
-      </c>
+      <c r="B11" s="9">
+        <v>322648</v>
+      </c>
+      <c r="L11" s="127"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9">
-        <v>321787</v>
-      </c>
+      <c r="B12" s="9">
+        <v>324065</v>
+      </c>
+      <c r="L12" s="127"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9">
-        <v>317469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" s="13">
-        <v>1604540</v>
+        <v>1618647</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(B7,B13)</f>
-        <v>3176833</v>
+        <v>3185810</v>
       </c>
       <c r="D13" s="1">
         <f>C13/$B$108</f>
-        <v>0.12716137671014424</v>
-      </c>
+        <v>0.1255958322404806</v>
+      </c>
+      <c r="L13" s="128"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7">
+        <v>319703</v>
+      </c>
+      <c r="L14" s="127"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7">
-        <v>317746</v>
-      </c>
+      <c r="B15" s="9">
+        <v>319972</v>
+      </c>
+      <c r="L15" s="127"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9">
-        <v>314444</v>
-      </c>
+      <c r="B16" s="9">
+        <v>316523</v>
+      </c>
+      <c r="L16" s="127"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9">
-        <v>303530</v>
-      </c>
+      <c r="B17" s="9">
+        <v>305472</v>
+      </c>
+      <c r="L17" s="127"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9">
-        <v>292012</v>
-      </c>
+      <c r="B18" s="9">
+        <v>294067</v>
+      </c>
+      <c r="L18" s="127"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9">
-        <v>288185</v>
-      </c>
+      <c r="B19" s="11">
+        <v>1555737</v>
+      </c>
+      <c r="L19" s="128"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="11">
-        <v>1515917</v>
-      </c>
+      <c r="B20" s="9">
+        <v>290601</v>
+      </c>
+      <c r="L20" s="127"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="9">
-        <v>285577</v>
-      </c>
+      <c r="B21" s="9">
+        <v>288611</v>
+      </c>
+      <c r="L21" s="127"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="9">
-        <v>286559</v>
-      </c>
+      <c r="B22" s="9">
+        <v>290316</v>
+      </c>
+      <c r="L22" s="127"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="9">
-        <v>294689</v>
-      </c>
+      <c r="B23" s="9">
+        <v>307634</v>
+      </c>
+      <c r="L23" s="127"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="9">
-        <v>306243</v>
-      </c>
+      <c r="B24" s="9">
+        <v>325295</v>
+      </c>
+      <c r="L24" s="127"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9">
-        <v>317676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="B25" s="13">
-        <v>1490744</v>
+        <v>1502457</v>
       </c>
       <c r="C25" s="2">
         <f>SUM(B25,B19)</f>
-        <v>3006661</v>
+        <v>3058194</v>
       </c>
       <c r="D25" s="1">
         <f>C25/$B$108</f>
-        <v>0.12034977981552665</v>
-      </c>
+        <v>0.12056476079328157</v>
+      </c>
+      <c r="L25" s="128"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7">
+        <v>330388</v>
+      </c>
+      <c r="L26" s="127"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="7">
-        <v>324826</v>
-      </c>
+      <c r="B27" s="9">
+        <v>335483</v>
+      </c>
+      <c r="L27" s="127"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="9">
-        <v>332316</v>
-      </c>
+      <c r="B28" s="9">
+        <v>347121</v>
+      </c>
+      <c r="L28" s="127"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9">
-        <v>345101</v>
-      </c>
+      <c r="B29" s="9">
+        <v>365323</v>
+      </c>
+      <c r="L29" s="127"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="9">
-        <v>366768</v>
-      </c>
+      <c r="B30" s="9">
+        <v>380725</v>
+      </c>
+      <c r="L30" s="127"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="9">
-        <v>370624</v>
-      </c>
+      <c r="B31" s="11">
+        <v>1759040</v>
+      </c>
+      <c r="L31" s="128"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="11">
-        <v>1739635</v>
-      </c>
+      <c r="B32" s="9">
+        <v>379564</v>
+      </c>
+      <c r="L32" s="127"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="9">
-        <v>369083</v>
-      </c>
+      <c r="B33" s="9">
+        <v>376903</v>
+      </c>
+      <c r="L33" s="127"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="9">
-        <v>371226</v>
-      </c>
+      <c r="B34" s="9">
+        <v>378326</v>
+      </c>
+      <c r="L34" s="127"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="9">
-        <v>377728</v>
-      </c>
+      <c r="B35" s="9">
+        <v>384454</v>
+      </c>
+      <c r="L35" s="127"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="9">
-        <v>382958</v>
-      </c>
+      <c r="B36" s="9">
+        <v>389152</v>
+      </c>
+      <c r="L36" s="127"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="9">
-        <v>376323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="B37" s="13">
-        <v>1877318</v>
+        <v>1908399</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(B31,B37)</f>
-        <v>3616953</v>
+        <v>3667439</v>
       </c>
       <c r="D37" s="1">
         <f>C37/$B$108</f>
-        <v>0.14477837612990244</v>
-      </c>
+        <v>0.14458334093878666</v>
+      </c>
+      <c r="L37" s="128"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="7">
+        <v>381627</v>
+      </c>
+      <c r="L38" s="127"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="7">
-        <v>375913</v>
-      </c>
+      <c r="B39" s="9">
+        <v>380703</v>
+      </c>
+      <c r="L39" s="127"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="9">
-        <v>372184</v>
-      </c>
+      <c r="B40" s="9">
+        <v>376308</v>
+      </c>
+      <c r="L40" s="127"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="9">
-        <v>374909</v>
-      </c>
+      <c r="B41" s="9">
+        <v>378900</v>
+      </c>
+      <c r="L41" s="127"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="9">
-        <v>370727</v>
-      </c>
+      <c r="B42" s="9">
+        <v>374563</v>
+      </c>
+      <c r="L42" s="127"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="9">
-        <v>369093</v>
-      </c>
+      <c r="B43" s="11">
+        <v>1892101</v>
+      </c>
+      <c r="L43" s="128"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="11">
-        <v>1862826</v>
-      </c>
+      <c r="B44" s="9">
+        <v>371946</v>
+      </c>
+      <c r="L44" s="127"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="9">
-        <v>366167</v>
-      </c>
+      <c r="B45" s="9">
+        <v>368877</v>
+      </c>
+      <c r="L45" s="127"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="9">
-        <v>355211</v>
-      </c>
+      <c r="B46" s="9">
+        <v>357736</v>
+      </c>
+      <c r="L46" s="127"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="9">
-        <v>346074</v>
-      </c>
+      <c r="B47" s="9">
+        <v>348170</v>
+      </c>
+      <c r="L47" s="127"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="9">
-        <v>332582</v>
-      </c>
+      <c r="B48" s="9">
+        <v>334445</v>
+      </c>
+      <c r="L48" s="127"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="9">
-        <v>322857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="B49" s="13">
-        <v>1722891</v>
+        <v>1781174</v>
       </c>
       <c r="C49" s="2">
         <f>SUM(B43,B49)</f>
-        <v>3585717</v>
+        <v>3673275</v>
       </c>
       <c r="D49" s="1">
         <f>C49/$B$108</f>
-        <v>0.14352807031813389</v>
-      </c>
+        <v>0.14481341657950456</v>
+      </c>
+      <c r="L49" s="128"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="7">
+        <v>324591</v>
+      </c>
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="7">
-        <v>316895</v>
-      </c>
+      <c r="B51" s="9">
+        <v>318448</v>
+      </c>
+      <c r="L51" s="127"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="9">
-        <v>314772</v>
-      </c>
+      <c r="B52" s="9">
+        <v>315770</v>
+      </c>
+      <c r="L52" s="127"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="9">
-        <v>317141</v>
-      </c>
+      <c r="B53" s="9">
+        <v>318107</v>
+      </c>
+      <c r="L53" s="127"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="9">
-        <v>318159</v>
-      </c>
+      <c r="B54" s="9">
+        <v>318926</v>
+      </c>
+      <c r="L54" s="127"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="9">
-        <v>327088</v>
-      </c>
+      <c r="B55" s="11">
+        <v>1595842</v>
+      </c>
+      <c r="L55" s="128"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="11">
-        <v>1594055</v>
-      </c>
+      <c r="B56" s="9">
+        <v>327436</v>
+      </c>
+      <c r="L56" s="127"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="9">
-        <v>332783</v>
-      </c>
+      <c r="B57" s="9">
+        <v>332934</v>
+      </c>
+      <c r="L57" s="127"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="9">
-        <v>344220</v>
-      </c>
+      <c r="B58" s="9">
+        <v>344168</v>
+      </c>
+      <c r="L58" s="127"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="9">
-        <v>347838</v>
-      </c>
+      <c r="B59" s="9">
+        <v>347705</v>
+      </c>
+      <c r="L59" s="127"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="9">
-        <v>326482</v>
-      </c>
+      <c r="B60" s="9">
+        <v>326172</v>
+      </c>
+      <c r="L60" s="127"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="9">
-        <v>320787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="B61" s="13">
-        <v>1672110</v>
+        <v>1678415</v>
       </c>
       <c r="C61" s="2">
         <f>SUM(B55,B61)</f>
-        <v>3266165</v>
+        <v>3274257</v>
       </c>
       <c r="D61" s="1">
         <f>C61/$B$108</f>
-        <v>0.1307371328497558</v>
-      </c>
+        <v>0.12908272398046944</v>
+      </c>
+      <c r="L61" s="128"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="7">
+        <v>320460</v>
+      </c>
+      <c r="L62" s="127"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="7">
-        <v>310490</v>
-      </c>
+      <c r="B63" s="9">
+        <v>310043</v>
+      </c>
+      <c r="L63" s="127"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="9">
-        <v>301859</v>
-      </c>
+      <c r="B64" s="9">
+        <v>301380</v>
+      </c>
+      <c r="L64" s="127"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="9">
-        <v>302437</v>
-      </c>
+      <c r="B65" s="9">
+        <v>301965</v>
+      </c>
+      <c r="L65" s="127"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="9">
-        <v>301438</v>
-      </c>
+      <c r="B66" s="9">
+        <v>300916</v>
+      </c>
+      <c r="L66" s="127"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="9">
-        <v>312662</v>
-      </c>
+      <c r="B67" s="11">
+        <v>1534764</v>
+      </c>
+      <c r="L67" s="128"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="11">
-        <v>1528886</v>
-      </c>
+      <c r="B68" s="9">
+        <v>311890</v>
+      </c>
+      <c r="L68" s="127"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="9">
-        <v>314827</v>
-      </c>
+      <c r="B69" s="9">
+        <v>313933</v>
+      </c>
+      <c r="L69" s="127"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="9">
-        <v>312608</v>
-      </c>
+      <c r="B70" s="9">
+        <v>311527</v>
+      </c>
+      <c r="L70" s="127"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="9">
-        <v>310347</v>
-      </c>
+      <c r="B71" s="9">
+        <v>309248</v>
+      </c>
+      <c r="L71" s="127"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="9">
-        <v>299799</v>
-      </c>
+      <c r="B72" s="9">
+        <v>298726</v>
+      </c>
+      <c r="L72" s="127"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="9">
-        <v>291854</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="B73" s="15">
-        <v>1529435</v>
+        <v>1545324</v>
       </c>
       <c r="C73" s="2">
         <f>SUM(B67,B73)</f>
-        <v>3058321</v>
+        <v>3080088</v>
       </c>
       <c r="D73" s="1">
         <f>C73/$B$108</f>
-        <v>0.12241761174778311</v>
-      </c>
+        <v>0.12142789925761971</v>
+      </c>
+      <c r="L73" s="128"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="7">
+        <v>290624</v>
+      </c>
+      <c r="L74" s="127"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="7">
-        <v>286653</v>
-      </c>
+      <c r="B75" s="9">
+        <v>285521</v>
+      </c>
+      <c r="L75" s="127"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="9">
-        <v>278597</v>
-      </c>
+      <c r="B76" s="9">
+        <v>277305</v>
+      </c>
+      <c r="L76" s="127"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="9">
-        <v>274229</v>
-      </c>
+      <c r="B77" s="9">
+        <v>272986</v>
+      </c>
+      <c r="L77" s="127"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="9">
-        <v>263189</v>
-      </c>
+      <c r="B78" s="9">
+        <v>261893</v>
+      </c>
+      <c r="L78" s="127"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="9">
-        <v>256395</v>
-      </c>
+      <c r="B79" s="11">
+        <v>1388329</v>
+      </c>
+      <c r="L79" s="128"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="11">
-        <v>1359063</v>
-      </c>
+      <c r="B80" s="9">
+        <v>254839</v>
+      </c>
+      <c r="L80" s="127"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="9">
-        <v>253278</v>
-      </c>
+      <c r="B81" s="9">
+        <v>251416</v>
+      </c>
+      <c r="L81" s="127"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="9">
-        <v>245505</v>
-      </c>
+      <c r="B82" s="9">
+        <v>243468</v>
+      </c>
+      <c r="L82" s="127"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="9">
-        <v>242897</v>
-      </c>
+      <c r="B83" s="9">
+        <v>240724</v>
+      </c>
+      <c r="L83" s="127"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="9">
-        <v>236622</v>
-      </c>
+      <c r="B84" s="9">
+        <v>234326</v>
+      </c>
+      <c r="L84" s="127"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="9">
-        <v>228616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="B85" s="13">
-        <v>1206918</v>
+        <v>1224773</v>
       </c>
       <c r="C85" s="2">
         <f>SUM(B79,B85)</f>
-        <v>2565981</v>
+        <v>2613102</v>
       </c>
       <c r="D85" s="1">
         <f>C85/$B$108</f>
-        <v>0.10271036487346757</v>
-      </c>
+        <v>0.10301766910746854</v>
+      </c>
+      <c r="L85" s="128"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="7">
+        <v>226082</v>
+      </c>
+      <c r="L86" s="127"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="7">
-        <v>229044</v>
-      </c>
+      <c r="B87" s="9">
+        <v>226412</v>
+      </c>
+      <c r="L87" s="127"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="9">
-        <v>233694</v>
-      </c>
+      <c r="B88" s="9">
+        <v>231019</v>
+      </c>
+      <c r="L88" s="127"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="9">
-        <v>195750</v>
-      </c>
+      <c r="B89" s="9">
+        <v>192937</v>
+      </c>
+      <c r="L89" s="127"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="9">
-        <v>184470</v>
-      </c>
+      <c r="B90" s="9">
+        <v>181454</v>
+      </c>
+      <c r="L90" s="127"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="9">
-        <v>174168</v>
-      </c>
+      <c r="B91" s="11">
+        <v>1057904</v>
+      </c>
+      <c r="L91" s="128"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="11">
-        <v>1017126</v>
-      </c>
+      <c r="B92" s="9">
+        <v>171139</v>
+      </c>
+      <c r="L92" s="127"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="9">
-        <v>155236</v>
-      </c>
+      <c r="B93" s="9">
+        <v>151876</v>
+      </c>
+      <c r="L93" s="127"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="9">
-        <v>151609</v>
-      </c>
+      <c r="B94" s="9">
+        <v>148212</v>
+      </c>
+      <c r="L94" s="127"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B94" s="9">
-        <v>139284</v>
-      </c>
+      <c r="B95" s="9">
+        <v>135541</v>
+      </c>
+      <c r="L95" s="127"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="9">
-        <v>131354</v>
-      </c>
+      <c r="B96" s="9">
+        <v>127491</v>
+      </c>
+      <c r="L96" s="127"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B96" s="9">
-        <v>122545</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="B97" s="13">
-        <v>700028</v>
+        <v>734259</v>
       </c>
       <c r="C97" s="2">
         <f>SUM(B91,B97)</f>
-        <v>1717154</v>
+        <v>1792163</v>
       </c>
       <c r="D97" s="1">
         <f>C97/$B$108</f>
-        <v>6.8733756751875541E-2</v>
-      </c>
+        <v>7.065336711718416E-2</v>
+      </c>
+      <c r="L97" s="128"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="7">
+        <v>118484</v>
+      </c>
+      <c r="L98" s="127"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="7">
-        <v>113813</v>
-      </c>
+      <c r="B99" s="9">
+        <v>109564</v>
+      </c>
+      <c r="L99" s="127"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B99" s="9">
-        <v>106420</v>
-      </c>
+      <c r="B100" s="9">
+        <v>101897</v>
+      </c>
+      <c r="L100" s="127"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="9">
-        <v>97756</v>
-      </c>
+      <c r="B101" s="9">
+        <v>93053</v>
+      </c>
+      <c r="L101" s="127"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B101" s="9">
-        <v>87436</v>
-      </c>
+      <c r="B102" s="9">
+        <v>82541</v>
+      </c>
+      <c r="L102" s="127"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B102" s="9">
-        <v>80415</v>
-      </c>
+      <c r="B103" s="11">
+        <v>505539</v>
+      </c>
+      <c r="L103" s="128"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="11">
-        <v>485840</v>
-      </c>
+      <c r="B104" s="11">
+        <v>313008</v>
+      </c>
+      <c r="L104" s="128"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B104" s="11">
-        <v>309768</v>
-      </c>
+      <c r="B105" s="11">
+        <v>153468</v>
+      </c>
+      <c r="L105" s="128"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="11">
-        <v>149167</v>
-      </c>
+      <c r="B106" s="11">
+        <v>44201</v>
+      </c>
+      <c r="L106" s="128"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="11">
-        <v>39704</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="B107" s="13">
-        <v>4424</v>
+        <v>5027</v>
       </c>
       <c r="C107" s="2">
         <f>SUM(B103:B107)</f>
-        <v>988903</v>
+        <v>1021243</v>
       </c>
       <c r="D107" s="1">
         <f>C107/$B$108</f>
-        <v>3.9583530803410746E-2</v>
-      </c>
+        <v>4.0260989985204748E-2</v>
+      </c>
+      <c r="L107" s="128"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="5">
-        <v>24982688</v>
-      </c>
+        <v>25365571</v>
+      </c>
+      <c r="L108" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32529,20 +32706,20 @@
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -32655,7 +32832,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <f>SUM(B4:B12)</f>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645714D4-832D-4DF0-B87C-C5FE545B8A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594050E5-E330-4602-894D-5D0D068382F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="285">
   <si>
     <t>Australian Population</t>
   </si>
@@ -876,9 +876,6 @@
     <t>Number active Critical</t>
   </si>
   <si>
-    <t>Avg Doubling Rate</t>
-  </si>
-  <si>
     <t>Projected number of Cumulative Mild cases</t>
   </si>
   <si>
@@ -889,6 +886,12 @@
   </si>
   <si>
     <t>Projected number recovered Mild Cases</t>
+  </si>
+  <si>
+    <t>Avg Projected Doubling Rate</t>
+  </si>
+  <si>
+    <t>* Dip a result of levelling out of doubling rate over full period as rate slows down</t>
   </si>
 </sst>
 </file>
@@ -902,9 +905,9 @@
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="[$$-C09]#,##0.00;[Red]&quot;-&quot;[$$-C09]#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.00000%"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +983,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1348,7 +1359,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1490,7 +1501,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1498,8 +1508,6 @@
     <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1598,8 +1606,6 @@
     <xf numFmtId="3" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1607,6 +1613,52 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,61 +1683,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1845,46 +1852,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,46 +2001,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,46 +2150,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,10 +3879,10 @@
                   <c:v>195.68750407948789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>497.16838826060189</c:v>
+                  <c:v>498.98699663649217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.25719594227769</c:v>
+                  <c:v>172.25610827436026</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>450.74461138300785</c:v>
@@ -4218,7 +4225,7 @@
                   <c:v>15.944293100151134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.822151852746757</c:v>
+                  <c:v>49.142521896740917</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.753935577022887</c:v>
@@ -12328,46 +12335,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12468,46 +12475,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12611,46 +12618,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12748,46 +12755,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13155,46 +13162,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13304,46 +13311,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13453,46 +13460,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13870,46 +13877,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14010,46 +14017,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14153,46 +14160,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14290,46 +14297,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43881.881493981484</c:v>
+                  <c:v>43882.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43884.881493981484</c:v>
+                  <c:v>43885.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43887.881493981484</c:v>
+                  <c:v>43888.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43890.881493981484</c:v>
+                  <c:v>43891.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43893.881493981484</c:v>
+                  <c:v>43894.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43896.881493981484</c:v>
+                  <c:v>43897.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899.881493981484</c:v>
+                  <c:v>43900.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43902.881493981484</c:v>
+                  <c:v>43903.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43905.881493981484</c:v>
+                  <c:v>43906.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43908.881493981484</c:v>
+                  <c:v>43909.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43911.881493981484</c:v>
+                  <c:v>43912.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43914.881493981484</c:v>
+                  <c:v>43915.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917.881493981484</c:v>
+                  <c:v>43918.612561458336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43920.881493981484</c:v>
+                  <c:v>43921.612561458336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14981,10 +14988,10 @@
                   <c:v>195.68750407948789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>497.16838826060189</c:v>
+                  <c:v>498.98699663649217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.25719594227769</c:v>
+                  <c:v>172.25610827436026</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>450.74461138300785</c:v>
@@ -15327,7 +15334,7 @@
                   <c:v>15.944293100151134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.822151852746757</c:v>
+                  <c:v>49.142521896740917</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.753935577022887</c:v>
@@ -33321,89 +33328,89 @@
       <c r="A17" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="134">
+      <c r="B17" s="131">
         <f>(AP25/E31) /Projections!B2</f>
         <v>86.580086580086572</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="130">
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="127">
         <f>B17*2</f>
         <v>173.16017316017314</v>
       </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130">
+      <c r="F17" s="132"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127">
         <f>E17*2</f>
         <v>346.32034632034629</v>
       </c>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="127">
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="124">
         <f>H17*2</f>
         <v>692.64069264069258</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127">
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124">
         <f>K17*2</f>
         <v>1385.2813852813852</v>
       </c>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127">
+      <c r="O17" s="122"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="124">
         <f>N17*2</f>
         <v>2770.5627705627703</v>
       </c>
-      <c r="R17" s="125"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="127">
+      <c r="R17" s="122"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124">
         <f>Q17*2</f>
         <v>5541.1255411255406</v>
       </c>
-      <c r="U17" s="125"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="127">
+      <c r="U17" s="122"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="124">
         <f>T17*2</f>
         <v>11082.251082251081</v>
       </c>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="127">
+      <c r="X17" s="122"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="124">
         <f>W17*2</f>
         <v>22164.502164502162</v>
       </c>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="127">
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="124">
         <f>Z17*2</f>
         <v>44329.004329004325</v>
       </c>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="127">
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="124">
         <f>AC17*2</f>
         <v>88658.00865800865</v>
       </c>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="127">
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="124">
         <f>AF17*2</f>
         <v>177316.0173160173</v>
       </c>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="126"/>
-      <c r="AL17" s="127">
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="123"/>
+      <c r="AL17" s="124">
         <f>AI17*2</f>
         <v>354632.0346320346</v>
       </c>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="127">
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="124">
         <f>AL17*2</f>
         <v>709264.0692640692</v>
       </c>
-      <c r="AP17" s="130"/>
+      <c r="AP17" s="127"/>
       <c r="AQ17" t="s">
         <v>196</v>
       </c>
@@ -33412,85 +33419,85 @@
       <c r="A18" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="115">
+      <c r="B18" s="114">
         <f>B17*0.3</f>
         <v>25.97402597402597</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137">
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134">
         <f>E17*0.3</f>
         <v>51.94805194805194</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="137">
+      <c r="H18" s="134">
         <f>H17*0.3</f>
         <v>103.89610389610388</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137">
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134">
         <f>K17*0.3</f>
         <v>207.79220779220776</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137">
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134">
         <f>N17*0.3</f>
         <v>415.58441558441552</v>
       </c>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137">
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134">
         <f>Q17*0.3</f>
         <v>831.16883116883105</v>
       </c>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137">
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134">
         <f>T17*0.3</f>
         <v>1662.3376623376621</v>
       </c>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137">
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134">
         <f>W17*0.3</f>
         <v>3324.6753246753242</v>
       </c>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137">
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134">
         <f>Z17*0.3</f>
         <v>6649.3506493506484</v>
       </c>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137">
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134">
         <f>AC17*0.3</f>
         <v>13298.701298701297</v>
       </c>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137">
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="134">
         <f>AF17*0.3</f>
         <v>26597.402597402594</v>
       </c>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="137">
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="134">
         <f>AI17*0.3</f>
         <v>53194.805194805187</v>
       </c>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="137">
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="134"/>
+      <c r="AL18" s="134">
         <f>AL17*0.3</f>
         <v>106389.61038961037</v>
       </c>
-      <c r="AM18" s="137"/>
-      <c r="AN18" s="137"/>
-      <c r="AO18" s="137">
+      <c r="AM18" s="134"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="134">
         <f>AO17*0.3</f>
         <v>212779.22077922075</v>
       </c>
@@ -33503,89 +33510,89 @@
       <c r="A19" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="113">
+      <c r="B19" s="112">
         <f>B18</f>
         <v>25.97402597402597</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114">
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113">
         <f>E18</f>
         <v>51.94805194805194</v>
       </c>
-      <c r="F19" s="114"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="114">
+      <c r="H19" s="113">
         <f>H18</f>
         <v>103.89610389610388</v>
       </c>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114">
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113">
         <f>K18</f>
         <v>207.79220779220776</v>
       </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114">
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113">
         <f>N18</f>
         <v>415.58441558441552</v>
       </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114">
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113">
         <f>Q18</f>
         <v>831.16883116883105</v>
       </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114">
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113">
         <f>T18</f>
         <v>1662.3376623376621</v>
       </c>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="154">
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="151">
         <f>W18-B18</f>
         <v>3298.7012987012981</v>
       </c>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154">
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151">
         <f>Z18-E18</f>
         <v>6597.4025974025963</v>
       </c>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154">
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151">
         <f>AC18-H18</f>
         <v>13194.805194805193</v>
       </c>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="154">
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151">
         <f>AF18-K18</f>
         <v>26389.610389610385</v>
       </c>
-      <c r="AG19" s="154"/>
-      <c r="AH19" s="154"/>
-      <c r="AI19" s="154">
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="151">
         <f>AI18-N18</f>
         <v>52779.22077922077</v>
       </c>
-      <c r="AJ19" s="154"/>
-      <c r="AK19" s="154"/>
-      <c r="AL19" s="154">
+      <c r="AJ19" s="151"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="151">
         <f>AL18-Q18</f>
         <v>105558.44155844154</v>
       </c>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="154"/>
-      <c r="AO19" s="154">
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151">
         <f>AO18-T18</f>
         <v>211116.88311688308</v>
       </c>
-      <c r="AP19" s="155"/>
+      <c r="AP19" s="152"/>
       <c r="AQ19" s="61" t="s">
         <v>198</v>
       </c>
@@ -33594,76 +33601,76 @@
       <c r="A20" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="164">
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="161">
         <f>B17*0.7</f>
         <v>60.606060606060595</v>
       </c>
-      <c r="L20" s="161"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163">
+      <c r="L20" s="158"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="160">
         <f>E17*0.7</f>
         <v>121.21212121212119</v>
       </c>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="163">
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="160">
         <f>H17*0.7</f>
         <v>242.42424242424238</v>
       </c>
-      <c r="R20" s="161"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163">
+      <c r="R20" s="158"/>
+      <c r="S20" s="159"/>
+      <c r="T20" s="160">
         <f>K17*0.7</f>
         <v>484.84848484848476</v>
       </c>
-      <c r="U20" s="161"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="163">
+      <c r="U20" s="158"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160">
         <f>N17*0.7</f>
         <v>969.69696969696952</v>
       </c>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="163">
+      <c r="X20" s="158"/>
+      <c r="Y20" s="159"/>
+      <c r="Z20" s="160">
         <f>Q17*0.7</f>
         <v>1939.393939393939</v>
       </c>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="163">
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="160">
         <f>T17*0.7</f>
         <v>3878.7878787878781</v>
       </c>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="163">
+      <c r="AD20" s="158"/>
+      <c r="AE20" s="159"/>
+      <c r="AF20" s="160">
         <f>W17*0.7</f>
         <v>7757.5757575757561</v>
       </c>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="163">
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160">
         <f>Z17*0.7</f>
         <v>15515.151515151512</v>
       </c>
-      <c r="AJ20" s="161"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="163">
+      <c r="AJ20" s="158"/>
+      <c r="AK20" s="159"/>
+      <c r="AL20" s="160">
         <f>AC17*0.7</f>
         <v>31030.303030303025</v>
       </c>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163">
+      <c r="AM20" s="158"/>
+      <c r="AN20" s="159"/>
+      <c r="AO20" s="160">
         <f>AF17*0.7</f>
         <v>62060.606060606049</v>
       </c>
@@ -33682,77 +33689,77 @@
       <c r="E21" s="100"/>
       <c r="F21" s="100"/>
       <c r="G21" s="103"/>
-      <c r="H21" s="156">
+      <c r="H21" s="153">
         <f>B17-B18</f>
         <v>60.606060606060602</v>
       </c>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156">
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153">
         <f>E17-E18</f>
         <v>121.2121212121212</v>
       </c>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156">
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153">
         <f>(H17-H18)*$E$35</f>
         <v>196.36363636363637</v>
       </c>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156">
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153">
         <f>(K17-K18)*$E$35</f>
         <v>392.72727272727275</v>
       </c>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156">
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153">
         <f>(N17-N18)*$E$35</f>
         <v>785.4545454545455</v>
       </c>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156">
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
+      <c r="W21" s="153">
         <f>((Q17-Q18)*$E$35)-(H21*$E$35)</f>
         <v>1521.818181818182</v>
       </c>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156">
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="153">
         <f>((T17-T18)*$E$35)-(K21*$E$35)</f>
         <v>3043.636363636364</v>
       </c>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156">
+      <c r="AA21" s="153"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="153">
         <f>((W17-W18)*$E$35)-N21</f>
         <v>6087.2727272727279</v>
       </c>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="156">
+      <c r="AD21" s="153"/>
+      <c r="AE21" s="153"/>
+      <c r="AF21" s="153">
         <f>((Z17-Z18)*$E$35)-Q21</f>
         <v>12174.545454545456</v>
       </c>
-      <c r="AG21" s="156"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="156">
+      <c r="AG21" s="153"/>
+      <c r="AH21" s="153"/>
+      <c r="AI21" s="153">
         <f>((AC17-AC18)*$E$35)-T21</f>
         <v>24349.090909090912</v>
       </c>
-      <c r="AJ21" s="156"/>
-      <c r="AK21" s="156"/>
-      <c r="AL21" s="156">
+      <c r="AJ21" s="153"/>
+      <c r="AK21" s="153"/>
+      <c r="AL21" s="153">
         <f>((AF17-AF18)*$E$35)-W21</f>
         <v>48747.272727272728</v>
       </c>
-      <c r="AM21" s="156"/>
-      <c r="AN21" s="156"/>
-      <c r="AO21" s="156">
+      <c r="AM21" s="153"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="153">
         <f>((AI17-AI18)*$E$35)-Z21</f>
         <v>97494.545454545456</v>
       </c>
-      <c r="AP21" s="157"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="86" t="s">
         <v>177</v>
       </c>
@@ -33767,71 +33774,71 @@
       <c r="E22" s="100"/>
       <c r="F22" s="100"/>
       <c r="G22" s="103"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="158">
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="155">
         <f>(H17-H18)*($E$36+$E$37)</f>
         <v>46.060606060606055</v>
       </c>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158">
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155">
         <f>(K17-K18)*($E$36+$E$37)</f>
         <v>92.12121212121211</v>
       </c>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158">
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155">
         <f>(N17-N18)*$E$36</f>
         <v>135.75757575757575</v>
       </c>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158">
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155">
         <f>(Q17-Q18)*$E$36</f>
         <v>271.5151515151515</v>
       </c>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158">
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155">
         <f>(T17-T18)*$E$36</f>
         <v>543.030303030303</v>
       </c>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158">
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155">
         <f>(W17-W18)*$E$36</f>
         <v>1086.060606060606</v>
       </c>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158">
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155">
         <f>(Z17-Z18)*$E$36</f>
         <v>2172.121212121212</v>
       </c>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158">
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155">
         <f>(AC17-AC18)*$E$36</f>
         <v>4344.242424242424</v>
       </c>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="158"/>
-      <c r="AL22" s="158">
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155">
         <f>(AF17-AF18)*$E$36</f>
         <v>8688.484848484848</v>
       </c>
-      <c r="AM22" s="158"/>
-      <c r="AN22" s="158"/>
-      <c r="AO22" s="158">
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="155"/>
+      <c r="AO22" s="155">
         <f>(AI17-AI18)*$E$36</f>
         <v>17376.969696969696</v>
       </c>
-      <c r="AP22" s="159"/>
+      <c r="AP22" s="156"/>
       <c r="AQ22" s="86" t="s">
         <v>178</v>
       </c>
@@ -33846,18 +33853,18 @@
       <c r="E23" s="100"/>
       <c r="F23" s="100"/>
       <c r="G23" s="103"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="140"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="137"/>
       <c r="T23" s="54">
         <f>(N17-N18)*$E$37</f>
         <v>48.484848484848484</v>
@@ -33904,7 +33911,7 @@
         <f>(AI17-AI18)*$E$37</f>
         <v>6206.060606060606</v>
       </c>
-      <c r="AP23" s="160"/>
+      <c r="AP23" s="157"/>
       <c r="AQ23" s="61" t="s">
         <v>179</v>
       </c>
@@ -33913,68 +33920,68 @@
       <c r="A24" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="141">
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="138">
         <f>H21*$E$35</f>
         <v>49.090909090909093</v>
       </c>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141">
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138">
         <f>K21*$E$35</f>
         <v>98.181818181818187</v>
       </c>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="141">
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138">
         <f>N21</f>
         <v>196.36363636363637</v>
       </c>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="141">
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="138">
         <f>Q21</f>
         <v>392.72727272727275</v>
       </c>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141">
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138">
         <f>T21</f>
         <v>785.4545454545455</v>
       </c>
-      <c r="AI24" s="141"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="141">
+      <c r="AI24" s="138"/>
+      <c r="AJ24" s="138"/>
+      <c r="AK24" s="138">
         <f>W21</f>
         <v>1521.818181818182</v>
       </c>
-      <c r="AL24" s="141"/>
-      <c r="AM24" s="141"/>
-      <c r="AN24" s="141">
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="138"/>
+      <c r="AN24" s="138">
         <f>Z21</f>
         <v>3043.636363636364</v>
       </c>
-      <c r="AO24" s="141"/>
-      <c r="AP24" s="142"/>
+      <c r="AO24" s="138"/>
+      <c r="AP24" s="139"/>
       <c r="AQ24" s="61" t="s">
         <v>184</v>
       </c>
@@ -33983,47 +33990,47 @@
       <c r="A25" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="124"/>
-      <c r="AN25" s="124"/>
-      <c r="AO25" s="124"/>
-      <c r="AP25" s="165">
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="121"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="162">
         <f>E32</f>
         <v>1</v>
       </c>
@@ -34032,412 +34039,412 @@
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="163" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="118">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43881.881493981484</v>
-      </c>
-      <c r="C26" s="122">
+        <v>43882.612561458336</v>
+      </c>
+      <c r="C26" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>43882.881493981484</v>
-      </c>
-      <c r="D26" s="122">
+        <v>43883.612561458336</v>
+      </c>
+      <c r="D26" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>43883.881493981484</v>
-      </c>
-      <c r="E26" s="122">
+        <v>43884.612561458336</v>
+      </c>
+      <c r="E26" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>43884.881493981484</v>
-      </c>
-      <c r="F26" s="122">
+        <v>43885.612561458336</v>
+      </c>
+      <c r="F26" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>43885.881493981484</v>
-      </c>
-      <c r="G26" s="123">
+        <v>43886.612561458336</v>
+      </c>
+      <c r="G26" s="120">
         <f t="shared" ca="1" si="0"/>
-        <v>43886.881493981484</v>
-      </c>
-      <c r="H26" s="122">
+        <v>43887.612561458336</v>
+      </c>
+      <c r="H26" s="119">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43887.881493981484</v>
-      </c>
-      <c r="I26" s="122">
+        <v>43888.612561458336</v>
+      </c>
+      <c r="I26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43888.881493981484</v>
-      </c>
-      <c r="J26" s="122">
+        <v>43889.612561458336</v>
+      </c>
+      <c r="J26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43889.881493981484</v>
-      </c>
-      <c r="K26" s="122">
+        <v>43890.612561458336</v>
+      </c>
+      <c r="K26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43890.881493981484</v>
-      </c>
-      <c r="L26" s="122">
+        <v>43891.612561458336</v>
+      </c>
+      <c r="L26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43891.881493981484</v>
-      </c>
-      <c r="M26" s="122">
+        <v>43892.612561458336</v>
+      </c>
+      <c r="M26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43892.881493981484</v>
-      </c>
-      <c r="N26" s="123">
+        <v>43893.612561458336</v>
+      </c>
+      <c r="N26" s="120">
         <f t="shared" ca="1" si="1"/>
-        <v>43893.881493981484</v>
-      </c>
-      <c r="O26" s="121">
+        <v>43894.612561458336</v>
+      </c>
+      <c r="O26" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>43894.881493981484</v>
-      </c>
-      <c r="P26" s="122">
+        <v>43895.612561458336</v>
+      </c>
+      <c r="P26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43895.881493981484</v>
-      </c>
-      <c r="Q26" s="122">
+        <v>43896.612561458336</v>
+      </c>
+      <c r="Q26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43896.881493981484</v>
-      </c>
-      <c r="R26" s="122">
+        <v>43897.612561458336</v>
+      </c>
+      <c r="R26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43897.881493981484</v>
-      </c>
-      <c r="S26" s="122">
+        <v>43898.612561458336</v>
+      </c>
+      <c r="S26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43898.881493981484</v>
-      </c>
-      <c r="T26" s="122">
+        <v>43899.612561458336</v>
+      </c>
+      <c r="T26" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>43899.881493981484</v>
-      </c>
-      <c r="U26" s="123">
+        <v>43900.612561458336</v>
+      </c>
+      <c r="U26" s="120">
         <f t="shared" ca="1" si="1"/>
-        <v>43900.881493981484</v>
-      </c>
-      <c r="V26" s="121">
+        <v>43901.612561458336</v>
+      </c>
+      <c r="V26" s="118">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43901.881493981484</v>
-      </c>
-      <c r="W26" s="122">
+        <v>43902.612561458336</v>
+      </c>
+      <c r="W26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43902.881493981484</v>
-      </c>
-      <c r="X26" s="122">
+        <v>43903.612561458336</v>
+      </c>
+      <c r="X26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43903.881493981484</v>
-      </c>
-      <c r="Y26" s="122">
+        <v>43904.612561458336</v>
+      </c>
+      <c r="Y26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43904.881493981484</v>
-      </c>
-      <c r="Z26" s="122">
+        <v>43905.612561458336</v>
+      </c>
+      <c r="Z26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43905.881493981484</v>
-      </c>
-      <c r="AA26" s="122">
+        <v>43906.612561458336</v>
+      </c>
+      <c r="AA26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43906.881493981484</v>
-      </c>
-      <c r="AB26" s="123">
+        <v>43907.612561458336</v>
+      </c>
+      <c r="AB26" s="120">
         <f t="shared" ca="1" si="2"/>
-        <v>43907.881493981484</v>
-      </c>
-      <c r="AC26" s="121">
+        <v>43908.612561458336</v>
+      </c>
+      <c r="AC26" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>43908.881493981484</v>
-      </c>
-      <c r="AD26" s="122">
+        <v>43909.612561458336</v>
+      </c>
+      <c r="AD26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43909.881493981484</v>
-      </c>
-      <c r="AE26" s="122">
+        <v>43910.612561458336</v>
+      </c>
+      <c r="AE26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43910.881493981484</v>
-      </c>
-      <c r="AF26" s="122">
+        <v>43911.612561458336</v>
+      </c>
+      <c r="AF26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43911.881493981484</v>
-      </c>
-      <c r="AG26" s="122">
+        <v>43912.612561458336</v>
+      </c>
+      <c r="AG26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43912.881493981484</v>
-      </c>
-      <c r="AH26" s="122">
+        <v>43913.612561458336</v>
+      </c>
+      <c r="AH26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43913.881493981484</v>
-      </c>
-      <c r="AI26" s="123">
+        <v>43914.612561458336</v>
+      </c>
+      <c r="AI26" s="120">
         <f t="shared" ca="1" si="2"/>
-        <v>43914.881493981484</v>
-      </c>
-      <c r="AJ26" s="121">
+        <v>43915.612561458336</v>
+      </c>
+      <c r="AJ26" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>43915.881493981484</v>
-      </c>
-      <c r="AK26" s="122">
+        <v>43916.612561458336</v>
+      </c>
+      <c r="AK26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43916.881493981484</v>
-      </c>
-      <c r="AL26" s="122">
+        <v>43917.612561458336</v>
+      </c>
+      <c r="AL26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43917.881493981484</v>
-      </c>
-      <c r="AM26" s="122">
+        <v>43918.612561458336</v>
+      </c>
+      <c r="AM26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43918.881493981484</v>
-      </c>
-      <c r="AN26" s="122">
+        <v>43919.612561458336</v>
+      </c>
+      <c r="AN26" s="119">
         <f t="shared" ca="1" si="2"/>
-        <v>43919.881493981484</v>
-      </c>
-      <c r="AO26" s="122">
+        <v>43920.612561458336</v>
+      </c>
+      <c r="AO26" s="119">
         <f ca="1">AP26-1</f>
-        <v>43920.881493981484</v>
-      </c>
-      <c r="AP26" s="143">
+        <v>43921.612561458336</v>
+      </c>
+      <c r="AP26" s="140">
         <f ca="1">NOW()</f>
-        <v>43921.881493981484</v>
+        <v>43922.612561458336</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="150">
+      <c r="B27" s="147">
         <v>1</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="148">
         <v>2</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="147">
         <v>3</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="148">
         <v>4</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="147">
         <v>5</v>
       </c>
-      <c r="G27" s="152">
+      <c r="G27" s="149">
         <v>6</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="148">
         <v>7</v>
       </c>
-      <c r="I27" s="151">
+      <c r="I27" s="148">
         <v>8</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="148">
         <v>9</v>
       </c>
-      <c r="K27" s="151">
+      <c r="K27" s="148">
         <v>10</v>
       </c>
-      <c r="L27" s="151">
+      <c r="L27" s="148">
         <v>11</v>
       </c>
-      <c r="M27" s="151">
+      <c r="M27" s="148">
         <v>12</v>
       </c>
-      <c r="N27" s="152">
+      <c r="N27" s="149">
         <v>13</v>
       </c>
-      <c r="O27" s="150">
+      <c r="O27" s="147">
         <v>14</v>
       </c>
-      <c r="P27" s="151">
+      <c r="P27" s="148">
         <v>15</v>
       </c>
-      <c r="Q27" s="151">
+      <c r="Q27" s="148">
         <v>16</v>
       </c>
-      <c r="R27" s="151">
+      <c r="R27" s="148">
         <v>17</v>
       </c>
-      <c r="S27" s="151">
+      <c r="S27" s="148">
         <v>18</v>
       </c>
-      <c r="T27" s="151">
+      <c r="T27" s="148">
         <v>19</v>
       </c>
-      <c r="U27" s="152">
+      <c r="U27" s="149">
         <v>20</v>
       </c>
-      <c r="V27" s="150">
+      <c r="V27" s="147">
         <v>21</v>
       </c>
-      <c r="W27" s="151">
+      <c r="W27" s="148">
         <v>22</v>
       </c>
-      <c r="X27" s="151">
+      <c r="X27" s="148">
         <v>23</v>
       </c>
-      <c r="Y27" s="151">
+      <c r="Y27" s="148">
         <v>24</v>
       </c>
-      <c r="Z27" s="151">
+      <c r="Z27" s="148">
         <v>25</v>
       </c>
-      <c r="AA27" s="151">
+      <c r="AA27" s="148">
         <v>26</v>
       </c>
-      <c r="AB27" s="152">
+      <c r="AB27" s="149">
         <v>27</v>
       </c>
-      <c r="AC27" s="150">
+      <c r="AC27" s="147">
         <v>28</v>
       </c>
-      <c r="AD27" s="151">
+      <c r="AD27" s="148">
         <v>29</v>
       </c>
-      <c r="AE27" s="151">
+      <c r="AE27" s="148">
         <v>30</v>
       </c>
-      <c r="AF27" s="151">
+      <c r="AF27" s="148">
         <v>31</v>
       </c>
-      <c r="AG27" s="151">
+      <c r="AG27" s="148">
         <v>32</v>
       </c>
-      <c r="AH27" s="151">
+      <c r="AH27" s="148">
         <v>33</v>
       </c>
-      <c r="AI27" s="152">
+      <c r="AI27" s="149">
         <v>34</v>
       </c>
-      <c r="AJ27" s="150">
+      <c r="AJ27" s="147">
         <v>35</v>
       </c>
-      <c r="AK27" s="151">
+      <c r="AK27" s="148">
         <v>36</v>
       </c>
-      <c r="AL27" s="151">
+      <c r="AL27" s="148">
         <v>37</v>
       </c>
-      <c r="AM27" s="151">
+      <c r="AM27" s="148">
         <v>38</v>
       </c>
-      <c r="AN27" s="151">
+      <c r="AN27" s="148">
         <v>39</v>
       </c>
-      <c r="AO27" s="151">
+      <c r="AO27" s="148">
         <v>40</v>
       </c>
-      <c r="AP27" s="152">
+      <c r="AP27" s="149">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="168" t="s">
+      <c r="A28" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="218"/>
-      <c r="H28" s="222" t="s">
+      <c r="C28" s="258"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="258"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="263" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="222"/>
-      <c r="J28" s="222"/>
-      <c r="K28" s="222"/>
-      <c r="L28" s="222"/>
-      <c r="M28" s="222"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="221" t="s">
+      <c r="I28" s="263"/>
+      <c r="J28" s="263"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="P28" s="222"/>
-      <c r="Q28" s="222"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="223"/>
-      <c r="V28" s="221" t="s">
+      <c r="P28" s="263"/>
+      <c r="Q28" s="263"/>
+      <c r="R28" s="263"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="263"/>
+      <c r="U28" s="264"/>
+      <c r="V28" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="223"/>
-      <c r="AC28" s="221" t="s">
+      <c r="W28" s="263"/>
+      <c r="X28" s="263"/>
+      <c r="Y28" s="263"/>
+      <c r="Z28" s="263"/>
+      <c r="AA28" s="263"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="222"/>
-      <c r="AG28" s="222"/>
-      <c r="AH28" s="222"/>
-      <c r="AI28" s="223"/>
-      <c r="AJ28" s="221" t="s">
+      <c r="AD28" s="263"/>
+      <c r="AE28" s="263"/>
+      <c r="AF28" s="263"/>
+      <c r="AG28" s="263"/>
+      <c r="AH28" s="263"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="AK28" s="222"/>
-      <c r="AL28" s="222"/>
-      <c r="AM28" s="222"/>
-      <c r="AN28" s="222"/>
-      <c r="AO28" s="222"/>
-      <c r="AP28" s="223"/>
+      <c r="AK28" s="263"/>
+      <c r="AL28" s="263"/>
+      <c r="AM28" s="263"/>
+      <c r="AN28" s="263"/>
+      <c r="AO28" s="263"/>
+      <c r="AP28" s="264"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="219" t="s">
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="260" t="s">
         <v>170</v>
       </c>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="219"/>
-      <c r="R29" s="219"/>
-      <c r="S29" s="219"/>
-      <c r="T29" s="219"/>
-      <c r="U29" s="219"/>
-      <c r="V29" s="219"/>
-      <c r="W29" s="219"/>
-      <c r="X29" s="219"/>
-      <c r="Y29" s="219"/>
-      <c r="Z29" s="219"/>
-      <c r="AA29" s="219"/>
-      <c r="AB29" s="219"/>
-      <c r="AC29" s="219"/>
-      <c r="AD29" s="219"/>
-      <c r="AE29" s="219"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="219"/>
-      <c r="AJ29" s="219"/>
-      <c r="AK29" s="219"/>
-      <c r="AL29" s="219"/>
-      <c r="AM29" s="219"/>
-      <c r="AN29" s="219"/>
-      <c r="AO29" s="219"/>
-      <c r="AP29" s="220"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="260"/>
+      <c r="L29" s="260"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="260"/>
+      <c r="O29" s="260"/>
+      <c r="P29" s="260"/>
+      <c r="Q29" s="260"/>
+      <c r="R29" s="260"/>
+      <c r="S29" s="260"/>
+      <c r="T29" s="260"/>
+      <c r="U29" s="260"/>
+      <c r="V29" s="260"/>
+      <c r="W29" s="260"/>
+      <c r="X29" s="260"/>
+      <c r="Y29" s="260"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="260"/>
+      <c r="AC29" s="260"/>
+      <c r="AD29" s="260"/>
+      <c r="AE29" s="260"/>
+      <c r="AF29" s="260"/>
+      <c r="AG29" s="260"/>
+      <c r="AH29" s="260"/>
+      <c r="AI29" s="260"/>
+      <c r="AJ29" s="260"/>
+      <c r="AK29" s="260"/>
+      <c r="AL29" s="260"/>
+      <c r="AM29" s="260"/>
+      <c r="AN29" s="260"/>
+      <c r="AO29" s="260"/>
+      <c r="AP29" s="261"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="168" t="s">
         <v>193</v>
       </c>
       <c r="D31" s="21"/>
@@ -34456,7 +34463,7 @@
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="172">
+      <c r="E32" s="169">
         <v>1</v>
       </c>
       <c r="F32" s="30"/>
@@ -34502,7 +34509,7 @@
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="173">
+      <c r="E35" s="170">
         <v>0.81</v>
       </c>
       <c r="F35" s="30" t="s">
@@ -34518,7 +34525,7 @@
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="173">
+      <c r="E36" s="170">
         <v>0.14000000000000001</v>
       </c>
       <c r="F36" s="30" t="s">
@@ -34534,7 +34541,7 @@
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="173">
+      <c r="E37" s="170">
         <v>0.05</v>
       </c>
       <c r="F37" s="30" t="s">
@@ -34550,7 +34557,7 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="169">
+      <c r="E38" s="166">
         <v>2</v>
       </c>
       <c r="F38" s="30" t="s">
@@ -34564,9 +34571,9 @@
       <c r="B39" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="170"/>
+      <c r="C39" s="167"/>
       <c r="D39" s="53"/>
-      <c r="E39" s="149">
+      <c r="E39" s="146">
         <v>4</v>
       </c>
       <c r="F39" s="53" t="s">
@@ -34587,7 +34594,7 @@
       <c r="B43" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="148">
+      <c r="C43" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -34630,7 +34637,7 @@
       <c r="C48" s="41">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="V48" s="153"/>
+      <c r="V48" s="150"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="55" t="s">
@@ -34706,7 +34713,7 @@
   <dimension ref="A1:AE80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34726,9 +34733,11 @@
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.7109375" customWidth="1"/>
     <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -34742,7 +34751,7 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204">
+      <c r="B1" s="201">
         <v>25634000</v>
       </c>
       <c r="C1" t="s">
@@ -34753,7 +34762,7 @@
       <c r="A2" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="206">
+      <c r="B2" s="203">
         <v>0.33</v>
       </c>
       <c r="C2" t="s">
@@ -34764,7 +34773,7 @@
       <c r="A3" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="205">
+      <c r="B3" s="202">
         <v>0.2</v>
       </c>
     </row>
@@ -34772,7 +34781,7 @@
       <c r="A4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="141">
         <v>2.6</v>
       </c>
       <c r="C4" s="80">
@@ -34788,22 +34797,22 @@
       <c r="A5" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="141">
         <v>7.4</v>
       </c>
       <c r="C5" s="77">
         <f>(B1/100000)*B5</f>
         <v>1896.9159999999999</v>
       </c>
-      <c r="L5" s="213">
+      <c r="L5" s="208">
         <v>43911</v>
       </c>
-      <c r="M5" s="214" t="s">
+      <c r="M5" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="N5" s="214"/>
-      <c r="O5" s="214"/>
-      <c r="P5" s="213">
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="208">
         <f>L5+14</f>
         <v>43925</v>
       </c>
@@ -34812,19 +34821,19 @@
       <c r="A6" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="142">
         <v>0.81</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="I6" s="209"/>
-      <c r="M6" s="213">
+      <c r="I6" s="204"/>
+      <c r="M6" s="208">
         <v>43913</v>
       </c>
-      <c r="N6" s="214" t="s">
+      <c r="N6" s="209" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="214"/>
-      <c r="P6" s="213">
+      <c r="O6" s="209"/>
+      <c r="P6" s="208">
         <f>M6+14</f>
         <v>43927</v>
       </c>
@@ -34833,17 +34842,17 @@
       <c r="A7" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="143">
         <v>0.14000000000000001</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="N7" s="215">
+      <c r="N7" s="210">
         <v>43915</v>
       </c>
-      <c r="O7" s="214" t="s">
+      <c r="O7" s="209" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="213">
+      <c r="P7" s="208">
         <f>N7+14</f>
         <v>43929</v>
       </c>
@@ -34852,28 +34861,28 @@
       <c r="A8" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="147">
+      <c r="B8" s="144">
         <v>0.05</v>
       </c>
       <c r="C8" s="2"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="213">
+      <c r="N8" s="208">
         <v>43920</v>
       </c>
-      <c r="O8" s="214" t="s">
+      <c r="O8" s="209" t="s">
         <v>229</v>
       </c>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="213">
+      <c r="P8" s="209"/>
+      <c r="Q8" s="208">
         <f>N8+14</f>
         <v>43934</v>
       </c>
       <c r="X8" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z8" s="241"/>
+        <v>283</v>
+      </c>
+      <c r="Z8" s="228"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
@@ -34890,20 +34899,21 @@
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="17"/>
-      <c r="X9" s="242">
+      <c r="X9" s="229">
         <f>(X13-G13)/(LOG(X14/G14)/LOG(2))</f>
         <v>8.6470588235294112</v>
       </c>
+      <c r="Y9" s="229"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="203">
+      <c r="B10" s="200">
         <v>43855</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="241"/>
+      <c r="E10" s="228"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="55" t="s">
@@ -34941,7 +34951,7 @@
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
-      <c r="AB11" s="198"/>
+      <c r="AB11" s="195"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
@@ -34972,11 +34982,13 @@
       <c r="N12" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="117" t="s">
+      <c r="O12" s="116" t="s">
         <v>132</v>
       </c>
+      <c r="P12" s="274" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="30"/>
       <c r="U12" s="30"/>
@@ -34991,10 +35003,10 @@
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="211">
+      <c r="B13" s="206">
         <v>4</v>
       </c>
-      <c r="C13" s="212">
+      <c r="C13" s="207">
         <v>3</v>
       </c>
       <c r="D13" s="107">
@@ -35004,50 +35016,50 @@
         <v>12</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="191">
+      <c r="G13" s="188">
         <v>43892</v>
       </c>
-      <c r="H13" s="192">
+      <c r="H13" s="189">
         <f>G13+$B$13</f>
         <v>43896</v>
       </c>
-      <c r="I13" s="192">
+      <c r="I13" s="189">
         <f>H13+$B$13</f>
         <v>43900</v>
       </c>
-      <c r="J13" s="192">
+      <c r="J13" s="189">
         <f>I13+$B$13</f>
         <v>43904</v>
       </c>
-      <c r="K13" s="192">
+      <c r="K13" s="189">
         <f>J13+$B$13</f>
         <v>43908</v>
       </c>
-      <c r="L13" s="193">
+      <c r="L13" s="190">
         <f t="shared" ref="L13:M13" si="0">K13+$C$13</f>
         <v>43911</v>
       </c>
-      <c r="M13" s="194">
+      <c r="M13" s="191">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
       <c r="N13" s="102">
-        <f t="shared" ref="N13:AA13" si="1">M13+$D$13</f>
+        <f t="shared" ref="N13" si="1">M13+$D$13</f>
         <v>43919</v>
       </c>
-      <c r="O13" s="278">
+      <c r="O13" s="269">
         <f>N13+$E$13</f>
         <v>43931</v>
       </c>
-      <c r="P13" s="278">
+      <c r="P13" s="256">
         <f>O13+$E$13</f>
         <v>43943</v>
       </c>
-      <c r="Q13" s="195">
+      <c r="Q13" s="192">
         <f>P13+$E$13</f>
         <v>43955</v>
       </c>
-      <c r="R13" s="195">
+      <c r="R13" s="192">
         <f>Q13+$E$13</f>
         <v>43967</v>
       </c>
@@ -35075,7 +35087,7 @@
         <f t="shared" si="2"/>
         <v>44039</v>
       </c>
-      <c r="Y13" s="199">
+      <c r="Y13" s="196">
         <f>X13+$E$13</f>
         <v>44051</v>
       </c>
@@ -35083,11 +35095,11 @@
         <f>Y13+$E$13</f>
         <v>44063</v>
       </c>
-      <c r="AA13" s="199">
+      <c r="AA13" s="196">
         <f>Z13+$E$13</f>
         <v>44075</v>
       </c>
-      <c r="AB13" s="251">
+      <c r="AB13" s="235">
         <f>AA13+(7*8)</f>
         <v>44131</v>
       </c>
@@ -35104,7 +35116,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="116">
+      <c r="G14" s="115">
         <v>31.25</v>
       </c>
       <c r="H14" s="33">
@@ -35131,19 +35143,19 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="33">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="231">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="33">
         <f>O14*2</f>
         <v>16000</v>
       </c>
-      <c r="Q14" s="245">
+      <c r="Q14" s="33">
         <f>P14*2</f>
         <v>32000</v>
       </c>
@@ -35175,19 +35187,19 @@
         <f>W14*2</f>
         <v>4096000</v>
       </c>
-      <c r="Y14" s="257">
+      <c r="Y14" s="241">
         <f>X14*2</f>
         <v>8192000</v>
       </c>
-      <c r="Z14" s="257">
+      <c r="Z14" s="242">
         <f>Y14*2</f>
         <v>16384000</v>
       </c>
-      <c r="AA14" s="259">
+      <c r="AA14" s="241">
         <f>B1</f>
         <v>25634000</v>
       </c>
-      <c r="AB14" s="252">
+      <c r="AB14" s="236">
         <f>B1*AB15</f>
         <v>5126800</v>
       </c>
@@ -35224,7 +35236,7 @@
         <f t="shared" si="4"/>
         <v>1.950534446438324E-5</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="117">
         <f t="shared" si="4"/>
         <v>3.901068892876648E-5</v>
       </c>
@@ -35232,63 +35244,63 @@
         <f t="shared" si="4"/>
         <v>7.8021377857532959E-5</v>
       </c>
-      <c r="N15" s="244">
+      <c r="N15" s="50">
         <f t="shared" si="4"/>
         <v>1.5604275571506592E-4</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="270">
         <f t="shared" si="4"/>
         <v>3.1208551143013184E-4</v>
       </c>
-      <c r="P15" s="207">
+      <c r="P15" s="58">
         <f>P14/$B$1</f>
         <v>6.2417102286026367E-4</v>
       </c>
-      <c r="Q15" s="246">
+      <c r="Q15" s="58">
         <f>Q14/$B$1</f>
         <v>1.2483420457205273E-3</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="58">
         <f>R14/$B$1</f>
         <v>2.4966840914410547E-3</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="52">
         <f>S14/$B$1</f>
         <v>4.9933681828821094E-3</v>
       </c>
-      <c r="T15" s="92">
+      <c r="T15" s="167">
         <f t="shared" si="4"/>
         <v>9.9867363657642188E-3</v>
       </c>
-      <c r="U15" s="92">
+      <c r="U15" s="167">
         <f t="shared" si="4"/>
         <v>1.9973472731528438E-2</v>
       </c>
-      <c r="V15" s="92">
+      <c r="V15" s="167">
         <f t="shared" si="4"/>
         <v>3.9946945463056875E-2</v>
       </c>
-      <c r="W15" s="92">
+      <c r="W15" s="167">
         <f t="shared" si="4"/>
         <v>7.989389092611375E-2</v>
       </c>
-      <c r="X15" s="92">
+      <c r="X15" s="167">
         <f>X14/$B$1</f>
         <v>0.1597877818522275</v>
       </c>
-      <c r="Y15" s="260">
+      <c r="Y15" s="267">
         <f>Y14/$B$1</f>
         <v>0.319575563704455</v>
       </c>
-      <c r="Z15" s="260">
+      <c r="Z15" s="268">
         <f>Z14/$B$1</f>
         <v>0.63915112740891</v>
       </c>
-      <c r="AA15" s="261">
+      <c r="AA15" s="243">
         <f>AA14/$B$1</f>
         <v>1</v>
       </c>
-      <c r="AB15" s="253">
+      <c r="AB15" s="237">
         <f>B3</f>
         <v>0.2</v>
       </c>
@@ -35333,63 +35345,63 @@
         <f t="shared" si="5"/>
         <v>6060.6060606060601</v>
       </c>
-      <c r="N16" s="80">
+      <c r="N16" s="26">
         <f t="shared" si="5"/>
         <v>12121.21212121212</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="232">
         <f t="shared" si="5"/>
         <v>24242.42424242424</v>
       </c>
-      <c r="P16" s="80">
+      <c r="P16" s="22">
         <f t="shared" si="5"/>
         <v>48484.84848484848</v>
       </c>
-      <c r="Q16" s="249">
+      <c r="Q16" s="22">
         <f t="shared" si="5"/>
         <v>96969.696969696961</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="22">
         <f t="shared" si="5"/>
         <v>193939.39393939392</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="22">
         <f t="shared" si="5"/>
         <v>387878.78787878784</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="22">
         <f t="shared" si="5"/>
         <v>775757.57575757569</v>
       </c>
-      <c r="U16" s="26">
+      <c r="U16" s="22">
         <f t="shared" si="5"/>
         <v>1551515.1515151514</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="22">
         <f t="shared" si="5"/>
         <v>3103030.3030303027</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="22">
         <f t="shared" si="5"/>
         <v>6206060.6060606055</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="22">
         <f t="shared" si="5"/>
         <v>12412121.212121211</v>
       </c>
-      <c r="Y16" s="257">
+      <c r="Y16" s="244">
         <f t="shared" ref="Y16" si="6">Y14/$B$2</f>
         <v>24824242.424242422</v>
       </c>
-      <c r="Z16" s="258">
+      <c r="Z16" s="247">
         <f>B1</f>
         <v>25634000</v>
       </c>
-      <c r="AA16" s="263">
+      <c r="AA16" s="244">
         <f>AA14</f>
         <v>25634000</v>
       </c>
-      <c r="AB16" s="254">
+      <c r="AB16" s="238">
         <f>($B$1*$B$3)/$B$2</f>
         <v>15535757.575757574</v>
       </c>
@@ -35434,19 +35446,19 @@
         <f t="shared" si="7"/>
         <v>2.3642841775009987E-4</v>
       </c>
-      <c r="N17" s="207">
+      <c r="N17" s="28">
         <f t="shared" si="7"/>
         <v>4.7285683550019975E-4</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="233">
         <f t="shared" si="7"/>
         <v>9.4571367100039949E-4</v>
       </c>
-      <c r="P17" s="208">
+      <c r="P17" s="29">
         <f t="shared" si="7"/>
         <v>1.891427342000799E-3</v>
       </c>
-      <c r="Q17" s="248">
+      <c r="Q17" s="29">
         <f t="shared" si="7"/>
         <v>3.782854684001598E-3</v>
       </c>
@@ -35478,18 +35490,18 @@
         <f t="shared" si="7"/>
         <v>0.48420539955220454</v>
       </c>
-      <c r="Y17" s="260">
+      <c r="Y17" s="243">
         <f t="shared" si="7"/>
         <v>0.96841079910440908</v>
       </c>
-      <c r="Z17" s="266">
+      <c r="Z17" s="246">
         <f>Z16/$B$1</f>
         <v>1</v>
       </c>
-      <c r="AA17" s="261">
+      <c r="AA17" s="243">
         <v>1</v>
       </c>
-      <c r="AB17" s="253">
+      <c r="AB17" s="237">
         <f>AB16/B1</f>
         <v>0.60606060606060597</v>
       </c>
@@ -35499,7 +35511,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -35534,19 +35546,19 @@
         <f t="shared" si="8"/>
         <v>4060.6060606060601</v>
       </c>
-      <c r="N18" s="104">
+      <c r="N18" s="22">
         <f t="shared" si="8"/>
         <v>8121.2121212121201</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="232">
         <f t="shared" si="8"/>
         <v>16242.42424242424</v>
       </c>
-      <c r="P18" s="104">
+      <c r="P18" s="22">
         <f t="shared" si="8"/>
         <v>32484.84848484848</v>
       </c>
-      <c r="Q18" s="247">
+      <c r="Q18" s="22">
         <f t="shared" si="8"/>
         <v>64969.696969696961</v>
       </c>
@@ -35578,19 +35590,19 @@
         <f t="shared" si="8"/>
         <v>8316121.212121211</v>
       </c>
-      <c r="Y18" s="262">
+      <c r="Y18" s="244">
         <f t="shared" si="8"/>
         <v>16632242.424242422</v>
       </c>
-      <c r="Z18" s="267">
+      <c r="Z18" s="247">
         <f>Z16</f>
         <v>25634000</v>
       </c>
-      <c r="AA18" s="263">
+      <c r="AA18" s="244">
         <f>AA16</f>
         <v>25634000</v>
       </c>
-      <c r="AB18" s="255">
+      <c r="AB18" s="239">
         <f t="shared" si="8"/>
         <v>10408957.575757574</v>
       </c>
@@ -35600,17 +35612,17 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="240"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
       <c r="K19" s="22">
         <f>($G$14/$B$2)*(2^(((K13 - 14) - $G$13)/K38))</f>
         <v>135.64076074756264</v>
@@ -35623,113 +35635,113 @@
         <f>($G$14/$B$2)*(2^(((M13 - 14) - $G$13)/M38))</f>
         <v>429.81636626657559</v>
       </c>
-      <c r="N19" s="104">
+      <c r="N19" s="22">
         <f>($G$14/$B$2)*(2^(((N13 - 14) - $G$13)/N38))</f>
         <v>966.32079394855339</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="230">
         <f>($G$14/$B$2)*(2^(((O13 - 14) - $G$13)/O38))</f>
         <v>3261.9485971361669</v>
       </c>
-      <c r="P19" s="104">
+      <c r="P19" s="24">
         <f t="shared" ref="P19:Z19" si="9">($G$14/$B$2)*(2^(((P13 - 14) - $G$13)/$X$9))</f>
         <v>1838.3017962055503</v>
       </c>
-      <c r="Q19" s="243">
+      <c r="Q19" s="24">
         <f t="shared" si="9"/>
         <v>4810.3062180854522</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="24">
         <f t="shared" si="9"/>
         <v>12587.185607669546</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="24">
         <f t="shared" si="9"/>
         <v>32937.03858732363</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="24">
         <f t="shared" si="9"/>
         <v>86186.741398476923</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="24">
         <f t="shared" si="9"/>
         <v>225525.87334754437</v>
       </c>
-      <c r="V19" s="22">
+      <c r="V19" s="24">
         <f t="shared" si="9"/>
         <v>590136.24049222318</v>
       </c>
-      <c r="W19" s="22">
+      <c r="W19" s="24">
         <f t="shared" si="9"/>
         <v>1544216.5334423168</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="24">
         <f t="shared" si="9"/>
         <v>4040769.8062529373</v>
       </c>
-      <c r="Y19" s="273">
+      <c r="Y19" s="266">
         <f t="shared" si="9"/>
         <v>10573530.507880239</v>
       </c>
-      <c r="Z19" s="267">
+      <c r="Z19" s="248">
         <f t="shared" si="9"/>
         <v>27667883.289978258</v>
       </c>
-      <c r="AA19" s="263">
+      <c r="AA19" s="244">
         <f>($G$14/$B$2)*(2^(((AA13 - 14) - $G$13)/$X$9))</f>
         <v>72398879.936775997</v>
       </c>
-      <c r="AB19" s="255"/>
+      <c r="AB19" s="239"/>
       <c r="AC19" s="39"/>
       <c r="AD19" s="39"/>
       <c r="AE19" s="86"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="269">
+      <c r="G20" s="249">
         <f>G14*$B$6</f>
         <v>25.3125</v>
       </c>
-      <c r="H20" s="270">
+      <c r="H20" s="250">
         <f t="shared" ref="H20:AA20" si="10">H14*$B$6</f>
         <v>50.625</v>
       </c>
-      <c r="I20" s="270">
+      <c r="I20" s="250">
         <f t="shared" si="10"/>
         <v>101.25</v>
       </c>
-      <c r="J20" s="270">
+      <c r="J20" s="250">
         <f t="shared" si="10"/>
         <v>202.5</v>
       </c>
-      <c r="K20" s="270">
+      <c r="K20" s="250">
         <f t="shared" si="10"/>
         <v>405</v>
       </c>
-      <c r="L20" s="269">
+      <c r="L20" s="249">
         <f t="shared" si="10"/>
         <v>810</v>
       </c>
-      <c r="M20" s="270">
+      <c r="M20" s="250">
         <f t="shared" si="10"/>
         <v>1620</v>
       </c>
-      <c r="N20" s="270">
+      <c r="N20" s="250">
         <f t="shared" si="10"/>
         <v>3240</v>
       </c>
-      <c r="O20" s="269">
+      <c r="O20" s="271">
         <f t="shared" si="10"/>
         <v>6480</v>
       </c>
-      <c r="P20" s="233">
+      <c r="P20" s="59">
         <f t="shared" si="10"/>
         <v>12960</v>
       </c>
@@ -35737,47 +35749,47 @@
         <f t="shared" si="10"/>
         <v>25920</v>
       </c>
-      <c r="R20" s="269">
+      <c r="R20" s="59">
         <f t="shared" si="10"/>
         <v>51840</v>
       </c>
-      <c r="S20" s="270">
+      <c r="S20" s="59">
         <f t="shared" si="10"/>
         <v>103680</v>
       </c>
-      <c r="T20" s="270">
+      <c r="T20" s="59">
         <f t="shared" si="10"/>
         <v>207360</v>
       </c>
-      <c r="U20" s="270">
+      <c r="U20" s="59">
         <f t="shared" si="10"/>
         <v>414720</v>
       </c>
-      <c r="V20" s="270">
+      <c r="V20" s="59">
         <f t="shared" si="10"/>
         <v>829440</v>
       </c>
-      <c r="W20" s="270">
+      <c r="W20" s="59">
         <f t="shared" si="10"/>
         <v>1658880</v>
       </c>
-      <c r="X20" s="270">
+      <c r="X20" s="59">
         <f t="shared" si="10"/>
         <v>3317760</v>
       </c>
-      <c r="Y20" s="257">
+      <c r="Y20" s="244">
         <f t="shared" si="10"/>
         <v>6635520</v>
       </c>
-      <c r="Z20" s="258">
+      <c r="Z20" s="247">
         <f t="shared" si="10"/>
         <v>13271040</v>
       </c>
-      <c r="AA20" s="262">
+      <c r="AA20" s="244">
         <f t="shared" si="10"/>
         <v>20763540</v>
       </c>
-      <c r="AB20" s="255">
+      <c r="AB20" s="239">
         <f>AB14*B6</f>
         <v>4152708.0000000005</v>
       </c>
@@ -35787,7 +35799,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -35799,74 +35811,74 @@
       <c r="I21" s="100"/>
       <c r="J21" s="100"/>
       <c r="K21" s="105">
-        <f>($G$14/$B$6)*(2^(((K13 - 14) - $G$13)/K38))</f>
-        <v>55.261050674932932</v>
+        <f>($G$14*$B$6)*(2^(((K13 - 14) - $G$13)/K38))</f>
+        <v>36.256775347823499</v>
       </c>
       <c r="L21" s="106">
-        <f>($G$14/$B$6)*(2^(((L13 - 14) - $G$13)/L38))</f>
-        <v>97.205890594442096</v>
+        <f>($G$14*$B$6)*(2^(((L13 - 14) - $G$13)/L38))</f>
+        <v>63.776784819013457</v>
       </c>
       <c r="M21" s="105">
-        <f>($G$14/$B$6)*(2^(((M13 - 14) - $G$13)/M38))</f>
-        <v>175.11037144193821</v>
+        <f>($G$14*$B$6)*(2^(((M13 - 14) - $G$13)/M38))</f>
+        <v>114.88991470305567</v>
       </c>
       <c r="N21" s="105">
-        <f>($G$14/$B$6)*(2^(((N13 - 14) - $G$13)/N38))</f>
-        <v>393.68624938644774</v>
-      </c>
-      <c r="O21" s="106">
-        <f>($G$14/$B$6)*(2^(((O13 - 14) - $G$13)/O38))</f>
-        <v>1328.9420210554756</v>
-      </c>
-      <c r="P21" s="119">
-        <f>($G$14/$B$6)*(2^(((P13 - 14) - $G$13)/$X$9))</f>
-        <v>748.93776882448356</v>
+        <f>($G$14*$B$6)*(2^(((N13 - 14) - $G$13)/N38))</f>
+        <v>258.29754822244837</v>
+      </c>
+      <c r="O21" s="272">
+        <f>($G$14*$B$6)*(2^(((O13 - 14) - $G$13)/O38))</f>
+        <v>871.91886001449745</v>
+      </c>
+      <c r="P21" s="105">
+        <f>($G$14*$B$6)*(2^(((P13 - 14) - $G$13)/$X$9))</f>
+        <v>491.37807012574365</v>
       </c>
       <c r="Q21" s="105">
-        <f>($G$14/$B$6)*(2^(((Q13 - 14) - $G$13)/$X$9))</f>
-        <v>1959.7543851459252</v>
-      </c>
-      <c r="R21" s="106">
-        <f>($G$14/$B$6)*(2^(((R13 - 14) - $G$13)/$X$9))</f>
-        <v>5128.1126549764822</v>
+        <f>($G$14*$B$6)*(2^(((Q13 - 14) - $G$13)/$X$9))</f>
+        <v>1285.7948520942414</v>
+      </c>
+      <c r="R21" s="105">
+        <f>($G$14*$B$6)*(2^(((R13 - 14) - $G$13)/$X$9))</f>
+        <v>3364.5547129300699</v>
       </c>
       <c r="S21" s="105">
-        <f>($G$14/$B$6)*(2^(((S13 - 14) - $G$13)/$X$9))</f>
-        <v>13418.793498539259</v>
+        <f>($G$14*$B$6)*(2^(((S13 - 14) - $G$13)/$X$9))</f>
+        <v>8804.0704143916082</v>
       </c>
       <c r="T21" s="105">
-        <f t="shared" ref="T21:Y21" si="11">($G$14/$B$6)*(2^(((T13 - 14) - $G$13)/$X$9))</f>
-        <v>35113.116866046163</v>
+        <f>($G$14*$B$6)*(2^(((T13 - 14) - $G$13)/$X$9))</f>
+        <v>23037.715975812884</v>
       </c>
       <c r="U21" s="105">
-        <f t="shared" si="11"/>
-        <v>91880.911363814375</v>
+        <f>($G$14*$B$6)*(2^(((U13 - 14) - $G$13)/$X$9))</f>
+        <v>60283.065945798618</v>
       </c>
       <c r="V21" s="105">
-        <f t="shared" si="11"/>
-        <v>240425.87575609094</v>
+        <f>($G$14*$B$6)*(2^(((V13 - 14) - $G$13)/$X$9))</f>
+        <v>157743.41708357126</v>
       </c>
       <c r="W21" s="105">
-        <f t="shared" si="11"/>
-        <v>629125.25436538842</v>
+        <f>($G$14*$B$6)*(2^(((W13 - 14) - $G$13)/$X$9))</f>
+        <v>412769.07938913134</v>
       </c>
       <c r="X21" s="105">
-        <f t="shared" si="11"/>
-        <v>1646239.5506956412</v>
+        <f>($G$14*$B$6)*(2^(((X13 - 14) - $G$13)/$X$9))</f>
+        <v>1080097.7692114103</v>
       </c>
       <c r="Y21" s="105">
-        <f t="shared" si="11"/>
-        <v>4307734.6513586165</v>
-      </c>
-      <c r="Z21" s="271">
-        <f>($G$14/$B$6)*(2^(((Z13 - 14) - $G$13)/$X$9))</f>
-        <v>11272100.599620773</v>
-      </c>
-      <c r="AA21" s="262">
+        <f>($G$14*$B$6)*(2^(((Y13 - 14) - $G$13)/$X$9))</f>
+        <v>2826304.704756388</v>
+      </c>
+      <c r="Z21" s="251">
+        <f>($G$14*$B$6)*(2^(((Z13 - 14) - $G$13)/$X$9))</f>
+        <v>7395625.2034111889</v>
+      </c>
+      <c r="AA21" s="244">
         <f>AB21</f>
         <v>4152708.0000000005</v>
       </c>
-      <c r="AB21" s="254">
+      <c r="AB21" s="238">
         <f>AB14*B6</f>
         <v>4152708.0000000005</v>
       </c>
@@ -35901,73 +35913,73 @@
       </c>
       <c r="K22" s="24">
         <f>K14-K21-(K23-K24)-(K25-K26)</f>
-        <v>442.50087677273234</v>
+        <v>461.50515209984167</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" ref="L22:AA22" si="12">L14-L21-(L23-L24)-(L25-L26)</f>
-        <v>898.85727083648305</v>
+        <f t="shared" ref="L22" si="11">L14-L21-(L23-L24)-(L25-L26)</f>
+        <v>932.28637661191169</v>
       </c>
       <c r="M22" s="24">
         <f>M14-M21-(M23-M24)-(M25-M26)</f>
-        <v>1817.7976585146632</v>
+        <v>1878.0181152535458</v>
       </c>
       <c r="N22" s="24">
         <f>N14-N21-(N23-N24)-(N25-N26)</f>
-        <v>3590.3694575134009</v>
-      </c>
-      <c r="O22" s="23">
-        <f>O14-O21-(O23-O24)-(O25-O26)-O28</f>
-        <v>6615.3089206393042</v>
-      </c>
-      <c r="P22" s="77">
-        <f>P14-P21-(P23-P24)-(P25-P26)-P28</f>
-        <v>15216.78635104268</v>
+        <v>3725.7581586774004</v>
+      </c>
+      <c r="O22" s="230">
+        <f>O14-O21-(O23-O24)-(O25-O26)</f>
+        <v>7071.3979665526413</v>
+      </c>
+      <c r="P22" s="24">
+        <f>P14-P21-(P23-P24)-(P25-P26)</f>
+        <v>15469.288862568947</v>
       </c>
       <c r="Q22" s="24">
-        <f>Q14-Q21-(Q23-Q24)-(Q25-Q26)-Q28</f>
-        <v>29927.002257456748</v>
-      </c>
-      <c r="R22" s="23">
-        <f>R14-R21-(R23-R24)-(R25-R26)-R28</f>
-        <v>58575.562102144671</v>
+        <f>Q14-Q21-(Q23-Q24)-(Q25-Q26)</f>
+        <v>30611.281841936285</v>
+      </c>
+      <c r="R22" s="24">
+        <f>R14-R21-(R23-R24)-(R25-R26)</f>
+        <v>60366.124645751515</v>
       </c>
       <c r="S22" s="24">
-        <f>S14-S21-(S23-S24)-(S25-S26)-S28</f>
-        <v>113805.80870696472</v>
+        <f>S14-S21-(S23-S24)-(S25-S26)</f>
+        <v>118491.19505384279</v>
       </c>
       <c r="T22" s="24">
-        <f>T14-T21-(T23-T24)-(T25-T26)-T28</f>
-        <v>218857.89048429599</v>
+        <f>T14-T21-(T23-T24)-(T25-T26)</f>
+        <v>231118.19677624511</v>
       </c>
       <c r="U22" s="24">
-        <f>U14-U21-(U23-U24)-(U25-U26)-U28</f>
-        <v>414809.79938931408</v>
+        <f>U14-U21-(U23-U24)-(U25-U26)</f>
+        <v>446891.48897560901</v>
       </c>
       <c r="V22" s="24">
-        <f>V14-V21-(V23-V24)-(V25-V26)-V28</f>
-        <v>769681.24379818665</v>
+        <f>V14-V21-(V23-V24)-(V25-V26)</f>
+        <v>853629.78327205358</v>
       </c>
       <c r="W22" s="24">
-        <f>W14-W21-(W23-W24)-(W25-W26)-W28</f>
-        <v>1382521.079803942</v>
+        <f>W14-W21-(W23-W24)-(W25-W26)</f>
+        <v>1602190.2235015971</v>
       </c>
       <c r="X22" s="24">
-        <f>X14-X21-(X23-X24)-(X25-X26)-X28</f>
-        <v>2354633.3786805766</v>
-      </c>
-      <c r="Y22" s="272">
-        <f>Y14-Y21-(Y23-Y24)-(Y25-Y26)-Y28</f>
-        <v>3635345.2092636446</v>
-      </c>
-      <c r="Z22" s="268">
-        <f>Z14-Z21-(Z23-Z24)-(Z25-Z26)-Z28</f>
-        <v>4460547.1051647197</v>
-      </c>
-      <c r="AA22" s="262">
-        <f>AA14-AA21-(AA23-AA24)-(AA25-AA26)-AA28</f>
-        <v>19776890.686623793</v>
-      </c>
-      <c r="AB22" s="254"/>
+        <f>X14-X21-(X23-X24)-(X25-X26)</f>
+        <v>2929444.2449003812</v>
+      </c>
+      <c r="Y22" s="252">
+        <f>Y14-Y21-(Y23-Y24)-(Y25-Y26)</f>
+        <v>5139459.6532072322</v>
+      </c>
+      <c r="Z22" s="248">
+        <f>Z14-Z21-(Z23-Z24)-(Z25-Z26)</f>
+        <v>8396381.2959098481</v>
+      </c>
+      <c r="AA22" s="244">
+        <f>AA14-AA21-(AA23-AA24)-(AA25-AA26)</f>
+        <v>19932215.551693149</v>
+      </c>
+      <c r="AB22" s="238"/>
       <c r="AC22" s="59"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="86"/>
@@ -35984,82 +35996,82 @@
       <c r="G23" s="99"/>
       <c r="H23" s="100"/>
       <c r="I23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((I13 - 7) - $G$13)/I38))</f>
+        <f t="shared" ref="I23:O23" si="12">($G$14*($B$7+$B$8))*(2^(((I13 - 7) - $G$13)/I38))</f>
         <v>6.9440386300282526</v>
       </c>
       <c r="J23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((J13 - 7) - $G$13)/J38))</f>
+        <f t="shared" si="12"/>
         <v>13.959639176638214</v>
       </c>
       <c r="K23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((K13 - 7) - $G$13)/K38))</f>
+        <f t="shared" si="12"/>
         <v>29.912122481155304</v>
       </c>
       <c r="L23" s="62">
-        <f>($G$14*($B$7+$B$8))*(2^(((L13 - 7) - $G$13)/L38))</f>
+        <f t="shared" si="12"/>
         <v>54.549379714110479</v>
       </c>
       <c r="M23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((M13 - 7) - $G$13)/M38))</f>
+        <f t="shared" si="12"/>
         <v>101.2462618003694</v>
       </c>
-      <c r="N23" s="104">
-        <f>($G$14*($B$7+$B$8))*(2^(((N13 - 7) - $G$13)/N38))</f>
+      <c r="N23" s="22">
+        <f t="shared" si="12"/>
         <v>211.63179717963902</v>
       </c>
-      <c r="O23" s="62">
-        <f>($G$14*($B$7+$B$8))*(2^(((O13 - 7) - $G$13)/O38))</f>
+      <c r="O23" s="232">
+        <f t="shared" si="12"/>
         <v>550.99054011334863</v>
       </c>
-      <c r="P23" s="104">
-        <f>($G$14*($B$7+$B$8))*(2^(((P13 - 7) - $G$13)/$X$9))</f>
+      <c r="P23" s="22">
+        <f t="shared" ref="P23:AA23" si="13">($G$14*($B$7+$B$8))*(2^(((P13 - 7) - $G$13)/$X$9))</f>
         <v>202.01113151930059</v>
       </c>
-      <c r="Q23" s="247">
-        <f>($G$14*($B$7+$B$8))*(2^(((Q13 - 7) - $G$13)/$X$9))</f>
+      <c r="Q23" s="22">
+        <f t="shared" si="13"/>
         <v>528.60493531341513</v>
       </c>
       <c r="R23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((R13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>1383.2068338818408</v>
       </c>
       <c r="S23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((S13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>3619.4538065805923</v>
       </c>
       <c r="T23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((T13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>9471.0679105058516</v>
       </c>
       <c r="U23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((U13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>24783.05627283506</v>
       </c>
       <c r="V23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((V13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>64850.11870110267</v>
       </c>
       <c r="W23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((W13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>169694.07845620869</v>
       </c>
       <c r="X23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((X13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>444040.51742486987</v>
       </c>
       <c r="Y23" s="22">
-        <f>($G$14*($B$7+$B$8))*(2^(((Y13 - 7) - $G$13)/$X$9))</f>
+        <f t="shared" si="13"/>
         <v>1161926.1137967682</v>
       </c>
-      <c r="Z23" s="262">
-        <f>($G$14*($B$7+$B$8))*(2^(((Z13 - 7) - $G$13)/$X$9))</f>
+      <c r="Z23" s="247">
+        <f t="shared" si="13"/>
         <v>3040425.9092218727</v>
       </c>
-      <c r="AA23" s="259">
-        <f>($G$14*($B$7+$B$8))*(2^(((AA13 - 7) - $G$13)/$X$9))</f>
+      <c r="AA23" s="241">
+        <f t="shared" si="13"/>
         <v>7955918.7109246319</v>
       </c>
-      <c r="AB23" s="254">
+      <c r="AB23" s="238">
         <f>AB14*(B7+B8)</f>
         <v>974092</v>
       </c>
@@ -36079,11 +36091,11 @@
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
       <c r="I24" s="22">
-        <f t="shared" ref="I24:J24" si="13">I23</f>
+        <f t="shared" ref="I24:J24" si="14">I23</f>
         <v>6.9440386300282526</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.959639176638214</v>
       </c>
       <c r="K24" s="22">
@@ -36091,70 +36103,70 @@
         <v>27.674049928820519</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" ref="L24:M24" si="14">L23-L26</f>
+        <f t="shared" ref="L24:M24" si="15">L23-L26</f>
         <v>50.612541145035571</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>94.154291756970906</v>
       </c>
-      <c r="N24" s="77">
+      <c r="N24" s="24">
         <f>N23-N26</f>
         <v>195.68750407948789</v>
       </c>
-      <c r="O24" s="62">
-        <f>O23-O26</f>
-        <v>497.16838826060189</v>
-      </c>
-      <c r="P24" s="104">
-        <f>P23-P26</f>
-        <v>181.25719594227769</v>
-      </c>
-      <c r="Q24" s="243">
+      <c r="O24" s="230">
+        <f>O23-($G$14*$B$7)*(2^(((O13 - 42) - $G$13)/O38))-O26</f>
+        <v>498.98699663649217</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" ref="O24:P24" si="16">P23-($G$14*$B$7)*(2^(((P13 - 42) - $G$13)/$X$9))-P26</f>
+        <v>172.25610827436026</v>
+      </c>
+      <c r="Q24" s="24">
         <f>Q23-($G$14*$B$7)*(2^(((Q13 - 42) - $G$13)/$X$9))-Q26</f>
         <v>450.74461138300785</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="24">
         <f>R23-($G$14*$B$7)*(2^(((R13 - 42) - $G$13)/$X$9))-R26</f>
         <v>1179.4687963530414</v>
       </c>
-      <c r="S24" s="22">
-        <f>S23-($G$14*$B$7)*(2^(((S13 - 42) - $G$13)/$X$9))-S26</f>
+      <c r="S24" s="24">
+        <f t="shared" ref="Q24:AA24" si="17">S23-($G$14*$B$7)*(2^(((S13 - 42) - $G$13)/$X$9))-S26</f>
         <v>3086.3300557317261</v>
       </c>
-      <c r="T24" s="22">
-        <f>T23-($G$14*$B$7)*(2^(((T13 - 42) - $G$13)/$X$9))-T26</f>
+      <c r="T24" s="24">
+        <f t="shared" si="17"/>
         <v>8076.0366381594295</v>
       </c>
-      <c r="U24" s="22">
-        <f>U23-($G$14*$B$7)*(2^(((U13 - 42) - $G$13)/$X$9))-U26</f>
+      <c r="U24" s="24">
+        <f t="shared" si="17"/>
         <v>21132.661317206508</v>
       </c>
-      <c r="V24" s="22">
-        <f>V23-($G$14*$B$7)*(2^(((V13 - 42) - $G$13)/$X$9))-V26</f>
+      <c r="V24" s="24">
+        <f t="shared" si="17"/>
         <v>55298.086717141989</v>
       </c>
-      <c r="W24" s="22">
-        <f>W23-($G$14*$B$7)*(2^(((W13 - 42) - $G$13)/$X$9))-W26</f>
+      <c r="W24" s="24">
+        <f t="shared" si="17"/>
         <v>144699.1625274753</v>
       </c>
-      <c r="X24" s="22">
-        <f>X23-($G$14*$B$7)*(2^(((X13 - 42) - $G$13)/$X$9))-X26</f>
+      <c r="X24" s="24">
+        <f t="shared" si="17"/>
         <v>378636.02303734154</v>
       </c>
-      <c r="Y24" s="22">
-        <f>Y23-($G$14*$B$7)*(2^(((Y13 - 42) - $G$13)/$X$9))-Y26</f>
+      <c r="Y24" s="24">
+        <f t="shared" si="17"/>
         <v>990781.39387511986</v>
       </c>
-      <c r="Z24" s="264">
-        <f>Z23-($G$14*$B$7)*(2^(((Z13 - 42) - $G$13)/$X$9))-Z26</f>
+      <c r="Z24" s="265">
+        <f t="shared" si="17"/>
         <v>2592589.4809863721</v>
       </c>
-      <c r="AA24" s="274">
-        <f>AA23-($G$14*$B$7)*(2^(((AA13 - 42) - $G$13)/$X$9))-AA26</f>
+      <c r="AA24" s="252">
+        <f t="shared" si="17"/>
         <v>6784059.7920719311</v>
       </c>
-      <c r="AB24" s="256"/>
+      <c r="AB24" s="240"/>
       <c r="AC24" s="59"/>
       <c r="AD24" s="59"/>
       <c r="AE24" s="86"/>
@@ -36167,10 +36179,10 @@
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
       <c r="K25" s="26">
         <f>($G$14*$B$8)*(2^(((K13 - 14) - $G$13)/K38))</f>
         <v>2.238072552334784</v>
@@ -36183,63 +36195,63 @@
         <f>($G$14*$B$8)*(2^(((M13 - 14) - $G$13)/M38))</f>
         <v>7.0919700433984971</v>
       </c>
-      <c r="N25" s="80">
+      <c r="N25" s="26">
         <f>($G$14*$B$8)*(2^(((N13 - 14) - $G$13)/N38))</f>
         <v>15.944293100151134</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="232">
         <f>($G$14*$B$8)*(2^(((O13 - 14) - $G$13)/O38))</f>
         <v>53.822151852746757</v>
       </c>
-      <c r="P25" s="80">
-        <f>($G$14*$B$8)*(2^(((P13 - 14) - $G$13)/$X$9))</f>
+      <c r="P25" s="22">
+        <f t="shared" ref="P25:AA25" si="18">($G$14*$B$8)*(2^(((P13 - 14) - $G$13)/$X$9))</f>
         <v>30.331979637391584</v>
       </c>
-      <c r="Q25" s="249">
+      <c r="Q25" s="22">
         <f>($G$14*$B$8)*(2^(((Q13 - 14) - $G$13)/$X$9))</f>
         <v>79.37005259840997</v>
       </c>
-      <c r="R25" s="26">
-        <f>($G$14*$B$8)*(2^(((R13 - 14) - $G$13)/$X$9))</f>
+      <c r="R25" s="22">
+        <f t="shared" si="18"/>
         <v>207.68856252654751</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="22">
         <f>($G$14*$B$8)*(2^(((S13 - 14) - $G$13)/$X$9))</f>
         <v>543.46113669084002</v>
       </c>
-      <c r="T25" s="26">
-        <f>($G$14*$B$8)*(2^(((T13 - 14) - $G$13)/$X$9))</f>
+      <c r="T25" s="22">
+        <f t="shared" si="18"/>
         <v>1422.0812330748695</v>
       </c>
-      <c r="U25" s="26">
-        <f>($G$14*$B$8)*(2^(((U13 - 14) - $G$13)/$X$9))</f>
+      <c r="U25" s="22">
+        <f t="shared" si="18"/>
         <v>3721.1769102344824</v>
       </c>
-      <c r="V25" s="26">
-        <f>($G$14*$B$8)*(2^(((V13 - 14) - $G$13)/$X$9))</f>
+      <c r="V25" s="22">
+        <f t="shared" si="18"/>
         <v>9737.2479681216828</v>
       </c>
-      <c r="W25" s="26">
-        <f>($G$14*$B$8)*(2^(((W13 - 14) - $G$13)/$X$9))</f>
+      <c r="W25" s="22">
+        <f t="shared" si="18"/>
         <v>25479.572801798229</v>
       </c>
-      <c r="X25" s="26">
-        <f>($G$14*$B$8)*(2^(((X13 - 14) - $G$13)/$X$9))</f>
+      <c r="X25" s="22">
+        <f t="shared" si="18"/>
         <v>66672.701803173477</v>
       </c>
-      <c r="Y25" s="26">
-        <f>($G$14*$B$8)*(2^(((Y13 - 14) - $G$13)/$X$9))</f>
+      <c r="Y25" s="22">
+        <f t="shared" si="18"/>
         <v>174463.25338002396</v>
       </c>
-      <c r="Z25" s="258">
-        <f>($G$14*$B$8)*(2^(((Z13 - 14) - $G$13)/$X$9))</f>
+      <c r="Z25" s="247">
+        <f t="shared" si="18"/>
         <v>456520.0742846413</v>
       </c>
-      <c r="AA25" s="257">
-        <f>($G$14*$B$8)*(2^(((AA13 - 14) - $G$13)/$X$9))</f>
+      <c r="AA25" s="241">
+        <f t="shared" si="18"/>
         <v>1194581.5189568039</v>
       </c>
-      <c r="AB25" s="200">
+      <c r="AB25" s="197">
         <f>AB14*B8</f>
         <v>256340</v>
       </c>
@@ -36265,70 +36277,70 @@
         <v>2.238072552334784</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" ref="L26:O26" si="15">L25</f>
+        <f t="shared" ref="L26:O26" si="19">L25</f>
         <v>3.9368385690749048</v>
       </c>
       <c r="M26" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7.0919700433984971</v>
       </c>
-      <c r="N26" s="77">
-        <f t="shared" si="15"/>
+      <c r="N26" s="24">
+        <f t="shared" si="19"/>
         <v>15.944293100151134</v>
       </c>
-      <c r="O26" s="23">
-        <f t="shared" si="15"/>
-        <v>53.822151852746757</v>
-      </c>
-      <c r="P26" s="197">
+      <c r="O26" s="234">
+        <f>O25-($G$14*$B$8)*(2^(((O13 - 35) - $G$13)/O38))-O28</f>
+        <v>49.142521896740917</v>
+      </c>
+      <c r="P26" s="193">
         <f>P25-($G$14*$B$8)*(2^(((P13 - 35) - $G$13)/$X$9))-P28</f>
         <v>20.753935577022887</v>
       </c>
-      <c r="Q26" s="250">
+      <c r="Q26" s="193">
         <f>Q25-($G$14*$B$8)*(2^(((Q13 - 35) - $G$13)/$X$9))-Q28</f>
         <v>54.307070559340985</v>
       </c>
-      <c r="R26" s="196">
-        <f t="shared" ref="R26:AA26" si="16">R25-($G$14*$B$8)*(2^(((R13 - 35) - $G$13)/$X$9))-R28</f>
+      <c r="R26" s="193">
+        <f>R25-($G$14*$B$8)*(2^(((R13 - 35) - $G$13)/$X$9))-R28</f>
         <v>142.10595873692625</v>
       </c>
-      <c r="S26" s="196">
-        <f t="shared" si="16"/>
+      <c r="S26" s="193">
+        <f>S25-($G$14*$B$8)*(2^(((S13 - 35) - $G$13)/$X$9))-S28</f>
         <v>371.85035577411679</v>
       </c>
-      <c r="T26" s="196">
-        <f t="shared" si="16"/>
+      <c r="T26" s="193">
+        <f>T25-($G$14*$B$8)*(2^(((T13 - 35) - $G$13)/$X$9))-T28</f>
         <v>973.02525747927655</v>
       </c>
-      <c r="U26" s="196">
-        <f t="shared" si="16"/>
+      <c r="U26" s="193">
+        <f>U25-($G$14*$B$8)*(2^(((U13 - 35) - $G$13)/$X$9))-U28</f>
         <v>2546.1267872706803</v>
       </c>
-      <c r="V26" s="196">
-        <f t="shared" si="16"/>
+      <c r="V26" s="193">
+        <f>V25-($G$14*$B$8)*(2^(((V13 - 35) - $G$13)/$X$9))-V28</f>
         <v>6662.4803077071065</v>
       </c>
-      <c r="W26" s="196">
-        <f t="shared" si="16"/>
+      <c r="W26" s="193">
+        <f t="shared" ref="R26:AA26" si="20">W25-($G$14*$B$8)*(2^(((W13 - 35) - $G$13)/$X$9))-W28</f>
         <v>17433.791621259959</v>
       </c>
-      <c r="X26" s="196">
-        <f t="shared" si="16"/>
+      <c r="X26" s="193">
+        <f t="shared" si="20"/>
         <v>45619.210302493608</v>
       </c>
-      <c r="Y26" s="196">
-        <f t="shared" si="16"/>
+      <c r="Y26" s="193">
+        <f t="shared" si="20"/>
         <v>119372.33126529318</v>
       </c>
-      <c r="Z26" s="265">
-        <f t="shared" si="16"/>
+      <c r="Z26" s="245">
+        <f t="shared" si="20"/>
         <v>312363.00184117875</v>
       </c>
-      <c r="AA26" s="262">
-        <f t="shared" si="16"/>
+      <c r="AA26" s="244">
+        <f t="shared" si="20"/>
         <v>817363.98950265429</v>
       </c>
-      <c r="AB26" s="200"/>
+      <c r="AB26" s="197"/>
       <c r="AC26" s="59"/>
       <c r="AD26" s="59"/>
       <c r="AE26" s="86"/>
@@ -36343,90 +36355,90 @@
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="110">
-        <f t="shared" ref="G27:O27" si="17">G14*$B$9</f>
+        <f t="shared" ref="G27:O27" si="21">G14*$B$9</f>
         <v>1.09375</v>
       </c>
       <c r="H27" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.1875</v>
       </c>
       <c r="I27" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.375</v>
       </c>
       <c r="J27" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8.75</v>
       </c>
       <c r="K27" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17.5</v>
       </c>
       <c r="L27" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="M27" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
-      <c r="N27" s="120">
-        <f t="shared" si="17"/>
+      <c r="N27" s="109">
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
-      <c r="O27" s="43">
-        <f t="shared" si="17"/>
+      <c r="O27" s="273">
+        <f t="shared" si="21"/>
         <v>280</v>
       </c>
-      <c r="P27" s="88">
-        <f>P14*$B$9</f>
+      <c r="P27" s="44">
+        <f t="shared" ref="P27:AA27" si="22">P14*$B$9</f>
         <v>560</v>
       </c>
-      <c r="Q27" s="111">
-        <f>Q14*$B$9</f>
+      <c r="Q27" s="44">
+        <f t="shared" si="22"/>
         <v>1120</v>
       </c>
-      <c r="R27" s="110">
-        <f>R14*$B$9</f>
+      <c r="R27" s="44">
+        <f t="shared" si="22"/>
         <v>2240</v>
       </c>
-      <c r="S27" s="109">
-        <f>S14*$B$9</f>
+      <c r="S27" s="44">
+        <f t="shared" si="22"/>
         <v>4480</v>
       </c>
-      <c r="T27" s="109">
-        <f>T14*$B$9</f>
+      <c r="T27" s="44">
+        <f t="shared" si="22"/>
         <v>8960</v>
       </c>
-      <c r="U27" s="109">
-        <f>U14*$B$9</f>
+      <c r="U27" s="44">
+        <f t="shared" si="22"/>
         <v>17920</v>
       </c>
-      <c r="V27" s="109">
-        <f>V14*$B$9</f>
+      <c r="V27" s="44">
+        <f t="shared" si="22"/>
         <v>35840</v>
       </c>
-      <c r="W27" s="109">
-        <f>W14*$B$9</f>
+      <c r="W27" s="44">
+        <f t="shared" si="22"/>
         <v>71680</v>
       </c>
-      <c r="X27" s="109">
-        <f>X14*$B$9</f>
+      <c r="X27" s="44">
+        <f t="shared" si="22"/>
         <v>143360</v>
       </c>
-      <c r="Y27" s="257">
-        <f>Y14*$B$9</f>
+      <c r="Y27" s="244">
+        <f t="shared" si="22"/>
         <v>286720</v>
       </c>
-      <c r="Z27" s="258">
-        <f>Z14*$B$9</f>
+      <c r="Z27" s="247">
+        <f t="shared" si="22"/>
         <v>573440</v>
       </c>
-      <c r="AA27" s="257">
-        <f>AA14*$B$9</f>
+      <c r="AA27" s="241">
+        <f t="shared" si="22"/>
         <v>897190.00000000012</v>
       </c>
-      <c r="AB27" s="200">
+      <c r="AB27" s="197">
         <f>AB14*B9</f>
         <v>179438.00000000003</v>
       </c>
@@ -36443,67 +36455,67 @@
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="45">
+      <c r="G28" s="112"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="111">
         <f>($G$14*$B$9)*(2^(((O13 - 35) - $G$13)/O38))</f>
         <v>1.9269064524729922</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="46">
         <f>($G$14*$B$9)*(2^(((P13 - 35) - $G$13)/$X$9))</f>
         <v>3.9439004954459334</v>
       </c>
-      <c r="Q28" s="112">
-        <f t="shared" ref="Q28:AA28" si="18">($G$14*$B$9)*(2^(((Q13 - 35) - $G$13)/$X$9))</f>
+      <c r="Q28" s="46">
+        <f t="shared" ref="Q28:AA28" si="23">($G$14*$B$9)*(2^(((Q13 - 35) - $G$13)/$X$9))</f>
         <v>10.320051427851936</v>
       </c>
-      <c r="R28" s="45">
-        <f t="shared" si="18"/>
+      <c r="R28" s="46">
+        <f t="shared" si="23"/>
         <v>27.004601560432278</v>
       </c>
       <c r="S28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>70.663262730415454</v>
       </c>
       <c r="T28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>184.90540171583243</v>
       </c>
       <c r="U28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>483.84416827921245</v>
       </c>
       <c r="V28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1266.0808013471783</v>
       </c>
       <c r="W28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3312.9687213981106</v>
       </c>
       <c r="X28" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>8669.0847355740643</v>
       </c>
-      <c r="Y28" s="114">
-        <f t="shared" si="18"/>
+      <c r="Y28" s="113">
+        <f t="shared" si="23"/>
         <v>22684.497341359729</v>
       </c>
       <c r="Z28" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>59358.79453554342</v>
       </c>
-      <c r="AA28" s="114">
-        <f t="shared" si="18"/>
+      <c r="AA28" s="113">
+        <f t="shared" si="23"/>
         <v>155324.86506935573</v>
       </c>
-      <c r="AB28" s="201"/>
+      <c r="AB28" s="198"/>
       <c r="AC28" s="59"/>
       <c r="AD28" s="59"/>
       <c r="AE28" s="86"/>
@@ -36517,91 +36529,91 @@
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
-      <c r="G29" s="190">
-        <f>G13-7</f>
+      <c r="G29" s="187">
+        <f t="shared" ref="G29:AA29" si="24">G13-7</f>
         <v>43885</v>
       </c>
-      <c r="H29" s="190">
-        <f>H13-7</f>
+      <c r="H29" s="187">
+        <f t="shared" si="24"/>
         <v>43889</v>
       </c>
-      <c r="I29" s="190">
-        <f>I13-7</f>
+      <c r="I29" s="187">
+        <f t="shared" si="24"/>
         <v>43893</v>
       </c>
-      <c r="J29" s="190">
-        <f>J13-7</f>
+      <c r="J29" s="187">
+        <f t="shared" si="24"/>
         <v>43897</v>
       </c>
-      <c r="K29" s="190">
-        <f>K13-7</f>
+      <c r="K29" s="187">
+        <f t="shared" si="24"/>
         <v>43901</v>
       </c>
-      <c r="L29" s="190">
-        <f>L13-7</f>
+      <c r="L29" s="187">
+        <f t="shared" si="24"/>
         <v>43904</v>
       </c>
-      <c r="M29" s="190">
-        <f>M13-7</f>
+      <c r="M29" s="187">
+        <f t="shared" si="24"/>
         <v>43907</v>
       </c>
-      <c r="N29" s="190">
-        <f>N13-7</f>
+      <c r="N29" s="187">
+        <f t="shared" si="24"/>
         <v>43912</v>
       </c>
-      <c r="O29" s="190">
-        <f>O13-7</f>
+      <c r="O29" s="187">
+        <f t="shared" si="24"/>
         <v>43924</v>
       </c>
-      <c r="P29" s="190">
-        <f>P13-7</f>
+      <c r="P29" s="187">
+        <f t="shared" si="24"/>
         <v>43936</v>
       </c>
-      <c r="Q29" s="190">
-        <f>Q13-7</f>
+      <c r="Q29" s="187">
+        <f t="shared" si="24"/>
         <v>43948</v>
       </c>
-      <c r="R29" s="190">
-        <f>R13-7</f>
+      <c r="R29" s="187">
+        <f t="shared" si="24"/>
         <v>43960</v>
       </c>
-      <c r="S29" s="190">
-        <f>S13-7</f>
+      <c r="S29" s="187">
+        <f t="shared" si="24"/>
         <v>43972</v>
       </c>
-      <c r="T29" s="190">
-        <f>T13-7</f>
+      <c r="T29" s="187">
+        <f t="shared" si="24"/>
         <v>43984</v>
       </c>
-      <c r="U29" s="190">
-        <f>U13-7</f>
+      <c r="U29" s="187">
+        <f t="shared" si="24"/>
         <v>43996</v>
       </c>
-      <c r="V29" s="190">
-        <f>V13-7</f>
+      <c r="V29" s="187">
+        <f t="shared" si="24"/>
         <v>44008</v>
       </c>
-      <c r="W29" s="190">
-        <f>W13-7</f>
+      <c r="W29" s="187">
+        <f t="shared" si="24"/>
         <v>44020</v>
       </c>
-      <c r="X29" s="190">
-        <f>X13-7</f>
+      <c r="X29" s="187">
+        <f t="shared" si="24"/>
         <v>44032</v>
       </c>
-      <c r="Y29" s="190">
-        <f>Y13-7</f>
+      <c r="Y29" s="187">
+        <f t="shared" si="24"/>
         <v>44044</v>
       </c>
-      <c r="Z29" s="190">
-        <f>Z13-7</f>
+      <c r="Z29" s="187">
+        <f t="shared" si="24"/>
         <v>44056</v>
       </c>
-      <c r="AA29" s="190">
-        <f>AA13-7</f>
+      <c r="AA29" s="187">
+        <f t="shared" si="24"/>
         <v>44068</v>
       </c>
-      <c r="AB29" s="190"/>
+      <c r="AB29" s="187"/>
       <c r="AC29" s="59"/>
       <c r="AD29" s="59"/>
     </row>
@@ -36614,91 +36626,91 @@
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
-      <c r="G30" s="190">
-        <f>G13-14</f>
+      <c r="G30" s="187">
+        <f t="shared" ref="G30:AA30" si="25">G13-14</f>
         <v>43878</v>
       </c>
-      <c r="H30" s="190">
-        <f>H13-14</f>
+      <c r="H30" s="187">
+        <f t="shared" si="25"/>
         <v>43882</v>
       </c>
-      <c r="I30" s="190">
-        <f>I13-14</f>
+      <c r="I30" s="187">
+        <f t="shared" si="25"/>
         <v>43886</v>
       </c>
-      <c r="J30" s="190">
-        <f>J13-14</f>
+      <c r="J30" s="187">
+        <f t="shared" si="25"/>
         <v>43890</v>
       </c>
-      <c r="K30" s="190">
-        <f>K13-14</f>
+      <c r="K30" s="187">
+        <f t="shared" si="25"/>
         <v>43894</v>
       </c>
-      <c r="L30" s="190">
-        <f>L13-14</f>
+      <c r="L30" s="187">
+        <f t="shared" si="25"/>
         <v>43897</v>
       </c>
-      <c r="M30" s="190">
-        <f>M13-14</f>
+      <c r="M30" s="187">
+        <f t="shared" si="25"/>
         <v>43900</v>
       </c>
-      <c r="N30" s="190">
-        <f>N13-14</f>
+      <c r="N30" s="187">
+        <f t="shared" si="25"/>
         <v>43905</v>
       </c>
-      <c r="O30" s="190">
-        <f>O13-14</f>
+      <c r="O30" s="187">
+        <f t="shared" si="25"/>
         <v>43917</v>
       </c>
-      <c r="P30" s="190">
-        <f>P13-14</f>
+      <c r="P30" s="187">
+        <f t="shared" si="25"/>
         <v>43929</v>
       </c>
-      <c r="Q30" s="190">
-        <f>Q13-14</f>
+      <c r="Q30" s="187">
+        <f t="shared" si="25"/>
         <v>43941</v>
       </c>
-      <c r="R30" s="190">
-        <f>R13-14</f>
+      <c r="R30" s="187">
+        <f t="shared" si="25"/>
         <v>43953</v>
       </c>
-      <c r="S30" s="190">
-        <f>S13-14</f>
+      <c r="S30" s="187">
+        <f t="shared" si="25"/>
         <v>43965</v>
       </c>
-      <c r="T30" s="190">
-        <f>T13-14</f>
+      <c r="T30" s="187">
+        <f t="shared" si="25"/>
         <v>43977</v>
       </c>
-      <c r="U30" s="190">
-        <f>U13-14</f>
+      <c r="U30" s="187">
+        <f t="shared" si="25"/>
         <v>43989</v>
       </c>
-      <c r="V30" s="190">
-        <f>V13-14</f>
+      <c r="V30" s="187">
+        <f t="shared" si="25"/>
         <v>44001</v>
       </c>
-      <c r="W30" s="190">
-        <f>W13-14</f>
+      <c r="W30" s="187">
+        <f t="shared" si="25"/>
         <v>44013</v>
       </c>
-      <c r="X30" s="190">
-        <f>X13-14</f>
+      <c r="X30" s="187">
+        <f t="shared" si="25"/>
         <v>44025</v>
       </c>
-      <c r="Y30" s="190">
-        <f>Y13-14</f>
+      <c r="Y30" s="187">
+        <f t="shared" si="25"/>
         <v>44037</v>
       </c>
-      <c r="Z30" s="190">
-        <f>Z13-14</f>
+      <c r="Z30" s="187">
+        <f t="shared" si="25"/>
         <v>44049</v>
       </c>
-      <c r="AA30" s="190">
-        <f>AA13-14</f>
+      <c r="AA30" s="187">
+        <f t="shared" si="25"/>
         <v>44061</v>
       </c>
-      <c r="AB30" s="190"/>
+      <c r="AB30" s="187"/>
       <c r="AC30" s="59"/>
       <c r="AD30" s="59"/>
     </row>
@@ -36711,91 +36723,91 @@
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
-      <c r="G31" s="190">
-        <f>G13-(7*5)</f>
+      <c r="G31" s="187">
+        <f t="shared" ref="G31:AA31" si="26">G13-(7*5)</f>
         <v>43857</v>
       </c>
-      <c r="H31" s="190">
-        <f>H13-(7*5)</f>
+      <c r="H31" s="187">
+        <f t="shared" si="26"/>
         <v>43861</v>
       </c>
-      <c r="I31" s="190">
-        <f>I13-(7*5)</f>
+      <c r="I31" s="187">
+        <f t="shared" si="26"/>
         <v>43865</v>
       </c>
-      <c r="J31" s="190">
-        <f>J13-(7*5)</f>
+      <c r="J31" s="187">
+        <f t="shared" si="26"/>
         <v>43869</v>
       </c>
-      <c r="K31" s="190">
-        <f>K13-(7*5)</f>
+      <c r="K31" s="187">
+        <f t="shared" si="26"/>
         <v>43873</v>
       </c>
-      <c r="L31" s="190">
-        <f>L13-(7*5)</f>
+      <c r="L31" s="187">
+        <f t="shared" si="26"/>
         <v>43876</v>
       </c>
-      <c r="M31" s="190">
-        <f>M13-(7*5)</f>
+      <c r="M31" s="187">
+        <f t="shared" si="26"/>
         <v>43879</v>
       </c>
-      <c r="N31" s="190">
-        <f>N13-(7*5)</f>
+      <c r="N31" s="187">
+        <f t="shared" si="26"/>
         <v>43884</v>
       </c>
-      <c r="O31" s="190">
-        <f>O13-(7*5)</f>
+      <c r="O31" s="187">
+        <f t="shared" si="26"/>
         <v>43896</v>
       </c>
-      <c r="P31" s="190">
-        <f>P13-(7*5)</f>
+      <c r="P31" s="187">
+        <f t="shared" si="26"/>
         <v>43908</v>
       </c>
-      <c r="Q31" s="190">
-        <f>Q13-(7*5)</f>
+      <c r="Q31" s="187">
+        <f t="shared" si="26"/>
         <v>43920</v>
       </c>
-      <c r="R31" s="190">
-        <f>R13-(7*5)</f>
+      <c r="R31" s="187">
+        <f t="shared" si="26"/>
         <v>43932</v>
       </c>
-      <c r="S31" s="190">
-        <f>S13-(7*5)</f>
+      <c r="S31" s="187">
+        <f t="shared" si="26"/>
         <v>43944</v>
       </c>
-      <c r="T31" s="190">
-        <f>T13-(7*5)</f>
+      <c r="T31" s="187">
+        <f t="shared" si="26"/>
         <v>43956</v>
       </c>
-      <c r="U31" s="190">
-        <f>U13-(7*5)</f>
+      <c r="U31" s="187">
+        <f t="shared" si="26"/>
         <v>43968</v>
       </c>
-      <c r="V31" s="190">
-        <f>V13-(7*5)</f>
+      <c r="V31" s="187">
+        <f t="shared" si="26"/>
         <v>43980</v>
       </c>
-      <c r="W31" s="190">
-        <f>W13-(7*5)</f>
+      <c r="W31" s="187">
+        <f t="shared" si="26"/>
         <v>43992</v>
       </c>
-      <c r="X31" s="190">
-        <f>X13-(7*5)</f>
+      <c r="X31" s="187">
+        <f t="shared" si="26"/>
         <v>44004</v>
       </c>
-      <c r="Y31" s="190">
-        <f>Y13-(7*5)</f>
+      <c r="Y31" s="187">
+        <f t="shared" si="26"/>
         <v>44016</v>
       </c>
-      <c r="Z31" s="190">
-        <f>Z13-(7*5)</f>
+      <c r="Z31" s="187">
+        <f t="shared" si="26"/>
         <v>44028</v>
       </c>
-      <c r="AA31" s="190">
-        <f>AA13-(7*5)</f>
+      <c r="AA31" s="187">
+        <f t="shared" si="26"/>
         <v>44040</v>
       </c>
-      <c r="AB31" s="190"/>
+      <c r="AB31" s="187"/>
       <c r="AC31" s="59"/>
       <c r="AD31" s="59"/>
     </row>
@@ -36808,91 +36820,91 @@
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
-      <c r="G32" s="190">
-        <f>G13-(6*7)</f>
+      <c r="G32" s="187">
+        <f t="shared" ref="G32:AA32" si="27">G13-(6*7)</f>
         <v>43850</v>
       </c>
-      <c r="H32" s="190">
-        <f>H13-(6*7)</f>
+      <c r="H32" s="187">
+        <f t="shared" si="27"/>
         <v>43854</v>
       </c>
-      <c r="I32" s="190">
-        <f>I13-(6*7)</f>
+      <c r="I32" s="187">
+        <f t="shared" si="27"/>
         <v>43858</v>
       </c>
-      <c r="J32" s="190">
-        <f>J13-(6*7)</f>
+      <c r="J32" s="187">
+        <f t="shared" si="27"/>
         <v>43862</v>
       </c>
-      <c r="K32" s="190">
-        <f>K13-(6*7)</f>
+      <c r="K32" s="187">
+        <f t="shared" si="27"/>
         <v>43866</v>
       </c>
-      <c r="L32" s="190">
-        <f>L13-(6*7)</f>
+      <c r="L32" s="187">
+        <f t="shared" si="27"/>
         <v>43869</v>
       </c>
-      <c r="M32" s="190">
-        <f>M13-(6*7)</f>
+      <c r="M32" s="187">
+        <f t="shared" si="27"/>
         <v>43872</v>
       </c>
-      <c r="N32" s="190">
-        <f>N13-(6*7)</f>
+      <c r="N32" s="187">
+        <f t="shared" si="27"/>
         <v>43877</v>
       </c>
-      <c r="O32" s="190">
-        <f>O13-(6*7)</f>
+      <c r="O32" s="187">
+        <f t="shared" si="27"/>
         <v>43889</v>
       </c>
-      <c r="P32" s="190">
-        <f>P13-(6*7)</f>
+      <c r="P32" s="187">
+        <f t="shared" si="27"/>
         <v>43901</v>
       </c>
-      <c r="Q32" s="190">
-        <f>Q13-(6*7)</f>
+      <c r="Q32" s="187">
+        <f t="shared" si="27"/>
         <v>43913</v>
       </c>
-      <c r="R32" s="190">
-        <f>R13-(6*7)</f>
+      <c r="R32" s="187">
+        <f t="shared" si="27"/>
         <v>43925</v>
       </c>
-      <c r="S32" s="190">
-        <f>S13-(6*7)</f>
+      <c r="S32" s="187">
+        <f t="shared" si="27"/>
         <v>43937</v>
       </c>
-      <c r="T32" s="190">
-        <f>T13-(6*7)</f>
+      <c r="T32" s="187">
+        <f t="shared" si="27"/>
         <v>43949</v>
       </c>
-      <c r="U32" s="190">
-        <f>U13-(6*7)</f>
+      <c r="U32" s="187">
+        <f t="shared" si="27"/>
         <v>43961</v>
       </c>
-      <c r="V32" s="190">
-        <f>V13-(6*7)</f>
+      <c r="V32" s="187">
+        <f t="shared" si="27"/>
         <v>43973</v>
       </c>
-      <c r="W32" s="190">
-        <f>W13-(6*7)</f>
+      <c r="W32" s="187">
+        <f t="shared" si="27"/>
         <v>43985</v>
       </c>
-      <c r="X32" s="190">
-        <f>X13-(6*7)</f>
+      <c r="X32" s="187">
+        <f t="shared" si="27"/>
         <v>43997</v>
       </c>
-      <c r="Y32" s="190">
-        <f>Y13-(6*7)</f>
+      <c r="Y32" s="187">
+        <f t="shared" si="27"/>
         <v>44009</v>
       </c>
-      <c r="Z32" s="190">
-        <f>Z13-(6*7)</f>
+      <c r="Z32" s="187">
+        <f t="shared" si="27"/>
         <v>44021</v>
       </c>
-      <c r="AA32" s="190">
-        <f>AA13-(6*7)</f>
+      <c r="AA32" s="187">
+        <f t="shared" si="27"/>
         <v>44033</v>
       </c>
-      <c r="AB32" s="190"/>
+      <c r="AB32" s="187"/>
       <c r="AC32" s="59"/>
       <c r="AD32" s="59"/>
     </row>
@@ -36907,7 +36919,7 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="175" t="s">
         <v>209</v>
       </c>
       <c r="B35" s="39"/>
@@ -36915,97 +36927,97 @@
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
       <c r="F35" s="61"/>
-      <c r="G35" s="179">
-        <f>(G13-$B$10)/7</f>
+      <c r="G35" s="176">
+        <f t="shared" ref="G35:AB35" si="28">(G13-$B$10)/7</f>
         <v>5.2857142857142856</v>
       </c>
-      <c r="H35" s="174">
-        <f>(H13-$B$10)/7</f>
+      <c r="H35" s="171">
+        <f t="shared" si="28"/>
         <v>5.8571428571428568</v>
       </c>
-      <c r="I35" s="175">
-        <f>(I13-$B$10)/7</f>
+      <c r="I35" s="172">
+        <f t="shared" si="28"/>
         <v>6.4285714285714288</v>
       </c>
-      <c r="J35" s="179">
-        <f>(J13-$B$10)/7</f>
+      <c r="J35" s="176">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="K35" s="174">
-        <f>(K13-$B$10)/7</f>
+      <c r="K35" s="171">
+        <f t="shared" si="28"/>
         <v>7.5714285714285712</v>
       </c>
-      <c r="L35" s="180">
-        <f>(L13-$B$10)/7</f>
+      <c r="L35" s="177">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="M35" s="175">
-        <f>(M13-$B$10)/7</f>
+      <c r="M35" s="172">
+        <f t="shared" si="28"/>
         <v>8.4285714285714288</v>
       </c>
-      <c r="N35" s="179">
-        <f>(N13-$B$10)/7</f>
+      <c r="N35" s="176">
+        <f t="shared" si="28"/>
         <v>9.1428571428571423</v>
       </c>
-      <c r="O35" s="174">
-        <f>(O13-$B$10)/7</f>
+      <c r="O35" s="171">
+        <f t="shared" si="28"/>
         <v>10.857142857142858</v>
       </c>
-      <c r="P35" s="174">
-        <f>(P13-$B$10)/7</f>
+      <c r="P35" s="171">
+        <f t="shared" si="28"/>
         <v>12.571428571428571</v>
       </c>
-      <c r="Q35" s="175">
-        <f>(Q13-$B$10)/7</f>
+      <c r="Q35" s="172">
+        <f t="shared" si="28"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="R35" s="179">
-        <f>(R13-$B$10)/7</f>
+      <c r="R35" s="176">
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
-      <c r="S35" s="174">
-        <f>(S13-$B$10)/7</f>
+      <c r="S35" s="171">
+        <f t="shared" si="28"/>
         <v>17.714285714285715</v>
       </c>
-      <c r="T35" s="175">
-        <f>(T13-$B$10)/7</f>
+      <c r="T35" s="172">
+        <f t="shared" si="28"/>
         <v>19.428571428571427</v>
       </c>
-      <c r="U35" s="179">
-        <f>(U13-$B$10)/7</f>
+      <c r="U35" s="176">
+        <f t="shared" si="28"/>
         <v>21.142857142857142</v>
       </c>
-      <c r="V35" s="179">
-        <f>(V13-$B$10)/7</f>
+      <c r="V35" s="176">
+        <f t="shared" si="28"/>
         <v>22.857142857142858</v>
       </c>
-      <c r="W35" s="174">
-        <f>(W13-$B$10)/7</f>
+      <c r="W35" s="171">
+        <f t="shared" si="28"/>
         <v>24.571428571428573</v>
       </c>
-      <c r="X35" s="175">
-        <f>(X13-$B$10)/7</f>
+      <c r="X35" s="172">
+        <f t="shared" si="28"/>
         <v>26.285714285714285</v>
       </c>
-      <c r="Y35" s="179">
-        <f>(Y13-$B$10)/7</f>
+      <c r="Y35" s="176">
+        <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="Z35" s="174">
-        <f>(Z13-$B$10)/7</f>
+      <c r="Z35" s="171">
+        <f t="shared" si="28"/>
         <v>29.714285714285715</v>
       </c>
-      <c r="AA35" s="179">
-        <f>(AA13-$B$10)/7</f>
+      <c r="AA35" s="176">
+        <f t="shared" si="28"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="AB35" s="179">
-        <f>(AB13-$B$10)/7</f>
+      <c r="AB35" s="176">
+        <f t="shared" si="28"/>
         <v>39.428571428571431</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="175" t="s">
         <v>208</v>
       </c>
       <c r="B36" s="39"/>
@@ -37013,92 +37025,92 @@
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
-      <c r="G36" s="181">
+      <c r="G36" s="178">
         <f>G13-B10</f>
         <v>37</v>
       </c>
-      <c r="H36" s="176">
+      <c r="H36" s="173">
         <f>G36+$B$13</f>
         <v>41</v>
       </c>
-      <c r="I36" s="176">
+      <c r="I36" s="173">
         <f>H36+$B$13</f>
         <v>45</v>
       </c>
-      <c r="J36" s="176">
+      <c r="J36" s="173">
         <f>I36+$B$13</f>
         <v>49</v>
       </c>
-      <c r="K36" s="176">
+      <c r="K36" s="173">
         <f>J36+$B$13</f>
         <v>53</v>
       </c>
-      <c r="L36" s="176">
+      <c r="L36" s="173">
         <f>K36+$C$13</f>
         <v>56</v>
       </c>
-      <c r="M36" s="176">
+      <c r="M36" s="173">
         <f>L36+$C$13</f>
         <v>59</v>
       </c>
-      <c r="N36" s="177">
-        <f t="shared" ref="N36:AB36" si="19">M36+$D$13</f>
+      <c r="N36" s="174">
+        <f t="shared" ref="N36:AB36" si="29">M36+$D$13</f>
         <v>64</v>
       </c>
-      <c r="O36" s="177">
-        <f t="shared" si="19"/>
+      <c r="O36" s="174">
+        <f t="shared" si="29"/>
         <v>69</v>
       </c>
-      <c r="P36" s="177">
-        <f t="shared" si="19"/>
+      <c r="P36" s="174">
+        <f t="shared" si="29"/>
         <v>74</v>
       </c>
-      <c r="Q36" s="177">
-        <f t="shared" si="19"/>
+      <c r="Q36" s="174">
+        <f t="shared" si="29"/>
         <v>79</v>
       </c>
-      <c r="R36" s="177">
-        <f t="shared" si="19"/>
+      <c r="R36" s="174">
+        <f t="shared" si="29"/>
         <v>84</v>
       </c>
-      <c r="S36" s="177">
-        <f t="shared" si="19"/>
+      <c r="S36" s="174">
+        <f t="shared" si="29"/>
         <v>89</v>
       </c>
-      <c r="T36" s="177">
-        <f t="shared" si="19"/>
+      <c r="T36" s="174">
+        <f t="shared" si="29"/>
         <v>94</v>
       </c>
-      <c r="U36" s="177">
-        <f t="shared" si="19"/>
+      <c r="U36" s="174">
+        <f t="shared" si="29"/>
         <v>99</v>
       </c>
-      <c r="V36" s="177">
-        <f t="shared" si="19"/>
+      <c r="V36" s="174">
+        <f t="shared" si="29"/>
         <v>104</v>
       </c>
-      <c r="W36" s="177">
-        <f t="shared" si="19"/>
+      <c r="W36" s="174">
+        <f t="shared" si="29"/>
         <v>109</v>
       </c>
-      <c r="X36" s="177">
-        <f t="shared" si="19"/>
+      <c r="X36" s="174">
+        <f t="shared" si="29"/>
         <v>114</v>
       </c>
-      <c r="Y36" s="177">
-        <f t="shared" si="19"/>
+      <c r="Y36" s="174">
+        <f t="shared" si="29"/>
         <v>119</v>
       </c>
-      <c r="Z36" s="177">
-        <f t="shared" si="19"/>
+      <c r="Z36" s="174">
+        <f t="shared" si="29"/>
         <v>124</v>
       </c>
-      <c r="AA36" s="210">
-        <f t="shared" si="19"/>
+      <c r="AA36" s="205">
+        <f t="shared" si="29"/>
         <v>129</v>
       </c>
-      <c r="AB36" s="210">
-        <f t="shared" si="19"/>
+      <c r="AB36" s="205">
+        <f t="shared" si="29"/>
         <v>134</v>
       </c>
     </row>
@@ -37111,46 +37123,46 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="182">
+      <c r="G37" s="179">
         <v>32</v>
       </c>
-      <c r="H37" s="183">
+      <c r="H37" s="180">
         <v>63</v>
       </c>
-      <c r="I37" s="184">
+      <c r="I37" s="181">
         <v>112</v>
       </c>
-      <c r="J37" s="184">
+      <c r="J37" s="181">
         <v>249</v>
       </c>
-      <c r="K37" s="184">
+      <c r="K37" s="181">
         <v>567</v>
       </c>
-      <c r="L37" s="184">
+      <c r="L37" s="181">
         <v>1072</v>
       </c>
-      <c r="M37" s="184">
+      <c r="M37" s="181">
         <v>2050</v>
       </c>
-      <c r="N37" s="184">
+      <c r="N37" s="181">
         <v>3984</v>
       </c>
-      <c r="O37" s="184">
+      <c r="O37" s="181">
         <v>8000</v>
       </c>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="184"/>
-      <c r="V37" s="184"/>
-      <c r="W37" s="184"/>
-      <c r="X37" s="184"/>
-      <c r="Y37" s="184"/>
-      <c r="Z37" s="184"/>
-      <c r="AA37" s="184"/>
-      <c r="AB37" s="185"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="181"/>
+      <c r="V37" s="181"/>
+      <c r="W37" s="181"/>
+      <c r="X37" s="181"/>
+      <c r="Y37" s="181"/>
+      <c r="Z37" s="181"/>
+      <c r="AA37" s="181"/>
+      <c r="AB37" s="182"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
@@ -37161,52 +37173,52 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="238">
-        <f>(H13-$G$13)/(LOG(H37/$G$37)/LOG(2))</f>
+      <c r="G38" s="183"/>
+      <c r="H38" s="225">
+        <f t="shared" ref="H38:O38" si="30">(H13-$G$13)/(LOG(H37/$G$37)/LOG(2))</f>
         <v>4.0929931167263378</v>
       </c>
-      <c r="I38" s="238">
-        <f>(I13-$G$13)/(LOG(I37/$G$37)/LOG(2))</f>
+      <c r="I38" s="225">
+        <f t="shared" si="30"/>
         <v>4.4263580453208977</v>
       </c>
-      <c r="J38" s="238">
-        <f>(J13-$G$13)/(LOG(J37/$G$37)/LOG(2))</f>
+      <c r="J38" s="225">
+        <f t="shared" si="30"/>
         <v>4.0540514078704986</v>
       </c>
-      <c r="K38" s="238">
-        <f>(K13-$G$13)/(LOG(K37/$G$37)/LOG(2))</f>
+      <c r="K38" s="225">
+        <f t="shared" si="30"/>
         <v>3.8580201098268327</v>
       </c>
-      <c r="L38" s="238">
-        <f>(L13-$G$13)/(LOG(L37/$G$37)/LOG(2))</f>
+      <c r="L38" s="225">
+        <f t="shared" si="30"/>
         <v>3.7504274570979592</v>
       </c>
-      <c r="M38" s="238">
-        <f>(M13-$G$13)/(LOG(M37/$G$37)/LOG(2))</f>
+      <c r="M38" s="225">
+        <f t="shared" si="30"/>
         <v>3.6658063053526138</v>
       </c>
-      <c r="N38" s="238">
-        <f>(N13-$G$13)/(LOG(N37/$G$37)/LOG(2))</f>
+      <c r="N38" s="225">
+        <f t="shared" si="30"/>
         <v>3.879309267946895</v>
       </c>
-      <c r="O38" s="238">
-        <f>(O13-$G$13)/(LOG(O37/$G$37)/LOG(2))</f>
+      <c r="O38" s="225">
+        <f t="shared" si="30"/>
         <v>4.8959397601430785</v>
       </c>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="184"/>
-      <c r="R38" s="184"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="184"/>
-      <c r="U38" s="184"/>
-      <c r="V38" s="184"/>
-      <c r="W38" s="184"/>
-      <c r="X38" s="184"/>
-      <c r="Y38" s="184"/>
-      <c r="Z38" s="184"/>
-      <c r="AA38" s="184"/>
-      <c r="AB38" s="185"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="181"/>
+      <c r="U38" s="181"/>
+      <c r="V38" s="181"/>
+      <c r="W38" s="181"/>
+      <c r="X38" s="181"/>
+      <c r="Y38" s="181"/>
+      <c r="Z38" s="181"/>
+      <c r="AA38" s="181"/>
+      <c r="AB38" s="182"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
@@ -37217,44 +37229,44 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="186">
+      <c r="G39" s="183">
         <v>5</v>
       </c>
-      <c r="H39" s="187">
+      <c r="H39" s="184">
         <v>12</v>
       </c>
-      <c r="I39" s="139">
+      <c r="I39" s="136">
         <v>12</v>
       </c>
-      <c r="J39" s="139">
+      <c r="J39" s="136">
         <v>17</v>
       </c>
-      <c r="K39" s="188">
+      <c r="K39" s="185">
         <v>33</v>
       </c>
-      <c r="L39" s="188">
+      <c r="L39" s="185">
         <v>53</v>
       </c>
-      <c r="M39" s="188">
+      <c r="M39" s="185">
         <v>97</v>
       </c>
-      <c r="N39" s="188" t="s">
+      <c r="N39" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="O39" s="188"/>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="188"/>
-      <c r="S39" s="188"/>
-      <c r="T39" s="188"/>
-      <c r="U39" s="188"/>
-      <c r="V39" s="188"/>
-      <c r="W39" s="188"/>
-      <c r="X39" s="188"/>
-      <c r="Y39" s="188"/>
-      <c r="Z39" s="188"/>
-      <c r="AA39" s="188"/>
-      <c r="AB39" s="189"/>
+      <c r="O39" s="185"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
+      <c r="S39" s="185"/>
+      <c r="T39" s="185"/>
+      <c r="U39" s="185"/>
+      <c r="V39" s="185"/>
+      <c r="W39" s="185"/>
+      <c r="X39" s="185"/>
+      <c r="Y39" s="185"/>
+      <c r="Z39" s="185"/>
+      <c r="AA39" s="185"/>
+      <c r="AB39" s="186"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
@@ -37392,87 +37404,87 @@
       <c r="E44" s="17"/>
       <c r="F44" s="30"/>
       <c r="G44" s="32">
-        <f>G$14*$D$44</f>
+        <f t="shared" ref="G44:AA44" si="31">G$14*$D$44</f>
         <v>0.84481844685926311</v>
       </c>
       <c r="H44" s="33">
-        <f>H$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>1.6896368937185262</v>
       </c>
       <c r="I44" s="33">
-        <f>I$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>3.3792737874370524</v>
       </c>
       <c r="J44" s="33">
-        <f>J$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>6.7585475748741048</v>
       </c>
       <c r="K44" s="33">
-        <f>K$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>13.51709514974821</v>
       </c>
       <c r="L44" s="33">
-        <f>L$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>27.034190299496419</v>
       </c>
       <c r="M44" s="33">
-        <f>M$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>54.068380598992839</v>
       </c>
       <c r="N44" s="33">
-        <f>N$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>108.13676119798568</v>
       </c>
       <c r="O44" s="33">
-        <f>O$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>216.27352239597136</v>
       </c>
       <c r="P44" s="33">
-        <f>P$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>432.54704479194271</v>
       </c>
       <c r="Q44" s="33">
-        <f>Q$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>865.09408958388542</v>
       </c>
       <c r="R44" s="33">
-        <f>R$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>1730.1881791677708</v>
       </c>
       <c r="S44" s="33">
-        <f>S$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>3460.3763583355417</v>
       </c>
       <c r="T44" s="33">
-        <f>T$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>6920.7527166710834</v>
       </c>
       <c r="U44" s="33">
-        <f>U$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>13841.505433342167</v>
       </c>
       <c r="V44" s="33">
-        <f>V$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>27683.010866684333</v>
       </c>
       <c r="W44" s="33">
-        <f>W$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>55366.021733368667</v>
       </c>
       <c r="X44" s="33">
-        <f>X$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>110732.04346673733</v>
       </c>
       <c r="Y44" s="33">
-        <f>Y$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>221464.08693347467</v>
       </c>
       <c r="Z44" s="33">
-        <f>Z$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>442928.17386694934</v>
       </c>
       <c r="AA44" s="76">
-        <f>AA$14*$D$44</f>
+        <f t="shared" si="31"/>
         <v>692994.43413729127</v>
       </c>
       <c r="AB44" s="59"/>
@@ -37487,87 +37499,87 @@
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="43">
-        <f>G$14*$D$44*$E$45</f>
+        <f t="shared" ref="G45:AA45" si="32">G$14*$D$44*$E$45</f>
         <v>0.12503313013517092</v>
       </c>
       <c r="H45" s="44">
-        <f>H$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>0.25006626027034184</v>
       </c>
       <c r="I45" s="44">
-        <f>I$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>0.50013252054068369</v>
       </c>
       <c r="J45" s="44">
-        <f>J$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>1.0002650410813674</v>
       </c>
       <c r="K45" s="44">
-        <f>K$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>2.0005300821627348</v>
       </c>
       <c r="L45" s="44">
-        <f>L$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>4.0010601643254695</v>
       </c>
       <c r="M45" s="44">
-        <f>M$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>8.002120328650939</v>
       </c>
       <c r="N45" s="44">
-        <f>N$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>16.004240657301878</v>
       </c>
       <c r="O45" s="44">
-        <f>O$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>32.008481314603756</v>
       </c>
       <c r="P45" s="44">
-        <f>P$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>64.016962629207512</v>
       </c>
       <c r="Q45" s="44">
-        <f>Q$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>128.03392525841502</v>
       </c>
       <c r="R45" s="44">
-        <f>R$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>256.06785051683005</v>
       </c>
       <c r="S45" s="44">
-        <f>S$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>512.1357010336601</v>
       </c>
       <c r="T45" s="44">
-        <f>T$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>1024.2714020673202</v>
       </c>
       <c r="U45" s="44">
-        <f>U$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>2048.5428041346404</v>
       </c>
       <c r="V45" s="44">
-        <f>V$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>4097.0856082692808</v>
       </c>
       <c r="W45" s="44">
-        <f>W$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>8194.1712165385616</v>
       </c>
       <c r="X45" s="44">
-        <f>X$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>16388.342433077123</v>
       </c>
       <c r="Y45" s="44">
-        <f>Y$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>32776.684866154246</v>
       </c>
       <c r="Z45" s="44">
-        <f>Z$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>65553.369732308493</v>
       </c>
       <c r="AA45" s="88">
-        <f>AA$14*$D$44*$E$45</f>
+        <f t="shared" si="32"/>
         <v>102563.1762523191</v>
       </c>
       <c r="AB45" s="59"/>
@@ -37581,7 +37593,7 @@
         <v>7.065336711718416E-2</v>
       </c>
       <c r="C46" s="22">
-        <f t="shared" ref="C46:C60" si="20">$B$1*B46</f>
+        <f t="shared" ref="C46:C60" si="33">$B$1*B46</f>
         <v>1811128.4126818988</v>
       </c>
       <c r="D46" s="98">
@@ -37591,87 +37603,87 @@
       <c r="E46" s="31"/>
       <c r="F46" s="30"/>
       <c r="G46" s="34">
-        <f>G$14*$D$46</f>
+        <f t="shared" ref="G46:AA46" si="34">G$14*$D$46</f>
         <v>3.5200768619135965</v>
       </c>
       <c r="H46" s="35">
-        <f>H$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>7.040153723827193</v>
       </c>
       <c r="I46" s="35">
-        <f>I$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>14.080307447654386</v>
       </c>
       <c r="J46" s="35">
-        <f>J$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>28.160614895308772</v>
       </c>
       <c r="K46" s="35">
-        <f>K$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>56.321229790617544</v>
       </c>
       <c r="L46" s="35">
-        <f>L$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>112.64245958123509</v>
       </c>
       <c r="M46" s="35">
-        <f>M$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>225.28491916247017</v>
       </c>
       <c r="N46" s="35">
-        <f>N$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>450.56983832494035</v>
       </c>
       <c r="O46" s="35">
-        <f>O$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>901.1396766498807</v>
       </c>
       <c r="P46" s="35">
-        <f>P$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>1802.2793532997614</v>
       </c>
       <c r="Q46" s="35">
-        <f>Q$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>3604.5587065995228</v>
       </c>
       <c r="R46" s="35">
-        <f>R$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>7209.1174131990456</v>
       </c>
       <c r="S46" s="35">
-        <f>S$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>14418.234826398091</v>
       </c>
       <c r="T46" s="35">
-        <f>T$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>28836.469652796182</v>
       </c>
       <c r="U46" s="35">
-        <f>U$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>57672.939305592365</v>
       </c>
       <c r="V46" s="35">
-        <f>V$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>115345.87861118473</v>
       </c>
       <c r="W46" s="35">
-        <f>W$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>230691.75722236946</v>
       </c>
       <c r="X46" s="35">
-        <f>X$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>461383.51444473892</v>
       </c>
       <c r="Y46" s="35">
-        <f>Y$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>922767.02888947784</v>
       </c>
       <c r="Z46" s="35">
-        <f>Z$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>1845534.0577789557</v>
       </c>
       <c r="AA46" s="97">
-        <f>AA$14*$D$46</f>
+        <f t="shared" si="34"/>
         <v>2887476.8089053803</v>
       </c>
       <c r="AB46" s="59"/>
@@ -37686,87 +37698,87 @@
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="43">
-        <f>G$14*$D$46*$E$47</f>
+        <f t="shared" ref="G47:AA47" si="35">G$14*$D$46*$E$47</f>
         <v>0.28160614895308772</v>
       </c>
       <c r="H47" s="44">
-        <f>H$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>0.56321229790617544</v>
       </c>
       <c r="I47" s="44">
-        <f>I$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>1.1264245958123509</v>
       </c>
       <c r="J47" s="44">
-        <f>J$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>2.2528491916247018</v>
       </c>
       <c r="K47" s="44">
-        <f>K$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>4.5056983832494035</v>
       </c>
       <c r="L47" s="44">
-        <f>L$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>9.0113967664988071</v>
       </c>
       <c r="M47" s="44">
-        <f>M$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>18.022793532997614</v>
       </c>
       <c r="N47" s="44">
-        <f>N$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>36.045587065995228</v>
       </c>
       <c r="O47" s="44">
-        <f>O$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>72.091174131990456</v>
       </c>
       <c r="P47" s="44">
-        <f>P$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>144.18234826398091</v>
       </c>
       <c r="Q47" s="44">
-        <f>Q$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>288.36469652796183</v>
       </c>
       <c r="R47" s="44">
-        <f>R$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>576.72939305592365</v>
       </c>
       <c r="S47" s="44">
-        <f>S$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>1153.4587861118473</v>
       </c>
       <c r="T47" s="44">
-        <f>T$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>2306.9175722236946</v>
       </c>
       <c r="U47" s="44">
-        <f>U$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>4613.8351444473892</v>
       </c>
       <c r="V47" s="44">
-        <f>V$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>9227.6702888947784</v>
       </c>
       <c r="W47" s="44">
-        <f>W$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>18455.340577789557</v>
       </c>
       <c r="X47" s="44">
-        <f>X$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>36910.681155579114</v>
       </c>
       <c r="Y47" s="44">
-        <f>Y$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>73821.362311158227</v>
       </c>
       <c r="Z47" s="44">
-        <f>Z$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>147642.72462231645</v>
       </c>
       <c r="AA47" s="88">
-        <f>AA$14*$D$46*$E$47</f>
+        <f t="shared" si="35"/>
         <v>230998.14471243042</v>
       </c>
       <c r="AB47" s="59"/>
@@ -37780,7 +37792,7 @@
         <v>0.10301766910746854</v>
       </c>
       <c r="C48" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>2640754.9299008488</v>
       </c>
       <c r="D48" s="98">
@@ -37790,87 +37802,87 @@
       <c r="E48" s="31"/>
       <c r="F48" s="22"/>
       <c r="G48" s="34">
-        <f>G$14*$D$48</f>
+        <f t="shared" ref="G48:AA48" si="36">G$14*$D$48</f>
         <v>5.4002120328650944</v>
       </c>
       <c r="H48" s="35">
-        <f>H$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>10.800424065730189</v>
       </c>
       <c r="I48" s="35">
-        <f>I$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>21.600848131460378</v>
       </c>
       <c r="J48" s="35">
-        <f>J$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>43.201696262920755</v>
       </c>
       <c r="K48" s="35">
-        <f>K$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>86.403392525841511</v>
       </c>
       <c r="L48" s="35">
-        <f>L$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>172.80678505168302</v>
       </c>
       <c r="M48" s="35">
-        <f>M$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>345.61357010336604</v>
       </c>
       <c r="N48" s="35">
-        <f>N$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>691.22714020673209</v>
       </c>
       <c r="O48" s="35">
-        <f>O$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>1382.4542804134642</v>
       </c>
       <c r="P48" s="35">
-        <f>P$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>2764.9085608269284</v>
       </c>
       <c r="Q48" s="35">
-        <f>Q$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>5529.8171216538567</v>
       </c>
       <c r="R48" s="35">
-        <f>R$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>11059.634243307713</v>
       </c>
       <c r="S48" s="35">
-        <f>S$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>22119.268486615427</v>
       </c>
       <c r="T48" s="35">
-        <f>T$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>44238.536973230854</v>
       </c>
       <c r="U48" s="35">
-        <f>U$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>88477.073946461707</v>
       </c>
       <c r="V48" s="35">
-        <f>V$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>176954.14789292341</v>
       </c>
       <c r="W48" s="35">
-        <f>W$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>353908.29578584683</v>
       </c>
       <c r="X48" s="35">
-        <f>X$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>707816.59157169366</v>
       </c>
       <c r="Y48" s="35">
-        <f>Y$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>1415633.1831433873</v>
       </c>
       <c r="Z48" s="35">
-        <f>Z$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>2831266.3662867746</v>
       </c>
       <c r="AA48" s="97">
-        <f>AA$14*$D$48</f>
+        <f t="shared" si="36"/>
         <v>4429729.128014842</v>
       </c>
       <c r="AB48" s="59"/>
@@ -37885,87 +37897,87 @@
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="43">
-        <f>G$14*$D$48*$E$49</f>
+        <f t="shared" ref="G49:AA49" si="37">G$14*$D$48*$E$49</f>
         <v>0.19440763318314339</v>
       </c>
       <c r="H49" s="44">
-        <f>H$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>0.38881526636628677</v>
       </c>
       <c r="I49" s="44">
-        <f>I$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>0.77763053273257354</v>
       </c>
       <c r="J49" s="44">
-        <f>J$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>1.5552610654651471</v>
       </c>
       <c r="K49" s="44">
-        <f>K$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>3.1105221309302942</v>
       </c>
       <c r="L49" s="44">
-        <f>L$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>6.2210442618605883</v>
       </c>
       <c r="M49" s="44">
-        <f>M$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>12.442088523721177</v>
       </c>
       <c r="N49" s="44">
-        <f>N$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>24.884177047442353</v>
       </c>
       <c r="O49" s="44">
-        <f>O$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>49.768354094884707</v>
       </c>
       <c r="P49" s="44">
-        <f>P$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>99.536708189769413</v>
       </c>
       <c r="Q49" s="44">
-        <f>Q$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>199.07341637953883</v>
       </c>
       <c r="R49" s="44">
-        <f>R$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>398.14683275907765</v>
       </c>
       <c r="S49" s="44">
-        <f>S$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>796.29366551815531</v>
       </c>
       <c r="T49" s="44">
-        <f>T$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>1592.5873310363106</v>
       </c>
       <c r="U49" s="44">
-        <f>U$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>3185.1746620726212</v>
       </c>
       <c r="V49" s="44">
-        <f>V$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>6370.3493241452425</v>
       </c>
       <c r="W49" s="44">
-        <f>W$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>12740.698648290485</v>
       </c>
       <c r="X49" s="44">
-        <f>X$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>25481.39729658097</v>
       </c>
       <c r="Y49" s="44">
-        <f>Y$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>50962.79459316194</v>
       </c>
       <c r="Z49" s="44">
-        <f>Z$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>101925.58918632388</v>
       </c>
       <c r="AA49" s="88">
-        <f>AA$14*$D$48*$E$49</f>
+        <f t="shared" si="37"/>
         <v>159470.24860853431</v>
       </c>
       <c r="AB49" s="59"/>
@@ -37979,7 +37991,7 @@
         <v>0.12142789925761971</v>
       </c>
       <c r="C50" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3112682.7695698235</v>
       </c>
       <c r="D50" s="98">
@@ -37989,87 +38001,87 @@
       <c r="E50" s="31"/>
       <c r="F50" s="22"/>
       <c r="G50" s="34">
-        <f>G$14*$D$50</f>
+        <f t="shared" ref="G50:AA50" si="38">G$14*$D$50</f>
         <v>4.9943678770209381</v>
       </c>
       <c r="H50" s="35">
-        <f>H$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>9.9887357540418762</v>
       </c>
       <c r="I50" s="35">
-        <f>I$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>19.977471508083752</v>
       </c>
       <c r="J50" s="35">
-        <f>J$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>39.954943016167505</v>
       </c>
       <c r="K50" s="35">
-        <f>K$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>79.90988603233501</v>
       </c>
       <c r="L50" s="35">
-        <f>L$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>159.81977206467002</v>
       </c>
       <c r="M50" s="35">
-        <f>M$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>319.63954412934004</v>
       </c>
       <c r="N50" s="35">
-        <f>N$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>639.27908825868008</v>
       </c>
       <c r="O50" s="35">
-        <f>O$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>1278.5581765173602</v>
       </c>
       <c r="P50" s="35">
-        <f>P$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>2557.1163530347203</v>
       </c>
       <c r="Q50" s="35">
-        <f>Q$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>5114.2327060694406</v>
       </c>
       <c r="R50" s="35">
-        <f>R$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>10228.465412138881</v>
       </c>
       <c r="S50" s="35">
-        <f>S$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>20456.930824277762</v>
       </c>
       <c r="T50" s="35">
-        <f>T$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>40913.861648555525</v>
       </c>
       <c r="U50" s="35">
-        <f>U$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>81827.72329711105</v>
       </c>
       <c r="V50" s="35">
-        <f>V$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>163655.4465942221</v>
       </c>
       <c r="W50" s="35">
-        <f>W$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>327310.8931884442</v>
       </c>
       <c r="X50" s="35">
-        <f>X$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>654621.7863768884</v>
       </c>
       <c r="Y50" s="35">
-        <f>Y$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>1309243.5727537768</v>
       </c>
       <c r="Z50" s="35">
-        <f>Z$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>2618487.1455075536</v>
       </c>
       <c r="AA50" s="97">
-        <f>AA$14*$D$50</f>
+        <f t="shared" si="38"/>
         <v>4096820.0371057512</v>
       </c>
       <c r="AB50" s="59"/>
@@ -38084,87 +38096,87 @@
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="43">
-        <f>G$14*$D$50*$E$51</f>
+        <f t="shared" ref="G51:AA51" si="39">G$14*$D$50*$E$51</f>
         <v>6.4926782401272198E-2</v>
       </c>
       <c r="H51" s="44">
-        <f>H$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>0.1298535648025444</v>
       </c>
       <c r="I51" s="44">
-        <f>I$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>0.25970712960508879</v>
       </c>
       <c r="J51" s="44">
-        <f>J$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>0.51941425921017759</v>
       </c>
       <c r="K51" s="44">
-        <f>K$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>1.0388285184203552</v>
       </c>
       <c r="L51" s="44">
-        <f>L$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>2.0776570368407103</v>
       </c>
       <c r="M51" s="44">
-        <f>M$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>4.1553140736814207</v>
       </c>
       <c r="N51" s="44">
-        <f>N$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>8.3106281473628414</v>
       </c>
       <c r="O51" s="44">
-        <f>O$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>16.621256294725683</v>
       </c>
       <c r="P51" s="44">
-        <f>P$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>33.242512589451366</v>
       </c>
       <c r="Q51" s="44">
-        <f>Q$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>66.485025178902731</v>
       </c>
       <c r="R51" s="44">
-        <f>R$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>132.97005035780546</v>
       </c>
       <c r="S51" s="44">
-        <f>S$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>265.94010071561092</v>
       </c>
       <c r="T51" s="44">
-        <f>T$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>531.88020143122185</v>
       </c>
       <c r="U51" s="44">
-        <f>U$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>1063.7604028624437</v>
       </c>
       <c r="V51" s="44">
-        <f>V$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>2127.5208057248874</v>
       </c>
       <c r="W51" s="44">
-        <f>W$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>4255.0416114497748</v>
       </c>
       <c r="X51" s="44">
-        <f>X$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>8510.0832228995496</v>
       </c>
       <c r="Y51" s="44">
-        <f>Y$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>17020.166445799099</v>
       </c>
       <c r="Z51" s="44">
-        <f>Z$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>34040.332891598198</v>
       </c>
       <c r="AA51" s="88">
-        <f>AA$14*$D$50*$E$51</f>
+        <f t="shared" si="39"/>
         <v>53258.660482374762</v>
       </c>
       <c r="AB51" s="59"/>
@@ -38178,7 +38190,7 @@
         <v>0.12908272398046944</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3308906.5465153535</v>
       </c>
       <c r="D52" s="98">
@@ -38188,87 +38200,87 @@
       <c r="E52" s="31"/>
       <c r="F52" s="22"/>
       <c r="G52" s="34">
-        <f>G$14*$D$52</f>
+        <f t="shared" ref="G52:AA52" si="40">G$14*$D$52</f>
         <v>4.1412668963689372</v>
       </c>
       <c r="H52" s="35">
-        <f>H$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>8.2825337927378744</v>
       </c>
       <c r="I52" s="35">
-        <f>I$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>16.565067585475749</v>
       </c>
       <c r="J52" s="35">
-        <f>J$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>33.130135170951498</v>
       </c>
       <c r="K52" s="35">
-        <f>K$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>66.260270341902995</v>
       </c>
       <c r="L52" s="35">
-        <f>L$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>132.52054068380599</v>
       </c>
       <c r="M52" s="35">
-        <f>M$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>265.04108136761198</v>
       </c>
       <c r="N52" s="35">
-        <f>N$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>530.08216273522396</v>
       </c>
       <c r="O52" s="35">
-        <f>O$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>1060.1643254704479</v>
       </c>
       <c r="P52" s="35">
-        <f>P$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>2120.3286509408958</v>
       </c>
       <c r="Q52" s="35">
-        <f>Q$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>4240.6573018817917</v>
       </c>
       <c r="R52" s="35">
-        <f>R$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>8481.3146037635834</v>
       </c>
       <c r="S52" s="35">
-        <f>S$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>16962.629207527167</v>
       </c>
       <c r="T52" s="35">
-        <f>T$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>33925.258415054333</v>
       </c>
       <c r="U52" s="35">
-        <f>U$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>67850.516830108667</v>
       </c>
       <c r="V52" s="35">
-        <f>V$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>135701.03366021733</v>
       </c>
       <c r="W52" s="35">
-        <f>W$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>271402.06732043467</v>
       </c>
       <c r="X52" s="35">
-        <f>X$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>542804.13464086934</v>
       </c>
       <c r="Y52" s="35">
-        <f>Y$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>1085608.2692817387</v>
       </c>
       <c r="Z52" s="35">
-        <f>Z$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>2171216.5385634773</v>
       </c>
       <c r="AA52" s="97">
-        <f>AA$14*$D$52</f>
+        <f t="shared" si="40"/>
         <v>3397031.5398886823</v>
       </c>
       <c r="AB52" s="59"/>
@@ -38283,87 +38295,87 @@
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="43">
-        <f>G$14*$D$52*$E$53</f>
+        <f t="shared" ref="G53:AA53" si="41">G$14*$D$52*$E$53</f>
         <v>1.6565067585475751E-2</v>
       </c>
       <c r="H53" s="44">
-        <f>H$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>3.3130135170951501E-2</v>
       </c>
       <c r="I53" s="44">
-        <f>I$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>6.6260270341903002E-2</v>
       </c>
       <c r="J53" s="44">
-        <f>J$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>0.132520540683806</v>
       </c>
       <c r="K53" s="44">
-        <f>K$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>0.26504108136761201</v>
       </c>
       <c r="L53" s="44">
-        <f>L$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>0.53008216273522402</v>
       </c>
       <c r="M53" s="44">
-        <f>M$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>1.060164325470448</v>
       </c>
       <c r="N53" s="44">
-        <f>N$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>2.1203286509408961</v>
       </c>
       <c r="O53" s="44">
-        <f>O$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>4.2406573018817921</v>
       </c>
       <c r="P53" s="44">
-        <f>P$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>8.4813146037635843</v>
       </c>
       <c r="Q53" s="44">
-        <f>Q$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>16.962629207527169</v>
       </c>
       <c r="R53" s="44">
-        <f>R$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>33.925258415054337</v>
       </c>
       <c r="S53" s="44">
-        <f>S$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>67.850516830108674</v>
       </c>
       <c r="T53" s="44">
-        <f>T$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>135.70103366021735</v>
       </c>
       <c r="U53" s="44">
-        <f>U$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>271.4020673204347</v>
       </c>
       <c r="V53" s="44">
-        <f>V$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>542.80413464086939</v>
       </c>
       <c r="W53" s="44">
-        <f>W$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>1085.6082692817388</v>
       </c>
       <c r="X53" s="44">
-        <f>X$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>2171.2165385634776</v>
       </c>
       <c r="Y53" s="44">
-        <f>Y$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>4342.4330771269551</v>
       </c>
       <c r="Z53" s="44">
-        <f>Z$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>8684.8661542539103</v>
       </c>
       <c r="AA53" s="88">
-        <f>AA$14*$D$52*$E$53</f>
+        <f t="shared" si="41"/>
         <v>13588.126159554729</v>
       </c>
       <c r="AB53" s="59"/>
@@ -38377,7 +38389,7 @@
         <v>0.14481341657950456</v>
       </c>
       <c r="C54" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3712147.1205990198</v>
       </c>
       <c r="D54" s="98">
@@ -38387,87 +38399,87 @@
       <c r="E54" s="31"/>
       <c r="F54" s="22"/>
       <c r="G54" s="34">
-        <f>G$14*$D$54</f>
+        <f t="shared" ref="G54:AA54" si="42">G$14*$D$54</f>
         <v>4.9446726742645115</v>
       </c>
       <c r="H54" s="35">
-        <f>H$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>9.889345348529023</v>
       </c>
       <c r="I54" s="35">
-        <f>I$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>19.778690697058046</v>
       </c>
       <c r="J54" s="35">
-        <f>J$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>39.557381394116092</v>
       </c>
       <c r="K54" s="35">
-        <f>K$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>79.114762788232184</v>
       </c>
       <c r="L54" s="35">
-        <f>L$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>158.22952557646437</v>
       </c>
       <c r="M54" s="35">
-        <f>M$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>316.45905115292874</v>
       </c>
       <c r="N54" s="35">
-        <f>N$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>632.91810230585747</v>
       </c>
       <c r="O54" s="35">
-        <f>O$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>1265.8362046117149</v>
       </c>
       <c r="P54" s="35">
-        <f>P$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>2531.6724092234299</v>
       </c>
       <c r="Q54" s="35">
-        <f>Q$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>5063.3448184468598</v>
       </c>
       <c r="R54" s="35">
-        <f>R$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>10126.68963689372</v>
       </c>
       <c r="S54" s="35">
-        <f>S$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>20253.379273787439</v>
       </c>
       <c r="T54" s="35">
-        <f>T$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>40506.758547574878</v>
       </c>
       <c r="U54" s="35">
-        <f>U$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>81013.517095149757</v>
       </c>
       <c r="V54" s="35">
-        <f>V$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>162027.03419029951</v>
       </c>
       <c r="W54" s="35">
-        <f>W$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>324054.06838059903</v>
       </c>
       <c r="X54" s="35">
-        <f>X$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>648108.13676119805</v>
       </c>
       <c r="Y54" s="35">
-        <f>Y$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>1296216.2735223961</v>
       </c>
       <c r="Z54" s="35">
-        <f>Z$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>2592432.5470447922</v>
       </c>
       <c r="AA54" s="97">
-        <f>AA$14*$D$54</f>
+        <f t="shared" si="42"/>
         <v>4056055.6586270873</v>
       </c>
       <c r="AB54" s="59"/>
@@ -38482,87 +38494,87 @@
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="43">
-        <f>G$14*$D$54*$E$55</f>
+        <f t="shared" ref="G55:AA55" si="43">G$14*$D$54*$E$55</f>
         <v>9.8893453485290224E-3</v>
       </c>
       <c r="H55" s="44">
-        <f>H$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>1.9778690697058045E-2</v>
       </c>
       <c r="I55" s="44">
-        <f>I$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>3.955738139411609E-2</v>
       </c>
       <c r="J55" s="44">
-        <f>J$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>7.9114762788232179E-2</v>
       </c>
       <c r="K55" s="44">
-        <f>K$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>0.15822952557646436</v>
       </c>
       <c r="L55" s="44">
-        <f>L$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>0.31645905115292872</v>
       </c>
       <c r="M55" s="44">
-        <f>M$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>0.63291810230585743</v>
       </c>
       <c r="N55" s="44">
-        <f>N$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>1.2658362046117149</v>
       </c>
       <c r="O55" s="44">
-        <f>O$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>2.5316724092234297</v>
       </c>
       <c r="P55" s="44">
-        <f>P$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>5.0633448184468595</v>
       </c>
       <c r="Q55" s="44">
-        <f>Q$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>10.126689636893719</v>
       </c>
       <c r="R55" s="44">
-        <f>R$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>20.253379273787438</v>
       </c>
       <c r="S55" s="44">
-        <f>S$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>40.506758547574876</v>
       </c>
       <c r="T55" s="44">
-        <f>T$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>81.013517095149751</v>
       </c>
       <c r="U55" s="44">
-        <f>U$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>162.0270341902995</v>
       </c>
       <c r="V55" s="44">
-        <f>V$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>324.05406838059901</v>
       </c>
       <c r="W55" s="44">
-        <f>W$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>648.10813676119801</v>
       </c>
       <c r="X55" s="44">
-        <f>X$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>1296.216273522396</v>
       </c>
       <c r="Y55" s="44">
-        <f>Y$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>2592.432547044792</v>
       </c>
       <c r="Z55" s="44">
-        <f>Z$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>5184.8650940895841</v>
       </c>
       <c r="AA55" s="88">
-        <f>AA$14*$D$54*$E$55</f>
+        <f t="shared" si="43"/>
         <v>8112.1113172541745</v>
       </c>
       <c r="AB55" s="59"/>
@@ -38576,7 +38588,7 @@
         <v>0.14458334093878666</v>
       </c>
       <c r="C56" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3706249.3616248574</v>
       </c>
       <c r="D56" s="98">
@@ -38586,87 +38598,87 @@
       <c r="E56" s="31"/>
       <c r="F56" s="22"/>
       <c r="G56" s="34">
-        <f>G$14*$D$56</f>
+        <f t="shared" ref="G56:AA56" si="44">G$14*$D$56</f>
         <v>6.3775510204081636</v>
       </c>
       <c r="H56" s="35">
-        <f>H$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>12.755102040816327</v>
       </c>
       <c r="I56" s="35">
-        <f>I$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>25.510204081632654</v>
       </c>
       <c r="J56" s="35">
-        <f>J$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>51.020408163265309</v>
       </c>
       <c r="K56" s="35">
-        <f>K$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>102.04081632653062</v>
       </c>
       <c r="L56" s="35">
-        <f>L$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>204.08163265306123</v>
       </c>
       <c r="M56" s="35">
-        <f>M$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>408.16326530612247</v>
       </c>
       <c r="N56" s="35">
-        <f>N$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>816.32653061224494</v>
       </c>
       <c r="O56" s="35">
-        <f>O$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>1632.6530612244899</v>
       </c>
       <c r="P56" s="35">
-        <f>P$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>3265.3061224489797</v>
       </c>
       <c r="Q56" s="35">
-        <f>Q$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>6530.6122448979595</v>
       </c>
       <c r="R56" s="35">
-        <f>R$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>13061.224489795919</v>
       </c>
       <c r="S56" s="35">
-        <f>S$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>26122.448979591838</v>
       </c>
       <c r="T56" s="35">
-        <f>T$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>52244.897959183676</v>
       </c>
       <c r="U56" s="35">
-        <f>U$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>104489.79591836735</v>
       </c>
       <c r="V56" s="35">
-        <f>V$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>208979.5918367347</v>
       </c>
       <c r="W56" s="35">
-        <f>W$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>417959.18367346941</v>
       </c>
       <c r="X56" s="35">
-        <f>X$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>835918.36734693882</v>
       </c>
       <c r="Y56" s="35">
-        <f>Y$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>1671836.7346938776</v>
       </c>
       <c r="Z56" s="35">
-        <f>Z$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>3343673.4693877553</v>
       </c>
       <c r="AA56" s="97">
-        <f>AA$14*$D$56</f>
+        <f t="shared" si="44"/>
         <v>5231428.5714285718</v>
       </c>
       <c r="AB56" s="59"/>
@@ -38681,87 +38693,87 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="43">
-        <f>G$14*$D$56*$E$57</f>
+        <f t="shared" ref="G57:AA57" si="45">G$14*$D$56*$E$57</f>
         <v>1.2755102040816327E-2</v>
       </c>
       <c r="H57" s="44">
-        <f>H$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>2.5510204081632654E-2</v>
       </c>
       <c r="I57" s="44">
-        <f>I$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>5.1020408163265307E-2</v>
       </c>
       <c r="J57" s="44">
-        <f>J$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="K57" s="44">
-        <f>K$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>0.20408163265306123</v>
       </c>
       <c r="L57" s="44">
-        <f>L$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="M57" s="44">
-        <f>M$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>0.81632653061224492</v>
       </c>
       <c r="N57" s="44">
-        <f>N$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>1.6326530612244898</v>
       </c>
       <c r="O57" s="44">
-        <f>O$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>3.2653061224489797</v>
       </c>
       <c r="P57" s="44">
-        <f>P$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>6.5306122448979593</v>
       </c>
       <c r="Q57" s="44">
-        <f>Q$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>13.061224489795919</v>
       </c>
       <c r="R57" s="44">
-        <f>R$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>26.122448979591837</v>
       </c>
       <c r="S57" s="44">
-        <f>S$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>52.244897959183675</v>
       </c>
       <c r="T57" s="44">
-        <f>T$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>104.48979591836735</v>
       </c>
       <c r="U57" s="44">
-        <f>U$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>208.9795918367347</v>
       </c>
       <c r="V57" s="44">
-        <f>V$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>417.9591836734694</v>
       </c>
       <c r="W57" s="44">
-        <f>W$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>835.91836734693879</v>
       </c>
       <c r="X57" s="44">
-        <f>X$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>1671.8367346938776</v>
       </c>
       <c r="Y57" s="44">
-        <f>Y$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>3343.6734693877552</v>
       </c>
       <c r="Z57" s="44">
-        <f>Z$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>6687.3469387755104</v>
       </c>
       <c r="AA57" s="88">
-        <f>AA$14*$D$56*$E$57</f>
+        <f t="shared" si="45"/>
         <v>10462.857142857143</v>
       </c>
       <c r="AB57" s="59"/>
@@ -38775,7 +38787,7 @@
         <v>0.12056476079328157</v>
       </c>
       <c r="C58" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3090557.0781749799</v>
       </c>
       <c r="D58" s="37">
@@ -38785,87 +38797,87 @@
       <c r="E58" s="31"/>
       <c r="F58" s="22"/>
       <c r="G58" s="34">
-        <f>G$14*$D$58</f>
+        <f t="shared" ref="G58:AA58" si="46">G$14*$D$58</f>
         <v>0.80340577789557377</v>
       </c>
       <c r="H58" s="35">
-        <f>H$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>1.6068115557911475</v>
       </c>
       <c r="I58" s="35">
-        <f>I$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>3.2136231115822951</v>
       </c>
       <c r="J58" s="35">
-        <f>J$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>6.4272462231645902</v>
       </c>
       <c r="K58" s="35">
-        <f>K$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>12.85449244632918</v>
       </c>
       <c r="L58" s="35">
-        <f>L$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>25.708984892658361</v>
       </c>
       <c r="M58" s="35">
-        <f>M$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>51.417969785316721</v>
       </c>
       <c r="N58" s="35">
-        <f>N$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>102.83593957063344</v>
       </c>
       <c r="O58" s="35">
-        <f>O$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>205.67187914126688</v>
       </c>
       <c r="P58" s="35">
-        <f>P$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>411.34375828253377</v>
       </c>
       <c r="Q58" s="35">
-        <f>Q$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>822.68751656506754</v>
       </c>
       <c r="R58" s="35">
-        <f>R$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>1645.3750331301351</v>
       </c>
       <c r="S58" s="35">
-        <f>S$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>3290.7500662602702</v>
       </c>
       <c r="T58" s="35">
-        <f>T$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>6581.5001325205403</v>
       </c>
       <c r="U58" s="35">
-        <f>U$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>13163.000265041081</v>
       </c>
       <c r="V58" s="35">
-        <f>V$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>26326.000530082161</v>
       </c>
       <c r="W58" s="35">
-        <f>W$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>52652.001060164323</v>
       </c>
       <c r="X58" s="35">
-        <f>X$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>105304.00212032865</v>
       </c>
       <c r="Y58" s="35">
-        <f>Y$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>210608.00424065729</v>
       </c>
       <c r="Z58" s="35">
-        <f>Z$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>421216.00848131458</v>
       </c>
       <c r="AA58" s="89">
-        <f>AA$14*$D$58</f>
+        <f t="shared" si="46"/>
         <v>659024.11873840448</v>
       </c>
       <c r="AB58" s="59"/>
@@ -38880,87 +38892,87 @@
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="43">
-        <f>G$14*$D$58*$E$59</f>
+        <f t="shared" ref="G59:AA59" si="47">G$14*$D$58*$E$59</f>
         <v>1.6068115557911476E-3</v>
       </c>
       <c r="H59" s="44">
-        <f>H$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>3.2136231115822951E-3</v>
       </c>
       <c r="I59" s="44">
-        <f>I$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>6.4272462231645903E-3</v>
       </c>
       <c r="J59" s="44">
-        <f>J$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>1.2854492446329181E-2</v>
       </c>
       <c r="K59" s="44">
-        <f>K$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>2.5708984892658361E-2</v>
       </c>
       <c r="L59" s="44">
-        <f>L$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>5.1417969785316722E-2</v>
       </c>
       <c r="M59" s="44">
-        <f>M$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>0.10283593957063344</v>
       </c>
       <c r="N59" s="44">
-        <f>N$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>0.20567187914126689</v>
       </c>
       <c r="O59" s="44">
-        <f>O$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>0.41134375828253378</v>
       </c>
       <c r="P59" s="44">
-        <f>P$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>0.82268751656506756</v>
       </c>
       <c r="Q59" s="44">
-        <f>Q$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>1.6453750331301351</v>
       </c>
       <c r="R59" s="44">
-        <f>R$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>3.2907500662602702</v>
       </c>
       <c r="S59" s="44">
-        <f>S$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>6.5815001325205404</v>
       </c>
       <c r="T59" s="44">
-        <f>T$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>13.163000265041081</v>
       </c>
       <c r="U59" s="44">
-        <f>U$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>26.326000530082162</v>
       </c>
       <c r="V59" s="44">
-        <f>V$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>52.652001060164324</v>
       </c>
       <c r="W59" s="44">
-        <f>W$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>105.30400212032865</v>
       </c>
       <c r="X59" s="44">
-        <f>X$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>210.60800424065729</v>
       </c>
       <c r="Y59" s="44">
-        <f>Y$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>421.21600848131459</v>
       </c>
       <c r="Z59" s="44">
-        <f>Z$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>842.43201696262918</v>
       </c>
       <c r="AA59" s="88">
-        <f>AA$14*$D$58*$E$59</f>
+        <f t="shared" si="47"/>
         <v>1318.0482374768089</v>
       </c>
       <c r="AB59" s="59"/>
@@ -38974,7 +38986,7 @@
         <v>0.1255958322404806</v>
       </c>
       <c r="C60" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>3219523.5636524796</v>
       </c>
       <c r="D60" s="37">
@@ -38984,87 +38996,87 @@
       <c r="E60" s="31"/>
       <c r="F60" s="22"/>
       <c r="G60" s="34">
-        <f>G$14*$D$60</f>
+        <f t="shared" ref="G60:AA60" si="48">G$14*$D$60</f>
         <v>0.22362841240392262</v>
       </c>
       <c r="H60" s="35">
-        <f>H$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>0.44725682480784523</v>
       </c>
       <c r="I60" s="35">
-        <f>I$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>0.89451364961569046</v>
       </c>
       <c r="J60" s="35">
-        <f>J$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>1.7890272992313809</v>
       </c>
       <c r="K60" s="35">
-        <f>K$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>3.5780545984627619</v>
       </c>
       <c r="L60" s="35">
-        <f>L$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>7.1561091969255237</v>
       </c>
       <c r="M60" s="35">
-        <f>M$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>14.312218393851047</v>
       </c>
       <c r="N60" s="35">
-        <f>N$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>28.624436787702095</v>
       </c>
       <c r="O60" s="35">
-        <f>O$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>57.24887357540419</v>
       </c>
       <c r="P60" s="35">
-        <f>P$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>114.49774715080838</v>
       </c>
       <c r="Q60" s="35">
-        <f>Q$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>228.99549430161676</v>
       </c>
       <c r="R60" s="35">
-        <f>R$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>457.99098860323352</v>
       </c>
       <c r="S60" s="35">
-        <f>S$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>915.98197720646704</v>
       </c>
       <c r="T60" s="35">
-        <f>T$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>1831.9639544129341</v>
       </c>
       <c r="U60" s="35">
-        <f>U$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>3663.9279088258681</v>
       </c>
       <c r="V60" s="35">
-        <f>V$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>7327.8558176517363</v>
       </c>
       <c r="W60" s="35">
-        <f>W$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>14655.711635303473</v>
       </c>
       <c r="X60" s="35">
-        <f>X$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>29311.423270606945</v>
       </c>
       <c r="Y60" s="35">
-        <f>Y$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>58622.84654121389</v>
       </c>
       <c r="Z60" s="35">
-        <f>Z$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>117245.69308242778</v>
       </c>
       <c r="AA60" s="89">
-        <f>AA$14*$D$60</f>
+        <f t="shared" si="48"/>
         <v>183439.70315398887</v>
       </c>
       <c r="AB60" s="59"/>
@@ -39079,87 +39091,87 @@
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="45">
-        <f>G$14*$D$60*$E$61</f>
+        <f t="shared" ref="G61:AA61" si="49">G$14*$D$60*$E$61</f>
         <v>0</v>
       </c>
       <c r="H61" s="46">
-        <f>H$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I61" s="46">
-        <f>I$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J61" s="46">
-        <f>J$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K61" s="46">
-        <f>K$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L61" s="46">
-        <f>L$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M61" s="46">
-        <f>M$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N61" s="46">
-        <f>N$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O61" s="46">
-        <f>O$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P61" s="46">
-        <f>P$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q61" s="46">
-        <f>Q$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R61" s="46">
-        <f>R$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S61" s="46">
-        <f>S$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T61" s="46">
-        <f>T$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U61" s="46">
-        <f>U$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V61" s="46">
-        <f>V$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W61" s="46">
-        <f>W$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X61" s="46">
-        <f>X$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y61" s="46">
-        <f>Y$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z61" s="46">
-        <f>Z$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA61" s="90">
-        <f>AA$14*$D$60*$E$61</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB61" s="59"/>
@@ -39174,23 +39186,23 @@
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
       <c r="G62" s="32">
-        <f t="shared" ref="G62:W62" si="21">SUM(G44,G46,G48,G50,G52,G54,G56,G58,G60)</f>
+        <f t="shared" ref="G62:W62" si="50">SUM(G44,G46,G48,G50,G52,G54,G56,G58,G60)</f>
         <v>31.25</v>
       </c>
       <c r="H62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>62.5</v>
       </c>
       <c r="I62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>125</v>
       </c>
       <c r="J62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>250</v>
       </c>
       <c r="K62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>500</v>
       </c>
       <c r="L62" s="33">
@@ -39198,63 +39210,63 @@
         <v>1000</v>
       </c>
       <c r="M62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>2000</v>
       </c>
       <c r="N62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>4000</v>
       </c>
       <c r="O62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>8000</v>
       </c>
       <c r="P62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>16000</v>
       </c>
       <c r="Q62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
       <c r="R62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>64000</v>
       </c>
       <c r="S62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>128000</v>
       </c>
       <c r="T62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>256000</v>
       </c>
       <c r="U62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>512000</v>
       </c>
       <c r="V62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>1024000</v>
       </c>
       <c r="W62" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="50"/>
         <v>2048000</v>
       </c>
       <c r="X62" s="33">
-        <f t="shared" ref="X62:AA63" si="22">SUM(X44,X46,X48,X50,X52,X54,X56,X58,X60)</f>
+        <f t="shared" ref="X62:AA63" si="51">SUM(X44,X46,X48,X50,X52,X54,X56,X58,X60)</f>
         <v>4096000</v>
       </c>
       <c r="Y62" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>8192000</v>
       </c>
       <c r="Z62" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>16384000</v>
       </c>
       <c r="AA62" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>25634000</v>
       </c>
       <c r="AB62" s="59"/>
@@ -39277,79 +39289,79 @@
         <v>1.4135800424065728</v>
       </c>
       <c r="I63" s="46">
-        <f t="shared" ref="I63:W63" si="23">SUM(I45,I47,I49,I51,I53,I55,I57,I59,I61)</f>
+        <f t="shared" ref="I63:W63" si="52">SUM(I45,I47,I49,I51,I53,I55,I57,I59,I61)</f>
         <v>2.8271600848131455</v>
       </c>
       <c r="J63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>5.654320169626291</v>
       </c>
       <c r="K63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>11.308640339252582</v>
       </c>
       <c r="L63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>22.617280678505164</v>
       </c>
       <c r="M63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>45.234561357010328</v>
       </c>
       <c r="N63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>90.469122714020656</v>
       </c>
       <c r="O63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>180.93824542804131</v>
       </c>
       <c r="P63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>361.87649085608263</v>
       </c>
       <c r="Q63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>723.75298171216525</v>
       </c>
       <c r="R63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>1447.5059634243305</v>
       </c>
       <c r="S63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>2895.011926848661</v>
       </c>
       <c r="T63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>5790.023853697322</v>
       </c>
       <c r="U63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>11580.047707394644</v>
       </c>
       <c r="V63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>23160.095414789288</v>
       </c>
       <c r="W63" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>46320.190829578576</v>
       </c>
       <c r="X63" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>92640.381659157152</v>
       </c>
       <c r="Y63" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>185280.7633183143</v>
       </c>
       <c r="Z63" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>370561.52663662861</v>
       </c>
       <c r="AA63" s="90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>579771.37291280145</v>
       </c>
       <c r="AB63" s="59"/>
@@ -39459,87 +39471,87 @@
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
       <c r="G67" s="32">
-        <f>G$14*$B$67</f>
+        <f t="shared" ref="G67:AA67" si="53">G$14*$B$67</f>
         <v>1.5625</v>
       </c>
       <c r="H67" s="33">
-        <f>H$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>3.125</v>
       </c>
       <c r="I67" s="33">
-        <f>I$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>6.25</v>
       </c>
       <c r="J67" s="33">
-        <f>J$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>12.5</v>
       </c>
       <c r="K67" s="33">
-        <f>K$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>25</v>
       </c>
       <c r="L67" s="33">
-        <f>L$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>50</v>
       </c>
       <c r="M67" s="33">
-        <f>M$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="N67" s="33">
-        <f>N$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>200</v>
       </c>
       <c r="O67" s="33">
-        <f>O$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>400</v>
       </c>
       <c r="P67" s="33">
-        <f>P$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>800</v>
       </c>
       <c r="Q67" s="33">
-        <f>Q$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>1600</v>
       </c>
       <c r="R67" s="33">
-        <f>R$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>3200</v>
       </c>
       <c r="S67" s="33">
-        <f>S$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>6400</v>
       </c>
       <c r="T67" s="33">
-        <f>T$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>12800</v>
       </c>
       <c r="U67" s="33">
-        <f>U$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>25600</v>
       </c>
       <c r="V67" s="33">
-        <f>V$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>51200</v>
       </c>
       <c r="W67" s="33">
-        <f>W$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>102400</v>
       </c>
       <c r="X67" s="33">
-        <f>X$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>204800</v>
       </c>
       <c r="Y67" s="33">
-        <f>Y$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>409600</v>
       </c>
       <c r="Z67" s="33">
-        <f>Z$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>819200</v>
       </c>
       <c r="AA67" s="76">
-        <f>AA$14*$B$67</f>
+        <f t="shared" si="53"/>
         <v>1281700</v>
       </c>
       <c r="AB67" s="59"/>
@@ -39558,67 +39570,67 @@
         <v>0.1640625</v>
       </c>
       <c r="H68" s="44">
-        <f t="shared" ref="H68:W68" si="24">H67*$E$68</f>
+        <f t="shared" ref="H68:W68" si="54">H67*$E$68</f>
         <v>0.328125</v>
       </c>
       <c r="I68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>0.65625</v>
       </c>
       <c r="J68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>1.3125</v>
       </c>
       <c r="K68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>2.625</v>
       </c>
       <c r="L68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>5.25</v>
       </c>
       <c r="M68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>10.5</v>
       </c>
       <c r="N68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>21</v>
       </c>
       <c r="O68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>42</v>
       </c>
       <c r="P68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>84</v>
       </c>
       <c r="Q68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>168</v>
       </c>
       <c r="R68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>336</v>
       </c>
       <c r="S68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>672</v>
       </c>
       <c r="T68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>1344</v>
       </c>
       <c r="U68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>2688</v>
       </c>
       <c r="V68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>5376</v>
       </c>
       <c r="W68" s="44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>10752</v>
       </c>
       <c r="X68" s="44">
@@ -39654,87 +39666,87 @@
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="34">
-        <f>G$14*$B$69</f>
+        <f t="shared" ref="G69:AA69" si="55">G$14*$B$69</f>
         <v>1.4375</v>
       </c>
       <c r="H69" s="35">
-        <f>H$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>2.875</v>
       </c>
       <c r="I69" s="35">
-        <f>I$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>5.75</v>
       </c>
       <c r="J69" s="35">
-        <f>J$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>11.5</v>
       </c>
       <c r="K69" s="35">
-        <f>K$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>23</v>
       </c>
       <c r="L69" s="35">
-        <f>L$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>46</v>
       </c>
       <c r="M69" s="35">
-        <f>M$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>92</v>
       </c>
       <c r="N69" s="35">
-        <f>N$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>184</v>
       </c>
       <c r="O69" s="35">
-        <f>O$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>368</v>
       </c>
       <c r="P69" s="35">
-        <f>P$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>736</v>
       </c>
       <c r="Q69" s="35">
-        <f>Q$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>1472</v>
       </c>
       <c r="R69" s="35">
-        <f>R$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>2944</v>
       </c>
       <c r="S69" s="35">
-        <f>S$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>5888</v>
       </c>
       <c r="T69" s="35">
-        <f>T$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>11776</v>
       </c>
       <c r="U69" s="35">
-        <f>U$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>23552</v>
       </c>
       <c r="V69" s="35">
-        <f>V$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>47104</v>
       </c>
       <c r="W69" s="35">
-        <f>W$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>94208</v>
       </c>
       <c r="X69" s="35">
-        <f>X$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>188416</v>
       </c>
       <c r="Y69" s="35">
-        <f>Y$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>376832</v>
       </c>
       <c r="Z69" s="35">
-        <f>Z$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>753664</v>
       </c>
       <c r="AA69" s="89">
-        <f>AA$14*$B$69</f>
+        <f t="shared" si="55"/>
         <v>1179164</v>
       </c>
       <c r="AB69" s="59"/>
@@ -39749,71 +39761,71 @@
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="43">
-        <f t="shared" ref="G70:W70" si="25">G69*$E$70</f>
+        <f t="shared" ref="G70:W70" si="56">G69*$E$70</f>
         <v>0.10493749999999999</v>
       </c>
       <c r="H70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>0.20987499999999998</v>
       </c>
       <c r="I70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>0.41974999999999996</v>
       </c>
       <c r="J70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>0.83949999999999991</v>
       </c>
       <c r="K70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>1.6789999999999998</v>
       </c>
       <c r="L70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>3.3579999999999997</v>
       </c>
       <c r="M70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>6.7159999999999993</v>
       </c>
       <c r="N70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>13.431999999999999</v>
       </c>
       <c r="O70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>26.863999999999997</v>
       </c>
       <c r="P70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>53.727999999999994</v>
       </c>
       <c r="Q70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>107.45599999999999</v>
       </c>
       <c r="R70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>214.91199999999998</v>
       </c>
       <c r="S70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>429.82399999999996</v>
       </c>
       <c r="T70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>859.64799999999991</v>
       </c>
       <c r="U70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>1719.2959999999998</v>
       </c>
       <c r="V70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>3438.5919999999996</v>
       </c>
       <c r="W70" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>6877.1839999999993</v>
       </c>
       <c r="X70" s="44">
@@ -39849,87 +39861,87 @@
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="34">
-        <f>G$14*$B$71</f>
+        <f t="shared" ref="G71:AA71" si="57">G$14*$B$71</f>
         <v>9.6875</v>
       </c>
       <c r="H71" s="35">
-        <f>H$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>19.375</v>
       </c>
       <c r="I71" s="35">
-        <f>I$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>38.75</v>
       </c>
       <c r="J71" s="35">
-        <f>J$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>77.5</v>
       </c>
       <c r="K71" s="35">
-        <f>K$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>155</v>
       </c>
       <c r="L71" s="35">
-        <f>L$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>310</v>
       </c>
       <c r="M71" s="35">
-        <f>M$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>620</v>
       </c>
       <c r="N71" s="35">
-        <f>N$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>1240</v>
       </c>
       <c r="O71" s="35">
-        <f>O$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>2480</v>
       </c>
       <c r="P71" s="35">
-        <f>P$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>4960</v>
       </c>
       <c r="Q71" s="35">
-        <f>Q$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>9920</v>
       </c>
       <c r="R71" s="35">
-        <f>R$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>19840</v>
       </c>
       <c r="S71" s="35">
-        <f>S$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>39680</v>
       </c>
       <c r="T71" s="35">
-        <f>T$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>79360</v>
       </c>
       <c r="U71" s="35">
-        <f>U$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>158720</v>
       </c>
       <c r="V71" s="35">
-        <f>V$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>317440</v>
       </c>
       <c r="W71" s="35">
-        <f>W$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>634880</v>
       </c>
       <c r="X71" s="35">
-        <f>X$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>1269760</v>
       </c>
       <c r="Y71" s="35">
-        <f>Y$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>2539520</v>
       </c>
       <c r="Z71" s="35">
-        <f>Z$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>5079040</v>
       </c>
       <c r="AA71" s="89">
-        <f>AA$14*$B$71</f>
+        <f t="shared" si="57"/>
         <v>7946540</v>
       </c>
       <c r="AB71" s="59"/>
@@ -39944,71 +39956,71 @@
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="43">
-        <f t="shared" ref="G72:W72" si="26">G71*$E$72</f>
+        <f t="shared" ref="G72:W72" si="58">G71*$E$72</f>
         <v>0.61031250000000004</v>
       </c>
       <c r="H72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>1.2206250000000001</v>
       </c>
       <c r="I72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>2.4412500000000001</v>
       </c>
       <c r="J72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>4.8825000000000003</v>
       </c>
       <c r="K72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>9.7650000000000006</v>
       </c>
       <c r="L72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>19.53</v>
       </c>
       <c r="M72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>39.06</v>
       </c>
       <c r="N72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>78.12</v>
       </c>
       <c r="O72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>156.24</v>
       </c>
       <c r="P72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>312.48</v>
       </c>
       <c r="Q72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>624.96</v>
       </c>
       <c r="R72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>1249.92</v>
       </c>
       <c r="S72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>2499.84</v>
       </c>
       <c r="T72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>4999.68</v>
       </c>
       <c r="U72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>9999.36</v>
       </c>
       <c r="V72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>19998.72</v>
       </c>
       <c r="W72" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>39997.440000000002</v>
       </c>
       <c r="X72" s="44">
@@ -40044,87 +40056,87 @@
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="34">
-        <f>G$14*$B$73</f>
+        <f t="shared" ref="G73:AA73" si="59">G$14*$B$73</f>
         <v>10.53125</v>
       </c>
       <c r="H73" s="35">
-        <f>H$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>21.0625</v>
       </c>
       <c r="I73" s="35">
-        <f>I$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>42.125</v>
       </c>
       <c r="J73" s="35">
-        <f>J$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>84.25</v>
       </c>
       <c r="K73" s="35">
-        <f>K$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>168.5</v>
       </c>
       <c r="L73" s="35">
-        <f>L$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>337</v>
       </c>
       <c r="M73" s="35">
-        <f>M$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>674</v>
       </c>
       <c r="N73" s="35">
-        <f>N$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>1348</v>
       </c>
       <c r="O73" s="35">
-        <f>O$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>2696</v>
       </c>
       <c r="P73" s="35">
-        <f>P$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>5392</v>
       </c>
       <c r="Q73" s="35">
-        <f>Q$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>10784</v>
       </c>
       <c r="R73" s="35">
-        <f>R$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>21568</v>
       </c>
       <c r="S73" s="35">
-        <f>S$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>43136</v>
       </c>
       <c r="T73" s="35">
-        <f>T$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>86272</v>
       </c>
       <c r="U73" s="35">
-        <f>U$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>172544</v>
       </c>
       <c r="V73" s="35">
-        <f>V$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>345088</v>
       </c>
       <c r="W73" s="35">
-        <f>W$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>690176</v>
       </c>
       <c r="X73" s="35">
-        <f>X$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>1380352</v>
       </c>
       <c r="Y73" s="35">
-        <f>Y$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>2760704</v>
       </c>
       <c r="Z73" s="35">
-        <f>Z$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>5521408</v>
       </c>
       <c r="AA73" s="89">
-        <f>AA$14*$B$73</f>
+        <f t="shared" si="59"/>
         <v>8638658</v>
       </c>
       <c r="AB73" s="59"/>
@@ -40139,71 +40151,71 @@
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="43">
-        <f t="shared" ref="G74:W74" si="27">G73*$E$74</f>
+        <f t="shared" ref="G74:W74" si="60">G73*$E$74</f>
         <v>0.63187499999999996</v>
       </c>
       <c r="H74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>1.2637499999999999</v>
       </c>
       <c r="I74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>2.5274999999999999</v>
       </c>
       <c r="J74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>5.0549999999999997</v>
       </c>
       <c r="K74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>10.11</v>
       </c>
       <c r="L74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>20.22</v>
       </c>
       <c r="M74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>40.44</v>
       </c>
       <c r="N74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>80.88</v>
       </c>
       <c r="O74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>161.76</v>
       </c>
       <c r="P74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>323.52</v>
       </c>
       <c r="Q74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>647.04</v>
       </c>
       <c r="R74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>1294.08</v>
       </c>
       <c r="S74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>2588.16</v>
       </c>
       <c r="T74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>5176.32</v>
       </c>
       <c r="U74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>10352.64</v>
       </c>
       <c r="V74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>20705.28</v>
       </c>
       <c r="W74" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>41410.559999999998</v>
       </c>
       <c r="X74" s="44">
@@ -40239,87 +40251,87 @@
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="34">
-        <f>G$14*$B$75</f>
+        <f t="shared" ref="G75:AA75" si="61">G$14*$B$75</f>
         <v>0.46875</v>
       </c>
       <c r="H75" s="35">
-        <f>H$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>0.9375</v>
       </c>
       <c r="I75" s="35">
-        <f>I$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>1.875</v>
       </c>
       <c r="J75" s="35">
-        <f>J$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>3.75</v>
       </c>
       <c r="K75" s="35">
-        <f>K$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>7.5</v>
       </c>
       <c r="L75" s="35">
-        <f>L$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="M75" s="35">
-        <f>M$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>30</v>
       </c>
       <c r="N75" s="35">
-        <f>N$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>60</v>
       </c>
       <c r="O75" s="35">
-        <f>O$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>120</v>
       </c>
       <c r="P75" s="35">
-        <f>P$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>240</v>
       </c>
       <c r="Q75" s="35">
-        <f>Q$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>480</v>
       </c>
       <c r="R75" s="35">
-        <f>R$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>960</v>
       </c>
       <c r="S75" s="35">
-        <f>S$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>1920</v>
       </c>
       <c r="T75" s="35">
-        <f>T$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>3840</v>
       </c>
       <c r="U75" s="35">
-        <f>U$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>7680</v>
       </c>
       <c r="V75" s="35">
-        <f>V$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>15360</v>
       </c>
       <c r="W75" s="35">
-        <f>W$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>30720</v>
       </c>
       <c r="X75" s="35">
-        <f>X$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>61440</v>
       </c>
       <c r="Y75" s="35">
-        <f>Y$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>122880</v>
       </c>
       <c r="Z75" s="35">
-        <f>Z$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>245760</v>
       </c>
       <c r="AA75" s="89">
-        <f>AA$14*$B$75</f>
+        <f t="shared" si="61"/>
         <v>384510</v>
       </c>
       <c r="AB75" s="59"/>
@@ -40334,71 +40346,71 @@
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="43">
-        <f t="shared" ref="G76:W76" si="28">G75*$E$76</f>
+        <f t="shared" ref="G76:W76" si="62">G75*$E$76</f>
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="H76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>0.105</v>
       </c>
       <c r="J76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>0.21</v>
       </c>
       <c r="K76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>0.42</v>
       </c>
       <c r="L76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>0.84</v>
       </c>
       <c r="M76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>1.68</v>
       </c>
       <c r="N76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>3.36</v>
       </c>
       <c r="O76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>6.72</v>
       </c>
       <c r="P76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>13.44</v>
       </c>
       <c r="Q76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>26.88</v>
       </c>
       <c r="R76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>53.76</v>
       </c>
       <c r="S76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>107.52</v>
       </c>
       <c r="T76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>215.04</v>
       </c>
       <c r="U76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>430.08</v>
       </c>
       <c r="V76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>860.16</v>
       </c>
       <c r="W76" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>1720.32</v>
       </c>
       <c r="X76" s="44">
@@ -40434,87 +40446,87 @@
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
       <c r="G77" s="34">
-        <f>G$14*$B$77</f>
+        <f t="shared" ref="G77:AA77" si="63">G$14*$B$77</f>
         <v>5.03125</v>
       </c>
       <c r="H77" s="35">
-        <f>H$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>10.0625</v>
       </c>
       <c r="I77" s="35">
-        <f>I$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>20.125</v>
       </c>
       <c r="J77" s="35">
-        <f>J$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>40.25</v>
       </c>
       <c r="K77" s="35">
-        <f>K$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>80.5</v>
       </c>
       <c r="L77" s="35">
-        <f>L$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>161</v>
       </c>
       <c r="M77" s="35">
-        <f>M$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>322</v>
       </c>
       <c r="N77" s="35">
-        <f>N$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>644</v>
       </c>
       <c r="O77" s="35">
-        <f>O$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>1288</v>
       </c>
       <c r="P77" s="35">
-        <f>P$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>2576</v>
       </c>
       <c r="Q77" s="35">
-        <f>Q$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>5152</v>
       </c>
       <c r="R77" s="35">
-        <f>R$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>10304</v>
       </c>
       <c r="S77" s="35">
-        <f>S$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>20608</v>
       </c>
       <c r="T77" s="35">
-        <f>T$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>41216</v>
       </c>
       <c r="U77" s="35">
-        <f>U$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>82432</v>
       </c>
       <c r="V77" s="35">
-        <f>V$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>164864</v>
       </c>
       <c r="W77" s="35">
-        <f>W$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>329728</v>
       </c>
       <c r="X77" s="35">
-        <f>X$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>659456</v>
       </c>
       <c r="Y77" s="35">
-        <f>Y$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>1318912</v>
       </c>
       <c r="Z77" s="35">
-        <f>Z$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>2637824</v>
       </c>
       <c r="AA77" s="89">
-        <f>AA$14*$B$77</f>
+        <f t="shared" si="63"/>
         <v>4127074</v>
       </c>
       <c r="AB77" s="59"/>
@@ -40605,23 +40617,23 @@
         <v>28.71875</v>
       </c>
       <c r="H79" s="35">
-        <f t="shared" ref="H79:W79" si="29">SUM(H67,H69,H71,H73,H75,H77)</f>
+        <f t="shared" ref="H79:W79" si="64">SUM(H67,H69,H71,H73,H75,H77)</f>
         <v>57.4375</v>
       </c>
       <c r="I79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>114.875</v>
       </c>
       <c r="J79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>229.75</v>
       </c>
       <c r="K79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>459.5</v>
       </c>
       <c r="L79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>919</v>
       </c>
       <c r="M79" s="35">
@@ -40629,59 +40641,59 @@
         <v>1838</v>
       </c>
       <c r="N79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>3676</v>
       </c>
       <c r="O79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>7352</v>
       </c>
       <c r="P79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>14704</v>
       </c>
       <c r="Q79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>29408</v>
       </c>
       <c r="R79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>58816</v>
       </c>
       <c r="S79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>117632</v>
       </c>
       <c r="T79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>235264</v>
       </c>
       <c r="U79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>470528</v>
       </c>
       <c r="V79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>941056</v>
       </c>
       <c r="W79" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>1882112</v>
       </c>
       <c r="X79" s="35">
-        <f t="shared" ref="X79:AA80" si="30">SUM(X67,X69,X71,X73,X75,X77)</f>
+        <f t="shared" ref="X79:AA80" si="65">SUM(X67,X69,X71,X73,X75,X77)</f>
         <v>3764224</v>
       </c>
       <c r="Y79" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>7528448</v>
       </c>
       <c r="Z79" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>15056896</v>
       </c>
       <c r="AA79" s="89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>23557646</v>
       </c>
       <c r="AB79" s="59"/>
@@ -40700,89 +40712,89 @@
         <v>1.5374375000000002</v>
       </c>
       <c r="H80" s="46">
-        <f t="shared" ref="H80:W80" si="31">SUM(H68,H70,H72,H74,H76,H78)</f>
+        <f t="shared" ref="H80:W80" si="66">SUM(H68,H70,H72,H74,H76,H78)</f>
         <v>3.0748750000000005</v>
       </c>
       <c r="I80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>6.1497500000000009</v>
       </c>
       <c r="J80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>12.299500000000002</v>
       </c>
       <c r="K80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>24.599000000000004</v>
       </c>
       <c r="L80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>49.198000000000008</v>
       </c>
       <c r="M80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>98.396000000000015</v>
       </c>
       <c r="N80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>196.79200000000003</v>
       </c>
       <c r="O80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>393.58400000000006</v>
       </c>
       <c r="P80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>787.16800000000012</v>
       </c>
       <c r="Q80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>1574.3360000000002</v>
       </c>
       <c r="R80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>3148.6720000000005</v>
       </c>
       <c r="S80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>6297.344000000001</v>
       </c>
       <c r="T80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>12594.688000000002</v>
       </c>
       <c r="U80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>25189.376000000004</v>
       </c>
       <c r="V80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>50378.752000000008</v>
       </c>
       <c r="W80" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="66"/>
         <v>100757.50400000002</v>
       </c>
       <c r="X80" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>201515.00800000003</v>
       </c>
       <c r="Y80" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>403030.01600000006</v>
       </c>
       <c r="Z80" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>806060.03200000012</v>
       </c>
       <c r="AA80" s="90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="65"/>
         <v>1261141.5320000001</v>
       </c>
       <c r="AB80" s="59"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G24:Z24 AB24">
+  <conditionalFormatting sqref="AB24 G24:Z24">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$C$4</formula>
     </cfRule>
@@ -40822,66 +40834,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="253" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="227">
+      <c r="C3" s="214">
         <f>Projections!B1</f>
         <v>25634000</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="254" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="227">
+      <c r="C4" s="214">
         <v>32</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="276" t="s">
+      <c r="B5" s="254" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="225">
+      <c r="C5" s="212">
         <v>43892</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="254" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="227">
+      <c r="C6" s="214">
         <v>4560</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="225">
+      <c r="C7" s="212">
         <f ca="1">NOW()</f>
-        <v>43921.881493981484</v>
+        <v>43922.612561458336</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="254" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="226">
+      <c r="C8" s="213">
         <f ca="1">C7-C5</f>
-        <v>29.8814939814838</v>
+        <v>30.612561458336131</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="228">
+      <c r="C9" s="215">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>4.1764156021909837</v>
+        <v>4.2785939477071899</v>
       </c>
       <c r="D9" t="s">
         <v>205</v>
@@ -40891,19 +40903,19 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="276" t="s">
+      <c r="B10" s="254" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="227">
+      <c r="C10" s="214">
         <f>Projections!C4</f>
         <v>66648.400000000009</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="255" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="232">
+      <c r="C11" s="219">
         <f>Projections!C5</f>
         <v>1896.9159999999999</v>
       </c>
@@ -40912,7 +40924,7 @@
       <c r="B12" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="233">
+      <c r="C12" s="220">
         <f>C6/Projections!B2</f>
         <v>13818.181818181818</v>
       </c>
@@ -40921,24 +40933,24 @@
       <c r="B13" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="234">
+      <c r="C13" s="221">
         <f ca="1">(C4/Projections!B2)*(2^(((C7-21)-C5)/C9))</f>
-        <v>423.44916231478584</v>
+        <v>460.20272364458674</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="197">
+      <c r="C14" s="194">
         <f ca="1">C12-C13</f>
-        <v>13394.732655867032</v>
-      </c>
-      <c r="E14" s="230"/>
-      <c r="F14" s="231" t="s">
+        <v>13357.979094537232</v>
+      </c>
+      <c r="E14" s="217"/>
+      <c r="F14" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="229"/>
+      <c r="G14" s="216"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -40948,7 +40960,7 @@
         <f>C6*Projections!B6</f>
         <v>3693.6000000000004</v>
       </c>
-      <c r="I15" s="224"/>
+      <c r="I15" s="211"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="55" t="s">
@@ -40956,9 +40968,9 @@
       </c>
       <c r="C16" s="104">
         <f ca="1">(C4*Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>113.18796108674226</v>
-      </c>
-      <c r="I16" s="224"/>
+        <v>123.01218803019805</v>
+      </c>
+      <c r="I16" s="211"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
@@ -40966,12 +40978,12 @@
       </c>
       <c r="C17" s="104">
         <f ca="1">C15-C16</f>
-        <v>3580.4120389132581</v>
+        <v>3570.5878119698023</v>
       </c>
       <c r="F17" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="224"/>
+      <c r="I17" s="211"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
@@ -40988,7 +41000,7 @@
       </c>
       <c r="C19" s="104">
         <f ca="1">(C4*Projections!B7)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.18760471709337551</v>
+        <v>0.22781843773478139</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -40997,7 +41009,7 @@
       </c>
       <c r="C20" s="104">
         <f ca="1">C18-C19</f>
-        <v>638.21239528290675</v>
+        <v>638.17218156226534</v>
       </c>
       <c r="F20" t="s">
         <v>265</v>
@@ -41011,7 +41023,7 @@
         <f>C6*Projections!B8</f>
         <v>228</v>
       </c>
-      <c r="I21" s="224"/>
+      <c r="I21" s="211"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
@@ -41019,9 +41031,9 @@
       </c>
       <c r="C22" s="104">
         <f ca="1">(C4*Projections!B8)*(2^(((C7-49)-C5)/C9))</f>
-        <v>6.7001684676205528E-2</v>
-      </c>
-      <c r="I22" s="224"/>
+        <v>8.1363727762421914E-2</v>
+      </c>
+      <c r="I22" s="211"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="s">
@@ -41029,9 +41041,9 @@
       </c>
       <c r="C23" s="104">
         <f ca="1">C21-C22</f>
-        <v>227.9329983153238</v>
-      </c>
-      <c r="I23" s="224"/>
+        <v>227.91863627223759</v>
+      </c>
+      <c r="I23" s="211"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
@@ -41048,7 +41060,7 @@
       </c>
       <c r="C25" s="77">
         <f ca="1">(C4*Projections!B9)*(2^(((C7-42)-C5)/C9))</f>
-        <v>0.14987653275605373</v>
+        <v>0.17702289985052169</v>
       </c>
       <c r="F25" t="s">
         <v>272</v>
@@ -41058,9 +41070,9 @@
       <c r="B26" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="237">
+      <c r="C26" s="224">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>34.210659887312509</v>
+        <v>35.047642831363717</v>
       </c>
       <c r="D26" t="s">
         <v>205</v>
@@ -41073,9 +41085,9 @@
       <c r="B27" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="236">
+      <c r="C27" s="223">
         <f ca="1">C7+C26</f>
-        <v>43956.092153868798</v>
+        <v>43957.660204289699</v>
       </c>
       <c r="F27" t="s">
         <v>274</v>
@@ -41085,9 +41097,9 @@
       <c r="B28" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="235">
+      <c r="C28" s="222">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>12.765423378911613</v>
+        <v>13.077736607505726</v>
       </c>
       <c r="D28" t="s">
         <v>205</v>
@@ -41097,9 +41109,9 @@
       <c r="B29" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="236">
+      <c r="C29" s="223">
         <f ca="1">C7+C28</f>
-        <v>43934.646917360398</v>
+        <v>43935.690298065841</v>
       </c>
       <c r="F29" t="s">
         <v>274</v>
@@ -41109,9 +41121,9 @@
       <c r="B30" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="235">
+      <c r="C30" s="222">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>42.266618531898423</v>
+        <v>43.300695013627958</v>
       </c>
       <c r="D30" t="s">
         <v>205</v>
@@ -41121,18 +41133,18 @@
       <c r="B31" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="236">
+      <c r="C31" s="223">
         <f ca="1">C7+C30</f>
-        <v>43964.14811251338</v>
+        <v>43965.913256471962</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="225">
+      <c r="C34" s="212">
         <f ca="1">C7+30</f>
-        <v>43951.881493981484</v>
+        <v>43952.612561458336</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -41141,7 +41153,7 @@
       </c>
       <c r="C35" s="104">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>662706.83437102602</v>
+        <v>588412.08368494734</v>
       </c>
       <c r="F35" t="s">
         <v>258</v>
@@ -41153,7 +41165,7 @@
       </c>
       <c r="C36" s="104">
         <f ca="1">C35/Projections!B2</f>
-        <v>2008202.5283970484</v>
+        <v>1783066.9202574161</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41162,7 +41174,7 @@
       </c>
       <c r="C37" s="104">
         <f ca="1">C35*Projections!B6</f>
-        <v>536792.53584053111</v>
+        <v>476613.78778480738</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41171,7 +41183,7 @@
       </c>
       <c r="C38" s="104">
         <f ca="1">C35*Projections!B7</f>
-        <v>92778.956811943659</v>
+        <v>82377.691715892637</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41180,7 +41192,7 @@
       </c>
       <c r="C39" s="104">
         <f ca="1">C35*Projections!B8</f>
-        <v>33135.341718551303</v>
+        <v>29420.604184247368</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41189,7 +41201,7 @@
       </c>
       <c r="C40" s="77">
         <f ca="1">C35*Projections!B9</f>
-        <v>23194.739202985915</v>
+        <v>20594.422928973159</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DCAB75-2C0E-42DA-8ED5-E252CAE1A623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCEC579-96DD-4680-8D68-A29A06CFF583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="309">
   <si>
     <t>Australian Population</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>Three step plan announced to begin opening back up, each state to determine their own timing</t>
+  </si>
+  <si>
+    <t>States begin loosening restrictions, VIC follows a couple of days later</t>
   </si>
 </sst>
 </file>
@@ -2178,46 +2181,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,46 +2330,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,46 +2479,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11701,46 +11704,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11841,46 +11844,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11984,46 +11987,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12121,46 +12124,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12528,46 +12531,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,46 +12680,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12826,46 +12829,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13243,46 +13246,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13383,46 +13386,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13526,46 +13529,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13663,46 +13666,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.754608101852</c:v>
+                  <c:v>43922.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.754608101852</c:v>
+                  <c:v>43925.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.754608101852</c:v>
+                  <c:v>43928.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.754608101852</c:v>
+                  <c:v>43931.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.754608101852</c:v>
+                  <c:v>43934.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.754608101852</c:v>
+                  <c:v>43937.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.754608101852</c:v>
+                  <c:v>43940.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.754608101852</c:v>
+                  <c:v>43943.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.754608101852</c:v>
+                  <c:v>43946.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.754608101852</c:v>
+                  <c:v>43949.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.754608101852</c:v>
+                  <c:v>43952.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.754608101852</c:v>
+                  <c:v>43955.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.754608101852</c:v>
+                  <c:v>43958.759586689812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.754608101852</c:v>
+                  <c:v>43961.759586689812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32222,167 +32225,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43919.754608101852</v>
+        <v>43922.759586689812</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43920.754608101852</v>
+        <v>43923.759586689812</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43921.754608101852</v>
+        <v>43924.759586689812</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.754608101852</v>
+        <v>43925.759586689812</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43923.754608101852</v>
+        <v>43926.759586689812</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43924.754608101852</v>
+        <v>43927.759586689812</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43925.754608101852</v>
+        <v>43928.759586689812</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43926.754608101852</v>
+        <v>43929.759586689812</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43927.754608101852</v>
+        <v>43930.759586689812</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43928.754608101852</v>
+        <v>43931.759586689812</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.754608101852</v>
+        <v>43932.759586689812</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.754608101852</v>
+        <v>43933.759586689812</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.754608101852</v>
+        <v>43934.759586689812</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.754608101852</v>
+        <v>43935.759586689812</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.754608101852</v>
+        <v>43936.759586689812</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.754608101852</v>
+        <v>43937.759586689812</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.754608101852</v>
+        <v>43938.759586689812</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.754608101852</v>
+        <v>43939.759586689812</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.754608101852</v>
+        <v>43940.759586689812</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.754608101852</v>
+        <v>43941.759586689812</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43939.754608101852</v>
+        <v>43942.759586689812</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43940.754608101852</v>
+        <v>43943.759586689812</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43941.754608101852</v>
+        <v>43944.759586689812</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43942.754608101852</v>
+        <v>43945.759586689812</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.754608101852</v>
+        <v>43946.759586689812</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.754608101852</v>
+        <v>43947.759586689812</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.754608101852</v>
+        <v>43948.759586689812</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.754608101852</v>
+        <v>43949.759586689812</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.754608101852</v>
+        <v>43950.759586689812</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.754608101852</v>
+        <v>43951.759586689812</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.754608101852</v>
+        <v>43952.759586689812</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.754608101852</v>
+        <v>43953.759586689812</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.754608101852</v>
+        <v>43954.759586689812</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.754608101852</v>
+        <v>43955.759586689812</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.754608101852</v>
+        <v>43956.759586689812</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.754608101852</v>
+        <v>43957.759586689812</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.754608101852</v>
+        <v>43958.759586689812</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.754608101852</v>
+        <v>43959.759586689812</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.754608101852</v>
+        <v>43960.759586689812</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>43958.754608101852</v>
+        <v>43961.759586689812</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>43959.754608101852</v>
+        <v>43962.759586689812</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32901,7 +32904,7 @@
   <dimension ref="A1:AJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33211,7 +33214,12 @@
         <v>287</v>
       </c>
       <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
+      <c r="P18" s="278">
+        <v>43961</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>308</v>
+      </c>
       <c r="W18" s="278"/>
       <c r="X18" s="134"/>
       <c r="AA18" s="278"/>
@@ -40818,7 +40826,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40862,7 +40870,7 @@
         <v>222</v>
       </c>
       <c r="C6" s="179">
-        <v>6913</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -40871,7 +40879,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>43959.754608101852</v>
+        <v>43962.759586689812</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -40880,7 +40888,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>67.754608101851773</v>
+        <v>70.75958668981184</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -40889,7 +40897,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>8.7367849817001826</v>
+        <v>9.115705248329613</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -40922,7 +40930,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B14</f>
-        <v>8534.5679012345681</v>
+        <v>8577.7777777777774</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -40931,7 +40939,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B14)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1612.9345963957389</v>
+        <v>1737.3488949699304</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -40940,7 +40948,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>6921.6333048388296</v>
+        <v>6840.428882807847</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -40954,7 +40962,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B18</f>
-        <v>6359.96</v>
+        <v>6392.16</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -40964,7 +40972,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B18)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1201.9588612341047</v>
+        <v>1294.6723965315923</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -40974,7 +40982,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>5158.0011387658951</v>
+        <v>5097.4876034684075</v>
       </c>
       <c r="F17" t="s">
         <v>247</v>
@@ -40987,7 +40995,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B19</f>
-        <v>345.65000000000003</v>
+        <v>347.40000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -40996,7 +41004,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B19)*(2^(((C7-49)-C5)/C9))</f>
-        <v>7.0846555437715741</v>
+        <v>8.3693500788690667</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41005,7 +41013,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>338.56534445622844</v>
+        <v>339.03064992113099</v>
       </c>
       <c r="F20" t="s">
         <v>252</v>
@@ -41017,7 +41025,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B20</f>
-        <v>207.39</v>
+        <v>208.44</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41027,7 +41035,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B20)*(2^(((C7-49)-C5)/C9))</f>
-        <v>4.2507933262629436</v>
+        <v>5.0216100473214391</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41037,7 +41045,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>203.13920667373705</v>
+        <v>203.41838995267855</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41047,7 +41055,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B21</f>
-        <v>96.781999999999996</v>
+        <v>97.272000000000006</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41056,7 +41064,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-42)-C5)/C9))</f>
-        <v>3.456726597095872</v>
+        <v>3.9903624808549458</v>
       </c>
       <c r="F25" t="s">
         <v>258</v>
@@ -41068,7 +41076,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>72.760645142809835</v>
+        <v>75.849908010544581</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41083,7 +41091,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44032.515253244659</v>
+        <v>44038.609494700358</v>
       </c>
       <c r="F27" t="s">
         <v>260</v>
@@ -41095,7 +41103,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>27.898629935962756</v>
+        <v>29.04219689847401</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41107,7 +41115,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>43987.653238037812</v>
+        <v>43991.801783588286</v>
       </c>
       <c r="F29" t="s">
         <v>260</v>
@@ -41119,7 +41127,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>94.492586935119448</v>
+        <v>98.524378798996977</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41131,7 +41139,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44054.247195036973</v>
+        <v>44061.283965488808</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41140,7 +41148,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>43989.754608101852</v>
+        <v>43992.759586689812</v>
       </c>
       <c r="F34" t="s">
         <v>279</v>
@@ -41152,7 +41160,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>74701.707569381048</v>
+        <v>68007.466050689836</v>
       </c>
       <c r="F35" t="s">
         <v>245</v>
@@ -41164,7 +41172,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B14</f>
-        <v>92224.330332569181</v>
+        <v>83959.834630481273</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41173,7 +41181,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B18</f>
-        <v>68725.570963830571</v>
+        <v>62566.868766634652</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41182,7 +41190,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B19</f>
-        <v>3735.0853784690526</v>
+        <v>3400.3733025344918</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41191,7 +41199,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B20</f>
-        <v>2241.0512270814315</v>
+        <v>2040.2239815206949</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41200,7 +41208,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B21</f>
-        <v>1045.8239059713346</v>
+        <v>952.10452470965777</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA815EAE-A9E1-4E98-98D6-8D16F3F8663B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47482D23-1F6B-4733-AF3D-5BE61BDF4F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="225" yWindow="210" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="313">
   <si>
     <t>Australian Population</t>
   </si>
@@ -966,7 +966,16 @@
     <t>States begin loosening restrictions, VIC follows a couple of days later</t>
   </si>
   <si>
-    <t>China flags bans on barley imports and meat from 4 abattoirs from Australia, widely interpreted as Australia's push for an independent investigation into the origin and handling of the coronavirus outbreak</t>
+    <t>China flags bans/tariffs on barley imports and meat from 4 abattoirs from Australia and threatening measures againt resource imports from Australia, widely interpreted as Australia's push for an independent investigation into the origin and handling of the coronavirus outbreak</t>
+  </si>
+  <si>
+    <t>122 countries back AU/EU push for independent inquiry into coronavirus outbreak, motion to be put forward at the World Health Assembly on Tue, 19/5</t>
+  </si>
+  <si>
+    <t>China's President Xi Jinping backed the comprehensive review of the global response to the coronavirus at the WHA, but stopped short of endorsing an independent probe advocated by Australia and the EU</t>
+  </si>
+  <si>
+    <t>China slaps an 80% tarrif on Australian barley imports over technical infringements.  Debate ensues on whether the move by China is in retaliation of Australia's push for an independent inquiry into the coronavirus outbreak.</t>
   </si>
 </sst>
 </file>
@@ -2184,46 +2193,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,46 +2342,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,46 +2491,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3723,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11378,7 +11387,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11707,46 +11716,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11847,46 +11856,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11990,46 +11999,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12127,46 +12136,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12534,46 +12543,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12683,46 +12692,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12832,46 +12841,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13249,46 +13258,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13389,46 +13398,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13532,46 +13541,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13669,46 +13678,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.837555555554</c:v>
+                  <c:v>43931.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.837555555554</c:v>
+                  <c:v>43934.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.837555555554</c:v>
+                  <c:v>43937.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.837555555554</c:v>
+                  <c:v>43940.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.837555555554</c:v>
+                  <c:v>43943.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.837555555554</c:v>
+                  <c:v>43946.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.837555555554</c:v>
+                  <c:v>43949.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.837555555554</c:v>
+                  <c:v>43952.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.837555555554</c:v>
+                  <c:v>43955.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.837555555554</c:v>
+                  <c:v>43958.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.837555555554</c:v>
+                  <c:v>43961.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.837555555554</c:v>
+                  <c:v>43964.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.837555555554</c:v>
+                  <c:v>43967.494583101849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.837555555554</c:v>
+                  <c:v>43970.494583101849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32228,167 +32237,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43926.837555555554</v>
+        <v>43931.494583101849</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43927.837555555554</v>
+        <v>43932.494583101849</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43928.837555555554</v>
+        <v>43933.494583101849</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43929.837555555554</v>
+        <v>43934.494583101849</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43930.837555555554</v>
+        <v>43935.494583101849</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43931.837555555554</v>
+        <v>43936.494583101849</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43932.837555555554</v>
+        <v>43937.494583101849</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.837555555554</v>
+        <v>43938.494583101849</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.837555555554</v>
+        <v>43939.494583101849</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.837555555554</v>
+        <v>43940.494583101849</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.837555555554</v>
+        <v>43941.494583101849</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.837555555554</v>
+        <v>43942.494583101849</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.837555555554</v>
+        <v>43943.494583101849</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43939.837555555554</v>
+        <v>43944.494583101849</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43940.837555555554</v>
+        <v>43945.494583101849</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43941.837555555554</v>
+        <v>43946.494583101849</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43942.837555555554</v>
+        <v>43947.494583101849</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43943.837555555554</v>
+        <v>43948.494583101849</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43944.837555555554</v>
+        <v>43949.494583101849</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43945.837555555554</v>
+        <v>43950.494583101849</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43946.837555555554</v>
+        <v>43951.494583101849</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.837555555554</v>
+        <v>43952.494583101849</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.837555555554</v>
+        <v>43953.494583101849</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.837555555554</v>
+        <v>43954.494583101849</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.837555555554</v>
+        <v>43955.494583101849</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.837555555554</v>
+        <v>43956.494583101849</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.837555555554</v>
+        <v>43957.494583101849</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.837555555554</v>
+        <v>43958.494583101849</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.837555555554</v>
+        <v>43959.494583101849</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.837555555554</v>
+        <v>43960.494583101849</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.837555555554</v>
+        <v>43961.494583101849</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.837555555554</v>
+        <v>43962.494583101849</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43958.837555555554</v>
+        <v>43963.494583101849</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43959.837555555554</v>
+        <v>43964.494583101849</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43960.837555555554</v>
+        <v>43965.494583101849</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43961.837555555554</v>
+        <v>43966.494583101849</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.837555555554</v>
+        <v>43967.494583101849</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.837555555554</v>
+        <v>43968.494583101849</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.837555555554</v>
+        <v>43969.494583101849</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>43965.837555555554</v>
+        <v>43970.494583101849</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>43966.837555555554</v>
+        <v>43971.494583101849</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32906,8 +32915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33191,6 +33200,12 @@
       <c r="C20" t="s">
         <v>213</v>
       </c>
+      <c r="P20" s="278">
+        <v>43968</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>310</v>
+      </c>
       <c r="S20" s="81"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
@@ -33200,6 +33215,12 @@
       <c r="B21" s="128">
         <v>0.2</v>
       </c>
+      <c r="P21" s="278">
+        <v>43969</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>311</v>
+      </c>
       <c r="S21" s="181"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -33214,6 +33235,12 @@
         <v>66648.400000000009</v>
       </c>
       <c r="L22" s="164"/>
+      <c r="P22" s="278">
+        <v>43969</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
@@ -36416,7 +36443,7 @@
         <v>4230</v>
       </c>
       <c r="Q59" s="249">
-        <v>6334</v>
+        <v>6413</v>
       </c>
       <c r="R59" s="249"/>
       <c r="S59" s="249"/>
@@ -36475,7 +36502,7 @@
         <v>71</v>
       </c>
       <c r="Q60" s="250">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R60" s="250"/>
       <c r="S60" s="250"/>
@@ -40845,7 +40872,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40889,7 +40916,7 @@
         <v>222</v>
       </c>
       <c r="C6" s="179">
-        <v>7019</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -40898,7 +40925,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>43966.837555555554</v>
+        <v>43971.494583101849</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -40907,7 +40934,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>74.83755555555399</v>
+        <v>79.494583101848548</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -40916,7 +40943,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>9.6228721162111679</v>
+        <v>10.208514428716812</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -40949,7 +40976,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B20</f>
-        <v>8665.4320987654319</v>
+        <v>8725.9259259259252</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -40958,7 +40985,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B20)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1909.2037144827511</v>
+        <v>2096.8183183790984</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -40967,7 +40994,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>6756.228384282681</v>
+        <v>6629.1076075468263</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -40981,7 +41008,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B24</f>
-        <v>6457.4800000000005</v>
+        <v>6502.56</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -40991,7 +41018,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1422.7386080325464</v>
+        <v>1562.5490108561044</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -41001,7 +41028,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>5034.7413919674545</v>
+        <v>4940.010989143896</v>
       </c>
       <c r="F17" t="s">
         <v>247</v>
@@ -41014,7 +41041,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B25</f>
-        <v>350.95000000000005</v>
+        <v>353.40000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -41023,7 +41050,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B25)*(2^(((C7-49)-C5)/C9))</f>
-        <v>10.289399351025335</v>
+        <v>12.686686225373514</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41032,7 +41059,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>340.66060064897471</v>
+        <v>340.7133137746265</v>
       </c>
       <c r="F20" t="s">
         <v>252</v>
@@ -41044,7 +41071,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B26</f>
-        <v>210.57</v>
+        <v>212.04</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41054,7 +41081,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B26)*(2^(((C7-49)-C5)/C9))</f>
-        <v>6.1736396106151998</v>
+        <v>7.6120117352241081</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41064,7 +41091,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>204.3963603893848</v>
+        <v>204.42798826477588</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41074,7 +41101,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B27</f>
-        <v>98.266000000000005</v>
+        <v>98.951999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41083,7 +41110,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B27)*(2^(((C7-42)-C5)/C9))</f>
-        <v>4.7700987770921817</v>
+        <v>5.7137750293702876</v>
       </c>
       <c r="F25" t="s">
         <v>258</v>
@@ -41095,7 +41122,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>79.928793299614242</v>
+        <v>84.69075432003909</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41110,7 +41137,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44046.76634885517</v>
+        <v>44056.185337421884</v>
       </c>
       <c r="F27" t="s">
         <v>260</v>
@@ -41122,7 +41149,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>30.516860178307081</v>
+        <v>32.271640137914694</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41134,7 +41161,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>43997.354415733862</v>
+        <v>44003.766223239763</v>
       </c>
       <c r="F29" t="s">
         <v>260</v>
@@ -41146,7 +41173,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>103.86479460242354</v>
+        <v>110.08348652250363</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41158,7 +41185,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44070.702350157975</v>
+        <v>44081.578069624353</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41167,7 +41194,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>43996.837555555554</v>
+        <v>44001.494583101849</v>
       </c>
       <c r="F34" t="s">
         <v>279</v>
@@ -41179,7 +41206,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>60919.738753920101</v>
+        <v>54192.654744068124</v>
       </c>
       <c r="F35" t="s">
         <v>245</v>
@@ -41191,7 +41218,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B20</f>
-        <v>75209.554017185306</v>
+        <v>66904.512029713733</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41200,7 +41227,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B24</f>
-        <v>56046.159653606497</v>
+        <v>49857.242364542675</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41209,7 +41236,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B25</f>
-        <v>3045.986937696005</v>
+        <v>2709.6327372034066</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41218,7 +41245,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B26</f>
-        <v>1827.592162617603</v>
+        <v>1625.7796423220436</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41227,7 +41254,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B27</f>
-        <v>852.87634255488138</v>
+        <v>758.69716641695379</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874D683-6324-4E91-928B-96887262E2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9459B04-6E5A-498C-A6D1-D87CF13CACFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1095,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1816,7 +1822,7 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2191,46 +2197,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,46 +2346,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,46 +2495,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +3730,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>103</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5147,46 +5153,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0627459246767847</c:v>
+                  <c:v>1.0538600891861762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1254918493535695</c:v>
+                  <c:v>2.1077201783723525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.250983698707139</c:v>
+                  <c:v>4.215440356744705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.501967397414278</c:v>
+                  <c:v>8.4308807134894099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.003934794828556</c:v>
+                  <c:v>16.86176142697882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.007869589657112</c:v>
+                  <c:v>33.72352285395764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.015739179314224</c:v>
+                  <c:v>67.447045707915279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.03147835862845</c:v>
+                  <c:v>134.89409141583056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>204.04721753794266</c:v>
+                  <c:v>202.34113712374582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.45193929173692</c:v>
+                  <c:v>222.57525083612043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>238.05508712759979</c:v>
+                  <c:v>236.06465997770349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251.65823496346263</c:v>
+                  <c:v>249.55406911928654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.26138279932547</c:v>
+                  <c:v>263.04347826086956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.0629567172569</c:v>
+                  <c:v>269.78818283166112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,46 +5304,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.2936340640809441</c:v>
+                  <c:v>3.287869286510591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5872681281618881</c:v>
+                  <c:v>6.5757385730211819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.174536256323776</c:v>
+                  <c:v>13.151477146042364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.349072512647552</c:v>
+                  <c:v>26.302954292084728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.698145025295105</c:v>
+                  <c:v>52.605908584169455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.39629005059021</c:v>
+                  <c:v>105.21181716833891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210.79258010118042</c:v>
+                  <c:v>210.42363433667782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421.58516020236084</c:v>
+                  <c:v>420.84726867335564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>632.37774030354126</c:v>
+                  <c:v>631.27090301003352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>695.61551433389548</c:v>
+                  <c:v>694.39799331103677</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>737.77403035413147</c:v>
+                  <c:v>736.48272017837235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>779.93254637436758</c:v>
+                  <c:v>778.56744704570792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>822.09106239460368</c:v>
+                  <c:v>820.6521739130435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>843.17032040472168</c:v>
+                  <c:v>841.69453734671129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,46 +5455,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0985455311973018</c:v>
+                  <c:v>5.0733347268673361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.197091062394604</c:v>
+                  <c:v>10.146669453734672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.394182124789207</c:v>
+                  <c:v>20.293338907469344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.788364249578414</c:v>
+                  <c:v>40.586677814938689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.576728499156829</c:v>
+                  <c:v>81.173355629877378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163.15345699831366</c:v>
+                  <c:v>162.34671125975476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>326.30691399662732</c:v>
+                  <c:v>324.69342251950951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>652.61382799325463</c:v>
+                  <c:v>649.38684503901902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>978.92074198988189</c:v>
+                  <c:v>974.08026755852848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1076.8128161888701</c:v>
+                  <c:v>1071.4882943143814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1142.0741989881956</c:v>
+                  <c:v>1136.4269788182833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1207.3355817875211</c:v>
+                  <c:v>1201.3656633221851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1272.5969645868465</c:v>
+                  <c:v>1266.304347826087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1305.2276559865093</c:v>
+                  <c:v>1298.773690078038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,46 +5607,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9536256323777401</c:v>
+                  <c:v>4.9296265328874025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9072512647554802</c:v>
+                  <c:v>9.859253065774805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.81450252951096</c:v>
+                  <c:v>19.71850613154961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.629005059021921</c:v>
+                  <c:v>39.43701226309922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.258010118043842</c:v>
+                  <c:v>78.87402452619844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.51602023608768</c:v>
+                  <c:v>157.74804905239688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.03204047217537</c:v>
+                  <c:v>315.49609810479376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>634.06408094435074</c:v>
+                  <c:v>630.99219620958752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>951.0961214165261</c:v>
+                  <c:v>946.48829431438116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1046.2057335581787</c:v>
+                  <c:v>1041.1371237458193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1109.6121416526139</c:v>
+                  <c:v>1104.2363433667781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1173.0185497470488</c:v>
+                  <c:v>1167.3355629877369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1236.424957841484</c:v>
+                  <c:v>1230.4347826086955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1268.1281618887015</c:v>
+                  <c:v>1261.984392419175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,46 +5759,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.969926925238898</c:v>
+                  <c:v>3.9802814938684499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.939853850477796</c:v>
+                  <c:v>7.9605629877368997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.879707700955592</c:v>
+                  <c:v>15.921125975473799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.759415401911184</c:v>
+                  <c:v>31.842251950947599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.518830803822368</c:v>
+                  <c:v>63.684503901895198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.03766160764474</c:v>
+                  <c:v>127.3690078037904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254.07532321528947</c:v>
+                  <c:v>254.73801560758079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>508.15064643057895</c:v>
+                  <c:v>509.47603121516158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>762.22596964586842</c:v>
+                  <c:v>764.21404682274238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>838.44856661045526</c:v>
+                  <c:v>840.6354515050167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>889.26363125351315</c:v>
+                  <c:v>891.58305462653277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>940.07869589657105</c:v>
+                  <c:v>942.53065774804895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>990.89376053962894</c:v>
+                  <c:v>993.47826086956513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1016.3012928611579</c:v>
+                  <c:v>1018.9520624303232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5904,46 +5910,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9536256323777401</c:v>
+                  <c:v>4.9688196767001109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9072512647554802</c:v>
+                  <c:v>9.9376393534002219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.81450252951096</c:v>
+                  <c:v>19.875278706800444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.629005059021921</c:v>
+                  <c:v>39.750557413600887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.258010118043842</c:v>
+                  <c:v>79.501114827201775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.51602023608768</c:v>
+                  <c:v>159.00222965440355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.03204047217537</c:v>
+                  <c:v>318.0044593088071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>634.06408094435074</c:v>
+                  <c:v>636.0089186176142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>951.0961214165261</c:v>
+                  <c:v>954.0133779264213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1046.2057335581787</c:v>
+                  <c:v>1049.4147157190635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1109.6121416526139</c:v>
+                  <c:v>1113.015607580825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1173.0185497470488</c:v>
+                  <c:v>1176.6164994425862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1236.424957841484</c:v>
+                  <c:v>1240.2173913043478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1268.1281618887015</c:v>
+                  <c:v>1272.0178372352284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,46 +6059,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6.5213954468802697</c:v>
+                  <c:v>6.4973522853957641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.042790893760539</c:v>
+                  <c:v>12.994704570791528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.085581787521079</c:v>
+                  <c:v>25.989409141583057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.171163575042158</c:v>
+                  <c:v>51.978818283166113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.34232715008432</c:v>
+                  <c:v>103.95763656633223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.68465430016863</c:v>
+                  <c:v>207.91527313266445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>417.36930860033726</c:v>
+                  <c:v>415.83054626532891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>834.73861720067453</c:v>
+                  <c:v>831.66109253065781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1252.1079258010118</c:v>
+                  <c:v>1247.4916387959868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1377.3187183811131</c:v>
+                  <c:v>1372.2408026755854</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1460.7925801011804</c:v>
+                  <c:v>1455.4069119286512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1544.266441821248</c:v>
+                  <c:v>1538.573021181717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1627.7403035413154</c:v>
+                  <c:v>1621.7391304347827</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1669.4772344013491</c:v>
+                  <c:v>1663.3221850613156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6205,46 +6211,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.98809021922428331</c:v>
+                  <c:v>1.0146669453734669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9761804384485666</c:v>
+                  <c:v>2.0293338907469338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9523608768971332</c:v>
+                  <c:v>4.0586677814938676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9047217537942664</c:v>
+                  <c:v>8.1173355629877353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.809443507588533</c:v>
+                  <c:v>16.234671125975471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.618887015177066</c:v>
+                  <c:v>32.469342251950941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.237774030354132</c:v>
+                  <c:v>64.938684503901882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126.47554806070826</c:v>
+                  <c:v>129.87736900780376</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.71332209106239</c:v>
+                  <c:v>194.81605351170566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.68465430016863</c:v>
+                  <c:v>214.29765886287623</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>221.33220910623947</c:v>
+                  <c:v>227.28539576365662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>233.97976391231029</c:v>
+                  <c:v>240.27313266443699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>246.6273187183811</c:v>
+                  <c:v>253.26086956521738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>252.95109612141653</c:v>
+                  <c:v>259.75473801560753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6356,46 +6362,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.40841062394603711</c:v>
+                  <c:v>0.44418896321070234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81682124789207422</c:v>
+                  <c:v>0.88837792642140467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6336424957841484</c:v>
+                  <c:v>1.7767558528428093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2672849915682969</c:v>
+                  <c:v>3.5535117056856187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5345699831365938</c:v>
+                  <c:v>7.1070234113712374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.069139966273188</c:v>
+                  <c:v>14.214046822742475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.138279932546375</c:v>
+                  <c:v>28.42809364548495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.27655986509275</c:v>
+                  <c:v>56.856187290969899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.414839797639118</c:v>
+                  <c:v>85.284280936454849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.25632377740304</c:v>
+                  <c:v>93.812709030100322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.483979763912302</c:v>
+                  <c:v>99.498327759197323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.711635750421578</c:v>
+                  <c:v>105.18394648829431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.93929173693085</c:v>
+                  <c:v>110.8695652173913</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.5531197301855</c:v>
+                  <c:v>113.7123745819398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6787,46 +6793,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.24153316469926925</c:v>
+                  <c:v>0.23951365663322186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4830663293985385</c:v>
+                  <c:v>0.47902731326644371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96613265879707699</c:v>
+                  <c:v>0.95805462653288742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.932265317594154</c:v>
+                  <c:v>1.9161092530657748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.864530635188308</c:v>
+                  <c:v>3.8322185061315497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7290612703766159</c:v>
+                  <c:v>7.6644370122630994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.458122540753232</c:v>
+                  <c:v>15.328874024526199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.916245081506464</c:v>
+                  <c:v>30.657748049052397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.37436762225969</c:v>
+                  <c:v>45.986622073578594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.011804384485664</c:v>
+                  <c:v>50.585284280936463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.103428892636316</c:v>
+                  <c:v>53.651059085841702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.195053400786961</c:v>
+                  <c:v>56.71683389074694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.286677908937605</c:v>
+                  <c:v>59.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.832490163012928</c:v>
+                  <c:v>61.315496098104795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6938,46 +6944,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.1493114109050028</c:v>
+                  <c:v>0.14806298773690077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2986228218100056</c:v>
+                  <c:v>0.29612597547380154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5972456436200112</c:v>
+                  <c:v>0.59225195094760308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1944912872400224</c:v>
+                  <c:v>1.1845039018952062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3889825744800448</c:v>
+                  <c:v>2.3690078037904123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7779651489600896</c:v>
+                  <c:v>4.7380156075808246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5559302979201792</c:v>
+                  <c:v>9.4760312151616493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.111860595840358</c:v>
+                  <c:v>18.952062430323299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.667790893760539</c:v>
+                  <c:v>28.428093645484953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.534569983136596</c:v>
+                  <c:v>31.270903010033443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.445756042720632</c:v>
+                  <c:v>33.16610925306577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.356942102304664</c:v>
+                  <c:v>35.061315496098103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.268128161888704</c:v>
+                  <c:v>36.956521739130437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.223721191680717</c:v>
+                  <c:v>37.904124860646597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7089,46 +7095,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412591E-2</c:v>
+                  <c:v>4.3547937569676703E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825182E-2</c:v>
+                  <c:v>8.7095875139353407E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17566048341765036</c:v>
+                  <c:v>0.17419175027870681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35132096683530073</c:v>
+                  <c:v>0.34838350055741363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70264193367060146</c:v>
+                  <c:v>0.69676700111482726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4052838673412029</c:v>
+                  <c:v>1.3935340022296545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8105677346824058</c:v>
+                  <c:v>2.787068004459309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6211354693648117</c:v>
+                  <c:v>5.574136008918618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4317032040472171</c:v>
+                  <c:v>8.3612040133779271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2748735244519391</c:v>
+                  <c:v>9.1973244147157196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8369870713884211</c:v>
+                  <c:v>9.7547380156075825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.399100618324901</c:v>
+                  <c:v>10.312151616499444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.961214165261383</c:v>
+                  <c:v>10.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.242270938729623</c:v>
+                  <c:v>11.148272017837236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7241,46 +7247,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.7830241708825186E-3</c:v>
+                  <c:v>8.70958751393534E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7566048341765037E-2</c:v>
+                  <c:v>1.741917502787068E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5132096683530074E-2</c:v>
+                  <c:v>3.483835005574136E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0264193367060149E-2</c:v>
+                  <c:v>6.967670011148272E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1405283867341203</c:v>
+                  <c:v>0.13935340022296544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28105677346824059</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56211354693648119</c:v>
+                  <c:v>0.55741360089186176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1242270938729624</c:v>
+                  <c:v>1.1148272017837235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6863406408094435</c:v>
+                  <c:v>1.6722408026755851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8549747048903877</c:v>
+                  <c:v>1.8394648829431435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9673974142776842</c:v>
+                  <c:v>1.950947603121516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0798201236649803</c:v>
+                  <c:v>2.0624303232998886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1922428330522767</c:v>
+                  <c:v>2.1739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2484541877459248</c:v>
+                  <c:v>2.229654403567447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7390,46 +7396,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412584E-3</c:v>
+                  <c:v>4.3547937569676691E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825169E-3</c:v>
+                  <c:v>8.7095875139353383E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7566048341765034E-2</c:v>
+                  <c:v>1.7419175027870677E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5132096683530067E-2</c:v>
+                  <c:v>3.4838350055741353E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0264193367060135E-2</c:v>
+                  <c:v>6.9676700111482706E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14052838673412027</c:v>
+                  <c:v>0.13935340022296541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28105677346824054</c:v>
+                  <c:v>0.27870680044593082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56211354693648108</c:v>
+                  <c:v>0.55741360089186165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84317032040472173</c:v>
+                  <c:v>0.83612040133779253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92748735244519387</c:v>
+                  <c:v>0.91973244147157185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.983698707138842</c:v>
+                  <c:v>0.97547380156075791</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0399100618324901</c:v>
+                  <c:v>1.0312151616499441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0961214165261381</c:v>
+                  <c:v>1.0869565217391304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1242270938729622</c:v>
+                  <c:v>1.1148272017837233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7541,46 +7547,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412593E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825186E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7566048341765037E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5132096683530074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0264193367060149E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1405283867341203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28105677346824059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56211354693648119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84317032040472173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92748735244519387</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98369870713884211</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0399100618324901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0961214165261384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1242270938729624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11391,7 +11397,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>103</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11720,46 +11726,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11860,46 +11866,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12003,46 +12009,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12140,46 +12146,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12547,46 +12553,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12696,46 +12702,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12845,46 +12851,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13262,46 +13268,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13402,46 +13408,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13545,46 +13551,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13682,46 +13688,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.634584259256</c:v>
+                  <c:v>43946.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.634584259256</c:v>
+                  <c:v>43949.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.634584259256</c:v>
+                  <c:v>43952.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.634584259256</c:v>
+                  <c:v>43955.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.634584259256</c:v>
+                  <c:v>43958.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.634584259256</c:v>
+                  <c:v>43961.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.634584259256</c:v>
+                  <c:v>43964.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.634584259256</c:v>
+                  <c:v>43967.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.634584259256</c:v>
+                  <c:v>43970.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.634584259256</c:v>
+                  <c:v>43973.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.634584259256</c:v>
+                  <c:v>43976.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.634584259256</c:v>
+                  <c:v>43979.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.634584259256</c:v>
+                  <c:v>43982.712582754626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.634584259256</c:v>
+                  <c:v>43985.712582754626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15184,46 +15190,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0627459246767847</c:v>
+                  <c:v>1.0538600891861762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1254918493535695</c:v>
+                  <c:v>2.1077201783723525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.250983698707139</c:v>
+                  <c:v>4.215440356744705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.501967397414278</c:v>
+                  <c:v>8.4308807134894099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.003934794828556</c:v>
+                  <c:v>16.86176142697882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.007869589657112</c:v>
+                  <c:v>33.72352285395764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.015739179314224</c:v>
+                  <c:v>67.447045707915279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.03147835862845</c:v>
+                  <c:v>134.89409141583056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>204.04721753794266</c:v>
+                  <c:v>202.34113712374582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.45193929173692</c:v>
+                  <c:v>222.57525083612043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>238.05508712759979</c:v>
+                  <c:v>236.06465997770349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251.65823496346263</c:v>
+                  <c:v>249.55406911928654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.26138279932547</c:v>
+                  <c:v>263.04347826086956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.0629567172569</c:v>
+                  <c:v>269.78818283166112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15335,46 +15341,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.2936340640809441</c:v>
+                  <c:v>3.287869286510591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5872681281618881</c:v>
+                  <c:v>6.5757385730211819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.174536256323776</c:v>
+                  <c:v>13.151477146042364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.349072512647552</c:v>
+                  <c:v>26.302954292084728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.698145025295105</c:v>
+                  <c:v>52.605908584169455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.39629005059021</c:v>
+                  <c:v>105.21181716833891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210.79258010118042</c:v>
+                  <c:v>210.42363433667782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421.58516020236084</c:v>
+                  <c:v>420.84726867335564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>632.37774030354126</c:v>
+                  <c:v>631.27090301003352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>695.61551433389548</c:v>
+                  <c:v>694.39799331103677</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>737.77403035413147</c:v>
+                  <c:v>736.48272017837235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>779.93254637436758</c:v>
+                  <c:v>778.56744704570792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>822.09106239460368</c:v>
+                  <c:v>820.6521739130435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>843.17032040472168</c:v>
+                  <c:v>841.69453734671129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15486,46 +15492,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0985455311973018</c:v>
+                  <c:v>5.0733347268673361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.197091062394604</c:v>
+                  <c:v>10.146669453734672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.394182124789207</c:v>
+                  <c:v>20.293338907469344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.788364249578414</c:v>
+                  <c:v>40.586677814938689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.576728499156829</c:v>
+                  <c:v>81.173355629877378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163.15345699831366</c:v>
+                  <c:v>162.34671125975476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>326.30691399662732</c:v>
+                  <c:v>324.69342251950951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>652.61382799325463</c:v>
+                  <c:v>649.38684503901902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>978.92074198988189</c:v>
+                  <c:v>974.08026755852848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1076.8128161888701</c:v>
+                  <c:v>1071.4882943143814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1142.0741989881956</c:v>
+                  <c:v>1136.4269788182833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1207.3355817875211</c:v>
+                  <c:v>1201.3656633221851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1272.5969645868465</c:v>
+                  <c:v>1266.304347826087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1305.2276559865093</c:v>
+                  <c:v>1298.773690078038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15638,46 +15644,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9536256323777401</c:v>
+                  <c:v>4.9296265328874025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9072512647554802</c:v>
+                  <c:v>9.859253065774805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.81450252951096</c:v>
+                  <c:v>19.71850613154961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.629005059021921</c:v>
+                  <c:v>39.43701226309922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.258010118043842</c:v>
+                  <c:v>78.87402452619844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.51602023608768</c:v>
+                  <c:v>157.74804905239688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.03204047217537</c:v>
+                  <c:v>315.49609810479376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>634.06408094435074</c:v>
+                  <c:v>630.99219620958752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>951.0961214165261</c:v>
+                  <c:v>946.48829431438116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1046.2057335581787</c:v>
+                  <c:v>1041.1371237458193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1109.6121416526139</c:v>
+                  <c:v>1104.2363433667781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1173.0185497470488</c:v>
+                  <c:v>1167.3355629877369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1236.424957841484</c:v>
+                  <c:v>1230.4347826086955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1268.1281618887015</c:v>
+                  <c:v>1261.984392419175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15790,46 +15796,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.969926925238898</c:v>
+                  <c:v>3.9802814938684499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.939853850477796</c:v>
+                  <c:v>7.9605629877368997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.879707700955592</c:v>
+                  <c:v>15.921125975473799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.759415401911184</c:v>
+                  <c:v>31.842251950947599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.518830803822368</c:v>
+                  <c:v>63.684503901895198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.03766160764474</c:v>
+                  <c:v>127.3690078037904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254.07532321528947</c:v>
+                  <c:v>254.73801560758079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>508.15064643057895</c:v>
+                  <c:v>509.47603121516158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>762.22596964586842</c:v>
+                  <c:v>764.21404682274238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>838.44856661045526</c:v>
+                  <c:v>840.6354515050167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>889.26363125351315</c:v>
+                  <c:v>891.58305462653277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>940.07869589657105</c:v>
+                  <c:v>942.53065774804895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>990.89376053962894</c:v>
+                  <c:v>993.47826086956513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1016.3012928611579</c:v>
+                  <c:v>1018.9520624303232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15941,46 +15947,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9536256323777401</c:v>
+                  <c:v>4.9688196767001109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9072512647554802</c:v>
+                  <c:v>9.9376393534002219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.81450252951096</c:v>
+                  <c:v>19.875278706800444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.629005059021921</c:v>
+                  <c:v>39.750557413600887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.258010118043842</c:v>
+                  <c:v>79.501114827201775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.51602023608768</c:v>
+                  <c:v>159.00222965440355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.03204047217537</c:v>
+                  <c:v>318.0044593088071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>634.06408094435074</c:v>
+                  <c:v>636.0089186176142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>951.0961214165261</c:v>
+                  <c:v>954.0133779264213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1046.2057335581787</c:v>
+                  <c:v>1049.4147157190635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1109.6121416526139</c:v>
+                  <c:v>1113.015607580825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1173.0185497470488</c:v>
+                  <c:v>1176.6164994425862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1236.424957841484</c:v>
+                  <c:v>1240.2173913043478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1268.1281618887015</c:v>
+                  <c:v>1272.0178372352284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16090,46 +16096,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6.5213954468802697</c:v>
+                  <c:v>6.4973522853957641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.042790893760539</c:v>
+                  <c:v>12.994704570791528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.085581787521079</c:v>
+                  <c:v>25.989409141583057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.171163575042158</c:v>
+                  <c:v>51.978818283166113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.34232715008432</c:v>
+                  <c:v>103.95763656633223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.68465430016863</c:v>
+                  <c:v>207.91527313266445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>417.36930860033726</c:v>
+                  <c:v>415.83054626532891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>834.73861720067453</c:v>
+                  <c:v>831.66109253065781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1252.1079258010118</c:v>
+                  <c:v>1247.4916387959868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1377.3187183811131</c:v>
+                  <c:v>1372.2408026755854</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1460.7925801011804</c:v>
+                  <c:v>1455.4069119286512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1544.266441821248</c:v>
+                  <c:v>1538.573021181717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1627.7403035413154</c:v>
+                  <c:v>1621.7391304347827</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1669.4772344013491</c:v>
+                  <c:v>1663.3221850613156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16242,46 +16248,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.98809021922428331</c:v>
+                  <c:v>1.0146669453734669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9761804384485666</c:v>
+                  <c:v>2.0293338907469338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9523608768971332</c:v>
+                  <c:v>4.0586677814938676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9047217537942664</c:v>
+                  <c:v>8.1173355629877353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.809443507588533</c:v>
+                  <c:v>16.234671125975471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.618887015177066</c:v>
+                  <c:v>32.469342251950941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.237774030354132</c:v>
+                  <c:v>64.938684503901882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126.47554806070826</c:v>
+                  <c:v>129.87736900780376</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.71332209106239</c:v>
+                  <c:v>194.81605351170566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.68465430016863</c:v>
+                  <c:v>214.29765886287623</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>221.33220910623947</c:v>
+                  <c:v>227.28539576365662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>233.97976391231029</c:v>
+                  <c:v>240.27313266443699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>246.6273187183811</c:v>
+                  <c:v>253.26086956521738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>252.95109612141653</c:v>
+                  <c:v>259.75473801560753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16393,46 +16399,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.40841062394603711</c:v>
+                  <c:v>0.44418896321070234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81682124789207422</c:v>
+                  <c:v>0.88837792642140467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6336424957841484</c:v>
+                  <c:v>1.7767558528428093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2672849915682969</c:v>
+                  <c:v>3.5535117056856187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5345699831365938</c:v>
+                  <c:v>7.1070234113712374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.069139966273188</c:v>
+                  <c:v>14.214046822742475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.138279932546375</c:v>
+                  <c:v>28.42809364548495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.27655986509275</c:v>
+                  <c:v>56.856187290969899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.414839797639118</c:v>
+                  <c:v>85.284280936454849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.25632377740304</c:v>
+                  <c:v>93.812709030100322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.483979763912302</c:v>
+                  <c:v>99.498327759197323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.711635750421578</c:v>
+                  <c:v>105.18394648829431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.93929173693085</c:v>
+                  <c:v>110.8695652173913</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.5531197301855</c:v>
+                  <c:v>113.7123745819398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16823,46 +16829,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.24153316469926925</c:v>
+                  <c:v>0.23951365663322186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4830663293985385</c:v>
+                  <c:v>0.47902731326644371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96613265879707699</c:v>
+                  <c:v>0.95805462653288742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.932265317594154</c:v>
+                  <c:v>1.9161092530657748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.864530635188308</c:v>
+                  <c:v>3.8322185061315497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7290612703766159</c:v>
+                  <c:v>7.6644370122630994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.458122540753232</c:v>
+                  <c:v>15.328874024526199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.916245081506464</c:v>
+                  <c:v>30.657748049052397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.37436762225969</c:v>
+                  <c:v>45.986622073578594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.011804384485664</c:v>
+                  <c:v>50.585284280936463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.103428892636316</c:v>
+                  <c:v>53.651059085841702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.195053400786961</c:v>
+                  <c:v>56.71683389074694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.286677908937605</c:v>
+                  <c:v>59.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.832490163012928</c:v>
+                  <c:v>61.315496098104795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16974,46 +16980,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.1493114109050028</c:v>
+                  <c:v>0.14806298773690077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2986228218100056</c:v>
+                  <c:v>0.29612597547380154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5972456436200112</c:v>
+                  <c:v>0.59225195094760308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1944912872400224</c:v>
+                  <c:v>1.1845039018952062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3889825744800448</c:v>
+                  <c:v>2.3690078037904123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7779651489600896</c:v>
+                  <c:v>4.7380156075808246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5559302979201792</c:v>
+                  <c:v>9.4760312151616493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.111860595840358</c:v>
+                  <c:v>18.952062430323299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.667790893760539</c:v>
+                  <c:v>28.428093645484953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.534569983136596</c:v>
+                  <c:v>31.270903010033443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.445756042720632</c:v>
+                  <c:v>33.16610925306577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.356942102304664</c:v>
+                  <c:v>35.061315496098103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.268128161888704</c:v>
+                  <c:v>36.956521739130437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.223721191680717</c:v>
+                  <c:v>37.904124860646597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17125,46 +17131,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412591E-2</c:v>
+                  <c:v>4.3547937569676703E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825182E-2</c:v>
+                  <c:v>8.7095875139353407E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17566048341765036</c:v>
+                  <c:v>0.17419175027870681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35132096683530073</c:v>
+                  <c:v>0.34838350055741363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70264193367060146</c:v>
+                  <c:v>0.69676700111482726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4052838673412029</c:v>
+                  <c:v>1.3935340022296545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8105677346824058</c:v>
+                  <c:v>2.787068004459309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6211354693648117</c:v>
+                  <c:v>5.574136008918618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4317032040472171</c:v>
+                  <c:v>8.3612040133779271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2748735244519391</c:v>
+                  <c:v>9.1973244147157196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8369870713884211</c:v>
+                  <c:v>9.7547380156075825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.399100618324901</c:v>
+                  <c:v>10.312151616499444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.961214165261383</c:v>
+                  <c:v>10.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.242270938729623</c:v>
+                  <c:v>11.148272017837236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17277,46 +17283,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.7830241708825186E-3</c:v>
+                  <c:v>8.70958751393534E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7566048341765037E-2</c:v>
+                  <c:v>1.741917502787068E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5132096683530074E-2</c:v>
+                  <c:v>3.483835005574136E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0264193367060149E-2</c:v>
+                  <c:v>6.967670011148272E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1405283867341203</c:v>
+                  <c:v>0.13935340022296544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28105677346824059</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56211354693648119</c:v>
+                  <c:v>0.55741360089186176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1242270938729624</c:v>
+                  <c:v>1.1148272017837235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6863406408094435</c:v>
+                  <c:v>1.6722408026755851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8549747048903877</c:v>
+                  <c:v>1.8394648829431435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9673974142776842</c:v>
+                  <c:v>1.950947603121516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0798201236649803</c:v>
+                  <c:v>2.0624303232998886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1922428330522767</c:v>
+                  <c:v>2.1739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2484541877459248</c:v>
+                  <c:v>2.229654403567447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17426,46 +17432,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412584E-3</c:v>
+                  <c:v>4.3547937569676691E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825169E-3</c:v>
+                  <c:v>8.7095875139353383E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7566048341765034E-2</c:v>
+                  <c:v>1.7419175027870677E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5132096683530067E-2</c:v>
+                  <c:v>3.4838350055741353E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0264193367060135E-2</c:v>
+                  <c:v>6.9676700111482706E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14052838673412027</c:v>
+                  <c:v>0.13935340022296541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28105677346824054</c:v>
+                  <c:v>0.27870680044593082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56211354693648108</c:v>
+                  <c:v>0.55741360089186165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84317032040472173</c:v>
+                  <c:v>0.83612040133779253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92748735244519387</c:v>
+                  <c:v>0.91973244147157185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.983698707138842</c:v>
+                  <c:v>0.97547380156075791</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0399100618324901</c:v>
+                  <c:v>1.0312151616499441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0961214165261381</c:v>
+                  <c:v>1.0869565217391304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1242270938729622</c:v>
+                  <c:v>1.1148272017837233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17577,46 +17583,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.3915120854412593E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7830241708825186E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7566048341765037E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5132096683530074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0264193367060149E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1405283867341203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28105677346824059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56211354693648119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84317032040472173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92748735244519387</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98369870713884211</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0399100618324901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0961214165261384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1242270938729624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32241,167 +32247,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43941.634584259256</v>
+        <v>43946.712582754626</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43942.634584259256</v>
+        <v>43947.712582754626</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43943.634584259256</v>
+        <v>43948.712582754626</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43944.634584259256</v>
+        <v>43949.712582754626</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43945.634584259256</v>
+        <v>43950.712582754626</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43946.634584259256</v>
+        <v>43951.712582754626</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43947.634584259256</v>
+        <v>43952.712582754626</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43948.634584259256</v>
+        <v>43953.712582754626</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43949.634584259256</v>
+        <v>43954.712582754626</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43950.634584259256</v>
+        <v>43955.712582754626</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43951.634584259256</v>
+        <v>43956.712582754626</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43952.634584259256</v>
+        <v>43957.712582754626</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43953.634584259256</v>
+        <v>43958.712582754626</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43954.634584259256</v>
+        <v>43959.712582754626</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43955.634584259256</v>
+        <v>43960.712582754626</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43956.634584259256</v>
+        <v>43961.712582754626</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43957.634584259256</v>
+        <v>43962.712582754626</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43958.634584259256</v>
+        <v>43963.712582754626</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43959.634584259256</v>
+        <v>43964.712582754626</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43960.634584259256</v>
+        <v>43965.712582754626</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43961.634584259256</v>
+        <v>43966.712582754626</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.634584259256</v>
+        <v>43967.712582754626</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.634584259256</v>
+        <v>43968.712582754626</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.634584259256</v>
+        <v>43969.712582754626</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43965.634584259256</v>
+        <v>43970.712582754626</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43966.634584259256</v>
+        <v>43971.712582754626</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43967.634584259256</v>
+        <v>43972.712582754626</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43968.634584259256</v>
+        <v>43973.712582754626</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43969.634584259256</v>
+        <v>43974.712582754626</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43970.634584259256</v>
+        <v>43975.712582754626</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43971.634584259256</v>
+        <v>43976.712582754626</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43972.634584259256</v>
+        <v>43977.712582754626</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43973.634584259256</v>
+        <v>43978.712582754626</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43974.634584259256</v>
+        <v>43979.712582754626</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43975.634584259256</v>
+        <v>43980.712582754626</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43976.634584259256</v>
+        <v>43981.712582754626</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43977.634584259256</v>
+        <v>43982.712582754626</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43978.634584259256</v>
+        <v>43983.712582754626</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43979.634584259256</v>
+        <v>43984.712582754626</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>43980.634584259256</v>
+        <v>43985.712582754626</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>43981.634584259256</v>
+        <v>43986.712582754626</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32920,7 +32926,7 @@
   <dimension ref="A1:AJ105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36507,7 +36513,7 @@
         <v>6337</v>
       </c>
       <c r="R64" s="249">
-        <v>6605</v>
+        <v>6648</v>
       </c>
       <c r="S64" s="249"/>
       <c r="T64" s="249"/>
@@ -36568,7 +36574,7 @@
         <v>98</v>
       </c>
       <c r="R65" s="250">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S65" s="250"/>
       <c r="T65" s="250"/>
@@ -36679,113 +36685,113 @@
       </c>
       <c r="D69" s="34">
         <f>'AU Infection Rate by Age'!E4</f>
-        <v>3.4007869589657111E-2</v>
+        <v>3.372352285395764E-2</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="28"/>
       <c r="G69" s="30">
         <f t="shared" ref="G69:AF69" si="62">G$37*$D$69</f>
-        <v>1.0627459246767847</v>
+        <v>1.0538600891861762</v>
       </c>
       <c r="H69" s="31">
         <f t="shared" si="62"/>
-        <v>2.1254918493535695</v>
+        <v>2.1077201783723525</v>
       </c>
       <c r="I69" s="31">
         <f t="shared" si="62"/>
-        <v>4.250983698707139</v>
+        <v>4.215440356744705</v>
       </c>
       <c r="J69" s="31">
         <f t="shared" si="62"/>
-        <v>8.501967397414278</v>
+        <v>8.4308807134894099</v>
       </c>
       <c r="K69" s="31">
         <f t="shared" si="62"/>
-        <v>17.003934794828556</v>
+        <v>16.86176142697882</v>
       </c>
       <c r="L69" s="31">
         <f t="shared" si="62"/>
-        <v>34.007869589657112</v>
+        <v>33.72352285395764</v>
       </c>
       <c r="M69" s="31">
         <f t="shared" si="62"/>
-        <v>68.015739179314224</v>
+        <v>67.447045707915279</v>
       </c>
       <c r="N69" s="31">
         <f t="shared" si="62"/>
-        <v>136.03147835862845</v>
+        <v>134.89409141583056</v>
       </c>
       <c r="O69" s="31">
         <f t="shared" si="62"/>
-        <v>204.04721753794266</v>
+        <v>202.34113712374582</v>
       </c>
       <c r="P69" s="31">
         <f t="shared" si="62"/>
-        <v>224.45193929173692</v>
+        <v>222.57525083612043</v>
       </c>
       <c r="Q69" s="31">
         <f t="shared" si="62"/>
-        <v>238.05508712759979</v>
+        <v>236.06465997770349</v>
       </c>
       <c r="R69" s="31">
         <f t="shared" si="62"/>
-        <v>251.65823496346263</v>
+        <v>249.55406911928654</v>
       </c>
       <c r="S69" s="31">
         <f t="shared" si="62"/>
-        <v>265.26138279932547</v>
+        <v>263.04347826086956</v>
       </c>
       <c r="T69" s="31">
         <f t="shared" si="62"/>
-        <v>272.0629567172569</v>
+        <v>269.78818283166112</v>
       </c>
       <c r="U69" s="31">
         <f t="shared" si="62"/>
-        <v>544.12591343451379</v>
+        <v>539.57636566332224</v>
       </c>
       <c r="V69" s="31">
         <f t="shared" si="62"/>
-        <v>1088.2518268690276</v>
+        <v>1079.1527313266445</v>
       </c>
       <c r="W69" s="31">
         <f t="shared" si="62"/>
-        <v>2176.5036537380552</v>
+        <v>2158.3054626532889</v>
       </c>
       <c r="X69" s="31">
         <f t="shared" si="62"/>
-        <v>4353.0073074761103</v>
+        <v>4316.6109253065779</v>
       </c>
       <c r="Y69" s="31">
         <f t="shared" si="62"/>
-        <v>8706.0146149522207</v>
+        <v>8633.2218506131558</v>
       </c>
       <c r="Z69" s="31">
         <f t="shared" si="62"/>
-        <v>17412.029229904441</v>
+        <v>17266.443701226312</v>
       </c>
       <c r="AA69" s="31">
         <f t="shared" si="62"/>
-        <v>34824.058459808883</v>
+        <v>34532.887402452623</v>
       </c>
       <c r="AB69" s="31">
         <f t="shared" si="62"/>
-        <v>69648.116919617765</v>
+        <v>69065.774804905246</v>
       </c>
       <c r="AC69" s="31">
         <f t="shared" si="62"/>
-        <v>139296.23383923553</v>
+        <v>138131.54960981049</v>
       </c>
       <c r="AD69" s="72">
         <f t="shared" si="62"/>
-        <v>278592.46767847106</v>
+        <v>276263.09921962098</v>
       </c>
       <c r="AE69" s="31">
         <f t="shared" si="62"/>
-        <v>557184.93535694212</v>
+        <v>552526.19843924197</v>
       </c>
       <c r="AF69" s="72">
         <f t="shared" si="62"/>
-        <v>871757.72906127037</v>
+        <v>864468.78483835014</v>
       </c>
       <c r="AG69" s="57"/>
     </row>
@@ -36801,107 +36807,107 @@
       <c r="F70" s="22"/>
       <c r="G70" s="41">
         <f t="shared" ref="G70:AF70" si="63">G$37*$D$69*$E$70</f>
-        <v>0.24153316469926925</v>
+        <v>0.23951365663322186</v>
       </c>
       <c r="H70" s="42">
         <f t="shared" si="63"/>
-        <v>0.4830663293985385</v>
+        <v>0.47902731326644371</v>
       </c>
       <c r="I70" s="42">
         <f t="shared" si="63"/>
-        <v>0.96613265879707699</v>
+        <v>0.95805462653288742</v>
       </c>
       <c r="J70" s="42">
         <f t="shared" si="63"/>
-        <v>1.932265317594154</v>
+        <v>1.9161092530657748</v>
       </c>
       <c r="K70" s="42">
         <f t="shared" si="63"/>
-        <v>3.864530635188308</v>
+        <v>3.8322185061315497</v>
       </c>
       <c r="L70" s="42">
         <f t="shared" si="63"/>
-        <v>7.7290612703766159</v>
+        <v>7.6644370122630994</v>
       </c>
       <c r="M70" s="42">
         <f t="shared" si="63"/>
-        <v>15.458122540753232</v>
+        <v>15.328874024526199</v>
       </c>
       <c r="N70" s="42">
         <f t="shared" si="63"/>
-        <v>30.916245081506464</v>
+        <v>30.657748049052397</v>
       </c>
       <c r="O70" s="42">
         <f t="shared" si="63"/>
-        <v>46.37436762225969</v>
+        <v>45.986622073578594</v>
       </c>
       <c r="P70" s="42">
         <f t="shared" si="63"/>
-        <v>51.011804384485664</v>
+        <v>50.585284280936463</v>
       </c>
       <c r="Q70" s="42">
         <f t="shared" si="63"/>
-        <v>54.103428892636316</v>
+        <v>53.651059085841702</v>
       </c>
       <c r="R70" s="42">
         <f t="shared" si="63"/>
-        <v>57.195053400786961</v>
+        <v>56.71683389074694</v>
       </c>
       <c r="S70" s="42">
         <f t="shared" si="63"/>
-        <v>60.286677908937605</v>
+        <v>59.782608695652172</v>
       </c>
       <c r="T70" s="42">
         <f t="shared" si="63"/>
-        <v>61.832490163012928</v>
+        <v>61.315496098104795</v>
       </c>
       <c r="U70" s="42">
         <f t="shared" si="63"/>
-        <v>123.66498032602586</v>
+        <v>122.63099219620959</v>
       </c>
       <c r="V70" s="42">
         <f t="shared" si="63"/>
-        <v>247.32996065205171</v>
+        <v>245.26198439241918</v>
       </c>
       <c r="W70" s="42">
         <f t="shared" si="63"/>
-        <v>494.65992130410342</v>
+        <v>490.52396878483836</v>
       </c>
       <c r="X70" s="42">
         <f t="shared" si="63"/>
-        <v>989.31984260820684</v>
+        <v>981.04793756967672</v>
       </c>
       <c r="Y70" s="42">
         <f t="shared" si="63"/>
-        <v>1978.6396852164137</v>
+        <v>1962.0958751393534</v>
       </c>
       <c r="Z70" s="42">
         <f t="shared" si="63"/>
-        <v>3957.2793704328274</v>
+        <v>3924.1917502787069</v>
       </c>
       <c r="AA70" s="42">
         <f t="shared" si="63"/>
-        <v>7914.5587408656547</v>
+        <v>7848.3835005574138</v>
       </c>
       <c r="AB70" s="42">
         <f t="shared" si="63"/>
-        <v>15829.117481731309</v>
+        <v>15696.767001114828</v>
       </c>
       <c r="AC70" s="42">
         <f t="shared" si="63"/>
-        <v>31658.234963462619</v>
+        <v>31393.534002229655</v>
       </c>
       <c r="AD70" s="83">
         <f t="shared" si="63"/>
-        <v>63316.469926925238</v>
+        <v>62787.06800445931</v>
       </c>
       <c r="AE70" s="42">
         <f t="shared" si="63"/>
-        <v>126632.93985385048</v>
+        <v>125574.13600891862</v>
       </c>
       <c r="AF70" s="83">
         <f t="shared" si="63"/>
-        <v>198126.75660483417</v>
+        <v>196470.1783723523</v>
       </c>
       <c r="AG70" s="57"/>
     </row>
@@ -36919,113 +36925,113 @@
       </c>
       <c r="D71" s="35">
         <f>'AU Infection Rate by Age'!E5</f>
-        <v>0.10539629005059022</v>
+        <v>0.10521181716833891</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="28"/>
       <c r="G71" s="32">
         <f t="shared" ref="G71:AF71" si="65">G$37*$D$71</f>
-        <v>3.2936340640809441</v>
+        <v>3.287869286510591</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="65"/>
-        <v>6.5872681281618881</v>
+        <v>6.5757385730211819</v>
       </c>
       <c r="I71" s="33">
         <f t="shared" si="65"/>
-        <v>13.174536256323776</v>
+        <v>13.151477146042364</v>
       </c>
       <c r="J71" s="33">
         <f t="shared" si="65"/>
-        <v>26.349072512647552</v>
+        <v>26.302954292084728</v>
       </c>
       <c r="K71" s="33">
         <f t="shared" si="65"/>
-        <v>52.698145025295105</v>
+        <v>52.605908584169455</v>
       </c>
       <c r="L71" s="33">
         <f t="shared" si="65"/>
-        <v>105.39629005059021</v>
+        <v>105.21181716833891</v>
       </c>
       <c r="M71" s="33">
         <f t="shared" si="65"/>
-        <v>210.79258010118042</v>
+        <v>210.42363433667782</v>
       </c>
       <c r="N71" s="33">
         <f t="shared" si="65"/>
-        <v>421.58516020236084</v>
+        <v>420.84726867335564</v>
       </c>
       <c r="O71" s="33">
         <f t="shared" si="65"/>
-        <v>632.37774030354126</v>
+        <v>631.27090301003352</v>
       </c>
       <c r="P71" s="33">
         <f t="shared" si="65"/>
-        <v>695.61551433389548</v>
+        <v>694.39799331103677</v>
       </c>
       <c r="Q71" s="33">
         <f t="shared" si="65"/>
-        <v>737.77403035413147</v>
+        <v>736.48272017837235</v>
       </c>
       <c r="R71" s="33">
         <f t="shared" si="65"/>
-        <v>779.93254637436758</v>
+        <v>778.56744704570792</v>
       </c>
       <c r="S71" s="33">
         <f t="shared" si="65"/>
-        <v>822.09106239460368</v>
+        <v>820.6521739130435</v>
       </c>
       <c r="T71" s="33">
         <f t="shared" si="65"/>
-        <v>843.17032040472168</v>
+        <v>841.69453734671129</v>
       </c>
       <c r="U71" s="33">
         <f t="shared" si="65"/>
-        <v>1686.3406408094434</v>
+        <v>1683.3890746934226</v>
       </c>
       <c r="V71" s="33">
         <f t="shared" si="65"/>
-        <v>3372.6812816188867</v>
+        <v>3366.7781493868451</v>
       </c>
       <c r="W71" s="33">
         <f t="shared" si="65"/>
-        <v>6745.3625632377734</v>
+        <v>6733.5562987736903</v>
       </c>
       <c r="X71" s="33">
         <f t="shared" si="65"/>
-        <v>13490.725126475547</v>
+        <v>13467.112597547381</v>
       </c>
       <c r="Y71" s="33">
         <f t="shared" si="65"/>
-        <v>26981.450252951094</v>
+        <v>26934.225195094761</v>
       </c>
       <c r="Z71" s="33">
         <f t="shared" si="65"/>
-        <v>53962.900505902187</v>
+        <v>53868.450390189522</v>
       </c>
       <c r="AA71" s="33">
         <f t="shared" si="65"/>
-        <v>107925.80101180437</v>
+        <v>107736.90078037904</v>
       </c>
       <c r="AB71" s="33">
         <f t="shared" si="65"/>
-        <v>215851.60202360875</v>
+        <v>215473.80156075809</v>
       </c>
       <c r="AC71" s="33">
         <f t="shared" si="65"/>
-        <v>431703.2040472175</v>
+        <v>430947.60312151618</v>
       </c>
       <c r="AD71" s="84">
         <f t="shared" si="65"/>
-        <v>863406.408094435</v>
+        <v>861895.20624303236</v>
       </c>
       <c r="AE71" s="33">
         <f t="shared" si="65"/>
-        <v>1726812.81618887</v>
+        <v>1723790.4124860647</v>
       </c>
       <c r="AF71" s="84">
         <f t="shared" si="65"/>
-        <v>2701728.4991568294</v>
+        <v>2696999.7212931998</v>
       </c>
       <c r="AG71" s="57"/>
     </row>
@@ -37036,112 +37042,112 @@
       <c r="D72" s="20"/>
       <c r="E72" s="39">
         <f>'AU Infection Rate by Age'!F19</f>
-        <v>4.5333333333333337E-2</v>
+        <v>4.5033112582781455E-2</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="41">
         <f t="shared" ref="G72:AF72" si="66">G$37*$D$71*$E$72</f>
-        <v>0.1493114109050028</v>
+        <v>0.14806298773690077</v>
       </c>
       <c r="H72" s="42">
         <f t="shared" si="66"/>
-        <v>0.2986228218100056</v>
+        <v>0.29612597547380154</v>
       </c>
       <c r="I72" s="42">
         <f t="shared" si="66"/>
-        <v>0.5972456436200112</v>
+        <v>0.59225195094760308</v>
       </c>
       <c r="J72" s="42">
         <f t="shared" si="66"/>
-        <v>1.1944912872400224</v>
+        <v>1.1845039018952062</v>
       </c>
       <c r="K72" s="42">
         <f t="shared" si="66"/>
-        <v>2.3889825744800448</v>
+        <v>2.3690078037904123</v>
       </c>
       <c r="L72" s="42">
         <f t="shared" si="66"/>
-        <v>4.7779651489600896</v>
+        <v>4.7380156075808246</v>
       </c>
       <c r="M72" s="42">
         <f t="shared" si="66"/>
-        <v>9.5559302979201792</v>
+        <v>9.4760312151616493</v>
       </c>
       <c r="N72" s="42">
         <f t="shared" si="66"/>
-        <v>19.111860595840358</v>
+        <v>18.952062430323299</v>
       </c>
       <c r="O72" s="42">
         <f t="shared" si="66"/>
-        <v>28.667790893760539</v>
+        <v>28.428093645484953</v>
       </c>
       <c r="P72" s="42">
         <f t="shared" si="66"/>
-        <v>31.534569983136596</v>
+        <v>31.270903010033443</v>
       </c>
       <c r="Q72" s="42">
         <f t="shared" si="66"/>
-        <v>33.445756042720632</v>
+        <v>33.16610925306577</v>
       </c>
       <c r="R72" s="42">
         <f t="shared" si="66"/>
-        <v>35.356942102304664</v>
+        <v>35.061315496098103</v>
       </c>
       <c r="S72" s="42">
         <f t="shared" si="66"/>
-        <v>37.268128161888704</v>
+        <v>36.956521739130437</v>
       </c>
       <c r="T72" s="42">
         <f t="shared" si="66"/>
-        <v>38.223721191680717</v>
+        <v>37.904124860646597</v>
       </c>
       <c r="U72" s="42">
         <f t="shared" si="66"/>
-        <v>76.447442383361434</v>
+        <v>75.808249721293194</v>
       </c>
       <c r="V72" s="42">
         <f t="shared" si="66"/>
-        <v>152.89488476672287</v>
+        <v>151.61649944258639</v>
       </c>
       <c r="W72" s="42">
         <f t="shared" si="66"/>
-        <v>305.78976953344574</v>
+        <v>303.23299888517278</v>
       </c>
       <c r="X72" s="42">
         <f t="shared" si="66"/>
-        <v>611.57953906689147</v>
+        <v>606.46599777034555</v>
       </c>
       <c r="Y72" s="42">
         <f t="shared" si="66"/>
-        <v>1223.1590781337829</v>
+        <v>1212.9319955406911</v>
       </c>
       <c r="Z72" s="42">
         <f t="shared" si="66"/>
-        <v>2446.3181562675659</v>
+        <v>2425.8639910813822</v>
       </c>
       <c r="AA72" s="42">
         <f t="shared" si="66"/>
-        <v>4892.6363125351318</v>
+        <v>4851.7279821627644</v>
       </c>
       <c r="AB72" s="42">
         <f t="shared" si="66"/>
-        <v>9785.2726250702635</v>
+        <v>9703.4559643255288</v>
       </c>
       <c r="AC72" s="42">
         <f t="shared" si="66"/>
-        <v>19570.545250140527</v>
+        <v>19406.911928651058</v>
       </c>
       <c r="AD72" s="83">
         <f t="shared" si="66"/>
-        <v>39141.090500281054</v>
+        <v>38813.823857302115</v>
       </c>
       <c r="AE72" s="42">
         <f t="shared" si="66"/>
-        <v>78282.181000562108</v>
+        <v>77627.647714604231</v>
       </c>
       <c r="AF72" s="83">
         <f t="shared" si="66"/>
-        <v>122478.35862844295</v>
+        <v>121454.29208472687</v>
       </c>
       <c r="AG72" s="57"/>
     </row>
@@ -37159,113 +37165,113 @@
       </c>
       <c r="D73" s="35">
         <f>'AU Infection Rate by Age'!E6</f>
-        <v>0.16315345699831366</v>
+        <v>0.16234671125975475</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="22"/>
       <c r="G73" s="32">
         <f t="shared" ref="G73:AF73" si="67">G$37*$D$73</f>
-        <v>5.0985455311973018</v>
+        <v>5.0733347268673361</v>
       </c>
       <c r="H73" s="33">
         <f t="shared" si="67"/>
-        <v>10.197091062394604</v>
+        <v>10.146669453734672</v>
       </c>
       <c r="I73" s="33">
         <f t="shared" si="67"/>
-        <v>20.394182124789207</v>
+        <v>20.293338907469344</v>
       </c>
       <c r="J73" s="33">
         <f t="shared" si="67"/>
-        <v>40.788364249578414</v>
+        <v>40.586677814938689</v>
       </c>
       <c r="K73" s="33">
         <f t="shared" si="67"/>
-        <v>81.576728499156829</v>
+        <v>81.173355629877378</v>
       </c>
       <c r="L73" s="33">
         <f t="shared" si="67"/>
-        <v>163.15345699831366</v>
+        <v>162.34671125975476</v>
       </c>
       <c r="M73" s="33">
         <f t="shared" si="67"/>
-        <v>326.30691399662732</v>
+        <v>324.69342251950951</v>
       </c>
       <c r="N73" s="33">
         <f t="shared" si="67"/>
-        <v>652.61382799325463</v>
+        <v>649.38684503901902</v>
       </c>
       <c r="O73" s="33">
         <f t="shared" si="67"/>
-        <v>978.92074198988189</v>
+        <v>974.08026755852848</v>
       </c>
       <c r="P73" s="33">
         <f t="shared" si="67"/>
-        <v>1076.8128161888701</v>
+        <v>1071.4882943143814</v>
       </c>
       <c r="Q73" s="33">
         <f t="shared" si="67"/>
-        <v>1142.0741989881956</v>
+        <v>1136.4269788182833</v>
       </c>
       <c r="R73" s="33">
         <f t="shared" si="67"/>
-        <v>1207.3355817875211</v>
+        <v>1201.3656633221851</v>
       </c>
       <c r="S73" s="33">
         <f t="shared" si="67"/>
-        <v>1272.5969645868465</v>
+        <v>1266.304347826087</v>
       </c>
       <c r="T73" s="33">
         <f t="shared" si="67"/>
-        <v>1305.2276559865093</v>
+        <v>1298.773690078038</v>
       </c>
       <c r="U73" s="33">
         <f t="shared" si="67"/>
-        <v>2610.4553119730185</v>
+        <v>2597.5473801560761</v>
       </c>
       <c r="V73" s="33">
         <f t="shared" si="67"/>
-        <v>5220.910623946037</v>
+        <v>5195.0947603121522</v>
       </c>
       <c r="W73" s="33">
         <f t="shared" si="67"/>
-        <v>10441.821247892074</v>
+        <v>10390.189520624304</v>
       </c>
       <c r="X73" s="33">
         <f t="shared" si="67"/>
-        <v>20883.642495784148</v>
+        <v>20780.379041248609</v>
       </c>
       <c r="Y73" s="33">
         <f t="shared" si="67"/>
-        <v>41767.284991568296</v>
+        <v>41560.758082497217</v>
       </c>
       <c r="Z73" s="33">
         <f t="shared" si="67"/>
-        <v>83534.569983136593</v>
+        <v>83121.516164994435</v>
       </c>
       <c r="AA73" s="33">
         <f t="shared" si="67"/>
-        <v>167069.13996627319</v>
+        <v>166243.03232998887</v>
       </c>
       <c r="AB73" s="33">
         <f t="shared" si="67"/>
-        <v>334138.27993254637</v>
+        <v>332486.06465997774</v>
       </c>
       <c r="AC73" s="33">
         <f t="shared" si="67"/>
-        <v>668276.55986509274</v>
+        <v>664972.12931995548</v>
       </c>
       <c r="AD73" s="84">
         <f t="shared" si="67"/>
-        <v>1336553.1197301855</v>
+        <v>1329944.258639911</v>
       </c>
       <c r="AE73" s="33">
         <f t="shared" si="67"/>
-        <v>2673106.239460371</v>
+        <v>2659888.5172798219</v>
       </c>
       <c r="AF73" s="84">
         <f t="shared" si="67"/>
-        <v>4182275.7166947722</v>
+        <v>4161595.5964325531</v>
       </c>
       <c r="AG73" s="57"/>
     </row>
@@ -37276,112 +37282,112 @@
       <c r="D74" s="20"/>
       <c r="E74" s="39">
         <f>'AU Infection Rate by Age'!F20</f>
-        <v>8.6132644272179162E-3</v>
+        <v>8.5836909871244635E-3</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="41">
         <f t="shared" ref="G74:AF74" si="68">G$37*$D$73*$E$74</f>
-        <v>4.3915120854412591E-2</v>
+        <v>4.3547937569676703E-2</v>
       </c>
       <c r="H74" s="42">
         <f t="shared" si="68"/>
-        <v>8.7830241708825182E-2</v>
+        <v>8.7095875139353407E-2</v>
       </c>
       <c r="I74" s="42">
         <f t="shared" si="68"/>
-        <v>0.17566048341765036</v>
+        <v>0.17419175027870681</v>
       </c>
       <c r="J74" s="42">
         <f t="shared" si="68"/>
-        <v>0.35132096683530073</v>
+        <v>0.34838350055741363</v>
       </c>
       <c r="K74" s="42">
         <f t="shared" si="68"/>
-        <v>0.70264193367060146</v>
+        <v>0.69676700111482726</v>
       </c>
       <c r="L74" s="42">
         <f t="shared" si="68"/>
-        <v>1.4052838673412029</v>
+        <v>1.3935340022296545</v>
       </c>
       <c r="M74" s="42">
         <f t="shared" si="68"/>
-        <v>2.8105677346824058</v>
+        <v>2.787068004459309</v>
       </c>
       <c r="N74" s="42">
         <f t="shared" si="68"/>
-        <v>5.6211354693648117</v>
+        <v>5.574136008918618</v>
       </c>
       <c r="O74" s="42">
         <f t="shared" si="68"/>
-        <v>8.4317032040472171</v>
+        <v>8.3612040133779271</v>
       </c>
       <c r="P74" s="42">
         <f t="shared" si="68"/>
-        <v>9.2748735244519391</v>
+        <v>9.1973244147157196</v>
       </c>
       <c r="Q74" s="42">
         <f t="shared" si="68"/>
-        <v>9.8369870713884211</v>
+        <v>9.7547380156075825</v>
       </c>
       <c r="R74" s="42">
         <f t="shared" si="68"/>
-        <v>10.399100618324901</v>
+        <v>10.312151616499444</v>
       </c>
       <c r="S74" s="42">
         <f t="shared" si="68"/>
-        <v>10.961214165261383</v>
+        <v>10.869565217391305</v>
       </c>
       <c r="T74" s="42">
         <f t="shared" si="68"/>
-        <v>11.242270938729623</v>
+        <v>11.148272017837236</v>
       </c>
       <c r="U74" s="42">
         <f t="shared" si="68"/>
-        <v>22.484541877459247</v>
+        <v>22.296544035674472</v>
       </c>
       <c r="V74" s="42">
         <f t="shared" si="68"/>
-        <v>44.969083754918493</v>
+        <v>44.593088071348944</v>
       </c>
       <c r="W74" s="42">
         <f t="shared" si="68"/>
-        <v>89.938167509836987</v>
+        <v>89.186176142697889</v>
       </c>
       <c r="X74" s="42">
         <f t="shared" si="68"/>
-        <v>179.87633501967397</v>
+        <v>178.37235228539578</v>
       </c>
       <c r="Y74" s="42">
         <f t="shared" si="68"/>
-        <v>359.75267003934795</v>
+        <v>356.74470457079155</v>
       </c>
       <c r="Z74" s="42">
         <f t="shared" si="68"/>
-        <v>719.50534007869589</v>
+        <v>713.48940914158311</v>
       </c>
       <c r="AA74" s="42">
         <f t="shared" si="68"/>
-        <v>1439.0106801573918</v>
+        <v>1426.9788182831662</v>
       </c>
       <c r="AB74" s="42">
         <f t="shared" si="68"/>
-        <v>2878.0213603147836</v>
+        <v>2853.9576365663324</v>
       </c>
       <c r="AC74" s="42">
         <f t="shared" si="68"/>
-        <v>5756.0427206295672</v>
+        <v>5707.9152731326649</v>
       </c>
       <c r="AD74" s="83">
         <f t="shared" si="68"/>
-        <v>11512.085441259134</v>
+        <v>11415.83054626533</v>
       </c>
       <c r="AE74" s="42">
         <f t="shared" si="68"/>
-        <v>23024.170882518269</v>
+        <v>22831.66109253066</v>
       </c>
       <c r="AF74" s="83">
         <f t="shared" si="68"/>
-        <v>36023.046655424398</v>
+        <v>35721.850613154966</v>
       </c>
       <c r="AG74" s="57"/>
     </row>
@@ -37399,113 +37405,113 @@
       </c>
       <c r="D75" s="35">
         <f>'AU Infection Rate by Age'!E7</f>
-        <v>0.15851602023608768</v>
+        <v>0.15774804905239687</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="22"/>
       <c r="G75" s="32">
         <f t="shared" ref="G75:AF75" si="69">G$37*$D$75</f>
-        <v>4.9536256323777401</v>
+        <v>4.9296265328874025</v>
       </c>
       <c r="H75" s="33">
         <f t="shared" si="69"/>
-        <v>9.9072512647554802</v>
+        <v>9.859253065774805</v>
       </c>
       <c r="I75" s="33">
         <f t="shared" si="69"/>
-        <v>19.81450252951096</v>
+        <v>19.71850613154961</v>
       </c>
       <c r="J75" s="33">
         <f t="shared" si="69"/>
-        <v>39.629005059021921</v>
+        <v>39.43701226309922</v>
       </c>
       <c r="K75" s="33">
         <f t="shared" si="69"/>
-        <v>79.258010118043842</v>
+        <v>78.87402452619844</v>
       </c>
       <c r="L75" s="33">
         <f t="shared" si="69"/>
-        <v>158.51602023608768</v>
+        <v>157.74804905239688</v>
       </c>
       <c r="M75" s="33">
         <f t="shared" si="69"/>
-        <v>317.03204047217537</v>
+        <v>315.49609810479376</v>
       </c>
       <c r="N75" s="33">
         <f t="shared" si="69"/>
-        <v>634.06408094435074</v>
+        <v>630.99219620958752</v>
       </c>
       <c r="O75" s="33">
         <f t="shared" si="69"/>
-        <v>951.0961214165261</v>
+        <v>946.48829431438116</v>
       </c>
       <c r="P75" s="33">
         <f t="shared" si="69"/>
-        <v>1046.2057335581787</v>
+        <v>1041.1371237458193</v>
       </c>
       <c r="Q75" s="33">
         <f t="shared" si="69"/>
-        <v>1109.6121416526139</v>
+        <v>1104.2363433667781</v>
       </c>
       <c r="R75" s="33">
         <f t="shared" si="69"/>
-        <v>1173.0185497470488</v>
+        <v>1167.3355629877369</v>
       </c>
       <c r="S75" s="33">
         <f t="shared" si="69"/>
-        <v>1236.424957841484</v>
+        <v>1230.4347826086955</v>
       </c>
       <c r="T75" s="33">
         <f t="shared" si="69"/>
-        <v>1268.1281618887015</v>
+        <v>1261.984392419175</v>
       </c>
       <c r="U75" s="33">
         <f t="shared" si="69"/>
-        <v>2536.2563237774029</v>
+        <v>2523.9687848383501</v>
       </c>
       <c r="V75" s="33">
         <f t="shared" si="69"/>
-        <v>5072.5126475548059</v>
+        <v>5047.9375696767002</v>
       </c>
       <c r="W75" s="33">
         <f t="shared" si="69"/>
-        <v>10145.025295109612</v>
+        <v>10095.8751393534</v>
       </c>
       <c r="X75" s="33">
         <f t="shared" si="69"/>
-        <v>20290.050590219224</v>
+        <v>20191.750278706801</v>
       </c>
       <c r="Y75" s="33">
         <f t="shared" si="69"/>
-        <v>40580.101180438447</v>
+        <v>40383.500557413601</v>
       </c>
       <c r="Z75" s="33">
         <f t="shared" si="69"/>
-        <v>81160.202360876894</v>
+        <v>80767.001114827202</v>
       </c>
       <c r="AA75" s="33">
         <f t="shared" si="69"/>
-        <v>162320.40472175379</v>
+        <v>161534.0022296544</v>
       </c>
       <c r="AB75" s="33">
         <f t="shared" si="69"/>
-        <v>324640.80944350758</v>
+        <v>323068.00445930881</v>
       </c>
       <c r="AC75" s="33">
         <f t="shared" si="69"/>
-        <v>649281.61888701515</v>
+        <v>646136.00891861762</v>
       </c>
       <c r="AD75" s="84">
         <f t="shared" si="69"/>
-        <v>1298563.2377740303</v>
+        <v>1292272.0178372352</v>
       </c>
       <c r="AE75" s="33">
         <f t="shared" si="69"/>
-        <v>2597126.4755480606</v>
+        <v>2584544.0356744705</v>
       </c>
       <c r="AF75" s="84">
         <f t="shared" si="69"/>
-        <v>4063399.6627318719</v>
+        <v>4043713.4894091412</v>
       </c>
       <c r="AG75" s="57"/>
     </row>
@@ -37516,112 +37522,112 @@
       <c r="D76" s="20"/>
       <c r="E76" s="39">
         <f>'AU Infection Rate by Age'!F21</f>
-        <v>1.7730496453900709E-3</v>
+        <v>1.7667844522968198E-3</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="41">
         <f t="shared" ref="G76:AF76" si="70">G$37*$D$75*$E$76</f>
-        <v>8.7830241708825186E-3</v>
+        <v>8.70958751393534E-3</v>
       </c>
       <c r="H76" s="42">
         <f t="shared" si="70"/>
-        <v>1.7566048341765037E-2</v>
+        <v>1.741917502787068E-2</v>
       </c>
       <c r="I76" s="42">
         <f t="shared" si="70"/>
-        <v>3.5132096683530074E-2</v>
+        <v>3.483835005574136E-2</v>
       </c>
       <c r="J76" s="42">
         <f t="shared" si="70"/>
-        <v>7.0264193367060149E-2</v>
+        <v>6.967670011148272E-2</v>
       </c>
       <c r="K76" s="42">
         <f t="shared" si="70"/>
-        <v>0.1405283867341203</v>
+        <v>0.13935340022296544</v>
       </c>
       <c r="L76" s="42">
         <f t="shared" si="70"/>
-        <v>0.28105677346824059</v>
+        <v>0.27870680044593088</v>
       </c>
       <c r="M76" s="42">
         <f t="shared" si="70"/>
-        <v>0.56211354693648119</v>
+        <v>0.55741360089186176</v>
       </c>
       <c r="N76" s="42">
         <f t="shared" si="70"/>
-        <v>1.1242270938729624</v>
+        <v>1.1148272017837235</v>
       </c>
       <c r="O76" s="42">
         <f t="shared" si="70"/>
-        <v>1.6863406408094435</v>
+        <v>1.6722408026755851</v>
       </c>
       <c r="P76" s="42">
         <f t="shared" si="70"/>
-        <v>1.8549747048903877</v>
+        <v>1.8394648829431435</v>
       </c>
       <c r="Q76" s="42">
         <f t="shared" si="70"/>
-        <v>1.9673974142776842</v>
+        <v>1.950947603121516</v>
       </c>
       <c r="R76" s="42">
         <f t="shared" si="70"/>
-        <v>2.0798201236649803</v>
+        <v>2.0624303232998886</v>
       </c>
       <c r="S76" s="42">
         <f t="shared" si="70"/>
-        <v>2.1922428330522767</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="T76" s="42">
         <f t="shared" si="70"/>
-        <v>2.2484541877459248</v>
+        <v>2.229654403567447</v>
       </c>
       <c r="U76" s="42">
         <f t="shared" si="70"/>
-        <v>4.4969083754918495</v>
+        <v>4.4593088071348941</v>
       </c>
       <c r="V76" s="42">
         <f t="shared" si="70"/>
-        <v>8.993816750983699</v>
+        <v>8.9186176142697882</v>
       </c>
       <c r="W76" s="42">
         <f t="shared" si="70"/>
-        <v>17.987633501967398</v>
+        <v>17.837235228539576</v>
       </c>
       <c r="X76" s="42">
         <f t="shared" si="70"/>
-        <v>35.975267003934796</v>
+        <v>35.674470457079153</v>
       </c>
       <c r="Y76" s="42">
         <f t="shared" si="70"/>
-        <v>71.950534007869592</v>
+        <v>71.348940914158305</v>
       </c>
       <c r="Z76" s="42">
         <f t="shared" si="70"/>
-        <v>143.90106801573918</v>
+        <v>142.69788182831661</v>
       </c>
       <c r="AA76" s="42">
         <f t="shared" si="70"/>
-        <v>287.80213603147837</v>
+        <v>285.39576365663322</v>
       </c>
       <c r="AB76" s="42">
         <f t="shared" si="70"/>
-        <v>575.60427206295674</v>
+        <v>570.79152731326644</v>
       </c>
       <c r="AC76" s="42">
         <f t="shared" si="70"/>
-        <v>1151.2085441259135</v>
+        <v>1141.5830546265329</v>
       </c>
       <c r="AD76" s="83">
         <f t="shared" si="70"/>
-        <v>2302.417088251827</v>
+        <v>2283.1661092530658</v>
       </c>
       <c r="AE76" s="42">
         <f t="shared" si="70"/>
-        <v>4604.8341765036539</v>
+        <v>4566.3322185061315</v>
       </c>
       <c r="AF76" s="83">
         <f t="shared" si="70"/>
-        <v>7204.6093310848792</v>
+        <v>7144.3701226309913</v>
       </c>
       <c r="AG76" s="57"/>
     </row>
@@ -37639,113 +37645,113 @@
       </c>
       <c r="D77" s="35">
         <f>'AU Infection Rate by Age'!E8</f>
-        <v>0.12703766160764474</v>
+        <v>0.1273690078037904</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="22"/>
       <c r="G77" s="32">
         <f t="shared" ref="G77:AF77" si="71">G$37*$D$77</f>
-        <v>3.969926925238898</v>
+        <v>3.9802814938684499</v>
       </c>
       <c r="H77" s="33">
         <f t="shared" si="71"/>
-        <v>7.939853850477796</v>
+        <v>7.9605629877368997</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" si="71"/>
-        <v>15.879707700955592</v>
+        <v>15.921125975473799</v>
       </c>
       <c r="J77" s="33">
         <f t="shared" si="71"/>
-        <v>31.759415401911184</v>
+        <v>31.842251950947599</v>
       </c>
       <c r="K77" s="33">
         <f t="shared" si="71"/>
-        <v>63.518830803822368</v>
+        <v>63.684503901895198</v>
       </c>
       <c r="L77" s="33">
         <f t="shared" si="71"/>
-        <v>127.03766160764474</v>
+        <v>127.3690078037904</v>
       </c>
       <c r="M77" s="33">
         <f t="shared" si="71"/>
-        <v>254.07532321528947</v>
+        <v>254.73801560758079</v>
       </c>
       <c r="N77" s="33">
         <f t="shared" si="71"/>
-        <v>508.15064643057895</v>
+        <v>509.47603121516158</v>
       </c>
       <c r="O77" s="33">
         <f t="shared" si="71"/>
-        <v>762.22596964586842</v>
+        <v>764.21404682274238</v>
       </c>
       <c r="P77" s="33">
         <f t="shared" si="71"/>
-        <v>838.44856661045526</v>
+        <v>840.6354515050167</v>
       </c>
       <c r="Q77" s="33">
         <f t="shared" si="71"/>
-        <v>889.26363125351315</v>
+        <v>891.58305462653277</v>
       </c>
       <c r="R77" s="33">
         <f t="shared" si="71"/>
-        <v>940.07869589657105</v>
+        <v>942.53065774804895</v>
       </c>
       <c r="S77" s="33">
         <f t="shared" si="71"/>
-        <v>990.89376053962894</v>
+        <v>993.47826086956513</v>
       </c>
       <c r="T77" s="33">
         <f t="shared" si="71"/>
-        <v>1016.3012928611579</v>
+        <v>1018.9520624303232</v>
       </c>
       <c r="U77" s="33">
         <f t="shared" si="71"/>
-        <v>2032.6025857223158</v>
+        <v>2037.9041248606463</v>
       </c>
       <c r="V77" s="33">
         <f t="shared" si="71"/>
-        <v>4065.2051714446316</v>
+        <v>4075.8082497212927</v>
       </c>
       <c r="W77" s="33">
         <f t="shared" si="71"/>
-        <v>8130.4103428892631</v>
+        <v>8151.6164994425853</v>
       </c>
       <c r="X77" s="33">
         <f t="shared" si="71"/>
-        <v>16260.820685778526</v>
+        <v>16303.232998885171</v>
       </c>
       <c r="Y77" s="33">
         <f t="shared" si="71"/>
-        <v>32521.641371557052</v>
+        <v>32606.465997770341</v>
       </c>
       <c r="Z77" s="33">
         <f t="shared" si="71"/>
-        <v>65043.282743114105</v>
+        <v>65212.931995540683</v>
       </c>
       <c r="AA77" s="33">
         <f t="shared" si="71"/>
-        <v>130086.56548622821</v>
+        <v>130425.86399108137</v>
       </c>
       <c r="AB77" s="33">
         <f t="shared" si="71"/>
-        <v>260173.13097245642</v>
+        <v>260851.72798216273</v>
       </c>
       <c r="AC77" s="33">
         <f t="shared" si="71"/>
-        <v>520346.26194491284</v>
+        <v>521703.45596432546</v>
       </c>
       <c r="AD77" s="84">
         <f t="shared" si="71"/>
-        <v>1040692.5238898257</v>
+        <v>1043406.9119286509</v>
       </c>
       <c r="AE77" s="33">
         <f t="shared" si="71"/>
-        <v>2081385.0477796514</v>
+        <v>2086813.8238573018</v>
       </c>
       <c r="AF77" s="84">
         <f t="shared" si="71"/>
-        <v>3256483.4176503653</v>
+        <v>3264977.1460423633</v>
       </c>
       <c r="AG77" s="57"/>
     </row>
@@ -37756,112 +37762,112 @@
       <c r="D78" s="20"/>
       <c r="E78" s="39">
         <f>'AU Infection Rate by Age'!F22</f>
-        <v>1.1061946902654867E-3</v>
+        <v>1.0940919037199124E-3</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="41">
         <f t="shared" ref="G78:AF78" si="72">G$37*$D$77*$E$78</f>
-        <v>4.3915120854412584E-3</v>
+        <v>4.3547937569676691E-3</v>
       </c>
       <c r="H78" s="42">
         <f t="shared" si="72"/>
-        <v>8.7830241708825169E-3</v>
+        <v>8.7095875139353383E-3</v>
       </c>
       <c r="I78" s="42">
         <f t="shared" si="72"/>
-        <v>1.7566048341765034E-2</v>
+        <v>1.7419175027870677E-2</v>
       </c>
       <c r="J78" s="42">
         <f t="shared" si="72"/>
-        <v>3.5132096683530067E-2</v>
+        <v>3.4838350055741353E-2</v>
       </c>
       <c r="K78" s="42">
         <f t="shared" si="72"/>
-        <v>7.0264193367060135E-2</v>
+        <v>6.9676700111482706E-2</v>
       </c>
       <c r="L78" s="42">
         <f t="shared" si="72"/>
-        <v>0.14052838673412027</v>
+        <v>0.13935340022296541</v>
       </c>
       <c r="M78" s="42">
         <f t="shared" si="72"/>
-        <v>0.28105677346824054</v>
+        <v>0.27870680044593082</v>
       </c>
       <c r="N78" s="42">
         <f t="shared" si="72"/>
-        <v>0.56211354693648108</v>
+        <v>0.55741360089186165</v>
       </c>
       <c r="O78" s="42">
         <f t="shared" si="72"/>
-        <v>0.84317032040472173</v>
+        <v>0.83612040133779253</v>
       </c>
       <c r="P78" s="42">
         <f t="shared" si="72"/>
-        <v>0.92748735244519387</v>
+        <v>0.91973244147157185</v>
       </c>
       <c r="Q78" s="42">
         <f t="shared" si="72"/>
-        <v>0.983698707138842</v>
+        <v>0.97547380156075791</v>
       </c>
       <c r="R78" s="42">
         <f t="shared" si="72"/>
-        <v>1.0399100618324901</v>
+        <v>1.0312151616499441</v>
       </c>
       <c r="S78" s="42">
         <f t="shared" si="72"/>
-        <v>1.0961214165261381</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="T78" s="42">
         <f t="shared" si="72"/>
-        <v>1.1242270938729622</v>
+        <v>1.1148272017837233</v>
       </c>
       <c r="U78" s="42">
         <f t="shared" si="72"/>
-        <v>2.2484541877459243</v>
+        <v>2.2296544035674466</v>
       </c>
       <c r="V78" s="42">
         <f t="shared" si="72"/>
-        <v>4.4969083754918486</v>
+        <v>4.4593088071348932</v>
       </c>
       <c r="W78" s="42">
         <f t="shared" si="72"/>
-        <v>8.9938167509836973</v>
+        <v>8.9186176142697864</v>
       </c>
       <c r="X78" s="42">
         <f t="shared" si="72"/>
-        <v>17.987633501967395</v>
+        <v>17.837235228539573</v>
       </c>
       <c r="Y78" s="42">
         <f t="shared" si="72"/>
-        <v>35.975267003934789</v>
+        <v>35.674470457079146</v>
       </c>
       <c r="Z78" s="42">
         <f t="shared" si="72"/>
-        <v>71.950534007869578</v>
+        <v>71.348940914158291</v>
       </c>
       <c r="AA78" s="42">
         <f t="shared" si="72"/>
-        <v>143.90106801573916</v>
+        <v>142.69788182831658</v>
       </c>
       <c r="AB78" s="42">
         <f t="shared" si="72"/>
-        <v>287.80213603147831</v>
+        <v>285.39576365663316</v>
       </c>
       <c r="AC78" s="42">
         <f t="shared" si="72"/>
-        <v>575.60427206295662</v>
+        <v>570.79152731326633</v>
       </c>
       <c r="AD78" s="83">
         <f t="shared" si="72"/>
-        <v>1151.2085441259132</v>
+        <v>1141.5830546265327</v>
       </c>
       <c r="AE78" s="42">
         <f t="shared" si="72"/>
-        <v>2302.4170882518265</v>
+        <v>2283.1661092530653</v>
       </c>
       <c r="AF78" s="83">
         <f t="shared" si="72"/>
-        <v>3602.3046655424396</v>
+        <v>3572.1850613154957</v>
       </c>
       <c r="AG78" s="57"/>
     </row>
@@ -37879,113 +37885,113 @@
       </c>
       <c r="D79" s="35">
         <f>'AU Infection Rate by Age'!E9</f>
-        <v>0.15851602023608768</v>
+        <v>0.15900222965440355</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="22"/>
       <c r="G79" s="32">
         <f t="shared" ref="G79:AF79" si="73">G$37*$D$79</f>
-        <v>4.9536256323777401</v>
+        <v>4.9688196767001109</v>
       </c>
       <c r="H79" s="33">
         <f t="shared" si="73"/>
-        <v>9.9072512647554802</v>
+        <v>9.9376393534002219</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="73"/>
-        <v>19.81450252951096</v>
+        <v>19.875278706800444</v>
       </c>
       <c r="J79" s="33">
         <f t="shared" si="73"/>
-        <v>39.629005059021921</v>
+        <v>39.750557413600887</v>
       </c>
       <c r="K79" s="33">
         <f t="shared" si="73"/>
-        <v>79.258010118043842</v>
+        <v>79.501114827201775</v>
       </c>
       <c r="L79" s="33">
         <f t="shared" si="73"/>
-        <v>158.51602023608768</v>
+        <v>159.00222965440355</v>
       </c>
       <c r="M79" s="33">
         <f t="shared" si="73"/>
-        <v>317.03204047217537</v>
+        <v>318.0044593088071</v>
       </c>
       <c r="N79" s="33">
         <f t="shared" si="73"/>
-        <v>634.06408094435074</v>
+        <v>636.0089186176142</v>
       </c>
       <c r="O79" s="33">
         <f t="shared" si="73"/>
-        <v>951.0961214165261</v>
+        <v>954.0133779264213</v>
       </c>
       <c r="P79" s="33">
         <f t="shared" si="73"/>
-        <v>1046.2057335581787</v>
+        <v>1049.4147157190635</v>
       </c>
       <c r="Q79" s="33">
         <f t="shared" si="73"/>
-        <v>1109.6121416526139</v>
+        <v>1113.015607580825</v>
       </c>
       <c r="R79" s="33">
         <f t="shared" si="73"/>
-        <v>1173.0185497470488</v>
+        <v>1176.6164994425862</v>
       </c>
       <c r="S79" s="33">
         <f t="shared" si="73"/>
-        <v>1236.424957841484</v>
+        <v>1240.2173913043478</v>
       </c>
       <c r="T79" s="33">
         <f t="shared" si="73"/>
-        <v>1268.1281618887015</v>
+        <v>1272.0178372352284</v>
       </c>
       <c r="U79" s="33">
         <f t="shared" si="73"/>
-        <v>2536.2563237774029</v>
+        <v>2544.0356744704568</v>
       </c>
       <c r="V79" s="33">
         <f t="shared" si="73"/>
-        <v>5072.5126475548059</v>
+        <v>5088.0713489409136</v>
       </c>
       <c r="W79" s="33">
         <f t="shared" si="73"/>
-        <v>10145.025295109612</v>
+        <v>10176.142697881827</v>
       </c>
       <c r="X79" s="33">
         <f t="shared" si="73"/>
-        <v>20290.050590219224</v>
+        <v>20352.285395763654</v>
       </c>
       <c r="Y79" s="33">
         <f t="shared" si="73"/>
-        <v>40580.101180438447</v>
+        <v>40704.570791527309</v>
       </c>
       <c r="Z79" s="33">
         <f t="shared" si="73"/>
-        <v>81160.202360876894</v>
+        <v>81409.141583054618</v>
       </c>
       <c r="AA79" s="33">
         <f t="shared" si="73"/>
-        <v>162320.40472175379</v>
+        <v>162818.28316610924</v>
       </c>
       <c r="AB79" s="33">
         <f t="shared" si="73"/>
-        <v>324640.80944350758</v>
+        <v>325636.56633221847</v>
       </c>
       <c r="AC79" s="33">
         <f t="shared" si="73"/>
-        <v>649281.61888701515</v>
+        <v>651273.13266443694</v>
       </c>
       <c r="AD79" s="84">
         <f t="shared" si="73"/>
-        <v>1298563.2377740303</v>
+        <v>1302546.2653288739</v>
       </c>
       <c r="AE79" s="33">
         <f t="shared" si="73"/>
-        <v>2597126.4755480606</v>
+        <v>2605092.5306577478</v>
       </c>
       <c r="AF79" s="84">
         <f t="shared" si="73"/>
-        <v>4063399.6627318719</v>
+        <v>4075863.1549609806</v>
       </c>
       <c r="AG79" s="57"/>
     </row>
@@ -37996,112 +38002,112 @@
       <c r="D80" s="20"/>
       <c r="E80" s="39">
         <f>'AU Infection Rate by Age'!F23</f>
-        <v>8.8652482269503544E-4</v>
+        <v>0</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="41">
         <f t="shared" ref="G80:AF80" si="74">G$37*$D$79*$E$80</f>
-        <v>4.3915120854412593E-3</v>
+        <v>0</v>
       </c>
       <c r="H80" s="42">
         <f t="shared" si="74"/>
-        <v>8.7830241708825186E-3</v>
+        <v>0</v>
       </c>
       <c r="I80" s="42">
         <f t="shared" si="74"/>
-        <v>1.7566048341765037E-2</v>
+        <v>0</v>
       </c>
       <c r="J80" s="42">
         <f t="shared" si="74"/>
-        <v>3.5132096683530074E-2</v>
+        <v>0</v>
       </c>
       <c r="K80" s="42">
         <f t="shared" si="74"/>
-        <v>7.0264193367060149E-2</v>
+        <v>0</v>
       </c>
       <c r="L80" s="42">
         <f t="shared" si="74"/>
-        <v>0.1405283867341203</v>
+        <v>0</v>
       </c>
       <c r="M80" s="42">
         <f t="shared" si="74"/>
-        <v>0.28105677346824059</v>
+        <v>0</v>
       </c>
       <c r="N80" s="42">
         <f t="shared" si="74"/>
-        <v>0.56211354693648119</v>
+        <v>0</v>
       </c>
       <c r="O80" s="42">
         <f t="shared" si="74"/>
-        <v>0.84317032040472173</v>
+        <v>0</v>
       </c>
       <c r="P80" s="42">
         <f t="shared" si="74"/>
-        <v>0.92748735244519387</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="42">
         <f t="shared" si="74"/>
-        <v>0.98369870713884211</v>
+        <v>0</v>
       </c>
       <c r="R80" s="42">
         <f t="shared" si="74"/>
-        <v>1.0399100618324901</v>
+        <v>0</v>
       </c>
       <c r="S80" s="42">
         <f t="shared" si="74"/>
-        <v>1.0961214165261384</v>
+        <v>0</v>
       </c>
       <c r="T80" s="42">
         <f t="shared" si="74"/>
-        <v>1.1242270938729624</v>
+        <v>0</v>
       </c>
       <c r="U80" s="42">
         <f t="shared" si="74"/>
-        <v>2.2484541877459248</v>
+        <v>0</v>
       </c>
       <c r="V80" s="42">
         <f t="shared" si="74"/>
-        <v>4.4969083754918495</v>
+        <v>0</v>
       </c>
       <c r="W80" s="42">
         <f t="shared" si="74"/>
-        <v>8.993816750983699</v>
+        <v>0</v>
       </c>
       <c r="X80" s="42">
         <f t="shared" si="74"/>
-        <v>17.987633501967398</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="42">
         <f t="shared" si="74"/>
-        <v>35.975267003934796</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="42">
         <f t="shared" si="74"/>
-        <v>71.950534007869592</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="42">
         <f t="shared" si="74"/>
-        <v>143.90106801573918</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="42">
         <f t="shared" si="74"/>
-        <v>287.80213603147837</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="42">
         <f t="shared" si="74"/>
-        <v>575.60427206295674</v>
+        <v>0</v>
       </c>
       <c r="AD80" s="83">
         <f t="shared" si="74"/>
-        <v>1151.2085441259135</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="42">
         <f t="shared" si="74"/>
-        <v>2302.417088251827</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="83">
         <f t="shared" si="74"/>
-        <v>3602.3046655424396</v>
+        <v>0</v>
       </c>
       <c r="AG80" s="57"/>
     </row>
@@ -38119,113 +38125,113 @@
       </c>
       <c r="D81" s="35">
         <f>'AU Infection Rate by Age'!E10</f>
-        <v>0.20868465430016864</v>
+        <v>0.20791527313266445</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="22"/>
       <c r="G81" s="32">
         <f t="shared" ref="G81:AF81" si="75">G$37*$D$81</f>
-        <v>6.5213954468802697</v>
+        <v>6.4973522853957641</v>
       </c>
       <c r="H81" s="33">
         <f t="shared" si="75"/>
-        <v>13.042790893760539</v>
+        <v>12.994704570791528</v>
       </c>
       <c r="I81" s="33">
         <f t="shared" si="75"/>
-        <v>26.085581787521079</v>
+        <v>25.989409141583057</v>
       </c>
       <c r="J81" s="33">
         <f t="shared" si="75"/>
-        <v>52.171163575042158</v>
+        <v>51.978818283166113</v>
       </c>
       <c r="K81" s="33">
         <f t="shared" si="75"/>
-        <v>104.34232715008432</v>
+        <v>103.95763656633223</v>
       </c>
       <c r="L81" s="33">
         <f t="shared" si="75"/>
-        <v>208.68465430016863</v>
+        <v>207.91527313266445</v>
       </c>
       <c r="M81" s="33">
         <f t="shared" si="75"/>
-        <v>417.36930860033726</v>
+        <v>415.83054626532891</v>
       </c>
       <c r="N81" s="33">
         <f t="shared" si="75"/>
-        <v>834.73861720067453</v>
+        <v>831.66109253065781</v>
       </c>
       <c r="O81" s="33">
         <f t="shared" si="75"/>
-        <v>1252.1079258010118</v>
+        <v>1247.4916387959868</v>
       </c>
       <c r="P81" s="33">
         <f t="shared" si="75"/>
-        <v>1377.3187183811131</v>
+        <v>1372.2408026755854</v>
       </c>
       <c r="Q81" s="33">
         <f t="shared" si="75"/>
-        <v>1460.7925801011804</v>
+        <v>1455.4069119286512</v>
       </c>
       <c r="R81" s="33">
         <f t="shared" si="75"/>
-        <v>1544.266441821248</v>
+        <v>1538.573021181717</v>
       </c>
       <c r="S81" s="33">
         <f t="shared" si="75"/>
-        <v>1627.7403035413154</v>
+        <v>1621.7391304347827</v>
       </c>
       <c r="T81" s="33">
         <f t="shared" si="75"/>
-        <v>1669.4772344013491</v>
+        <v>1663.3221850613156</v>
       </c>
       <c r="U81" s="33">
         <f t="shared" si="75"/>
-        <v>3338.9544688026981</v>
+        <v>3326.6443701226312</v>
       </c>
       <c r="V81" s="33">
         <f t="shared" si="75"/>
-        <v>6677.9089376053962</v>
+        <v>6653.2887402452625</v>
       </c>
       <c r="W81" s="33">
         <f t="shared" si="75"/>
-        <v>13355.817875210792</v>
+        <v>13306.577480490525</v>
       </c>
       <c r="X81" s="33">
         <f t="shared" si="75"/>
-        <v>26711.635750421585</v>
+        <v>26613.15496098105</v>
       </c>
       <c r="Y81" s="33">
         <f t="shared" si="75"/>
-        <v>53423.27150084317</v>
+        <v>53226.3099219621</v>
       </c>
       <c r="Z81" s="33">
         <f t="shared" si="75"/>
-        <v>106846.54300168634</v>
+        <v>106452.6198439242</v>
       </c>
       <c r="AA81" s="33">
         <f t="shared" si="75"/>
-        <v>213693.08600337268</v>
+        <v>212905.2396878484</v>
       </c>
       <c r="AB81" s="33">
         <f t="shared" si="75"/>
-        <v>427386.17200674536</v>
+        <v>425810.4793756968</v>
       </c>
       <c r="AC81" s="33">
         <f t="shared" si="75"/>
-        <v>854772.34401349071</v>
+        <v>851620.9587513936</v>
       </c>
       <c r="AD81" s="84">
         <f t="shared" si="75"/>
-        <v>1709544.6880269814</v>
+        <v>1703241.9175027872</v>
       </c>
       <c r="AE81" s="33">
         <f t="shared" si="75"/>
-        <v>3419089.3760539629</v>
+        <v>3406483.8350055744</v>
       </c>
       <c r="AF81" s="84">
         <f t="shared" si="75"/>
-        <v>5349422.428330523</v>
+        <v>5329700.1114827208</v>
       </c>
       <c r="AG81" s="57"/>
     </row>
@@ -38359,113 +38365,113 @@
       </c>
       <c r="D83" s="35">
         <f>'AU Infection Rate by Age'!E11</f>
-        <v>3.1618887015177066E-2</v>
+        <v>3.2469342251950944E-2</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="22"/>
       <c r="G83" s="32">
         <f t="shared" ref="G83:AF83" si="77">G$37*$D$83</f>
-        <v>0.98809021922428331</v>
+        <v>1.0146669453734669</v>
       </c>
       <c r="H83" s="33">
         <f t="shared" si="77"/>
-        <v>1.9761804384485666</v>
+        <v>2.0293338907469338</v>
       </c>
       <c r="I83" s="33">
         <f t="shared" si="77"/>
-        <v>3.9523608768971332</v>
+        <v>4.0586677814938676</v>
       </c>
       <c r="J83" s="33">
         <f t="shared" si="77"/>
-        <v>7.9047217537942664</v>
+        <v>8.1173355629877353</v>
       </c>
       <c r="K83" s="33">
         <f t="shared" si="77"/>
-        <v>15.809443507588533</v>
+        <v>16.234671125975471</v>
       </c>
       <c r="L83" s="33">
         <f t="shared" si="77"/>
-        <v>31.618887015177066</v>
+        <v>32.469342251950941</v>
       </c>
       <c r="M83" s="33">
         <f t="shared" si="77"/>
-        <v>63.237774030354132</v>
+        <v>64.938684503901882</v>
       </c>
       <c r="N83" s="33">
         <f t="shared" si="77"/>
-        <v>126.47554806070826</v>
+        <v>129.87736900780376</v>
       </c>
       <c r="O83" s="33">
         <f t="shared" si="77"/>
-        <v>189.71332209106239</v>
+        <v>194.81605351170566</v>
       </c>
       <c r="P83" s="33">
         <f t="shared" si="77"/>
-        <v>208.68465430016863</v>
+        <v>214.29765886287623</v>
       </c>
       <c r="Q83" s="33">
         <f t="shared" si="77"/>
-        <v>221.33220910623947</v>
+        <v>227.28539576365662</v>
       </c>
       <c r="R83" s="33">
         <f t="shared" si="77"/>
-        <v>233.97976391231029</v>
+        <v>240.27313266443699</v>
       </c>
       <c r="S83" s="33">
         <f t="shared" si="77"/>
-        <v>246.6273187183811</v>
+        <v>253.26086956521738</v>
       </c>
       <c r="T83" s="33">
         <f t="shared" si="77"/>
-        <v>252.95109612141653</v>
+        <v>259.75473801560753</v>
       </c>
       <c r="U83" s="33">
         <f t="shared" si="77"/>
-        <v>505.90219224283305</v>
+        <v>519.50947603121506</v>
       </c>
       <c r="V83" s="33">
         <f t="shared" si="77"/>
-        <v>1011.8043844856661</v>
+        <v>1039.0189520624301</v>
       </c>
       <c r="W83" s="33">
         <f t="shared" si="77"/>
-        <v>2023.6087689713322</v>
+        <v>2078.0379041248602</v>
       </c>
       <c r="X83" s="33">
         <f t="shared" si="77"/>
-        <v>4047.2175379426644</v>
+        <v>4156.0758082497205</v>
       </c>
       <c r="Y83" s="33">
         <f t="shared" si="77"/>
-        <v>8094.4350758853288</v>
+        <v>8312.1516164994409</v>
       </c>
       <c r="Z83" s="33">
         <f t="shared" si="77"/>
-        <v>16188.870151770658</v>
+        <v>16624.303232998882</v>
       </c>
       <c r="AA83" s="33">
         <f t="shared" si="77"/>
-        <v>32377.740303541315</v>
+        <v>33248.606465997764</v>
       </c>
       <c r="AB83" s="33">
         <f t="shared" si="77"/>
-        <v>64755.480607082631</v>
+        <v>66497.212931995527</v>
       </c>
       <c r="AC83" s="33">
         <f t="shared" si="77"/>
-        <v>129510.96121416526</v>
+        <v>132994.42586399105</v>
       </c>
       <c r="AD83" s="84">
         <f t="shared" si="77"/>
-        <v>259021.92242833052</v>
+        <v>265988.85172798211</v>
       </c>
       <c r="AE83" s="33">
         <f t="shared" si="77"/>
-        <v>518043.84485666105</v>
+        <v>531977.70345596422</v>
       </c>
       <c r="AF83" s="84">
         <f t="shared" si="77"/>
-        <v>810518.54974704888</v>
+        <v>832319.11928651051</v>
       </c>
       <c r="AG83" s="57"/>
     </row>
@@ -38599,113 +38605,113 @@
       </c>
       <c r="D85" s="35">
         <f>'AU Infection Rate by Age'!E12</f>
-        <v>1.3069139966273187E-2</v>
+        <v>1.4214046822742474E-2</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="22"/>
       <c r="G85" s="32">
         <f t="shared" ref="G85:AF85" si="79">G$37*$D$85</f>
-        <v>0.40841062394603711</v>
+        <v>0.44418896321070234</v>
       </c>
       <c r="H85" s="33">
         <f t="shared" si="79"/>
-        <v>0.81682124789207422</v>
+        <v>0.88837792642140467</v>
       </c>
       <c r="I85" s="33">
         <f t="shared" si="79"/>
-        <v>1.6336424957841484</v>
+        <v>1.7767558528428093</v>
       </c>
       <c r="J85" s="33">
         <f t="shared" si="79"/>
-        <v>3.2672849915682969</v>
+        <v>3.5535117056856187</v>
       </c>
       <c r="K85" s="33">
         <f t="shared" si="79"/>
-        <v>6.5345699831365938</v>
+        <v>7.1070234113712374</v>
       </c>
       <c r="L85" s="33">
         <f t="shared" si="79"/>
-        <v>13.069139966273188</v>
+        <v>14.214046822742475</v>
       </c>
       <c r="M85" s="33">
         <f t="shared" si="79"/>
-        <v>26.138279932546375</v>
+        <v>28.42809364548495</v>
       </c>
       <c r="N85" s="33">
         <f t="shared" si="79"/>
-        <v>52.27655986509275</v>
+        <v>56.856187290969899</v>
       </c>
       <c r="O85" s="33">
         <f t="shared" si="79"/>
-        <v>78.414839797639118</v>
+        <v>85.284280936454849</v>
       </c>
       <c r="P85" s="33">
         <f t="shared" si="79"/>
-        <v>86.25632377740304</v>
+        <v>93.812709030100322</v>
       </c>
       <c r="Q85" s="33">
         <f t="shared" si="79"/>
-        <v>91.483979763912302</v>
+        <v>99.498327759197323</v>
       </c>
       <c r="R85" s="33">
         <f t="shared" si="79"/>
-        <v>96.711635750421578</v>
+        <v>105.18394648829431</v>
       </c>
       <c r="S85" s="33">
         <f t="shared" si="79"/>
-        <v>101.93929173693085</v>
+        <v>110.8695652173913</v>
       </c>
       <c r="T85" s="33">
         <f t="shared" si="79"/>
-        <v>104.5531197301855</v>
+        <v>113.7123745819398</v>
       </c>
       <c r="U85" s="33">
         <f t="shared" si="79"/>
-        <v>209.106239460371</v>
+        <v>227.4247491638796</v>
       </c>
       <c r="V85" s="33">
         <f t="shared" si="79"/>
-        <v>418.212478920742</v>
+        <v>454.84949832775919</v>
       </c>
       <c r="W85" s="33">
         <f t="shared" si="79"/>
-        <v>836.424957841484</v>
+        <v>909.69899665551839</v>
       </c>
       <c r="X85" s="33">
         <f t="shared" si="79"/>
-        <v>1672.849915682968</v>
+        <v>1819.3979933110368</v>
       </c>
       <c r="Y85" s="33">
         <f t="shared" si="79"/>
-        <v>3345.699831365936</v>
+        <v>3638.7959866220735</v>
       </c>
       <c r="Z85" s="33">
         <f t="shared" si="79"/>
-        <v>6691.399662731872</v>
+        <v>7277.5919732441471</v>
       </c>
       <c r="AA85" s="33">
         <f t="shared" si="79"/>
-        <v>13382.799325463744</v>
+        <v>14555.183946488294</v>
       </c>
       <c r="AB85" s="33">
         <f t="shared" si="79"/>
-        <v>26765.598650927488</v>
+        <v>29110.367892976588</v>
       </c>
       <c r="AC85" s="33">
         <f t="shared" si="79"/>
-        <v>53531.197301854976</v>
+        <v>58220.735785953177</v>
       </c>
       <c r="AD85" s="84">
         <f t="shared" si="79"/>
-        <v>107062.39460370995</v>
+        <v>116441.47157190635</v>
       </c>
       <c r="AE85" s="33">
         <f t="shared" si="79"/>
-        <v>214124.7892074199</v>
+        <v>232882.94314381271</v>
       </c>
       <c r="AF85" s="84">
         <f t="shared" si="79"/>
-        <v>335014.33389544685</v>
+        <v>364362.87625418056</v>
       </c>
       <c r="AG85" s="57"/>
     </row>
@@ -38868,7 +38874,7 @@
       </c>
       <c r="O87" s="31">
         <f t="shared" ref="O87:S87" si="82">SUM(O69,O71,O73,O75,O77,O79,O81,O83,O85)</f>
-        <v>6000.0000000000009</v>
+        <v>6000</v>
       </c>
       <c r="P87" s="31">
         <f t="shared" si="82"/>
@@ -38884,7 +38890,7 @@
       </c>
       <c r="S87" s="31">
         <f t="shared" si="82"/>
-        <v>7799.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="T87" s="31">
         <f t="shared" si="81"/>
@@ -38936,7 +38942,7 @@
       </c>
       <c r="AF87" s="72">
         <f t="shared" si="84"/>
-        <v>25634000</v>
+        <v>25634000.000000004</v>
       </c>
       <c r="AG87" s="57"/>
     </row>
@@ -38951,107 +38957,107 @@
       <c r="F88" s="23"/>
       <c r="G88" s="43">
         <f>SUM(G70,G72,G74,G76,G78,G80,G82,G84,G86)</f>
-        <v>0.45232574480044963</v>
+        <v>0.44418896321070234</v>
       </c>
       <c r="H88" s="44">
         <f>SUM(H70,H72,H74,H76,H78,H80,H82,H84,H86)</f>
-        <v>0.90465148960089925</v>
+        <v>0.88837792642140467</v>
       </c>
       <c r="I88" s="44">
         <f t="shared" ref="I88:AB88" si="85">SUM(I70,I72,I74,I76,I78,I80,I82,I84,I86)</f>
-        <v>1.8093029792017985</v>
+        <v>1.7767558528428093</v>
       </c>
       <c r="J88" s="44">
         <f t="shared" si="85"/>
-        <v>3.618605958403597</v>
+        <v>3.5535117056856187</v>
       </c>
       <c r="K88" s="44">
         <f t="shared" si="85"/>
-        <v>7.237211916807194</v>
+        <v>7.1070234113712374</v>
       </c>
       <c r="L88" s="44">
         <f t="shared" si="85"/>
-        <v>14.474423833614388</v>
+        <v>14.214046822742475</v>
       </c>
       <c r="M88" s="44">
         <f t="shared" si="85"/>
-        <v>28.948847667228776</v>
+        <v>28.42809364548495</v>
       </c>
       <c r="N88" s="44">
         <f t="shared" si="85"/>
-        <v>57.897695334457552</v>
+        <v>56.856187290969899</v>
       </c>
       <c r="O88" s="44">
         <f t="shared" ref="O88:S88" si="86">SUM(O70,O72,O74,O76,O78,O80,O82,O84,O86)</f>
-        <v>86.846543001686342</v>
+        <v>85.284280936454863</v>
       </c>
       <c r="P88" s="44">
         <f>SUM(P70,P72,P74,P76,P78,P80,P82,P84,P86)</f>
-        <v>95.531197301854974</v>
+        <v>93.812709030100336</v>
       </c>
       <c r="Q88" s="44">
         <f t="shared" ref="Q88:R88" si="87">SUM(Q70,Q72,Q74,Q76,Q78,Q80,Q82,Q84,Q86)</f>
-        <v>101.32096683530074</v>
+        <v>99.498327759197323</v>
       </c>
       <c r="R88" s="44">
         <f t="shared" si="87"/>
-        <v>107.11073636874647</v>
+        <v>105.18394648829432</v>
       </c>
       <c r="S88" s="44">
         <f t="shared" si="86"/>
-        <v>112.90050590219225</v>
+        <v>110.8695652173913</v>
       </c>
       <c r="T88" s="44">
         <f t="shared" si="85"/>
-        <v>115.7953906689151</v>
+        <v>113.7123745819398</v>
       </c>
       <c r="U88" s="44">
         <f t="shared" si="85"/>
-        <v>231.59078133783021</v>
+        <v>227.4247491638796</v>
       </c>
       <c r="V88" s="44">
         <f t="shared" si="85"/>
-        <v>463.18156267566042</v>
+        <v>454.84949832775919</v>
       </c>
       <c r="W88" s="44">
         <f t="shared" si="85"/>
-        <v>926.36312535132083</v>
+        <v>909.69899665551839</v>
       </c>
       <c r="X88" s="44">
         <f t="shared" si="85"/>
-        <v>1852.7262507026417</v>
+        <v>1819.3979933110368</v>
       </c>
       <c r="Y88" s="44">
         <f t="shared" si="85"/>
-        <v>3705.4525014052833</v>
+        <v>3638.7959866220735</v>
       </c>
       <c r="Z88" s="44">
         <f t="shared" si="85"/>
-        <v>7410.9050028105667</v>
+        <v>7277.5919732441471</v>
       </c>
       <c r="AA88" s="44">
         <f t="shared" si="85"/>
-        <v>14821.810005621133</v>
+        <v>14555.183946488294</v>
       </c>
       <c r="AB88" s="44">
         <f t="shared" si="85"/>
-        <v>29643.620011242267</v>
+        <v>29110.367892976588</v>
       </c>
       <c r="AC88" s="44">
         <f t="shared" si="84"/>
-        <v>59287.240022484533</v>
+        <v>58220.735785953177</v>
       </c>
       <c r="AD88" s="85">
         <f t="shared" si="84"/>
-        <v>118574.48004496907</v>
+        <v>116441.47157190635</v>
       </c>
       <c r="AE88" s="44">
         <f t="shared" si="84"/>
-        <v>237148.96008993813</v>
+        <v>232882.94314381271</v>
       </c>
       <c r="AF88" s="85">
         <f t="shared" si="84"/>
-        <v>371037.38055087125</v>
+        <v>364362.87625418062</v>
       </c>
       <c r="AG88" s="57"/>
     </row>
@@ -40938,7 +40944,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40982,7 +40988,7 @@
         <v>221</v>
       </c>
       <c r="C6" s="179">
-        <v>7184</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -40991,7 +40997,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>43981.634584259256</v>
+        <v>43986.712582754626</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -41000,7 +41006,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>89.634584259256371</v>
+        <v>94.712582754626055</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -41009,7 +41015,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>11.47605942957682</v>
+        <v>12.108836559703912</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -41042,7 +41048,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B25</f>
-        <v>7184</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41051,7 +41057,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B25)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2020.7501234841011</v>
+        <v>2176.0610539927034</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41060,7 +41066,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>5163.2498765158989</v>
+        <v>5063.9389460072962</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -41074,7 +41080,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B29</f>
-        <v>6609.2800000000007</v>
+        <v>6660.8</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -41084,7 +41090,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B29)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1859.0901136053731</v>
+        <v>2001.9761696732871</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -41094,7 +41100,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>4750.189886394628</v>
+        <v>4658.8238303267135</v>
       </c>
       <c r="F17" t="s">
         <v>246</v>
@@ -41107,7 +41113,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B30</f>
-        <v>359.20000000000005</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -41116,7 +41122,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B30)*(2^(((C7-49)-C5)/C9))</f>
-        <v>18.621343245081018</v>
+        <v>21.90539526033832</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41125,7 +41131,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>340.57865675491905</v>
+        <v>340.09460473966169</v>
       </c>
       <c r="F20" t="s">
         <v>251</v>
@@ -41137,7 +41143,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B31</f>
-        <v>215.51999999999998</v>
+        <v>217.2</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41147,7 +41153,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B31)*(2^(((C7-49)-C5)/C9))</f>
-        <v>11.172805947048609</v>
+        <v>13.143237156202991</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41157,7 +41163,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>204.34719405295138</v>
+        <v>204.056762843797</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41167,7 +41173,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B32</f>
-        <v>100.57600000000001</v>
+        <v>101.36</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41176,7 +41182,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B32)*(2^(((C7-42)-C5)/C9))</f>
-        <v>7.9576885943560915</v>
+        <v>9.1565447444549317</v>
       </c>
       <c r="F25" t="s">
         <v>257</v>
@@ -41188,7 +41194,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>94.936902892527513</v>
+        <v>100.03597054603033</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41203,7 +41209,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44076.571487151785</v>
+        <v>44086.748553300655</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -41215,7 +41221,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>36.009144715724105</v>
+        <v>37.859001441664134</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41227,7 +41233,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44017.643728974981</v>
+        <v>44024.571584196288</v>
       </c>
       <c r="F29" t="s">
         <v>259</v>
@@ -41239,7 +41245,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>126.97132871313546</v>
+        <v>133.83673891308683</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41251,7 +41257,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44108.605912972394</v>
+        <v>44120.549321667713</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41260,7 +41266,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44011.634584259256</v>
+        <v>44016.712582754626</v>
       </c>
       <c r="F34" t="s">
         <v>278</v>
@@ -41272,7 +41278,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>43984.554199625301</v>
+        <v>40322.668566166292</v>
       </c>
       <c r="F35" t="s">
         <v>244</v>
@@ -41284,7 +41290,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B25</f>
-        <v>43984.554199625301</v>
+        <v>40322.668566166292</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41293,7 +41299,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B29</f>
-        <v>40465.789863655278</v>
+        <v>37096.855080872992</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41302,7 +41308,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B30</f>
-        <v>2199.227709981265</v>
+        <v>2016.1334283083147</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41311,7 +41317,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B31</f>
-        <v>1319.5366259887589</v>
+        <v>1209.6800569849888</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41320,7 +41326,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B32</f>
-        <v>615.78375879475425</v>
+        <v>564.51735992632814</v>
       </c>
     </row>
   </sheetData>
@@ -42389,14 +42395,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1962B-7328-4DB7-BA18-91B67DBDE574}">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="278">
+        <v>43985</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
@@ -42424,10 +42438,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="28">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="28">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <f>SUM(B4:C4)</f>
@@ -42435,7 +42449,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E12" si="0">D4/$D$14</f>
-        <v>3.4007869589657111E-2</v>
+        <v>3.372352285395764E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -42443,18 +42457,18 @@
         <v>14</v>
       </c>
       <c r="B5" s="28">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C5" s="28">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D12" si="1">SUM(B5:C5)</f>
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>0.10539629005059022</v>
+        <v>0.10521181716833891</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -42462,18 +42476,18 @@
         <v>15</v>
       </c>
       <c r="B6" s="28">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C6" s="28">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>0.16315345699831366</v>
+        <v>0.16234671125975475</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -42481,18 +42495,18 @@
         <v>16</v>
       </c>
       <c r="B7" s="59">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C7" s="59">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>0.15851602023608768</v>
+        <v>0.15774804905239687</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -42500,18 +42514,18 @@
         <v>17</v>
       </c>
       <c r="B8" s="59">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C8" s="59">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>0.12703766160764474</v>
+        <v>0.1273690078037904</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -42519,18 +42533,18 @@
         <v>18</v>
       </c>
       <c r="B9" s="59">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C9" s="59">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>0.15851602023608768</v>
+        <v>0.15900222965440355</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -42538,18 +42552,18 @@
         <v>19</v>
       </c>
       <c r="B10" s="59">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C10" s="59">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1485</v>
+        <v>1492</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0.20868465430016864</v>
+        <v>0.20791527313266445</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42557,18 +42571,18 @@
         <v>20</v>
       </c>
       <c r="B11" s="286">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C11" s="286">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>3.1618887015177066E-2</v>
+        <v>3.2469342251950944E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -42576,18 +42590,18 @@
         <v>21</v>
       </c>
       <c r="B12" s="286">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" s="286">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>1.3069139966273187E-2</v>
+        <v>1.4214046822742474E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -42596,7 +42610,7 @@
       </c>
       <c r="D14">
         <f>SUM(D4:D12)</f>
-        <v>7116</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -42649,7 +42663,7 @@
       </c>
       <c r="E18" s="3">
         <f>D18/$D$28</f>
-        <v>0.53398058252427183</v>
+        <v>0.53921568627450978</v>
       </c>
       <c r="F18" s="3">
         <f>D18/D4</f>
@@ -42681,11 +42695,11 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ref="E19:E26" si="3">D19/$D$28</f>
-        <v>0.3300970873786408</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ref="F19:F26" si="4">D19/D5</f>
-        <v>4.5333333333333337E-2</v>
+        <v>4.5033112582781455E-2</v>
       </c>
       <c r="H19" s="289">
         <v>0.08</v>
@@ -42713,11 +42727,11 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="3"/>
-        <v>9.7087378640776698E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="4"/>
-        <v>8.6132644272179162E-3</v>
+        <v>8.5836909871244635E-3</v>
       </c>
       <c r="H20" s="289">
         <v>3.5999999999999997E-2</v>
@@ -42745,11 +42759,11 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="3"/>
-        <v>1.9417475728155338E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="F21" s="3">
         <f>D21/D7</f>
-        <v>1.7730496453900709E-3</v>
+        <v>1.7667844522968198E-3</v>
       </c>
       <c r="H21" s="289">
         <v>1.2999999999999999E-2</v>
@@ -42777,11 +42791,11 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="3"/>
-        <v>9.7087378640776691E-3</v>
+        <v>9.8039215686274508E-3</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="4"/>
-        <v>1.1061946902654867E-3</v>
+        <v>1.0940919037199124E-3</v>
       </c>
       <c r="H22" s="289">
         <v>4.0000000000000001E-3</v>
@@ -42798,22 +42812,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="59">
         <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="3"/>
-        <v>9.7087378640776691E-3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="4"/>
-        <v>8.8652482269503544E-4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="289">
         <v>2E-3</v>
@@ -42927,7 +42941,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:C28" si="5">SUM(B18:B26)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
@@ -42935,17 +42949,17 @@
       </c>
       <c r="D28">
         <f>SUM(D18:D26)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f>B28/D28</f>
-        <v>0.56310679611650483</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="C29" s="3">
         <f>C28/D28</f>
-        <v>0.43689320388349512</v>
+        <v>0.44117647058823528</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0A3A2-4B67-4FD9-8C89-D58848A9FF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED002B25-F516-4531-98E4-CE2ED4B6217D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="105" yWindow="75" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2227,46 +2227,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,46 +2376,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,46 +2525,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11756,46 +11756,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11896,46 +11896,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12039,46 +12039,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12176,46 +12176,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12583,46 +12583,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12732,46 +12732,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12881,46 +12881,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13298,46 +13298,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13438,46 +13438,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13581,46 +13581,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13718,46 +13718,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.840624074073</c:v>
+                  <c:v>43960.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.840624074073</c:v>
+                  <c:v>43963.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.840624074073</c:v>
+                  <c:v>43966.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.840624074073</c:v>
+                  <c:v>43969.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.840624074073</c:v>
+                  <c:v>43972.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.840624074073</c:v>
+                  <c:v>43975.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.840624074073</c:v>
+                  <c:v>43978.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.840624074073</c:v>
+                  <c:v>43981.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.840624074073</c:v>
+                  <c:v>43984.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.840624074073</c:v>
+                  <c:v>43987.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.840624074073</c:v>
+                  <c:v>43990.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.840624074073</c:v>
+                  <c:v>43993.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.840624074073</c:v>
+                  <c:v>43996.943847916664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.840624074073</c:v>
+                  <c:v>43999.943847916664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32277,167 +32277,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43959.840624074073</v>
+        <v>43960.943847916664</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43960.840624074073</v>
+        <v>43961.943847916664</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.840624074073</v>
+        <v>43962.943847916664</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.840624074073</v>
+        <v>43963.943847916664</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.840624074073</v>
+        <v>43964.943847916664</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.840624074073</v>
+        <v>43965.943847916664</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43965.840624074073</v>
+        <v>43966.943847916664</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43966.840624074073</v>
+        <v>43967.943847916664</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.840624074073</v>
+        <v>43968.943847916664</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.840624074073</v>
+        <v>43969.943847916664</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.840624074073</v>
+        <v>43970.943847916664</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.840624074073</v>
+        <v>43971.943847916664</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.840624074073</v>
+        <v>43972.943847916664</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.840624074073</v>
+        <v>43973.943847916664</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.840624074073</v>
+        <v>43974.943847916664</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.840624074073</v>
+        <v>43975.943847916664</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.840624074073</v>
+        <v>43976.943847916664</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.840624074073</v>
+        <v>43977.943847916664</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.840624074073</v>
+        <v>43978.943847916664</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.840624074073</v>
+        <v>43979.943847916664</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43979.840624074073</v>
+        <v>43980.943847916664</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43980.840624074073</v>
+        <v>43981.943847916664</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.840624074073</v>
+        <v>43982.943847916664</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.840624074073</v>
+        <v>43983.943847916664</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.840624074073</v>
+        <v>43984.943847916664</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.840624074073</v>
+        <v>43985.943847916664</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.840624074073</v>
+        <v>43986.943847916664</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.840624074073</v>
+        <v>43987.943847916664</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.840624074073</v>
+        <v>43988.943847916664</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.840624074073</v>
+        <v>43989.943847916664</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.840624074073</v>
+        <v>43990.943847916664</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.840624074073</v>
+        <v>43991.943847916664</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.840624074073</v>
+        <v>43992.943847916664</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.840624074073</v>
+        <v>43993.943847916664</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.840624074073</v>
+        <v>43994.943847916664</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.840624074073</v>
+        <v>43995.943847916664</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.840624074073</v>
+        <v>43996.943847916664</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.840624074073</v>
+        <v>43997.943847916664</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.840624074073</v>
+        <v>43998.943847916664</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>43998.840624074073</v>
+        <v>43999.943847916664</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>43999.840624074073</v>
+        <v>44000.943847916664</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32955,8 +32955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36615,7 +36615,7 @@
         <v>6337</v>
       </c>
       <c r="R76" s="249">
-        <v>6859</v>
+        <v>6877</v>
       </c>
       <c r="S76" s="249"/>
       <c r="T76" s="249"/>
@@ -41090,7 +41090,7 @@
         <v>221</v>
       </c>
       <c r="C6" s="179">
-        <v>7370</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -41099,7 +41099,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>43999.840624074073</v>
+        <v>44000.943847916664</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -41108,7 +41108,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>107.84062407407328</v>
+        <v>108.9438479166638</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>13.74212503879397</v>
+        <v>13.875450628119532</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -41150,7 +41150,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B37</f>
-        <v>7370</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41159,7 +41159,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B37)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2555.342520577392</v>
+        <v>2588.8389413809541</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41168,7 +41168,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>4814.657479422608</v>
+        <v>4802.1610586190454</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -41182,7 +41182,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B41</f>
-        <v>6780.4000000000005</v>
+        <v>6799.72</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -41192,7 +41192,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B41)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2350.9151189312006</v>
+        <v>2381.7318260704778</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -41202,7 +41202,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>4429.4848810688</v>
+        <v>4417.9881739295224</v>
       </c>
       <c r="F17" t="s">
         <v>246</v>
@@ -41215,7 +41215,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B42</f>
-        <v>368.5</v>
+        <v>369.55</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -41224,7 +41224,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B42)*(2^(((C7-49)-C5)/C9))</f>
-        <v>31.121556130021332</v>
+        <v>31.960297320178814</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41233,7 +41233,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>337.3784438699787</v>
+        <v>337.58970267982119</v>
       </c>
       <c r="F20" t="s">
         <v>251</v>
@@ -41245,7 +41245,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B43</f>
-        <v>221.1</v>
+        <v>221.73</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41255,7 +41255,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B43)*(2^(((C7-49)-C5)/C9))</f>
-        <v>18.6729336780128</v>
+        <v>19.176178392107285</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41265,7 +41265,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>202.42706632198718</v>
+        <v>202.5538216078927</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41275,7 +41275,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B44</f>
-        <v>103.18</v>
+        <v>103.474</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41284,7 +41284,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B44)*(2^(((C7-42)-C5)/C9))</f>
-        <v>12.40391527335027</v>
+        <v>12.695064118758825</v>
       </c>
       <c r="F25" t="s">
         <v>257</v>
@@ -41296,7 +41296,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>113.17639580114528</v>
+        <v>114.21747091833404</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41311,7 +41311,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44113.017019875217</v>
+        <v>44115.161318834995</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -41323,7 +41323,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>42.612747530520409</v>
+        <v>42.96921673966483</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41335,7 +41335,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44042.453371604592</v>
+        <v>44043.913064656328</v>
       </c>
       <c r="F29" t="s">
         <v>259</v>
@@ -41347,7 +41347,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>151.53634747917502</v>
+        <v>152.94958943006205</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41359,7 +41359,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44151.376971553247</v>
+        <v>44153.893437346727</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41368,7 +41368,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44029.840624074073</v>
+        <v>44030.943847916664</v>
       </c>
       <c r="F34" t="s">
         <v>278</v>
@@ -41380,7 +41380,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>33468.525740213823</v>
+        <v>33079.408125427224</v>
       </c>
       <c r="F35" t="s">
         <v>244</v>
@@ -41392,7 +41392,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B37</f>
-        <v>33468.525740213823</v>
+        <v>33079.408125427224</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41401,7 +41401,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B41</f>
-        <v>30791.043680996718</v>
+        <v>30433.055475393048</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41410,7 +41410,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B42</f>
-        <v>1673.4262870106913</v>
+        <v>1653.9704062713613</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41419,7 +41419,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B43</f>
-        <v>1004.0557722064146</v>
+        <v>992.38224376281664</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41428,7 +41428,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B44</f>
-        <v>468.55936036299352</v>
+        <v>463.11171375598116</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED002B25-F516-4531-98E4-CE2ED4B6217D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122F73C-5DD2-43AC-A945-8EE8003DEA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="75" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="329">
   <si>
     <t>Australian Population</t>
   </si>
@@ -1019,6 +1019,12 @@
   <si>
     <t>China sentences an Australian, Karm Gilespie in custody for drug smuggling to death, 6 years after arrest, seen as further evidence of China attempting to coerce/punish Australia for its recent actions to call for an inquiry into the origins and handling of the SARS-CoV-2 pandemic</t>
   </si>
+  <si>
+    <t>Govt suggests increasing cyber attacks on Australian govt and business sites are from a foreign actor (implying China), assumption being that it is related to the increasing tensions with China</t>
+  </si>
+  <si>
+    <t>Victorian govt puts further relaxation of distancing rules on hold as the state sees a spike in new COVID-19 cases, state of emergency to stay in place for another four weeks, other states begin to reconsider their scheduled border reopenings.</t>
+  </si>
 </sst>
 </file>
 
@@ -1841,11 +1847,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1853,6 +1854,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2227,46 +2233,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,46 +2382,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,46 +2440,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.0351966873706051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-2.0703933747412102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.1407867494824204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-8.2815734989648409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-16.563146997929682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-33.126293995859363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-66.252587991718727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-132.50517598343745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-265.01035196687491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-530.02070393374981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1060.0414078674996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-2120.0828157349993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-4240.1656314699985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-8480.331262939997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,46 +2531,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,37 +2589,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>289.85507246376812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>571.42857142857144</c:v>
+                  <c:v>579.71014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1142.8571428571429</c:v>
+                  <c:v>1159.4202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2285.7142857142858</c:v>
+                  <c:v>2318.840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4571.4285714285716</c:v>
+                  <c:v>4637.68115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9142.8571428571431</c:v>
+                  <c:v>9275.36231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18285.714285714286</c:v>
+                  <c:v>18550.72463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36571.428571428572</c:v>
+                  <c:v>37101.44927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73142.857142857145</c:v>
+                  <c:v>74202.89855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,7 +2980,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -3123,7 +3129,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -3181,7 +3187,7 @@
                   <c:v>7019</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>7400</c:v>
+                  <c:v>7409</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
                   <c:v>7800</c:v>
@@ -3553,7 +3559,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -3578,46 +3584,46 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.4499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>27.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>55.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.4</c:v>
+                  <c:v>91.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.60000000000001</c:v>
+                  <c:v>102.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.2</c:v>
+                  <c:v>107.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,7 +3708,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -3760,6 +3766,9 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
                   <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
@@ -4131,7 +4140,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -4189,10 +4198,10 @@
                   <c:v>3648.0224340846935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5412.5731227783745</c:v>
+                  <c:v>4217.9293984147635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>914.98907768335982</c:v>
+                  <c:v>1102.9505029517011</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>713.45778394840875</c:v>
@@ -4280,7 +4289,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -4338,10 +4347,10 @@
                   <c:v>3007.9225055713932</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4188.839639512581</c:v>
+                  <c:v>3264.2939799538044</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>669.43398342253204</c:v>
+                  <c:v>810.07029325376584</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4429,7 +4438,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -4487,13 +4496,13 @@
                   <c:v>640.09992851330003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1223.7334832657932</c:v>
+                  <c:v>953.63541846095893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.55509426082781</c:v>
+                  <c:v>292.88020969793524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>425.45455935549376</c:v>
+                  <c:v>516.35670124040007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,7 +4587,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -4636,10 +4645,10 @@
                   <c:v>640.09992851330003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1223.7334832657932</c:v>
+                  <c:v>953.63541846095893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.55509426082781</c:v>
+                  <c:v>292.88020969793524</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4727,7 +4736,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -4752,46 +4761,46 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.4499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>27.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>55.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.4</c:v>
+                  <c:v>91.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.60000000000001</c:v>
+                  <c:v>102.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.2</c:v>
+                  <c:v>107.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5167,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -5309,7 +5318,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -5460,7 +5469,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -5612,7 +5621,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -5764,7 +5773,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -5915,7 +5924,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -6064,7 +6073,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -6216,7 +6225,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -6367,7 +6376,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -6798,7 +6807,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -6949,7 +6958,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7100,7 +7109,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7252,7 +7261,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7401,7 +7410,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7552,7 +7561,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7701,7 +7710,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -7850,7 +7859,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -8001,7 +8010,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -8432,7 +8441,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -8583,7 +8592,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -8734,7 +8743,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -8883,7 +8892,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -9034,7 +9043,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -9183,7 +9192,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -9614,7 +9623,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -9765,7 +9774,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -9914,7 +9923,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -10065,7 +10074,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -10214,7 +10223,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -10640,7 +10649,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -10789,7 +10798,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -10847,7 +10856,7 @@
                   <c:v>7019</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>7400</c:v>
+                  <c:v>7409</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
                   <c:v>7800</c:v>
@@ -11220,7 +11229,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -11245,46 +11254,46 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.4499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>27.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>55.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.4</c:v>
+                  <c:v>91.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.60000000000001</c:v>
+                  <c:v>102.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.2</c:v>
+                  <c:v>107.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11369,7 +11378,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -11427,6 +11436,9 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
                   <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
@@ -11756,46 +11768,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11814,37 +11826,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>289.85507246376812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>571.42857142857144</c:v>
+                  <c:v>579.71014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1142.8571428571429</c:v>
+                  <c:v>1159.4202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2285.7142857142858</c:v>
+                  <c:v>2318.840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4571.4285714285716</c:v>
+                  <c:v>4637.68115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9142.8571428571431</c:v>
+                  <c:v>9275.36231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18285.714285714286</c:v>
+                  <c:v>18550.72463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36571.428571428572</c:v>
+                  <c:v>37101.44927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73142.857142857145</c:v>
+                  <c:v>74202.89855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11896,46 +11908,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11954,40 +11966,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.85714285714289</c:v>
+                  <c:v>266.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>525.71428571428578</c:v>
+                  <c:v>533.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1051.4285714285716</c:v>
+                  <c:v>1066.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2037.1428571428573</c:v>
+                  <c:v>2066.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4074.2857142857147</c:v>
+                  <c:v>4133.3333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8148.5714285714294</c:v>
+                  <c:v>8266.6666666666679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16297.142857142859</c:v>
+                  <c:v>16533.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32594.285714285717</c:v>
+                  <c:v>33066.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65254.285714285725</c:v>
+                  <c:v>66200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130508.57142857145</c:v>
+                  <c:v>132400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12039,46 +12051,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12097,34 +12109,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>22.857142857142858</c:v>
+                  <c:v>23.188405797101449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.714285714285715</c:v>
+                  <c:v>46.376811594202898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.142857142857146</c:v>
+                  <c:v>57.971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.28571428571429</c:v>
+                  <c:v>115.94202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>228.57142857142858</c:v>
+                  <c:v>231.8840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>457.14285714285717</c:v>
+                  <c:v>463.768115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>914.28571428571433</c:v>
+                  <c:v>927.536231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1828.5714285714287</c:v>
+                  <c:v>1855.072463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3657.1428571428573</c:v>
+                  <c:v>3710.144927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7314.2857142857147</c:v>
+                  <c:v>7420.289855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12176,46 +12188,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12234,28 +12246,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>34.285714285714285</c:v>
+                  <c:v>34.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.571428571428569</c:v>
+                  <c:v>69.565217391304344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.14285714285714</c:v>
+                  <c:v>139.13043478260869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>274.28571428571428</c:v>
+                  <c:v>278.26086956521738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>548.57142857142856</c:v>
+                  <c:v>556.52173913043475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1097.1428571428571</c:v>
+                  <c:v>1113.0434782608695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2194.2857142857142</c:v>
+                  <c:v>2226.086956521739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4388.5714285714284</c:v>
+                  <c:v>4452.173913043478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12583,46 +12595,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12732,46 +12744,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12790,46 +12802,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.0351966873706051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-2.0703933747412102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.1407867494824204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-8.2815734989648409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-16.563146997929682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-33.126293995859363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-66.252587991718727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-132.50517598343745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-265.01035196687491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-530.02070393374981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1060.0414078674996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-2120.0828157349993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-4240.1656314699985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-8480.331262939997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12881,46 +12893,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12939,37 +12951,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>289.85507246376812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>571.42857142857144</c:v>
+                  <c:v>579.71014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1142.8571428571429</c:v>
+                  <c:v>1159.4202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2285.7142857142858</c:v>
+                  <c:v>2318.840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4571.4285714285716</c:v>
+                  <c:v>4637.68115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9142.8571428571431</c:v>
+                  <c:v>9275.36231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18285.714285714286</c:v>
+                  <c:v>18550.72463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36571.428571428572</c:v>
+                  <c:v>37101.44927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73142.857142857145</c:v>
+                  <c:v>74202.89855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13298,46 +13310,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13356,37 +13368,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>289.85507246376812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>571.42857142857144</c:v>
+                  <c:v>579.71014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1142.8571428571429</c:v>
+                  <c:v>1159.4202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2285.7142857142858</c:v>
+                  <c:v>2318.840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4571.4285714285716</c:v>
+                  <c:v>4637.68115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9142.8571428571431</c:v>
+                  <c:v>9275.36231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18285.714285714286</c:v>
+                  <c:v>18550.72463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36571.428571428572</c:v>
+                  <c:v>37101.44927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73142.857142857145</c:v>
+                  <c:v>74202.89855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13438,46 +13450,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13496,40 +13508,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>71.428571428571431</c:v>
+                  <c:v>72.463768115942031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>144.92753623188406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.85714285714289</c:v>
+                  <c:v>266.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>525.71428571428578</c:v>
+                  <c:v>533.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1051.4285714285716</c:v>
+                  <c:v>1066.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2037.1428571428573</c:v>
+                  <c:v>2066.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4074.2857142857147</c:v>
+                  <c:v>4133.3333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8148.5714285714294</c:v>
+                  <c:v>8266.6666666666679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16297.142857142859</c:v>
+                  <c:v>16533.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32594.285714285717</c:v>
+                  <c:v>33066.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65254.285714285725</c:v>
+                  <c:v>66200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130508.57142857145</c:v>
+                  <c:v>132400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13581,46 +13593,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13639,34 +13651,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>22.857142857142858</c:v>
+                  <c:v>23.188405797101449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.714285714285715</c:v>
+                  <c:v>46.376811594202898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.142857142857146</c:v>
+                  <c:v>57.971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.28571428571429</c:v>
+                  <c:v>115.94202898550725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>228.57142857142858</c:v>
+                  <c:v>231.8840579710145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>457.14285714285717</c:v>
+                  <c:v>463.768115942029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>914.28571428571433</c:v>
+                  <c:v>927.536231884058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1828.5714285714287</c:v>
+                  <c:v>1855.072463768116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3657.1428571428573</c:v>
+                  <c:v>3710.144927536232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7314.2857142857147</c:v>
+                  <c:v>7420.289855072464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13718,46 +13730,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.943847916664</c:v>
+                  <c:v>43964.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.943847916664</c:v>
+                  <c:v>43967.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.943847916664</c:v>
+                  <c:v>43970.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.943847916664</c:v>
+                  <c:v>43973.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.943847916664</c:v>
+                  <c:v>43976.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.943847916664</c:v>
+                  <c:v>43979.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.943847916664</c:v>
+                  <c:v>43982.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.943847916664</c:v>
+                  <c:v>43985.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.943847916664</c:v>
+                  <c:v>43988.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.943847916664</c:v>
+                  <c:v>43991.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.943847916664</c:v>
+                  <c:v>43994.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.943847916664</c:v>
+                  <c:v>43997.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.943847916664</c:v>
+                  <c:v>44000.917079166669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.943847916664</c:v>
+                  <c:v>44003.917079166669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13776,28 +13788,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>34.285714285714285</c:v>
+                  <c:v>34.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.571428571428569</c:v>
+                  <c:v>69.565217391304344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.14285714285714</c:v>
+                  <c:v>139.13043478260869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>274.28571428571428</c:v>
+                  <c:v>278.26086956521738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>548.57142857142856</c:v>
+                  <c:v>556.52173913043475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1097.1428571428571</c:v>
+                  <c:v>1113.0434782608695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2194.2857142857142</c:v>
+                  <c:v>2226.086956521739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4388.5714285714284</c:v>
+                  <c:v>4452.173913043478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14169,7 +14181,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -14227,10 +14239,10 @@
                   <c:v>3648.0224340846935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5412.5731227783745</c:v>
+                  <c:v>4217.9293984147635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>914.98907768335982</c:v>
+                  <c:v>1102.9505029517011</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>713.45778394840875</c:v>
@@ -14318,7 +14330,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -14376,10 +14388,10 @@
                   <c:v>3007.9225055713932</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4188.839639512581</c:v>
+                  <c:v>3264.2939799538044</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>669.43398342253204</c:v>
+                  <c:v>810.07029325376584</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14467,7 +14479,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -14525,13 +14537,13 @@
                   <c:v>640.09992851330003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1223.7334832657932</c:v>
+                  <c:v>953.63541846095893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.55509426082781</c:v>
+                  <c:v>292.88020969793524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>425.45455935549376</c:v>
+                  <c:v>516.35670124040007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14616,7 +14628,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -14674,10 +14686,10 @@
                   <c:v>640.09992851330003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1223.7334832657932</c:v>
+                  <c:v>953.63541846095893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.55509426082781</c:v>
+                  <c:v>292.88020969793524</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14765,7 +14777,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -14790,46 +14802,46 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>1.7249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.4499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>27.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>55.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.4</c:v>
+                  <c:v>91.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.60000000000001</c:v>
+                  <c:v>102.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.2</c:v>
+                  <c:v>107.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15195,7 +15207,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -15346,7 +15358,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -15497,7 +15509,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -15649,7 +15661,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -15801,7 +15813,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -15952,7 +15964,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -16101,7 +16113,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -16253,7 +16265,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -16404,7 +16416,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -16834,7 +16846,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -16985,7 +16997,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17136,7 +17148,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17288,7 +17300,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17437,7 +17449,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17588,7 +17600,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17737,7 +17749,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -17886,7 +17898,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -18037,7 +18049,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -18467,7 +18479,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -18618,7 +18630,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -18769,7 +18781,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -18918,7 +18930,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -19069,7 +19081,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -19218,7 +19230,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -19648,7 +19660,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -19799,7 +19811,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -19948,7 +19960,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -20099,7 +20111,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -20248,7 +20260,7 @@
                   <c:v>43966.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005.25</c:v>
+                  <c:v>44001.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44022.5</c:v>
@@ -31654,85 +31666,85 @@
       </c>
       <c r="B18" s="100">
         <f>B17*$E$34</f>
-        <v>0</v>
+        <v>-1.0351966873706051</v>
       </c>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
       <c r="E18" s="118">
         <f>E17*$E$34</f>
-        <v>0</v>
+        <v>-2.0703933747412102</v>
       </c>
       <c r="F18" s="118"/>
       <c r="G18" s="45"/>
       <c r="H18" s="118">
         <f>H17*$E$34</f>
-        <v>0</v>
+        <v>-4.1407867494824204</v>
       </c>
       <c r="I18" s="118"/>
       <c r="J18" s="118"/>
       <c r="K18" s="118">
         <f>K17*$E$34</f>
-        <v>0</v>
+        <v>-8.2815734989648409</v>
       </c>
       <c r="L18" s="118"/>
       <c r="M18" s="118"/>
       <c r="N18" s="118">
         <f>N17*$E$34</f>
-        <v>0</v>
+        <v>-16.563146997929682</v>
       </c>
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
       <c r="Q18" s="118">
         <f>Q17*$E$34</f>
-        <v>0</v>
+        <v>-33.126293995859363</v>
       </c>
       <c r="R18" s="118"/>
       <c r="S18" s="118"/>
       <c r="T18" s="118">
         <f>T17*$E$34</f>
-        <v>0</v>
+        <v>-66.252587991718727</v>
       </c>
       <c r="U18" s="118"/>
       <c r="V18" s="118"/>
       <c r="W18" s="118">
         <f>W17*$E$34</f>
-        <v>0</v>
+        <v>-132.50517598343745</v>
       </c>
       <c r="X18" s="118"/>
       <c r="Y18" s="118"/>
       <c r="Z18" s="118">
         <f>Z17*$E$34</f>
-        <v>0</v>
+        <v>-265.01035196687491</v>
       </c>
       <c r="AA18" s="118"/>
       <c r="AB18" s="118"/>
       <c r="AC18" s="118">
         <f>AC17*$E$34</f>
-        <v>0</v>
+        <v>-530.02070393374981</v>
       </c>
       <c r="AD18" s="118"/>
       <c r="AE18" s="118"/>
       <c r="AF18" s="118">
         <f>AF17*$E$34</f>
-        <v>0</v>
+        <v>-1060.0414078674996</v>
       </c>
       <c r="AG18" s="118"/>
       <c r="AH18" s="118"/>
       <c r="AI18" s="118">
         <f>AI17*$E$34</f>
-        <v>0</v>
+        <v>-2120.0828157349993</v>
       </c>
       <c r="AJ18" s="118"/>
       <c r="AK18" s="118"/>
       <c r="AL18" s="118">
         <f>AL17*$E$34</f>
-        <v>0</v>
+        <v>-4240.1656314699985</v>
       </c>
       <c r="AM18" s="118"/>
       <c r="AN18" s="118"/>
       <c r="AO18" s="118">
         <f>AO17*$E$34</f>
-        <v>0</v>
+        <v>-8480.331262939997</v>
       </c>
       <c r="AP18" s="45"/>
       <c r="AQ18" s="81" t="s">
@@ -31745,85 +31757,85 @@
       </c>
       <c r="B19" s="98">
         <f>B18</f>
-        <v>0</v>
+        <v>-1.0351966873706051</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99">
         <f>E18</f>
-        <v>0</v>
+        <v>-2.0703933747412102</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="46"/>
       <c r="H19" s="99">
         <f>H18</f>
-        <v>0</v>
+        <v>-4.1407867494824204</v>
       </c>
       <c r="I19" s="99"/>
       <c r="J19" s="99"/>
       <c r="K19" s="99">
         <f>K18</f>
-        <v>0</v>
+        <v>-8.2815734989648409</v>
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
       <c r="N19" s="99">
         <f>N18</f>
-        <v>0</v>
+        <v>-16.563146997929682</v>
       </c>
       <c r="O19" s="99"/>
       <c r="P19" s="99"/>
       <c r="Q19" s="99">
         <f>Q18</f>
-        <v>0</v>
+        <v>-33.126293995859363</v>
       </c>
       <c r="R19" s="99"/>
       <c r="S19" s="99"/>
       <c r="T19" s="99">
         <f>T18</f>
-        <v>0</v>
+        <v>-66.252587991718727</v>
       </c>
       <c r="U19" s="99"/>
       <c r="V19" s="99"/>
       <c r="W19" s="135">
         <f>W18-B18</f>
-        <v>0</v>
+        <v>-131.46997929606684</v>
       </c>
       <c r="X19" s="135"/>
       <c r="Y19" s="135"/>
       <c r="Z19" s="135">
         <f>Z18-E18</f>
-        <v>0</v>
+        <v>-262.93995859213368</v>
       </c>
       <c r="AA19" s="135"/>
       <c r="AB19" s="135"/>
       <c r="AC19" s="135">
         <f>AC18-H18</f>
-        <v>0</v>
+        <v>-525.87991718426736</v>
       </c>
       <c r="AD19" s="135"/>
       <c r="AE19" s="135"/>
       <c r="AF19" s="135">
         <f>AF18-K18</f>
-        <v>0</v>
+        <v>-1051.7598343685347</v>
       </c>
       <c r="AG19" s="135"/>
       <c r="AH19" s="135"/>
       <c r="AI19" s="135">
         <f>AI18-N18</f>
-        <v>0</v>
+        <v>-2103.5196687370694</v>
       </c>
       <c r="AJ19" s="135"/>
       <c r="AK19" s="135"/>
       <c r="AL19" s="135">
         <f>AL18-Q18</f>
-        <v>0</v>
+        <v>-4207.0393374741388</v>
       </c>
       <c r="AM19" s="135"/>
       <c r="AN19" s="135"/>
       <c r="AO19" s="135">
         <f>AO18-T18</f>
-        <v>0</v>
+        <v>-8414.0786749482777</v>
       </c>
       <c r="AP19" s="136"/>
       <c r="AQ19" s="59" t="s">
@@ -31845,67 +31857,67 @@
       <c r="J20" s="121"/>
       <c r="K20" s="145">
         <f>B17*(1-E34)</f>
-        <v>71.428571428571431</v>
+        <v>72.463768115942031</v>
       </c>
       <c r="L20" s="142"/>
       <c r="M20" s="143"/>
       <c r="N20" s="144">
         <f>E17*(1-E34)</f>
-        <v>142.85714285714286</v>
+        <v>144.92753623188406</v>
       </c>
       <c r="O20" s="142"/>
       <c r="P20" s="143"/>
       <c r="Q20" s="144">
         <f>H17*(1-E34)</f>
-        <v>285.71428571428572</v>
+        <v>289.85507246376812</v>
       </c>
       <c r="R20" s="142"/>
       <c r="S20" s="143"/>
       <c r="T20" s="144">
         <f>K17*(1-E34)</f>
-        <v>571.42857142857144</v>
+        <v>579.71014492753625</v>
       </c>
       <c r="U20" s="142"/>
       <c r="V20" s="143"/>
       <c r="W20" s="144">
         <f>N17*(1-E34)</f>
-        <v>1142.8571428571429</v>
+        <v>1159.4202898550725</v>
       </c>
       <c r="X20" s="142"/>
       <c r="Y20" s="143"/>
       <c r="Z20" s="144">
         <f>Q17*(1-E34)</f>
-        <v>2285.7142857142858</v>
+        <v>2318.840579710145</v>
       </c>
       <c r="AA20" s="142"/>
       <c r="AB20" s="143"/>
       <c r="AC20" s="144">
         <f>T17*(1-E34)</f>
-        <v>4571.4285714285716</v>
+        <v>4637.68115942029</v>
       </c>
       <c r="AD20" s="142"/>
       <c r="AE20" s="143"/>
       <c r="AF20" s="144">
         <f>W17*(1-E34)</f>
-        <v>9142.8571428571431</v>
+        <v>9275.36231884058</v>
       </c>
       <c r="AG20" s="142"/>
       <c r="AH20" s="143"/>
       <c r="AI20" s="144">
         <f>Z17*(1-E34)</f>
-        <v>18285.714285714286</v>
+        <v>18550.72463768116</v>
       </c>
       <c r="AJ20" s="142"/>
       <c r="AK20" s="143"/>
       <c r="AL20" s="144">
         <f>AC17*(1-E34)</f>
-        <v>36571.428571428572</v>
+        <v>37101.44927536232</v>
       </c>
       <c r="AM20" s="142"/>
       <c r="AN20" s="143"/>
       <c r="AO20" s="144">
         <f>AF17*(1-E34)</f>
-        <v>73142.857142857145</v>
+        <v>74202.89855072464</v>
       </c>
       <c r="AP20" s="91"/>
       <c r="AQ20" t="s">
@@ -31924,73 +31936,73 @@
       <c r="G21" s="94"/>
       <c r="H21" s="137">
         <f>B17-B18</f>
-        <v>71.428571428571431</v>
+        <v>72.463768115942031</v>
       </c>
       <c r="I21" s="137"/>
       <c r="J21" s="137"/>
       <c r="K21" s="137">
         <f>E17-E18</f>
-        <v>142.85714285714286</v>
+        <v>144.92753623188406</v>
       </c>
       <c r="L21" s="137"/>
       <c r="M21" s="137"/>
       <c r="N21" s="137">
         <f>(H17-H18)*$E$35</f>
-        <v>262.85714285714289</v>
+        <v>266.66666666666669</v>
       </c>
       <c r="O21" s="137"/>
       <c r="P21" s="137"/>
       <c r="Q21" s="137">
         <f>(K17-K18)*$E$35</f>
-        <v>525.71428571428578</v>
+        <v>533.33333333333337</v>
       </c>
       <c r="R21" s="137"/>
       <c r="S21" s="137"/>
       <c r="T21" s="137">
         <f>(N17-N18)*$E$35</f>
-        <v>1051.4285714285716</v>
+        <v>1066.6666666666667</v>
       </c>
       <c r="U21" s="137"/>
       <c r="V21" s="137"/>
       <c r="W21" s="137">
         <f>((Q17-Q18)*$E$35)-(H21*$E$35)</f>
-        <v>2037.1428571428573</v>
+        <v>2066.666666666667</v>
       </c>
       <c r="X21" s="137"/>
       <c r="Y21" s="137"/>
       <c r="Z21" s="137">
         <f>((T17-T18)*$E$35)-(K21*$E$35)</f>
-        <v>4074.2857142857147</v>
+        <v>4133.3333333333339</v>
       </c>
       <c r="AA21" s="137"/>
       <c r="AB21" s="137"/>
       <c r="AC21" s="137">
         <f>((W17-W18)*$E$35)-N21</f>
-        <v>8148.5714285714294</v>
+        <v>8266.6666666666679</v>
       </c>
       <c r="AD21" s="137"/>
       <c r="AE21" s="137"/>
       <c r="AF21" s="137">
         <f>((Z17-Z18)*$E$35)-Q21</f>
-        <v>16297.142857142859</v>
+        <v>16533.333333333336</v>
       </c>
       <c r="AG21" s="137"/>
       <c r="AH21" s="137"/>
       <c r="AI21" s="137">
         <f>((AC17-AC18)*$E$35)-T21</f>
-        <v>32594.285714285717</v>
+        <v>33066.666666666672</v>
       </c>
       <c r="AJ21" s="137"/>
       <c r="AK21" s="137"/>
       <c r="AL21" s="137">
         <f>((AF17-AF18)*$E$35)-W21</f>
-        <v>65254.285714285725</v>
+        <v>66200</v>
       </c>
       <c r="AM21" s="137"/>
       <c r="AN21" s="137"/>
       <c r="AO21" s="137">
         <f>((AI17-AI18)*$E$35)-Z21</f>
-        <v>130508.57142857145</v>
+        <v>132400</v>
       </c>
       <c r="AP21" s="138"/>
       <c r="AQ21" s="81" t="s">
@@ -32015,61 +32027,61 @@
       <c r="M22" s="121"/>
       <c r="N22" s="139">
         <f>(H17-H18)*($E$36+$E$37)</f>
-        <v>22.857142857142858</v>
+        <v>23.188405797101449</v>
       </c>
       <c r="O22" s="139"/>
       <c r="P22" s="139"/>
       <c r="Q22" s="139">
         <f>(K17-K18)*($E$36+$E$37)</f>
-        <v>45.714285714285715</v>
+        <v>46.376811594202898</v>
       </c>
       <c r="R22" s="139"/>
       <c r="S22" s="139"/>
       <c r="T22" s="139">
         <f>(N17-N18)*$E$36</f>
-        <v>57.142857142857146</v>
+        <v>57.971014492753625</v>
       </c>
       <c r="U22" s="139"/>
       <c r="V22" s="139"/>
       <c r="W22" s="139">
         <f>(Q17-Q18)*$E$36</f>
-        <v>114.28571428571429</v>
+        <v>115.94202898550725</v>
       </c>
       <c r="X22" s="139"/>
       <c r="Y22" s="139"/>
       <c r="Z22" s="139">
         <f>(T17-T18)*$E$36</f>
-        <v>228.57142857142858</v>
+        <v>231.8840579710145</v>
       </c>
       <c r="AA22" s="139"/>
       <c r="AB22" s="139"/>
       <c r="AC22" s="139">
         <f>(W17-W18)*$E$36</f>
-        <v>457.14285714285717</v>
+        <v>463.768115942029</v>
       </c>
       <c r="AD22" s="139"/>
       <c r="AE22" s="139"/>
       <c r="AF22" s="139">
         <f>(Z17-Z18)*$E$36</f>
-        <v>914.28571428571433</v>
+        <v>927.536231884058</v>
       </c>
       <c r="AG22" s="139"/>
       <c r="AH22" s="139"/>
       <c r="AI22" s="139">
         <f>(AC17-AC18)*$E$36</f>
-        <v>1828.5714285714287</v>
+        <v>1855.072463768116</v>
       </c>
       <c r="AJ22" s="139"/>
       <c r="AK22" s="139"/>
       <c r="AL22" s="139">
         <f>(AF17-AF18)*$E$36</f>
-        <v>3657.1428571428573</v>
+        <v>3710.144927536232</v>
       </c>
       <c r="AM22" s="139"/>
       <c r="AN22" s="139"/>
       <c r="AO22" s="139">
         <f>(AI17-AI18)*$E$36</f>
-        <v>7314.2857142857147</v>
+        <v>7420.289855072464</v>
       </c>
       <c r="AP22" s="140"/>
       <c r="AQ22" s="81" t="s">
@@ -32100,49 +32112,49 @@
       <c r="S23" s="121"/>
       <c r="T23" s="52">
         <f>(N17-N18)*$E$37</f>
-        <v>34.285714285714285</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="U23" s="52"/>
       <c r="V23" s="52"/>
       <c r="W23" s="52">
         <f>(Q17-Q18)*$E$37</f>
-        <v>68.571428571428569</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="X23" s="52"/>
       <c r="Y23" s="52"/>
       <c r="Z23" s="52">
         <f>(T17-T18)*$E$37</f>
-        <v>137.14285714285714</v>
+        <v>139.13043478260869</v>
       </c>
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
       <c r="AC23" s="52">
         <f>(W17-W18)*$E$37</f>
-        <v>274.28571428571428</v>
+        <v>278.26086956521738</v>
       </c>
       <c r="AD23" s="52"/>
       <c r="AE23" s="52"/>
       <c r="AF23" s="52">
         <f>(Z17-Z18)*$E$37</f>
-        <v>548.57142857142856</v>
+        <v>556.52173913043475</v>
       </c>
       <c r="AG23" s="52"/>
       <c r="AH23" s="52"/>
       <c r="AI23" s="52">
         <f>(AC17-AC18)*$E$37</f>
-        <v>1097.1428571428571</v>
+        <v>1113.0434782608695</v>
       </c>
       <c r="AJ23" s="52"/>
       <c r="AK23" s="52"/>
       <c r="AL23" s="52">
         <f>(AF17-AF18)*$E$37</f>
-        <v>2194.2857142857142</v>
+        <v>2226.086956521739</v>
       </c>
       <c r="AM23" s="52"/>
       <c r="AN23" s="52"/>
       <c r="AO23" s="52">
         <f>(AI17-AI18)*$E$37</f>
-        <v>4388.5714285714284</v>
+        <v>4452.173913043478</v>
       </c>
       <c r="AP23" s="141"/>
       <c r="AQ23" s="59" t="s">
@@ -32175,43 +32187,43 @@
       <c r="U24" s="121"/>
       <c r="V24" s="122">
         <f>H21*$E$35</f>
-        <v>65.714285714285722</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="W24" s="122"/>
       <c r="X24" s="122"/>
       <c r="Y24" s="122">
         <f>K21*$E$35</f>
-        <v>131.42857142857144</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="Z24" s="122"/>
       <c r="AA24" s="122"/>
       <c r="AB24" s="122">
         <f>N21</f>
-        <v>262.85714285714289</v>
+        <v>266.66666666666669</v>
       </c>
       <c r="AC24" s="122"/>
       <c r="AD24" s="122"/>
       <c r="AE24" s="122">
         <f>Q21</f>
-        <v>525.71428571428578</v>
+        <v>533.33333333333337</v>
       </c>
       <c r="AF24" s="122"/>
       <c r="AG24" s="122"/>
       <c r="AH24" s="122">
         <f>T21</f>
-        <v>1051.4285714285716</v>
+        <v>1066.6666666666667</v>
       </c>
       <c r="AI24" s="122"/>
       <c r="AJ24" s="122"/>
       <c r="AK24" s="122">
         <f>W21</f>
-        <v>2037.1428571428573</v>
+        <v>2066.666666666667</v>
       </c>
       <c r="AL24" s="122"/>
       <c r="AM24" s="122"/>
       <c r="AN24" s="122">
         <f>Z21</f>
-        <v>4074.2857142857147</v>
+        <v>4133.3333333333339</v>
       </c>
       <c r="AO24" s="122"/>
       <c r="AP24" s="123"/>
@@ -32277,167 +32289,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43960.943847916664</v>
+        <v>43964.917079166669</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.943847916664</v>
+        <v>43965.917079166669</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.943847916664</v>
+        <v>43966.917079166669</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.943847916664</v>
+        <v>43967.917079166669</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.943847916664</v>
+        <v>43968.917079166669</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43965.943847916664</v>
+        <v>43969.917079166669</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43966.943847916664</v>
+        <v>43970.917079166669</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.943847916664</v>
+        <v>43971.917079166669</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.943847916664</v>
+        <v>43972.917079166669</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.943847916664</v>
+        <v>43973.917079166669</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.943847916664</v>
+        <v>43974.917079166669</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.943847916664</v>
+        <v>43975.917079166669</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.943847916664</v>
+        <v>43976.917079166669</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.943847916664</v>
+        <v>43977.917079166669</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.943847916664</v>
+        <v>43978.917079166669</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.943847916664</v>
+        <v>43979.917079166669</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.943847916664</v>
+        <v>43980.917079166669</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.943847916664</v>
+        <v>43981.917079166669</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.943847916664</v>
+        <v>43982.917079166669</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.943847916664</v>
+        <v>43983.917079166669</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43980.943847916664</v>
+        <v>43984.917079166669</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.943847916664</v>
+        <v>43985.917079166669</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.943847916664</v>
+        <v>43986.917079166669</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.943847916664</v>
+        <v>43987.917079166669</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.943847916664</v>
+        <v>43988.917079166669</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.943847916664</v>
+        <v>43989.917079166669</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.943847916664</v>
+        <v>43990.917079166669</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.943847916664</v>
+        <v>43991.917079166669</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.943847916664</v>
+        <v>43992.917079166669</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.943847916664</v>
+        <v>43993.917079166669</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.943847916664</v>
+        <v>43994.917079166669</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.943847916664</v>
+        <v>43995.917079166669</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.943847916664</v>
+        <v>43996.917079166669</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.943847916664</v>
+        <v>43997.917079166669</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.943847916664</v>
+        <v>43998.917079166669</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.943847916664</v>
+        <v>43999.917079166669</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.943847916664</v>
+        <v>44000.917079166669</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.943847916664</v>
+        <v>44001.917079166669</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.943847916664</v>
+        <v>44002.917079166669</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>43999.943847916664</v>
+        <v>44003.917079166669</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44000.943847916664</v>
+        <v>44004.917079166669</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32683,7 +32695,7 @@
       <c r="D31" s="21"/>
       <c r="E31" s="97">
         <f>VLOOKUP(C31,B43:C54,2,FALSE)</f>
-        <v>1.4E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -32728,7 +32740,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="154">
         <f>1-Projections!B37</f>
-        <v>0</v>
+        <v>-1.449275362318847E-2</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>193</v>
@@ -32846,7 +32858,7 @@
       </c>
       <c r="C45" s="39">
         <f>Projections!B44</f>
-        <v>1.4E-2</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -32955,8 +32967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33184,10 +33196,10 @@
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
       <c r="O16" s="59"/>
-      <c r="P16" s="301">
+      <c r="P16" s="296">
         <v>43949</v>
       </c>
-      <c r="Q16" s="302" t="s">
+      <c r="Q16" s="297" t="s">
         <v>299</v>
       </c>
       <c r="R16" s="59"/>
@@ -33204,10 +33216,10 @@
     </row>
     <row r="18" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O18" s="278"/>
-      <c r="P18" s="299">
+      <c r="P18" s="294">
         <v>43961</v>
       </c>
-      <c r="Q18" s="300" t="s">
+      <c r="Q18" s="295" t="s">
         <v>307</v>
       </c>
       <c r="S18" s="181"/>
@@ -33289,10 +33301,10 @@
       </c>
     </row>
     <row r="28" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q28" s="299">
+      <c r="Q28" s="294">
         <v>43983</v>
       </c>
-      <c r="R28" s="300" t="s">
+      <c r="R28" s="295" t="s">
         <v>318</v>
       </c>
     </row>
@@ -33329,19 +33341,19 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="R33" s="278">
+      <c r="Q33" s="278">
         <v>43995</v>
       </c>
-      <c r="S33" t="s">
+      <c r="R33" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="S34" s="303">
-        <v>44025</v>
-      </c>
-      <c r="T34" s="304" t="s">
-        <v>323</v>
+      <c r="R34" s="278">
+        <v>44001</v>
+      </c>
+      <c r="S34" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -33354,11 +33366,11 @@
       <c r="C35" t="s">
         <v>151</v>
       </c>
-      <c r="S35" s="303">
-        <v>44032</v>
-      </c>
-      <c r="T35" s="304" t="s">
-        <v>324</v>
+      <c r="R35" s="278">
+        <v>44002</v>
+      </c>
+      <c r="S35" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
@@ -33368,6 +33380,12 @@
       <c r="B36" s="291">
         <v>1.4E-2</v>
       </c>
+      <c r="S36" s="298">
+        <v>44025</v>
+      </c>
+      <c r="T36" s="299" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -33375,10 +33393,16 @@
       </c>
       <c r="B37" s="170">
         <f>B36/B44</f>
-        <v>1</v>
+        <v>1.0144927536231885</v>
       </c>
       <c r="C37" t="s">
         <v>314</v>
+      </c>
+      <c r="S37" s="298">
+        <v>44032</v>
+      </c>
+      <c r="T37" s="299" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
@@ -33413,6 +33437,10 @@
         <f>(B35/100000)*B40</f>
         <v>1896.9159999999999</v>
       </c>
+      <c r="O40" s="191"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="191"/>
+      <c r="R40" s="191"/>
       <c r="X40" s="134"/>
       <c r="Y40" s="278"/>
     </row>
@@ -33471,7 +33499,7 @@
         <v>214</v>
       </c>
       <c r="B44" s="77">
-        <v>1.4E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="194" t="s">
@@ -33618,52 +33646,52 @@
         <v>115</v>
       </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="293">
+      <c r="G48" s="300">
         <v>43892</v>
       </c>
-      <c r="H48" s="294">
+      <c r="H48" s="301">
         <f>G48+HLOOKUP(G48+1, $B$47:$F$48,2,TRUE)</f>
         <v>43896</v>
       </c>
-      <c r="I48" s="294">
+      <c r="I48" s="301">
         <f t="shared" ref="I48:AC48" si="0">H48+HLOOKUP(H48+1, $B$47:$F$48,2,TRUE)</f>
         <v>43900</v>
       </c>
-      <c r="J48" s="294">
+      <c r="J48" s="301">
         <f t="shared" si="0"/>
         <v>43904</v>
       </c>
-      <c r="K48" s="294">
+      <c r="K48" s="301">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="L48" s="295">
+      <c r="L48" s="302">
         <f t="shared" si="0"/>
         <v>43911</v>
       </c>
-      <c r="M48" s="295">
+      <c r="M48" s="302">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
-      <c r="N48" s="296">
+      <c r="N48" s="303">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="O48" s="297">
+      <c r="O48" s="304">
         <f>$N$48+(($T$48-$N$48)*(0.09))</f>
         <v>43929.35</v>
       </c>
-      <c r="P48" s="297">
+      <c r="P48" s="304">
         <f>$N$48+(($T$48-$N$48)*0.19)</f>
         <v>43940.85</v>
       </c>
-      <c r="Q48" s="298">
+      <c r="Q48" s="304">
         <f>$N$48+(($T$48-$N$48)*0.41)</f>
         <v>43966.15</v>
       </c>
-      <c r="R48" s="279">
-        <f>$N$48+(($T$48-$N$48)*0.75)</f>
-        <v>44005.25</v>
+      <c r="R48" s="293">
+        <f>$N$48+(($T$48-$N$48)*0.72)</f>
+        <v>44001.8</v>
       </c>
       <c r="S48" s="279">
         <f>$N$48+(($T$48-$N$48)*0.9)</f>
@@ -34029,7 +34057,7 @@
       </c>
       <c r="S51" s="253">
         <f t="shared" si="6"/>
-        <v>378.44490573917221</v>
+        <v>331.11979030206476</v>
       </c>
       <c r="T51" s="252">
         <f>MAX(T49-(T57-T58)-(T59-T60)-(T61-T62),0)</f>
@@ -34147,7 +34175,7 @@
       </c>
       <c r="S52" s="135">
         <f t="shared" si="10"/>
-        <v>7421.5550942608279</v>
+        <v>7468.8802096979352</v>
       </c>
       <c r="T52" s="270">
         <f>T49-T51</f>
@@ -34217,103 +34245,103 @@
       <c r="F53" s="21"/>
       <c r="G53" s="231">
         <f t="shared" ref="G53:AD53" si="12">G49/$B$37</f>
-        <v>31.25</v>
+        <v>30.803571428571427</v>
       </c>
       <c r="H53" s="232">
         <f t="shared" si="12"/>
-        <v>62.5</v>
+        <v>61.607142857142854</v>
       </c>
       <c r="I53" s="232">
         <f t="shared" si="12"/>
-        <v>125</v>
+        <v>123.21428571428571</v>
       </c>
       <c r="J53" s="232">
         <f t="shared" si="12"/>
-        <v>250</v>
+        <v>246.42857142857142</v>
       </c>
       <c r="K53" s="232">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>492.85714285714283</v>
       </c>
       <c r="L53" s="231">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>985.71428571428567</v>
       </c>
       <c r="M53" s="232">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>1971.4285714285713</v>
       </c>
       <c r="N53" s="232">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>3942.8571428571427</v>
       </c>
       <c r="O53" s="231">
         <f t="shared" ref="O53:S53" si="13">O49/$B$37</f>
-        <v>6000</v>
+        <v>5914.2857142857138</v>
       </c>
       <c r="P53" s="232">
         <f t="shared" si="13"/>
-        <v>6600</v>
+        <v>6505.7142857142853</v>
       </c>
       <c r="Q53" s="232">
         <f t="shared" ref="Q53:R53" si="14">Q49/$B$37</f>
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="R53" s="232">
         <f t="shared" si="14"/>
-        <v>7400</v>
+        <v>7294.2857142857138</v>
       </c>
       <c r="S53" s="232">
         <f t="shared" si="13"/>
-        <v>7800</v>
+        <v>7688.5714285714284</v>
       </c>
       <c r="T53" s="231">
         <f t="shared" si="12"/>
-        <v>8000</v>
+        <v>7885.7142857142853</v>
       </c>
       <c r="U53" s="232">
         <f t="shared" si="12"/>
-        <v>16000</v>
+        <v>15771.428571428571</v>
       </c>
       <c r="V53" s="232">
         <f t="shared" si="12"/>
-        <v>32000</v>
+        <v>31542.857142857141</v>
       </c>
       <c r="W53" s="232">
         <f t="shared" si="12"/>
-        <v>64000</v>
+        <v>63085.714285714283</v>
       </c>
       <c r="X53" s="232">
         <f t="shared" si="12"/>
-        <v>128000</v>
+        <v>126171.42857142857</v>
       </c>
       <c r="Y53" s="232">
         <f t="shared" si="12"/>
-        <v>256000</v>
+        <v>252342.85714285713</v>
       </c>
       <c r="Z53" s="232">
         <f t="shared" si="12"/>
-        <v>512000</v>
+        <v>504685.71428571426</v>
       </c>
       <c r="AA53" s="232">
         <f t="shared" si="12"/>
-        <v>1024000</v>
+        <v>1009371.4285714285</v>
       </c>
       <c r="AB53" s="232">
         <f t="shared" si="12"/>
-        <v>2048000</v>
+        <v>2018742.857142857</v>
       </c>
       <c r="AC53" s="232">
         <f t="shared" si="12"/>
-        <v>4096000</v>
+        <v>4037485.7142857141</v>
       </c>
       <c r="AD53" s="240">
         <f t="shared" si="12"/>
-        <v>8192000</v>
+        <v>8074971.4285714282</v>
       </c>
       <c r="AE53" s="267">
         <f>AE49/$B$37</f>
-        <v>16384000</v>
+        <v>16149942.857142856</v>
       </c>
       <c r="AF53" s="215">
         <f>AF49</f>
@@ -34321,7 +34349,7 @@
       </c>
       <c r="AG53" s="243">
         <f>($B$35*$B$38)/$B$37</f>
-        <v>5126800</v>
+        <v>5053560</v>
       </c>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
@@ -34338,110 +34366,110 @@
       <c r="F54" s="28"/>
       <c r="G54" s="210">
         <f>G53/$B$35</f>
-        <v>1.2190840290239525E-6</v>
+        <v>1.2016685428950388E-6</v>
       </c>
       <c r="H54" s="78">
         <f t="shared" ref="H54:AD54" si="15">H53/$B$35</f>
-        <v>2.438168058047905E-6</v>
+        <v>2.4033370857900777E-6</v>
       </c>
       <c r="I54" s="78">
         <f t="shared" si="15"/>
-        <v>4.87633611609581E-6</v>
+        <v>4.8066741715801554E-6</v>
       </c>
       <c r="J54" s="48">
         <f t="shared" si="15"/>
-        <v>9.7526722321916199E-6</v>
+        <v>9.6133483431603108E-6</v>
       </c>
       <c r="K54" s="48">
         <f t="shared" si="15"/>
-        <v>1.950534446438324E-5</v>
+        <v>1.9226696686320622E-5</v>
       </c>
       <c r="L54" s="101">
         <f t="shared" si="15"/>
-        <v>3.901068892876648E-5</v>
+        <v>3.8453393372641243E-5</v>
       </c>
       <c r="M54" s="48">
         <f t="shared" si="15"/>
-        <v>7.8021377857532959E-5</v>
+        <v>7.6906786745282486E-5</v>
       </c>
       <c r="N54" s="26">
         <f t="shared" si="15"/>
-        <v>1.5604275571506592E-4</v>
+        <v>1.5381357349056497E-4</v>
       </c>
       <c r="O54" s="18">
         <f t="shared" ref="O54:S54" si="16">O53/$B$35</f>
-        <v>2.3406413357259889E-4</v>
+        <v>2.3072036023584746E-4</v>
       </c>
       <c r="P54" s="26">
         <f t="shared" si="16"/>
-        <v>2.5747054692985876E-4</v>
+        <v>2.5379239625943219E-4</v>
       </c>
       <c r="Q54" s="26">
         <f t="shared" ref="Q54:R54" si="17">Q53/$B$35</f>
-        <v>2.7307482250136535E-4</v>
+        <v>2.691737536084887E-4</v>
       </c>
       <c r="R54" s="26">
         <f t="shared" si="17"/>
-        <v>2.8867909807287195E-4</v>
+        <v>2.8455511095754521E-4</v>
       </c>
       <c r="S54" s="26">
         <f t="shared" si="16"/>
-        <v>3.0428337364437854E-4</v>
+        <v>2.9993646830660172E-4</v>
       </c>
       <c r="T54" s="20">
         <f t="shared" si="15"/>
-        <v>3.1208551143013184E-4</v>
+        <v>3.0762714698112995E-4</v>
       </c>
       <c r="U54" s="27">
         <f t="shared" si="15"/>
-        <v>6.2417102286026367E-4</v>
+        <v>6.1525429396225989E-4</v>
       </c>
       <c r="V54" s="27">
         <f t="shared" si="15"/>
-        <v>1.2483420457205273E-3</v>
+        <v>1.2305085879245198E-3</v>
       </c>
       <c r="W54" s="27">
         <f t="shared" si="15"/>
-        <v>2.4966840914410547E-3</v>
+        <v>2.4610171758490396E-3</v>
       </c>
       <c r="X54" s="27">
         <f t="shared" si="15"/>
-        <v>4.9933681828821094E-3</v>
+        <v>4.9220343516980791E-3</v>
       </c>
       <c r="Y54" s="87">
         <f t="shared" si="15"/>
-        <v>9.9867363657642188E-3</v>
+        <v>9.8440687033961582E-3</v>
       </c>
       <c r="Z54" s="87">
         <f t="shared" si="15"/>
-        <v>1.9973472731528438E-2</v>
+        <v>1.9688137406792316E-2</v>
       </c>
       <c r="AA54" s="87">
         <f t="shared" si="15"/>
-        <v>3.9946945463056875E-2</v>
+        <v>3.9376274813584633E-2</v>
       </c>
       <c r="AB54" s="87">
         <f t="shared" si="15"/>
-        <v>7.989389092611375E-2</v>
+        <v>7.8752549627169266E-2</v>
       </c>
       <c r="AC54" s="87">
         <f t="shared" si="15"/>
-        <v>0.1597877818522275</v>
+        <v>0.15750509925433853</v>
       </c>
       <c r="AD54" s="269">
         <f t="shared" si="15"/>
-        <v>0.319575563704455</v>
+        <v>0.31501019850867706</v>
       </c>
       <c r="AE54" s="266">
         <f>AE53/$B$35</f>
-        <v>0.63915112740891</v>
+        <v>0.63002039701735413</v>
       </c>
       <c r="AF54" s="193">
         <v>1</v>
       </c>
       <c r="AG54" s="242">
         <f>AG53/B35</f>
-        <v>0.2</v>
+        <v>0.19714285714285715</v>
       </c>
       <c r="AH54" s="37"/>
       <c r="AI54" s="37"/>
@@ -34458,103 +34486,103 @@
       <c r="F55" s="28"/>
       <c r="G55" s="212">
         <f t="shared" ref="G55:AD55" si="18">G53-G49</f>
-        <v>0</v>
+        <v>-0.44642857142857295</v>
       </c>
       <c r="H55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.8928571428571459</v>
       </c>
       <c r="I55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.7857142857142918</v>
       </c>
       <c r="J55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-3.5714285714285836</v>
       </c>
       <c r="K55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-7.1428571428571672</v>
       </c>
       <c r="L55" s="212">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-14.285714285714334</v>
       </c>
       <c r="M55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-28.571428571428669</v>
       </c>
       <c r="N55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-57.142857142857338</v>
       </c>
       <c r="O55" s="212">
         <f t="shared" ref="O55:S55" si="19">O53-O49</f>
-        <v>0</v>
+        <v>-85.714285714286234</v>
       </c>
       <c r="P55" s="213">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-94.285714285714675</v>
       </c>
       <c r="Q55" s="213">
         <f t="shared" ref="Q55:R55" si="20">Q53-Q49</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R55" s="213">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-105.71428571428623</v>
       </c>
       <c r="S55" s="213">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-111.42857142857156</v>
       </c>
       <c r="T55" s="212">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-114.28571428571468</v>
       </c>
       <c r="U55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-228.57142857142935</v>
       </c>
       <c r="V55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-457.1428571428587</v>
       </c>
       <c r="W55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-914.2857142857174</v>
       </c>
       <c r="X55" s="213">
         <f>X53-X49</f>
-        <v>0</v>
+        <v>-1828.5714285714348</v>
       </c>
       <c r="Y55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-3657.1428571428696</v>
       </c>
       <c r="Z55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-7314.2857142857392</v>
       </c>
       <c r="AA55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-14628.571428571478</v>
       </c>
       <c r="AB55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-29257.142857142957</v>
       </c>
       <c r="AC55" s="213">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-58514.285714285914</v>
       </c>
       <c r="AD55" s="214">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-117028.57142857183</v>
       </c>
       <c r="AE55" s="267">
         <f>AE53</f>
-        <v>16384000</v>
+        <v>16149942.857142856</v>
       </c>
       <c r="AF55" s="215">
         <f>AF53</f>
@@ -34562,7 +34590,7 @@
       </c>
       <c r="AG55" s="245">
         <f>AG53-AG49</f>
-        <v>0</v>
+        <v>-73240</v>
       </c>
       <c r="AH55" s="37"/>
       <c r="AI55" s="37"/>
@@ -34579,103 +34607,103 @@
       <c r="F56" s="51"/>
       <c r="G56" s="216">
         <f>MIN((1/$B$37)*(2^(((G48 - 14) - $B$45)/$G$74)),G55)</f>
-        <v>0</v>
+        <v>-0.44642857142857295</v>
       </c>
       <c r="H56" s="217">
         <f>MIN((1/$B$37)*(2^(((H48 - 14) - $B$45)/$G$74)),H55)</f>
-        <v>0</v>
+        <v>-0.8928571428571459</v>
       </c>
       <c r="I56" s="217">
         <f t="shared" ref="I56:J56" si="21">MIN((1/$B$37)*(2^(((I48 - 14) - $B$45)/$G$74)),I55)</f>
-        <v>0</v>
+        <v>-1.7857142857142918</v>
       </c>
       <c r="J56" s="217">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-3.5714285714285836</v>
       </c>
       <c r="K56" s="219">
         <f t="shared" ref="K56:AF56" si="22">MIN(($G$49/$B$37)*(2^(((K48 - 14) - $G$48)/HLOOKUP((K48-14)-$B$45,$G$72:$AG$74,3,TRUE))),K55)</f>
-        <v>0</v>
+        <v>-7.1428571428571672</v>
       </c>
       <c r="L56" s="220">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-14.285714285714334</v>
       </c>
       <c r="M56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-28.571428571428669</v>
       </c>
       <c r="N56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-57.142857142857338</v>
       </c>
       <c r="O56" s="220">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-85.714285714286234</v>
       </c>
       <c r="P56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-94.285714285714675</v>
       </c>
       <c r="Q56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-105.71428571428623</v>
       </c>
       <c r="S56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-111.42857142857156</v>
       </c>
       <c r="T56" s="220">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-114.28571428571468</v>
       </c>
       <c r="U56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-228.57142857142935</v>
       </c>
       <c r="V56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-457.1428571428587</v>
       </c>
       <c r="W56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-914.2857142857174</v>
       </c>
       <c r="X56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1828.5714285714348</v>
       </c>
       <c r="Y56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-3657.1428571428696</v>
       </c>
       <c r="Z56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-7314.2857142857392</v>
       </c>
       <c r="AA56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-14628.571428571478</v>
       </c>
       <c r="AB56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-29257.142857142957</v>
       </c>
       <c r="AC56" s="219">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-58514.285714285914</v>
       </c>
       <c r="AD56" s="218">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-117028.57142857183</v>
       </c>
       <c r="AE56" s="267">
         <f t="shared" si="22"/>
-        <v>16384000</v>
+        <v>16149942.857142856</v>
       </c>
       <c r="AF56" s="221">
         <f t="shared" si="22"/>
@@ -34980,11 +35008,11 @@
       </c>
       <c r="R59" s="284">
         <f t="shared" si="27"/>
-        <v>5412.5731227783745</v>
+        <v>4217.9293984147635</v>
       </c>
       <c r="S59" s="284">
         <f t="shared" si="27"/>
-        <v>914.98907768335982</v>
+        <v>1102.9505029517011</v>
       </c>
       <c r="T59" s="285">
         <f t="shared" si="27"/>
@@ -35101,11 +35129,11 @@
       </c>
       <c r="R60" s="219">
         <f t="shared" si="31"/>
-        <v>4188.839639512581</v>
+        <v>3264.2939799538044</v>
       </c>
       <c r="S60" s="219">
         <f t="shared" si="30"/>
-        <v>669.43398342253204</v>
+        <v>810.07029325376584</v>
       </c>
       <c r="T60" s="220">
         <f t="shared" ref="T60:AF60" si="32">MAX(T59-($G$49*$B$42)*(2^(((T48 - 42) - $G$48)/HLOOKUP((T48-42)-$B$45,$G$72:$AG$74,3,TRUE)))-T62,0)</f>
@@ -35218,15 +35246,15 @@
       </c>
       <c r="R61" s="284">
         <f t="shared" si="33"/>
-        <v>1223.7334832657932</v>
+        <v>953.63541846095893</v>
       </c>
       <c r="S61" s="284">
         <f t="shared" si="33"/>
-        <v>245.55509426082781</v>
+        <v>292.88020969793524</v>
       </c>
       <c r="T61" s="285">
         <f t="shared" si="33"/>
-        <v>425.45455935549376</v>
+        <v>516.35670124040007</v>
       </c>
       <c r="U61" s="232">
         <f t="shared" si="33"/>
@@ -35339,11 +35367,11 @@
       </c>
       <c r="R62" s="219">
         <f t="shared" si="37"/>
-        <v>1223.7334832657932</v>
+        <v>953.63541846095893</v>
       </c>
       <c r="S62" s="219">
         <f t="shared" si="36"/>
-        <v>245.55509426082781</v>
+        <v>292.88020969793524</v>
       </c>
       <c r="T62" s="224">
         <f t="shared" ref="T62:AF62" si="38">MAX(T61-($G$49*$B$43)*(2^(((T48 - 35) - $G$48)/HLOOKUP((T48-35)-$B$45,$G$72:$AG$74,3,TRUE))),0)</f>
@@ -35413,111 +35441,111 @@
       <c r="F63" s="21"/>
       <c r="G63" s="225">
         <f t="shared" ref="G63:AF63" si="39">G49*$B$44</f>
-        <v>0.4375</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="H63" s="226">
         <f t="shared" si="39"/>
-        <v>0.875</v>
+        <v>0.86249999999999993</v>
       </c>
       <c r="I63" s="226">
         <f t="shared" si="39"/>
-        <v>1.75</v>
+        <v>1.7249999999999999</v>
       </c>
       <c r="J63" s="226">
         <f t="shared" si="39"/>
-        <v>3.5</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="K63" s="226">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="L63" s="225">
         <f t="shared" si="39"/>
-        <v>14</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="M63" s="226">
         <f t="shared" si="39"/>
-        <v>28</v>
+        <v>27.599999999999998</v>
       </c>
       <c r="N63" s="226">
         <f t="shared" si="39"/>
-        <v>56</v>
+        <v>55.199999999999996</v>
       </c>
       <c r="O63" s="225">
         <f t="shared" ref="O63:S63" si="40">O49*$B$44</f>
-        <v>84</v>
+        <v>82.8</v>
       </c>
       <c r="P63" s="226">
         <f t="shared" si="40"/>
-        <v>92.4</v>
+        <v>91.08</v>
       </c>
       <c r="Q63" s="226">
         <f t="shared" ref="Q63:R63" si="41">Q49*$B$44</f>
-        <v>98</v>
+        <v>96.6</v>
       </c>
       <c r="R63" s="226">
         <f t="shared" si="41"/>
-        <v>103.60000000000001</v>
+        <v>102.12</v>
       </c>
       <c r="S63" s="226">
         <f t="shared" si="40"/>
-        <v>109.2</v>
+        <v>107.64</v>
       </c>
       <c r="T63" s="225">
         <f t="shared" si="39"/>
-        <v>112</v>
+        <v>110.39999999999999</v>
       </c>
       <c r="U63" s="226">
         <f t="shared" si="39"/>
-        <v>224</v>
+        <v>220.79999999999998</v>
       </c>
       <c r="V63" s="226">
         <f t="shared" si="39"/>
-        <v>448</v>
+        <v>441.59999999999997</v>
       </c>
       <c r="W63" s="226">
         <f t="shared" si="39"/>
-        <v>896</v>
+        <v>883.19999999999993</v>
       </c>
       <c r="X63" s="226">
         <f t="shared" si="39"/>
-        <v>1792</v>
+        <v>1766.3999999999999</v>
       </c>
       <c r="Y63" s="226">
         <f t="shared" si="39"/>
-        <v>3584</v>
+        <v>3532.7999999999997</v>
       </c>
       <c r="Z63" s="226">
         <f t="shared" si="39"/>
-        <v>7168</v>
+        <v>7065.5999999999995</v>
       </c>
       <c r="AA63" s="226">
         <f t="shared" si="39"/>
-        <v>14336</v>
+        <v>14131.199999999999</v>
       </c>
       <c r="AB63" s="226">
         <f t="shared" si="39"/>
-        <v>28672</v>
+        <v>28262.399999999998</v>
       </c>
       <c r="AC63" s="226">
         <f t="shared" si="39"/>
-        <v>57344</v>
+        <v>56524.799999999996</v>
       </c>
       <c r="AD63" s="227">
         <f t="shared" si="39"/>
-        <v>114688</v>
+        <v>113049.59999999999</v>
       </c>
       <c r="AE63" s="267">
         <f t="shared" si="39"/>
-        <v>229376</v>
+        <v>226099.19999999998</v>
       </c>
       <c r="AF63" s="222">
         <f t="shared" si="39"/>
-        <v>358876</v>
+        <v>353749.2</v>
       </c>
       <c r="AG63" s="243">
         <f>AG49*B44</f>
-        <v>71775.199999999997</v>
+        <v>70749.84</v>
       </c>
       <c r="AH63" s="57"/>
       <c r="AI63" s="57"/>
@@ -35541,83 +35569,83 @@
       <c r="M64" s="217"/>
       <c r="N64" s="229">
         <f>($G$49*$B$44)*(2^(((N48-35)-$G$48)/$G$74))</f>
-        <v>0.2054237812312126</v>
+        <v>0.20248915578505242</v>
       </c>
       <c r="O64" s="230">
         <f t="shared" ref="O64:S64" si="42">($G$49*$B$44)*(2^(((O48-35)-$G$48)/$G$74))</f>
-        <v>0.54629121045943951</v>
+        <v>0.53848705031001898</v>
       </c>
       <c r="P64" s="229">
         <f t="shared" si="42"/>
-        <v>1.6195514970756304</v>
+        <v>1.596415047117407</v>
       </c>
       <c r="Q64" s="229">
         <f t="shared" ref="Q64:R64" si="43">($G$49*$B$44)*(2^(((Q48-35)-$G$48)/$G$74))</f>
-        <v>17.690087026044658</v>
+        <v>17.437371497101161</v>
       </c>
       <c r="R64" s="229">
         <f t="shared" si="43"/>
-        <v>711.91777364932</v>
+        <v>506.51197992986778</v>
       </c>
       <c r="S64" s="229">
         <f t="shared" si="42"/>
-        <v>3634.0061582451863</v>
+        <v>3582.0917845559693</v>
       </c>
       <c r="T64" s="230">
         <f t="shared" ref="T64:AF64" si="44">($G$49*$B$44)*(2^(((T48-35)-$G$48)/HLOOKUP((T48-35)-$B$45,$G$72:$AG$74,3,TRUE)))</f>
-        <v>999.9683985448753</v>
+        <v>985.68313570851979</v>
       </c>
       <c r="U64" s="229">
         <f t="shared" si="44"/>
-        <v>2338.7146148429342</v>
+        <v>2305.3044060594634</v>
       </c>
       <c r="V64" s="229">
         <f t="shared" si="44"/>
-        <v>1454.0201228155479</v>
+        <v>1433.2484067753255</v>
       </c>
       <c r="W64" s="229">
         <f t="shared" si="44"/>
-        <v>1861.6644940390759</v>
+        <v>1835.0692869813745</v>
       </c>
       <c r="X64" s="229">
         <f t="shared" si="44"/>
-        <v>2942.4726433180176</v>
+        <v>2900.4373198420453</v>
       </c>
       <c r="Y64" s="229">
         <f t="shared" si="44"/>
-        <v>5088.3527835524346</v>
+        <v>5015.6620295016855</v>
       </c>
       <c r="Z64" s="229">
         <f t="shared" si="44"/>
-        <v>9219.4326745938088</v>
+        <v>9087.7264935281819</v>
       </c>
       <c r="AA64" s="229">
         <f t="shared" si="44"/>
-        <v>17166.880665322838</v>
+        <v>16921.639512961083</v>
       </c>
       <c r="AB64" s="229">
         <f t="shared" si="44"/>
-        <v>32525.053102412145</v>
+        <v>32060.409486663397</v>
       </c>
       <c r="AC64" s="229">
         <f t="shared" si="44"/>
-        <v>62349.765442214062</v>
+        <v>61459.054507325287</v>
       </c>
       <c r="AD64" s="228">
         <f t="shared" si="44"/>
-        <v>120517.41072133348</v>
+        <v>118795.73342531442</v>
       </c>
       <c r="AE64" s="268">
         <f t="shared" si="44"/>
-        <v>234370.04903118958</v>
+        <v>231021.90547360116</v>
       </c>
       <c r="AF64" s="221">
         <f t="shared" si="44"/>
-        <v>457873.06298719335</v>
+        <v>451332.01923023345</v>
       </c>
       <c r="AG64" s="246">
         <f>($G$49*$B$44)*(2^(((AG48 - 35) - $G$48)/AG74))</f>
-        <v>251555.45452232275</v>
+        <v>247961.80517200381</v>
       </c>
       <c r="AH64" s="57"/>
       <c r="AI64" s="57"/>
@@ -36096,7 +36124,7 @@
       </c>
       <c r="R71" s="155">
         <f t="shared" si="51"/>
-        <v>21.464285714285715</v>
+        <v>20.971428571428987</v>
       </c>
       <c r="S71" s="155">
         <f t="shared" si="50"/>
@@ -36214,7 +36242,7 @@
       </c>
       <c r="R72" s="259">
         <f t="shared" si="54"/>
-        <v>150.25</v>
+        <v>146.80000000000291</v>
       </c>
       <c r="S72" s="259">
         <f t="shared" si="53"/>
@@ -36319,9 +36347,8 @@
       <c r="Q73" s="162">
         <v>7019</v>
       </c>
-      <c r="R73" s="198">
-        <f>R49</f>
-        <v>7400</v>
+      <c r="R73" s="162">
+        <v>7409</v>
       </c>
       <c r="S73" s="198">
         <f>S49</f>
@@ -36437,9 +36464,9 @@
         <f>(Q48-$G$48)/(LOG(Q73/$G$73)/LOG(2))</f>
         <v>9.5892023611624104</v>
       </c>
-      <c r="R74" s="199">
+      <c r="R74" s="190">
         <f>(R48-$G$48)/(LOG(R73/$G$73)/LOG(2))</f>
-        <v>14.50265416849677</v>
+        <v>14.057694675568982</v>
       </c>
       <c r="S74" s="199">
         <f>(S48-$G$48)/(LOG(S73/$G$73)/LOG(2))</f>
@@ -36544,7 +36571,9 @@
       <c r="Q75" s="262">
         <v>584</v>
       </c>
-      <c r="R75" s="263"/>
+      <c r="R75" s="262">
+        <v>429</v>
+      </c>
       <c r="S75" s="263"/>
       <c r="T75" s="263"/>
       <c r="U75" s="263"/>
@@ -36611,13 +36640,16 @@
         <v>4230</v>
       </c>
       <c r="Q76" s="163">
-        <f t="shared" ref="Q76" si="61">Q73-Q75-Q77</f>
+        <f t="shared" ref="Q76:R76" si="61">Q73-Q75-Q77</f>
         <v>6337</v>
       </c>
-      <c r="R76" s="249">
-        <v>6877</v>
-      </c>
-      <c r="S76" s="249"/>
+      <c r="R76" s="163">
+        <f t="shared" si="61"/>
+        <v>6878</v>
+      </c>
+      <c r="S76" s="249">
+        <v>6903</v>
+      </c>
       <c r="T76" s="249"/>
       <c r="U76" s="200"/>
       <c r="V76" s="200"/>
@@ -36675,10 +36707,12 @@
       <c r="Q77" s="64">
         <v>98</v>
       </c>
-      <c r="R77" s="250">
+      <c r="R77" s="64">
         <v>102</v>
       </c>
-      <c r="S77" s="250"/>
+      <c r="S77" s="250">
+        <v>102</v>
+      </c>
       <c r="T77" s="250"/>
       <c r="U77" s="201"/>
       <c r="V77" s="201"/>
@@ -41090,7 +41124,7 @@
         <v>221</v>
       </c>
       <c r="C6" s="179">
-        <v>7391</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -41099,7 +41133,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44000.943847916664</v>
+        <v>44004.917079166669</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -41108,7 +41142,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>108.9438479166638</v>
+        <v>112.91707916666928</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -41117,7 +41151,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>13.875450628119532</v>
+        <v>14.352044900579227</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -41150,7 +41184,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B37</f>
-        <v>7391</v>
+        <v>7367.2285714285708</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41159,7 +41193,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B37)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2588.8389413809541</v>
+        <v>2671.9923528723762</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41168,7 +41202,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>4802.1610586190454</v>
+        <v>4695.2362185561942</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -41182,7 +41216,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B41</f>
-        <v>6799.72</v>
+        <v>6876.08</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -41192,7 +41226,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B41)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2381.7318260704778</v>
+        <v>2493.8595293475514</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -41202,7 +41236,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>4417.9881739295224</v>
+        <v>4382.2204706524481</v>
       </c>
       <c r="F17" t="s">
         <v>246</v>
@@ -41215,7 +41249,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B42</f>
-        <v>369.55</v>
+        <v>373.70000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -41224,7 +41258,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B42)*(2^(((C7-49)-C5)/C9))</f>
-        <v>31.960297320178814</v>
+        <v>35.055991372556278</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41233,7 +41267,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>337.58970267982119</v>
+        <v>338.64400862744378</v>
       </c>
       <c r="F20" t="s">
         <v>251</v>
@@ -41245,7 +41279,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B43</f>
-        <v>221.73</v>
+        <v>224.22</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41255,7 +41289,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B43)*(2^(((C7-49)-C5)/C9))</f>
-        <v>19.176178392107285</v>
+        <v>21.033594823533765</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41265,7 +41299,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>202.5538216078927</v>
+        <v>203.18640517646622</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41275,7 +41309,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B44</f>
-        <v>103.474</v>
+        <v>103.1412</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41284,7 +41318,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B44)*(2^(((C7-42)-C5)/C9))</f>
-        <v>12.695064118758825</v>
+        <v>13.567327646240859</v>
       </c>
       <c r="F25" t="s">
         <v>257</v>
@@ -41296,7 +41330,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>114.21747091833404</v>
+        <v>117.90938938071127</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41311,7 +41345,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44115.161318834995</v>
+        <v>44122.826468547384</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -41323,7 +41357,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>42.96921673966483</v>
+        <v>44.213898656405789</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41335,7 +41369,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44043.913064656328</v>
+        <v>44049.130977823072</v>
       </c>
       <c r="F29" t="s">
         <v>259</v>
@@ -41347,7 +41381,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>152.94958943006205</v>
+        <v>158.26980730813665</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41359,7 +41393,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44153.893437346727</v>
+        <v>44163.186886474803</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41368,7 +41402,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44030.943847916664</v>
+        <v>44034.917079166669</v>
       </c>
       <c r="F34" t="s">
         <v>278</v>
@@ -41380,7 +41414,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>33079.408125427224</v>
+        <v>31826.906398407533</v>
       </c>
       <c r="F35" t="s">
         <v>244</v>
@@ -41392,7 +41426,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B37</f>
-        <v>33079.408125427224</v>
+        <v>31372.236307001709</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41401,7 +41435,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B41</f>
-        <v>30433.055475393048</v>
+        <v>29280.753886534931</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41410,7 +41444,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B42</f>
-        <v>1653.9704062713613</v>
+        <v>1591.3453199203768</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41419,7 +41453,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B43</f>
-        <v>992.38224376281664</v>
+        <v>954.80719195222593</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41428,7 +41462,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B44</f>
-        <v>463.11171375598116</v>
+        <v>439.21130829802394</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122F73C-5DD2-43AC-A945-8EE8003DEA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3162B2-ED3A-49B3-A859-6E9D2AC5A375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="332">
   <si>
     <t>Australian Population</t>
   </si>
@@ -1017,13 +1017,22 @@
     <t>China releases travel advisory to Chinese students against studying in Australia due to racism</t>
   </si>
   <si>
-    <t>China sentences an Australian, Karm Gilespie in custody for drug smuggling to death, 6 years after arrest, seen as further evidence of China attempting to coerce/punish Australia for its recent actions to call for an inquiry into the origins and handling of the SARS-CoV-2 pandemic</t>
-  </si>
-  <si>
     <t>Govt suggests increasing cyber attacks on Australian govt and business sites are from a foreign actor (implying China), assumption being that it is related to the increasing tensions with China</t>
   </si>
   <si>
     <t>Victorian govt puts further relaxation of distancing rules on hold as the state sees a spike in new COVID-19 cases, state of emergency to stay in place for another four weeks, other states begin to reconsider their scheduled border reopenings.</t>
+  </si>
+  <si>
+    <t>China sentences an Australian, Karm Gilespie in custody for drug smuggling, to death, 6 years after arrest, seen as further evidence of China attempting to coerce/punish Australia for its recent actions to call for an inquiry into the origins and handling of the SARS-CoV-2 pandemic</t>
+  </si>
+  <si>
+    <t>After it emerged a few days ago that up to one third of returned OS travellers refuse testing and are still let out of quarantine, Vic PM announces that testing will be mandatory on day 11 of quarantine from today.  If they refused, they would need to stay in quarantine for an additional 10 days in line with recent NSW changes to their quarantine regime.</t>
+  </si>
+  <si>
+    <t>The Fed govt announces that it would send 1,000 ADF members to Vic to help with testing, and transport related to testing and quarantining.  By the following day, the request from Vic was modified, and the Fed govt announced that it would only send several hundred personnel.  Both Coles and Woolworths have had to announce limits on various items due to a return to panic buying again across Vic, not just in Melbourne.</t>
+  </si>
+  <si>
+    <t>A couple of days into a testing blitz door to door across LGA hotspots with an aim to test 10,000 people a day across 10 Melbourne suburbs in 10 days, mainly in the north west and south east suburbs, the Vic govt sends out an SMS to residents in the LGAs that COVID-19 teams are door knocking in your area.  Half of all cases were from family events.  No evidence to support any clusters originating from the BLM protests.  There also appears to be widespread indifference in the hotspot communities with respect to COVID-19.</t>
   </si>
 </sst>
 </file>
@@ -2233,46 +2242,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,46 +2391,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,46 +2540,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,7 +3778,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>102</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11439,7 +11448,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>102</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11768,46 +11777,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11908,46 +11917,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12051,46 +12060,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12188,46 +12197,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12595,46 +12604,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12744,46 +12753,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12893,46 +12902,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13310,46 +13319,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13450,46 +13459,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13593,46 +13602,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13730,46 +13739,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.917079166669</c:v>
+                  <c:v>43970.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.917079166669</c:v>
+                  <c:v>43973.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.917079166669</c:v>
+                  <c:v>43976.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.917079166669</c:v>
+                  <c:v>43979.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.917079166669</c:v>
+                  <c:v>43982.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.917079166669</c:v>
+                  <c:v>43985.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.917079166669</c:v>
+                  <c:v>43988.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.917079166669</c:v>
+                  <c:v>43991.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.917079166669</c:v>
+                  <c:v>43994.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.917079166669</c:v>
+                  <c:v>43997.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.917079166669</c:v>
+                  <c:v>44000.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.917079166669</c:v>
+                  <c:v>44003.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.917079166669</c:v>
+                  <c:v>44006.532896990742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.917079166669</c:v>
+                  <c:v>44009.532896990742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32289,167 +32298,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43964.917079166669</v>
+        <v>43970.532896990742</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43965.917079166669</v>
+        <v>43971.532896990742</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43966.917079166669</v>
+        <v>43972.532896990742</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43967.917079166669</v>
+        <v>43973.532896990742</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>43968.917079166669</v>
+        <v>43974.532896990742</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>43969.917079166669</v>
+        <v>43975.532896990742</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43970.917079166669</v>
+        <v>43976.532896990742</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.917079166669</v>
+        <v>43977.532896990742</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.917079166669</v>
+        <v>43978.532896990742</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.917079166669</v>
+        <v>43979.532896990742</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.917079166669</v>
+        <v>43980.532896990742</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.917079166669</v>
+        <v>43981.532896990742</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.917079166669</v>
+        <v>43982.532896990742</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.917079166669</v>
+        <v>43983.532896990742</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.917079166669</v>
+        <v>43984.532896990742</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.917079166669</v>
+        <v>43985.532896990742</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43980.917079166669</v>
+        <v>43986.532896990742</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43981.917079166669</v>
+        <v>43987.532896990742</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>43982.917079166669</v>
+        <v>43988.532896990742</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>43983.917079166669</v>
+        <v>43989.532896990742</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43984.917079166669</v>
+        <v>43990.532896990742</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.917079166669</v>
+        <v>43991.532896990742</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.917079166669</v>
+        <v>43992.532896990742</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.917079166669</v>
+        <v>43993.532896990742</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.917079166669</v>
+        <v>43994.532896990742</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.917079166669</v>
+        <v>43995.532896990742</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.917079166669</v>
+        <v>43996.532896990742</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.917079166669</v>
+        <v>43997.532896990742</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.917079166669</v>
+        <v>43998.532896990742</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.917079166669</v>
+        <v>43999.532896990742</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.917079166669</v>
+        <v>44000.532896990742</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.917079166669</v>
+        <v>44001.532896990742</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.917079166669</v>
+        <v>44002.532896990742</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.917079166669</v>
+        <v>44003.532896990742</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.917079166669</v>
+        <v>44004.532896990742</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>43999.917079166669</v>
+        <v>44005.532896990742</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44000.917079166669</v>
+        <v>44006.532896990742</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44001.917079166669</v>
+        <v>44007.532896990742</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44002.917079166669</v>
+        <v>44008.532896990742</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44003.917079166669</v>
+        <v>44009.532896990742</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44004.917079166669</v>
+        <v>44010.532896990742</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -32967,8 +32976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33345,7 +33354,7 @@
         <v>43995</v>
       </c>
       <c r="R33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
@@ -33353,7 +33362,7 @@
         <v>44001</v>
       </c>
       <c r="S34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -33370,7 +33379,7 @@
         <v>44002</v>
       </c>
       <c r="S35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
@@ -33380,11 +33389,11 @@
       <c r="B36" s="291">
         <v>1.4E-2</v>
       </c>
-      <c r="S36" s="298">
-        <v>44025</v>
-      </c>
-      <c r="T36" s="299" t="s">
-        <v>323</v>
+      <c r="R36" s="278">
+        <v>44006</v>
+      </c>
+      <c r="S36" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
@@ -33398,11 +33407,11 @@
       <c r="C37" t="s">
         <v>314</v>
       </c>
-      <c r="S37" s="298">
-        <v>44032</v>
-      </c>
-      <c r="T37" s="299" t="s">
-        <v>324</v>
+      <c r="R37" s="278">
+        <v>44009</v>
+      </c>
+      <c r="S37" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
@@ -33412,6 +33421,12 @@
       <c r="B38" s="128">
         <v>0.2</v>
       </c>
+      <c r="R38" s="278">
+        <v>44010</v>
+      </c>
+      <c r="S38" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -33425,6 +33440,12 @@
         <v>66648.400000000009</v>
       </c>
       <c r="L39" s="164"/>
+      <c r="S39" s="298">
+        <v>44025</v>
+      </c>
+      <c r="T39" s="299" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
@@ -33440,7 +33461,12 @@
       <c r="O40" s="191"/>
       <c r="P40" s="191"/>
       <c r="Q40" s="191"/>
-      <c r="R40" s="191"/>
+      <c r="S40" s="298">
+        <v>44032</v>
+      </c>
+      <c r="T40" s="299" t="s">
+        <v>324</v>
+      </c>
       <c r="X40" s="134"/>
       <c r="Y40" s="278"/>
     </row>
@@ -36648,7 +36674,7 @@
         <v>6878</v>
       </c>
       <c r="S76" s="249">
-        <v>6903</v>
+        <v>6979</v>
       </c>
       <c r="T76" s="249"/>
       <c r="U76" s="200"/>
@@ -36711,7 +36737,7 @@
         <v>102</v>
       </c>
       <c r="S77" s="250">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T77" s="250"/>
       <c r="U77" s="201"/>
@@ -41124,7 +41150,7 @@
         <v>221</v>
       </c>
       <c r="C6" s="179">
-        <v>7474</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -41133,7 +41159,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44004.917079166669</v>
+        <v>44010.532896990742</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -41142,7 +41168,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>112.91707916666928</v>
+        <v>118.5328969907423</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -41151,7 +41177,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>14.352044900579227</v>
+        <v>14.988952739692428</v>
       </c>
       <c r="D9" t="s">
         <v>197</v>
@@ -41184,7 +41210,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B37</f>
-        <v>7367.2285714285708</v>
+        <v>7576.2</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41193,7 +41219,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B37)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2671.9923528723762</v>
+        <v>2868.7904260901796</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -41202,7 +41228,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>4695.2362185561942</v>
+        <v>4707.4095739098202</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -41216,7 +41242,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B41</f>
-        <v>6876.08</v>
+        <v>7071.12</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -41226,7 +41252,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B41)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2493.8595293475514</v>
+        <v>2677.5377310175008</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -41236,7 +41262,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>4382.2204706524481</v>
+        <v>4393.582268982499</v>
       </c>
       <c r="F17" t="s">
         <v>246</v>
@@ -41249,7 +41275,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B42</f>
-        <v>373.70000000000005</v>
+        <v>384.3</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -41258,7 +41284,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B42)*(2^(((C7-49)-C5)/C9))</f>
-        <v>35.055991372556278</v>
+        <v>39.864008414178116</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -41267,7 +41293,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>338.64400862744378</v>
+        <v>344.43599158582191</v>
       </c>
       <c r="F20" t="s">
         <v>251</v>
@@ -41279,7 +41305,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B43</f>
-        <v>224.22</v>
+        <v>230.57999999999998</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -41289,7 +41315,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B43)*(2^(((C7-49)-C5)/C9))</f>
-        <v>21.033594823533765</v>
+        <v>23.918405048506866</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -41299,7 +41325,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>203.18640517646622</v>
+        <v>206.66159495149313</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -41309,7 +41335,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B44</f>
-        <v>103.1412</v>
+        <v>106.0668</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -41318,7 +41344,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B44)*(2^(((C7-42)-C5)/C9))</f>
-        <v>13.567327646240859</v>
+        <v>15.20807517272161</v>
       </c>
       <c r="F25" t="s">
         <v>257</v>
@@ -41330,7 +41356,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>117.90938938071127</v>
+        <v>122.53707262642034</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -41345,7 +41371,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44122.826468547384</v>
+        <v>44133.069969617165</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -41357,7 +41383,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>44.213898656405789</v>
+        <v>45.571160434320383</v>
       </c>
       <c r="D28" t="s">
         <v>197</v>
@@ -41369,7 +41395,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44049.130977823072</v>
+        <v>44056.104057425066</v>
       </c>
       <c r="F29" t="s">
         <v>259</v>
@@ -41381,7 +41407,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>158.26980730813665</v>
+        <v>164.68858490631837</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -41393,7 +41419,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44163.186886474803</v>
+        <v>44175.221481897061</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -41402,7 +41428,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44034.917079166669</v>
+        <v>44040.532896990742</v>
       </c>
       <c r="F34" t="s">
         <v>278</v>
@@ -41414,7 +41440,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>31826.906398407533</v>
+        <v>30775.428308781789</v>
       </c>
       <c r="F35" t="s">
         <v>244</v>
@@ -41426,7 +41452,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B37</f>
-        <v>31372.236307001709</v>
+        <v>30335.779332942049</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -41435,7 +41461,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B41</f>
-        <v>29280.753886534931</v>
+        <v>28313.394044079247</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -41444,7 +41470,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B42</f>
-        <v>1591.3453199203768</v>
+        <v>1538.7714154390897</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -41453,7 +41479,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B43</f>
-        <v>954.80719195222593</v>
+        <v>923.26284926345363</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -41462,7 +41488,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B44</f>
-        <v>439.21130829802394</v>
+        <v>424.70091066118869</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BAE2A-FAFC-440B-B7A8-B905A4451BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD618D-C0F8-4367-8644-2C555F2E144B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -2299,46 +2299,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,46 +2448,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,46 +2597,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,46 +14702,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14842,46 +14842,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,46 +14985,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,46 +15122,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15529,46 +15529,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15678,46 +15678,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15827,46 +15827,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16244,46 +16244,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16384,46 +16384,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16527,46 +16527,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16664,46 +16664,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.695180092589</c:v>
+                  <c:v>44110.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.695180092589</c:v>
+                  <c:v>44113.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.695180092589</c:v>
+                  <c:v>44116.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.695180092589</c:v>
+                  <c:v>44119.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.695180092589</c:v>
+                  <c:v>44122.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.695180092589</c:v>
+                  <c:v>44125.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.695180092589</c:v>
+                  <c:v>44128.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.695180092589</c:v>
+                  <c:v>44131.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.695180092589</c:v>
+                  <c:v>44134.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.695180092589</c:v>
+                  <c:v>44137.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.695180092589</c:v>
+                  <c:v>44140.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.695180092589</c:v>
+                  <c:v>44143.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.695180092589</c:v>
+                  <c:v>44146.803596412035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.695180092589</c:v>
+                  <c:v>44149.803596412035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37611,167 +37611,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44096.695180092589</v>
+        <v>44110.803596412035</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44097.695180092589</v>
+        <v>44111.803596412035</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44098.695180092589</v>
+        <v>44112.803596412035</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44099.695180092589</v>
+        <v>44113.803596412035</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44100.695180092589</v>
+        <v>44114.803596412035</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44101.695180092589</v>
+        <v>44115.803596412035</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44102.695180092589</v>
+        <v>44116.803596412035</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44103.695180092589</v>
+        <v>44117.803596412035</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44104.695180092589</v>
+        <v>44118.803596412035</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44105.695180092589</v>
+        <v>44119.803596412035</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44106.695180092589</v>
+        <v>44120.803596412035</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44107.695180092589</v>
+        <v>44121.803596412035</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44108.695180092589</v>
+        <v>44122.803596412035</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44109.695180092589</v>
+        <v>44123.803596412035</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44110.695180092589</v>
+        <v>44124.803596412035</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44111.695180092589</v>
+        <v>44125.803596412035</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44112.695180092589</v>
+        <v>44126.803596412035</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44113.695180092589</v>
+        <v>44127.803596412035</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44114.695180092589</v>
+        <v>44128.803596412035</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44115.695180092589</v>
+        <v>44129.803596412035</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44116.695180092589</v>
+        <v>44130.803596412035</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44117.695180092589</v>
+        <v>44131.803596412035</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44118.695180092589</v>
+        <v>44132.803596412035</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44119.695180092589</v>
+        <v>44133.803596412035</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44120.695180092589</v>
+        <v>44134.803596412035</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44121.695180092589</v>
+        <v>44135.803596412035</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44122.695180092589</v>
+        <v>44136.803596412035</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44123.695180092589</v>
+        <v>44137.803596412035</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44124.695180092589</v>
+        <v>44138.803596412035</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44125.695180092589</v>
+        <v>44139.803596412035</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44126.695180092589</v>
+        <v>44140.803596412035</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44127.695180092589</v>
+        <v>44141.803596412035</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44128.695180092589</v>
+        <v>44142.803596412035</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44129.695180092589</v>
+        <v>44143.803596412035</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44130.695180092589</v>
+        <v>44144.803596412035</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44131.695180092589</v>
+        <v>44145.803596412035</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44132.695180092589</v>
+        <v>44146.803596412035</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44133.695180092589</v>
+        <v>44147.803596412035</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44134.695180092589</v>
+        <v>44148.803596412035</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44135.695180092589</v>
+        <v>44149.803596412035</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44136.695180092589</v>
+        <v>44150.803596412035</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -38290,7 +38290,7 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC58" sqref="AC58"/>
+      <selection activeCell="AH96" sqref="AH96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42987,7 +42987,7 @@
         <v>20856</v>
       </c>
       <c r="AH95" s="303">
-        <v>25336</v>
+        <v>25482</v>
       </c>
       <c r="AI95" s="303"/>
       <c r="AJ95" s="200"/>
@@ -48760,7 +48760,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48804,7 +48804,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>27595</v>
+        <v>27720</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48813,7 +48813,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44136.695180092589</v>
+        <v>44150.803596412035</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48822,7 +48822,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>244.695180092589</v>
+        <v>258.8035964120354</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48831,7 +48831,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>25.091487649131547</v>
+        <v>26.520458387471002</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48864,7 +48864,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>64848.25</v>
+        <v>65142</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48873,7 +48873,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>36304.047936423514</v>
+        <v>37626.432203236858</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48882,7 +48882,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>28544.202063576486</v>
+        <v>27515.567796763142</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48896,7 +48896,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>22351.95</v>
+        <v>22453.200000000001</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48906,7 +48906,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>12513.310139788531</v>
+        <v>12969.110674307174</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48916,7 +48916,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>9838.6398602114696</v>
+        <v>9484.0893256928266</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>3863.3</v>
+        <v>3880.8</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>997.9090176223026</v>
+        <v>1078.2740379442594</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48947,7 +48947,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2865.3909823776976</v>
+        <v>2802.5259620557408</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48959,7 +48959,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>275.95</v>
+        <v>277.2</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48969,7 +48969,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>71.279215544450182</v>
+        <v>77.019574138875655</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48979,7 +48979,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>204.67078445554981</v>
+        <v>200.18042586112432</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -48989,7 +48989,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>648.48249999999996</v>
+        <v>651.41999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -48998,7 +48998,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>203.2412434522343</v>
+        <v>217.3326579387768</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49010,7 +49010,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>198.62470666383345</v>
+        <v>209.7635437060591</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49025,7 +49025,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44335.319886756421</v>
+        <v>44360.567140118095</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>69.783868433807299</v>
+        <v>73.585165737124427</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44206.479048526395</v>
+        <v>44224.388762149159</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49061,7 +49061,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>197.96706180051896</v>
+        <v>209.06844569213683</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44334.662241893107</v>
+        <v>44359.872042104173</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49082,7 +49082,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44166.695180092589</v>
+        <v>44180.803596412035</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49094,7 +49094,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>63204.684522469761</v>
+        <v>60718.216922219806</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49106,7 +49106,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>148531.00862780394</v>
+        <v>142687.80976721653</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49115,7 +49115,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>51195.794463200509</v>
+        <v>49181.755706998047</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49124,7 +49124,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>8848.6558331457672</v>
+        <v>8500.5503691107733</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>632.04684522469768</v>
+        <v>607.18216922219813</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49142,7 +49142,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1485.3100862780393</v>
+        <v>1426.8780976721655</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8049D1-DE84-4C99-94F4-6B77E2BF6272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309645F-F9EC-4A56-AE14-057C765329DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="36945" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2299,46 +2299,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,46 +2448,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,46 +2597,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,46 +14702,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14842,46 +14842,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,46 +14985,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,46 +15122,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15529,46 +15529,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15678,46 +15678,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15827,46 +15827,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16244,46 +16244,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16384,46 +16384,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16527,46 +16527,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16664,46 +16664,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44130.746716435184</c:v>
+                  <c:v>44149.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44133.746716435184</c:v>
+                  <c:v>44152.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44136.746716435184</c:v>
+                  <c:v>44155.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44139.746716435184</c:v>
+                  <c:v>44158.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44142.746716435184</c:v>
+                  <c:v>44161.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44145.746716435184</c:v>
+                  <c:v>44164.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44148.746716435184</c:v>
+                  <c:v>44167.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44151.746716435184</c:v>
+                  <c:v>44170.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44154.746716435184</c:v>
+                  <c:v>44173.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44157.746716435184</c:v>
+                  <c:v>44176.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44160.746716435184</c:v>
+                  <c:v>44179.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44163.746716435184</c:v>
+                  <c:v>44182.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44166.746716435184</c:v>
+                  <c:v>44185.732850462962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44169.746716435184</c:v>
+                  <c:v>44188.732850462962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37611,167 +37611,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44130.746716435184</v>
+        <v>44149.732850462962</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44131.746716435184</v>
+        <v>44150.732850462962</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44132.746716435184</v>
+        <v>44151.732850462962</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44133.746716435184</v>
+        <v>44152.732850462962</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44134.746716435184</v>
+        <v>44153.732850462962</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44135.746716435184</v>
+        <v>44154.732850462962</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44136.746716435184</v>
+        <v>44155.732850462962</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44137.746716435184</v>
+        <v>44156.732850462962</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44138.746716435184</v>
+        <v>44157.732850462962</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44139.746716435184</v>
+        <v>44158.732850462962</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44140.746716435184</v>
+        <v>44159.732850462962</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44141.746716435184</v>
+        <v>44160.732850462962</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44142.746716435184</v>
+        <v>44161.732850462962</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44143.746716435184</v>
+        <v>44162.732850462962</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44144.746716435184</v>
+        <v>44163.732850462962</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44145.746716435184</v>
+        <v>44164.732850462962</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44146.746716435184</v>
+        <v>44165.732850462962</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44147.746716435184</v>
+        <v>44166.732850462962</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44148.746716435184</v>
+        <v>44167.732850462962</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44149.746716435184</v>
+        <v>44168.732850462962</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44150.746716435184</v>
+        <v>44169.732850462962</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44151.746716435184</v>
+        <v>44170.732850462962</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44152.746716435184</v>
+        <v>44171.732850462962</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44153.746716435184</v>
+        <v>44172.732850462962</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44154.746716435184</v>
+        <v>44173.732850462962</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44155.746716435184</v>
+        <v>44174.732850462962</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44156.746716435184</v>
+        <v>44175.732850462962</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44157.746716435184</v>
+        <v>44176.732850462962</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44158.746716435184</v>
+        <v>44177.732850462962</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44159.746716435184</v>
+        <v>44178.732850462962</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44160.746716435184</v>
+        <v>44179.732850462962</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44161.746716435184</v>
+        <v>44180.732850462962</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44162.746716435184</v>
+        <v>44181.732850462962</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44163.746716435184</v>
+        <v>44182.732850462962</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44164.746716435184</v>
+        <v>44183.732850462962</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44165.746716435184</v>
+        <v>44184.732850462962</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44166.746716435184</v>
+        <v>44185.732850462962</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44167.746716435184</v>
+        <v>44186.732850462962</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44168.746716435184</v>
+        <v>44187.732850462962</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44169.746716435184</v>
+        <v>44188.732850462962</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44170.746716435184</v>
+        <v>44189.732850462962</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -38289,8 +38289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AW136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH97" sqref="AH97"/>
+    <sheetView tabSelected="1" topLeftCell="M57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ61" sqref="AJ61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40497,123 +40497,123 @@
         <v>86.048372200538381</v>
       </c>
       <c r="P76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((P68 - 14) - $L$68)/HLOOKUP((P68-14)-$B$65,$L$91:$AT$93,3,TRUE))),P75)</f>
+        <f t="shared" ref="P76:AS76" si="33">MIN(($L$69/$B$57)*(2^(((P68 - 14) - $L$68)/HLOOKUP((P68-14)-$B$65,$L$91:$AT$93,3,TRUE))),P75)</f>
         <v>118.91657986455181</v>
       </c>
       <c r="Q76" s="220">
-        <f>MIN(($L$69/$B$57)*(2^(((Q68 - 14) - $L$68)/HLOOKUP((Q68-14)-$B$65,$L$91:$AT$93,3,TRUE))),Q75)</f>
+        <f t="shared" si="33"/>
         <v>220.8990445543846</v>
       </c>
       <c r="R76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((R68 - 14) - $L$68)/HLOOKUP((R68-14)-$B$65,$L$91:$AT$93,3,TRUE))),R75)</f>
+        <f t="shared" si="33"/>
         <v>346.02272727272725</v>
       </c>
       <c r="S76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((S68 - 14) - $L$68)/HLOOKUP((S68-14)-$B$65,$L$91:$AT$93,3,TRUE))),S75)</f>
+        <f t="shared" si="33"/>
         <v>875.17142294804205</v>
       </c>
       <c r="T76" s="220">
-        <f>MIN(($L$69/$B$57)*(2^(((T68 - 14) - $L$68)/HLOOKUP((T68-14)-$B$65,$L$91:$AT$93,3,TRUE))),T75)</f>
+        <f t="shared" si="33"/>
         <v>9146.7753339525552</v>
       </c>
       <c r="U76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((U68 - 14) - $L$68)/HLOOKUP((U68-14)-$B$65,$L$91:$AT$93,3,TRUE))),U75)</f>
+        <f t="shared" si="33"/>
         <v>14190</v>
       </c>
       <c r="V76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((V68 - 14) - $L$68)/HLOOKUP((V68-14)-$B$65,$L$91:$AT$93,3,TRUE))),V75)</f>
+        <f t="shared" si="33"/>
         <v>15050</v>
       </c>
       <c r="W76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((W68 - 14) - $L$68)/HLOOKUP((W68-14)-$B$65,$L$91:$AT$93,3,TRUE))),W75)</f>
+        <f t="shared" si="33"/>
         <v>15910</v>
       </c>
       <c r="X76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((X68 - 14) - $L$68)/HLOOKUP((X68-14)-$B$65,$L$91:$AT$93,3,TRUE))),X75)</f>
+        <f t="shared" si="33"/>
         <v>16770</v>
       </c>
       <c r="Y76" s="218">
-        <f>MIN(($L$69/$B$57)*(2^(((Y68 - 14) - $L$68)/HLOOKUP((Y68-14)-$B$65,$L$91:$AT$93,3,TRUE))),Y75)</f>
+        <f t="shared" si="33"/>
         <v>17200</v>
       </c>
       <c r="Z76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((Z68 - 14) - $L$68)/HLOOKUP((Z68-14)-$B$65,$L$91:$AT$93,3,TRUE))),Z75)</f>
+        <f t="shared" si="33"/>
         <v>20640</v>
       </c>
       <c r="AA76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AA68 - 14) - $L$68)/HLOOKUP((AA68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AA75)</f>
+        <f t="shared" si="33"/>
         <v>24080</v>
       </c>
       <c r="AB76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AB68 - 14) - $L$68)/HLOOKUP((AB68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AB75)</f>
+        <f t="shared" si="33"/>
         <v>27520</v>
       </c>
       <c r="AC76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AC68 - 14) - $L$68)/HLOOKUP((AC68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AC75)</f>
+        <f t="shared" si="33"/>
         <v>29548.947684471728</v>
       </c>
       <c r="AD76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AD68 - 14) - $L$68)/HLOOKUP((AD68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AD75)</f>
+        <f t="shared" si="33"/>
         <v>34400</v>
       </c>
       <c r="AE76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AE68 - 14) - $L$68)/HLOOKUP((AE68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AE75)</f>
+        <f t="shared" si="33"/>
         <v>39665.362777390837</v>
       </c>
       <c r="AF76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AF68 - 14) - $L$68)/HLOOKUP((AF68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AF75)</f>
+        <f t="shared" si="33"/>
         <v>48160</v>
       </c>
       <c r="AG76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AG68 - 14) - $L$68)/HLOOKUP((AG68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AG75)</f>
+        <f t="shared" si="33"/>
         <v>55040</v>
       </c>
       <c r="AH76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AH68 - 14) - $L$68)/HLOOKUP((AH68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AH75)</f>
+        <f t="shared" si="33"/>
         <v>61920</v>
       </c>
       <c r="AI76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AI68 - 14) - $L$68)/HLOOKUP((AI68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AI75)</f>
+        <f t="shared" si="33"/>
         <v>68800</v>
       </c>
       <c r="AJ76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AJ68 - 14) - $L$68)/HLOOKUP((AJ68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AJ75)</f>
+        <f t="shared" si="33"/>
         <v>137600</v>
       </c>
       <c r="AK76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AK68 - 14) - $L$68)/HLOOKUP((AK68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AK75)</f>
+        <f t="shared" si="33"/>
         <v>275200</v>
       </c>
       <c r="AL76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AL68 - 14) - $L$68)/HLOOKUP((AL68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AL75)</f>
+        <f t="shared" si="33"/>
         <v>550400</v>
       </c>
       <c r="AM76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AM68 - 14) - $L$68)/HLOOKUP((AM68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AM75)</f>
+        <f t="shared" si="33"/>
         <v>1100800</v>
       </c>
       <c r="AN76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AN68 - 14) - $L$68)/HLOOKUP((AN68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AN75)</f>
+        <f t="shared" si="33"/>
         <v>2201600</v>
       </c>
       <c r="AO76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AO68 - 14) - $L$68)/HLOOKUP((AO68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AO75)</f>
+        <f t="shared" si="33"/>
         <v>4403200</v>
       </c>
       <c r="AP76" s="219">
-        <f>MIN(($L$69/$B$57)*(2^(((AP68 - 14) - $L$68)/HLOOKUP((AP68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AP75)</f>
+        <f t="shared" si="33"/>
         <v>8806400</v>
       </c>
       <c r="AQ76" s="218">
-        <f>MIN(($L$69/$B$57)*(2^(((AQ68 - 14) - $L$68)/HLOOKUP((AQ68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AQ75)</f>
+        <f t="shared" si="33"/>
         <v>17612800</v>
       </c>
       <c r="AR76" s="258">
-        <f>MIN(($L$69/$B$57)*(2^(((AR68 - 14) - $L$68)/HLOOKUP((AR68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AR75)</f>
+        <f t="shared" si="33"/>
         <v>51609600</v>
       </c>
       <c r="AS76" s="221">
-        <f>MIN(($L$69/$B$57)*(2^(((AS68 - 14) - $L$68)/HLOOKUP((AS68-14)-$B$65,$L$91:$AT$93,3,TRUE))),AS75)</f>
+        <f t="shared" si="33"/>
         <v>25634000</v>
       </c>
       <c r="AT76" s="239"/>
@@ -40636,11 +40636,11 @@
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
       <c r="L77" s="230">
-        <f t="shared" ref="L77:AS77" si="33">L69*$B$61</f>
+        <f t="shared" ref="L77:AS77" si="34">L69*$B$61</f>
         <v>25.3125</v>
       </c>
       <c r="M77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>50.625</v>
       </c>
       <c r="N77" s="231">
@@ -40648,127 +40648,127 @@
         <v>101.25</v>
       </c>
       <c r="O77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>202.5</v>
       </c>
       <c r="P77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>405</v>
       </c>
       <c r="Q77" s="230">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>810</v>
       </c>
       <c r="R77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1620</v>
       </c>
       <c r="S77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3240</v>
       </c>
       <c r="T77" s="230">
-        <f t="shared" ref="T77:X77" si="34">T69*$B$61</f>
+        <f t="shared" ref="T77:X77" si="35">T69*$B$61</f>
         <v>4860</v>
       </c>
       <c r="U77" s="231">
+        <f t="shared" si="35"/>
+        <v>5346</v>
+      </c>
+      <c r="V77" s="231">
+        <f t="shared" ref="V77:W77" si="36">V69*$B$61</f>
+        <v>5670</v>
+      </c>
+      <c r="W77" s="231">
+        <f t="shared" si="36"/>
+        <v>5994</v>
+      </c>
+      <c r="X77" s="231">
+        <f t="shared" si="35"/>
+        <v>6318</v>
+      </c>
+      <c r="Y77" s="262">
         <f t="shared" si="34"/>
-        <v>5346</v>
-      </c>
-      <c r="V77" s="231">
-        <f t="shared" ref="V77:W77" si="35">V69*$B$61</f>
-        <v>5670</v>
-      </c>
-      <c r="W77" s="231">
-        <f t="shared" si="35"/>
-        <v>5994</v>
-      </c>
-      <c r="X77" s="231">
+        <v>6480</v>
+      </c>
+      <c r="Z77" s="231">
+        <f t="shared" ref="Z77:AC77" si="37">Z69*$B$61</f>
+        <v>7776.0000000000009</v>
+      </c>
+      <c r="AA77" s="231">
+        <f t="shared" si="37"/>
+        <v>9072</v>
+      </c>
+      <c r="AB77" s="231">
+        <f t="shared" si="37"/>
+        <v>10368</v>
+      </c>
+      <c r="AC77" s="231">
+        <f t="shared" si="37"/>
+        <v>11664</v>
+      </c>
+      <c r="AD77" s="231">
         <f t="shared" si="34"/>
-        <v>6318</v>
-      </c>
-      <c r="Y77" s="262">
-        <f t="shared" si="33"/>
-        <v>6480</v>
-      </c>
-      <c r="Z77" s="231">
-        <f t="shared" ref="Z77:AC77" si="36">Z69*$B$61</f>
-        <v>7776.0000000000009</v>
-      </c>
-      <c r="AA77" s="231">
-        <f t="shared" si="36"/>
-        <v>9072</v>
-      </c>
-      <c r="AB77" s="231">
-        <f t="shared" si="36"/>
-        <v>10368</v>
-      </c>
-      <c r="AC77" s="231">
-        <f t="shared" si="36"/>
-        <v>11664</v>
-      </c>
-      <c r="AD77" s="231">
-        <f t="shared" si="33"/>
         <v>12960</v>
       </c>
       <c r="AE77" s="231">
-        <f t="shared" ref="AE77:AH77" si="37">AE69*$B$61</f>
+        <f t="shared" ref="AE77:AH77" si="38">AE69*$B$61</f>
         <v>15552.000000000002</v>
       </c>
       <c r="AF77" s="231">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>18144</v>
       </c>
       <c r="AG77" s="231">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20736</v>
       </c>
       <c r="AH77" s="231">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>23328</v>
       </c>
       <c r="AI77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25920</v>
       </c>
       <c r="AJ77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>51840</v>
       </c>
       <c r="AK77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>103680</v>
       </c>
       <c r="AL77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>207360</v>
       </c>
       <c r="AM77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>414720</v>
       </c>
       <c r="AN77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>829440</v>
       </c>
       <c r="AO77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1658880</v>
       </c>
       <c r="AP77" s="231">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3317760</v>
       </c>
       <c r="AQ77" s="262">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6635520</v>
       </c>
       <c r="AR77" s="256">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13271040</v>
       </c>
       <c r="AS77" s="215">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20763540</v>
       </c>
       <c r="AT77" s="239">
@@ -40810,123 +40810,123 @@
         <v>180.37327571986157</v>
       </c>
       <c r="P78" s="308">
-        <f>MAX(P77-(($L$69*$B$61)*(2^(((P68 -14) - $L$68)/HLOOKUP((P68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" ref="P78:AS78" si="39">MAX(P77-(($L$69*$B$61)*(2^(((P68 -14) - $L$68)/HLOOKUP((P68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
         <v>374.42145089197237</v>
       </c>
       <c r="Q78" s="224">
-        <f>MAX(Q77-(($L$69*$B$61)*(2^(((Q68 -14) - $L$68)/HLOOKUP((Q68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>753.19738854315824</v>
       </c>
       <c r="R78" s="223">
-        <f>MAX(R77-(($L$69*$B$61)*(2^(((R68 -14) - $L$68)/HLOOKUP((R68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>1531.0227272727273</v>
       </c>
       <c r="S78" s="223">
-        <f>MAX(S77-(($L$69*$B$61)*(2^(((S68 -14) - $L$68)/HLOOKUP((S68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>3014.9559198133607</v>
       </c>
       <c r="T78" s="309">
-        <f>MAX(T77-(($L$69*$B$61)*(2^(((T68 -14) - $L$68)/HLOOKUP((T68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>2507.9720569836286</v>
       </c>
       <c r="U78" s="308">
-        <f>MAX(U77-(($L$69*$B$61)*(2^(((U68 -14) - $L$68)/HLOOKUP((U68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V78" s="308">
-        <f>MAX(V77-(($L$69*$B$61)*(2^(((V68 -14) - $L$68)/HLOOKUP((V68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W78" s="308">
-        <f>MAX(W77-(($L$69*$B$61)*(2^(((W68 -14) - $L$68)/HLOOKUP((W68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X78" s="308">
-        <f>MAX(X77-(($L$69*$B$61)*(2^(((X68 -14) - $L$68)/HLOOKUP((X68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y78" s="316">
-        <f>MAX(Y77-(($L$69*$B$61)*(2^(((Y68 -14) - $L$68)/HLOOKUP((Y68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z78" s="223">
-        <f>MAX(Z77-(($L$69*$B$61)*(2^(((Z68 -14) - $L$68)/HLOOKUP((Z68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA78" s="223">
-        <f>MAX(AA77-(($L$69*$B$61)*(2^(((AA68 -14) - $L$68)/HLOOKUP((AA68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>2535.7300342326562</v>
       </c>
       <c r="AB78" s="223">
-        <f>MAX(AB77-(($L$69*$B$61)*(2^(((AB68 -14) - $L$68)/HLOOKUP((AB68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>2270.1513285104102</v>
       </c>
       <c r="AC78" s="223">
-        <f>MAX(AC77-(($L$69*$B$61)*(2^(((AC68 -14) - $L$68)/HLOOKUP((AC68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>4065.6991668501269</v>
       </c>
       <c r="AD78" s="223">
-        <f>MAX(AD77-(($L$69*$B$61)*(2^(((AD68 -14) - $L$68)/HLOOKUP((AD68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>3959.9971997141674</v>
       </c>
       <c r="AE78" s="223">
-        <f>MAX(AE77-(($L$69*$B$61)*(2^(((AE68 -14) - $L$68)/HLOOKUP((AE68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>5352.335285813786</v>
       </c>
       <c r="AF78" s="223">
-        <f>MAX(AF77-(($L$69*$B$61)*(2^(((AF68 -14) - $L$68)/HLOOKUP((AF68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>5196.8658077538894</v>
       </c>
       <c r="AG78" s="223">
-        <f>MAX(AG77-(($L$69*$B$61)*(2^(((AG68 -14) - $L$68)/HLOOKUP((AG68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>2248.2459396598024</v>
       </c>
       <c r="AH78" s="223">
-        <f>MAX(AH77-(($L$69*$B$61)*(2^(((AH68 -14) - $L$68)/HLOOKUP((AH68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI78" s="223">
-        <f>MAX(AI77-(($L$69*$B$61)*(2^(((AI68 -14) - $L$68)/HLOOKUP((AI68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AJ78" s="223">
-        <f>MAX(AJ77-(($L$69*$B$61)*(2^(((AJ68 -14) - $L$68)/HLOOKUP((AJ68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AK78" s="223">
-        <f>MAX(AK77-(($L$69*$B$61)*(2^(((AK68 -14) - $L$68)/HLOOKUP((AK68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL78" s="223">
-        <f>MAX(AL77-(($L$69*$B$61)*(2^(((AL68 -14) - $L$68)/HLOOKUP((AL68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AM78" s="223">
-        <f>MAX(AM77-(($L$69*$B$61)*(2^(((AM68 -14) - $L$68)/HLOOKUP((AM68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN78" s="223">
-        <f>MAX(AN77-(($L$69*$B$61)*(2^(((AN68 -14) - $L$68)/HLOOKUP((AN68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO78" s="223">
-        <f>MAX(AO77-(($L$69*$B$61)*(2^(((AO68 -14) - $L$68)/HLOOKUP((AO68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP78" s="223">
-        <f>MAX(AP77-(($L$69*$B$61)*(2^(((AP68 -14) - $L$68)/HLOOKUP((AP68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ78" s="232">
-        <f>MAX(AQ77-(($L$69*$B$61)*(2^(((AQ68 -14) - $L$68)/HLOOKUP((AQ68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AR78" s="259">
-        <f>MAX(AR77-(($L$69*$B$61)*(2^(((AR68 -14) - $L$68)/HLOOKUP((AR68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AS78" s="221">
-        <f>MAX(AS77-(($L$69*$B$61)*(2^(((AS68 -14) - $L$68)/HLOOKUP((AS68-14)-$B$65,$L$91:$AT$93,3,TRUE)))),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AT78" s="237"/>
@@ -40953,19 +40953,19 @@
         <v>4.375</v>
       </c>
       <c r="M79" s="231">
-        <f t="shared" ref="M79:P79" si="38">M69*$B$62</f>
+        <f t="shared" ref="M79:P79" si="40">M69*$B$62</f>
         <v>8.75</v>
       </c>
       <c r="N79" s="231">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17.5</v>
       </c>
       <c r="O79" s="231">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="P79" s="262">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>70</v>
       </c>
       <c r="Q79" s="225">
@@ -40973,115 +40973,115 @@
         <v>140</v>
       </c>
       <c r="R79" s="226">
-        <f t="shared" ref="R79:AS79" si="39">R69*$B$62</f>
+        <f t="shared" ref="R79:AS79" si="41">R69*$B$62</f>
         <v>280</v>
       </c>
       <c r="S79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>560</v>
       </c>
       <c r="T79" s="225">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>840.00000000000011</v>
       </c>
       <c r="U79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>924.00000000000011</v>
       </c>
       <c r="V79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>980.00000000000011</v>
       </c>
       <c r="W79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1036</v>
       </c>
       <c r="X79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1092</v>
       </c>
       <c r="Y79" s="234">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1120</v>
       </c>
       <c r="Z79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1344.0000000000002</v>
       </c>
       <c r="AA79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1568.0000000000002</v>
       </c>
       <c r="AB79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1792.0000000000002</v>
       </c>
       <c r="AC79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2016.0000000000002</v>
       </c>
       <c r="AD79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2240</v>
       </c>
       <c r="AE79" s="226">
-        <f t="shared" ref="AE79:AH79" si="40">AE69*$B$62</f>
+        <f t="shared" ref="AE79:AH79" si="42">AE69*$B$62</f>
         <v>2688.0000000000005</v>
       </c>
       <c r="AF79" s="226">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3136.0000000000005</v>
       </c>
       <c r="AG79" s="226">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3584.0000000000005</v>
       </c>
       <c r="AH79" s="226">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4032.0000000000005</v>
       </c>
       <c r="AI79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4480</v>
       </c>
       <c r="AJ79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8960</v>
       </c>
       <c r="AK79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17920</v>
       </c>
       <c r="AL79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>35840</v>
       </c>
       <c r="AM79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>71680</v>
       </c>
       <c r="AN79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>143360</v>
       </c>
       <c r="AO79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>286720</v>
       </c>
       <c r="AP79" s="226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>573440</v>
       </c>
       <c r="AQ79" s="234">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1146880</v>
       </c>
       <c r="AR79" s="256">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2293760</v>
       </c>
       <c r="AS79" s="256">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3588760.0000000005</v>
       </c>
       <c r="AT79" s="237">
@@ -41107,19 +41107,19 @@
       <c r="J80" s="51"/>
       <c r="K80" s="51"/>
       <c r="L80" s="306">
-        <f t="shared" ref="L80:O80" si="41">L79</f>
+        <f t="shared" ref="L80:O80" si="43">L79</f>
         <v>4.375</v>
       </c>
       <c r="M80" s="307">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.75</v>
       </c>
       <c r="N80" s="213">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>17.5</v>
       </c>
       <c r="O80" s="213">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="P80" s="214">
@@ -41127,11 +41127,11 @@
         <v>65</v>
       </c>
       <c r="Q80" s="212">
-        <f t="shared" ref="Q80:R80" si="42">Q79-Q82</f>
+        <f t="shared" ref="Q80:R80" si="44">Q79-Q82</f>
         <v>130</v>
       </c>
       <c r="R80" s="213">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>260</v>
       </c>
       <c r="S80" s="213">
@@ -41139,107 +41139,107 @@
         <v>520</v>
       </c>
       <c r="T80" s="220">
-        <f t="shared" ref="T80" si="43">T79-T82</f>
+        <f t="shared" ref="T80" si="45">T79-T82</f>
         <v>780.39391295948042</v>
       </c>
       <c r="U80" s="219">
-        <f>MAX(U79-($L$69*$B$62)*(2^(((U68 - 42) - $L$68)/HLOOKUP((U68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-U82,0)</f>
+        <f t="shared" ref="U80:AS80" si="46">MAX(U79-($L$69*$B$62)*(2^(((U68 - 42) - $L$68)/HLOOKUP((U68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-U82,0)</f>
         <v>847.96482898450097</v>
       </c>
       <c r="V80" s="219">
-        <f>MAX(V79-($L$69*$B$62)*(2^(((V68 - 42) - $L$68)/HLOOKUP((V68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-V82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="W80" s="219">
-        <f>MAX(W79-($L$69*$B$62)*(2^(((W68 - 42) - $L$68)/HLOOKUP((W68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-W82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X80" s="219">
-        <f>MAX(X79-($L$69*$B$62)*(2^(((X68 - 42) - $L$68)/HLOOKUP((X68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-X82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y80" s="218">
-        <f>MAX(Y79-($L$69*$B$62)*(2^(((Y68 - 42) - $L$68)/HLOOKUP((Y68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-Y82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Z80" s="213">
-        <f>MAX(Z79-($L$69*$B$62)*(2^(((Z68 - 42) - $L$68)/HLOOKUP((Z68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-Z82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AA80" s="213">
-        <f>MAX(AA79-($L$69*$B$62)*(2^(((AA68 - 42) - $L$68)/HLOOKUP((AA68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AA82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AB80" s="213">
-        <f>MAX(AB79-($L$69*$B$62)*(2^(((AB68 - 42) - $L$68)/HLOOKUP((AB68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AB82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AC80" s="213">
-        <f>MAX(AC79-($L$69*$B$62)*(2^(((AC68 - 42) - $L$68)/HLOOKUP((AC68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AC82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD80" s="213">
-        <f>MAX(AD79-($L$69*$B$62)*(2^(((AD68 - 42) - $L$68)/HLOOKUP((AD68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AD82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AE80" s="213">
-        <f>MAX(AE79-($L$69*$B$62)*(2^(((AE68 - 42) - $L$68)/HLOOKUP((AE68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AE82,0)</f>
+        <f t="shared" si="46"/>
         <v>1307.1034302747123</v>
       </c>
       <c r="AF80" s="213">
-        <f>MAX(AF79-($L$69*$B$62)*(2^(((AF68 - 42) - $L$68)/HLOOKUP((AF68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AF82,0)</f>
+        <f t="shared" si="46"/>
         <v>1918.2174861529272</v>
       </c>
       <c r="AG80" s="213">
-        <f>MAX(AG79-($L$69*$B$62)*(2^(((AG68 - 42) - $L$68)/HLOOKUP((AG68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AG82,0)</f>
+        <f t="shared" si="46"/>
         <v>1893.2913526195023</v>
       </c>
       <c r="AH80" s="213">
-        <f>MAX(AH79-($L$69*$B$62)*(2^(((AH68 - 42) - $L$68)/HLOOKUP((AH68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AH82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI80" s="213">
-        <f>MAX(AI79-($L$69*$B$62)*(2^(((AI68 - 42) - $L$68)/HLOOKUP((AI68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AI82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AJ80" s="213">
-        <f>MAX(AJ79-($L$69*$B$62)*(2^(((AJ68 - 42) - $L$68)/HLOOKUP((AJ68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AJ82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AK80" s="213">
-        <f>MAX(AK79-($L$69*$B$62)*(2^(((AK68 - 42) - $L$68)/HLOOKUP((AK68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AK82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AL80" s="213">
-        <f>MAX(AL79-($L$69*$B$62)*(2^(((AL68 - 42) - $L$68)/HLOOKUP((AL68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AL82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM80" s="213">
-        <f>MAX(AM79-($L$69*$B$62)*(2^(((AM68 - 42) - $L$68)/HLOOKUP((AM68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AM82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AN80" s="213">
-        <f>MAX(AN79-($L$69*$B$62)*(2^(((AN68 - 42) - $L$68)/HLOOKUP((AN68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AN82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AO80" s="213">
-        <f>MAX(AO79-($L$69*$B$62)*(2^(((AO68 - 42) - $L$68)/HLOOKUP((AO68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AO82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AP80" s="213">
-        <f>MAX(AP79-($L$69*$B$62)*(2^(((AP68 - 42) - $L$68)/HLOOKUP((AP68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AP82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AQ80" s="214">
-        <f>MAX(AQ79-($L$69*$B$62)*(2^(((AQ68 - 42) - $L$68)/HLOOKUP((AQ68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AQ82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AR80" s="259">
-        <f>MAX(AR79-($L$69*$B$62)*(2^(((AR68 - 42) - $L$68)/HLOOKUP((AR68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AR82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AS80" s="221">
-        <f>MAX(AS79-($L$69*$B$62)*(2^(((AS68 - 42) - $L$68)/HLOOKUP((AS68-42)-$B$65,$L$91:$AT$93,3,TRUE)))-AS82,0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AT80" s="239"/>
@@ -41265,135 +41265,135 @@
         <v>0.3125</v>
       </c>
       <c r="M81" s="231">
-        <f t="shared" ref="M81:AS81" si="44">M69*$B$63</f>
+        <f t="shared" ref="M81:AS81" si="47">M69*$B$63</f>
         <v>0.625</v>
       </c>
       <c r="N81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.25</v>
       </c>
       <c r="O81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="Q81" s="230">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="R81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="S81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>40</v>
       </c>
       <c r="T81" s="309">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>60</v>
       </c>
       <c r="U81" s="308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>66</v>
       </c>
       <c r="V81" s="308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>70</v>
       </c>
       <c r="W81" s="308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>74</v>
       </c>
       <c r="X81" s="308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>78</v>
       </c>
       <c r="Y81" s="308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>80</v>
       </c>
       <c r="Z81" s="230">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>96</v>
       </c>
       <c r="AA81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>112</v>
       </c>
       <c r="AB81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>128</v>
       </c>
       <c r="AC81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>144</v>
       </c>
       <c r="AD81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>160</v>
       </c>
       <c r="AE81" s="231">
-        <f t="shared" ref="AE81:AH81" si="45">AE69*$B$63</f>
+        <f t="shared" ref="AE81:AH81" si="48">AE69*$B$63</f>
         <v>192</v>
       </c>
       <c r="AF81" s="231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>224</v>
       </c>
       <c r="AG81" s="231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>256</v>
       </c>
       <c r="AH81" s="231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>288</v>
       </c>
       <c r="AI81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>320</v>
       </c>
       <c r="AJ81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>640</v>
       </c>
       <c r="AK81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1280</v>
       </c>
       <c r="AL81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2560</v>
       </c>
       <c r="AM81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5120</v>
       </c>
       <c r="AN81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>10240</v>
       </c>
       <c r="AO81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>20480</v>
       </c>
       <c r="AP81" s="231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>40960</v>
       </c>
       <c r="AQ81" s="262">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>81920</v>
       </c>
       <c r="AR81" s="215">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>163840</v>
       </c>
       <c r="AS81" s="310">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>256340</v>
       </c>
       <c r="AT81" s="237">
@@ -41419,19 +41419,19 @@
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
       <c r="L82" s="216">
-        <f t="shared" ref="L82:O82" si="46">L81</f>
+        <f t="shared" ref="L82:O82" si="49">L81</f>
         <v>0.3125</v>
       </c>
       <c r="M82" s="217">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.625</v>
       </c>
       <c r="N82" s="217">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1.25</v>
       </c>
       <c r="O82" s="217">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2.5</v>
       </c>
       <c r="P82" s="219">
@@ -41439,119 +41439,119 @@
         <v>5</v>
       </c>
       <c r="Q82" s="220">
-        <f t="shared" ref="Q82:S82" si="47">Q81</f>
+        <f t="shared" ref="Q82:S82" si="50">Q81</f>
         <v>10</v>
       </c>
       <c r="R82" s="219">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>20</v>
       </c>
       <c r="S82" s="219">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>40</v>
       </c>
       <c r="T82" s="224">
-        <f>MAX(T81-($L$69*$B$63)*(2^(((T68 - 35) - $L$68)/HLOOKUP((T68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" ref="T82:AS82" si="51">MAX(T81-($L$69*$B$63)*(2^(((T68 - 35) - $L$68)/HLOOKUP((T68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
         <v>59.606087040519746</v>
       </c>
       <c r="U82" s="223">
-        <f>MAX(U81-($L$69*$B$63)*(2^(((U68 - 35) - $L$68)/HLOOKUP((U68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>62.794999036915641</v>
       </c>
       <c r="V82" s="223">
-        <f>MAX(V81-($L$69*$B$63)*(2^(((V68 - 35) - $L$68)/HLOOKUP((V68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W82" s="223">
-        <f>MAX(W81-($L$69*$B$63)*(2^(((W68 - 35) - $L$68)/HLOOKUP((W68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>6.8110132162080248</v>
       </c>
       <c r="X82" s="223">
-        <f>MAX(X81-($L$69*$B$63)*(2^(((X68 - 35) - $L$68)/HLOOKUP((X68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y82" s="223">
-        <f>MAX(Y81-($L$69*$B$63)*(2^(((Y68 - 35) - $L$68)/HLOOKUP((Y68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z82" s="224">
-        <f>MAX(Z81-($L$69*$B$63)*(2^(((Z68 - 35) - $L$68)/HLOOKUP((Z68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AA82" s="223">
-        <f>MAX(AA81-($L$69*$B$63)*(2^(((AA68 - 35) - $L$68)/HLOOKUP((AA68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AB82" s="223">
-        <f>MAX(AB81-($L$69*$B$63)*(2^(((AB68 - 35) - $L$68)/HLOOKUP((AB68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AC82" s="223">
-        <f>MAX(AC81-($L$69*$B$63)*(2^(((AC68 - 35) - $L$68)/HLOOKUP((AC68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>68.70616176806584</v>
       </c>
       <c r="AD82" s="223">
-        <f>MAX(AD81-($L$69*$B$63)*(2^(((AD68 - 35) - $L$68)/HLOOKUP((AD68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>68.627241382759635</v>
       </c>
       <c r="AE82" s="223">
-        <f>MAX(AE81-($L$69*$B$63)*(2^(((AE68 - 35) - $L$68)/HLOOKUP((AE68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>108.60683921156712</v>
       </c>
       <c r="AF82" s="223">
-        <f>MAX(AF81-($L$69*$B$63)*(2^(((AF68 - 35) - $L$68)/HLOOKUP((AF68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>116.17432881892364</v>
       </c>
       <c r="AG82" s="223">
-        <f>MAX(AG81-($L$69*$B$63)*(2^(((AG68 - 35) - $L$68)/HLOOKUP((AG68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>114.07343886024699</v>
       </c>
       <c r="AH82" s="223">
-        <f>MAX(AH81-($L$69*$B$63)*(2^(((AH68 - 35) - $L$68)/HLOOKUP((AH68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI82" s="223">
-        <f>MAX(AI81-($L$69*$B$63)*(2^(((AI68 - 35) - $L$68)/HLOOKUP((AI68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AJ82" s="223">
-        <f>MAX(AJ81-($L$69*$B$63)*(2^(((AJ68 - 35) - $L$68)/HLOOKUP((AJ68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AK82" s="223">
-        <f>MAX(AK81-($L$69*$B$63)*(2^(((AK68 - 35) - $L$68)/HLOOKUP((AK68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AL82" s="223">
-        <f>MAX(AL81-($L$69*$B$63)*(2^(((AL68 - 35) - $L$68)/HLOOKUP((AL68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AM82" s="223">
-        <f>MAX(AM81-($L$69*$B$63)*(2^(((AM68 - 35) - $L$68)/HLOOKUP((AM68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AN82" s="223">
-        <f>MAX(AN81-($L$69*$B$63)*(2^(((AN68 - 35) - $L$68)/HLOOKUP((AN68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AO82" s="223">
-        <f>MAX(AO81-($L$69*$B$63)*(2^(((AO68 - 35) - $L$68)/HLOOKUP((AO68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP82" s="223">
-        <f>MAX(AP81-($L$69*$B$63)*(2^(((AP68 - 35) - $L$68)/HLOOKUP((AP68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AQ82" s="232">
-        <f>MAX(AQ81-($L$69*$B$63)*(2^(((AQ68 - 35) - $L$68)/HLOOKUP((AQ68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AR82" s="259">
-        <f>MAX(AR81-($L$69*$B$63)*(2^(((AR68 - 35) - $L$68)/HLOOKUP((AR68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AS82" s="221">
-        <f>MAX(AS81-($L$69*$B$63)*(2^(((AS68 - 35) - $L$68)/HLOOKUP((AS68-35)-$B$65,$L$91:$AT$93,3,TRUE))),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AT82" s="237"/>
@@ -41574,139 +41574,139 @@
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="312">
-        <f t="shared" ref="L83:AS83" si="48">L69*$B$64</f>
+        <f t="shared" ref="L83:AS83" si="52">L69*$B$64</f>
         <v>0.984375</v>
       </c>
       <c r="M83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.96875</v>
       </c>
       <c r="N83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>3.9375</v>
       </c>
       <c r="O83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>7.875</v>
       </c>
       <c r="P83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>15.75</v>
       </c>
       <c r="Q83" s="312">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>31.5</v>
       </c>
       <c r="R83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>63</v>
       </c>
       <c r="S83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>126</v>
       </c>
       <c r="T83" s="312">
-        <f t="shared" ref="T83:X83" si="49">T69*$B$64</f>
+        <f t="shared" ref="T83:X83" si="53">T69*$B$64</f>
         <v>189</v>
       </c>
       <c r="U83" s="313">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>207.9</v>
       </c>
       <c r="V83" s="313">
-        <f t="shared" ref="V83:W83" si="50">V69*$B$64</f>
+        <f t="shared" ref="V83:W83" si="54">V69*$B$64</f>
         <v>220.5</v>
       </c>
       <c r="W83" s="313">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>233.1</v>
       </c>
       <c r="X83" s="313">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>245.7</v>
       </c>
       <c r="Y83" s="314">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>252</v>
       </c>
       <c r="Z83" s="313">
-        <f t="shared" ref="Z83:AC83" si="51">Z69*$B$64</f>
+        <f t="shared" ref="Z83:AC83" si="55">Z69*$B$64</f>
         <v>302.39999999999998</v>
       </c>
       <c r="AA83" s="313">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>352.8</v>
       </c>
       <c r="AB83" s="313">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>403.2</v>
       </c>
       <c r="AC83" s="313">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>453.6</v>
       </c>
       <c r="AD83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>504</v>
       </c>
       <c r="AE83" s="313">
-        <f t="shared" ref="AE83:AH83" si="52">AE69*$B$64</f>
+        <f t="shared" ref="AE83:AH83" si="56">AE69*$B$64</f>
         <v>604.79999999999995</v>
       </c>
       <c r="AF83" s="313">
+        <f t="shared" si="56"/>
+        <v>705.6</v>
+      </c>
+      <c r="AG83" s="313">
+        <f t="shared" si="56"/>
+        <v>806.4</v>
+      </c>
+      <c r="AH83" s="313">
+        <f t="shared" si="56"/>
+        <v>907.2</v>
+      </c>
+      <c r="AI83" s="313">
         <f t="shared" si="52"/>
-        <v>705.6</v>
-      </c>
-      <c r="AG83" s="313">
+        <v>1008</v>
+      </c>
+      <c r="AJ83" s="313">
         <f t="shared" si="52"/>
-        <v>806.4</v>
-      </c>
-      <c r="AH83" s="313">
+        <v>2016</v>
+      </c>
+      <c r="AK83" s="313">
         <f t="shared" si="52"/>
-        <v>907.2</v>
-      </c>
-      <c r="AI83" s="313">
-        <f t="shared" si="48"/>
-        <v>1008</v>
-      </c>
-      <c r="AJ83" s="313">
-        <f t="shared" si="48"/>
-        <v>2016</v>
-      </c>
-      <c r="AK83" s="313">
-        <f t="shared" si="48"/>
         <v>4032</v>
       </c>
       <c r="AL83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>8064</v>
       </c>
       <c r="AM83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>16128</v>
       </c>
       <c r="AN83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>32256</v>
       </c>
       <c r="AO83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>64512</v>
       </c>
       <c r="AP83" s="313">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>129024</v>
       </c>
       <c r="AQ83" s="314">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>258048</v>
       </c>
       <c r="AR83" s="315">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>516096</v>
       </c>
       <c r="AS83" s="315">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>807471</v>
       </c>
       <c r="AT83" s="311">
@@ -41732,35 +41732,35 @@
       <c r="J84" s="59"/>
       <c r="K84" s="59"/>
       <c r="L84" s="164">
-        <f t="shared" ref="L84:S84" si="53">L68-7</f>
+        <f t="shared" ref="L84:S84" si="57">L68-7</f>
         <v>43885</v>
       </c>
       <c r="M84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43889</v>
       </c>
       <c r="N84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43893</v>
       </c>
       <c r="O84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43897</v>
       </c>
       <c r="P84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43901</v>
       </c>
       <c r="Q84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43904</v>
       </c>
       <c r="R84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43907</v>
       </c>
       <c r="S84" s="164">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>43912</v>
       </c>
       <c r="T84" s="164"/>
@@ -41777,7 +41777,7 @@
       <c r="AB84" s="164"/>
       <c r="AC84" s="164"/>
       <c r="AD84" s="164">
-        <f t="shared" ref="AD84:AS84" si="54">AD68-7</f>
+        <f t="shared" ref="AD84:AS84" si="58">AD68-7</f>
         <v>44035</v>
       </c>
       <c r="AE84" s="164"/>
@@ -41785,47 +41785,47 @@
       <c r="AG84" s="164"/>
       <c r="AH84" s="164"/>
       <c r="AI84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>44565</v>
       </c>
       <c r="AJ84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>45095</v>
       </c>
       <c r="AK84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>45625</v>
       </c>
       <c r="AL84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>46155</v>
       </c>
       <c r="AM84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>46685</v>
       </c>
       <c r="AN84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>47215</v>
       </c>
       <c r="AO84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>47745</v>
       </c>
       <c r="AP84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>48275</v>
       </c>
       <c r="AQ84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>48805</v>
       </c>
       <c r="AR84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>49335</v>
       </c>
       <c r="AS84" s="164">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>49865</v>
       </c>
       <c r="AT84" s="164"/>
@@ -41847,35 +41847,35 @@
       <c r="J85" s="59"/>
       <c r="K85" s="59"/>
       <c r="L85" s="164">
-        <f t="shared" ref="L85:S85" si="55">L68-14</f>
+        <f t="shared" ref="L85:S85" si="59">L68-14</f>
         <v>43878</v>
       </c>
       <c r="M85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43882</v>
       </c>
       <c r="N85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43886</v>
       </c>
       <c r="O85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43890</v>
       </c>
       <c r="P85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43894</v>
       </c>
       <c r="Q85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43897</v>
       </c>
       <c r="R85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43900</v>
       </c>
       <c r="S85" s="164">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>43905</v>
       </c>
       <c r="T85" s="164"/>
@@ -41892,7 +41892,7 @@
       <c r="AB85" s="164"/>
       <c r="AC85" s="164"/>
       <c r="AD85" s="164">
-        <f t="shared" ref="AD85:AS85" si="56">AD68-14</f>
+        <f t="shared" ref="AD85:AS85" si="60">AD68-14</f>
         <v>44028</v>
       </c>
       <c r="AE85" s="164"/>
@@ -41900,47 +41900,47 @@
       <c r="AG85" s="164"/>
       <c r="AH85" s="164"/>
       <c r="AI85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>44558</v>
       </c>
       <c r="AJ85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>45088</v>
       </c>
       <c r="AK85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>45618</v>
       </c>
       <c r="AL85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>46148</v>
       </c>
       <c r="AM85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>46678</v>
       </c>
       <c r="AN85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>47208</v>
       </c>
       <c r="AO85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>47738</v>
       </c>
       <c r="AP85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>48268</v>
       </c>
       <c r="AQ85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>48798</v>
       </c>
       <c r="AR85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>49328</v>
       </c>
       <c r="AS85" s="164">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>49858</v>
       </c>
       <c r="AT85" s="164"/>
@@ -41962,35 +41962,35 @@
       <c r="J86" s="59"/>
       <c r="K86" s="59"/>
       <c r="L86" s="164">
-        <f t="shared" ref="L86:S86" si="57">L68-(7*5)</f>
+        <f t="shared" ref="L86:S86" si="61">L68-(7*5)</f>
         <v>43857</v>
       </c>
       <c r="M86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43861</v>
       </c>
       <c r="N86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43865</v>
       </c>
       <c r="O86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43869</v>
       </c>
       <c r="P86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43873</v>
       </c>
       <c r="Q86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43876</v>
       </c>
       <c r="R86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43879</v>
       </c>
       <c r="S86" s="164">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>43884</v>
       </c>
       <c r="T86" s="164"/>
@@ -42007,7 +42007,7 @@
       <c r="AB86" s="164"/>
       <c r="AC86" s="164"/>
       <c r="AD86" s="164">
-        <f t="shared" ref="AD86:AS86" si="58">AD68-(7*5)</f>
+        <f t="shared" ref="AD86:AS86" si="62">AD68-(7*5)</f>
         <v>44007</v>
       </c>
       <c r="AE86" s="164"/>
@@ -42015,47 +42015,47 @@
       <c r="AG86" s="164"/>
       <c r="AH86" s="164"/>
       <c r="AI86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>44537</v>
       </c>
       <c r="AJ86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>45067</v>
       </c>
       <c r="AK86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>45597</v>
       </c>
       <c r="AL86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>46127</v>
       </c>
       <c r="AM86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>46657</v>
       </c>
       <c r="AN86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>47187</v>
       </c>
       <c r="AO86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>47717</v>
       </c>
       <c r="AP86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>48247</v>
       </c>
       <c r="AQ86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>48777</v>
       </c>
       <c r="AR86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>49307</v>
       </c>
       <c r="AS86" s="164">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>49837</v>
       </c>
       <c r="AT86" s="164"/>
@@ -42077,35 +42077,35 @@
       <c r="J87" s="59"/>
       <c r="K87" s="59"/>
       <c r="L87" s="164">
-        <f t="shared" ref="L87:S87" si="59">L68-(6*7)</f>
+        <f t="shared" ref="L87:S87" si="63">L68-(6*7)</f>
         <v>43850</v>
       </c>
       <c r="M87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43854</v>
       </c>
       <c r="N87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43858</v>
       </c>
       <c r="O87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43862</v>
       </c>
       <c r="P87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43866</v>
       </c>
       <c r="Q87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43869</v>
       </c>
       <c r="R87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43872</v>
       </c>
       <c r="S87" s="164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>43877</v>
       </c>
       <c r="T87" s="164"/>
@@ -42122,7 +42122,7 @@
       <c r="AB87" s="164"/>
       <c r="AC87" s="164"/>
       <c r="AD87" s="164">
-        <f t="shared" ref="AD87:AS87" si="60">AD68-(6*7)</f>
+        <f t="shared" ref="AD87:AS87" si="64">AD68-(6*7)</f>
         <v>44000</v>
       </c>
       <c r="AE87" s="164"/>
@@ -42130,47 +42130,47 @@
       <c r="AG87" s="164"/>
       <c r="AH87" s="164"/>
       <c r="AI87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>44530</v>
       </c>
       <c r="AJ87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>45060</v>
       </c>
       <c r="AK87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>45590</v>
       </c>
       <c r="AL87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>46120</v>
       </c>
       <c r="AM87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>46650</v>
       </c>
       <c r="AN87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>47180</v>
       </c>
       <c r="AO87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>47710</v>
       </c>
       <c r="AP87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>48240</v>
       </c>
       <c r="AQ87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>48770</v>
       </c>
       <c r="AR87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>49300</v>
       </c>
       <c r="AS87" s="164">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>49830</v>
       </c>
       <c r="AT87" s="164"/>
@@ -42207,143 +42207,143 @@
       <c r="J90" s="59"/>
       <c r="K90" s="59"/>
       <c r="L90" s="158">
-        <f>(L68-$B$65)/7</f>
+        <f t="shared" ref="L90:AT90" si="65">(L68-$B$65)/7</f>
         <v>5.2857142857142856</v>
       </c>
       <c r="M90" s="155">
-        <f>(M68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>5.8571428571428568</v>
       </c>
       <c r="N90" s="156">
-        <f>(N68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>6.4285714285714288</v>
       </c>
       <c r="O90" s="158">
-        <f>(O68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="P90" s="155">
-        <f>(P68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>7.5714285714285712</v>
       </c>
       <c r="Q90" s="159">
-        <f>(Q68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="R90" s="156">
-        <f>(R68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>8.4285714285714288</v>
       </c>
       <c r="S90" s="158">
-        <f>(S68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>9.1428571428571423</v>
       </c>
       <c r="T90" s="158">
-        <f>(T68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>10.63571428571387</v>
       </c>
       <c r="U90" s="155">
-        <f>(U68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>12.264285714285506</v>
       </c>
       <c r="V90" s="155">
-        <f>(V68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>15.928571428571429</v>
       </c>
       <c r="W90" s="155">
-        <f>(W68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>20.950000000000209</v>
       </c>
       <c r="X90" s="155">
-        <f>(X68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>22.307142857143067</v>
       </c>
       <c r="Y90" s="155">
-        <f>(Y68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>22.714285714285715</v>
       </c>
       <c r="Z90" s="155">
-        <f>(Z68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>24.034285714285424</v>
       </c>
       <c r="AA90" s="155">
-        <f>(AA68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>24.914285714285921</v>
       </c>
       <c r="AB90" s="155">
-        <f>(AB68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>25.594285714286212</v>
       </c>
       <c r="AC90" s="155">
-        <f>(AC68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>26.154285714285965</v>
       </c>
       <c r="AD90" s="158">
-        <f>(AD68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>26.714285714285715</v>
       </c>
       <c r="AE90" s="158">
-        <f>(AE68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>27.698571428571345</v>
       </c>
       <c r="AF90" s="158">
-        <f>(AF68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>28.834285714285215</v>
       </c>
       <c r="AG90" s="158">
-        <f>(AG68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>31.105714285713994</v>
       </c>
       <c r="AH90" s="158">
-        <f>(AH68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>87.285714285714292</v>
       </c>
       <c r="AI90" s="156">
-        <f>(AI68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>102.42857142857143</v>
       </c>
       <c r="AJ90" s="158">
-        <f>(AJ68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>178.14285714285714</v>
       </c>
       <c r="AK90" s="158">
-        <f>(AK68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>253.85714285714286</v>
       </c>
       <c r="AL90" s="156">
-        <f>(AL68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>329.57142857142856</v>
       </c>
       <c r="AM90" s="158">
-        <f>(AM68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>405.28571428571428</v>
       </c>
       <c r="AN90" s="158">
-        <f>(AN68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>481</v>
       </c>
       <c r="AO90" s="158">
-        <f>(AO68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>556.71428571428567</v>
       </c>
       <c r="AP90" s="156">
-        <f>(AP68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>632.42857142857144</v>
       </c>
       <c r="AQ90" s="155">
-        <f>(AQ68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>708.14285714285711</v>
       </c>
       <c r="AR90" s="158">
-        <f>(AR68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>783.85714285714289</v>
       </c>
       <c r="AS90" s="158">
-        <f>(AS68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>859.57142857142856</v>
       </c>
       <c r="AT90" s="158">
-        <f>(AT68-$B$65)/7</f>
+        <f t="shared" si="65"/>
         <v>867.57142857142856</v>
       </c>
     </row>
@@ -42366,139 +42366,139 @@
         <v>37</v>
       </c>
       <c r="M91" s="250">
-        <f>M68-$B$65</f>
+        <f t="shared" ref="M91:AT91" si="66">M68-$B$65</f>
         <v>41</v>
       </c>
       <c r="N91" s="250">
-        <f>N68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>45</v>
       </c>
       <c r="O91" s="250">
-        <f>O68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>49</v>
       </c>
       <c r="P91" s="250">
-        <f>P68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>53</v>
       </c>
       <c r="Q91" s="250">
-        <f>Q68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>56</v>
       </c>
       <c r="R91" s="250">
-        <f>R68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>59</v>
       </c>
       <c r="S91" s="250">
-        <f>S68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>64</v>
       </c>
       <c r="T91" s="250">
-        <f>T68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>74.44999999999709</v>
       </c>
       <c r="U91" s="250">
-        <f>U68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>85.849999999998545</v>
       </c>
       <c r="V91" s="250">
-        <f>V68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>111.5</v>
       </c>
       <c r="W91" s="250">
-        <f>W68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>146.65000000000146</v>
       </c>
       <c r="X91" s="250">
-        <f>X68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>156.15000000000146</v>
       </c>
       <c r="Y91" s="250">
-        <f>Y68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>159</v>
       </c>
       <c r="Z91" s="250">
-        <f>Z68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>168.23999999999796</v>
       </c>
       <c r="AA91" s="250">
-        <f>AA68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>174.40000000000146</v>
       </c>
       <c r="AB91" s="250">
-        <f>AB68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>179.16000000000349</v>
       </c>
       <c r="AC91" s="250">
-        <f>AC68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>183.08000000000175</v>
       </c>
       <c r="AD91" s="250">
-        <f>AD68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>187</v>
       </c>
       <c r="AE91" s="250">
-        <f>AE68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>193.88999999999942</v>
       </c>
       <c r="AF91" s="250">
-        <f>AF68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>201.83999999999651</v>
       </c>
       <c r="AG91" s="250">
-        <f>AG68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>217.73999999999796</v>
       </c>
       <c r="AH91" s="250">
-        <f>AH68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>611</v>
       </c>
       <c r="AI91" s="250">
-        <f>AI68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>717</v>
       </c>
       <c r="AJ91" s="250">
-        <f>AJ68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>1247</v>
       </c>
       <c r="AK91" s="250">
-        <f>AK68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>1777</v>
       </c>
       <c r="AL91" s="250">
-        <f>AL68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>2307</v>
       </c>
       <c r="AM91" s="250">
-        <f>AM68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>2837</v>
       </c>
       <c r="AN91" s="250">
-        <f>AN68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>3367</v>
       </c>
       <c r="AO91" s="250">
-        <f>AO68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>3897</v>
       </c>
       <c r="AP91" s="251">
-        <f>AP68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>4427</v>
       </c>
       <c r="AQ91" s="250">
-        <f>AQ68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>4957</v>
       </c>
       <c r="AR91" s="255">
-        <f>AR68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>5487</v>
       </c>
       <c r="AS91" s="248">
-        <f>AS68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>6017</v>
       </c>
       <c r="AT91" s="248">
-        <f>AT68-$B$65</f>
+        <f t="shared" si="66"/>
         <v>6073</v>
       </c>
     </row>
@@ -42583,47 +42583,47 @@
         <v>25547</v>
       </c>
       <c r="AH92" s="198">
-        <f t="shared" ref="AH92" si="61">AH69</f>
+        <f t="shared" ref="AH92" si="67">AH69</f>
         <v>28800</v>
       </c>
       <c r="AI92" s="198">
-        <f t="shared" ref="AI92:AQ92" si="62">AI69</f>
+        <f t="shared" ref="AI92:AQ92" si="68">AI69</f>
         <v>32000</v>
       </c>
       <c r="AJ92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>64000</v>
       </c>
       <c r="AK92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>128000</v>
       </c>
       <c r="AL92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>256000</v>
       </c>
       <c r="AM92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>512000</v>
       </c>
       <c r="AN92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1024000</v>
       </c>
       <c r="AO92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>2048000</v>
       </c>
       <c r="AP92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>4096000</v>
       </c>
       <c r="AQ92" s="198">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>8192000</v>
       </c>
       <c r="AR92" s="246">
-        <f t="shared" ref="AR92" si="63">AQ92*2</f>
+        <f t="shared" ref="AR92" si="69">AQ92*2</f>
         <v>16384000</v>
       </c>
       <c r="AS92" s="202">
@@ -42654,139 +42654,139 @@
         <v>7.3348749373107394</v>
       </c>
       <c r="M93" s="190">
-        <f t="shared" ref="M93:AT93" si="64">(M68-$L$68)/(LOG(M92/$L$92)/LOG(2))</f>
+        <f t="shared" ref="M93:AT93" si="70">(M68-$L$68)/(LOG(M92/$L$92)/LOG(2))</f>
         <v>4.287770252524326</v>
       </c>
       <c r="N93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4.4111479339015975</v>
       </c>
       <c r="O93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4.1239916709798061</v>
       </c>
       <c r="P93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.8325424233151351</v>
       </c>
       <c r="Q93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.7835829796492675</v>
       </c>
       <c r="R93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.5867723822019695</v>
       </c>
       <c r="S93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.8687414968098568</v>
       </c>
       <c r="T93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4.9808465814944229</v>
       </c>
       <c r="U93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>6.3885630863942993</v>
       </c>
       <c r="V93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>9.6344649481670324</v>
       </c>
       <c r="W93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>14.038490174645888</v>
       </c>
       <c r="X93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>15.122961868611593</v>
       </c>
       <c r="Y93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>15.400986476095756</v>
       </c>
       <c r="Z93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>16.049220813005178</v>
       </c>
       <c r="AA93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>16.335132462680878</v>
       </c>
       <c r="AB93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>16.510569795792801</v>
       </c>
       <c r="AC93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>16.657377848480287</v>
       </c>
       <c r="AD93" s="190">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>16.762668842280384</v>
       </c>
       <c r="AE93" s="190">
-        <f t="shared" ref="AE93:AH93" si="65">(AE68-$L$68)/(LOG(AE92/$L$92)/LOG(2))</f>
+        <f t="shared" ref="AE93:AH93" si="71">(AE68-$L$68)/(LOG(AE92/$L$92)/LOG(2))</f>
         <v>17.048362616609818</v>
       </c>
       <c r="AF93" s="190">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>17.528507271306481</v>
       </c>
       <c r="AG93" s="190">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>18.83400454606134</v>
       </c>
       <c r="AH93" s="199">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>58.754965462822945</v>
       </c>
       <c r="AI93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>68.538782234171862</v>
       </c>
       <c r="AJ93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>110.79175651503336</v>
       </c>
       <c r="AK93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>145.95613228599359</v>
       </c>
       <c r="AL93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>175.67769187059901</v>
       </c>
       <c r="AM93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>201.12933886290014</v>
       </c>
       <c r="AN93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>223.16955478740664</v>
       </c>
       <c r="AO93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>242.44114112672312</v>
       </c>
       <c r="AP93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>259.43494932239372</v>
       </c>
       <c r="AQ93" s="199">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>274.53227426102649</v>
       </c>
       <c r="AR93" s="247">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>288.03380472507388</v>
       </c>
       <c r="AS93" s="204">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>305.61408219293753</v>
       </c>
       <c r="AT93" s="205">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>308.47602008638307</v>
       </c>
     </row>
@@ -42907,11 +42907,11 @@
         <v>22</v>
       </c>
       <c r="N95" s="120">
-        <f t="shared" ref="N95:O95" si="66">N92-N94-N96</f>
+        <f t="shared" ref="N95:O95" si="72">N92-N94-N96</f>
         <v>22</v>
       </c>
       <c r="O95" s="120">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>25</v>
       </c>
       <c r="P95" s="163">
@@ -42919,75 +42919,75 @@
         <v>43</v>
       </c>
       <c r="Q95" s="163">
-        <f t="shared" ref="Q95:S95" si="67">Q92-Q94-Q96</f>
+        <f t="shared" ref="Q95:S95" si="73">Q92-Q94-Q96</f>
         <v>46</v>
       </c>
       <c r="R95" s="163">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>118</v>
       </c>
       <c r="S95" s="163">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>245</v>
       </c>
       <c r="T95" s="163">
-        <f t="shared" ref="T95:U95" si="68">T92-T94-T96</f>
+        <f t="shared" ref="T95:U95" si="74">T92-T94-T96</f>
         <v>2813</v>
       </c>
       <c r="U95" s="163">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>4230</v>
       </c>
       <c r="V95" s="163">
-        <f t="shared" ref="V95:W95" si="69">V92-V94-V96</f>
+        <f t="shared" ref="V95:W95" si="75">V92-V94-V96</f>
         <v>6337</v>
       </c>
       <c r="W95" s="163">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>6878</v>
       </c>
       <c r="X95" s="163">
-        <f t="shared" ref="X95:Y95" si="70">X92-X94-X96</f>
+        <f t="shared" ref="X95:Y95" si="76">X92-X94-X96</f>
         <v>7008</v>
       </c>
       <c r="Y95" s="163">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>7090</v>
       </c>
       <c r="Z95" s="163">
-        <f t="shared" ref="Z95:AB95" si="71">Z92-Z94-Z96</f>
+        <f t="shared" ref="Z95:AB95" si="77">Z92-Z94-Z96</f>
         <v>7730</v>
       </c>
       <c r="AA95" s="163">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>8117</v>
       </c>
       <c r="AB95" s="163">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>8653</v>
       </c>
       <c r="AC95" s="163">
-        <f t="shared" ref="AC95:AD95" si="72">AC92-AC94-AC96</f>
+        <f t="shared" ref="AC95:AD95" si="78">AC92-AC94-AC96</f>
         <v>9170</v>
       </c>
       <c r="AD95" s="163">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>9758</v>
       </c>
       <c r="AE95" s="163">
-        <f t="shared" ref="AE95:AG95" si="73">AE92-AE94-AE96</f>
+        <f t="shared" ref="AE95:AG95" si="79">AE92-AE94-AE96</f>
         <v>10799</v>
       </c>
       <c r="AF95" s="163">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>13001</v>
       </c>
       <c r="AG95" s="163">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>20856</v>
       </c>
       <c r="AH95" s="303">
-        <v>25631</v>
+        <v>25719</v>
       </c>
       <c r="AI95" s="303"/>
       <c r="AJ95" s="200"/>
@@ -43222,139 +43222,139 @@
       <c r="J100" s="17"/>
       <c r="K100" s="28"/>
       <c r="L100" s="30">
-        <f t="shared" ref="L100:AS100" si="74">L$69*$D$100</f>
+        <f t="shared" ref="L100:AS100" si="80">L$69*$D$100</f>
         <v>2.3312458216996341</v>
       </c>
       <c r="M100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>4.6624916433992682</v>
       </c>
       <c r="N100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>9.3249832867985365</v>
       </c>
       <c r="O100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>18.649966573597073</v>
       </c>
       <c r="P100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>37.299933147194146</v>
       </c>
       <c r="Q100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>74.599866294388292</v>
       </c>
       <c r="R100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>149.19973258877658</v>
       </c>
       <c r="S100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>298.39946517755317</v>
       </c>
       <c r="T100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>447.59919776632978</v>
       </c>
       <c r="U100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>492.35911754296274</v>
       </c>
       <c r="V100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>522.199064060718</v>
       </c>
       <c r="W100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>552.03901057847338</v>
       </c>
       <c r="X100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>581.87895709622865</v>
       </c>
       <c r="Y100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>596.79893035510634</v>
       </c>
       <c r="Z100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>716.15871642612763</v>
       </c>
       <c r="AA100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>835.51850249714892</v>
       </c>
       <c r="AB100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>954.87828856817009</v>
       </c>
       <c r="AC100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1074.2380746391914</v>
       </c>
       <c r="AD100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1193.5978607102127</v>
       </c>
       <c r="AE100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1432.3174328522553</v>
       </c>
       <c r="AF100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1671.0370049942978</v>
       </c>
       <c r="AG100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1909.7565771363402</v>
       </c>
       <c r="AH100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>2148.4761492783828</v>
       </c>
       <c r="AI100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>2387.1957214204253</v>
       </c>
       <c r="AJ100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>4774.3914428408507</v>
       </c>
       <c r="AK100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>9548.7828856817014</v>
       </c>
       <c r="AL100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>19097.565771363403</v>
       </c>
       <c r="AM100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>38195.131542726805</v>
       </c>
       <c r="AN100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>76390.263085453611</v>
       </c>
       <c r="AO100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>152780.52617090722</v>
       </c>
       <c r="AP100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>305561.05234181444</v>
       </c>
       <c r="AQ100" s="72">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>611122.10468362889</v>
       </c>
       <c r="AR100" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1222244.2093672578</v>
       </c>
       <c r="AS100" s="72">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1912292.9725903494</v>
       </c>
       <c r="AT100" s="57"/>
@@ -43375,139 +43375,139 @@
       </c>
       <c r="K101" s="22"/>
       <c r="L101" s="41">
-        <f t="shared" ref="L101:AS101" si="75">L$69*$D$100*$J$101</f>
+        <f t="shared" ref="L101:AS101" si="81">L$69*$D$100*$J$101</f>
         <v>0.55423925439458877</v>
       </c>
       <c r="M101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1.1084785087891775</v>
       </c>
       <c r="N101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2.2169570175783551</v>
       </c>
       <c r="O101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>4.4339140351567101</v>
       </c>
       <c r="P101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>8.8678280703134202</v>
       </c>
       <c r="Q101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>17.73565614062684</v>
       </c>
       <c r="R101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>35.471312281253681</v>
       </c>
       <c r="S101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>70.942624562507362</v>
       </c>
       <c r="T101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>106.41393684376106</v>
       </c>
       <c r="U101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>117.05533052813716</v>
       </c>
       <c r="V101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>124.14959298438788</v>
       </c>
       <c r="W101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>131.24385544063864</v>
       </c>
       <c r="X101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>138.33811789688937</v>
       </c>
       <c r="Y101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>141.88524912501472</v>
       </c>
       <c r="Z101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>170.26229895001768</v>
       </c>
       <c r="AA101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>198.63934877502064</v>
       </c>
       <c r="AB101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>227.01639860002356</v>
       </c>
       <c r="AC101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>255.39344842502652</v>
       </c>
       <c r="AD101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>283.77049825002945</v>
       </c>
       <c r="AE101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>340.52459790003536</v>
       </c>
       <c r="AF101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>397.27869755004127</v>
       </c>
       <c r="AG101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>454.03279720004713</v>
       </c>
       <c r="AH101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>510.78689685005304</v>
       </c>
       <c r="AI101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>567.5409965000589</v>
       </c>
       <c r="AJ101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1135.0819930001178</v>
       </c>
       <c r="AK101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2270.1639860002356</v>
       </c>
       <c r="AL101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>4540.3279720004712</v>
       </c>
       <c r="AM101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>9080.6559440009423</v>
       </c>
       <c r="AN101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>18161.311888001885</v>
       </c>
       <c r="AO101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>36322.623776003769</v>
       </c>
       <c r="AP101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>72645.247552007539</v>
       </c>
       <c r="AQ101" s="83">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>145290.49510401508</v>
       </c>
       <c r="AR101" s="42">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>290580.99020803015</v>
       </c>
       <c r="AS101" s="83">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>454635.80950882845</v>
       </c>
       <c r="AT101" s="57"/>
@@ -43521,7 +43521,7 @@
         <v>7.065336711718416E-2</v>
       </c>
       <c r="C102" s="22">
-        <f t="shared" ref="C102:C116" si="76">$B$55*B102</f>
+        <f t="shared" ref="C102:C116" si="82">$B$55*B102</f>
         <v>1811128.4126818988</v>
       </c>
       <c r="D102" s="35">
@@ -43536,139 +43536,139 @@
       <c r="J102" s="29"/>
       <c r="K102" s="28"/>
       <c r="L102" s="32">
-        <f t="shared" ref="L102:AS102" si="77">L$69*$D$102</f>
+        <f t="shared" ref="L102:AS102" si="83">L$69*$D$102</f>
         <v>1.8544280152581698</v>
       </c>
       <c r="M102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>3.7088560305163396</v>
       </c>
       <c r="N102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>7.4177120610326792</v>
       </c>
       <c r="O102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>14.835424122065358</v>
       </c>
       <c r="P102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>29.670848244130717</v>
       </c>
       <c r="Q102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>59.341696488261434</v>
       </c>
       <c r="R102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>118.68339297652287</v>
       </c>
       <c r="S102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>237.36678595304573</v>
       </c>
       <c r="T102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>356.05017892956857</v>
       </c>
       <c r="U102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>391.65519682252545</v>
       </c>
       <c r="V102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>415.39187541783002</v>
       </c>
       <c r="W102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>439.12855401313459</v>
       </c>
       <c r="X102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>462.86523260843916</v>
       </c>
       <c r="Y102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>474.73357190609147</v>
       </c>
       <c r="Z102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>569.68028628730974</v>
       </c>
       <c r="AA102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>664.62700066852801</v>
       </c>
       <c r="AB102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>759.57371504974628</v>
       </c>
       <c r="AC102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>854.52042943096455</v>
       </c>
       <c r="AD102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>949.46714381218294</v>
       </c>
       <c r="AE102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1139.3605725746195</v>
       </c>
       <c r="AF102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1329.254001337056</v>
       </c>
       <c r="AG102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1519.1474300994926</v>
       </c>
       <c r="AH102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1709.0408588619291</v>
       </c>
       <c r="AI102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1898.9342876243659</v>
       </c>
       <c r="AJ102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>3797.8685752487318</v>
       </c>
       <c r="AK102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>7595.7371504974635</v>
       </c>
       <c r="AL102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>15191.474300994927</v>
       </c>
       <c r="AM102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>30382.948601989854</v>
       </c>
       <c r="AN102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>60765.897203979708</v>
       </c>
       <c r="AO102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>121531.79440795942</v>
       </c>
       <c r="AP102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>243063.58881591883</v>
       </c>
       <c r="AQ102" s="84">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>486127.17763183767</v>
       </c>
       <c r="AR102" s="33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>972254.35526367533</v>
       </c>
       <c r="AS102" s="84">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1521165.0477800935</v>
       </c>
       <c r="AT102" s="57"/>
@@ -43689,139 +43689,139 @@
       </c>
       <c r="K103" s="22"/>
       <c r="L103" s="41">
-        <f t="shared" ref="L103:AS103" si="78">L$69*$D$102*$J$103</f>
+        <f t="shared" ref="L103:AS103" si="84">L$69*$D$102*$J$103</f>
         <v>0.14501160092807425</v>
       </c>
       <c r="M103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0.29002320185614849</v>
       </c>
       <c r="N103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0.58004640371229699</v>
       </c>
       <c r="O103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1.160092807424594</v>
       </c>
       <c r="P103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2.3201856148491879</v>
       </c>
       <c r="Q103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>4.6403712296983759</v>
       </c>
       <c r="R103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>9.2807424593967518</v>
       </c>
       <c r="S103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>18.561484918793504</v>
       </c>
       <c r="T103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>27.842227378190252</v>
       </c>
       <c r="U103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>30.626450116009281</v>
       </c>
       <c r="V103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>32.482598607888633</v>
       </c>
       <c r="W103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>34.338747099767978</v>
       </c>
       <c r="X103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>36.194895591647331</v>
       </c>
       <c r="Y103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>37.122969837587007</v>
       </c>
       <c r="Z103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>44.547563805104403</v>
       </c>
       <c r="AA103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>51.972157772621806</v>
       </c>
       <c r="AB103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>59.396751740139209</v>
       </c>
       <c r="AC103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>66.821345707656604</v>
       </c>
       <c r="AD103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>74.245939675174014</v>
       </c>
       <c r="AE103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>89.095127610208806</v>
       </c>
       <c r="AF103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>103.94431554524361</v>
       </c>
       <c r="AG103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>118.79350348027842</v>
       </c>
       <c r="AH103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>133.64269141531321</v>
       </c>
       <c r="AI103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>148.49187935034803</v>
       </c>
       <c r="AJ103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>296.98375870069606</v>
       </c>
       <c r="AK103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>593.96751740139212</v>
       </c>
       <c r="AL103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1187.9350348027842</v>
       </c>
       <c r="AM103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2375.8700696055685</v>
       </c>
       <c r="AN103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>4751.7401392111369</v>
       </c>
       <c r="AO103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>9503.4802784222738</v>
       </c>
       <c r="AP103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>19006.960556844548</v>
       </c>
       <c r="AQ103" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>38013.921113689095</v>
       </c>
       <c r="AR103" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>76027.842227378191</v>
       </c>
       <c r="AS103" s="83">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>118951.27610208816</v>
       </c>
       <c r="AT103" s="57"/>
@@ -43835,7 +43835,7 @@
         <v>0.10301766910746854</v>
       </c>
       <c r="C104" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2640754.9299008488</v>
       </c>
       <c r="D104" s="35">
@@ -43850,139 +43850,139 @@
       <c r="J104" s="29"/>
       <c r="K104" s="22"/>
       <c r="L104" s="32">
-        <f t="shared" ref="L104:AS104" si="79">L$69*$D$104</f>
+        <f t="shared" ref="L104:AS104" si="85">L$69*$D$104</f>
         <v>2.745389122655236</v>
       </c>
       <c r="M104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>5.4907782453104721</v>
       </c>
       <c r="N104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>10.981556490620944</v>
       </c>
       <c r="O104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>21.963112981241888</v>
       </c>
       <c r="P104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>43.926225962483777</v>
       </c>
       <c r="Q104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>87.852451924967554</v>
       </c>
       <c r="R104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>175.70490384993511</v>
       </c>
       <c r="S104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>351.40980769987021</v>
       </c>
       <c r="T104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>527.11471154980541</v>
       </c>
       <c r="U104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>579.82618270478588</v>
       </c>
       <c r="V104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>614.96716347477286</v>
       </c>
       <c r="W104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>650.10814424475996</v>
       </c>
       <c r="X104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>685.24912501474694</v>
       </c>
       <c r="Y104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>702.81961539974043</v>
       </c>
       <c r="Z104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>843.38353847968858</v>
       </c>
       <c r="AA104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>983.94746155963662</v>
       </c>
       <c r="AB104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1124.5113846395848</v>
       </c>
       <c r="AC104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1265.0753077195329</v>
       </c>
       <c r="AD104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1405.6392307994809</v>
       </c>
       <c r="AE104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1686.7670769593772</v>
       </c>
       <c r="AF104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1967.8949231192732</v>
       </c>
       <c r="AG104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2249.0227692791696</v>
       </c>
       <c r="AH104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2530.1506154390659</v>
       </c>
       <c r="AI104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2811.2784615989617</v>
       </c>
       <c r="AJ104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>5622.5569231979234</v>
       </c>
       <c r="AK104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>11245.113846395847</v>
       </c>
       <c r="AL104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>22490.227692791694</v>
       </c>
       <c r="AM104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>44980.455385583387</v>
       </c>
       <c r="AN104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>89960.910771166775</v>
       </c>
       <c r="AO104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>179921.82154233355</v>
       </c>
       <c r="AP104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>359843.6430846671</v>
       </c>
       <c r="AQ104" s="84">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>719687.2861693342</v>
       </c>
       <c r="AR104" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1439374.5723386684</v>
       </c>
       <c r="AS104" s="84">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2252009.7526446185</v>
       </c>
       <c r="AT104" s="57"/>
@@ -44003,139 +44003,139 @@
       </c>
       <c r="K105" s="22"/>
       <c r="L105" s="41">
-        <f t="shared" ref="L105:AS105" si="80">L$69*$D$104*$J$105</f>
+        <f t="shared" ref="L105:AS105" si="86">L$69*$D$104*$J$105</f>
         <v>3.1951708679067208E-2</v>
       </c>
       <c r="M105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>6.3903417358134415E-2</v>
       </c>
       <c r="N105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>0.12780683471626883</v>
       </c>
       <c r="O105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>0.25561366943253766</v>
       </c>
       <c r="P105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>0.51122733886507532</v>
       </c>
       <c r="Q105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>1.0224546777301506</v>
       </c>
       <c r="R105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>2.0449093554603013</v>
       </c>
       <c r="S105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>4.0898187109206026</v>
       </c>
       <c r="T105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>6.1347280663809043</v>
       </c>
       <c r="U105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>6.7482008730189937</v>
       </c>
       <c r="V105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>7.1571827441110534</v>
       </c>
       <c r="W105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>7.5661646152031148</v>
       </c>
       <c r="X105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>7.9751464862951744</v>
       </c>
       <c r="Y105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>8.1796374218412051</v>
       </c>
       <c r="Z105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>9.8155649062094454</v>
       </c>
       <c r="AA105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>11.451492390577686</v>
       </c>
       <c r="AB105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>13.087419874945928</v>
       </c>
       <c r="AC105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>14.72334735931417</v>
       </c>
       <c r="AD105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>16.35927484368241</v>
       </c>
       <c r="AE105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>19.631129812418891</v>
       </c>
       <c r="AF105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>22.902984781155372</v>
       </c>
       <c r="AG105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>26.174839749891856</v>
       </c>
       <c r="AH105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>29.44669471862834</v>
       </c>
       <c r="AI105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>32.71854968736482</v>
       </c>
       <c r="AJ105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>65.437099374729641</v>
       </c>
       <c r="AK105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>130.87419874945928</v>
       </c>
       <c r="AL105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>261.74839749891856</v>
       </c>
       <c r="AM105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>523.49679499783713</v>
       </c>
       <c r="AN105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>1046.9935899956743</v>
       </c>
       <c r="AO105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>2093.9871799913485</v>
       </c>
       <c r="AP105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>4187.974359982697</v>
       </c>
       <c r="AQ105" s="83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>8375.948719965394</v>
       </c>
       <c r="AR105" s="42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>16751.897439930788</v>
       </c>
       <c r="AS105" s="83">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>26209.603208934681</v>
       </c>
       <c r="AT105" s="57"/>
@@ -44149,7 +44149,7 @@
         <v>0.12142789925761971</v>
       </c>
       <c r="C106" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3112682.7695698235</v>
       </c>
       <c r="D106" s="35">
@@ -44164,139 +44164,139 @@
       <c r="J106" s="29"/>
       <c r="K106" s="22"/>
       <c r="L106" s="32">
-        <f t="shared" ref="L106:AS106" si="81">L$69*$D$106</f>
+        <f t="shared" ref="L106:AS106" si="87">L$69*$D$106</f>
         <v>3.7358920917063192</v>
       </c>
       <c r="M106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>7.4717841834126384</v>
       </c>
       <c r="N106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>14.943568366825277</v>
       </c>
       <c r="O106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>29.887136733650554</v>
       </c>
       <c r="P106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>59.774273467301107</v>
       </c>
       <c r="Q106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>119.54854693460221</v>
       </c>
       <c r="R106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>239.09709386920443</v>
       </c>
       <c r="S106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>478.19418773840886</v>
       </c>
       <c r="T106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>717.29128160761331</v>
       </c>
       <c r="U106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>789.02040976837463</v>
       </c>
       <c r="V106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>836.83982854221551</v>
       </c>
       <c r="W106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>884.65924731605639</v>
       </c>
       <c r="X106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>932.47866608989727</v>
       </c>
       <c r="Y106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>956.38837547681771</v>
       </c>
       <c r="Z106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1147.6660505721813</v>
       </c>
       <c r="AA106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1338.9437256675449</v>
       </c>
       <c r="AB106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1530.2214007629084</v>
       </c>
       <c r="AC106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1721.4990758582719</v>
       </c>
       <c r="AD106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1912.7767509536354</v>
       </c>
       <c r="AE106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2295.3321011443627</v>
       </c>
       <c r="AF106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2677.8874513350897</v>
       </c>
       <c r="AG106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>3060.4428015258168</v>
       </c>
       <c r="AH106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>3442.9981517165438</v>
       </c>
       <c r="AI106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>3825.5535019072709</v>
       </c>
       <c r="AJ106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>7651.1070038145417</v>
       </c>
       <c r="AK106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>15302.214007629083</v>
       </c>
       <c r="AL106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>30604.428015258167</v>
       </c>
       <c r="AM106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>61208.856030516334</v>
       </c>
       <c r="AN106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>122417.71206103267</v>
       </c>
       <c r="AO106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>244835.42412206533</v>
       </c>
       <c r="AP106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>489670.84824413067</v>
       </c>
       <c r="AQ106" s="84">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>979341.69648826134</v>
       </c>
       <c r="AR106" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1958683.3929765227</v>
       </c>
       <c r="AS106" s="84">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>3064507.4521215935</v>
       </c>
       <c r="AT106" s="57"/>
@@ -44317,139 +44317,139 @@
       </c>
       <c r="K107" s="22"/>
       <c r="L107" s="41">
-        <f t="shared" ref="L107:AS107" si="82">L$69*$D$106*$J$107</f>
+        <f t="shared" ref="L107:AS107" si="88">L$69*$D$106*$J$107</f>
         <v>1.5975854339533604E-2</v>
       </c>
       <c r="M107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.1951708679067208E-2</v>
       </c>
       <c r="N107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>6.3903417358134415E-2</v>
       </c>
       <c r="O107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.12780683471626883</v>
       </c>
       <c r="P107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.25561366943253766</v>
       </c>
       <c r="Q107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.51122733886507532</v>
       </c>
       <c r="R107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1.0224546777301506</v>
       </c>
       <c r="S107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.0449093554603013</v>
       </c>
       <c r="T107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.0673640331904517</v>
       </c>
       <c r="U107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.3741004365094969</v>
       </c>
       <c r="V107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.5785913720555271</v>
       </c>
       <c r="W107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.7830823076015574</v>
       </c>
       <c r="X107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.9875732431475872</v>
       </c>
       <c r="Y107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>4.0898187109206026</v>
       </c>
       <c r="Z107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>4.9077824531047236</v>
       </c>
       <c r="AA107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>5.7257461952888438</v>
       </c>
       <c r="AB107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>6.5437099374729639</v>
       </c>
       <c r="AC107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>7.3616736796570841</v>
       </c>
       <c r="AD107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>8.1796374218412051</v>
       </c>
       <c r="AE107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>9.8155649062094472</v>
       </c>
       <c r="AF107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>11.451492390577688</v>
       </c>
       <c r="AG107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>13.087419874945928</v>
       </c>
       <c r="AH107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>14.723347359314168</v>
       </c>
       <c r="AI107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>16.35927484368241</v>
       </c>
       <c r="AJ107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>32.71854968736482</v>
       </c>
       <c r="AK107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>65.437099374729641</v>
       </c>
       <c r="AL107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>130.87419874945928</v>
       </c>
       <c r="AM107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>261.74839749891856</v>
       </c>
       <c r="AN107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>523.49679499783713</v>
       </c>
       <c r="AO107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1046.9935899956743</v>
       </c>
       <c r="AP107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2093.9871799913485</v>
       </c>
       <c r="AQ107" s="83">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>4187.974359982697</v>
       </c>
       <c r="AR107" s="42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>8375.948719965394</v>
       </c>
       <c r="AS107" s="83">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>13104.801604467342</v>
       </c>
       <c r="AT107" s="57"/>
@@ -44463,7 +44463,7 @@
         <v>0.12908272398046944</v>
       </c>
       <c r="C108" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3308906.5465153535</v>
       </c>
       <c r="D108" s="35">
@@ -44478,139 +44478,139 @@
       <c r="J108" s="29"/>
       <c r="K108" s="22"/>
       <c r="L108" s="32">
-        <f t="shared" ref="L108:AS108" si="83">L$69*$D$108</f>
+        <f t="shared" ref="L108:AS108" si="89">L$69*$D$108</f>
         <v>4.0197707342011091</v>
       </c>
       <c r="M108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>8.0395414684022182</v>
       </c>
       <c r="N108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>16.079082936804436</v>
       </c>
       <c r="O108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>32.158165873608873</v>
       </c>
       <c r="P108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>64.316331747217745</v>
       </c>
       <c r="Q108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>128.63266349443549</v>
       </c>
       <c r="R108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>257.26532698887098</v>
       </c>
       <c r="S108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>514.53065397774196</v>
       </c>
       <c r="T108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>771.795980966613</v>
       </c>
       <c r="U108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>848.97557906327427</v>
       </c>
       <c r="V108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>900.42864446104852</v>
       </c>
       <c r="W108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>951.88170985882266</v>
       </c>
       <c r="X108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1003.3347752565969</v>
       </c>
       <c r="Y108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1029.0613079554839</v>
       </c>
       <c r="Z108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1234.8735695465807</v>
       </c>
       <c r="AA108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1440.6858311376775</v>
       </c>
       <c r="AB108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1646.4980927287745</v>
       </c>
       <c r="AC108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1852.3103543198713</v>
       </c>
       <c r="AD108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>2058.1226159109679</v>
       </c>
       <c r="AE108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>2469.7471390931614</v>
       </c>
       <c r="AF108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>2881.371662275355</v>
       </c>
       <c r="AG108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>3292.996185457549</v>
       </c>
       <c r="AH108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>3704.6207086397426</v>
       </c>
       <c r="AI108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>4116.2452318219357</v>
       </c>
       <c r="AJ108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>8232.4904636438714</v>
       </c>
       <c r="AK108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>16464.980927287743</v>
       </c>
       <c r="AL108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>32929.961854575486</v>
       </c>
       <c r="AM108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>65859.923709150971</v>
       </c>
       <c r="AN108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>131719.84741830194</v>
       </c>
       <c r="AO108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>263439.69483660389</v>
       </c>
       <c r="AP108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>526879.38967320777</v>
       </c>
       <c r="AQ108" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1053758.7793464155</v>
       </c>
       <c r="AR108" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>2107517.5586928311</v>
       </c>
       <c r="AS108" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>3297369.6960163596</v>
       </c>
       <c r="AT108" s="57"/>
@@ -44631,139 +44631,139 @@
       </c>
       <c r="K109" s="22"/>
       <c r="L109" s="41">
-        <f t="shared" ref="L109:AS109" si="84">L$69*$D$108*$J$109</f>
+        <f t="shared" ref="L109:AS109" si="90">L$69*$D$108*$J$109</f>
         <v>2.4578237445436312E-3</v>
       </c>
       <c r="M109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>4.9156474890872624E-3</v>
       </c>
       <c r="N109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>9.8312949781745249E-3</v>
       </c>
       <c r="O109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.966258995634905E-2</v>
       </c>
       <c r="P109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>3.9325179912698099E-2</v>
       </c>
       <c r="Q109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>7.8650359825396199E-2</v>
       </c>
       <c r="R109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.1573007196507924</v>
       </c>
       <c r="S109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.3146014393015848</v>
       </c>
       <c r="T109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.47190215895237725</v>
       </c>
       <c r="U109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.51909237484761495</v>
       </c>
       <c r="V109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.55055251877777345</v>
       </c>
       <c r="W109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.58201266270793184</v>
       </c>
       <c r="X109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.61347280663809045</v>
       </c>
       <c r="Y109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.62920287860316959</v>
       </c>
       <c r="Z109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.75504345432380349</v>
       </c>
       <c r="AA109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.88088403004443738</v>
       </c>
       <c r="AB109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AC109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.1325651814857054</v>
       </c>
       <c r="AD109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.2584057572063392</v>
       </c>
       <c r="AE109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.510086908647607</v>
       </c>
       <c r="AF109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.7617680600888748</v>
       </c>
       <c r="AG109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2.0134492115301428</v>
       </c>
       <c r="AH109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2.2651303629714108</v>
       </c>
       <c r="AI109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2.5168115144126784</v>
       </c>
       <c r="AJ109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>5.0336230288253567</v>
       </c>
       <c r="AK109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>10.067246057650713</v>
       </c>
       <c r="AL109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>20.134492115301427</v>
       </c>
       <c r="AM109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>40.268984230602854</v>
       </c>
       <c r="AN109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>80.537968461205708</v>
       </c>
       <c r="AO109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>161.07593692241142</v>
       </c>
       <c r="AP109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>322.15187384482283</v>
       </c>
       <c r="AQ109" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>644.30374768964566</v>
       </c>
       <c r="AR109" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1288.6074953792913</v>
       </c>
       <c r="AS109" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2016.1233237642064</v>
       </c>
       <c r="AT109" s="57"/>
@@ -44777,7 +44777,7 @@
         <v>0.14481341657950456</v>
       </c>
       <c r="C110" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3712147.1205990198</v>
       </c>
       <c r="D110" s="35">
@@ -44792,139 +44792,139 @@
       <c r="J110" s="29"/>
       <c r="K110" s="22"/>
       <c r="L110" s="32">
-        <f t="shared" ref="L110:AS110" si="85">L$69*$D$110</f>
+        <f t="shared" ref="L110:AS110" si="91">L$69*$D$110</f>
         <v>5.4072122379959886</v>
       </c>
       <c r="M110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>10.814424475991977</v>
       </c>
       <c r="N110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>21.628848951983954</v>
       </c>
       <c r="O110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>43.257697903967909</v>
       </c>
       <c r="P110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>86.515395807935818</v>
       </c>
       <c r="Q110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>173.03079161587164</v>
       </c>
       <c r="R110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>346.06158323174327</v>
       </c>
       <c r="S110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>692.12316646348654</v>
       </c>
       <c r="T110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1038.1847496952298</v>
       </c>
       <c r="U110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1142.0032246647529</v>
       </c>
       <c r="V110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1211.2155413111016</v>
       </c>
       <c r="W110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1280.4278579574502</v>
       </c>
       <c r="X110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1349.6401746037989</v>
       </c>
       <c r="Y110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1384.2463329269731</v>
       </c>
       <c r="Z110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1661.0955995123679</v>
       </c>
       <c r="AA110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1937.9448660977625</v>
       </c>
       <c r="AB110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2214.7941326831569</v>
       </c>
       <c r="AC110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2491.6433992685515</v>
       </c>
       <c r="AD110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2768.4926658539462</v>
       </c>
       <c r="AE110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>3322.1911990247359</v>
       </c>
       <c r="AF110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>3875.8897321955251</v>
       </c>
       <c r="AG110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>4429.5882653663139</v>
       </c>
       <c r="AH110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>4983.2867985371031</v>
       </c>
       <c r="AI110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>5536.9853317078923</v>
       </c>
       <c r="AJ110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>11073.970663415785</v>
       </c>
       <c r="AK110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>22147.941326831569</v>
       </c>
       <c r="AL110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>44295.882653663139</v>
       </c>
       <c r="AM110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>88591.765307326277</v>
       </c>
       <c r="AN110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>177183.53061465255</v>
       </c>
       <c r="AO110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>354367.06122930511</v>
       </c>
       <c r="AP110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>708734.12245861022</v>
       </c>
       <c r="AQ110" s="84">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1417468.2449172204</v>
       </c>
       <c r="AR110" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2834936.4898344409</v>
       </c>
       <c r="AS110" s="84">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>4435471.3122812537</v>
       </c>
       <c r="AT110" s="57"/>
@@ -44945,139 +44945,139 @@
       </c>
       <c r="K111" s="22"/>
       <c r="L111" s="41">
-        <f t="shared" ref="L111:AS111" si="86">L$69*$D$110*$J$111</f>
+        <f t="shared" ref="L111:AS111" si="92">L$69*$D$110*$J$111</f>
         <v>2.4578237445436312E-3</v>
       </c>
       <c r="M111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>4.9156474890872624E-3</v>
       </c>
       <c r="N111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>9.8312949781745249E-3</v>
       </c>
       <c r="O111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.966258995634905E-2</v>
       </c>
       <c r="P111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>3.9325179912698099E-2</v>
       </c>
       <c r="Q111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>7.8650359825396199E-2</v>
       </c>
       <c r="R111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.1573007196507924</v>
       </c>
       <c r="S111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.3146014393015848</v>
       </c>
       <c r="T111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.47190215895237719</v>
       </c>
       <c r="U111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.51909237484761495</v>
       </c>
       <c r="V111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.55055251877777345</v>
       </c>
       <c r="W111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.58201266270793195</v>
       </c>
       <c r="X111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.61347280663809034</v>
       </c>
       <c r="Y111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.62920287860316959</v>
       </c>
       <c r="Z111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.7550434543238036</v>
       </c>
       <c r="AA111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.88088403004443749</v>
       </c>
       <c r="AB111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AC111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.1325651814857052</v>
       </c>
       <c r="AD111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.2584057572063392</v>
       </c>
       <c r="AE111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.5100869086476072</v>
       </c>
       <c r="AF111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.761768060088875</v>
       </c>
       <c r="AG111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.0134492115301428</v>
       </c>
       <c r="AH111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.2651303629714103</v>
       </c>
       <c r="AI111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.5168115144126784</v>
       </c>
       <c r="AJ111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>5.0336230288253567</v>
       </c>
       <c r="AK111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>10.067246057650713</v>
       </c>
       <c r="AL111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>20.134492115301427</v>
       </c>
       <c r="AM111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>40.268984230602854</v>
       </c>
       <c r="AN111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>80.537968461205708</v>
       </c>
       <c r="AO111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>161.07593692241142</v>
       </c>
       <c r="AP111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>322.15187384482283</v>
       </c>
       <c r="AQ111" s="83">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>644.30374768964566</v>
       </c>
       <c r="AR111" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1288.6074953792913</v>
       </c>
       <c r="AS111" s="83">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2016.1233237642061</v>
       </c>
       <c r="AT111" s="57"/>
@@ -45091,7 +45091,7 @@
         <v>0.14458334093878666</v>
       </c>
       <c r="C112" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3706249.3616248574</v>
       </c>
       <c r="D112" s="35">
@@ -45106,139 +45106,139 @@
       <c r="J112" s="29"/>
       <c r="K112" s="22"/>
       <c r="L112" s="32">
-        <f t="shared" ref="L112:AS112" si="87">L$69*$D$112</f>
+        <f t="shared" ref="L112:AS112" si="93">L$69*$D$112</f>
         <v>7.0613276180738529</v>
       </c>
       <c r="M112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>14.122655236147706</v>
       </c>
       <c r="N112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>28.245310472295412</v>
       </c>
       <c r="O112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>56.490620944590823</v>
       </c>
       <c r="P112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>112.98124188918165</v>
       </c>
       <c r="Q112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>225.96248377836329</v>
       </c>
       <c r="R112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>451.92496755672659</v>
       </c>
       <c r="S112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>903.84993511345317</v>
       </c>
       <c r="T112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1355.7749026701797</v>
       </c>
       <c r="U112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1491.3523929371977</v>
       </c>
       <c r="V112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1581.737386448543</v>
       </c>
       <c r="W112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1672.1223799598883</v>
       </c>
       <c r="X112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1762.5073734712337</v>
       </c>
       <c r="Y112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1807.6998702269063</v>
       </c>
       <c r="Z112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>2169.2398442722874</v>
       </c>
       <c r="AA112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>2530.7798183176687</v>
       </c>
       <c r="AB112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>2892.3197923630501</v>
       </c>
       <c r="AC112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3253.8597664084314</v>
       </c>
       <c r="AD112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3615.3997404538127</v>
       </c>
       <c r="AE112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>4338.4796885445749</v>
       </c>
       <c r="AF112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>5061.5596366353375</v>
       </c>
       <c r="AG112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>5784.6395847261001</v>
       </c>
       <c r="AH112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>6507.7195328168627</v>
       </c>
       <c r="AI112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>7230.7994809076254</v>
       </c>
       <c r="AJ112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>14461.598961815251</v>
       </c>
       <c r="AK112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>28923.197923630501</v>
       </c>
       <c r="AL112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>57846.395847261003</v>
       </c>
       <c r="AM112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>115692.79169452201</v>
       </c>
       <c r="AN112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>231385.58338904401</v>
       </c>
       <c r="AO112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>462771.16677808802</v>
       </c>
       <c r="AP112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>925542.33355617605</v>
       </c>
       <c r="AQ112" s="84">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>1851084.6671123521</v>
       </c>
       <c r="AR112" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3702169.3342247042</v>
       </c>
       <c r="AS112" s="84">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>5792322.3091745647</v>
       </c>
       <c r="AT112" s="57"/>
@@ -45259,139 +45259,139 @@
       </c>
       <c r="K113" s="22"/>
       <c r="L113" s="41">
-        <f t="shared" ref="L113:AS113" si="88">L$69*$D$112*$J$113</f>
+        <f t="shared" ref="L113:AS113" si="94">L$69*$D$112*$J$113</f>
         <v>1.2289118722718158E-3</v>
       </c>
       <c r="M113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2.4578237445436316E-3</v>
       </c>
       <c r="N113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>4.9156474890872633E-3</v>
       </c>
       <c r="O113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>9.8312949781745266E-3</v>
       </c>
       <c r="P113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1.9662589956349053E-2</v>
       </c>
       <c r="Q113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>3.9325179912698106E-2</v>
       </c>
       <c r="R113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>7.8650359825396213E-2</v>
       </c>
       <c r="S113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.15730071965079243</v>
       </c>
       <c r="T113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.23595107947618862</v>
       </c>
       <c r="U113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.25954618742380747</v>
       </c>
       <c r="V113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.27527625938888672</v>
       </c>
       <c r="W113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.29100633135396597</v>
       </c>
       <c r="X113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.30673640331904523</v>
       </c>
       <c r="Y113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.31460143930158485</v>
       </c>
       <c r="Z113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.3775217271619018</v>
       </c>
       <c r="AA113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.44044201502221875</v>
       </c>
       <c r="AB113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.50336230288253569</v>
       </c>
       <c r="AC113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.5662825907428527</v>
       </c>
       <c r="AD113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.6292028786031697</v>
       </c>
       <c r="AE113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.7550434543238036</v>
       </c>
       <c r="AF113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.88088403004443749</v>
       </c>
       <c r="AG113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AH113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1.1325651814857054</v>
       </c>
       <c r="AI113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1.2584057572063394</v>
       </c>
       <c r="AJ113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2.5168115144126788</v>
       </c>
       <c r="AK113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>5.0336230288253576</v>
       </c>
       <c r="AL113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>10.067246057650715</v>
       </c>
       <c r="AM113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>20.13449211530143</v>
       </c>
       <c r="AN113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>40.268984230602861</v>
       </c>
       <c r="AO113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>80.537968461205722</v>
       </c>
       <c r="AP113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>161.07593692241144</v>
       </c>
       <c r="AQ113" s="83">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>322.15187384482289</v>
       </c>
       <c r="AR113" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>644.30374768964577</v>
       </c>
       <c r="AS113" s="83">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1008.0616618821032</v>
       </c>
       <c r="AT113" s="57"/>
@@ -45405,7 +45405,7 @@
         <v>0.12056476079328157</v>
       </c>
       <c r="C114" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3090557.0781749799</v>
       </c>
       <c r="D114" s="35">
@@ -45420,139 +45420,139 @@
       <c r="J114" s="29"/>
       <c r="K114" s="22"/>
       <c r="L114" s="32">
-        <f t="shared" ref="L114:AS114" si="89">L$69*$D$114</f>
+        <f t="shared" ref="L114:AS114" si="95">L$69*$D$114</f>
         <v>2.5856305792599001</v>
       </c>
       <c r="M114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>5.1712611585198003</v>
       </c>
       <c r="N114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>10.342522317039601</v>
       </c>
       <c r="O114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>20.685044634079201</v>
       </c>
       <c r="P114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>41.370089268158402</v>
       </c>
       <c r="Q114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>82.740178536316805</v>
       </c>
       <c r="R114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>165.48035707263361</v>
       </c>
       <c r="S114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>330.96071414526722</v>
       </c>
       <c r="T114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>496.44107121790086</v>
       </c>
       <c r="U114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>546.08517833969097</v>
       </c>
       <c r="V114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>579.18124975421767</v>
       </c>
       <c r="W114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>612.27732116874438</v>
       </c>
       <c r="X114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>645.37339258327108</v>
       </c>
       <c r="Y114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>661.92142829053444</v>
       </c>
       <c r="Z114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>794.30571394864137</v>
       </c>
       <c r="AA114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>926.6899996067483</v>
       </c>
       <c r="AB114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1059.0742852648552</v>
       </c>
       <c r="AC114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1191.4585709229621</v>
       </c>
       <c r="AD114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1323.8428565810689</v>
       </c>
       <c r="AE114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1588.6114278972827</v>
       </c>
       <c r="AF114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1853.3799992134966</v>
       </c>
       <c r="AG114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2118.1485705297105</v>
       </c>
       <c r="AH114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2382.9171418459241</v>
       </c>
       <c r="AI114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2647.6857131621377</v>
       </c>
       <c r="AJ114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>5295.3714263242755</v>
       </c>
       <c r="AK114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>10590.742852648551</v>
       </c>
       <c r="AL114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>21181.485705297102</v>
       </c>
       <c r="AM114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>42362.971410594204</v>
       </c>
       <c r="AN114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>84725.942821188408</v>
       </c>
       <c r="AO114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>169451.88564237682</v>
       </c>
       <c r="AP114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>338903.77128475363</v>
       </c>
       <c r="AQ114" s="84">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>677807.54256950726</v>
       </c>
       <c r="AR114" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>1355615.0851390145</v>
       </c>
       <c r="AS114" s="84">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2120961.736599945</v>
       </c>
       <c r="AT114" s="57"/>
@@ -45573,139 +45573,139 @@
       </c>
       <c r="K115" s="22"/>
       <c r="L115" s="41">
-        <f t="shared" ref="L115:AS115" si="90">L$69*$D$114*$J$115</f>
+        <f t="shared" ref="L115:AS115" si="96">L$69*$D$114*$J$115</f>
         <v>0</v>
       </c>
       <c r="M115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="U115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="V115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="X115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Z115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AA115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AB115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AC115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AD115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AE115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AF115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AG115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AH115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AI115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AJ115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AL115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AM115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AO115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AP115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AQ115" s="83">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AR115" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AS115" s="83">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AT115" s="57"/>
@@ -45719,7 +45719,7 @@
         <v>0.1255958322404806</v>
       </c>
       <c r="C116" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>3219523.5636524796</v>
       </c>
       <c r="D116" s="35">
@@ -45734,139 +45734,139 @@
       <c r="J116" s="29"/>
       <c r="K116" s="22"/>
       <c r="L116" s="32">
-        <f t="shared" ref="L116:AS116" si="91">L$69*$D$116</f>
+        <f t="shared" ref="L116:AS116" si="97">L$69*$D$116</f>
         <v>1.5091037791497894</v>
       </c>
       <c r="M116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>3.0182075582995789</v>
       </c>
       <c r="N116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>6.0364151165991577</v>
       </c>
       <c r="O116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>12.072830233198315</v>
       </c>
       <c r="P116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>24.145660466396631</v>
       </c>
       <c r="Q116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>48.291320932793262</v>
       </c>
       <c r="R116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>96.582641865586524</v>
       </c>
       <c r="S116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>193.16528373117305</v>
       </c>
       <c r="T116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>289.74792559675961</v>
       </c>
       <c r="U116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>318.72271815643558</v>
       </c>
       <c r="V116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>338.03924652955283</v>
       </c>
       <c r="W116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>357.35577490267013</v>
       </c>
       <c r="X116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>376.67230327578744</v>
       </c>
       <c r="Y116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>386.3305674623461</v>
       </c>
       <c r="Z116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>463.59668095481533</v>
       </c>
       <c r="AA116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>540.86279444728461</v>
       </c>
       <c r="AB116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>618.12890793975384</v>
       </c>
       <c r="AC116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>695.39502143222296</v>
       </c>
       <c r="AD116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>772.66113492469219</v>
       </c>
       <c r="AE116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>927.19336190963065</v>
       </c>
       <c r="AF116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1081.7255888945692</v>
       </c>
       <c r="AG116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1236.2578158795077</v>
       </c>
       <c r="AH116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1390.7900428644459</v>
       </c>
       <c r="AI116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1545.3222698493844</v>
       </c>
       <c r="AJ116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>3090.6445396987688</v>
       </c>
       <c r="AK116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>6181.2890793975375</v>
       </c>
       <c r="AL116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>12362.578158795075</v>
       </c>
       <c r="AM116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>24725.15631759015</v>
       </c>
       <c r="AN116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>49450.3126351803</v>
       </c>
       <c r="AO116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>98900.625270360601</v>
       </c>
       <c r="AP116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>197801.2505407212</v>
       </c>
       <c r="AQ116" s="84">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>395602.5010814424</v>
       </c>
       <c r="AR116" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>791205.0021628848</v>
       </c>
       <c r="AS116" s="84">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>1237899.7207912225</v>
       </c>
       <c r="AT116" s="57"/>
@@ -45887,139 +45887,139 @@
       </c>
       <c r="K117" s="22"/>
       <c r="L117" s="41">
-        <f t="shared" ref="L117:AS117" si="92">L$69*$D$116*$J$117</f>
+        <f t="shared" ref="L117:AS117" si="98">L$69*$D$116*$J$117</f>
         <v>0</v>
       </c>
       <c r="M117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="N117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="O117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="P117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="R117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="S117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="T117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="U117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="V117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="W117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="X117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Y117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Z117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AA117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AB117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AD117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AE117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AF117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AG117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AH117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AI117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AJ117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AK117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AL117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AM117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AN117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AO117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AP117" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AQ117" s="83">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AR117" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AS117" s="85">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AT117" s="57"/>
@@ -46039,23 +46039,23 @@
       <c r="J118" s="27"/>
       <c r="K118" s="22"/>
       <c r="L118" s="30">
-        <f t="shared" ref="L118:AO118" si="93">SUM(L100,L102,L104,L106,L108,L110,L112,L114,L116)</f>
+        <f t="shared" ref="L118:AO118" si="99">SUM(L100,L102,L104,L106,L108,L110,L112,L114,L116)</f>
         <v>31.25</v>
       </c>
       <c r="M118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>62.5</v>
       </c>
       <c r="N118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>125</v>
       </c>
       <c r="O118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>250</v>
       </c>
       <c r="P118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>500</v>
       </c>
       <c r="Q118" s="31">
@@ -46063,115 +46063,115 @@
         <v>1000</v>
       </c>
       <c r="R118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>2000</v>
       </c>
       <c r="S118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>4000</v>
       </c>
       <c r="T118" s="31">
-        <f t="shared" ref="T118:X118" si="94">SUM(T100,T102,T104,T106,T108,T110,T112,T114,T116)</f>
+        <f t="shared" ref="T118:X118" si="100">SUM(T100,T102,T104,T106,T108,T110,T112,T114,T116)</f>
         <v>6000</v>
       </c>
       <c r="U118" s="31">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>6600</v>
       </c>
       <c r="V118" s="31">
-        <f t="shared" ref="V118:W118" si="95">SUM(V100,V102,V104,V106,V108,V110,V112,V114,V116)</f>
+        <f t="shared" ref="V118:W118" si="101">SUM(V100,V102,V104,V106,V108,V110,V112,V114,V116)</f>
         <v>6999.9999999999991</v>
       </c>
       <c r="W118" s="31">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>7400</v>
       </c>
       <c r="X118" s="31">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>7800</v>
       </c>
       <c r="Y118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>8000</v>
       </c>
       <c r="Z118" s="31">
-        <f t="shared" ref="Z118:AC118" si="96">SUM(Z100,Z102,Z104,Z106,Z108,Z110,Z112,Z114,Z116)</f>
+        <f t="shared" ref="Z118:AC118" si="102">SUM(Z100,Z102,Z104,Z106,Z108,Z110,Z112,Z114,Z116)</f>
         <v>9600</v>
       </c>
       <c r="AA118" s="31">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>11199.999999999998</v>
       </c>
       <c r="AB118" s="31">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>12800</v>
       </c>
       <c r="AC118" s="31">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>14400</v>
       </c>
       <c r="AD118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>16000</v>
       </c>
       <c r="AE118" s="31">
-        <f t="shared" ref="AE118:AH118" si="97">SUM(AE100,AE102,AE104,AE106,AE108,AE110,AE112,AE114,AE116)</f>
+        <f t="shared" ref="AE118:AH118" si="103">SUM(AE100,AE102,AE104,AE106,AE108,AE110,AE112,AE114,AE116)</f>
         <v>19200</v>
       </c>
       <c r="AF118" s="31">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>22399.999999999996</v>
       </c>
       <c r="AG118" s="31">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>25600</v>
       </c>
       <c r="AH118" s="31">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>28800</v>
       </c>
       <c r="AI118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>32000</v>
       </c>
       <c r="AJ118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>64000</v>
       </c>
       <c r="AK118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>128000</v>
       </c>
       <c r="AL118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>256000</v>
       </c>
       <c r="AM118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>512000</v>
       </c>
       <c r="AN118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>1024000</v>
       </c>
       <c r="AO118" s="31">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>2048000</v>
       </c>
       <c r="AP118" s="31">
-        <f t="shared" ref="AP118:AS119" si="98">SUM(AP100,AP102,AP104,AP106,AP108,AP110,AP112,AP114,AP116)</f>
+        <f t="shared" ref="AP118:AS119" si="104">SUM(AP100,AP102,AP104,AP106,AP108,AP110,AP112,AP114,AP116)</f>
         <v>4096000</v>
       </c>
       <c r="AQ118" s="72">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>8192000</v>
       </c>
       <c r="AR118" s="31">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>16384000</v>
       </c>
       <c r="AS118" s="72">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>25634000</v>
       </c>
       <c r="AT118" s="57"/>
@@ -46199,31 +46199,31 @@
         <v>1.5066459554052458</v>
       </c>
       <c r="N119" s="44">
-        <f t="shared" ref="N119:AO119" si="99">SUM(N101,N103,N105,N107,N109,N111,N113,N115,N117)</f>
+        <f t="shared" ref="N119:AO119" si="105">SUM(N101,N103,N105,N107,N109,N111,N113,N115,N117)</f>
         <v>3.0132919108104916</v>
       </c>
       <c r="O119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>6.0265838216209833</v>
       </c>
       <c r="P119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>12.053167643241967</v>
       </c>
       <c r="Q119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>24.106335286483933</v>
       </c>
       <c r="R119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>48.212670572967866</v>
       </c>
       <c r="S119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>96.425341145935732</v>
       </c>
       <c r="T119" s="44">
-        <f t="shared" ref="T119:X119" si="100">SUM(T101,T103,T105,T107,T109,T111,T113,T115,T117)</f>
+        <f t="shared" ref="T119:X119" si="106">SUM(T101,T103,T105,T107,T109,T111,T113,T115,T117)</f>
         <v>144.63801171890364</v>
       </c>
       <c r="U119" s="44">
@@ -46231,99 +46231,99 @@
         <v>159.10181289079398</v>
       </c>
       <c r="V119" s="44">
-        <f t="shared" ref="V119:W119" si="101">SUM(V101,V103,V105,V107,V109,V111,V113,V115,V117)</f>
+        <f t="shared" ref="V119:W119" si="107">SUM(V101,V103,V105,V107,V109,V111,V113,V115,V117)</f>
         <v>168.74434700538751</v>
       </c>
       <c r="W119" s="44">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>178.38688111998113</v>
       </c>
       <c r="X119" s="44">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>188.02941523457471</v>
       </c>
       <c r="Y119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>192.85068229187146</v>
       </c>
       <c r="Z119" s="44">
-        <f t="shared" ref="Z119:AC119" si="102">SUM(Z101,Z103,Z105,Z107,Z109,Z111,Z113,Z115,Z117)</f>
+        <f t="shared" ref="Z119:AC119" si="108">SUM(Z101,Z103,Z105,Z107,Z109,Z111,Z113,Z115,Z117)</f>
         <v>231.42081875024576</v>
       </c>
       <c r="AA119" s="44">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>269.99095520862005</v>
       </c>
       <c r="AB119" s="44">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>308.56109166699423</v>
       </c>
       <c r="AC119" s="44">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>347.13122812536858</v>
       </c>
       <c r="AD119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>385.70136458374293</v>
       </c>
       <c r="AE119" s="44">
-        <f t="shared" ref="AE119:AH119" si="103">SUM(AE101,AE103,AE105,AE107,AE109,AE111,AE113,AE115,AE117)</f>
+        <f t="shared" ref="AE119:AH119" si="109">SUM(AE101,AE103,AE105,AE107,AE109,AE111,AE113,AE115,AE117)</f>
         <v>462.84163750049152</v>
       </c>
       <c r="AF119" s="44">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>539.9819104172401</v>
       </c>
       <c r="AG119" s="44">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>617.12218333398846</v>
       </c>
       <c r="AH119" s="44">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>694.26245625073716</v>
       </c>
       <c r="AI119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>771.40272916748586</v>
       </c>
       <c r="AJ119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>1542.8054583349717</v>
       </c>
       <c r="AK119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>3085.6109166699434</v>
       </c>
       <c r="AL119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>6171.2218333398869</v>
       </c>
       <c r="AM119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>12342.443666679774</v>
       </c>
       <c r="AN119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>24684.887333359547</v>
       </c>
       <c r="AO119" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>49369.774666719095</v>
       </c>
       <c r="AP119" s="44">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>98739.54933343819</v>
       </c>
       <c r="AQ119" s="85">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>197479.09866687638</v>
       </c>
       <c r="AR119" s="44">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>394958.19733375276</v>
       </c>
       <c r="AS119" s="85">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>617941.79873372905</v>
       </c>
       <c r="AT119" s="57"/>
@@ -46492,139 +46492,139 @@
       <c r="J123" s="28"/>
       <c r="K123" s="28"/>
       <c r="L123" s="30">
-        <f t="shared" ref="L123:AS123" si="104">L$69*$B$123</f>
+        <f t="shared" ref="L123:AS123" si="110">L$69*$B$123</f>
         <v>1.5625</v>
       </c>
       <c r="M123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>3.125</v>
       </c>
       <c r="N123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>6.25</v>
       </c>
       <c r="O123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>12.5</v>
       </c>
       <c r="P123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>25</v>
       </c>
       <c r="Q123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="R123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>100</v>
       </c>
       <c r="S123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>200</v>
       </c>
       <c r="T123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>300</v>
       </c>
       <c r="U123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>330</v>
       </c>
       <c r="V123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>350</v>
       </c>
       <c r="W123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>370</v>
       </c>
       <c r="X123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>390</v>
       </c>
       <c r="Y123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>400</v>
       </c>
       <c r="Z123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>480</v>
       </c>
       <c r="AA123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>560</v>
       </c>
       <c r="AB123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>640</v>
       </c>
       <c r="AC123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>720</v>
       </c>
       <c r="AD123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>800</v>
       </c>
       <c r="AE123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>960</v>
       </c>
       <c r="AF123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1120</v>
       </c>
       <c r="AG123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1280</v>
       </c>
       <c r="AH123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1440</v>
       </c>
       <c r="AI123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1600</v>
       </c>
       <c r="AJ123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>3200</v>
       </c>
       <c r="AK123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>6400</v>
       </c>
       <c r="AL123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>12800</v>
       </c>
       <c r="AM123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>25600</v>
       </c>
       <c r="AN123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>51200</v>
       </c>
       <c r="AO123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>102400</v>
       </c>
       <c r="AP123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>204800</v>
       </c>
       <c r="AQ123" s="72">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>409600</v>
       </c>
       <c r="AR123" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>819200</v>
       </c>
       <c r="AS123" s="72">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1281700</v>
       </c>
       <c r="AT123" s="57"/>
@@ -46648,119 +46648,119 @@
         <v>0.1640625</v>
       </c>
       <c r="M124" s="42">
-        <f t="shared" ref="M124:AO124" si="105">M123*$J$124</f>
+        <f t="shared" ref="M124:AO124" si="111">M123*$J$124</f>
         <v>0.328125</v>
       </c>
       <c r="N124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.65625</v>
       </c>
       <c r="O124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1.3125</v>
       </c>
       <c r="P124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>2.625</v>
       </c>
       <c r="Q124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>5.25</v>
       </c>
       <c r="R124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>10.5</v>
       </c>
       <c r="S124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>21</v>
       </c>
       <c r="T124" s="42">
-        <f t="shared" ref="T124:X124" si="106">T123*$J$124</f>
+        <f t="shared" ref="T124:X124" si="112">T123*$J$124</f>
         <v>31.5</v>
       </c>
       <c r="U124" s="42">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>34.65</v>
       </c>
       <c r="V124" s="42">
-        <f t="shared" ref="V124:W124" si="107">V123*$J$124</f>
+        <f t="shared" ref="V124:W124" si="113">V123*$J$124</f>
         <v>36.75</v>
       </c>
       <c r="W124" s="42">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>38.85</v>
       </c>
       <c r="X124" s="42">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>40.949999999999996</v>
       </c>
       <c r="Y124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>42</v>
       </c>
       <c r="Z124" s="42">
-        <f t="shared" ref="Z124:AC124" si="108">Z123*$J$124</f>
+        <f t="shared" ref="Z124:AC124" si="114">Z123*$J$124</f>
         <v>50.4</v>
       </c>
       <c r="AA124" s="42">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>58.8</v>
       </c>
       <c r="AB124" s="42">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>67.2</v>
       </c>
       <c r="AC124" s="42">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>75.599999999999994</v>
       </c>
       <c r="AD124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>84</v>
       </c>
       <c r="AE124" s="42">
-        <f t="shared" ref="AE124:AH124" si="109">AE123*$J$124</f>
+        <f t="shared" ref="AE124:AH124" si="115">AE123*$J$124</f>
         <v>100.8</v>
       </c>
       <c r="AF124" s="42">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>117.6</v>
       </c>
       <c r="AG124" s="42">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>134.4</v>
       </c>
       <c r="AH124" s="42">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>151.19999999999999</v>
       </c>
       <c r="AI124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>168</v>
       </c>
       <c r="AJ124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>336</v>
       </c>
       <c r="AK124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>672</v>
       </c>
       <c r="AL124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1344</v>
       </c>
       <c r="AM124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>2688</v>
       </c>
       <c r="AN124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>5376</v>
       </c>
       <c r="AO124" s="42">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>10752</v>
       </c>
       <c r="AP124" s="42">
@@ -46801,139 +46801,139 @@
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="32">
-        <f t="shared" ref="L125:AS125" si="110">L$69*$B$125</f>
+        <f t="shared" ref="L125:AS125" si="116">L$69*$B$125</f>
         <v>1.53125</v>
       </c>
       <c r="M125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>3.0625</v>
       </c>
       <c r="N125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>6.125</v>
       </c>
       <c r="O125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>12.25</v>
       </c>
       <c r="P125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>24.5</v>
       </c>
       <c r="Q125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>49</v>
       </c>
       <c r="R125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>98</v>
       </c>
       <c r="S125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>196</v>
       </c>
       <c r="T125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>294</v>
       </c>
       <c r="U125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>323.40000000000003</v>
       </c>
       <c r="V125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>343</v>
       </c>
       <c r="W125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>362.6</v>
       </c>
       <c r="X125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>382.2</v>
       </c>
       <c r="Y125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>392</v>
       </c>
       <c r="Z125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>470.40000000000003</v>
       </c>
       <c r="AA125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>548.80000000000007</v>
       </c>
       <c r="AB125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>627.20000000000005</v>
       </c>
       <c r="AC125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>705.6</v>
       </c>
       <c r="AD125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>784</v>
       </c>
       <c r="AE125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>940.80000000000007</v>
       </c>
       <c r="AF125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1097.6000000000001</v>
       </c>
       <c r="AG125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1254.4000000000001</v>
       </c>
       <c r="AH125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1411.2</v>
       </c>
       <c r="AI125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1568</v>
       </c>
       <c r="AJ125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>3136</v>
       </c>
       <c r="AK125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>6272</v>
       </c>
       <c r="AL125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>12544</v>
       </c>
       <c r="AM125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>25088</v>
       </c>
       <c r="AN125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>50176</v>
       </c>
       <c r="AO125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>100352</v>
       </c>
       <c r="AP125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>200704</v>
       </c>
       <c r="AQ125" s="84">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>401408</v>
       </c>
       <c r="AR125" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>802816</v>
       </c>
       <c r="AS125" s="84">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1256066</v>
       </c>
       <c r="AT125" s="57"/>
@@ -46953,123 +46953,123 @@
       </c>
       <c r="K126" s="28"/>
       <c r="L126" s="41">
-        <f t="shared" ref="L126:AO126" si="111">L125*$J$126</f>
+        <f t="shared" ref="L126:AO126" si="117">L125*$J$126</f>
         <v>0.11178125</v>
       </c>
       <c r="M126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0.2235625</v>
       </c>
       <c r="N126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0.44712499999999999</v>
       </c>
       <c r="O126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0.89424999999999999</v>
       </c>
       <c r="P126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>1.7885</v>
       </c>
       <c r="Q126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>3.577</v>
       </c>
       <c r="R126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>7.1539999999999999</v>
       </c>
       <c r="S126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>14.308</v>
       </c>
       <c r="T126" s="42">
-        <f t="shared" ref="T126:X126" si="112">T125*$J$126</f>
+        <f t="shared" ref="T126:X126" si="118">T125*$J$126</f>
         <v>21.462</v>
       </c>
       <c r="U126" s="42">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>23.6082</v>
       </c>
       <c r="V126" s="42">
-        <f t="shared" ref="V126:W126" si="113">V125*$J$126</f>
+        <f t="shared" ref="V126:W126" si="119">V125*$J$126</f>
         <v>25.038999999999998</v>
       </c>
       <c r="W126" s="42">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>26.469799999999999</v>
       </c>
       <c r="X126" s="42">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>27.900599999999997</v>
       </c>
       <c r="Y126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>28.616</v>
       </c>
       <c r="Z126" s="42">
-        <f t="shared" ref="Z126:AC126" si="114">Z125*$J$126</f>
+        <f t="shared" ref="Z126:AC126" si="120">Z125*$J$126</f>
         <v>34.339199999999998</v>
       </c>
       <c r="AA126" s="42">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>40.062400000000004</v>
       </c>
       <c r="AB126" s="42">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>45.785600000000002</v>
       </c>
       <c r="AC126" s="42">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>51.508800000000001</v>
       </c>
       <c r="AD126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>57.231999999999999</v>
       </c>
       <c r="AE126" s="42">
-        <f t="shared" ref="AE126:AH126" si="115">AE125*$J$126</f>
+        <f t="shared" ref="AE126:AH126" si="121">AE125*$J$126</f>
         <v>68.678399999999996</v>
       </c>
       <c r="AF126" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>80.124800000000008</v>
       </c>
       <c r="AG126" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>91.571200000000005</v>
       </c>
       <c r="AH126" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>103.0176</v>
       </c>
       <c r="AI126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>114.464</v>
       </c>
       <c r="AJ126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>228.928</v>
       </c>
       <c r="AK126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>457.85599999999999</v>
       </c>
       <c r="AL126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>915.71199999999999</v>
       </c>
       <c r="AM126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>1831.424</v>
       </c>
       <c r="AN126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>3662.848</v>
       </c>
       <c r="AO126" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>7325.6959999999999</v>
       </c>
       <c r="AP126" s="42">
@@ -47110,139 +47110,139 @@
       <c r="J127" s="28"/>
       <c r="K127" s="28"/>
       <c r="L127" s="32">
-        <f t="shared" ref="L127:AS127" si="116">L$69*$B$127</f>
+        <f t="shared" ref="L127:AS127" si="122">L$69*$B$127</f>
         <v>9.6875</v>
       </c>
       <c r="M127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>19.375</v>
       </c>
       <c r="N127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>38.75</v>
       </c>
       <c r="O127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>77.5</v>
       </c>
       <c r="P127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>155</v>
       </c>
       <c r="Q127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>310</v>
       </c>
       <c r="R127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>620</v>
       </c>
       <c r="S127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1240</v>
       </c>
       <c r="T127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1860</v>
       </c>
       <c r="U127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2046</v>
       </c>
       <c r="V127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2170</v>
       </c>
       <c r="W127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2294</v>
       </c>
       <c r="X127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2418</v>
       </c>
       <c r="Y127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2480</v>
       </c>
       <c r="Z127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2976</v>
       </c>
       <c r="AA127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>3472</v>
       </c>
       <c r="AB127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>3968</v>
       </c>
       <c r="AC127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>4464</v>
       </c>
       <c r="AD127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>4960</v>
       </c>
       <c r="AE127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>5952</v>
       </c>
       <c r="AF127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>6944</v>
       </c>
       <c r="AG127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>7936</v>
       </c>
       <c r="AH127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>8928</v>
       </c>
       <c r="AI127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>9920</v>
       </c>
       <c r="AJ127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>19840</v>
       </c>
       <c r="AK127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>39680</v>
       </c>
       <c r="AL127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>79360</v>
       </c>
       <c r="AM127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>158720</v>
       </c>
       <c r="AN127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>317440</v>
       </c>
       <c r="AO127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>634880</v>
       </c>
       <c r="AP127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1269760</v>
       </c>
       <c r="AQ127" s="84">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>2539520</v>
       </c>
       <c r="AR127" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>5079040</v>
       </c>
       <c r="AS127" s="84">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>7946540</v>
       </c>
       <c r="AT127" s="57"/>
@@ -47262,123 +47262,123 @@
       </c>
       <c r="K128" s="28"/>
       <c r="L128" s="41">
-        <f t="shared" ref="L128:AO128" si="117">L127*$J$128</f>
+        <f t="shared" ref="L128:AO128" si="123">L127*$J$128</f>
         <v>0.61031250000000004</v>
       </c>
       <c r="M128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>1.2206250000000001</v>
       </c>
       <c r="N128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>2.4412500000000001</v>
       </c>
       <c r="O128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>4.8825000000000003</v>
       </c>
       <c r="P128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>9.7650000000000006</v>
       </c>
       <c r="Q128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>19.53</v>
       </c>
       <c r="R128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>39.06</v>
       </c>
       <c r="S128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>78.12</v>
       </c>
       <c r="T128" s="42">
-        <f t="shared" ref="T128:X128" si="118">T127*$J$128</f>
+        <f t="shared" ref="T128:X128" si="124">T127*$J$128</f>
         <v>117.18</v>
       </c>
       <c r="U128" s="42">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>128.898</v>
       </c>
       <c r="V128" s="42">
-        <f t="shared" ref="V128:W128" si="119">V127*$J$128</f>
+        <f t="shared" ref="V128:W128" si="125">V127*$J$128</f>
         <v>136.71</v>
       </c>
       <c r="W128" s="42">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>144.52199999999999</v>
       </c>
       <c r="X128" s="42">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>152.334</v>
       </c>
       <c r="Y128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>156.24</v>
       </c>
       <c r="Z128" s="42">
-        <f t="shared" ref="Z128:AC128" si="120">Z127*$J$128</f>
+        <f t="shared" ref="Z128:AC128" si="126">Z127*$J$128</f>
         <v>187.488</v>
       </c>
       <c r="AA128" s="42">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>218.73599999999999</v>
       </c>
       <c r="AB128" s="42">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>249.98400000000001</v>
       </c>
       <c r="AC128" s="42">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>281.23200000000003</v>
       </c>
       <c r="AD128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>312.48</v>
       </c>
       <c r="AE128" s="42">
-        <f t="shared" ref="AE128:AH128" si="121">AE127*$J$128</f>
+        <f t="shared" ref="AE128:AH128" si="127">AE127*$J$128</f>
         <v>374.976</v>
       </c>
       <c r="AF128" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>437.47199999999998</v>
       </c>
       <c r="AG128" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>499.96800000000002</v>
       </c>
       <c r="AH128" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>562.46400000000006</v>
       </c>
       <c r="AI128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>624.96</v>
       </c>
       <c r="AJ128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>1249.92</v>
       </c>
       <c r="AK128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>2499.84</v>
       </c>
       <c r="AL128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>4999.68</v>
       </c>
       <c r="AM128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>9999.36</v>
       </c>
       <c r="AN128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>19998.72</v>
       </c>
       <c r="AO128" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>39997.440000000002</v>
       </c>
       <c r="AP128" s="42">
@@ -47419,139 +47419,139 @@
       <c r="J129" s="28"/>
       <c r="K129" s="28"/>
       <c r="L129" s="32">
-        <f t="shared" ref="L129:AS129" si="122">L$69*$B$129</f>
+        <f t="shared" ref="L129:AS129" si="128">L$69*$B$129</f>
         <v>3.3125</v>
       </c>
       <c r="M129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>6.625</v>
       </c>
       <c r="N129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>13.25</v>
       </c>
       <c r="O129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>26.5</v>
       </c>
       <c r="P129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>53</v>
       </c>
       <c r="Q129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>106</v>
       </c>
       <c r="R129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>212</v>
       </c>
       <c r="S129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>424</v>
       </c>
       <c r="T129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>636</v>
       </c>
       <c r="U129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>699.6</v>
       </c>
       <c r="V129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>742</v>
       </c>
       <c r="W129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>784.4</v>
       </c>
       <c r="X129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>826.8</v>
       </c>
       <c r="Y129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>848</v>
       </c>
       <c r="Z129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1017.6</v>
       </c>
       <c r="AA129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1187.2</v>
       </c>
       <c r="AB129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1356.8</v>
       </c>
       <c r="AC129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1526.3999999999999</v>
       </c>
       <c r="AD129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1696</v>
       </c>
       <c r="AE129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>2035.2</v>
       </c>
       <c r="AF129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>2374.4</v>
       </c>
       <c r="AG129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>2713.6</v>
       </c>
       <c r="AH129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>3052.7999999999997</v>
       </c>
       <c r="AI129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>3392</v>
       </c>
       <c r="AJ129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>6784</v>
       </c>
       <c r="AK129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>13568</v>
       </c>
       <c r="AL129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>27136</v>
       </c>
       <c r="AM129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>54272</v>
       </c>
       <c r="AN129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>108544</v>
       </c>
       <c r="AO129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>217088</v>
       </c>
       <c r="AP129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>434176</v>
       </c>
       <c r="AQ129" s="84">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>868352</v>
       </c>
       <c r="AR129" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>1736704</v>
       </c>
       <c r="AS129" s="84">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>2717204</v>
       </c>
       <c r="AT129" s="57"/>
@@ -47571,123 +47571,123 @@
       </c>
       <c r="K130" s="28"/>
       <c r="L130" s="41">
-        <f t="shared" ref="L130:AO130" si="123">L129*$J$130</f>
+        <f t="shared" ref="L130:AO130" si="129">L129*$J$130</f>
         <v>0.19874999999999998</v>
       </c>
       <c r="M130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.39749999999999996</v>
       </c>
       <c r="N130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.79499999999999993</v>
       </c>
       <c r="O130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="P130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>3.1799999999999997</v>
       </c>
       <c r="Q130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="R130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>12.719999999999999</v>
       </c>
       <c r="S130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>25.439999999999998</v>
       </c>
       <c r="T130" s="42">
-        <f t="shared" ref="T130:X130" si="124">T129*$J$130</f>
+        <f t="shared" ref="T130:X130" si="130">T129*$J$130</f>
         <v>38.159999999999997</v>
       </c>
       <c r="U130" s="42">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>41.975999999999999</v>
       </c>
       <c r="V130" s="42">
-        <f t="shared" ref="V130:W130" si="125">V129*$J$130</f>
+        <f t="shared" ref="V130:W130" si="131">V129*$J$130</f>
         <v>44.519999999999996</v>
       </c>
       <c r="W130" s="42">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>47.064</v>
       </c>
       <c r="X130" s="42">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>49.607999999999997</v>
       </c>
       <c r="Y130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>50.879999999999995</v>
       </c>
       <c r="Z130" s="42">
-        <f t="shared" ref="Z130:AC130" si="126">Z129*$J$130</f>
+        <f t="shared" ref="Z130:AC130" si="132">Z129*$J$130</f>
         <v>61.055999999999997</v>
       </c>
       <c r="AA130" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>71.231999999999999</v>
       </c>
       <c r="AB130" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>81.408000000000001</v>
       </c>
       <c r="AC130" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>91.583999999999989</v>
       </c>
       <c r="AD130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>101.75999999999999</v>
       </c>
       <c r="AE130" s="42">
-        <f t="shared" ref="AE130:AH130" si="127">AE129*$J$130</f>
+        <f t="shared" ref="AE130:AH130" si="133">AE129*$J$130</f>
         <v>122.11199999999999</v>
       </c>
       <c r="AF130" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>142.464</v>
       </c>
       <c r="AG130" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>162.816</v>
       </c>
       <c r="AH130" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>183.16799999999998</v>
       </c>
       <c r="AI130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>203.51999999999998</v>
       </c>
       <c r="AJ130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>407.03999999999996</v>
       </c>
       <c r="AK130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>814.07999999999993</v>
       </c>
       <c r="AL130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>1628.1599999999999</v>
       </c>
       <c r="AM130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>3256.3199999999997</v>
       </c>
       <c r="AN130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>6512.6399999999994</v>
       </c>
       <c r="AO130" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>13025.279999999999</v>
       </c>
       <c r="AP130" s="42">
@@ -47728,139 +47728,139 @@
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
       <c r="L131" s="32">
-        <f t="shared" ref="L131:AS131" si="128">L$69*$B$131</f>
+        <f t="shared" ref="L131:AS131" si="134">L$69*$B$131</f>
         <v>0.5625</v>
       </c>
       <c r="M131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1.125</v>
       </c>
       <c r="N131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>2.25</v>
       </c>
       <c r="O131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>4.5</v>
       </c>
       <c r="P131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9</v>
       </c>
       <c r="Q131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>18</v>
       </c>
       <c r="R131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>36</v>
       </c>
       <c r="S131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>72</v>
       </c>
       <c r="T131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>107.99999999999999</v>
       </c>
       <c r="U131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>118.8</v>
       </c>
       <c r="V131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>125.99999999999999</v>
       </c>
       <c r="W131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>133.19999999999999</v>
       </c>
       <c r="X131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>140.39999999999998</v>
       </c>
       <c r="Y131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>144</v>
       </c>
       <c r="Z131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>172.79999999999998</v>
       </c>
       <c r="AA131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>201.6</v>
       </c>
       <c r="AB131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>230.39999999999998</v>
       </c>
       <c r="AC131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>259.2</v>
       </c>
       <c r="AD131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>288</v>
       </c>
       <c r="AE131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>345.59999999999997</v>
       </c>
       <c r="AF131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>403.2</v>
       </c>
       <c r="AG131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>460.79999999999995</v>
       </c>
       <c r="AH131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>518.4</v>
       </c>
       <c r="AI131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>576</v>
       </c>
       <c r="AJ131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1152</v>
       </c>
       <c r="AK131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>2304</v>
       </c>
       <c r="AL131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>4608</v>
       </c>
       <c r="AM131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9216</v>
       </c>
       <c r="AN131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>18432</v>
       </c>
       <c r="AO131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>36864</v>
       </c>
       <c r="AP131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>73728</v>
       </c>
       <c r="AQ131" s="84">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>147456</v>
       </c>
       <c r="AR131" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>294912</v>
       </c>
       <c r="AS131" s="84">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>461411.99999999994</v>
       </c>
       <c r="AT131" s="57"/>
@@ -47880,123 +47880,123 @@
       </c>
       <c r="K132" s="28"/>
       <c r="L132" s="41">
-        <f t="shared" ref="L132:AO132" si="129">L131*$J$132</f>
+        <f t="shared" ref="L132:AO132" si="135">L131*$J$132</f>
         <v>3.15E-2</v>
       </c>
       <c r="M132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>6.3E-2</v>
       </c>
       <c r="N132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.126</v>
       </c>
       <c r="O132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.252</v>
       </c>
       <c r="P132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.504</v>
       </c>
       <c r="Q132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>1.008</v>
       </c>
       <c r="R132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>2.016</v>
       </c>
       <c r="S132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>4.032</v>
       </c>
       <c r="T132" s="42">
-        <f t="shared" ref="T132:X132" si="130">T131*$J$132</f>
+        <f t="shared" ref="T132:X132" si="136">T131*$J$132</f>
         <v>6.0479999999999992</v>
       </c>
       <c r="U132" s="42">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>6.6528</v>
       </c>
       <c r="V132" s="42">
-        <f t="shared" ref="V132:W132" si="131">V131*$J$132</f>
+        <f t="shared" ref="V132:W132" si="137">V131*$J$132</f>
         <v>7.0559999999999992</v>
       </c>
       <c r="W132" s="42">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>7.4591999999999992</v>
       </c>
       <c r="X132" s="42">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>7.8623999999999992</v>
       </c>
       <c r="Y132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>8.0640000000000001</v>
       </c>
       <c r="Z132" s="42">
-        <f t="shared" ref="Z132:AC132" si="132">Z131*$J$132</f>
+        <f t="shared" ref="Z132:AC132" si="138">Z131*$J$132</f>
         <v>9.6768000000000001</v>
       </c>
       <c r="AA132" s="42">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>11.2896</v>
       </c>
       <c r="AB132" s="42">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>12.902399999999998</v>
       </c>
       <c r="AC132" s="42">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>14.5152</v>
       </c>
       <c r="AD132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>16.128</v>
       </c>
       <c r="AE132" s="42">
-        <f t="shared" ref="AE132:AH132" si="133">AE131*$J$132</f>
+        <f t="shared" ref="AE132:AH132" si="139">AE131*$J$132</f>
         <v>19.3536</v>
       </c>
       <c r="AF132" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>22.5792</v>
       </c>
       <c r="AG132" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>25.804799999999997</v>
       </c>
       <c r="AH132" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>29.0304</v>
       </c>
       <c r="AI132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>32.256</v>
       </c>
       <c r="AJ132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>64.512</v>
       </c>
       <c r="AK132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>129.024</v>
       </c>
       <c r="AL132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>258.048</v>
       </c>
       <c r="AM132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>516.096</v>
       </c>
       <c r="AN132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>1032.192</v>
       </c>
       <c r="AO132" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>2064.384</v>
       </c>
       <c r="AP132" s="42">
@@ -48037,139 +48037,139 @@
       <c r="J133" s="28"/>
       <c r="K133" s="28"/>
       <c r="L133" s="32">
-        <f t="shared" ref="L133:AS133" si="134">L$69*$B$133</f>
+        <f t="shared" ref="L133:AS133" si="140">L$69*$B$133</f>
         <v>4.75</v>
       </c>
       <c r="M133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>9.5</v>
       </c>
       <c r="N133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>19</v>
       </c>
       <c r="O133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>38</v>
       </c>
       <c r="P133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>76</v>
       </c>
       <c r="Q133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>152</v>
       </c>
       <c r="R133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>304</v>
       </c>
       <c r="S133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>608</v>
       </c>
       <c r="T133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>912</v>
       </c>
       <c r="U133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1003.1999999999999</v>
       </c>
       <c r="V133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1064</v>
       </c>
       <c r="W133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1124.8</v>
       </c>
       <c r="X133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1185.5999999999999</v>
       </c>
       <c r="Y133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1216</v>
       </c>
       <c r="Z133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1459.2</v>
       </c>
       <c r="AA133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1702.3999999999999</v>
       </c>
       <c r="AB133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1945.6</v>
       </c>
       <c r="AC133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>2188.7999999999997</v>
       </c>
       <c r="AD133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>2432</v>
       </c>
       <c r="AE133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>2918.4</v>
       </c>
       <c r="AF133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>3404.7999999999997</v>
       </c>
       <c r="AG133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>3891.2</v>
       </c>
       <c r="AH133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>4377.5999999999995</v>
       </c>
       <c r="AI133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>4864</v>
       </c>
       <c r="AJ133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>9728</v>
       </c>
       <c r="AK133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>19456</v>
       </c>
       <c r="AL133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>38912</v>
       </c>
       <c r="AM133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>77824</v>
       </c>
       <c r="AN133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>155648</v>
       </c>
       <c r="AO133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>311296</v>
       </c>
       <c r="AP133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>622592</v>
       </c>
       <c r="AQ133" s="84">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>1245184</v>
       </c>
       <c r="AR133" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>2490368</v>
       </c>
       <c r="AS133" s="84">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>3896368</v>
       </c>
       <c r="AT133" s="57"/>
@@ -48309,23 +48309,23 @@
         <v>21.40625</v>
       </c>
       <c r="M135" s="31">
-        <f t="shared" ref="M135:AO135" si="135">SUM(M123,M125,M127,M129,M131,M133)</f>
+        <f t="shared" ref="M135:AO135" si="141">SUM(M123,M125,M127,M129,M131,M133)</f>
         <v>42.8125</v>
       </c>
       <c r="N135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>85.625</v>
       </c>
       <c r="O135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>171.25</v>
       </c>
       <c r="P135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>342.5</v>
       </c>
       <c r="Q135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>685</v>
       </c>
       <c r="R135" s="31">
@@ -48333,111 +48333,111 @@
         <v>1370</v>
       </c>
       <c r="S135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>2740</v>
       </c>
       <c r="T135" s="31">
-        <f t="shared" ref="T135:X135" si="136">SUM(T123,T125,T127,T129,T131,T133)</f>
+        <f t="shared" ref="T135:X135" si="142">SUM(T123,T125,T127,T129,T131,T133)</f>
         <v>4110</v>
       </c>
       <c r="U135" s="31">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>4521</v>
       </c>
       <c r="V135" s="31">
-        <f t="shared" ref="V135:W135" si="137">SUM(V123,V125,V127,V129,V131,V133)</f>
+        <f t="shared" ref="V135:W135" si="143">SUM(V123,V125,V127,V129,V131,V133)</f>
         <v>4795</v>
       </c>
       <c r="W135" s="31">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>5069</v>
       </c>
       <c r="X135" s="31">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>5343</v>
       </c>
       <c r="Y135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>5480</v>
       </c>
       <c r="Z135" s="31">
-        <f t="shared" ref="Z135:AC135" si="138">SUM(Z123,Z125,Z127,Z129,Z131,Z133)</f>
+        <f t="shared" ref="Z135:AC135" si="144">SUM(Z123,Z125,Z127,Z129,Z131,Z133)</f>
         <v>6576</v>
       </c>
       <c r="AA135" s="31">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>7672</v>
       </c>
       <c r="AB135" s="31">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>8768</v>
       </c>
       <c r="AC135" s="31">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>9864</v>
       </c>
       <c r="AD135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>10960</v>
       </c>
       <c r="AE135" s="31">
-        <f t="shared" ref="AE135:AH135" si="139">SUM(AE123,AE125,AE127,AE129,AE131,AE133)</f>
+        <f t="shared" ref="AE135:AH135" si="145">SUM(AE123,AE125,AE127,AE129,AE131,AE133)</f>
         <v>13152</v>
       </c>
       <c r="AF135" s="31">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>15344</v>
       </c>
       <c r="AG135" s="31">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>17536</v>
       </c>
       <c r="AH135" s="31">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>19728</v>
       </c>
       <c r="AI135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>21920</v>
       </c>
       <c r="AJ135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>43840</v>
       </c>
       <c r="AK135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>87680</v>
       </c>
       <c r="AL135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>175360</v>
       </c>
       <c r="AM135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>350720</v>
       </c>
       <c r="AN135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>701440</v>
       </c>
       <c r="AO135" s="31">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>1402880</v>
       </c>
       <c r="AP135" s="31">
-        <f t="shared" ref="AP135:AS136" si="140">SUM(AP123,AP125,AP127,AP129,AP131,AP133)</f>
+        <f t="shared" ref="AP135:AS136" si="146">SUM(AP123,AP125,AP127,AP129,AP131,AP133)</f>
         <v>2805760</v>
       </c>
       <c r="AQ135" s="72">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>5611520</v>
       </c>
       <c r="AR135" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>11223040</v>
       </c>
       <c r="AS135" s="84">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>17559290</v>
       </c>
       <c r="AT135" s="57"/>
@@ -48461,135 +48461,135 @@
         <v>1.11640625</v>
       </c>
       <c r="M136" s="44">
-        <f t="shared" ref="M136:AO136" si="141">SUM(M124,M126,M128,M130,M132,M134)</f>
+        <f t="shared" ref="M136:AO136" si="147">SUM(M124,M126,M128,M130,M132,M134)</f>
         <v>2.2328125000000001</v>
       </c>
       <c r="N136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>4.4656250000000002</v>
       </c>
       <c r="O136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>8.9312500000000004</v>
       </c>
       <c r="P136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>17.862500000000001</v>
       </c>
       <c r="Q136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>35.725000000000001</v>
       </c>
       <c r="R136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>71.45</v>
       </c>
       <c r="S136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>142.9</v>
       </c>
       <c r="T136" s="44">
-        <f t="shared" ref="T136:X136" si="142">SUM(T124,T126,T128,T130,T132,T134)</f>
+        <f t="shared" ref="T136:X136" si="148">SUM(T124,T126,T128,T130,T132,T134)</f>
         <v>214.35</v>
       </c>
       <c r="U136" s="44">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>235.78500000000003</v>
       </c>
       <c r="V136" s="44">
-        <f t="shared" ref="V136:W136" si="143">SUM(V124,V126,V128,V130,V132,V134)</f>
+        <f t="shared" ref="V136:W136" si="149">SUM(V124,V126,V128,V130,V132,V134)</f>
         <v>250.07500000000002</v>
       </c>
       <c r="W136" s="44">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>264.36500000000001</v>
       </c>
       <c r="X136" s="44">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>278.65499999999997</v>
       </c>
       <c r="Y136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>285.8</v>
       </c>
       <c r="Z136" s="44">
-        <f t="shared" ref="Z136:AC136" si="144">SUM(Z124,Z126,Z128,Z130,Z132,Z134)</f>
+        <f t="shared" ref="Z136:AC136" si="150">SUM(Z124,Z126,Z128,Z130,Z132,Z134)</f>
         <v>342.96</v>
       </c>
       <c r="AA136" s="44">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>400.11999999999995</v>
       </c>
       <c r="AB136" s="44">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>457.28000000000003</v>
       </c>
       <c r="AC136" s="44">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>514.44000000000005</v>
       </c>
       <c r="AD136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>571.6</v>
       </c>
       <c r="AE136" s="44">
-        <f t="shared" ref="AE136:AH136" si="145">SUM(AE124,AE126,AE128,AE130,AE132,AE134)</f>
+        <f t="shared" ref="AE136:AH136" si="151">SUM(AE124,AE126,AE128,AE130,AE132,AE134)</f>
         <v>685.92</v>
       </c>
       <c r="AF136" s="44">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>800.2399999999999</v>
       </c>
       <c r="AG136" s="44">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>914.56000000000006</v>
       </c>
       <c r="AH136" s="44">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>1028.8800000000001</v>
       </c>
       <c r="AI136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>1143.2</v>
       </c>
       <c r="AJ136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>2286.4</v>
       </c>
       <c r="AK136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>4572.8</v>
       </c>
       <c r="AL136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>9145.6</v>
       </c>
       <c r="AM136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>18291.2</v>
       </c>
       <c r="AN136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>36582.400000000001</v>
       </c>
       <c r="AO136" s="44">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>73164.800000000003</v>
       </c>
       <c r="AP136" s="44">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>146329.60000000001</v>
       </c>
       <c r="AQ136" s="85">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>292659.20000000001</v>
       </c>
       <c r="AR136" s="44">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>585318.40000000002</v>
       </c>
       <c r="AS136" s="85">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>915774.65</v>
       </c>
       <c r="AT136" s="57"/>
@@ -48760,7 +48760,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48804,7 +48804,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>27953</v>
+        <v>28258</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48813,7 +48813,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44170.746716435184</v>
+        <v>44189.732850462962</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48822,7 +48822,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>278.74671643518377</v>
+        <v>297.73285046296223</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48831,7 +48831,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>28.528792623639973</v>
+        <v>30.42321080493636</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48864,7 +48864,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>88051.950000000012</v>
+        <v>89012.700000000012</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48873,7 +48873,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>52862.934210037594</v>
+        <v>55164.82852107806</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48882,7 +48882,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>35189.015789962417</v>
+        <v>33847.871478921952</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48896,7 +48896,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>22641.93</v>
+        <v>22888.980000000003</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48906,7 +48906,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>13593.325939723953</v>
+        <v>14185.241619705786</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48916,7 +48916,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>9048.6040602760477</v>
+        <v>8703.7383802942168</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>3913.4200000000005</v>
+        <v>3956.1200000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1189.9219160304881</v>
+        <v>1295.4683835891587</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48947,7 +48947,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2723.4980839695127</v>
+        <v>2660.6516164108416</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48959,7 +48959,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>279.53000000000003</v>
+        <v>282.58</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48969,7 +48969,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>84.994422573606286</v>
+        <v>92.533455970654202</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48979,7 +48979,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>194.53557742639373</v>
+        <v>190.0465440293458</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -48989,7 +48989,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>880.51949999999999</v>
+        <v>890.12699999999995</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -48998,7 +48998,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>317.36830510792356</v>
+        <v>341.87911452634796</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49010,7 +49010,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>225.30395174619358</v>
+        <v>239.78866111142099</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49025,7 +49025,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44396.050668181379</v>
+        <v>44429.521511574385</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>78.813093702247272</v>
+        <v>83.570263997272249</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44249.559810137434</v>
+        <v>44273.303114460236</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49061,7 +49061,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>212.49734960241946</v>
+        <v>226.13165284419628</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44383.244066037601</v>
+        <v>44415.864503307159</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49082,7 +49082,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44200.746716435184</v>
+        <v>44219.732850462962</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49094,7 +49094,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>57940.508194458023</v>
+        <v>55973.678929466732</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49106,7 +49106,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>182512.60081254278</v>
+        <v>176317.08862782022</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49115,7 +49115,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>46931.811637511004</v>
+        <v>45338.679932868057</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49124,7 +49124,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>8111.6711472241241</v>
+        <v>7836.3150501253431</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>579.40508194458027</v>
+        <v>559.73678929466735</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49142,7 +49142,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1825.1260081254277</v>
+        <v>1763.170886278202</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309645F-F9EC-4A56-AE14-057C765329DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBE198-2D9B-4831-B303-EB602F7FF5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="2910" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2299,46 +2299,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,46 +2448,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,46 +2597,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4075,7 +4075,7 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="#,##0">
-                  <c:v>908</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14373,7 +14373,7 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="#,##0">
-                  <c:v>908</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,46 +14702,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14842,46 +14842,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,46 +14985,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,46 +15122,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15529,46 +15529,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15678,46 +15678,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15827,46 +15827,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16244,46 +16244,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16384,46 +16384,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16527,46 +16527,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16664,46 +16664,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.732850462962</c:v>
+                  <c:v>44178.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.732850462962</c:v>
+                  <c:v>44181.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.732850462962</c:v>
+                  <c:v>44184.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.732850462962</c:v>
+                  <c:v>44187.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.732850462962</c:v>
+                  <c:v>44190.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.732850462962</c:v>
+                  <c:v>44193.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.732850462962</c:v>
+                  <c:v>44196.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.732850462962</c:v>
+                  <c:v>44199.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.732850462962</c:v>
+                  <c:v>44202.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.732850462962</c:v>
+                  <c:v>44205.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.732850462962</c:v>
+                  <c:v>44208.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.732850462962</c:v>
+                  <c:v>44211.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.732850462962</c:v>
+                  <c:v>44214.892302199078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.732850462962</c:v>
+                  <c:v>44217.892302199078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37611,167 +37611,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44149.732850462962</v>
+        <v>44178.892302199078</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44150.732850462962</v>
+        <v>44179.892302199078</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44151.732850462962</v>
+        <v>44180.892302199078</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44152.732850462962</v>
+        <v>44181.892302199078</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44153.732850462962</v>
+        <v>44182.892302199078</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44154.732850462962</v>
+        <v>44183.892302199078</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44155.732850462962</v>
+        <v>44184.892302199078</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44156.732850462962</v>
+        <v>44185.892302199078</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44157.732850462962</v>
+        <v>44186.892302199078</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44158.732850462962</v>
+        <v>44187.892302199078</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44159.732850462962</v>
+        <v>44188.892302199078</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44160.732850462962</v>
+        <v>44189.892302199078</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44161.732850462962</v>
+        <v>44190.892302199078</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44162.732850462962</v>
+        <v>44191.892302199078</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44163.732850462962</v>
+        <v>44192.892302199078</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44164.732850462962</v>
+        <v>44193.892302199078</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44165.732850462962</v>
+        <v>44194.892302199078</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44166.732850462962</v>
+        <v>44195.892302199078</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44167.732850462962</v>
+        <v>44196.892302199078</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44168.732850462962</v>
+        <v>44197.892302199078</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44169.732850462962</v>
+        <v>44198.892302199078</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44170.732850462962</v>
+        <v>44199.892302199078</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44171.732850462962</v>
+        <v>44200.892302199078</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44172.732850462962</v>
+        <v>44201.892302199078</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44173.732850462962</v>
+        <v>44202.892302199078</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44174.732850462962</v>
+        <v>44203.892302199078</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44175.732850462962</v>
+        <v>44204.892302199078</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44176.732850462962</v>
+        <v>44205.892302199078</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44177.732850462962</v>
+        <v>44206.892302199078</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44178.732850462962</v>
+        <v>44207.892302199078</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44179.732850462962</v>
+        <v>44208.892302199078</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44180.732850462962</v>
+        <v>44209.892302199078</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44181.732850462962</v>
+        <v>44210.892302199078</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44182.732850462962</v>
+        <v>44211.892302199078</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44183.732850462962</v>
+        <v>44212.892302199078</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44184.732850462962</v>
+        <v>44213.892302199078</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44185.732850462962</v>
+        <v>44214.892302199078</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44186.732850462962</v>
+        <v>44215.892302199078</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44187.732850462962</v>
+        <v>44216.892302199078</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44188.732850462962</v>
+        <v>44217.892302199078</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44189.732850462962</v>
+        <v>44218.892302199078</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -38290,7 +38290,7 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ61" sqref="AJ61"/>
+      <selection activeCell="AI97" sqref="AI97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42987,7 +42987,7 @@
         <v>20856</v>
       </c>
       <c r="AH95" s="303">
-        <v>25719</v>
+        <v>25961</v>
       </c>
       <c r="AI95" s="303"/>
       <c r="AJ95" s="200"/>
@@ -43083,7 +43083,7 @@
         <v>600</v>
       </c>
       <c r="AH96" s="304">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AI96" s="304"/>
       <c r="AJ96" s="201"/>
@@ -48760,7 +48760,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48804,7 +48804,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>28258</v>
+        <v>28755</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48813,7 +48813,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44189.732850462962</v>
+        <v>44218.892302199078</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48822,7 +48822,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>297.73285046296223</v>
+        <v>326.89230219907768</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48831,7 +48831,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>30.42321080493636</v>
+        <v>33.317174950890191</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48864,7 +48864,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>89012.700000000012</v>
+        <v>90578.25</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48873,7 +48873,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>55164.82852107806</v>
+        <v>58517.134512051554</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48882,7 +48882,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>33847.871478921952</v>
+        <v>32061.115487948446</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48896,7 +48896,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>22888.980000000003</v>
+        <v>23291.550000000003</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48906,7 +48906,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>14185.241619705786</v>
+        <v>15047.263160241828</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48916,7 +48916,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>8703.7383802942168</v>
+        <v>8244.2868397581751</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>3956.1200000000003</v>
+        <v>4025.7000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48938,7 +48938,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1295.4683835891587</v>
+        <v>1452.4884933788703</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48947,7 +48947,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2660.6516164108416</v>
+        <v>2573.21150662113</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48959,7 +48959,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>282.58</v>
+        <v>287.55</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48969,7 +48969,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>92.533455970654202</v>
+        <v>103.74917809849072</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48979,7 +48979,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>190.0465440293458</v>
+        <v>183.80082190150929</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -48989,7 +48989,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>890.12699999999995</v>
+        <v>905.78250000000003</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -48998,7 +48998,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>341.87911452634796</v>
+        <v>378.0438495446237</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49010,7 +49010,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>239.78866111142099</v>
+        <v>261.76016961973738</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49025,7 +49025,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44429.521511574385</v>
+        <v>44480.652471818816</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>83.570263997272249</v>
+        <v>90.681722293092079</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44273.303114460236</v>
+        <v>44309.574024492169</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49061,7 +49061,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>226.13165284419628</v>
+        <v>246.80405809481417</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44415.864503307159</v>
+        <v>44465.696360293892</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49082,7 +49082,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44219.732850462962</v>
+        <v>44248.892302199078</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49094,7 +49094,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>55973.678929466732</v>
+        <v>53674.964267053299</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49106,7 +49106,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>176317.08862782022</v>
+        <v>169076.1374412179</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49115,7 +49115,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>45338.679932868057</v>
+        <v>43476.721056313174</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49124,7 +49124,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>7836.3150501253431</v>
+        <v>7514.4949973874627</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>559.73678929466735</v>
+        <v>536.74964267053304</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49142,7 +49142,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1763.170886278202</v>
+        <v>1690.7613744121788</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBE198-2D9B-4831-B303-EB602F7FF5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7141789-3F2E-4727-B1BE-C13888D5A457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1923,7 +1923,6 @@
     <xf numFmtId="171" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2299,46 +2298,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,46 +2447,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,46 +2596,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,7 +3078,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -3288,7 +3287,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -3778,7 +3777,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -3987,7 +3986,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -4479,7 +4478,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -4688,7 +4687,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -4897,7 +4896,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -5106,7 +5105,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -5315,7 +5314,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -5806,7 +5805,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -6029,7 +6028,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -6252,7 +6251,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -6476,7 +6475,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -6700,7 +6699,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -6923,7 +6922,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -7144,7 +7143,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -7368,7 +7367,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -7591,7 +7590,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -8094,7 +8093,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -8317,7 +8316,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -8540,7 +8539,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -8764,7 +8763,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -8985,7 +8984,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -9208,7 +9207,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -9429,7 +9428,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -9650,7 +9649,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -9873,7 +9872,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -10376,7 +10375,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -10599,7 +10598,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -10822,7 +10821,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -11043,7 +11042,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -11266,7 +11265,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -11487,7 +11486,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -11990,7 +11989,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -12213,7 +12212,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -12434,7 +12433,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -12657,7 +12656,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -12878,7 +12877,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -13376,7 +13375,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -13585,7 +13584,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -14076,7 +14075,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -14285,7 +14284,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -14702,46 +14701,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14842,46 +14841,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,46 +14984,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,46 +15121,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15529,46 +15528,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15678,46 +15677,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15827,46 +15826,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16244,46 +16243,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16384,46 +16383,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16527,46 +16526,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16664,46 +16663,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.892302199078</c:v>
+                  <c:v>44201.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.892302199078</c:v>
+                  <c:v>44204.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.892302199078</c:v>
+                  <c:v>44207.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.892302199078</c:v>
+                  <c:v>44210.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.892302199078</c:v>
+                  <c:v>44213.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.892302199078</c:v>
+                  <c:v>44216.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.892302199078</c:v>
+                  <c:v>44219.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.892302199078</c:v>
+                  <c:v>44222.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.892302199078</c:v>
+                  <c:v>44225.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.892302199078</c:v>
+                  <c:v>44228.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.892302199078</c:v>
+                  <c:v>44231.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.892302199078</c:v>
+                  <c:v>44234.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.892302199078</c:v>
+                  <c:v>44237.687025115738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.892302199078</c:v>
+                  <c:v>44240.687025115738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17148,7 +17147,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -17357,7 +17356,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -17566,7 +17565,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -17775,7 +17774,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -17984,7 +17983,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -18474,7 +18473,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -18697,7 +18696,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -18920,7 +18919,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -19144,7 +19143,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -19368,7 +19367,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -19591,7 +19590,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -19812,7 +19811,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -20036,7 +20035,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -20259,7 +20258,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -20761,7 +20760,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -20984,7 +20983,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -21207,7 +21206,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -21431,7 +21430,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -21652,7 +21651,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -21875,7 +21874,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -22096,7 +22095,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -22317,7 +22316,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -22540,7 +22539,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -23042,7 +23041,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -23265,7 +23264,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -23488,7 +23487,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -23709,7 +23708,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -23932,7 +23931,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -24153,7 +24152,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -24655,7 +24654,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -24878,7 +24877,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -25099,7 +25098,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -25322,7 +25321,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -25543,7 +25542,7 @@
                   <c:v>44072.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44466</c:v>
+                  <c:v>44225.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44572</c:v>
@@ -37611,167 +37610,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44178.892302199078</v>
+        <v>44201.687025115738</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44179.892302199078</v>
+        <v>44202.687025115738</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44180.892302199078</v>
+        <v>44203.687025115738</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44181.892302199078</v>
+        <v>44204.687025115738</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44182.892302199078</v>
+        <v>44205.687025115738</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44183.892302199078</v>
+        <v>44206.687025115738</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44184.892302199078</v>
+        <v>44207.687025115738</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44185.892302199078</v>
+        <v>44208.687025115738</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44186.892302199078</v>
+        <v>44209.687025115738</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44187.892302199078</v>
+        <v>44210.687025115738</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44188.892302199078</v>
+        <v>44211.687025115738</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44189.892302199078</v>
+        <v>44212.687025115738</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44190.892302199078</v>
+        <v>44213.687025115738</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44191.892302199078</v>
+        <v>44214.687025115738</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44192.892302199078</v>
+        <v>44215.687025115738</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44193.892302199078</v>
+        <v>44216.687025115738</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44194.892302199078</v>
+        <v>44217.687025115738</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44195.892302199078</v>
+        <v>44218.687025115738</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44196.892302199078</v>
+        <v>44219.687025115738</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44197.892302199078</v>
+        <v>44220.687025115738</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44198.892302199078</v>
+        <v>44221.687025115738</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44199.892302199078</v>
+        <v>44222.687025115738</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44200.892302199078</v>
+        <v>44223.687025115738</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44201.892302199078</v>
+        <v>44224.687025115738</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44202.892302199078</v>
+        <v>44225.687025115738</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44203.892302199078</v>
+        <v>44226.687025115738</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44204.892302199078</v>
+        <v>44227.687025115738</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44205.892302199078</v>
+        <v>44228.687025115738</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44206.892302199078</v>
+        <v>44229.687025115738</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44207.892302199078</v>
+        <v>44230.687025115738</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44208.892302199078</v>
+        <v>44231.687025115738</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44209.892302199078</v>
+        <v>44232.687025115738</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44210.892302199078</v>
+        <v>44233.687025115738</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44211.892302199078</v>
+        <v>44234.687025115738</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44212.892302199078</v>
+        <v>44235.687025115738</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44213.892302199078</v>
+        <v>44236.687025115738</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44214.892302199078</v>
+        <v>44237.687025115738</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44215.892302199078</v>
+        <v>44238.687025115738</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44216.892302199078</v>
+        <v>44239.687025115738</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44217.892302199078</v>
+        <v>44240.687025115738</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44218.892302199078</v>
+        <v>44241.687025115738</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -37906,59 +37905,59 @@
       <c r="A28" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="318" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="325" t="s">
+      <c r="C28" s="319"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="324" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
-      <c r="N28" s="326"/>
-      <c r="O28" s="324" t="s">
+      <c r="I28" s="324"/>
+      <c r="J28" s="324"/>
+      <c r="K28" s="324"/>
+      <c r="L28" s="324"/>
+      <c r="M28" s="324"/>
+      <c r="N28" s="325"/>
+      <c r="O28" s="323" t="s">
         <v>154</v>
       </c>
-      <c r="P28" s="325"/>
-      <c r="Q28" s="325"/>
-      <c r="R28" s="325"/>
-      <c r="S28" s="325"/>
-      <c r="T28" s="325"/>
-      <c r="U28" s="326"/>
-      <c r="V28" s="324" t="s">
+      <c r="P28" s="324"/>
+      <c r="Q28" s="324"/>
+      <c r="R28" s="324"/>
+      <c r="S28" s="324"/>
+      <c r="T28" s="324"/>
+      <c r="U28" s="325"/>
+      <c r="V28" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="W28" s="325"/>
-      <c r="X28" s="325"/>
-      <c r="Y28" s="325"/>
-      <c r="Z28" s="325"/>
-      <c r="AA28" s="325"/>
-      <c r="AB28" s="326"/>
-      <c r="AC28" s="324" t="s">
+      <c r="W28" s="324"/>
+      <c r="X28" s="324"/>
+      <c r="Y28" s="324"/>
+      <c r="Z28" s="324"/>
+      <c r="AA28" s="324"/>
+      <c r="AB28" s="325"/>
+      <c r="AC28" s="323" t="s">
         <v>156</v>
       </c>
-      <c r="AD28" s="325"/>
-      <c r="AE28" s="325"/>
-      <c r="AF28" s="325"/>
-      <c r="AG28" s="325"/>
-      <c r="AH28" s="325"/>
-      <c r="AI28" s="326"/>
-      <c r="AJ28" s="324" t="s">
+      <c r="AD28" s="324"/>
+      <c r="AE28" s="324"/>
+      <c r="AF28" s="324"/>
+      <c r="AG28" s="324"/>
+      <c r="AH28" s="324"/>
+      <c r="AI28" s="325"/>
+      <c r="AJ28" s="323" t="s">
         <v>157</v>
       </c>
-      <c r="AK28" s="325"/>
-      <c r="AL28" s="325"/>
-      <c r="AM28" s="325"/>
-      <c r="AN28" s="325"/>
-      <c r="AO28" s="325"/>
-      <c r="AP28" s="326"/>
+      <c r="AK28" s="324"/>
+      <c r="AL28" s="324"/>
+      <c r="AM28" s="324"/>
+      <c r="AN28" s="324"/>
+      <c r="AO28" s="324"/>
+      <c r="AP28" s="325"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="63" t="s">
@@ -37969,43 +37968,43 @@
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
       <c r="G29" s="110"/>
-      <c r="H29" s="322" t="s">
+      <c r="H29" s="321" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="322"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="322"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
-      <c r="N29" s="322"/>
-      <c r="O29" s="322"/>
-      <c r="P29" s="322"/>
-      <c r="Q29" s="322"/>
-      <c r="R29" s="322"/>
-      <c r="S29" s="322"/>
-      <c r="T29" s="322"/>
-      <c r="U29" s="322"/>
-      <c r="V29" s="322"/>
-      <c r="W29" s="322"/>
-      <c r="X29" s="322"/>
-      <c r="Y29" s="322"/>
-      <c r="Z29" s="322"/>
-      <c r="AA29" s="322"/>
-      <c r="AB29" s="322"/>
-      <c r="AC29" s="322"/>
-      <c r="AD29" s="322"/>
-      <c r="AE29" s="322"/>
-      <c r="AF29" s="322"/>
-      <c r="AG29" s="322"/>
-      <c r="AH29" s="322"/>
-      <c r="AI29" s="322"/>
-      <c r="AJ29" s="322"/>
-      <c r="AK29" s="322"/>
-      <c r="AL29" s="322"/>
-      <c r="AM29" s="322"/>
-      <c r="AN29" s="322"/>
-      <c r="AO29" s="322"/>
-      <c r="AP29" s="323"/>
+      <c r="I29" s="321"/>
+      <c r="J29" s="321"/>
+      <c r="K29" s="321"/>
+      <c r="L29" s="321"/>
+      <c r="M29" s="321"/>
+      <c r="N29" s="321"/>
+      <c r="O29" s="321"/>
+      <c r="P29" s="321"/>
+      <c r="Q29" s="321"/>
+      <c r="R29" s="321"/>
+      <c r="S29" s="321"/>
+      <c r="T29" s="321"/>
+      <c r="U29" s="321"/>
+      <c r="V29" s="321"/>
+      <c r="W29" s="321"/>
+      <c r="X29" s="321"/>
+      <c r="Y29" s="321"/>
+      <c r="Z29" s="321"/>
+      <c r="AA29" s="321"/>
+      <c r="AB29" s="321"/>
+      <c r="AC29" s="321"/>
+      <c r="AD29" s="321"/>
+      <c r="AE29" s="321"/>
+      <c r="AF29" s="321"/>
+      <c r="AG29" s="321"/>
+      <c r="AH29" s="321"/>
+      <c r="AI29" s="321"/>
+      <c r="AJ29" s="321"/>
+      <c r="AK29" s="321"/>
+      <c r="AL29" s="321"/>
+      <c r="AM29" s="321"/>
+      <c r="AN29" s="321"/>
+      <c r="AO29" s="321"/>
+      <c r="AP29" s="322"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="69" t="s">
@@ -38289,8 +38288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AW136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI97" sqref="AI97"/>
+    <sheetView tabSelected="1" topLeftCell="L65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK66" sqref="AK66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39308,13 +39307,13 @@
         <f>$AD$68+(($AI$68-$AD$68)*0.028)</f>
         <v>44056.84</v>
       </c>
-      <c r="AG68" s="318">
+      <c r="AG68" s="288">
         <f>$AD$68+(($AI$68-$AD$68)*0.058)</f>
         <v>44072.74</v>
       </c>
       <c r="AH68" s="317">
-        <f>$AD$68+(($AI$68-$AD$68)*0.8)</f>
-        <v>44466</v>
+        <f>$AD$68+(($AI$68-$AD$68)*0.346)</f>
+        <v>44225.38</v>
       </c>
       <c r="AI68" s="268">
         <f>AD68+HLOOKUP(AD68+1, $B$67:$K$68,2,TRUE)</f>
@@ -42296,7 +42295,7 @@
       </c>
       <c r="AH90" s="158">
         <f t="shared" si="65"/>
-        <v>87.285714285714292</v>
+        <v>52.911428571428196</v>
       </c>
       <c r="AI90" s="156">
         <f t="shared" si="65"/>
@@ -42451,7 +42450,7 @@
       </c>
       <c r="AH91" s="250">
         <f t="shared" si="66"/>
-        <v>611</v>
+        <v>370.37999999999738</v>
       </c>
       <c r="AI91" s="250">
         <f t="shared" si="66"/>
@@ -42582,7 +42581,7 @@
       <c r="AG92" s="162">
         <v>25547</v>
       </c>
-      <c r="AH92" s="198">
+      <c r="AH92" s="162">
         <f t="shared" ref="AH92" si="67">AH69</f>
         <v>28800</v>
       </c>
@@ -42737,9 +42736,9 @@
         <f t="shared" si="71"/>
         <v>18.83400454606134</v>
       </c>
-      <c r="AH93" s="199">
+      <c r="AH93" s="190">
         <f t="shared" si="71"/>
-        <v>58.754965462822945</v>
+        <v>34.124965829260901</v>
       </c>
       <c r="AI93" s="199">
         <f t="shared" si="70"/>
@@ -42870,7 +42869,9 @@
       <c r="AG94" s="253">
         <v>4091</v>
       </c>
-      <c r="AH94" s="254"/>
+      <c r="AH94" s="253">
+        <v>1856</v>
+      </c>
       <c r="AI94" s="254"/>
       <c r="AJ94" s="254"/>
       <c r="AK94" s="254"/>
@@ -42986,8 +42987,9 @@
         <f t="shared" si="79"/>
         <v>20856</v>
       </c>
-      <c r="AH95" s="303">
-        <v>25961</v>
+      <c r="AH95" s="163">
+        <f t="shared" ref="AH95" si="80">AH92-AH94-AH96</f>
+        <v>26035</v>
       </c>
       <c r="AI95" s="303"/>
       <c r="AJ95" s="200"/>
@@ -43082,7 +43084,7 @@
       <c r="AG96" s="64">
         <v>600</v>
       </c>
-      <c r="AH96" s="304">
+      <c r="AH96" s="64">
         <v>909</v>
       </c>
       <c r="AI96" s="304"/>
@@ -43222,139 +43224,139 @@
       <c r="J100" s="17"/>
       <c r="K100" s="28"/>
       <c r="L100" s="30">
-        <f t="shared" ref="L100:AS100" si="80">L$69*$D$100</f>
+        <f t="shared" ref="L100:AS100" si="81">L$69*$D$100</f>
         <v>2.3312458216996341</v>
       </c>
       <c r="M100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4.6624916433992682</v>
       </c>
       <c r="N100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9.3249832867985365</v>
       </c>
       <c r="O100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>18.649966573597073</v>
       </c>
       <c r="P100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>37.299933147194146</v>
       </c>
       <c r="Q100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>74.599866294388292</v>
       </c>
       <c r="R100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>149.19973258877658</v>
       </c>
       <c r="S100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>298.39946517755317</v>
       </c>
       <c r="T100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>447.59919776632978</v>
       </c>
       <c r="U100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>492.35911754296274</v>
       </c>
       <c r="V100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>522.199064060718</v>
       </c>
       <c r="W100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>552.03901057847338</v>
       </c>
       <c r="X100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>581.87895709622865</v>
       </c>
       <c r="Y100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>596.79893035510634</v>
       </c>
       <c r="Z100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>716.15871642612763</v>
       </c>
       <c r="AA100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>835.51850249714892</v>
       </c>
       <c r="AB100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>954.87828856817009</v>
       </c>
       <c r="AC100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1074.2380746391914</v>
       </c>
       <c r="AD100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1193.5978607102127</v>
       </c>
       <c r="AE100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1432.3174328522553</v>
       </c>
       <c r="AF100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1671.0370049942978</v>
       </c>
       <c r="AG100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1909.7565771363402</v>
       </c>
       <c r="AH100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2148.4761492783828</v>
       </c>
       <c r="AI100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2387.1957214204253</v>
       </c>
       <c r="AJ100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4774.3914428408507</v>
       </c>
       <c r="AK100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9548.7828856817014</v>
       </c>
       <c r="AL100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>19097.565771363403</v>
       </c>
       <c r="AM100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>38195.131542726805</v>
       </c>
       <c r="AN100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>76390.263085453611</v>
       </c>
       <c r="AO100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>152780.52617090722</v>
       </c>
       <c r="AP100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>305561.05234181444</v>
       </c>
       <c r="AQ100" s="72">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>611122.10468362889</v>
       </c>
       <c r="AR100" s="31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1222244.2093672578</v>
       </c>
       <c r="AS100" s="72">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1912292.9725903494</v>
       </c>
       <c r="AT100" s="57"/>
@@ -43375,139 +43377,139 @@
       </c>
       <c r="K101" s="22"/>
       <c r="L101" s="41">
-        <f t="shared" ref="L101:AS101" si="81">L$69*$D$100*$J$101</f>
+        <f t="shared" ref="L101:AS101" si="82">L$69*$D$100*$J$101</f>
         <v>0.55423925439458877</v>
       </c>
       <c r="M101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.1084785087891775</v>
       </c>
       <c r="N101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.2169570175783551</v>
       </c>
       <c r="O101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.4339140351567101</v>
       </c>
       <c r="P101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>8.8678280703134202</v>
       </c>
       <c r="Q101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>17.73565614062684</v>
       </c>
       <c r="R101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>35.471312281253681</v>
       </c>
       <c r="S101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>70.942624562507362</v>
       </c>
       <c r="T101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>106.41393684376106</v>
       </c>
       <c r="U101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>117.05533052813716</v>
       </c>
       <c r="V101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>124.14959298438788</v>
       </c>
       <c r="W101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>131.24385544063864</v>
       </c>
       <c r="X101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>138.33811789688937</v>
       </c>
       <c r="Y101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>141.88524912501472</v>
       </c>
       <c r="Z101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>170.26229895001768</v>
       </c>
       <c r="AA101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>198.63934877502064</v>
       </c>
       <c r="AB101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>227.01639860002356</v>
       </c>
       <c r="AC101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>255.39344842502652</v>
       </c>
       <c r="AD101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>283.77049825002945</v>
       </c>
       <c r="AE101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>340.52459790003536</v>
       </c>
       <c r="AF101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>397.27869755004127</v>
       </c>
       <c r="AG101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>454.03279720004713</v>
       </c>
       <c r="AH101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>510.78689685005304</v>
       </c>
       <c r="AI101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>567.5409965000589</v>
       </c>
       <c r="AJ101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1135.0819930001178</v>
       </c>
       <c r="AK101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2270.1639860002356</v>
       </c>
       <c r="AL101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4540.3279720004712</v>
       </c>
       <c r="AM101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>9080.6559440009423</v>
       </c>
       <c r="AN101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>18161.311888001885</v>
       </c>
       <c r="AO101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>36322.623776003769</v>
       </c>
       <c r="AP101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>72645.247552007539</v>
       </c>
       <c r="AQ101" s="83">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>145290.49510401508</v>
       </c>
       <c r="AR101" s="42">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>290580.99020803015</v>
       </c>
       <c r="AS101" s="83">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>454635.80950882845</v>
       </c>
       <c r="AT101" s="57"/>
@@ -43521,7 +43523,7 @@
         <v>7.065336711718416E-2</v>
       </c>
       <c r="C102" s="22">
-        <f t="shared" ref="C102:C116" si="82">$B$55*B102</f>
+        <f t="shared" ref="C102:C116" si="83">$B$55*B102</f>
         <v>1811128.4126818988</v>
       </c>
       <c r="D102" s="35">
@@ -43536,139 +43538,139 @@
       <c r="J102" s="29"/>
       <c r="K102" s="28"/>
       <c r="L102" s="32">
-        <f t="shared" ref="L102:AS102" si="83">L$69*$D$102</f>
+        <f t="shared" ref="L102:AS102" si="84">L$69*$D$102</f>
         <v>1.8544280152581698</v>
       </c>
       <c r="M102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3.7088560305163396</v>
       </c>
       <c r="N102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>7.4177120610326792</v>
       </c>
       <c r="O102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>14.835424122065358</v>
       </c>
       <c r="P102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>29.670848244130717</v>
       </c>
       <c r="Q102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>59.341696488261434</v>
       </c>
       <c r="R102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>118.68339297652287</v>
       </c>
       <c r="S102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>237.36678595304573</v>
       </c>
       <c r="T102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>356.05017892956857</v>
       </c>
       <c r="U102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>391.65519682252545</v>
       </c>
       <c r="V102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>415.39187541783002</v>
       </c>
       <c r="W102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>439.12855401313459</v>
       </c>
       <c r="X102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>462.86523260843916</v>
       </c>
       <c r="Y102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>474.73357190609147</v>
       </c>
       <c r="Z102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>569.68028628730974</v>
       </c>
       <c r="AA102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>664.62700066852801</v>
       </c>
       <c r="AB102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>759.57371504974628</v>
       </c>
       <c r="AC102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>854.52042943096455</v>
       </c>
       <c r="AD102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>949.46714381218294</v>
       </c>
       <c r="AE102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1139.3605725746195</v>
       </c>
       <c r="AF102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1329.254001337056</v>
       </c>
       <c r="AG102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1519.1474300994926</v>
       </c>
       <c r="AH102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1709.0408588619291</v>
       </c>
       <c r="AI102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1898.9342876243659</v>
       </c>
       <c r="AJ102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3797.8685752487318</v>
       </c>
       <c r="AK102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>7595.7371504974635</v>
       </c>
       <c r="AL102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>15191.474300994927</v>
       </c>
       <c r="AM102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>30382.948601989854</v>
       </c>
       <c r="AN102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>60765.897203979708</v>
       </c>
       <c r="AO102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>121531.79440795942</v>
       </c>
       <c r="AP102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>243063.58881591883</v>
       </c>
       <c r="AQ102" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>486127.17763183767</v>
       </c>
       <c r="AR102" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>972254.35526367533</v>
       </c>
       <c r="AS102" s="84">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1521165.0477800935</v>
       </c>
       <c r="AT102" s="57"/>
@@ -43689,139 +43691,139 @@
       </c>
       <c r="K103" s="22"/>
       <c r="L103" s="41">
-        <f t="shared" ref="L103:AS103" si="84">L$69*$D$102*$J$103</f>
+        <f t="shared" ref="L103:AS103" si="85">L$69*$D$102*$J$103</f>
         <v>0.14501160092807425</v>
       </c>
       <c r="M103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.29002320185614849</v>
       </c>
       <c r="N103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.58004640371229699</v>
       </c>
       <c r="O103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.160092807424594</v>
       </c>
       <c r="P103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.3201856148491879</v>
       </c>
       <c r="Q103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.6403712296983759</v>
       </c>
       <c r="R103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9.2807424593967518</v>
       </c>
       <c r="S103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>18.561484918793504</v>
       </c>
       <c r="T103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>27.842227378190252</v>
       </c>
       <c r="U103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>30.626450116009281</v>
       </c>
       <c r="V103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>32.482598607888633</v>
       </c>
       <c r="W103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>34.338747099767978</v>
       </c>
       <c r="X103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>36.194895591647331</v>
       </c>
       <c r="Y103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>37.122969837587007</v>
       </c>
       <c r="Z103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>44.547563805104403</v>
       </c>
       <c r="AA103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>51.972157772621806</v>
       </c>
       <c r="AB103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>59.396751740139209</v>
       </c>
       <c r="AC103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>66.821345707656604</v>
       </c>
       <c r="AD103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>74.245939675174014</v>
       </c>
       <c r="AE103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>89.095127610208806</v>
       </c>
       <c r="AF103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>103.94431554524361</v>
       </c>
       <c r="AG103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>118.79350348027842</v>
       </c>
       <c r="AH103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>133.64269141531321</v>
       </c>
       <c r="AI103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>148.49187935034803</v>
       </c>
       <c r="AJ103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>296.98375870069606</v>
       </c>
       <c r="AK103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>593.96751740139212</v>
       </c>
       <c r="AL103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1187.9350348027842</v>
       </c>
       <c r="AM103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2375.8700696055685</v>
       </c>
       <c r="AN103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4751.7401392111369</v>
       </c>
       <c r="AO103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9503.4802784222738</v>
       </c>
       <c r="AP103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>19006.960556844548</v>
       </c>
       <c r="AQ103" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>38013.921113689095</v>
       </c>
       <c r="AR103" s="42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>76027.842227378191</v>
       </c>
       <c r="AS103" s="83">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>118951.27610208816</v>
       </c>
       <c r="AT103" s="57"/>
@@ -43835,7 +43837,7 @@
         <v>0.10301766910746854</v>
       </c>
       <c r="C104" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2640754.9299008488</v>
       </c>
       <c r="D104" s="35">
@@ -43850,139 +43852,139 @@
       <c r="J104" s="29"/>
       <c r="K104" s="22"/>
       <c r="L104" s="32">
-        <f t="shared" ref="L104:AS104" si="85">L$69*$D$104</f>
+        <f t="shared" ref="L104:AS104" si="86">L$69*$D$104</f>
         <v>2.745389122655236</v>
       </c>
       <c r="M104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>5.4907782453104721</v>
       </c>
       <c r="N104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>10.981556490620944</v>
       </c>
       <c r="O104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>21.963112981241888</v>
       </c>
       <c r="P104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>43.926225962483777</v>
       </c>
       <c r="Q104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>87.852451924967554</v>
       </c>
       <c r="R104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>175.70490384993511</v>
       </c>
       <c r="S104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>351.40980769987021</v>
       </c>
       <c r="T104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>527.11471154980541</v>
       </c>
       <c r="U104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>579.82618270478588</v>
       </c>
       <c r="V104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>614.96716347477286</v>
       </c>
       <c r="W104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>650.10814424475996</v>
       </c>
       <c r="X104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>685.24912501474694</v>
       </c>
       <c r="Y104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>702.81961539974043</v>
       </c>
       <c r="Z104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>843.38353847968858</v>
       </c>
       <c r="AA104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>983.94746155963662</v>
       </c>
       <c r="AB104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1124.5113846395848</v>
       </c>
       <c r="AC104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1265.0753077195329</v>
       </c>
       <c r="AD104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1405.6392307994809</v>
       </c>
       <c r="AE104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1686.7670769593772</v>
       </c>
       <c r="AF104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1967.8949231192732</v>
       </c>
       <c r="AG104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2249.0227692791696</v>
       </c>
       <c r="AH104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2530.1506154390659</v>
       </c>
       <c r="AI104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2811.2784615989617</v>
       </c>
       <c r="AJ104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>5622.5569231979234</v>
       </c>
       <c r="AK104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>11245.113846395847</v>
       </c>
       <c r="AL104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>22490.227692791694</v>
       </c>
       <c r="AM104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44980.455385583387</v>
       </c>
       <c r="AN104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>89960.910771166775</v>
       </c>
       <c r="AO104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>179921.82154233355</v>
       </c>
       <c r="AP104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>359843.6430846671</v>
       </c>
       <c r="AQ104" s="84">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>719687.2861693342</v>
       </c>
       <c r="AR104" s="33">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1439374.5723386684</v>
       </c>
       <c r="AS104" s="84">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2252009.7526446185</v>
       </c>
       <c r="AT104" s="57"/>
@@ -44003,139 +44005,139 @@
       </c>
       <c r="K105" s="22"/>
       <c r="L105" s="41">
-        <f t="shared" ref="L105:AS105" si="86">L$69*$D$104*$J$105</f>
+        <f t="shared" ref="L105:AS105" si="87">L$69*$D$104*$J$105</f>
         <v>3.1951708679067208E-2</v>
       </c>
       <c r="M105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6.3903417358134415E-2</v>
       </c>
       <c r="N105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.12780683471626883</v>
       </c>
       <c r="O105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.25561366943253766</v>
       </c>
       <c r="P105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.51122733886507532</v>
       </c>
       <c r="Q105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1.0224546777301506</v>
       </c>
       <c r="R105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.0449093554603013</v>
       </c>
       <c r="S105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.0898187109206026</v>
       </c>
       <c r="T105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6.1347280663809043</v>
       </c>
       <c r="U105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6.7482008730189937</v>
       </c>
       <c r="V105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7.1571827441110534</v>
       </c>
       <c r="W105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7.5661646152031148</v>
       </c>
       <c r="X105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7.9751464862951744</v>
       </c>
       <c r="Y105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8.1796374218412051</v>
       </c>
       <c r="Z105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9.8155649062094454</v>
       </c>
       <c r="AA105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>11.451492390577686</v>
       </c>
       <c r="AB105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>13.087419874945928</v>
       </c>
       <c r="AC105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>14.72334735931417</v>
       </c>
       <c r="AD105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>16.35927484368241</v>
       </c>
       <c r="AE105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>19.631129812418891</v>
       </c>
       <c r="AF105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>22.902984781155372</v>
       </c>
       <c r="AG105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>26.174839749891856</v>
       </c>
       <c r="AH105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>29.44669471862834</v>
       </c>
       <c r="AI105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>32.71854968736482</v>
       </c>
       <c r="AJ105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>65.437099374729641</v>
       </c>
       <c r="AK105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>130.87419874945928</v>
       </c>
       <c r="AL105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>261.74839749891856</v>
       </c>
       <c r="AM105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>523.49679499783713</v>
       </c>
       <c r="AN105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1046.9935899956743</v>
       </c>
       <c r="AO105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2093.9871799913485</v>
       </c>
       <c r="AP105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4187.974359982697</v>
       </c>
       <c r="AQ105" s="83">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8375.948719965394</v>
       </c>
       <c r="AR105" s="42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>16751.897439930788</v>
       </c>
       <c r="AS105" s="83">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>26209.603208934681</v>
       </c>
       <c r="AT105" s="57"/>
@@ -44149,7 +44151,7 @@
         <v>0.12142789925761971</v>
       </c>
       <c r="C106" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3112682.7695698235</v>
       </c>
       <c r="D106" s="35">
@@ -44164,139 +44166,139 @@
       <c r="J106" s="29"/>
       <c r="K106" s="22"/>
       <c r="L106" s="32">
-        <f t="shared" ref="L106:AS106" si="87">L$69*$D$106</f>
+        <f t="shared" ref="L106:AS106" si="88">L$69*$D$106</f>
         <v>3.7358920917063192</v>
       </c>
       <c r="M106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>7.4717841834126384</v>
       </c>
       <c r="N106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>14.943568366825277</v>
       </c>
       <c r="O106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>29.887136733650554</v>
       </c>
       <c r="P106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>59.774273467301107</v>
       </c>
       <c r="Q106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>119.54854693460221</v>
       </c>
       <c r="R106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>239.09709386920443</v>
       </c>
       <c r="S106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>478.19418773840886</v>
       </c>
       <c r="T106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>717.29128160761331</v>
       </c>
       <c r="U106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>789.02040976837463</v>
       </c>
       <c r="V106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>836.83982854221551</v>
       </c>
       <c r="W106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>884.65924731605639</v>
       </c>
       <c r="X106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>932.47866608989727</v>
       </c>
       <c r="Y106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>956.38837547681771</v>
       </c>
       <c r="Z106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1147.6660505721813</v>
       </c>
       <c r="AA106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1338.9437256675449</v>
       </c>
       <c r="AB106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1530.2214007629084</v>
       </c>
       <c r="AC106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1721.4990758582719</v>
       </c>
       <c r="AD106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1912.7767509536354</v>
       </c>
       <c r="AE106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>2295.3321011443627</v>
       </c>
       <c r="AF106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>2677.8874513350897</v>
       </c>
       <c r="AG106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3060.4428015258168</v>
       </c>
       <c r="AH106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3442.9981517165438</v>
       </c>
       <c r="AI106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3825.5535019072709</v>
       </c>
       <c r="AJ106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>7651.1070038145417</v>
       </c>
       <c r="AK106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15302.214007629083</v>
       </c>
       <c r="AL106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>30604.428015258167</v>
       </c>
       <c r="AM106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>61208.856030516334</v>
       </c>
       <c r="AN106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>122417.71206103267</v>
       </c>
       <c r="AO106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>244835.42412206533</v>
       </c>
       <c r="AP106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>489670.84824413067</v>
       </c>
       <c r="AQ106" s="84">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>979341.69648826134</v>
       </c>
       <c r="AR106" s="33">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1958683.3929765227</v>
       </c>
       <c r="AS106" s="84">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3064507.4521215935</v>
       </c>
       <c r="AT106" s="57"/>
@@ -44317,139 +44319,139 @@
       </c>
       <c r="K107" s="22"/>
       <c r="L107" s="41">
-        <f t="shared" ref="L107:AS107" si="88">L$69*$D$106*$J$107</f>
+        <f t="shared" ref="L107:AS107" si="89">L$69*$D$106*$J$107</f>
         <v>1.5975854339533604E-2</v>
       </c>
       <c r="M107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.1951708679067208E-2</v>
       </c>
       <c r="N107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.3903417358134415E-2</v>
       </c>
       <c r="O107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.12780683471626883</v>
       </c>
       <c r="P107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.25561366943253766</v>
       </c>
       <c r="Q107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.51122733886507532</v>
       </c>
       <c r="R107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1.0224546777301506</v>
       </c>
       <c r="S107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2.0449093554603013</v>
       </c>
       <c r="T107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.0673640331904517</v>
       </c>
       <c r="U107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.3741004365094969</v>
       </c>
       <c r="V107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.5785913720555271</v>
       </c>
       <c r="W107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.7830823076015574</v>
       </c>
       <c r="X107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.9875732431475872</v>
       </c>
       <c r="Y107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.0898187109206026</v>
       </c>
       <c r="Z107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.9077824531047236</v>
       </c>
       <c r="AA107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5.7257461952888438</v>
       </c>
       <c r="AB107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.5437099374729639</v>
       </c>
       <c r="AC107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7.3616736796570841</v>
       </c>
       <c r="AD107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>8.1796374218412051</v>
       </c>
       <c r="AE107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9.8155649062094472</v>
       </c>
       <c r="AF107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11.451492390577688</v>
       </c>
       <c r="AG107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13.087419874945928</v>
       </c>
       <c r="AH107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>14.723347359314168</v>
       </c>
       <c r="AI107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>16.35927484368241</v>
       </c>
       <c r="AJ107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>32.71854968736482</v>
       </c>
       <c r="AK107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>65.437099374729641</v>
       </c>
       <c r="AL107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>130.87419874945928</v>
       </c>
       <c r="AM107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>261.74839749891856</v>
       </c>
       <c r="AN107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>523.49679499783713</v>
       </c>
       <c r="AO107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1046.9935899956743</v>
       </c>
       <c r="AP107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2093.9871799913485</v>
       </c>
       <c r="AQ107" s="83">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4187.974359982697</v>
       </c>
       <c r="AR107" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>8375.948719965394</v>
       </c>
       <c r="AS107" s="83">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13104.801604467342</v>
       </c>
       <c r="AT107" s="57"/>
@@ -44463,7 +44465,7 @@
         <v>0.12908272398046944</v>
       </c>
       <c r="C108" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3308906.5465153535</v>
       </c>
       <c r="D108" s="35">
@@ -44478,139 +44480,139 @@
       <c r="J108" s="29"/>
       <c r="K108" s="22"/>
       <c r="L108" s="32">
-        <f t="shared" ref="L108:AS108" si="89">L$69*$D$108</f>
+        <f t="shared" ref="L108:AS108" si="90">L$69*$D$108</f>
         <v>4.0197707342011091</v>
       </c>
       <c r="M108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>8.0395414684022182</v>
       </c>
       <c r="N108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>16.079082936804436</v>
       </c>
       <c r="O108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>32.158165873608873</v>
       </c>
       <c r="P108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>64.316331747217745</v>
       </c>
       <c r="Q108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>128.63266349443549</v>
       </c>
       <c r="R108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>257.26532698887098</v>
       </c>
       <c r="S108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>514.53065397774196</v>
       </c>
       <c r="T108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>771.795980966613</v>
       </c>
       <c r="U108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>848.97557906327427</v>
       </c>
       <c r="V108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>900.42864446104852</v>
       </c>
       <c r="W108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>951.88170985882266</v>
       </c>
       <c r="X108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1003.3347752565969</v>
       </c>
       <c r="Y108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1029.0613079554839</v>
       </c>
       <c r="Z108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1234.8735695465807</v>
       </c>
       <c r="AA108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1440.6858311376775</v>
       </c>
       <c r="AB108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1646.4980927287745</v>
       </c>
       <c r="AC108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1852.3103543198713</v>
       </c>
       <c r="AD108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2058.1226159109679</v>
       </c>
       <c r="AE108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2469.7471390931614</v>
       </c>
       <c r="AF108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2881.371662275355</v>
       </c>
       <c r="AG108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3292.996185457549</v>
       </c>
       <c r="AH108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3704.6207086397426</v>
       </c>
       <c r="AI108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4116.2452318219357</v>
       </c>
       <c r="AJ108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>8232.4904636438714</v>
       </c>
       <c r="AK108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>16464.980927287743</v>
       </c>
       <c r="AL108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>32929.961854575486</v>
       </c>
       <c r="AM108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>65859.923709150971</v>
       </c>
       <c r="AN108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>131719.84741830194</v>
       </c>
       <c r="AO108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>263439.69483660389</v>
       </c>
       <c r="AP108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>526879.38967320777</v>
       </c>
       <c r="AQ108" s="84">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1053758.7793464155</v>
       </c>
       <c r="AR108" s="33">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2107517.5586928311</v>
       </c>
       <c r="AS108" s="84">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3297369.6960163596</v>
       </c>
       <c r="AT108" s="57"/>
@@ -44631,139 +44633,139 @@
       </c>
       <c r="K109" s="22"/>
       <c r="L109" s="41">
-        <f t="shared" ref="L109:AS109" si="90">L$69*$D$108*$J$109</f>
+        <f t="shared" ref="L109:AS109" si="91">L$69*$D$108*$J$109</f>
         <v>2.4578237445436312E-3</v>
       </c>
       <c r="M109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4.9156474890872624E-3</v>
       </c>
       <c r="N109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9.8312949781745249E-3</v>
       </c>
       <c r="O109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.966258995634905E-2</v>
       </c>
       <c r="P109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3.9325179912698099E-2</v>
       </c>
       <c r="Q109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7.8650359825396199E-2</v>
       </c>
       <c r="R109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.1573007196507924</v>
       </c>
       <c r="S109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.3146014393015848</v>
       </c>
       <c r="T109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.47190215895237725</v>
       </c>
       <c r="U109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.51909237484761495</v>
       </c>
       <c r="V109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.55055251877777345</v>
       </c>
       <c r="W109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.58201266270793184</v>
       </c>
       <c r="X109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.61347280663809045</v>
       </c>
       <c r="Y109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.62920287860316959</v>
       </c>
       <c r="Z109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.75504345432380349</v>
       </c>
       <c r="AA109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.88088403004443738</v>
       </c>
       <c r="AB109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AC109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.1325651814857054</v>
       </c>
       <c r="AD109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.2584057572063392</v>
       </c>
       <c r="AE109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.510086908647607</v>
       </c>
       <c r="AF109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.7617680600888748</v>
       </c>
       <c r="AG109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.0134492115301428</v>
       </c>
       <c r="AH109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.2651303629714108</v>
       </c>
       <c r="AI109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.5168115144126784</v>
       </c>
       <c r="AJ109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>5.0336230288253567</v>
       </c>
       <c r="AK109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>10.067246057650713</v>
       </c>
       <c r="AL109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>20.134492115301427</v>
       </c>
       <c r="AM109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>40.268984230602854</v>
       </c>
       <c r="AN109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>80.537968461205708</v>
       </c>
       <c r="AO109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>161.07593692241142</v>
       </c>
       <c r="AP109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>322.15187384482283</v>
       </c>
       <c r="AQ109" s="83">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>644.30374768964566</v>
       </c>
       <c r="AR109" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1288.6074953792913</v>
       </c>
       <c r="AS109" s="83">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2016.1233237642064</v>
       </c>
       <c r="AT109" s="57"/>
@@ -44777,7 +44779,7 @@
         <v>0.14481341657950456</v>
       </c>
       <c r="C110" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3712147.1205990198</v>
       </c>
       <c r="D110" s="35">
@@ -44792,139 +44794,139 @@
       <c r="J110" s="29"/>
       <c r="K110" s="22"/>
       <c r="L110" s="32">
-        <f t="shared" ref="L110:AS110" si="91">L$69*$D$110</f>
+        <f t="shared" ref="L110:AS110" si="92">L$69*$D$110</f>
         <v>5.4072122379959886</v>
       </c>
       <c r="M110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>10.814424475991977</v>
       </c>
       <c r="N110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>21.628848951983954</v>
       </c>
       <c r="O110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>43.257697903967909</v>
       </c>
       <c r="P110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>86.515395807935818</v>
       </c>
       <c r="Q110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>173.03079161587164</v>
       </c>
       <c r="R110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>346.06158323174327</v>
       </c>
       <c r="S110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>692.12316646348654</v>
       </c>
       <c r="T110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1038.1847496952298</v>
       </c>
       <c r="U110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1142.0032246647529</v>
       </c>
       <c r="V110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1211.2155413111016</v>
       </c>
       <c r="W110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1280.4278579574502</v>
       </c>
       <c r="X110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1349.6401746037989</v>
       </c>
       <c r="Y110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1384.2463329269731</v>
       </c>
       <c r="Z110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1661.0955995123679</v>
       </c>
       <c r="AA110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1937.9448660977625</v>
       </c>
       <c r="AB110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2214.7941326831569</v>
       </c>
       <c r="AC110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2491.6433992685515</v>
       </c>
       <c r="AD110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2768.4926658539462</v>
       </c>
       <c r="AE110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3322.1911990247359</v>
       </c>
       <c r="AF110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3875.8897321955251</v>
       </c>
       <c r="AG110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4429.5882653663139</v>
       </c>
       <c r="AH110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4983.2867985371031</v>
       </c>
       <c r="AI110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5536.9853317078923</v>
       </c>
       <c r="AJ110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>11073.970663415785</v>
       </c>
       <c r="AK110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>22147.941326831569</v>
       </c>
       <c r="AL110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>44295.882653663139</v>
       </c>
       <c r="AM110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>88591.765307326277</v>
       </c>
       <c r="AN110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>177183.53061465255</v>
       </c>
       <c r="AO110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>354367.06122930511</v>
       </c>
       <c r="AP110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>708734.12245861022</v>
       </c>
       <c r="AQ110" s="84">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1417468.2449172204</v>
       </c>
       <c r="AR110" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2834936.4898344409</v>
       </c>
       <c r="AS110" s="84">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4435471.3122812537</v>
       </c>
       <c r="AT110" s="57"/>
@@ -44945,139 +44947,139 @@
       </c>
       <c r="K111" s="22"/>
       <c r="L111" s="41">
-        <f t="shared" ref="L111:AS111" si="92">L$69*$D$110*$J$111</f>
+        <f t="shared" ref="L111:AS111" si="93">L$69*$D$110*$J$111</f>
         <v>2.4578237445436312E-3</v>
       </c>
       <c r="M111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4.9156474890872624E-3</v>
       </c>
       <c r="N111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>9.8312949781745249E-3</v>
       </c>
       <c r="O111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.966258995634905E-2</v>
       </c>
       <c r="P111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3.9325179912698099E-2</v>
       </c>
       <c r="Q111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7.8650359825396199E-2</v>
       </c>
       <c r="R111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.1573007196507924</v>
       </c>
       <c r="S111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.3146014393015848</v>
       </c>
       <c r="T111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.47190215895237719</v>
       </c>
       <c r="U111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.51909237484761495</v>
       </c>
       <c r="V111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.55055251877777345</v>
       </c>
       <c r="W111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.58201266270793195</v>
       </c>
       <c r="X111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.61347280663809034</v>
       </c>
       <c r="Y111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.62920287860316959</v>
       </c>
       <c r="Z111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.7550434543238036</v>
       </c>
       <c r="AA111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.88088403004443749</v>
       </c>
       <c r="AB111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AC111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.1325651814857052</v>
       </c>
       <c r="AD111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.2584057572063392</v>
       </c>
       <c r="AE111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.5100869086476072</v>
       </c>
       <c r="AF111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.761768060088875</v>
       </c>
       <c r="AG111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2.0134492115301428</v>
       </c>
       <c r="AH111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2.2651303629714103</v>
       </c>
       <c r="AI111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2.5168115144126784</v>
       </c>
       <c r="AJ111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5.0336230288253567</v>
       </c>
       <c r="AK111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10.067246057650713</v>
       </c>
       <c r="AL111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20.134492115301427</v>
       </c>
       <c r="AM111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>40.268984230602854</v>
       </c>
       <c r="AN111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>80.537968461205708</v>
       </c>
       <c r="AO111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>161.07593692241142</v>
       </c>
       <c r="AP111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>322.15187384482283</v>
       </c>
       <c r="AQ111" s="83">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>644.30374768964566</v>
       </c>
       <c r="AR111" s="42">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1288.6074953792913</v>
       </c>
       <c r="AS111" s="83">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2016.1233237642061</v>
       </c>
       <c r="AT111" s="57"/>
@@ -45091,7 +45093,7 @@
         <v>0.14458334093878666</v>
       </c>
       <c r="C112" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3706249.3616248574</v>
       </c>
       <c r="D112" s="35">
@@ -45106,139 +45108,139 @@
       <c r="J112" s="29"/>
       <c r="K112" s="22"/>
       <c r="L112" s="32">
-        <f t="shared" ref="L112:AS112" si="93">L$69*$D$112</f>
+        <f t="shared" ref="L112:AS112" si="94">L$69*$D$112</f>
         <v>7.0613276180738529</v>
       </c>
       <c r="M112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>14.122655236147706</v>
       </c>
       <c r="N112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>28.245310472295412</v>
       </c>
       <c r="O112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>56.490620944590823</v>
       </c>
       <c r="P112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>112.98124188918165</v>
       </c>
       <c r="Q112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>225.96248377836329</v>
       </c>
       <c r="R112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>451.92496755672659</v>
       </c>
       <c r="S112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>903.84993511345317</v>
       </c>
       <c r="T112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1355.7749026701797</v>
       </c>
       <c r="U112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1491.3523929371977</v>
       </c>
       <c r="V112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1581.737386448543</v>
       </c>
       <c r="W112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1672.1223799598883</v>
       </c>
       <c r="X112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1762.5073734712337</v>
       </c>
       <c r="Y112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1807.6998702269063</v>
       </c>
       <c r="Z112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2169.2398442722874</v>
       </c>
       <c r="AA112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2530.7798183176687</v>
       </c>
       <c r="AB112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2892.3197923630501</v>
       </c>
       <c r="AC112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3253.8597664084314</v>
       </c>
       <c r="AD112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3615.3997404538127</v>
       </c>
       <c r="AE112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4338.4796885445749</v>
       </c>
       <c r="AF112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5061.5596366353375</v>
       </c>
       <c r="AG112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5784.6395847261001</v>
       </c>
       <c r="AH112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6507.7195328168627</v>
       </c>
       <c r="AI112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>7230.7994809076254</v>
       </c>
       <c r="AJ112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>14461.598961815251</v>
       </c>
       <c r="AK112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>28923.197923630501</v>
       </c>
       <c r="AL112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>57846.395847261003</v>
       </c>
       <c r="AM112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>115692.79169452201</v>
       </c>
       <c r="AN112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>231385.58338904401</v>
       </c>
       <c r="AO112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>462771.16677808802</v>
       </c>
       <c r="AP112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>925542.33355617605</v>
       </c>
       <c r="AQ112" s="84">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1851084.6671123521</v>
       </c>
       <c r="AR112" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>3702169.3342247042</v>
       </c>
       <c r="AS112" s="84">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5792322.3091745647</v>
       </c>
       <c r="AT112" s="57"/>
@@ -45259,139 +45261,139 @@
       </c>
       <c r="K113" s="22"/>
       <c r="L113" s="41">
-        <f t="shared" ref="L113:AS113" si="94">L$69*$D$112*$J$113</f>
+        <f t="shared" ref="L113:AS113" si="95">L$69*$D$112*$J$113</f>
         <v>1.2289118722718158E-3</v>
       </c>
       <c r="M113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2.4578237445436316E-3</v>
       </c>
       <c r="N113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>4.9156474890872633E-3</v>
       </c>
       <c r="O113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>9.8312949781745266E-3</v>
       </c>
       <c r="P113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.9662589956349053E-2</v>
       </c>
       <c r="Q113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3.9325179912698106E-2</v>
       </c>
       <c r="R113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>7.8650359825396213E-2</v>
       </c>
       <c r="S113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.15730071965079243</v>
       </c>
       <c r="T113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.23595107947618862</v>
       </c>
       <c r="U113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.25954618742380747</v>
       </c>
       <c r="V113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.27527625938888672</v>
       </c>
       <c r="W113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.29100633135396597</v>
       </c>
       <c r="X113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.30673640331904523</v>
       </c>
       <c r="Y113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.31460143930158485</v>
       </c>
       <c r="Z113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.3775217271619018</v>
       </c>
       <c r="AA113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.44044201502221875</v>
       </c>
       <c r="AB113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.50336230288253569</v>
       </c>
       <c r="AC113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.5662825907428527</v>
       </c>
       <c r="AD113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.6292028786031697</v>
       </c>
       <c r="AE113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.7550434543238036</v>
       </c>
       <c r="AF113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.88088403004443749</v>
       </c>
       <c r="AG113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.0067246057650714</v>
       </c>
       <c r="AH113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.1325651814857054</v>
       </c>
       <c r="AI113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.2584057572063394</v>
       </c>
       <c r="AJ113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>2.5168115144126788</v>
       </c>
       <c r="AK113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>5.0336230288253576</v>
       </c>
       <c r="AL113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10.067246057650715</v>
       </c>
       <c r="AM113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20.13449211530143</v>
       </c>
       <c r="AN113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>40.268984230602861</v>
       </c>
       <c r="AO113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>80.537968461205722</v>
       </c>
       <c r="AP113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>161.07593692241144</v>
       </c>
       <c r="AQ113" s="83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>322.15187384482289</v>
       </c>
       <c r="AR113" s="42">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>644.30374768964577</v>
       </c>
       <c r="AS113" s="83">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1008.0616618821032</v>
       </c>
       <c r="AT113" s="57"/>
@@ -45405,7 +45407,7 @@
         <v>0.12056476079328157</v>
       </c>
       <c r="C114" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3090557.0781749799</v>
       </c>
       <c r="D114" s="35">
@@ -45420,139 +45422,139 @@
       <c r="J114" s="29"/>
       <c r="K114" s="22"/>
       <c r="L114" s="32">
-        <f t="shared" ref="L114:AS114" si="95">L$69*$D$114</f>
+        <f t="shared" ref="L114:AS114" si="96">L$69*$D$114</f>
         <v>2.5856305792599001</v>
       </c>
       <c r="M114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.1712611585198003</v>
       </c>
       <c r="N114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>10.342522317039601</v>
       </c>
       <c r="O114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>20.685044634079201</v>
       </c>
       <c r="P114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>41.370089268158402</v>
       </c>
       <c r="Q114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>82.740178536316805</v>
       </c>
       <c r="R114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>165.48035707263361</v>
       </c>
       <c r="S114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>330.96071414526722</v>
       </c>
       <c r="T114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>496.44107121790086</v>
       </c>
       <c r="U114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>546.08517833969097</v>
       </c>
       <c r="V114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>579.18124975421767</v>
       </c>
       <c r="W114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>612.27732116874438</v>
       </c>
       <c r="X114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>645.37339258327108</v>
       </c>
       <c r="Y114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>661.92142829053444</v>
       </c>
       <c r="Z114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>794.30571394864137</v>
       </c>
       <c r="AA114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>926.6899996067483</v>
       </c>
       <c r="AB114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1059.0742852648552</v>
       </c>
       <c r="AC114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1191.4585709229621</v>
       </c>
       <c r="AD114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1323.8428565810689</v>
       </c>
       <c r="AE114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1588.6114278972827</v>
       </c>
       <c r="AF114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1853.3799992134966</v>
       </c>
       <c r="AG114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2118.1485705297105</v>
       </c>
       <c r="AH114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2382.9171418459241</v>
       </c>
       <c r="AI114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2647.6857131621377</v>
       </c>
       <c r="AJ114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5295.3714263242755</v>
       </c>
       <c r="AK114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>10590.742852648551</v>
       </c>
       <c r="AL114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21181.485705297102</v>
       </c>
       <c r="AM114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>42362.971410594204</v>
       </c>
       <c r="AN114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>84725.942821188408</v>
       </c>
       <c r="AO114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>169451.88564237682</v>
       </c>
       <c r="AP114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>338903.77128475363</v>
       </c>
       <c r="AQ114" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>677807.54256950726</v>
       </c>
       <c r="AR114" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1355615.0851390145</v>
       </c>
       <c r="AS114" s="84">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>2120961.736599945</v>
       </c>
       <c r="AT114" s="57"/>
@@ -45573,139 +45575,139 @@
       </c>
       <c r="K115" s="22"/>
       <c r="L115" s="41">
-        <f t="shared" ref="L115:AS115" si="96">L$69*$D$114*$J$115</f>
+        <f t="shared" ref="L115:AS115" si="97">L$69*$D$114*$J$115</f>
         <v>0</v>
       </c>
       <c r="M115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="N115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Q115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="S115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="T115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="V115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="W115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="X115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Y115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Z115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AA115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AB115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AC115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AD115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AE115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AF115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AG115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AH115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AI115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AJ115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AK115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AL115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AM115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AN115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AO115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AP115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AQ115" s="83">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AR115" s="42">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AS115" s="83">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AT115" s="57"/>
@@ -45719,7 +45721,7 @@
         <v>0.1255958322404806</v>
       </c>
       <c r="C116" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3219523.5636524796</v>
       </c>
       <c r="D116" s="35">
@@ -45734,139 +45736,139 @@
       <c r="J116" s="29"/>
       <c r="K116" s="22"/>
       <c r="L116" s="32">
-        <f t="shared" ref="L116:AS116" si="97">L$69*$D$116</f>
+        <f t="shared" ref="L116:AS116" si="98">L$69*$D$116</f>
         <v>1.5091037791497894</v>
       </c>
       <c r="M116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3.0182075582995789</v>
       </c>
       <c r="N116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6.0364151165991577</v>
       </c>
       <c r="O116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12.072830233198315</v>
       </c>
       <c r="P116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>24.145660466396631</v>
       </c>
       <c r="Q116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>48.291320932793262</v>
       </c>
       <c r="R116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>96.582641865586524</v>
       </c>
       <c r="S116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>193.16528373117305</v>
       </c>
       <c r="T116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>289.74792559675961</v>
       </c>
       <c r="U116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>318.72271815643558</v>
       </c>
       <c r="V116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>338.03924652955283</v>
       </c>
       <c r="W116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>357.35577490267013</v>
       </c>
       <c r="X116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>376.67230327578744</v>
       </c>
       <c r="Y116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>386.3305674623461</v>
       </c>
       <c r="Z116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>463.59668095481533</v>
       </c>
       <c r="AA116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>540.86279444728461</v>
       </c>
       <c r="AB116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>618.12890793975384</v>
       </c>
       <c r="AC116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>695.39502143222296</v>
       </c>
       <c r="AD116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>772.66113492469219</v>
       </c>
       <c r="AE116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>927.19336190963065</v>
       </c>
       <c r="AF116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1081.7255888945692</v>
       </c>
       <c r="AG116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1236.2578158795077</v>
       </c>
       <c r="AH116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1390.7900428644459</v>
       </c>
       <c r="AI116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1545.3222698493844</v>
       </c>
       <c r="AJ116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3090.6445396987688</v>
       </c>
       <c r="AK116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6181.2890793975375</v>
       </c>
       <c r="AL116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12362.578158795075</v>
       </c>
       <c r="AM116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>24725.15631759015</v>
       </c>
       <c r="AN116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>49450.3126351803</v>
       </c>
       <c r="AO116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>98900.625270360601</v>
       </c>
       <c r="AP116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>197801.2505407212</v>
       </c>
       <c r="AQ116" s="84">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>395602.5010814424</v>
       </c>
       <c r="AR116" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>791205.0021628848</v>
       </c>
       <c r="AS116" s="84">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1237899.7207912225</v>
       </c>
       <c r="AT116" s="57"/>
@@ -45887,139 +45889,139 @@
       </c>
       <c r="K117" s="22"/>
       <c r="L117" s="41">
-        <f t="shared" ref="L117:AS117" si="98">L$69*$D$116*$J$117</f>
+        <f t="shared" ref="L117:AS117" si="99">L$69*$D$116*$J$117</f>
         <v>0</v>
       </c>
       <c r="M117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="O117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="P117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="T117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="U117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="V117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="W117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="X117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Z117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AA117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AB117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AC117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AD117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AE117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AF117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AG117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AH117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AI117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AJ117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AK117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AL117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AM117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AN117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AO117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AP117" s="42">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AQ117" s="83">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AR117" s="44">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AS117" s="85">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AT117" s="57"/>
@@ -46039,23 +46041,23 @@
       <c r="J118" s="27"/>
       <c r="K118" s="22"/>
       <c r="L118" s="30">
-        <f t="shared" ref="L118:AO118" si="99">SUM(L100,L102,L104,L106,L108,L110,L112,L114,L116)</f>
+        <f t="shared" ref="L118:AO118" si="100">SUM(L100,L102,L104,L106,L108,L110,L112,L114,L116)</f>
         <v>31.25</v>
       </c>
       <c r="M118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>62.5</v>
       </c>
       <c r="N118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>125</v>
       </c>
       <c r="O118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>250</v>
       </c>
       <c r="P118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>500</v>
       </c>
       <c r="Q118" s="31">
@@ -46063,115 +46065,115 @@
         <v>1000</v>
       </c>
       <c r="R118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2000</v>
       </c>
       <c r="S118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>4000</v>
       </c>
       <c r="T118" s="31">
-        <f t="shared" ref="T118:X118" si="100">SUM(T100,T102,T104,T106,T108,T110,T112,T114,T116)</f>
+        <f t="shared" ref="T118:X118" si="101">SUM(T100,T102,T104,T106,T108,T110,T112,T114,T116)</f>
         <v>6000</v>
       </c>
       <c r="U118" s="31">
+        <f t="shared" si="101"/>
+        <v>6600</v>
+      </c>
+      <c r="V118" s="31">
+        <f t="shared" ref="V118:W118" si="102">SUM(V100,V102,V104,V106,V108,V110,V112,V114,V116)</f>
+        <v>6999.9999999999991</v>
+      </c>
+      <c r="W118" s="31">
+        <f t="shared" si="102"/>
+        <v>7400</v>
+      </c>
+      <c r="X118" s="31">
+        <f t="shared" si="101"/>
+        <v>7800</v>
+      </c>
+      <c r="Y118" s="31">
         <f t="shared" si="100"/>
-        <v>6600</v>
-      </c>
-      <c r="V118" s="31">
-        <f t="shared" ref="V118:W118" si="101">SUM(V100,V102,V104,V106,V108,V110,V112,V114,V116)</f>
-        <v>6999.9999999999991</v>
-      </c>
-      <c r="W118" s="31">
-        <f t="shared" si="101"/>
-        <v>7400</v>
-      </c>
-      <c r="X118" s="31">
+        <v>8000</v>
+      </c>
+      <c r="Z118" s="31">
+        <f t="shared" ref="Z118:AC118" si="103">SUM(Z100,Z102,Z104,Z106,Z108,Z110,Z112,Z114,Z116)</f>
+        <v>9600</v>
+      </c>
+      <c r="AA118" s="31">
+        <f t="shared" si="103"/>
+        <v>11199.999999999998</v>
+      </c>
+      <c r="AB118" s="31">
+        <f t="shared" si="103"/>
+        <v>12800</v>
+      </c>
+      <c r="AC118" s="31">
+        <f t="shared" si="103"/>
+        <v>14400</v>
+      </c>
+      <c r="AD118" s="31">
         <f t="shared" si="100"/>
-        <v>7800</v>
-      </c>
-      <c r="Y118" s="31">
-        <f t="shared" si="99"/>
-        <v>8000</v>
-      </c>
-      <c r="Z118" s="31">
-        <f t="shared" ref="Z118:AC118" si="102">SUM(Z100,Z102,Z104,Z106,Z108,Z110,Z112,Z114,Z116)</f>
-        <v>9600</v>
-      </c>
-      <c r="AA118" s="31">
-        <f t="shared" si="102"/>
-        <v>11199.999999999998</v>
-      </c>
-      <c r="AB118" s="31">
-        <f t="shared" si="102"/>
-        <v>12800</v>
-      </c>
-      <c r="AC118" s="31">
-        <f t="shared" si="102"/>
-        <v>14400</v>
-      </c>
-      <c r="AD118" s="31">
-        <f t="shared" si="99"/>
         <v>16000</v>
       </c>
       <c r="AE118" s="31">
-        <f t="shared" ref="AE118:AH118" si="103">SUM(AE100,AE102,AE104,AE106,AE108,AE110,AE112,AE114,AE116)</f>
+        <f t="shared" ref="AE118:AH118" si="104">SUM(AE100,AE102,AE104,AE106,AE108,AE110,AE112,AE114,AE116)</f>
         <v>19200</v>
       </c>
       <c r="AF118" s="31">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>22399.999999999996</v>
       </c>
       <c r="AG118" s="31">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>25600</v>
       </c>
       <c r="AH118" s="31">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>28800</v>
       </c>
       <c r="AI118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>32000</v>
       </c>
       <c r="AJ118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>64000</v>
       </c>
       <c r="AK118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>128000</v>
       </c>
       <c r="AL118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>256000</v>
       </c>
       <c r="AM118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>512000</v>
       </c>
       <c r="AN118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1024000</v>
       </c>
       <c r="AO118" s="31">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2048000</v>
       </c>
       <c r="AP118" s="31">
-        <f t="shared" ref="AP118:AS119" si="104">SUM(AP100,AP102,AP104,AP106,AP108,AP110,AP112,AP114,AP116)</f>
+        <f t="shared" ref="AP118:AS119" si="105">SUM(AP100,AP102,AP104,AP106,AP108,AP110,AP112,AP114,AP116)</f>
         <v>4096000</v>
       </c>
       <c r="AQ118" s="72">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8192000</v>
       </c>
       <c r="AR118" s="31">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16384000</v>
       </c>
       <c r="AS118" s="72">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>25634000</v>
       </c>
       <c r="AT118" s="57"/>
@@ -46199,31 +46201,31 @@
         <v>1.5066459554052458</v>
       </c>
       <c r="N119" s="44">
-        <f t="shared" ref="N119:AO119" si="105">SUM(N101,N103,N105,N107,N109,N111,N113,N115,N117)</f>
+        <f t="shared" ref="N119:AO119" si="106">SUM(N101,N103,N105,N107,N109,N111,N113,N115,N117)</f>
         <v>3.0132919108104916</v>
       </c>
       <c r="O119" s="44">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6.0265838216209833</v>
       </c>
       <c r="P119" s="44">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>12.053167643241967</v>
       </c>
       <c r="Q119" s="44">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>24.106335286483933</v>
       </c>
       <c r="R119" s="44">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>48.212670572967866</v>
       </c>
       <c r="S119" s="44">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>96.425341145935732</v>
       </c>
       <c r="T119" s="44">
-        <f t="shared" ref="T119:X119" si="106">SUM(T101,T103,T105,T107,T109,T111,T113,T115,T117)</f>
+        <f t="shared" ref="T119:X119" si="107">SUM(T101,T103,T105,T107,T109,T111,T113,T115,T117)</f>
         <v>144.63801171890364</v>
       </c>
       <c r="U119" s="44">
@@ -46231,99 +46233,99 @@
         <v>159.10181289079398</v>
       </c>
       <c r="V119" s="44">
-        <f t="shared" ref="V119:W119" si="107">SUM(V101,V103,V105,V107,V109,V111,V113,V115,V117)</f>
+        <f t="shared" ref="V119:W119" si="108">SUM(V101,V103,V105,V107,V109,V111,V113,V115,V117)</f>
         <v>168.74434700538751</v>
       </c>
       <c r="W119" s="44">
+        <f t="shared" si="108"/>
+        <v>178.38688111998113</v>
+      </c>
+      <c r="X119" s="44">
         <f t="shared" si="107"/>
-        <v>178.38688111998113</v>
-      </c>
-      <c r="X119" s="44">
+        <v>188.02941523457471</v>
+      </c>
+      <c r="Y119" s="44">
         <f t="shared" si="106"/>
-        <v>188.02941523457471</v>
-      </c>
-      <c r="Y119" s="44">
+        <v>192.85068229187146</v>
+      </c>
+      <c r="Z119" s="44">
+        <f t="shared" ref="Z119:AC119" si="109">SUM(Z101,Z103,Z105,Z107,Z109,Z111,Z113,Z115,Z117)</f>
+        <v>231.42081875024576</v>
+      </c>
+      <c r="AA119" s="44">
+        <f t="shared" si="109"/>
+        <v>269.99095520862005</v>
+      </c>
+      <c r="AB119" s="44">
+        <f t="shared" si="109"/>
+        <v>308.56109166699423</v>
+      </c>
+      <c r="AC119" s="44">
+        <f t="shared" si="109"/>
+        <v>347.13122812536858</v>
+      </c>
+      <c r="AD119" s="44">
+        <f t="shared" si="106"/>
+        <v>385.70136458374293</v>
+      </c>
+      <c r="AE119" s="44">
+        <f t="shared" ref="AE119:AH119" si="110">SUM(AE101,AE103,AE105,AE107,AE109,AE111,AE113,AE115,AE117)</f>
+        <v>462.84163750049152</v>
+      </c>
+      <c r="AF119" s="44">
+        <f t="shared" si="110"/>
+        <v>539.9819104172401</v>
+      </c>
+      <c r="AG119" s="44">
+        <f t="shared" si="110"/>
+        <v>617.12218333398846</v>
+      </c>
+      <c r="AH119" s="44">
+        <f t="shared" si="110"/>
+        <v>694.26245625073716</v>
+      </c>
+      <c r="AI119" s="44">
+        <f t="shared" si="106"/>
+        <v>771.40272916748586</v>
+      </c>
+      <c r="AJ119" s="44">
+        <f t="shared" si="106"/>
+        <v>1542.8054583349717</v>
+      </c>
+      <c r="AK119" s="44">
+        <f t="shared" si="106"/>
+        <v>3085.6109166699434</v>
+      </c>
+      <c r="AL119" s="44">
+        <f t="shared" si="106"/>
+        <v>6171.2218333398869</v>
+      </c>
+      <c r="AM119" s="44">
+        <f t="shared" si="106"/>
+        <v>12342.443666679774</v>
+      </c>
+      <c r="AN119" s="44">
+        <f t="shared" si="106"/>
+        <v>24684.887333359547</v>
+      </c>
+      <c r="AO119" s="44">
+        <f t="shared" si="106"/>
+        <v>49369.774666719095</v>
+      </c>
+      <c r="AP119" s="44">
         <f t="shared" si="105"/>
-        <v>192.85068229187146</v>
-      </c>
-      <c r="Z119" s="44">
-        <f t="shared" ref="Z119:AC119" si="108">SUM(Z101,Z103,Z105,Z107,Z109,Z111,Z113,Z115,Z117)</f>
-        <v>231.42081875024576</v>
-      </c>
-      <c r="AA119" s="44">
-        <f t="shared" si="108"/>
-        <v>269.99095520862005</v>
-      </c>
-      <c r="AB119" s="44">
-        <f t="shared" si="108"/>
-        <v>308.56109166699423</v>
-      </c>
-      <c r="AC119" s="44">
-        <f t="shared" si="108"/>
-        <v>347.13122812536858</v>
-      </c>
-      <c r="AD119" s="44">
+        <v>98739.54933343819</v>
+      </c>
+      <c r="AQ119" s="85">
         <f t="shared" si="105"/>
-        <v>385.70136458374293</v>
-      </c>
-      <c r="AE119" s="44">
-        <f t="shared" ref="AE119:AH119" si="109">SUM(AE101,AE103,AE105,AE107,AE109,AE111,AE113,AE115,AE117)</f>
-        <v>462.84163750049152</v>
-      </c>
-      <c r="AF119" s="44">
-        <f t="shared" si="109"/>
-        <v>539.9819104172401</v>
-      </c>
-      <c r="AG119" s="44">
-        <f t="shared" si="109"/>
-        <v>617.12218333398846</v>
-      </c>
-      <c r="AH119" s="44">
-        <f t="shared" si="109"/>
-        <v>694.26245625073716</v>
-      </c>
-      <c r="AI119" s="44">
+        <v>197479.09866687638</v>
+      </c>
+      <c r="AR119" s="44">
         <f t="shared" si="105"/>
-        <v>771.40272916748586</v>
-      </c>
-      <c r="AJ119" s="44">
+        <v>394958.19733375276</v>
+      </c>
+      <c r="AS119" s="85">
         <f t="shared" si="105"/>
-        <v>1542.8054583349717</v>
-      </c>
-      <c r="AK119" s="44">
-        <f t="shared" si="105"/>
-        <v>3085.6109166699434</v>
-      </c>
-      <c r="AL119" s="44">
-        <f t="shared" si="105"/>
-        <v>6171.2218333398869</v>
-      </c>
-      <c r="AM119" s="44">
-        <f t="shared" si="105"/>
-        <v>12342.443666679774</v>
-      </c>
-      <c r="AN119" s="44">
-        <f t="shared" si="105"/>
-        <v>24684.887333359547</v>
-      </c>
-      <c r="AO119" s="44">
-        <f t="shared" si="105"/>
-        <v>49369.774666719095</v>
-      </c>
-      <c r="AP119" s="44">
-        <f t="shared" si="104"/>
-        <v>98739.54933343819</v>
-      </c>
-      <c r="AQ119" s="85">
-        <f t="shared" si="104"/>
-        <v>197479.09866687638</v>
-      </c>
-      <c r="AR119" s="44">
-        <f t="shared" si="104"/>
-        <v>394958.19733375276</v>
-      </c>
-      <c r="AS119" s="85">
-        <f t="shared" si="104"/>
         <v>617941.79873372905</v>
       </c>
       <c r="AT119" s="57"/>
@@ -46492,139 +46494,139 @@
       <c r="J123" s="28"/>
       <c r="K123" s="28"/>
       <c r="L123" s="30">
-        <f t="shared" ref="L123:AS123" si="110">L$69*$B$123</f>
+        <f t="shared" ref="L123:AS123" si="111">L$69*$B$123</f>
         <v>1.5625</v>
       </c>
       <c r="M123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>3.125</v>
       </c>
       <c r="N123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6.25</v>
       </c>
       <c r="O123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>12.5</v>
       </c>
       <c r="P123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>25</v>
       </c>
       <c r="Q123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="R123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>100</v>
       </c>
       <c r="S123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>200</v>
       </c>
       <c r="T123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>300</v>
       </c>
       <c r="U123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>330</v>
       </c>
       <c r="V123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>350</v>
       </c>
       <c r="W123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>370</v>
       </c>
       <c r="X123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>390</v>
       </c>
       <c r="Y123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>400</v>
       </c>
       <c r="Z123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>480</v>
       </c>
       <c r="AA123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>560</v>
       </c>
       <c r="AB123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>640</v>
       </c>
       <c r="AC123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>720</v>
       </c>
       <c r="AD123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>800</v>
       </c>
       <c r="AE123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>960</v>
       </c>
       <c r="AF123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1120</v>
       </c>
       <c r="AG123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1280</v>
       </c>
       <c r="AH123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1440</v>
       </c>
       <c r="AI123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1600</v>
       </c>
       <c r="AJ123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>3200</v>
       </c>
       <c r="AK123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6400</v>
       </c>
       <c r="AL123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>12800</v>
       </c>
       <c r="AM123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>25600</v>
       </c>
       <c r="AN123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>51200</v>
       </c>
       <c r="AO123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>102400</v>
       </c>
       <c r="AP123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>204800</v>
       </c>
       <c r="AQ123" s="72">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>409600</v>
       </c>
       <c r="AR123" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>819200</v>
       </c>
       <c r="AS123" s="72">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1281700</v>
       </c>
       <c r="AT123" s="57"/>
@@ -46648,119 +46650,119 @@
         <v>0.1640625</v>
       </c>
       <c r="M124" s="42">
-        <f t="shared" ref="M124:AO124" si="111">M123*$J$124</f>
+        <f t="shared" ref="M124:AO124" si="112">M123*$J$124</f>
         <v>0.328125</v>
       </c>
       <c r="N124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0.65625</v>
       </c>
       <c r="O124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1.3125</v>
       </c>
       <c r="P124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2.625</v>
       </c>
       <c r="Q124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5.25</v>
       </c>
       <c r="R124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>10.5</v>
       </c>
       <c r="S124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>21</v>
       </c>
       <c r="T124" s="42">
-        <f t="shared" ref="T124:X124" si="112">T123*$J$124</f>
+        <f t="shared" ref="T124:X124" si="113">T123*$J$124</f>
         <v>31.5</v>
       </c>
       <c r="U124" s="42">
+        <f t="shared" si="113"/>
+        <v>34.65</v>
+      </c>
+      <c r="V124" s="42">
+        <f t="shared" ref="V124:W124" si="114">V123*$J$124</f>
+        <v>36.75</v>
+      </c>
+      <c r="W124" s="42">
+        <f t="shared" si="114"/>
+        <v>38.85</v>
+      </c>
+      <c r="X124" s="42">
+        <f t="shared" si="113"/>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="Y124" s="42">
         <f t="shared" si="112"/>
-        <v>34.65</v>
-      </c>
-      <c r="V124" s="42">
-        <f t="shared" ref="V124:W124" si="113">V123*$J$124</f>
-        <v>36.75</v>
-      </c>
-      <c r="W124" s="42">
-        <f t="shared" si="113"/>
-        <v>38.85</v>
-      </c>
-      <c r="X124" s="42">
+        <v>42</v>
+      </c>
+      <c r="Z124" s="42">
+        <f t="shared" ref="Z124:AC124" si="115">Z123*$J$124</f>
+        <v>50.4</v>
+      </c>
+      <c r="AA124" s="42">
+        <f t="shared" si="115"/>
+        <v>58.8</v>
+      </c>
+      <c r="AB124" s="42">
+        <f t="shared" si="115"/>
+        <v>67.2</v>
+      </c>
+      <c r="AC124" s="42">
+        <f t="shared" si="115"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AD124" s="42">
         <f t="shared" si="112"/>
-        <v>40.949999999999996</v>
-      </c>
-      <c r="Y124" s="42">
-        <f t="shared" si="111"/>
-        <v>42</v>
-      </c>
-      <c r="Z124" s="42">
-        <f t="shared" ref="Z124:AC124" si="114">Z123*$J$124</f>
-        <v>50.4</v>
-      </c>
-      <c r="AA124" s="42">
-        <f t="shared" si="114"/>
-        <v>58.8</v>
-      </c>
-      <c r="AB124" s="42">
-        <f t="shared" si="114"/>
-        <v>67.2</v>
-      </c>
-      <c r="AC124" s="42">
-        <f t="shared" si="114"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="AD124" s="42">
-        <f t="shared" si="111"/>
         <v>84</v>
       </c>
       <c r="AE124" s="42">
-        <f t="shared" ref="AE124:AH124" si="115">AE123*$J$124</f>
+        <f t="shared" ref="AE124:AH124" si="116">AE123*$J$124</f>
         <v>100.8</v>
       </c>
       <c r="AF124" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>117.6</v>
       </c>
       <c r="AG124" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>134.4</v>
       </c>
       <c r="AH124" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>151.19999999999999</v>
       </c>
       <c r="AI124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>168</v>
       </c>
       <c r="AJ124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>336</v>
       </c>
       <c r="AK124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>672</v>
       </c>
       <c r="AL124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1344</v>
       </c>
       <c r="AM124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2688</v>
       </c>
       <c r="AN124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5376</v>
       </c>
       <c r="AO124" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>10752</v>
       </c>
       <c r="AP124" s="42">
@@ -46801,139 +46803,139 @@
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="32">
-        <f t="shared" ref="L125:AS125" si="116">L$69*$B$125</f>
+        <f t="shared" ref="L125:AS125" si="117">L$69*$B$125</f>
         <v>1.53125</v>
       </c>
       <c r="M125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>3.0625</v>
       </c>
       <c r="N125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>6.125</v>
       </c>
       <c r="O125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>12.25</v>
       </c>
       <c r="P125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>24.5</v>
       </c>
       <c r="Q125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>49</v>
       </c>
       <c r="R125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>98</v>
       </c>
       <c r="S125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>196</v>
       </c>
       <c r="T125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>294</v>
       </c>
       <c r="U125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>323.40000000000003</v>
       </c>
       <c r="V125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>343</v>
       </c>
       <c r="W125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>362.6</v>
       </c>
       <c r="X125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>382.2</v>
       </c>
       <c r="Y125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>392</v>
       </c>
       <c r="Z125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>470.40000000000003</v>
       </c>
       <c r="AA125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>548.80000000000007</v>
       </c>
       <c r="AB125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>627.20000000000005</v>
       </c>
       <c r="AC125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>705.6</v>
       </c>
       <c r="AD125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>784</v>
       </c>
       <c r="AE125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>940.80000000000007</v>
       </c>
       <c r="AF125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1097.6000000000001</v>
       </c>
       <c r="AG125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1254.4000000000001</v>
       </c>
       <c r="AH125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1411.2</v>
       </c>
       <c r="AI125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1568</v>
       </c>
       <c r="AJ125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>3136</v>
       </c>
       <c r="AK125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>6272</v>
       </c>
       <c r="AL125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>12544</v>
       </c>
       <c r="AM125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>25088</v>
       </c>
       <c r="AN125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>50176</v>
       </c>
       <c r="AO125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>100352</v>
       </c>
       <c r="AP125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>200704</v>
       </c>
       <c r="AQ125" s="84">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>401408</v>
       </c>
       <c r="AR125" s="33">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>802816</v>
       </c>
       <c r="AS125" s="84">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1256066</v>
       </c>
       <c r="AT125" s="57"/>
@@ -46953,123 +46955,123 @@
       </c>
       <c r="K126" s="28"/>
       <c r="L126" s="41">
-        <f t="shared" ref="L126:AO126" si="117">L125*$J$126</f>
+        <f t="shared" ref="L126:AO126" si="118">L125*$J$126</f>
         <v>0.11178125</v>
       </c>
       <c r="M126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.2235625</v>
       </c>
       <c r="N126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.44712499999999999</v>
       </c>
       <c r="O126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.89424999999999999</v>
       </c>
       <c r="P126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>1.7885</v>
       </c>
       <c r="Q126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.577</v>
       </c>
       <c r="R126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>7.1539999999999999</v>
       </c>
       <c r="S126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>14.308</v>
       </c>
       <c r="T126" s="42">
-        <f t="shared" ref="T126:X126" si="118">T125*$J$126</f>
+        <f t="shared" ref="T126:X126" si="119">T125*$J$126</f>
         <v>21.462</v>
       </c>
       <c r="U126" s="42">
+        <f t="shared" si="119"/>
+        <v>23.6082</v>
+      </c>
+      <c r="V126" s="42">
+        <f t="shared" ref="V126:W126" si="120">V125*$J$126</f>
+        <v>25.038999999999998</v>
+      </c>
+      <c r="W126" s="42">
+        <f t="shared" si="120"/>
+        <v>26.469799999999999</v>
+      </c>
+      <c r="X126" s="42">
+        <f t="shared" si="119"/>
+        <v>27.900599999999997</v>
+      </c>
+      <c r="Y126" s="42">
         <f t="shared" si="118"/>
-        <v>23.6082</v>
-      </c>
-      <c r="V126" s="42">
-        <f t="shared" ref="V126:W126" si="119">V125*$J$126</f>
-        <v>25.038999999999998</v>
-      </c>
-      <c r="W126" s="42">
-        <f t="shared" si="119"/>
-        <v>26.469799999999999</v>
-      </c>
-      <c r="X126" s="42">
+        <v>28.616</v>
+      </c>
+      <c r="Z126" s="42">
+        <f t="shared" ref="Z126:AC126" si="121">Z125*$J$126</f>
+        <v>34.339199999999998</v>
+      </c>
+      <c r="AA126" s="42">
+        <f t="shared" si="121"/>
+        <v>40.062400000000004</v>
+      </c>
+      <c r="AB126" s="42">
+        <f t="shared" si="121"/>
+        <v>45.785600000000002</v>
+      </c>
+      <c r="AC126" s="42">
+        <f t="shared" si="121"/>
+        <v>51.508800000000001</v>
+      </c>
+      <c r="AD126" s="42">
         <f t="shared" si="118"/>
-        <v>27.900599999999997</v>
-      </c>
-      <c r="Y126" s="42">
-        <f t="shared" si="117"/>
-        <v>28.616</v>
-      </c>
-      <c r="Z126" s="42">
-        <f t="shared" ref="Z126:AC126" si="120">Z125*$J$126</f>
-        <v>34.339199999999998</v>
-      </c>
-      <c r="AA126" s="42">
-        <f t="shared" si="120"/>
-        <v>40.062400000000004</v>
-      </c>
-      <c r="AB126" s="42">
-        <f t="shared" si="120"/>
-        <v>45.785600000000002</v>
-      </c>
-      <c r="AC126" s="42">
-        <f t="shared" si="120"/>
-        <v>51.508800000000001</v>
-      </c>
-      <c r="AD126" s="42">
-        <f t="shared" si="117"/>
         <v>57.231999999999999</v>
       </c>
       <c r="AE126" s="42">
-        <f t="shared" ref="AE126:AH126" si="121">AE125*$J$126</f>
+        <f t="shared" ref="AE126:AH126" si="122">AE125*$J$126</f>
         <v>68.678399999999996</v>
       </c>
       <c r="AF126" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>80.124800000000008</v>
       </c>
       <c r="AG126" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>91.571200000000005</v>
       </c>
       <c r="AH126" s="42">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>103.0176</v>
       </c>
       <c r="AI126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>114.464</v>
       </c>
       <c r="AJ126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>228.928</v>
       </c>
       <c r="AK126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>457.85599999999999</v>
       </c>
       <c r="AL126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>915.71199999999999</v>
       </c>
       <c r="AM126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>1831.424</v>
       </c>
       <c r="AN126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3662.848</v>
       </c>
       <c r="AO126" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>7325.6959999999999</v>
       </c>
       <c r="AP126" s="42">
@@ -47110,139 +47112,139 @@
       <c r="J127" s="28"/>
       <c r="K127" s="28"/>
       <c r="L127" s="32">
-        <f t="shared" ref="L127:AS127" si="122">L$69*$B$127</f>
+        <f t="shared" ref="L127:AS127" si="123">L$69*$B$127</f>
         <v>9.6875</v>
       </c>
       <c r="M127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>19.375</v>
       </c>
       <c r="N127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>38.75</v>
       </c>
       <c r="O127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>77.5</v>
       </c>
       <c r="P127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>155</v>
       </c>
       <c r="Q127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>310</v>
       </c>
       <c r="R127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>620</v>
       </c>
       <c r="S127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1240</v>
       </c>
       <c r="T127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1860</v>
       </c>
       <c r="U127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2046</v>
       </c>
       <c r="V127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2170</v>
       </c>
       <c r="W127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2294</v>
       </c>
       <c r="X127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2418</v>
       </c>
       <c r="Y127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2480</v>
       </c>
       <c r="Z127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2976</v>
       </c>
       <c r="AA127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>3472</v>
       </c>
       <c r="AB127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>3968</v>
       </c>
       <c r="AC127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>4464</v>
       </c>
       <c r="AD127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>4960</v>
       </c>
       <c r="AE127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>5952</v>
       </c>
       <c r="AF127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6944</v>
       </c>
       <c r="AG127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7936</v>
       </c>
       <c r="AH127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>8928</v>
       </c>
       <c r="AI127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>9920</v>
       </c>
       <c r="AJ127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>19840</v>
       </c>
       <c r="AK127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>39680</v>
       </c>
       <c r="AL127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>79360</v>
       </c>
       <c r="AM127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>158720</v>
       </c>
       <c r="AN127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>317440</v>
       </c>
       <c r="AO127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>634880</v>
       </c>
       <c r="AP127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1269760</v>
       </c>
       <c r="AQ127" s="84">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>2539520</v>
       </c>
       <c r="AR127" s="33">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>5079040</v>
       </c>
       <c r="AS127" s="84">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7946540</v>
       </c>
       <c r="AT127" s="57"/>
@@ -47262,123 +47264,123 @@
       </c>
       <c r="K128" s="28"/>
       <c r="L128" s="41">
-        <f t="shared" ref="L128:AO128" si="123">L127*$J$128</f>
+        <f t="shared" ref="L128:AO128" si="124">L127*$J$128</f>
         <v>0.61031250000000004</v>
       </c>
       <c r="M128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.2206250000000001</v>
       </c>
       <c r="N128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2.4412500000000001</v>
       </c>
       <c r="O128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>4.8825000000000003</v>
       </c>
       <c r="P128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>9.7650000000000006</v>
       </c>
       <c r="Q128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>19.53</v>
       </c>
       <c r="R128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>39.06</v>
       </c>
       <c r="S128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>78.12</v>
       </c>
       <c r="T128" s="42">
-        <f t="shared" ref="T128:X128" si="124">T127*$J$128</f>
+        <f t="shared" ref="T128:X128" si="125">T127*$J$128</f>
         <v>117.18</v>
       </c>
       <c r="U128" s="42">
+        <f t="shared" si="125"/>
+        <v>128.898</v>
+      </c>
+      <c r="V128" s="42">
+        <f t="shared" ref="V128:W128" si="126">V127*$J$128</f>
+        <v>136.71</v>
+      </c>
+      <c r="W128" s="42">
+        <f t="shared" si="126"/>
+        <v>144.52199999999999</v>
+      </c>
+      <c r="X128" s="42">
+        <f t="shared" si="125"/>
+        <v>152.334</v>
+      </c>
+      <c r="Y128" s="42">
         <f t="shared" si="124"/>
-        <v>128.898</v>
-      </c>
-      <c r="V128" s="42">
-        <f t="shared" ref="V128:W128" si="125">V127*$J$128</f>
-        <v>136.71</v>
-      </c>
-      <c r="W128" s="42">
-        <f t="shared" si="125"/>
-        <v>144.52199999999999</v>
-      </c>
-      <c r="X128" s="42">
+        <v>156.24</v>
+      </c>
+      <c r="Z128" s="42">
+        <f t="shared" ref="Z128:AC128" si="127">Z127*$J$128</f>
+        <v>187.488</v>
+      </c>
+      <c r="AA128" s="42">
+        <f t="shared" si="127"/>
+        <v>218.73599999999999</v>
+      </c>
+      <c r="AB128" s="42">
+        <f t="shared" si="127"/>
+        <v>249.98400000000001</v>
+      </c>
+      <c r="AC128" s="42">
+        <f t="shared" si="127"/>
+        <v>281.23200000000003</v>
+      </c>
+      <c r="AD128" s="42">
         <f t="shared" si="124"/>
-        <v>152.334</v>
-      </c>
-      <c r="Y128" s="42">
-        <f t="shared" si="123"/>
-        <v>156.24</v>
-      </c>
-      <c r="Z128" s="42">
-        <f t="shared" ref="Z128:AC128" si="126">Z127*$J$128</f>
-        <v>187.488</v>
-      </c>
-      <c r="AA128" s="42">
-        <f t="shared" si="126"/>
-        <v>218.73599999999999</v>
-      </c>
-      <c r="AB128" s="42">
-        <f t="shared" si="126"/>
-        <v>249.98400000000001</v>
-      </c>
-      <c r="AC128" s="42">
-        <f t="shared" si="126"/>
-        <v>281.23200000000003</v>
-      </c>
-      <c r="AD128" s="42">
-        <f t="shared" si="123"/>
         <v>312.48</v>
       </c>
       <c r="AE128" s="42">
-        <f t="shared" ref="AE128:AH128" si="127">AE127*$J$128</f>
+        <f t="shared" ref="AE128:AH128" si="128">AE127*$J$128</f>
         <v>374.976</v>
       </c>
       <c r="AF128" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>437.47199999999998</v>
       </c>
       <c r="AG128" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>499.96800000000002</v>
       </c>
       <c r="AH128" s="42">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>562.46400000000006</v>
       </c>
       <c r="AI128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>624.96</v>
       </c>
       <c r="AJ128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1249.92</v>
       </c>
       <c r="AK128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2499.84</v>
       </c>
       <c r="AL128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>4999.68</v>
       </c>
       <c r="AM128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>9999.36</v>
       </c>
       <c r="AN128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>19998.72</v>
       </c>
       <c r="AO128" s="42">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>39997.440000000002</v>
       </c>
       <c r="AP128" s="42">
@@ -47419,139 +47421,139 @@
       <c r="J129" s="28"/>
       <c r="K129" s="28"/>
       <c r="L129" s="32">
-        <f t="shared" ref="L129:AS129" si="128">L$69*$B$129</f>
+        <f t="shared" ref="L129:AS129" si="129">L$69*$B$129</f>
         <v>3.3125</v>
       </c>
       <c r="M129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>6.625</v>
       </c>
       <c r="N129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>13.25</v>
       </c>
       <c r="O129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>26.5</v>
       </c>
       <c r="P129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>53</v>
       </c>
       <c r="Q129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>106</v>
       </c>
       <c r="R129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>212</v>
       </c>
       <c r="S129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>424</v>
       </c>
       <c r="T129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>636</v>
       </c>
       <c r="U129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>699.6</v>
       </c>
       <c r="V129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>742</v>
       </c>
       <c r="W129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>784.4</v>
       </c>
       <c r="X129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>826.8</v>
       </c>
       <c r="Y129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>848</v>
       </c>
       <c r="Z129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1017.6</v>
       </c>
       <c r="AA129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1187.2</v>
       </c>
       <c r="AB129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1356.8</v>
       </c>
       <c r="AC129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1526.3999999999999</v>
       </c>
       <c r="AD129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1696</v>
       </c>
       <c r="AE129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>2035.2</v>
       </c>
       <c r="AF129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>2374.4</v>
       </c>
       <c r="AG129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>2713.6</v>
       </c>
       <c r="AH129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3052.7999999999997</v>
       </c>
       <c r="AI129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3392</v>
       </c>
       <c r="AJ129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>6784</v>
       </c>
       <c r="AK129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>13568</v>
       </c>
       <c r="AL129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>27136</v>
       </c>
       <c r="AM129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>54272</v>
       </c>
       <c r="AN129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>108544</v>
       </c>
       <c r="AO129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>217088</v>
       </c>
       <c r="AP129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>434176</v>
       </c>
       <c r="AQ129" s="84">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>868352</v>
       </c>
       <c r="AR129" s="33">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1736704</v>
       </c>
       <c r="AS129" s="84">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>2717204</v>
       </c>
       <c r="AT129" s="57"/>
@@ -47571,123 +47573,123 @@
       </c>
       <c r="K130" s="28"/>
       <c r="L130" s="41">
-        <f t="shared" ref="L130:AO130" si="129">L129*$J$130</f>
+        <f t="shared" ref="L130:AO130" si="130">L129*$J$130</f>
         <v>0.19874999999999998</v>
       </c>
       <c r="M130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.39749999999999996</v>
       </c>
       <c r="N130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.79499999999999993</v>
       </c>
       <c r="O130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="P130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>3.1799999999999997</v>
       </c>
       <c r="Q130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="R130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>12.719999999999999</v>
       </c>
       <c r="S130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>25.439999999999998</v>
       </c>
       <c r="T130" s="42">
-        <f t="shared" ref="T130:X130" si="130">T129*$J$130</f>
+        <f t="shared" ref="T130:X130" si="131">T129*$J$130</f>
         <v>38.159999999999997</v>
       </c>
       <c r="U130" s="42">
+        <f t="shared" si="131"/>
+        <v>41.975999999999999</v>
+      </c>
+      <c r="V130" s="42">
+        <f t="shared" ref="V130:W130" si="132">V129*$J$130</f>
+        <v>44.519999999999996</v>
+      </c>
+      <c r="W130" s="42">
+        <f t="shared" si="132"/>
+        <v>47.064</v>
+      </c>
+      <c r="X130" s="42">
+        <f t="shared" si="131"/>
+        <v>49.607999999999997</v>
+      </c>
+      <c r="Y130" s="42">
         <f t="shared" si="130"/>
-        <v>41.975999999999999</v>
-      </c>
-      <c r="V130" s="42">
-        <f t="shared" ref="V130:W130" si="131">V129*$J$130</f>
-        <v>44.519999999999996</v>
-      </c>
-      <c r="W130" s="42">
-        <f t="shared" si="131"/>
-        <v>47.064</v>
-      </c>
-      <c r="X130" s="42">
+        <v>50.879999999999995</v>
+      </c>
+      <c r="Z130" s="42">
+        <f t="shared" ref="Z130:AC130" si="133">Z129*$J$130</f>
+        <v>61.055999999999997</v>
+      </c>
+      <c r="AA130" s="42">
+        <f t="shared" si="133"/>
+        <v>71.231999999999999</v>
+      </c>
+      <c r="AB130" s="42">
+        <f t="shared" si="133"/>
+        <v>81.408000000000001</v>
+      </c>
+      <c r="AC130" s="42">
+        <f t="shared" si="133"/>
+        <v>91.583999999999989</v>
+      </c>
+      <c r="AD130" s="42">
         <f t="shared" si="130"/>
-        <v>49.607999999999997</v>
-      </c>
-      <c r="Y130" s="42">
-        <f t="shared" si="129"/>
-        <v>50.879999999999995</v>
-      </c>
-      <c r="Z130" s="42">
-        <f t="shared" ref="Z130:AC130" si="132">Z129*$J$130</f>
-        <v>61.055999999999997</v>
-      </c>
-      <c r="AA130" s="42">
-        <f t="shared" si="132"/>
-        <v>71.231999999999999</v>
-      </c>
-      <c r="AB130" s="42">
-        <f t="shared" si="132"/>
-        <v>81.408000000000001</v>
-      </c>
-      <c r="AC130" s="42">
-        <f t="shared" si="132"/>
-        <v>91.583999999999989</v>
-      </c>
-      <c r="AD130" s="42">
-        <f t="shared" si="129"/>
         <v>101.75999999999999</v>
       </c>
       <c r="AE130" s="42">
-        <f t="shared" ref="AE130:AH130" si="133">AE129*$J$130</f>
+        <f t="shared" ref="AE130:AH130" si="134">AE129*$J$130</f>
         <v>122.11199999999999</v>
       </c>
       <c r="AF130" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>142.464</v>
       </c>
       <c r="AG130" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>162.816</v>
       </c>
       <c r="AH130" s="42">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>183.16799999999998</v>
       </c>
       <c r="AI130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>203.51999999999998</v>
       </c>
       <c r="AJ130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>407.03999999999996</v>
       </c>
       <c r="AK130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>814.07999999999993</v>
       </c>
       <c r="AL130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1628.1599999999999</v>
       </c>
       <c r="AM130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>3256.3199999999997</v>
       </c>
       <c r="AN130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>6512.6399999999994</v>
       </c>
       <c r="AO130" s="42">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>13025.279999999999</v>
       </c>
       <c r="AP130" s="42">
@@ -47728,139 +47730,139 @@
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
       <c r="L131" s="32">
-        <f t="shared" ref="L131:AS131" si="134">L$69*$B$131</f>
+        <f t="shared" ref="L131:AS131" si="135">L$69*$B$131</f>
         <v>0.5625</v>
       </c>
       <c r="M131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.125</v>
       </c>
       <c r="N131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>2.25</v>
       </c>
       <c r="O131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4.5</v>
       </c>
       <c r="P131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>9</v>
       </c>
       <c r="Q131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>18</v>
       </c>
       <c r="R131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>36</v>
       </c>
       <c r="S131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>72</v>
       </c>
       <c r="T131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>107.99999999999999</v>
       </c>
       <c r="U131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>118.8</v>
       </c>
       <c r="V131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>125.99999999999999</v>
       </c>
       <c r="W131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>133.19999999999999</v>
       </c>
       <c r="X131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>140.39999999999998</v>
       </c>
       <c r="Y131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>144</v>
       </c>
       <c r="Z131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>172.79999999999998</v>
       </c>
       <c r="AA131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>201.6</v>
       </c>
       <c r="AB131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>230.39999999999998</v>
       </c>
       <c r="AC131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>259.2</v>
       </c>
       <c r="AD131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>288</v>
       </c>
       <c r="AE131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>345.59999999999997</v>
       </c>
       <c r="AF131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>403.2</v>
       </c>
       <c r="AG131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>460.79999999999995</v>
       </c>
       <c r="AH131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>518.4</v>
       </c>
       <c r="AI131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>576</v>
       </c>
       <c r="AJ131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1152</v>
       </c>
       <c r="AK131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>2304</v>
       </c>
       <c r="AL131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4608</v>
       </c>
       <c r="AM131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>9216</v>
       </c>
       <c r="AN131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>18432</v>
       </c>
       <c r="AO131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>36864</v>
       </c>
       <c r="AP131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>73728</v>
       </c>
       <c r="AQ131" s="84">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>147456</v>
       </c>
       <c r="AR131" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>294912</v>
       </c>
       <c r="AS131" s="84">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>461411.99999999994</v>
       </c>
       <c r="AT131" s="57"/>
@@ -47880,123 +47882,123 @@
       </c>
       <c r="K132" s="28"/>
       <c r="L132" s="41">
-        <f t="shared" ref="L132:AO132" si="135">L131*$J$132</f>
+        <f t="shared" ref="L132:AO132" si="136">L131*$J$132</f>
         <v>3.15E-2</v>
       </c>
       <c r="M132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>6.3E-2</v>
       </c>
       <c r="N132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.126</v>
       </c>
       <c r="O132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.252</v>
       </c>
       <c r="P132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.504</v>
       </c>
       <c r="Q132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1.008</v>
       </c>
       <c r="R132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2.016</v>
       </c>
       <c r="S132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4.032</v>
       </c>
       <c r="T132" s="42">
-        <f t="shared" ref="T132:X132" si="136">T131*$J$132</f>
+        <f t="shared" ref="T132:X132" si="137">T131*$J$132</f>
         <v>6.0479999999999992</v>
       </c>
       <c r="U132" s="42">
+        <f t="shared" si="137"/>
+        <v>6.6528</v>
+      </c>
+      <c r="V132" s="42">
+        <f t="shared" ref="V132:W132" si="138">V131*$J$132</f>
+        <v>7.0559999999999992</v>
+      </c>
+      <c r="W132" s="42">
+        <f t="shared" si="138"/>
+        <v>7.4591999999999992</v>
+      </c>
+      <c r="X132" s="42">
+        <f t="shared" si="137"/>
+        <v>7.8623999999999992</v>
+      </c>
+      <c r="Y132" s="42">
         <f t="shared" si="136"/>
-        <v>6.6528</v>
-      </c>
-      <c r="V132" s="42">
-        <f t="shared" ref="V132:W132" si="137">V131*$J$132</f>
-        <v>7.0559999999999992</v>
-      </c>
-      <c r="W132" s="42">
-        <f t="shared" si="137"/>
-        <v>7.4591999999999992</v>
-      </c>
-      <c r="X132" s="42">
+        <v>8.0640000000000001</v>
+      </c>
+      <c r="Z132" s="42">
+        <f t="shared" ref="Z132:AC132" si="139">Z131*$J$132</f>
+        <v>9.6768000000000001</v>
+      </c>
+      <c r="AA132" s="42">
+        <f t="shared" si="139"/>
+        <v>11.2896</v>
+      </c>
+      <c r="AB132" s="42">
+        <f t="shared" si="139"/>
+        <v>12.902399999999998</v>
+      </c>
+      <c r="AC132" s="42">
+        <f t="shared" si="139"/>
+        <v>14.5152</v>
+      </c>
+      <c r="AD132" s="42">
         <f t="shared" si="136"/>
-        <v>7.8623999999999992</v>
-      </c>
-      <c r="Y132" s="42">
-        <f t="shared" si="135"/>
-        <v>8.0640000000000001</v>
-      </c>
-      <c r="Z132" s="42">
-        <f t="shared" ref="Z132:AC132" si="138">Z131*$J$132</f>
-        <v>9.6768000000000001</v>
-      </c>
-      <c r="AA132" s="42">
-        <f t="shared" si="138"/>
-        <v>11.2896</v>
-      </c>
-      <c r="AB132" s="42">
-        <f t="shared" si="138"/>
-        <v>12.902399999999998</v>
-      </c>
-      <c r="AC132" s="42">
-        <f t="shared" si="138"/>
-        <v>14.5152</v>
-      </c>
-      <c r="AD132" s="42">
-        <f t="shared" si="135"/>
         <v>16.128</v>
       </c>
       <c r="AE132" s="42">
-        <f t="shared" ref="AE132:AH132" si="139">AE131*$J$132</f>
+        <f t="shared" ref="AE132:AH132" si="140">AE131*$J$132</f>
         <v>19.3536</v>
       </c>
       <c r="AF132" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>22.5792</v>
       </c>
       <c r="AG132" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>25.804799999999997</v>
       </c>
       <c r="AH132" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>29.0304</v>
       </c>
       <c r="AI132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>32.256</v>
       </c>
       <c r="AJ132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>64.512</v>
       </c>
       <c r="AK132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>129.024</v>
       </c>
       <c r="AL132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>258.048</v>
       </c>
       <c r="AM132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>516.096</v>
       </c>
       <c r="AN132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1032.192</v>
       </c>
       <c r="AO132" s="42">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2064.384</v>
       </c>
       <c r="AP132" s="42">
@@ -48037,139 +48039,139 @@
       <c r="J133" s="28"/>
       <c r="K133" s="28"/>
       <c r="L133" s="32">
-        <f t="shared" ref="L133:AS133" si="140">L$69*$B$133</f>
+        <f t="shared" ref="L133:AS133" si="141">L$69*$B$133</f>
         <v>4.75</v>
       </c>
       <c r="M133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>9.5</v>
       </c>
       <c r="N133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>19</v>
       </c>
       <c r="O133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>38</v>
       </c>
       <c r="P133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>76</v>
       </c>
       <c r="Q133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>152</v>
       </c>
       <c r="R133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>304</v>
       </c>
       <c r="S133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>608</v>
       </c>
       <c r="T133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>912</v>
       </c>
       <c r="U133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1003.1999999999999</v>
       </c>
       <c r="V133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1064</v>
       </c>
       <c r="W133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1124.8</v>
       </c>
       <c r="X133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1185.5999999999999</v>
       </c>
       <c r="Y133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1216</v>
       </c>
       <c r="Z133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1459.2</v>
       </c>
       <c r="AA133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1702.3999999999999</v>
       </c>
       <c r="AB133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1945.6</v>
       </c>
       <c r="AC133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2188.7999999999997</v>
       </c>
       <c r="AD133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2432</v>
       </c>
       <c r="AE133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2918.4</v>
       </c>
       <c r="AF133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3404.7999999999997</v>
       </c>
       <c r="AG133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3891.2</v>
       </c>
       <c r="AH133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>4377.5999999999995</v>
       </c>
       <c r="AI133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>4864</v>
       </c>
       <c r="AJ133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>9728</v>
       </c>
       <c r="AK133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>19456</v>
       </c>
       <c r="AL133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>38912</v>
       </c>
       <c r="AM133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>77824</v>
       </c>
       <c r="AN133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>155648</v>
       </c>
       <c r="AO133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>311296</v>
       </c>
       <c r="AP133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>622592</v>
       </c>
       <c r="AQ133" s="84">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1245184</v>
       </c>
       <c r="AR133" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2490368</v>
       </c>
       <c r="AS133" s="84">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3896368</v>
       </c>
       <c r="AT133" s="57"/>
@@ -48309,23 +48311,23 @@
         <v>21.40625</v>
       </c>
       <c r="M135" s="31">
-        <f t="shared" ref="M135:AO135" si="141">SUM(M123,M125,M127,M129,M131,M133)</f>
+        <f t="shared" ref="M135:AO135" si="142">SUM(M123,M125,M127,M129,M131,M133)</f>
         <v>42.8125</v>
       </c>
       <c r="N135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>85.625</v>
       </c>
       <c r="O135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>171.25</v>
       </c>
       <c r="P135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>342.5</v>
       </c>
       <c r="Q135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>685</v>
       </c>
       <c r="R135" s="31">
@@ -48333,111 +48335,111 @@
         <v>1370</v>
       </c>
       <c r="S135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>2740</v>
       </c>
       <c r="T135" s="31">
-        <f t="shared" ref="T135:X135" si="142">SUM(T123,T125,T127,T129,T131,T133)</f>
+        <f t="shared" ref="T135:X135" si="143">SUM(T123,T125,T127,T129,T131,T133)</f>
         <v>4110</v>
       </c>
       <c r="U135" s="31">
+        <f t="shared" si="143"/>
+        <v>4521</v>
+      </c>
+      <c r="V135" s="31">
+        <f t="shared" ref="V135:W135" si="144">SUM(V123,V125,V127,V129,V131,V133)</f>
+        <v>4795</v>
+      </c>
+      <c r="W135" s="31">
+        <f t="shared" si="144"/>
+        <v>5069</v>
+      </c>
+      <c r="X135" s="31">
+        <f t="shared" si="143"/>
+        <v>5343</v>
+      </c>
+      <c r="Y135" s="31">
         <f t="shared" si="142"/>
-        <v>4521</v>
-      </c>
-      <c r="V135" s="31">
-        <f t="shared" ref="V135:W135" si="143">SUM(V123,V125,V127,V129,V131,V133)</f>
-        <v>4795</v>
-      </c>
-      <c r="W135" s="31">
-        <f t="shared" si="143"/>
-        <v>5069</v>
-      </c>
-      <c r="X135" s="31">
+        <v>5480</v>
+      </c>
+      <c r="Z135" s="31">
+        <f t="shared" ref="Z135:AC135" si="145">SUM(Z123,Z125,Z127,Z129,Z131,Z133)</f>
+        <v>6576</v>
+      </c>
+      <c r="AA135" s="31">
+        <f t="shared" si="145"/>
+        <v>7672</v>
+      </c>
+      <c r="AB135" s="31">
+        <f t="shared" si="145"/>
+        <v>8768</v>
+      </c>
+      <c r="AC135" s="31">
+        <f t="shared" si="145"/>
+        <v>9864</v>
+      </c>
+      <c r="AD135" s="31">
         <f t="shared" si="142"/>
-        <v>5343</v>
-      </c>
-      <c r="Y135" s="31">
-        <f t="shared" si="141"/>
-        <v>5480</v>
-      </c>
-      <c r="Z135" s="31">
-        <f t="shared" ref="Z135:AC135" si="144">SUM(Z123,Z125,Z127,Z129,Z131,Z133)</f>
-        <v>6576</v>
-      </c>
-      <c r="AA135" s="31">
-        <f t="shared" si="144"/>
-        <v>7672</v>
-      </c>
-      <c r="AB135" s="31">
-        <f t="shared" si="144"/>
-        <v>8768</v>
-      </c>
-      <c r="AC135" s="31">
-        <f t="shared" si="144"/>
-        <v>9864</v>
-      </c>
-      <c r="AD135" s="31">
-        <f t="shared" si="141"/>
         <v>10960</v>
       </c>
       <c r="AE135" s="31">
-        <f t="shared" ref="AE135:AH135" si="145">SUM(AE123,AE125,AE127,AE129,AE131,AE133)</f>
+        <f t="shared" ref="AE135:AH135" si="146">SUM(AE123,AE125,AE127,AE129,AE131,AE133)</f>
         <v>13152</v>
       </c>
       <c r="AF135" s="31">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>15344</v>
       </c>
       <c r="AG135" s="31">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>17536</v>
       </c>
       <c r="AH135" s="31">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>19728</v>
       </c>
       <c r="AI135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>21920</v>
       </c>
       <c r="AJ135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>43840</v>
       </c>
       <c r="AK135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>87680</v>
       </c>
       <c r="AL135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>175360</v>
       </c>
       <c r="AM135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>350720</v>
       </c>
       <c r="AN135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>701440</v>
       </c>
       <c r="AO135" s="31">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1402880</v>
       </c>
       <c r="AP135" s="31">
-        <f t="shared" ref="AP135:AS136" si="146">SUM(AP123,AP125,AP127,AP129,AP131,AP133)</f>
+        <f t="shared" ref="AP135:AS136" si="147">SUM(AP123,AP125,AP127,AP129,AP131,AP133)</f>
         <v>2805760</v>
       </c>
       <c r="AQ135" s="72">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>5611520</v>
       </c>
       <c r="AR135" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11223040</v>
       </c>
       <c r="AS135" s="84">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>17559290</v>
       </c>
       <c r="AT135" s="57"/>
@@ -48461,135 +48463,135 @@
         <v>1.11640625</v>
       </c>
       <c r="M136" s="44">
-        <f t="shared" ref="M136:AO136" si="147">SUM(M124,M126,M128,M130,M132,M134)</f>
+        <f t="shared" ref="M136:AO136" si="148">SUM(M124,M126,M128,M130,M132,M134)</f>
         <v>2.2328125000000001</v>
       </c>
       <c r="N136" s="44">
+        <f t="shared" si="148"/>
+        <v>4.4656250000000002</v>
+      </c>
+      <c r="O136" s="44">
+        <f t="shared" si="148"/>
+        <v>8.9312500000000004</v>
+      </c>
+      <c r="P136" s="44">
+        <f t="shared" si="148"/>
+        <v>17.862500000000001</v>
+      </c>
+      <c r="Q136" s="44">
+        <f t="shared" si="148"/>
+        <v>35.725000000000001</v>
+      </c>
+      <c r="R136" s="44">
+        <f t="shared" si="148"/>
+        <v>71.45</v>
+      </c>
+      <c r="S136" s="44">
+        <f t="shared" si="148"/>
+        <v>142.9</v>
+      </c>
+      <c r="T136" s="44">
+        <f t="shared" ref="T136:X136" si="149">SUM(T124,T126,T128,T130,T132,T134)</f>
+        <v>214.35</v>
+      </c>
+      <c r="U136" s="44">
+        <f t="shared" si="149"/>
+        <v>235.78500000000003</v>
+      </c>
+      <c r="V136" s="44">
+        <f t="shared" ref="V136:W136" si="150">SUM(V124,V126,V128,V130,V132,V134)</f>
+        <v>250.07500000000002</v>
+      </c>
+      <c r="W136" s="44">
+        <f t="shared" si="150"/>
+        <v>264.36500000000001</v>
+      </c>
+      <c r="X136" s="44">
+        <f t="shared" si="149"/>
+        <v>278.65499999999997</v>
+      </c>
+      <c r="Y136" s="44">
+        <f t="shared" si="148"/>
+        <v>285.8</v>
+      </c>
+      <c r="Z136" s="44">
+        <f t="shared" ref="Z136:AC136" si="151">SUM(Z124,Z126,Z128,Z130,Z132,Z134)</f>
+        <v>342.96</v>
+      </c>
+      <c r="AA136" s="44">
+        <f t="shared" si="151"/>
+        <v>400.11999999999995</v>
+      </c>
+      <c r="AB136" s="44">
+        <f t="shared" si="151"/>
+        <v>457.28000000000003</v>
+      </c>
+      <c r="AC136" s="44">
+        <f t="shared" si="151"/>
+        <v>514.44000000000005</v>
+      </c>
+      <c r="AD136" s="44">
+        <f t="shared" si="148"/>
+        <v>571.6</v>
+      </c>
+      <c r="AE136" s="44">
+        <f t="shared" ref="AE136:AH136" si="152">SUM(AE124,AE126,AE128,AE130,AE132,AE134)</f>
+        <v>685.92</v>
+      </c>
+      <c r="AF136" s="44">
+        <f t="shared" si="152"/>
+        <v>800.2399999999999</v>
+      </c>
+      <c r="AG136" s="44">
+        <f t="shared" si="152"/>
+        <v>914.56000000000006</v>
+      </c>
+      <c r="AH136" s="44">
+        <f t="shared" si="152"/>
+        <v>1028.8800000000001</v>
+      </c>
+      <c r="AI136" s="44">
+        <f t="shared" si="148"/>
+        <v>1143.2</v>
+      </c>
+      <c r="AJ136" s="44">
+        <f t="shared" si="148"/>
+        <v>2286.4</v>
+      </c>
+      <c r="AK136" s="44">
+        <f t="shared" si="148"/>
+        <v>4572.8</v>
+      </c>
+      <c r="AL136" s="44">
+        <f t="shared" si="148"/>
+        <v>9145.6</v>
+      </c>
+      <c r="AM136" s="44">
+        <f t="shared" si="148"/>
+        <v>18291.2</v>
+      </c>
+      <c r="AN136" s="44">
+        <f t="shared" si="148"/>
+        <v>36582.400000000001</v>
+      </c>
+      <c r="AO136" s="44">
+        <f t="shared" si="148"/>
+        <v>73164.800000000003</v>
+      </c>
+      <c r="AP136" s="44">
         <f t="shared" si="147"/>
-        <v>4.4656250000000002</v>
-      </c>
-      <c r="O136" s="44">
+        <v>146329.60000000001</v>
+      </c>
+      <c r="AQ136" s="85">
         <f t="shared" si="147"/>
-        <v>8.9312500000000004</v>
-      </c>
-      <c r="P136" s="44">
+        <v>292659.20000000001</v>
+      </c>
+      <c r="AR136" s="44">
         <f t="shared" si="147"/>
-        <v>17.862500000000001</v>
-      </c>
-      <c r="Q136" s="44">
+        <v>585318.40000000002</v>
+      </c>
+      <c r="AS136" s="85">
         <f t="shared" si="147"/>
-        <v>35.725000000000001</v>
-      </c>
-      <c r="R136" s="44">
-        <f t="shared" si="147"/>
-        <v>71.45</v>
-      </c>
-      <c r="S136" s="44">
-        <f t="shared" si="147"/>
-        <v>142.9</v>
-      </c>
-      <c r="T136" s="44">
-        <f t="shared" ref="T136:X136" si="148">SUM(T124,T126,T128,T130,T132,T134)</f>
-        <v>214.35</v>
-      </c>
-      <c r="U136" s="44">
-        <f t="shared" si="148"/>
-        <v>235.78500000000003</v>
-      </c>
-      <c r="V136" s="44">
-        <f t="shared" ref="V136:W136" si="149">SUM(V124,V126,V128,V130,V132,V134)</f>
-        <v>250.07500000000002</v>
-      </c>
-      <c r="W136" s="44">
-        <f t="shared" si="149"/>
-        <v>264.36500000000001</v>
-      </c>
-      <c r="X136" s="44">
-        <f t="shared" si="148"/>
-        <v>278.65499999999997</v>
-      </c>
-      <c r="Y136" s="44">
-        <f t="shared" si="147"/>
-        <v>285.8</v>
-      </c>
-      <c r="Z136" s="44">
-        <f t="shared" ref="Z136:AC136" si="150">SUM(Z124,Z126,Z128,Z130,Z132,Z134)</f>
-        <v>342.96</v>
-      </c>
-      <c r="AA136" s="44">
-        <f t="shared" si="150"/>
-        <v>400.11999999999995</v>
-      </c>
-      <c r="AB136" s="44">
-        <f t="shared" si="150"/>
-        <v>457.28000000000003</v>
-      </c>
-      <c r="AC136" s="44">
-        <f t="shared" si="150"/>
-        <v>514.44000000000005</v>
-      </c>
-      <c r="AD136" s="44">
-        <f t="shared" si="147"/>
-        <v>571.6</v>
-      </c>
-      <c r="AE136" s="44">
-        <f t="shared" ref="AE136:AH136" si="151">SUM(AE124,AE126,AE128,AE130,AE132,AE134)</f>
-        <v>685.92</v>
-      </c>
-      <c r="AF136" s="44">
-        <f t="shared" si="151"/>
-        <v>800.2399999999999</v>
-      </c>
-      <c r="AG136" s="44">
-        <f t="shared" si="151"/>
-        <v>914.56000000000006</v>
-      </c>
-      <c r="AH136" s="44">
-        <f t="shared" si="151"/>
-        <v>1028.8800000000001</v>
-      </c>
-      <c r="AI136" s="44">
-        <f t="shared" si="147"/>
-        <v>1143.2</v>
-      </c>
-      <c r="AJ136" s="44">
-        <f t="shared" si="147"/>
-        <v>2286.4</v>
-      </c>
-      <c r="AK136" s="44">
-        <f t="shared" si="147"/>
-        <v>4572.8</v>
-      </c>
-      <c r="AL136" s="44">
-        <f t="shared" si="147"/>
-        <v>9145.6</v>
-      </c>
-      <c r="AM136" s="44">
-        <f t="shared" si="147"/>
-        <v>18291.2</v>
-      </c>
-      <c r="AN136" s="44">
-        <f t="shared" si="147"/>
-        <v>36582.400000000001</v>
-      </c>
-      <c r="AO136" s="44">
-        <f t="shared" si="147"/>
-        <v>73164.800000000003</v>
-      </c>
-      <c r="AP136" s="44">
-        <f t="shared" si="146"/>
-        <v>146329.60000000001</v>
-      </c>
-      <c r="AQ136" s="85">
-        <f t="shared" si="146"/>
-        <v>292659.20000000001</v>
-      </c>
-      <c r="AR136" s="44">
-        <f t="shared" si="146"/>
-        <v>585318.40000000002</v>
-      </c>
-      <c r="AS136" s="85">
-        <f t="shared" si="146"/>
         <v>915774.65</v>
       </c>
       <c r="AT136" s="57"/>
@@ -48760,7 +48762,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48804,7 +48806,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>28755</v>
+        <v>28898</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48813,7 +48815,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44218.892302199078</v>
+        <v>44241.687024999999</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48822,7 +48824,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>326.89230219907768</v>
+        <v>349.68702499999927</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48831,7 +48833,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>33.317174950890191</v>
+        <v>35.614456603332734</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48864,7 +48866,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>90578.25</v>
+        <v>91028.700000000012</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48873,7 +48875,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>58517.134512051554</v>
+        <v>60489.019853197169</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48882,7 +48884,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>32061.115487948446</v>
+        <v>30539.680146802843</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48896,7 +48898,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>23291.550000000003</v>
+        <v>23407.38</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48906,7 +48908,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>15047.263160241828</v>
+        <v>15554.319390822129</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48916,7 +48918,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>8244.2868397581751</v>
+        <v>7853.0606091778718</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48929,7 +48931,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>4025.7000000000003</v>
+        <v>4045.7200000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48938,7 +48940,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1452.4884933788703</v>
+        <v>1558.9241025851998</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48947,7 +48949,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2573.21150662113</v>
+        <v>2486.7958974148005</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48959,7 +48961,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>287.55</v>
+        <v>288.98</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48969,7 +48971,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>103.74917809849072</v>
+        <v>111.35172161322855</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48979,7 +48981,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>183.80082190150929</v>
+        <v>177.62827838677146</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -48989,7 +48991,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>905.78250000000003</v>
+        <v>910.28700000000003</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -48998,7 +49000,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>378.0438495446237</v>
+        <v>401.95251857935796</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49010,7 +49012,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>261.76016961973738</v>
+        <v>279.55413794186632</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49025,7 +49027,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44480.652471818816</v>
+        <v>44521.241162941864</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49037,7 +49039,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>90.681722293092079</v>
+        <v>96.679511054643925</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49049,7 +49051,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44309.574024492169</v>
+        <v>44338.366536054644</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49061,7 +49063,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>246.80405809481417</v>
+        <v>263.56677449811332</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49073,7 +49075,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44465.696360293892</v>
+        <v>44505.25379949811</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49082,7 +49084,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44248.892302199078</v>
+        <v>44271.687024999999</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49094,7 +49096,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>53674.964267053299</v>
+        <v>51813.362451880748</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49106,7 +49108,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>169076.1374412179</v>
+        <v>163212.09172342435</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49115,7 +49117,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>43476.721056313174</v>
+        <v>41968.823586023405</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49124,7 +49126,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>7514.4949973874627</v>
+        <v>7253.8707432633055</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49133,7 +49135,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>536.74964267053304</v>
+        <v>518.13362451880744</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49142,7 +49144,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1690.7613744121788</v>
+        <v>1632.1209172342435</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7141789-3F2E-4727-B1BE-C13888D5A457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5CA40A-8716-4E03-A074-0C49E1F4785F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -2298,46 +2298,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,46 +2447,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,46 +2596,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,6 +4074,9 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="#,##0">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
                   <c:v>909</c:v>
                 </c:pt>
               </c:numCache>
@@ -14374,6 +14377,9 @@
                 <c:pt idx="22" formatCode="#,##0">
                   <c:v>909</c:v>
                 </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>909</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14701,46 +14707,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14841,46 +14847,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14984,46 +14990,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15121,46 +15127,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15528,46 +15534,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15677,46 +15683,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15826,46 +15832,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16243,46 +16249,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16383,46 +16389,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16526,46 +16532,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16663,46 +16669,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.687025115738</c:v>
+                  <c:v>44211.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.687025115738</c:v>
+                  <c:v>44214.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.687025115738</c:v>
+                  <c:v>44217.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.687025115738</c:v>
+                  <c:v>44220.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.687025115738</c:v>
+                  <c:v>44223.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.687025115738</c:v>
+                  <c:v>44226.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.687025115738</c:v>
+                  <c:v>44229.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.687025115738</c:v>
+                  <c:v>44232.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.687025115738</c:v>
+                  <c:v>44235.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.687025115738</c:v>
+                  <c:v>44238.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.687025115738</c:v>
+                  <c:v>44241.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.687025115738</c:v>
+                  <c:v>44244.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.687025115738</c:v>
+                  <c:v>44247.87257013889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.687025115738</c:v>
+                  <c:v>44250.87257013889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37610,167 +37616,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44201.687025115738</v>
+        <v>44211.87257013889</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44202.687025115738</v>
+        <v>44212.87257013889</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44203.687025115738</v>
+        <v>44213.87257013889</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44204.687025115738</v>
+        <v>44214.87257013889</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44205.687025115738</v>
+        <v>44215.87257013889</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44206.687025115738</v>
+        <v>44216.87257013889</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44207.687025115738</v>
+        <v>44217.87257013889</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44208.687025115738</v>
+        <v>44218.87257013889</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44209.687025115738</v>
+        <v>44219.87257013889</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44210.687025115738</v>
+        <v>44220.87257013889</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44211.687025115738</v>
+        <v>44221.87257013889</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44212.687025115738</v>
+        <v>44222.87257013889</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44213.687025115738</v>
+        <v>44223.87257013889</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44214.687025115738</v>
+        <v>44224.87257013889</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44215.687025115738</v>
+        <v>44225.87257013889</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44216.687025115738</v>
+        <v>44226.87257013889</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44217.687025115738</v>
+        <v>44227.87257013889</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44218.687025115738</v>
+        <v>44228.87257013889</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44219.687025115738</v>
+        <v>44229.87257013889</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44220.687025115738</v>
+        <v>44230.87257013889</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44221.687025115738</v>
+        <v>44231.87257013889</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44222.687025115738</v>
+        <v>44232.87257013889</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44223.687025115738</v>
+        <v>44233.87257013889</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44224.687025115738</v>
+        <v>44234.87257013889</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44225.687025115738</v>
+        <v>44235.87257013889</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44226.687025115738</v>
+        <v>44236.87257013889</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44227.687025115738</v>
+        <v>44237.87257013889</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44228.687025115738</v>
+        <v>44238.87257013889</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44229.687025115738</v>
+        <v>44239.87257013889</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44230.687025115738</v>
+        <v>44240.87257013889</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44231.687025115738</v>
+        <v>44241.87257013889</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44232.687025115738</v>
+        <v>44242.87257013889</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44233.687025115738</v>
+        <v>44243.87257013889</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44234.687025115738</v>
+        <v>44244.87257013889</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44235.687025115738</v>
+        <v>44245.87257013889</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44236.687025115738</v>
+        <v>44246.87257013889</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44237.687025115738</v>
+        <v>44247.87257013889</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44238.687025115738</v>
+        <v>44248.87257013889</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44239.687025115738</v>
+        <v>44249.87257013889</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44240.687025115738</v>
+        <v>44250.87257013889</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44241.687025115738</v>
+        <v>44251.87257013889</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -38288,8 +38294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AW136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK66" sqref="AK66"/>
+    <sheetView tabSelected="1" topLeftCell="F47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42991,7 +42997,9 @@
         <f t="shared" ref="AH95" si="80">AH92-AH94-AH96</f>
         <v>26035</v>
       </c>
-      <c r="AI95" s="303"/>
+      <c r="AI95" s="303">
+        <v>26156</v>
+      </c>
       <c r="AJ95" s="200"/>
       <c r="AK95" s="200"/>
       <c r="AL95" s="200"/>
@@ -43087,7 +43095,9 @@
       <c r="AH96" s="64">
         <v>909</v>
       </c>
-      <c r="AI96" s="304"/>
+      <c r="AI96" s="304">
+        <v>909</v>
+      </c>
       <c r="AJ96" s="201"/>
       <c r="AK96" s="201"/>
       <c r="AL96" s="201"/>
@@ -48762,7 +48772,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48806,7 +48816,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>28898</v>
+        <v>28939</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48815,7 +48825,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44241.687024999999</v>
+        <v>44251.87257013889</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48824,7 +48834,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>349.68702499999927</v>
+        <v>359.8725701388903</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48833,7 +48843,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>35.614456603332734</v>
+        <v>36.644186695567683</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48866,7 +48876,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>91028.700000000012</v>
+        <v>91157.85</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48875,7 +48885,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>60489.019853197169</v>
+        <v>61274.562436789267</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48884,7 +48894,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>30539.680146802843</v>
+        <v>29883.287563210739</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48898,7 +48908,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>23407.38</v>
+        <v>23440.59</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48908,7 +48918,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>15554.319390822129</v>
+        <v>15756.316055174382</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48918,7 +48928,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>7853.0606091778718</v>
+        <v>7684.2739448256179</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48931,7 +48941,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>4045.7200000000003</v>
+        <v>4051.4600000000005</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48940,7 +48950,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1558.9241025851998</v>
+        <v>1603.5378933122947</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48949,7 +48959,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2486.7958974148005</v>
+        <v>2447.9221066877058</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48961,7 +48971,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>288.98</v>
+        <v>289.39</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48971,7 +48981,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>111.35172161322855</v>
+        <v>114.53842095087819</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48981,7 +48991,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>177.62827838677146</v>
+        <v>174.8515790491218</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -48991,7 +49001,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>910.28700000000003</v>
+        <v>911.57849999999996</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -49000,7 +49010,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>401.95251857935796</v>
+        <v>411.87588362603867</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49012,7 +49022,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>279.55413794186632</v>
+        <v>287.562007010326</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49027,7 +49037,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44521.241162941864</v>
+        <v>44539.434577149215</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49039,7 +49049,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>96.679511054643925</v>
+        <v>99.399878238422644</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49051,7 +49061,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44338.366536054644</v>
+        <v>44351.272448377313</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49063,7 +49073,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>263.56677449811332</v>
+        <v>271.11239674874605</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49075,7 +49085,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44505.25379949811</v>
+        <v>44522.984966887634</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49084,7 +49094,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44271.687024999999</v>
+        <v>44281.87257013889</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49096,7 +49106,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>51813.362451880748</v>
+        <v>51042.493722432126</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49108,7 +49118,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>163212.09172342435</v>
+        <v>160783.85522566122</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49117,7 +49127,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>41968.823586023405</v>
+        <v>41344.419915170023</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49126,7 +49136,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>7253.8707432633055</v>
+        <v>7145.9491211404984</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49135,7 +49145,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>518.13362451880744</v>
+        <v>510.42493722432124</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49144,7 +49154,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1632.1209172342435</v>
+        <v>1607.838552256612</v>
       </c>
     </row>
   </sheetData>

--- a/Australian COVID-19 Infection Projections 20200315.xlsx
+++ b/Australian COVID-19 Infection Projections 20200315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5CA40A-8716-4E03-A074-0C49E1F4785F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5156D8-20C9-4119-B5FC-FEC97212B58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -2298,46 +2298,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,46 +2447,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,46 +2596,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14707,46 +14707,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14847,46 +14847,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14990,46 +14990,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15127,46 +15127,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15534,46 +15534,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15683,46 +15683,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15832,46 +15832,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16249,46 +16249,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16389,46 +16389,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16532,46 +16532,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16669,46 +16669,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.87257013889</c:v>
+                  <c:v>44216.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.87257013889</c:v>
+                  <c:v>44219.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.87257013889</c:v>
+                  <c:v>44222.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.87257013889</c:v>
+                  <c:v>44225.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.87257013889</c:v>
+                  <c:v>44228.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.87257013889</c:v>
+                  <c:v>44231.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.87257013889</c:v>
+                  <c:v>44234.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.87257013889</c:v>
+                  <c:v>44237.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.87257013889</c:v>
+                  <c:v>44240.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.87257013889</c:v>
+                  <c:v>44243.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.87257013889</c:v>
+                  <c:v>44246.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.87257013889</c:v>
+                  <c:v>44249.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.87257013889</c:v>
+                  <c:v>44252.878484606481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.87257013889</c:v>
+                  <c:v>44255.878484606481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37616,167 +37616,167 @@
       </c>
       <c r="B26" s="102">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44211.87257013889</v>
+        <v>44216.878484606481</v>
       </c>
       <c r="C26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44212.87257013889</v>
+        <v>44217.878484606481</v>
       </c>
       <c r="D26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44213.87257013889</v>
+        <v>44218.878484606481</v>
       </c>
       <c r="E26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44214.87257013889</v>
+        <v>44219.878484606481</v>
       </c>
       <c r="F26" s="103">
         <f t="shared" ca="1" si="0"/>
-        <v>44215.87257013889</v>
+        <v>44220.878484606481</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>44216.87257013889</v>
+        <v>44221.878484606481</v>
       </c>
       <c r="H26" s="103">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44217.87257013889</v>
+        <v>44222.878484606481</v>
       </c>
       <c r="I26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44218.87257013889</v>
+        <v>44223.878484606481</v>
       </c>
       <c r="J26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44219.87257013889</v>
+        <v>44224.878484606481</v>
       </c>
       <c r="K26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44220.87257013889</v>
+        <v>44225.878484606481</v>
       </c>
       <c r="L26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44221.87257013889</v>
+        <v>44226.878484606481</v>
       </c>
       <c r="M26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44222.87257013889</v>
+        <v>44227.878484606481</v>
       </c>
       <c r="N26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44223.87257013889</v>
+        <v>44228.878484606481</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ca="1" si="1"/>
-        <v>44224.87257013889</v>
+        <v>44229.878484606481</v>
       </c>
       <c r="P26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44225.87257013889</v>
+        <v>44230.878484606481</v>
       </c>
       <c r="Q26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44226.87257013889</v>
+        <v>44231.878484606481</v>
       </c>
       <c r="R26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44227.87257013889</v>
+        <v>44232.878484606481</v>
       </c>
       <c r="S26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44228.87257013889</v>
+        <v>44233.878484606481</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" ca="1" si="1"/>
-        <v>44229.87257013889</v>
+        <v>44234.878484606481</v>
       </c>
       <c r="U26" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>44230.87257013889</v>
+        <v>44235.878484606481</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44231.87257013889</v>
+        <v>44236.878484606481</v>
       </c>
       <c r="W26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44232.87257013889</v>
+        <v>44237.878484606481</v>
       </c>
       <c r="X26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44233.87257013889</v>
+        <v>44238.878484606481</v>
       </c>
       <c r="Y26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44234.87257013889</v>
+        <v>44239.878484606481</v>
       </c>
       <c r="Z26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44235.87257013889</v>
+        <v>44240.878484606481</v>
       </c>
       <c r="AA26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44236.87257013889</v>
+        <v>44241.878484606481</v>
       </c>
       <c r="AB26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44237.87257013889</v>
+        <v>44242.878484606481</v>
       </c>
       <c r="AC26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44238.87257013889</v>
+        <v>44243.878484606481</v>
       </c>
       <c r="AD26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44239.87257013889</v>
+        <v>44244.878484606481</v>
       </c>
       <c r="AE26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44240.87257013889</v>
+        <v>44245.878484606481</v>
       </c>
       <c r="AF26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44241.87257013889</v>
+        <v>44246.878484606481</v>
       </c>
       <c r="AG26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44242.87257013889</v>
+        <v>44247.878484606481</v>
       </c>
       <c r="AH26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44243.87257013889</v>
+        <v>44248.878484606481</v>
       </c>
       <c r="AI26" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>44244.87257013889</v>
+        <v>44249.878484606481</v>
       </c>
       <c r="AJ26" s="102">
         <f t="shared" ca="1" si="2"/>
-        <v>44245.87257013889</v>
+        <v>44250.878484606481</v>
       </c>
       <c r="AK26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44246.87257013889</v>
+        <v>44251.878484606481</v>
       </c>
       <c r="AL26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44247.87257013889</v>
+        <v>44252.878484606481</v>
       </c>
       <c r="AM26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44248.87257013889</v>
+        <v>44253.878484606481</v>
       </c>
       <c r="AN26" s="103">
         <f t="shared" ca="1" si="2"/>
-        <v>44249.87257013889</v>
+        <v>44254.878484606481</v>
       </c>
       <c r="AO26" s="103">
         <f ca="1">AP26-1</f>
-        <v>44250.87257013889</v>
+        <v>44255.878484606481</v>
       </c>
       <c r="AP26" s="124">
         <f ca="1">NOW()</f>
-        <v>44251.87257013889</v>
+        <v>44256.878484606481</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -38295,7 +38295,7 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ64" sqref="AJ64"/>
+      <selection activeCell="AJ62" sqref="AJ62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42998,7 +42998,7 @@
         <v>26035</v>
       </c>
       <c r="AI95" s="303">
-        <v>26156</v>
+        <v>26175</v>
       </c>
       <c r="AJ95" s="200"/>
       <c r="AK95" s="200"/>
@@ -48772,7 +48772,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48816,7 +48816,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="179">
-        <v>28939</v>
+        <v>28975</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -48825,7 +48825,7 @@
       </c>
       <c r="C7" s="177">
         <f ca="1">NOW()</f>
-        <v>44251.87257013889</v>
+        <v>44256.878484606481</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C8" s="178">
         <f ca="1">C7-C5</f>
-        <v>359.8725701388903</v>
+        <v>364.87848460648092</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -48843,7 +48843,7 @@
       </c>
       <c r="C9" s="180">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>36.644186695567683</v>
+        <v>37.147131891250361</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="C12" s="185">
         <f>C6/Projections!B57</f>
-        <v>91157.85</v>
+        <v>91271.25</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48885,7 +48885,7 @@
       </c>
       <c r="C13" s="186">
         <f ca="1">(C4/Projections!B57)*(2^(((C7-21)-C5)/C9))</f>
-        <v>61274.562436789267</v>
+        <v>61681.631979166312</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="81" customFormat="1" x14ac:dyDescent="0.25">
@@ -48894,7 +48894,7 @@
       </c>
       <c r="C14" s="165">
         <f ca="1">C12-C13</f>
-        <v>29883.287563210739</v>
+        <v>29589.618020833688</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" s="183" t="s">
@@ -48908,7 +48908,7 @@
       </c>
       <c r="C15" s="76">
         <f>C6*Projections!B61</f>
-        <v>23440.59</v>
+        <v>23469.75</v>
       </c>
       <c r="I15" s="176"/>
     </row>
@@ -48918,7 +48918,7 @@
       </c>
       <c r="C16" s="95">
         <f ca="1">(C4*Projections!B61)*(2^(((C7-21)-C5)/C9))</f>
-        <v>15756.316055174382</v>
+        <v>15860.991080357051</v>
       </c>
       <c r="I16" s="176"/>
     </row>
@@ -48928,7 +48928,7 @@
       </c>
       <c r="C17" s="95">
         <f ca="1">C15-C16</f>
-        <v>7684.2739448256179</v>
+        <v>7608.758919642949</v>
       </c>
       <c r="F17" t="s">
         <v>244</v>
@@ -48941,7 +48941,7 @@
       </c>
       <c r="C18" s="76">
         <f>C6*Projections!B62</f>
-        <v>4051.4600000000005</v>
+        <v>4056.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -48950,7 +48950,7 @@
       </c>
       <c r="C19" s="95">
         <f ca="1">(C4*Projections!B62)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1603.5378933122947</v>
+        <v>1625.8075931015642</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -48959,7 +48959,7 @@
       </c>
       <c r="C20" s="95">
         <f ca="1">C18-C19</f>
-        <v>2447.9221066877058</v>
+        <v>2430.6924068984363</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
@@ -48971,7 +48971,7 @@
       </c>
       <c r="C21" s="76">
         <f>C6*Projections!B63</f>
-        <v>289.39</v>
+        <v>289.75</v>
       </c>
       <c r="I21" s="176"/>
     </row>
@@ -48981,7 +48981,7 @@
       </c>
       <c r="C22" s="95">
         <f ca="1">(C4*Projections!B63)*(2^(((C7-49)-C5)/C9))</f>
-        <v>114.53842095087819</v>
+        <v>116.12911379296885</v>
       </c>
       <c r="I22" s="176"/>
     </row>
@@ -48991,7 +48991,7 @@
       </c>
       <c r="C23" s="95">
         <f ca="1">C21-C22</f>
-        <v>174.8515790491218</v>
+        <v>173.62088620703116</v>
       </c>
       <c r="I23" s="176"/>
     </row>
@@ -49001,7 +49001,7 @@
       </c>
       <c r="C24" s="76">
         <f>C6*Projections!B64</f>
-        <v>911.57849999999996</v>
+        <v>912.71249999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -49010,7 +49010,7 @@
       </c>
       <c r="C25" s="73">
         <f ca="1">(C4*Projections!B64)*(2^(((C7-42)-C5)/C9))</f>
-        <v>411.87588362603867</v>
+        <v>416.84799141167741</v>
       </c>
       <c r="F25" t="s">
         <v>255</v>
@@ -49022,7 +49022,7 @@
       </c>
       <c r="C26" s="189">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>287.562007010326</v>
+        <v>291.44219807432393</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="C27" s="188">
         <f ca="1">C7+C26</f>
-        <v>44539.434577149215</v>
+        <v>44548.320682680802</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="C28" s="187">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>99.399878238422644</v>
+        <v>100.69752491519039</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -49061,7 +49061,7 @@
       </c>
       <c r="C29" s="188">
         <f ca="1">C7+C28</f>
-        <v>44351.272448377313</v>
+        <v>44357.576009521668</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="C30" s="187">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>271.11239674874605</v>
+        <v>274.76681523602815</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -49085,7 +49085,7 @@
       </c>
       <c r="C31" s="188">
         <f ca="1">C7+C30</f>
-        <v>44522.984966887634</v>
+        <v>44531.645299842508</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -49094,7 +49094,7 @@
       </c>
       <c r="C34" s="177">
         <f ca="1">C7+30</f>
-        <v>44281.87257013889</v>
+        <v>44286.878484606481</v>
       </c>
       <c r="F34" t="s">
         <v>275</v>
@@ -49106,7 +49106,7 @@
       </c>
       <c r="C35" s="95">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>51042.493722432126</v>
+        <v>50714.842017994022</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -49118,7 +49118,7 @@
       </c>
       <c r="C36" s="95">
         <f ca="1">C35/Projections!B57</f>
-        <v>160783.85522566122</v>
+        <v>159751.75235668119</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -49127,7 +49127,7 @@
       </c>
       <c r="C37" s="95">
         <f ca="1">C35*Projections!B61</f>
-        <v>41344.419915170023</v>
+        <v>41079.022034575159</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -49136,7 +49136,7 @@
       </c>
       <c r="C38" s="95">
         <f ca="1">C35*Projections!B62</f>
-        <v>7145.9491211404984</v>
+        <v>7100.0778825191637</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -49145,7 +49145,7 @@
       </c>
       <c r="C39" s="95">
         <f ca="1">C35*Projections!B63</f>
-        <v>510.42493722432124</v>
+        <v>507.14842017994022</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -49154,7 +49154,7 @@
       </c>
       <c r="C40" s="73">
         <f ca="1">C35*Projections!B64</f>
-        <v>1607.838552256612</v>
+        <v>1597.5175235668116</v>
       </c>
     </row>
   </sheetData>
